--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A37DAE1A-BBEA-4E6A-8AFF-172D42D8D5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FECBBC4B-91A8-4C27-B311-FA516FF4C590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="188">
   <si>
     <t>Column1</t>
   </si>
@@ -723,8 +723,18 @@
 </t>
   </si>
   <si>
+    <t>Dependencies for theTAC and Admin</t>
+  </si>
+  <si>
     <t xml:space="preserve">8:45-9:00 - Brainstorming with team
-9:00-10:00 - Designed Layout for HomePage
+9:00-10:30 - Created Architecture diagram in entity level for TAC and Admin
+10:30-10:50 -Break
+11:00-12:20 - Created Architecture diagram in Service level for TAC and Admin
+12:20-12:45 - Created HLD document                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:45-9:00 - Brainstorming with team
+9:00-10:00 - Referred Bootstrap and designed common layout 
 10:15-10:50 - Proxy Pattern session with Rafi
 10:50-11:00 - Break
 11:00-12:10 - Designing Layout for Dashboard </t>
@@ -733,7 +743,17 @@
     <t>40mins</t>
   </si>
   <si>
-    <t xml:space="preserve">Seeking for more NFR and Pain points. </t>
+    <t>Dependencies for the 2 Users (Interviewer, Management)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:45-9:00 - Brainstorming 
+9:00-10:30 - Created Architecture diagram in entity level for interviewer and management.
+10:30-10:50 -Break
+11:00-12:20 - Created Architecture diagram in Service level for interviewer and management.
+12:20-12:45 - Created HLD document                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seeking for more NFR and Pain points, Interactions. </t>
   </si>
   <si>
     <t xml:space="preserve">8.45 am - 9.00 am : Discussion with team mates.
@@ -8297,8 +8317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164F129C-4B66-4886-90DA-03408C042996}">
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8423,19 +8443,19 @@
         <v>17</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>166</v>
+        <v>180</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>181</v>
       </c>
       <c r="E9" s="35" t="s">
         <v>41</v>
       </c>
       <c r="F9" s="35">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="G9" s="35">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H9" s="24"/>
     </row>
@@ -8447,7 +8467,7 @@
         <v>167</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E10" s="35" t="s">
         <v>41</v>
@@ -8456,7 +8476,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H10" s="24"/>
     </row>
@@ -8545,19 +8565,19 @@
         <v>31</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E15" s="35" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="45">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="G15" s="35">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H15" s="26"/>
     </row>
@@ -8585,10 +8605,10 @@
         <v>54</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>41</v>

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FECBBC4B-91A8-4C27-B311-FA516FF4C590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B45E5435-ECAA-4EF1-847C-788EE353FE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="190">
   <si>
     <t>Column1</t>
   </si>
@@ -741,6 +741,15 @@
   </si>
   <si>
     <t>40mins</t>
+  </si>
+  <si>
+    <t>Have to explore more on Angular Concepts(Two way binding)                                          .                                                           Have to start working on Api Implementations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45 to 9.00 am      : Brainstorming with team 
+9.10 to 10.30 am    : Refined Drive entity, Location Entity , Response Entity Operations
+11.00 to 12.30 am  : Coded  Services in Visual Studios(All Services)
+</t>
   </si>
   <si>
     <t>Dependencies for the 2 Users (Interviewer, Management)</t>
@@ -8317,8 +8326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164F129C-4B66-4886-90DA-03408C042996}">
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8523,19 +8532,19 @@
         <v>27</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>41</v>
       </c>
       <c r="F13" s="35">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="G13" s="35">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="H13" s="25"/>
     </row>
@@ -8565,10 +8574,10 @@
         <v>31</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E15" s="35" t="s">
         <v>41</v>
@@ -8605,10 +8614,10 @@
         <v>54</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>41</v>

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B45E5435-ECAA-4EF1-847C-788EE353FE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0ED14C3-DF0A-4F85-83B5-02CA4EB343B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="192">
   <si>
     <t>Column1</t>
   </si>
@@ -760,6 +760,15 @@
 10:30-10:50 -Break
 11:00-12:20 - Created Architecture diagram in Service level for interviewer and management.
 12:20-12:45 - Created HLD document                                                     </t>
+  </si>
+  <si>
+    <t>Have to Learn and work on WebAPI</t>
+  </si>
+  <si>
+    <t>8.45 am - 9.00 am : Brainstorming with Team
+9.00 am - 10.30 am : Added operations(available responses, Employee) 
+10.45 am - 11.30 am : Refined operations (Project, Departement,cancellation reason)
+11.30 am - 12.30 am : Refined operations in Drive model and aligned Logical Diagram</t>
   </si>
   <si>
     <t xml:space="preserve">Seeking for more NFR and Pain points, Interactions. </t>
@@ -8326,8 +8335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164F129C-4B66-4886-90DA-03408C042996}">
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8595,17 +8604,17 @@
         <v>34</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="35">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="G16" s="35">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="H16" s="27"/>
     </row>
@@ -8614,10 +8623,10 @@
         <v>54</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>41</v>

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F94AC0C-E3D5-48AA-9B58-A2755588C64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81FD361D-8EC2-4F7B-A06C-1B4981A39D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 3(06-04-2022)" sheetId="40" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="200">
   <si>
     <t>Column1</t>
   </si>
@@ -813,6 +813,10 @@
     <t>8.45Am-9.00Am Brainstorming with team
 9.00Am-10.00Am Explored   on webapi (what is WebAPI)
 10.30Am-11.30Am Refined NFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:45 to 9:00 - Brainstorming with team                                  9.00 to 9.30-Studied Different layers in layered software pattern architecture                                          9.30 to 10.30 -Created Layered system architecture diagram fot IMS                                                              10.40 to 11.00-Break
+11.10to 12.30-Created Service Interaction Diagram with Refined Services                                                </t>
   </si>
   <si>
     <t>8.45 - 9.00 : Brainstorming with Team
@@ -9251,8 +9255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FFC9C9-2848-4E62-84AF-44A9BCE5AD3F}">
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9502,7 +9506,7 @@
         <v>189</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E15" s="35" t="s">
         <v>41</v>
@@ -9523,7 +9527,7 @@
         <v>191</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="35">

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81FD361D-8EC2-4F7B-A06C-1B4981A39D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61259B79-2784-48D8-ACAB-74FC19375E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="201">
   <si>
     <t>Column1</t>
   </si>
@@ -813,6 +813,12 @@
     <t>8.45Am-9.00Am Brainstorming with team
 9.00Am-10.00Am Explored   on webapi (what is WebAPI)
 10.30Am-11.30Am Refined NFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45 to 9.00 am (15mins): Brainstorming with team 
+9.10 to 10.30 am (1hr 20mins) : Refined Drive entity, Location Entity , Response Entity Operations
+11.00 to 12.00 (1hr): Refined Employee Operations 
+</t>
   </si>
   <si>
     <t xml:space="preserve">8:45 to 9:00 - Brainstorming with team                                  9.00 to 9.30-Studied Different layers in layered software pattern architecture                                          9.30 to 10.30 -Created Layered system architecture diagram fot IMS                                                              10.40 to 11.00-Break
@@ -9255,8 +9261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FFC9C9-2848-4E62-84AF-44A9BCE5AD3F}">
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9464,13 +9470,13 @@
         <v>186</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>41</v>
       </c>
       <c r="F13" s="35">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="G13" s="35">
         <v>0</v>
@@ -9506,7 +9512,7 @@
         <v>189</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E15" s="35" t="s">
         <v>41</v>
@@ -9527,7 +9533,7 @@
         <v>191</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="35">

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61259B79-2784-48D8-ACAB-74FC19375E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C53BB77F-844D-48EE-86D8-DDF55DD00178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="203">
   <si>
     <t>Column1</t>
   </si>
@@ -828,6 +828,18 @@
     <t>8.45 - 9.00 : Brainstorming with Team
 9.00 - 10.40 : Updated data model (Drive)
 11.00 - 12.30 : refined data model (Pool, Pool member, Location, Department, Project)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45 am - 9.00 am : Brainstorming with team mates.
+9.00 am - 10.00 am : Clear Refinement of NFR (Replaced Subjective words).
+10.00 am - 10.30 am : Datamodel Understanding - 
+10.30 am - 10.45 am : BREAK
+10.45 am - 11.15 am : Google API - calender (Event,calender list, settings) and Google workspace.
+11:15 am - 12:15 pm : converting sheets to document format. (NFR)
+</t>
   </si>
 </sst>
 </file>
@@ -9261,8 +9273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FFC9C9-2848-4E62-84AF-44A9BCE5AD3F}">
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9549,19 +9561,19 @@
         <v>54</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="42">
-        <v>3</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>41</v>
+        <v>2.5</v>
+      </c>
+      <c r="G17" s="42">
+        <v>0.5</v>
       </c>
       <c r="H17" s="28"/>
     </row>

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C53BB77F-844D-48EE-86D8-DDF55DD00178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{194F28A6-0749-4569-ACE8-9F41166EA327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="204">
   <si>
     <t>Column1</t>
   </si>
@@ -819,6 +819,13 @@
 9.10 to 10.30 am (1hr 20mins) : Refined Drive entity, Location Entity , Response Entity Operations
 11.00 to 12.00 (1hr): Refined Employee Operations 
 </t>
+  </si>
+  <si>
+    <t>8:45 to 9:00  - Brainstorming
+9:00 to 10:00 - Desiging the common layout page 
+10:00 to 10:30 -Desiging the layout page for TAC(Home)
+10:45 to 11:00 -Break
+11:00 to 12:30 - Continuation on the desining the page for upcomming drives.</t>
   </si>
   <si>
     <t xml:space="preserve">8:45 to 9:00 - Brainstorming with team                                  9.00 to 9.30-Studied Different layers in layered software pattern architecture                                          9.30 to 10.30 -Created Layered system architecture diagram fot IMS                                                              10.40 to 11.00-Break
@@ -9273,8 +9280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FFC9C9-2848-4E62-84AF-44A9BCE5AD3F}">
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9503,7 +9510,7 @@
         <v>123</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="E14" s="35" t="s">
         <v>41</v>
@@ -9524,7 +9531,7 @@
         <v>189</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E15" s="35" t="s">
         <v>41</v>
@@ -9545,7 +9552,7 @@
         <v>191</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="35">
@@ -9561,10 +9568,10 @@
         <v>54</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>41</v>

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65CC0D61-3DCB-485F-8BB2-886EE071A62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E207811E-8480-4F67-969B-C2C01F5F0A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="225">
   <si>
     <t>Column1</t>
   </si>
@@ -883,6 +883,19 @@
 10.45 am - 11.15 am : Google API - calender (Event,calender list, settings) and Google workspace.
 11:15 am - 12:15 pm : converting sheets to document format. (NFR)
 </t>
+  </si>
+  <si>
+    <t>Exploring WEB API</t>
+  </si>
+  <si>
+    <t>9:30-10:00 -Brainstorming with team
+10:00 -11:20-Reviewed and Refined Data model
+11:20-11:40-Break
+11:45-12:20-Continued Refining the data model
+12:20-12-:50-System Allocation</t>
+  </si>
+  <si>
+    <t>50 mins</t>
   </si>
   <si>
     <t>Working on Layouts(Interviewer)</t>
@@ -10240,7 +10253,7 @@
   <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10365,19 +10378,19 @@
         <v>17</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="E9" s="35" t="s">
         <v>41</v>
       </c>
       <c r="F9" s="35">
-        <v>3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="H9" s="24"/>
     </row>
@@ -10386,10 +10399,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E10" s="35" t="s">
         <v>41</v>
@@ -10398,7 +10411,7 @@
         <v>2.15</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H10" s="24"/>
     </row>
@@ -10407,10 +10420,10 @@
         <v>21</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E11" s="35" t="s">
         <v>41</v>
@@ -10419,7 +10432,7 @@
         <v>2.5</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H11" s="25"/>
     </row>
@@ -10445,10 +10458,10 @@
         <v>27</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>41</v>
@@ -10469,7 +10482,7 @@
         <v>167</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E14" s="35" t="s">
         <v>41</v>
@@ -10487,7 +10500,7 @@
         <v>31</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D15" s="47" t="s">
         <v>207</v>
@@ -10511,7 +10524,7 @@
         <v>191</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="35">

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E207811E-8480-4F67-969B-C2C01F5F0A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98A0DC8B-3BB5-491B-8573-479D6FDA6CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="226">
   <si>
     <t>Column1</t>
   </si>
@@ -921,6 +921,10 @@
 10:45-12:00 - Explored on web API(RESTful,SOAP)
 12:00-12:30 - System Allocation
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:00-11:00 - Refined Current Drives Layout                              11:00-12:00 - Attented College Review                                     12:00-12:30 - System Allocation                                                  2:00-3:00 - Notifications Loyout
+                                                  </t>
   </si>
   <si>
     <t xml:space="preserve">                                                      Have to work on Api Implementations</t>
@@ -10252,8 +10256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FFC9C9-2848-4E62-84AF-44A9BCE5AD3F}">
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10360,7 +10364,7 @@
         <v>152</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>41</v>
@@ -10441,10 +10445,10 @@
         <v>24</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="E12" s="35" t="s">
         <v>41</v>
@@ -10458,10 +10462,10 @@
         <v>27</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>41</v>
@@ -10482,7 +10486,7 @@
         <v>167</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E14" s="35" t="s">
         <v>41</v>
@@ -10500,7 +10504,7 @@
         <v>31</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D15" s="47" t="s">
         <v>207</v>
@@ -10524,7 +10528,7 @@
         <v>191</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="35">

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98A0DC8B-3BB5-491B-8573-479D6FDA6CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DCF4F85-0F49-4ED2-B213-894E273967AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,7 @@
     <sheet name="Day13 ( 21-04-2022 )" sheetId="53" r:id="rId11"/>
     <sheet name="Day14 ( 22-04-2022 )" sheetId="56" r:id="rId12"/>
     <sheet name="Day15 ( 23-04-2022 )" sheetId="54" r:id="rId13"/>
+    <sheet name="Day16 (25-04-2022)" sheetId="57" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="228">
   <si>
     <t>Column1</t>
   </si>
@@ -942,9 +943,21 @@
     <t xml:space="preserve"> Entity Framework</t>
   </si>
   <si>
+    <t xml:space="preserve">9:30to 10:00 - Brainstorming with team                                  10:00 to 10:30 - Correcting System Architecture Diagram ( Rearranging Layers &amp; DB )                                                                              10:30 to 10:45 Updating MOM                                                              10.45 to 11.15-Studied basics of web API ( how to create a web api project in VS Code
+11.15to 11.45-Break                                                                11.45 to 12.30 - Studied how to connect EF with Web API Project                                                                               1.00 to 2.00 - Lunch                                                                     2.00 to 3.00 - How to use Postman App ( get post put methods, Using api's )                                                                     3.00 to 3.30 -  Idle                                                                                      3.30 to 4.00 - Review Meeting with Rafi                                                                </t>
+  </si>
+  <si>
     <t>9:30am to 10:00am : Brainstorming with team    
 10.30am to 12.30 am : Reviewed Data model
 12.30pm to 1.00 : System Allocation</t>
+  </si>
+  <si>
+    <t>8.45 to 9.00 - Updating MOM &amp; Checking Mail
+9.00 to 10.00 - Correcting Mistakes in Data model            ( Audit fields for Employee, separating as single methods ) 
+10.00 to 10.45 - Analysing and Correcting Prototypes of Admin regarding Data models (all slides)
+10.45 to 11.15 - Break
+11.15 to 11.30 - General team Discussion
+11.30 to 12.30 - Created prototype for Admin ( final version )</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1365,539 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="273">
+  <dxfs count="294">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -8283,377 +8828,406 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B59126C7-EF4B-42B8-885B-D999B591F622}" name="Table2" displayName="Table2" ref="B9:H19" totalsRowShown="0" headerRowDxfId="272" dataDxfId="271" headerRowBorderDxfId="269" tableBorderDxfId="270" totalsRowBorderDxfId="268">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B59126C7-EF4B-42B8-885B-D999B591F622}" name="Table2" displayName="Table2" ref="B9:H19" totalsRowShown="0" headerRowDxfId="293" dataDxfId="292" headerRowBorderDxfId="290" tableBorderDxfId="291" totalsRowBorderDxfId="289">
   <autoFilter ref="B9:H19" xr:uid="{B59126C7-EF4B-42B8-885B-D999B591F622}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{52B5F38B-ABB3-47C0-BB3D-A29F2DE51CC7}" name="Resource Name" dataDxfId="267"/>
-    <tableColumn id="2" xr3:uid="{EE1FCD6C-E5A0-4CCC-B385-C1EFECE5FDAA}" name="In-progress" dataDxfId="266"/>
-    <tableColumn id="3" xr3:uid="{181E4433-047B-4DE4-8CA4-63F4C195E21B}" name="Done" dataDxfId="265"/>
-    <tableColumn id="4" xr3:uid="{3D6F0A13-3C98-4A4C-A37F-39C4F130B0FD}" name="Discarded / Hold" dataDxfId="264"/>
-    <tableColumn id="5" xr3:uid="{6C95647F-EC05-4637-9771-13884C172508}" name="Hours Spent - Project" dataDxfId="263"/>
-    <tableColumn id="6" xr3:uid="{61429939-C632-43F5-B197-7173C32B4F6F}" name="Hours Spent - Non Project" dataDxfId="262"/>
-    <tableColumn id="7" xr3:uid="{FA348B8C-B11C-46EA-A9B6-9E454AA967AA}" name="Comments" dataDxfId="261"/>
+    <tableColumn id="1" xr3:uid="{52B5F38B-ABB3-47C0-BB3D-A29F2DE51CC7}" name="Resource Name" dataDxfId="288"/>
+    <tableColumn id="2" xr3:uid="{EE1FCD6C-E5A0-4CCC-B385-C1EFECE5FDAA}" name="In-progress" dataDxfId="287"/>
+    <tableColumn id="3" xr3:uid="{181E4433-047B-4DE4-8CA4-63F4C195E21B}" name="Done" dataDxfId="286"/>
+    <tableColumn id="4" xr3:uid="{3D6F0A13-3C98-4A4C-A37F-39C4F130B0FD}" name="Discarded / Hold" dataDxfId="285"/>
+    <tableColumn id="5" xr3:uid="{6C95647F-EC05-4637-9771-13884C172508}" name="Hours Spent - Project" dataDxfId="284"/>
+    <tableColumn id="6" xr3:uid="{61429939-C632-43F5-B197-7173C32B4F6F}" name="Hours Spent - Non Project" dataDxfId="283"/>
+    <tableColumn id="7" xr3:uid="{FA348B8C-B11C-46EA-A9B6-9E454AA967AA}" name="Comments" dataDxfId="282"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D14697CD-D871-4BE9-9957-83E5498C6EE5}" name="Table3751113" displayName="Table3751113" ref="B2:E4" totalsRowShown="0" headerRowDxfId="176" dataDxfId="175" headerRowBorderDxfId="173" tableBorderDxfId="174" totalsRowBorderDxfId="172">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D14697CD-D871-4BE9-9957-83E5498C6EE5}" name="Table3751113" displayName="Table3751113" ref="B2:E4" totalsRowShown="0" headerRowDxfId="197" dataDxfId="196" headerRowBorderDxfId="194" tableBorderDxfId="195" totalsRowBorderDxfId="193">
   <autoFilter ref="B2:E4" xr:uid="{9D11D6AC-943D-4BD1-9800-DECD246F6E62}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{597AD08F-5CEE-486B-928A-4E0143DEB21C}" name="Column1" dataDxfId="171"/>
-    <tableColumn id="2" xr3:uid="{80BDA1F7-DDA4-494F-BB7E-61D9A6E30A98}" name="Column2" dataDxfId="170"/>
-    <tableColumn id="3" xr3:uid="{DF109DE4-28E3-4BB2-997F-34A3F319520E}" name="Column3" dataDxfId="169"/>
-    <tableColumn id="4" xr3:uid="{C98D2CDB-0DA6-4DBC-80D8-197F6DC8262F}" name="Column4" dataDxfId="168"/>
+    <tableColumn id="1" xr3:uid="{597AD08F-5CEE-486B-928A-4E0143DEB21C}" name="Column1" dataDxfId="192"/>
+    <tableColumn id="2" xr3:uid="{80BDA1F7-DDA4-494F-BB7E-61D9A6E30A98}" name="Column2" dataDxfId="191"/>
+    <tableColumn id="3" xr3:uid="{DF109DE4-28E3-4BB2-997F-34A3F319520E}" name="Column3" dataDxfId="190"/>
+    <tableColumn id="4" xr3:uid="{C98D2CDB-0DA6-4DBC-80D8-197F6DC8262F}" name="Column4" dataDxfId="189"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A036296C-A09A-4538-8AEF-52AAB9228500}" name="Table2621014" displayName="Table2621014" ref="B7:H17" totalsRowShown="0" headerRowDxfId="167" dataDxfId="166" headerRowBorderDxfId="164" tableBorderDxfId="165" totalsRowBorderDxfId="163">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A036296C-A09A-4538-8AEF-52AAB9228500}" name="Table2621014" displayName="Table2621014" ref="B7:H17" totalsRowShown="0" headerRowDxfId="188" dataDxfId="187" headerRowBorderDxfId="185" tableBorderDxfId="186" totalsRowBorderDxfId="184">
   <autoFilter ref="B7:H17" xr:uid="{A30D6EFF-9BA6-4C4E-A49E-6E01C92313FC}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AF106EC2-9249-449D-84E6-7F225A50644A}" name="Resource Name" dataDxfId="162"/>
-    <tableColumn id="2" xr3:uid="{C5721F56-75DD-416B-8AF4-882B78C097A4}" name="In-progress" dataDxfId="161"/>
-    <tableColumn id="3" xr3:uid="{65371F98-F64C-4B19-8CA2-7EF266D44FBF}" name="Done" dataDxfId="160"/>
-    <tableColumn id="4" xr3:uid="{EDCBD646-6D4A-4D8E-A78F-13A92C55A829}" name="Discarded / Hold" dataDxfId="159"/>
-    <tableColumn id="5" xr3:uid="{5216518A-9337-493A-8FBE-8BB58C828250}" name="Hours Spent - Project" dataDxfId="158"/>
-    <tableColumn id="6" xr3:uid="{249FD4AA-FDB0-40B3-A254-56EFA2226474}" name="Hours Spent - Non Project" dataDxfId="157"/>
-    <tableColumn id="7" xr3:uid="{47669AF2-CA1E-4E4D-8758-1BE493ED8AF4}" name="Comments" dataDxfId="156"/>
+    <tableColumn id="1" xr3:uid="{AF106EC2-9249-449D-84E6-7F225A50644A}" name="Resource Name" dataDxfId="183"/>
+    <tableColumn id="2" xr3:uid="{C5721F56-75DD-416B-8AF4-882B78C097A4}" name="In-progress" dataDxfId="182"/>
+    <tableColumn id="3" xr3:uid="{65371F98-F64C-4B19-8CA2-7EF266D44FBF}" name="Done" dataDxfId="181"/>
+    <tableColumn id="4" xr3:uid="{EDCBD646-6D4A-4D8E-A78F-13A92C55A829}" name="Discarded / Hold" dataDxfId="180"/>
+    <tableColumn id="5" xr3:uid="{5216518A-9337-493A-8FBE-8BB58C828250}" name="Hours Spent - Project" dataDxfId="179"/>
+    <tableColumn id="6" xr3:uid="{249FD4AA-FDB0-40B3-A254-56EFA2226474}" name="Hours Spent - Non Project" dataDxfId="178"/>
+    <tableColumn id="7" xr3:uid="{47669AF2-CA1E-4E4D-8758-1BE493ED8AF4}" name="Comments" dataDxfId="177"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{7FA1E999-6830-41E9-8136-B3DD83876559}" name="Table3751115" displayName="Table3751115" ref="B2:E4" totalsRowShown="0" headerRowDxfId="155" dataDxfId="154" headerRowBorderDxfId="152" tableBorderDxfId="153" totalsRowBorderDxfId="151">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{7FA1E999-6830-41E9-8136-B3DD83876559}" name="Table3751115" displayName="Table3751115" ref="B2:E4" totalsRowShown="0" headerRowDxfId="176" dataDxfId="175" headerRowBorderDxfId="173" tableBorderDxfId="174" totalsRowBorderDxfId="172">
   <autoFilter ref="B2:E4" xr:uid="{9D11D6AC-943D-4BD1-9800-DECD246F6E62}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D67A75C6-50A5-4ED9-9562-707A5D717E14}" name="Column1" dataDxfId="150"/>
-    <tableColumn id="2" xr3:uid="{4CBEA24E-4C4B-4B23-85EB-4A8217A30752}" name="Column2" dataDxfId="149"/>
-    <tableColumn id="3" xr3:uid="{A13B37EF-4736-411C-BF75-CBDF316BAB90}" name="Column3" dataDxfId="148"/>
-    <tableColumn id="4" xr3:uid="{504EFC7F-2F49-4D22-ACB4-DCD4F1C95FE1}" name="Column4" dataDxfId="147"/>
+    <tableColumn id="1" xr3:uid="{D67A75C6-50A5-4ED9-9562-707A5D717E14}" name="Column1" dataDxfId="171"/>
+    <tableColumn id="2" xr3:uid="{4CBEA24E-4C4B-4B23-85EB-4A8217A30752}" name="Column2" dataDxfId="170"/>
+    <tableColumn id="3" xr3:uid="{A13B37EF-4736-411C-BF75-CBDF316BAB90}" name="Column3" dataDxfId="169"/>
+    <tableColumn id="4" xr3:uid="{504EFC7F-2F49-4D22-ACB4-DCD4F1C95FE1}" name="Column4" dataDxfId="168"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A30D6EFF-9BA6-4C4E-A49E-6E01C92313FC}" name="Table26210" displayName="Table26210" ref="B7:H17" totalsRowShown="0" headerRowDxfId="146" dataDxfId="145" headerRowBorderDxfId="143" tableBorderDxfId="144" totalsRowBorderDxfId="142">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A30D6EFF-9BA6-4C4E-A49E-6E01C92313FC}" name="Table26210" displayName="Table26210" ref="B7:H17" totalsRowShown="0" headerRowDxfId="167" dataDxfId="166" headerRowBorderDxfId="164" tableBorderDxfId="165" totalsRowBorderDxfId="163">
   <autoFilter ref="B7:H17" xr:uid="{A30D6EFF-9BA6-4C4E-A49E-6E01C92313FC}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{CB514E32-07C5-40CB-B6EC-7CE1D7B57BF0}" name="Resource Name" dataDxfId="141"/>
-    <tableColumn id="2" xr3:uid="{C46C6E29-0824-4E17-8EAF-64A911996B4D}" name="In-progress" dataDxfId="140"/>
-    <tableColumn id="3" xr3:uid="{6B5DC81A-7A98-4BF7-864C-E5A79BB97505}" name="Done" dataDxfId="139"/>
-    <tableColumn id="4" xr3:uid="{0C243582-3F95-4A38-8545-76DB2898625E}" name="Discarded / Hold" dataDxfId="138"/>
-    <tableColumn id="5" xr3:uid="{FD3CD380-CAB0-422C-8CF7-6944378DDBE6}" name="Hours Spent - Project" dataDxfId="137"/>
-    <tableColumn id="6" xr3:uid="{145CB7BA-3D9C-44AC-9E51-716B58B77D2F}" name="Hours Spent - Non Project" dataDxfId="136"/>
-    <tableColumn id="7" xr3:uid="{507AE42A-A1CC-4934-90C2-3BFCE53238B3}" name="Comments" dataDxfId="135"/>
+    <tableColumn id="1" xr3:uid="{CB514E32-07C5-40CB-B6EC-7CE1D7B57BF0}" name="Resource Name" dataDxfId="162"/>
+    <tableColumn id="2" xr3:uid="{C46C6E29-0824-4E17-8EAF-64A911996B4D}" name="In-progress" dataDxfId="161"/>
+    <tableColumn id="3" xr3:uid="{6B5DC81A-7A98-4BF7-864C-E5A79BB97505}" name="Done" dataDxfId="160"/>
+    <tableColumn id="4" xr3:uid="{0C243582-3F95-4A38-8545-76DB2898625E}" name="Discarded / Hold" dataDxfId="159"/>
+    <tableColumn id="5" xr3:uid="{FD3CD380-CAB0-422C-8CF7-6944378DDBE6}" name="Hours Spent - Project" dataDxfId="158"/>
+    <tableColumn id="6" xr3:uid="{145CB7BA-3D9C-44AC-9E51-716B58B77D2F}" name="Hours Spent - Non Project" dataDxfId="157"/>
+    <tableColumn id="7" xr3:uid="{507AE42A-A1CC-4934-90C2-3BFCE53238B3}" name="Comments" dataDxfId="156"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9D11D6AC-943D-4BD1-9800-DECD246F6E62}" name="Table37511" displayName="Table37511" ref="B2:E4" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133" headerRowBorderDxfId="131" tableBorderDxfId="132" totalsRowBorderDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9D11D6AC-943D-4BD1-9800-DECD246F6E62}" name="Table37511" displayName="Table37511" ref="B2:E4" totalsRowShown="0" headerRowDxfId="155" dataDxfId="154" headerRowBorderDxfId="152" tableBorderDxfId="153" totalsRowBorderDxfId="151">
   <autoFilter ref="B2:E4" xr:uid="{9D11D6AC-943D-4BD1-9800-DECD246F6E62}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6B075576-4726-42C8-996A-A7B4B187D27F}" name="Column1" dataDxfId="129"/>
-    <tableColumn id="2" xr3:uid="{2B0F43B9-480B-4C54-A4CC-3DFC00711929}" name="Column2" dataDxfId="128"/>
-    <tableColumn id="3" xr3:uid="{4353F121-13EC-4653-AB7A-C0BBED71F612}" name="Column3" dataDxfId="127"/>
-    <tableColumn id="4" xr3:uid="{AD8279C5-6226-4ECF-A6C8-F9C70974EABE}" name="Column4" dataDxfId="126"/>
+    <tableColumn id="1" xr3:uid="{6B075576-4726-42C8-996A-A7B4B187D27F}" name="Column1" dataDxfId="150"/>
+    <tableColumn id="2" xr3:uid="{2B0F43B9-480B-4C54-A4CC-3DFC00711929}" name="Column2" dataDxfId="149"/>
+    <tableColumn id="3" xr3:uid="{4353F121-13EC-4653-AB7A-C0BBED71F612}" name="Column3" dataDxfId="148"/>
+    <tableColumn id="4" xr3:uid="{AD8279C5-6226-4ECF-A6C8-F9C70974EABE}" name="Column4" dataDxfId="147"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{1356D4E1-15F0-41BF-B0C4-E4DC18B96A83}" name="Table2621016" displayName="Table2621016" ref="B7:H17" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124" headerRowBorderDxfId="122" tableBorderDxfId="123" totalsRowBorderDxfId="121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{1356D4E1-15F0-41BF-B0C4-E4DC18B96A83}" name="Table2621016" displayName="Table2621016" ref="B7:H17" totalsRowShown="0" headerRowDxfId="146" dataDxfId="145" headerRowBorderDxfId="143" tableBorderDxfId="144" totalsRowBorderDxfId="142">
   <autoFilter ref="B7:H17" xr:uid="{1356D4E1-15F0-41BF-B0C4-E4DC18B96A83}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{975CF6D7-F24C-4D9F-BA9F-439AF60EF114}" name="Resource Name" dataDxfId="120"/>
-    <tableColumn id="2" xr3:uid="{BC36331B-5C09-49F2-8E13-D5168DD28D0F}" name="In-progress" dataDxfId="119"/>
-    <tableColumn id="3" xr3:uid="{41B5A763-B80D-4E4B-976F-9969D2C0C14F}" name="Done" dataDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{5D1F40BB-F239-4A1D-AEF6-82A5FC99D7CD}" name="Discarded / Hold" dataDxfId="117"/>
-    <tableColumn id="5" xr3:uid="{5C9549F2-9CF2-45B7-98E8-1D291B3630B2}" name="Hours Spent - Project" dataDxfId="116"/>
-    <tableColumn id="6" xr3:uid="{04DC6A6C-EEB6-4EF4-911D-C37E2C5B40FF}" name="Hours Spent - Non Project" dataDxfId="115"/>
-    <tableColumn id="7" xr3:uid="{C3902E87-CCB6-47C9-9BC1-FD0B37543238}" name="Comments" dataDxfId="114"/>
+    <tableColumn id="1" xr3:uid="{975CF6D7-F24C-4D9F-BA9F-439AF60EF114}" name="Resource Name" dataDxfId="141"/>
+    <tableColumn id="2" xr3:uid="{BC36331B-5C09-49F2-8E13-D5168DD28D0F}" name="In-progress" dataDxfId="140"/>
+    <tableColumn id="3" xr3:uid="{41B5A763-B80D-4E4B-976F-9969D2C0C14F}" name="Done" dataDxfId="139"/>
+    <tableColumn id="4" xr3:uid="{5D1F40BB-F239-4A1D-AEF6-82A5FC99D7CD}" name="Discarded / Hold" dataDxfId="138"/>
+    <tableColumn id="5" xr3:uid="{5C9549F2-9CF2-45B7-98E8-1D291B3630B2}" name="Hours Spent - Project" dataDxfId="137"/>
+    <tableColumn id="6" xr3:uid="{04DC6A6C-EEB6-4EF4-911D-C37E2C5B40FF}" name="Hours Spent - Non Project" dataDxfId="136"/>
+    <tableColumn id="7" xr3:uid="{C3902E87-CCB6-47C9-9BC1-FD0B37543238}" name="Comments" dataDxfId="135"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{E3497E54-1E59-44E7-9480-106E98FB838A}" name="Table3751117" displayName="Table3751117" ref="B2:E4" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112" headerRowBorderDxfId="110" tableBorderDxfId="111" totalsRowBorderDxfId="109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{E3497E54-1E59-44E7-9480-106E98FB838A}" name="Table3751117" displayName="Table3751117" ref="B2:E4" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133" headerRowBorderDxfId="131" tableBorderDxfId="132" totalsRowBorderDxfId="130">
   <autoFilter ref="B2:E4" xr:uid="{E3497E54-1E59-44E7-9480-106E98FB838A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{69E7B7B7-0FF3-43D1-AE4A-578CB3CCCFBD}" name="Column1" dataDxfId="108"/>
-    <tableColumn id="2" xr3:uid="{753FC1E8-1B96-4804-A794-92A8953D5EE2}" name="Column2" dataDxfId="107"/>
-    <tableColumn id="3" xr3:uid="{50B38A4B-BAF8-4640-8ECB-0900A6C915DB}" name="Column3" dataDxfId="106"/>
-    <tableColumn id="4" xr3:uid="{4432DCD0-98FF-4B59-BAB7-E3FE0A3EDFBC}" name="Column4" dataDxfId="105"/>
+    <tableColumn id="1" xr3:uid="{69E7B7B7-0FF3-43D1-AE4A-578CB3CCCFBD}" name="Column1" dataDxfId="129"/>
+    <tableColumn id="2" xr3:uid="{753FC1E8-1B96-4804-A794-92A8953D5EE2}" name="Column2" dataDxfId="128"/>
+    <tableColumn id="3" xr3:uid="{50B38A4B-BAF8-4640-8ECB-0900A6C915DB}" name="Column3" dataDxfId="127"/>
+    <tableColumn id="4" xr3:uid="{4432DCD0-98FF-4B59-BAB7-E3FE0A3EDFBC}" name="Column4" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{D3490739-1854-4802-BC7E-8F8A56938939}" name="Table262101618" displayName="Table262101618" ref="B7:H17" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103" headerRowBorderDxfId="101" tableBorderDxfId="102" totalsRowBorderDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{D3490739-1854-4802-BC7E-8F8A56938939}" name="Table262101618" displayName="Table262101618" ref="B7:H17" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124" headerRowBorderDxfId="122" tableBorderDxfId="123" totalsRowBorderDxfId="121">
   <autoFilter ref="B7:H17" xr:uid="{1356D4E1-15F0-41BF-B0C4-E4DC18B96A83}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F4CDC508-938F-4C7B-9D78-6C7897C95C75}" name="Resource Name" dataDxfId="99"/>
-    <tableColumn id="2" xr3:uid="{D24B5720-9179-4EA6-A1B2-11FFE3971AE0}" name="In-progress" dataDxfId="98"/>
-    <tableColumn id="3" xr3:uid="{38376D7D-1777-43ED-87F4-271C7CA93BC0}" name="Done" dataDxfId="97"/>
-    <tableColumn id="4" xr3:uid="{27CF804E-18A7-4ED9-9891-7FE4B93C6D6C}" name="Discarded / Hold" dataDxfId="96"/>
-    <tableColumn id="5" xr3:uid="{F23FF8B6-B301-4C5F-ACF3-3D16EEFFC3F0}" name="Hours Spent - Project" dataDxfId="95"/>
-    <tableColumn id="6" xr3:uid="{2D0142DB-38B6-4D6B-A60F-A9A19574C7ED}" name="Hours Spent - Non Project" dataDxfId="94"/>
-    <tableColumn id="7" xr3:uid="{8BAC7AAB-A572-4256-AFEE-71DC94CC59B9}" name="Comments" dataDxfId="93"/>
+    <tableColumn id="1" xr3:uid="{F4CDC508-938F-4C7B-9D78-6C7897C95C75}" name="Resource Name" dataDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{D24B5720-9179-4EA6-A1B2-11FFE3971AE0}" name="In-progress" dataDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{38376D7D-1777-43ED-87F4-271C7CA93BC0}" name="Done" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{27CF804E-18A7-4ED9-9891-7FE4B93C6D6C}" name="Discarded / Hold" dataDxfId="117"/>
+    <tableColumn id="5" xr3:uid="{F23FF8B6-B301-4C5F-ACF3-3D16EEFFC3F0}" name="Hours Spent - Project" dataDxfId="116"/>
+    <tableColumn id="6" xr3:uid="{2D0142DB-38B6-4D6B-A60F-A9A19574C7ED}" name="Hours Spent - Non Project" dataDxfId="115"/>
+    <tableColumn id="7" xr3:uid="{8BAC7AAB-A572-4256-AFEE-71DC94CC59B9}" name="Comments" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{65B9F601-45A2-418D-921A-3D56A32B6C21}" name="Table375111719" displayName="Table375111719" ref="B2:E4" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91" headerRowBorderDxfId="89" tableBorderDxfId="90" totalsRowBorderDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{65B9F601-45A2-418D-921A-3D56A32B6C21}" name="Table375111719" displayName="Table375111719" ref="B2:E4" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112" headerRowBorderDxfId="110" tableBorderDxfId="111" totalsRowBorderDxfId="109">
   <autoFilter ref="B2:E4" xr:uid="{E3497E54-1E59-44E7-9480-106E98FB838A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6E252E52-03A5-4570-990A-B3378296E039}" name="Column1" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{D5447885-EF1E-44FE-B1A4-EE1475056221}" name="Column2" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{2F816DC6-3307-4F6E-9962-EB8AB2F91C9F}" name="Column3" dataDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{21AE6030-4E77-45A3-8CDA-342E87194417}" name="Column4" dataDxfId="84"/>
+    <tableColumn id="1" xr3:uid="{6E252E52-03A5-4570-990A-B3378296E039}" name="Column1" dataDxfId="108"/>
+    <tableColumn id="2" xr3:uid="{D5447885-EF1E-44FE-B1A4-EE1475056221}" name="Column2" dataDxfId="107"/>
+    <tableColumn id="3" xr3:uid="{2F816DC6-3307-4F6E-9962-EB8AB2F91C9F}" name="Column3" dataDxfId="106"/>
+    <tableColumn id="4" xr3:uid="{21AE6030-4E77-45A3-8CDA-342E87194417}" name="Column4" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{567599D8-F2AC-4863-A31E-867E4662A188}" name="Table26210161820" displayName="Table26210161820" ref="B7:H17" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82" headerRowBorderDxfId="80" tableBorderDxfId="81" totalsRowBorderDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{567599D8-F2AC-4863-A31E-867E4662A188}" name="Table26210161820" displayName="Table26210161820" ref="B7:H17" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103" headerRowBorderDxfId="101" tableBorderDxfId="102" totalsRowBorderDxfId="100">
   <autoFilter ref="B7:H17" xr:uid="{1356D4E1-15F0-41BF-B0C4-E4DC18B96A83}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6862ACD5-06E8-4C76-86B8-0FBF46C719AB}" name="Resource Name" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{2FEAF882-A5EF-4611-91BB-CAEDE2BD0142}" name="In-progress" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{FB3D921D-555F-47F7-9140-AB8143CB71BA}" name="Done" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{BD8867CA-8566-48C2-BDB8-839066AC235A}" name="Discarded / Hold" dataDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{F71E5005-E794-436C-8ABB-93D21EB0BD11}" name="Hours Spent - Project" dataDxfId="74"/>
-    <tableColumn id="6" xr3:uid="{53117683-12E5-4475-8EE2-ECA8DBFEEF45}" name="Hours Spent - Non Project" dataDxfId="73"/>
-    <tableColumn id="7" xr3:uid="{A1C72867-09F6-497F-ACF5-1458D252B64F}" name="Comments" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{6862ACD5-06E8-4C76-86B8-0FBF46C719AB}" name="Resource Name" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{2FEAF882-A5EF-4611-91BB-CAEDE2BD0142}" name="In-progress" dataDxfId="98"/>
+    <tableColumn id="3" xr3:uid="{FB3D921D-555F-47F7-9140-AB8143CB71BA}" name="Done" dataDxfId="97"/>
+    <tableColumn id="4" xr3:uid="{BD8867CA-8566-48C2-BDB8-839066AC235A}" name="Discarded / Hold" dataDxfId="96"/>
+    <tableColumn id="5" xr3:uid="{F71E5005-E794-436C-8ABB-93D21EB0BD11}" name="Hours Spent - Project" dataDxfId="95"/>
+    <tableColumn id="6" xr3:uid="{53117683-12E5-4475-8EE2-ECA8DBFEEF45}" name="Hours Spent - Non Project" dataDxfId="94"/>
+    <tableColumn id="7" xr3:uid="{A1C72867-09F6-497F-ACF5-1458D252B64F}" name="Comments" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF3C43CE-B630-4202-BD3A-6EE2D770899A}" name="Table3" displayName="Table3" ref="B4:E6" totalsRowShown="0" headerRowDxfId="260" dataDxfId="259" headerRowBorderDxfId="257" tableBorderDxfId="258" totalsRowBorderDxfId="256">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF3C43CE-B630-4202-BD3A-6EE2D770899A}" name="Table3" displayName="Table3" ref="B4:E6" totalsRowShown="0" headerRowDxfId="281" dataDxfId="280" headerRowBorderDxfId="278" tableBorderDxfId="279" totalsRowBorderDxfId="277">
   <autoFilter ref="B4:E6" xr:uid="{BF3C43CE-B630-4202-BD3A-6EE2D770899A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BE43EB49-4D5D-488E-9520-6CE4AC2E5C1B}" name="Column1" dataDxfId="255"/>
-    <tableColumn id="2" xr3:uid="{16DFD0E6-4C5E-443C-BF24-706A867EF798}" name="Column2" dataDxfId="254"/>
-    <tableColumn id="3" xr3:uid="{DC8A145E-C833-4BE6-BAE5-7E5E2AC2891C}" name="Column3" dataDxfId="253"/>
-    <tableColumn id="4" xr3:uid="{9454D612-74D7-428F-B9A0-7151862F7C2A}" name="Column4" dataDxfId="252"/>
+    <tableColumn id="1" xr3:uid="{BE43EB49-4D5D-488E-9520-6CE4AC2E5C1B}" name="Column1" dataDxfId="276"/>
+    <tableColumn id="2" xr3:uid="{16DFD0E6-4C5E-443C-BF24-706A867EF798}" name="Column2" dataDxfId="275"/>
+    <tableColumn id="3" xr3:uid="{DC8A145E-C833-4BE6-BAE5-7E5E2AC2891C}" name="Column3" dataDxfId="274"/>
+    <tableColumn id="4" xr3:uid="{9454D612-74D7-428F-B9A0-7151862F7C2A}" name="Column4" dataDxfId="273"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{3AB7E480-AA41-45EE-8BD2-799B66CF977F}" name="Table37511171921" displayName="Table37511171921" ref="B2:E4" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70" headerRowBorderDxfId="68" tableBorderDxfId="69" totalsRowBorderDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{3AB7E480-AA41-45EE-8BD2-799B66CF977F}" name="Table37511171921" displayName="Table37511171921" ref="B2:E4" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91" headerRowBorderDxfId="89" tableBorderDxfId="90" totalsRowBorderDxfId="88">
   <autoFilter ref="B2:E4" xr:uid="{E3497E54-1E59-44E7-9480-106E98FB838A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5F5286EA-BF04-4F20-B734-0734EC625276}" name="Column1" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{2666153F-F4E8-45C3-9985-38E5471A82F0}" name="Column2" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{ED99E108-F673-4294-9E8D-A329582DF55B}" name="Column3" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{B0F02456-D0DE-4E93-9016-90FA89E16184}" name="Column4" dataDxfId="63"/>
+    <tableColumn id="1" xr3:uid="{5F5286EA-BF04-4F20-B734-0734EC625276}" name="Column1" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{2666153F-F4E8-45C3-9985-38E5471A82F0}" name="Column2" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{ED99E108-F673-4294-9E8D-A329582DF55B}" name="Column3" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{B0F02456-D0DE-4E93-9016-90FA89E16184}" name="Column4" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{B3B21B26-64D8-4DAA-B271-41535AB5FBA0}" name="Table2621016182022" displayName="Table2621016182022" ref="B7:H17" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" headerRowBorderDxfId="59" tableBorderDxfId="60" totalsRowBorderDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{B3B21B26-64D8-4DAA-B271-41535AB5FBA0}" name="Table2621016182022" displayName="Table2621016182022" ref="B7:H17" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82" headerRowBorderDxfId="80" tableBorderDxfId="81" totalsRowBorderDxfId="79">
   <autoFilter ref="B7:H17" xr:uid="{B3B21B26-64D8-4DAA-B271-41535AB5FBA0}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F31F1358-1BCD-4E28-8DE6-55060AD83C78}" name="Resource Name" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{85795525-35CB-4867-B9E8-8424F3C504C7}" name="In-progress" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{14491860-1E0F-4FC2-B40C-7BFA09F08AD3}" name="Done" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{4121DE0A-E31D-4416-93C4-5D79C06CB436}" name="Discarded / Hold" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{42DAEAF5-4695-460C-A7C8-11CA5A06441F}" name="Hours Spent - Project" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{5A90E8D4-8EBC-413F-9D20-BC476DDDDA89}" name="Hours Spent - Non Project" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{CDA42C61-7D2B-4220-801B-18B140C01D85}" name="Comments" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{F31F1358-1BCD-4E28-8DE6-55060AD83C78}" name="Resource Name" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{85795525-35CB-4867-B9E8-8424F3C504C7}" name="In-progress" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{14491860-1E0F-4FC2-B40C-7BFA09F08AD3}" name="Done" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{4121DE0A-E31D-4416-93C4-5D79C06CB436}" name="Discarded / Hold" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{42DAEAF5-4695-460C-A7C8-11CA5A06441F}" name="Hours Spent - Project" dataDxfId="74"/>
+    <tableColumn id="6" xr3:uid="{5A90E8D4-8EBC-413F-9D20-BC476DDDDA89}" name="Hours Spent - Non Project" dataDxfId="73"/>
+    <tableColumn id="7" xr3:uid="{CDA42C61-7D2B-4220-801B-18B140C01D85}" name="Comments" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{055B31DD-6299-4C3C-ACAC-24A5C69F0229}" name="Table3751117192123" displayName="Table3751117192123" ref="B2:E4" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" headerRowBorderDxfId="47" tableBorderDxfId="48" totalsRowBorderDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{055B31DD-6299-4C3C-ACAC-24A5C69F0229}" name="Table3751117192123" displayName="Table3751117192123" ref="B2:E4" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70" headerRowBorderDxfId="68" tableBorderDxfId="69" totalsRowBorderDxfId="67">
   <autoFilter ref="B2:E4" xr:uid="{055B31DD-6299-4C3C-ACAC-24A5C69F0229}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A361ACD1-4939-41DE-8AA2-8A2C23550B5A}" name="Column1" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{ADE6E992-B56C-47A2-8484-0F95117DFA87}" name="Column2" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{5D6FC945-76E2-4A8F-A729-023221CFF273}" name="Column3" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{F5B29A6E-68F5-487F-AE11-943B1309598F}" name="Column4" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{A361ACD1-4939-41DE-8AA2-8A2C23550B5A}" name="Column1" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{ADE6E992-B56C-47A2-8484-0F95117DFA87}" name="Column2" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{5D6FC945-76E2-4A8F-A729-023221CFF273}" name="Column3" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{F5B29A6E-68F5-487F-AE11-943B1309598F}" name="Column4" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{E41419C5-0FEE-481E-9DAC-E4E6D5B7C655}" name="Table26210161820222426" displayName="Table26210161820222426" ref="B7:H17" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" headerRowBorderDxfId="38" tableBorderDxfId="39" totalsRowBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{E41419C5-0FEE-481E-9DAC-E4E6D5B7C655}" name="Table26210161820222426" displayName="Table26210161820222426" ref="B7:H17" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" headerRowBorderDxfId="59" tableBorderDxfId="60" totalsRowBorderDxfId="58">
   <autoFilter ref="B7:H17" xr:uid="{B3B21B26-64D8-4DAA-B271-41535AB5FBA0}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5E48B990-E5FC-4F2E-8D79-221CCDD32485}" name="Resource Name" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{47BD0B59-0AA0-4A62-9166-EDBA62A23A5F}" name="In-progress" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{2139A3E7-3873-4E56-A7E4-F325CBD86DB4}" name="Done" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{2AAC748E-739E-4CA5-89FD-D8B41E99A6E2}" name="Discarded / Hold" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{CDFFAC38-E4AB-41AB-B5F7-2454F4736746}" name="Hours Spent - Project" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{B9EED511-62FB-4D56-B7BA-9FA76DE7B86A}" name="Hours Spent - Non Project" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{144471FC-2B56-4F23-A325-ECCBBFB8B63E}" name="Comments" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{5E48B990-E5FC-4F2E-8D79-221CCDD32485}" name="Resource Name" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{47BD0B59-0AA0-4A62-9166-EDBA62A23A5F}" name="In-progress" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{2139A3E7-3873-4E56-A7E4-F325CBD86DB4}" name="Done" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{2AAC748E-739E-4CA5-89FD-D8B41E99A6E2}" name="Discarded / Hold" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{CDFFAC38-E4AB-41AB-B5F7-2454F4736746}" name="Hours Spent - Project" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{B9EED511-62FB-4D56-B7BA-9FA76DE7B86A}" name="Hours Spent - Non Project" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{144471FC-2B56-4F23-A325-ECCBBFB8B63E}" name="Comments" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{0D12AF67-5BA0-4F63-8D88-C0611DA18A0C}" name="Table37511171921232527" displayName="Table37511171921232527" ref="B2:E4" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{0D12AF67-5BA0-4F63-8D88-C0611DA18A0C}" name="Table37511171921232527" displayName="Table37511171921232527" ref="B2:E4" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" headerRowBorderDxfId="47" tableBorderDxfId="48" totalsRowBorderDxfId="46">
   <autoFilter ref="B2:E4" xr:uid="{055B31DD-6299-4C3C-ACAC-24A5C69F0229}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AC49F91A-C5E8-45DB-A758-6B33F8EED570}" name="Column1" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{C442E83E-F63F-4C00-8C84-217C7E0255A0}" name="Column2" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{C6D07BBA-4041-4DCF-B9D8-686A4E51F700}" name="Column3" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{0A8DDA68-0AA3-4BC8-A928-C9205E931689}" name="Column4" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{AC49F91A-C5E8-45DB-A758-6B33F8EED570}" name="Column1" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{C442E83E-F63F-4C00-8C84-217C7E0255A0}" name="Column2" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{C6D07BBA-4041-4DCF-B9D8-686A4E51F700}" name="Column3" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{0A8DDA68-0AA3-4BC8-A928-C9205E931689}" name="Column4" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{8F6F8532-A566-4B0B-AECF-B2BE04EC37C4}" name="Table262101618202224" displayName="Table262101618202224" ref="B7:H17" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" headerRowBorderDxfId="17" tableBorderDxfId="18" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{8F6F8532-A566-4B0B-AECF-B2BE04EC37C4}" name="Table262101618202224" displayName="Table262101618202224" ref="B7:H17" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" headerRowBorderDxfId="38" tableBorderDxfId="39" totalsRowBorderDxfId="37">
   <autoFilter ref="B7:H17" xr:uid="{B3B21B26-64D8-4DAA-B271-41535AB5FBA0}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C59EFFEB-6F71-4923-9EA4-A9988B5ABC38}" name="Resource Name" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{7656305F-8A5C-47DD-B30F-A5A2DDF6BA3B}" name="In-progress" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{01F03680-387B-4396-881D-D8692076CAFB}" name="Done" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{C8B16ACA-3649-43AE-9870-DA150B8F4C27}" name="Discarded / Hold" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{94E9160D-5E84-446E-9333-D6366B7E94A9}" name="Hours Spent - Project" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{71FCC1BB-CD17-411D-84B5-72A33C3D732E}" name="Hours Spent - Non Project" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{AD223263-251D-4364-922D-657CA0BF6FED}" name="Comments" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{C59EFFEB-6F71-4923-9EA4-A9988B5ABC38}" name="Resource Name" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{7656305F-8A5C-47DD-B30F-A5A2DDF6BA3B}" name="In-progress" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{01F03680-387B-4396-881D-D8692076CAFB}" name="Done" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{C8B16ACA-3649-43AE-9870-DA150B8F4C27}" name="Discarded / Hold" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{94E9160D-5E84-446E-9333-D6366B7E94A9}" name="Hours Spent - Project" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{71FCC1BB-CD17-411D-84B5-72A33C3D732E}" name="Hours Spent - Non Project" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{AD223263-251D-4364-922D-657CA0BF6FED}" name="Comments" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{396EF6F7-EC64-4D4E-8E01-69FB9BDB9A54}" name="Table375111719212325" displayName="Table375111719212325" ref="B2:E4" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{396EF6F7-EC64-4D4E-8E01-69FB9BDB9A54}" name="Table375111719212325" displayName="Table375111719212325" ref="B2:E4" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27" totalsRowBorderDxfId="25">
   <autoFilter ref="B2:E4" xr:uid="{055B31DD-6299-4C3C-ACAC-24A5C69F0229}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{84A3FC7B-02E6-44DB-98AA-6783349E3D38}" name="Column1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{4C90FA59-2548-4B68-BBFB-E6DE9B9B243A}" name="Column2" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{23DB2E45-3FE0-4350-8C54-7D8B45F36289}" name="Column3" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{4AC2DE38-C7EC-48C4-93E9-CB48E45B0F9C}" name="Column4" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{84A3FC7B-02E6-44DB-98AA-6783349E3D38}" name="Column1" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{4C90FA59-2548-4B68-BBFB-E6DE9B9B243A}" name="Column2" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{23DB2E45-3FE0-4350-8C54-7D8B45F36289}" name="Column3" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{4AC2DE38-C7EC-48C4-93E9-CB48E45B0F9C}" name="Column4" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{E9A240DE-1194-474C-BF89-6BCD9A8E6CDB}" name="Table26210161820222428" displayName="Table26210161820222428" ref="B9:H19" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" headerRowBorderDxfId="17" tableBorderDxfId="18" totalsRowBorderDxfId="16">
+  <autoFilter ref="B9:H19" xr:uid="{E9A240DE-1194-474C-BF89-6BCD9A8E6CDB}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{314C2A89-A6F2-4DA9-9300-19DD2D4EA0D2}" name="Resource Name" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{4FAE81E7-017A-44B9-83C5-6CC799E6B4A7}" name="In-progress" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{0688DF32-231C-405B-A94B-FC816D6043AA}" name="Done" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{2F9BED11-8078-4AD5-91EC-387CFA8EF706}" name="Discarded / Hold" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{DC02D5FC-68F3-4FC3-ABE0-83003E52744E}" name="Hours Spent - Project" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{914DCCA1-1D85-4C34-9B28-64ADBA4E9784}" name="Hours Spent - Non Project" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{3C3F1F03-BDFE-41A2-83D7-3E3192367926}" name="Comments" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{9C7594DF-77AA-4490-AF49-C5C8389AFDB0}" name="Table37511171921232529" displayName="Table37511171921232529" ref="B4:E6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="B4:E6" xr:uid="{9C7594DF-77AA-4490-AF49-C5C8389AFDB0}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{0EE1C1E4-E828-4110-9EEE-EA604DA38FCF}" name="Column1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{9B029141-56F3-45A4-932E-D1D245DFC030}" name="Column2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{2272A335-D2C1-4035-8FF6-9B62DF1ABABF}" name="Column3" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{A130B436-10F2-4DA0-BA88-CE38ED22AEA4}" name="Column4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{46BFD46F-1AD6-4EF9-9F4D-9841A6E71CD9}" name="Table26" displayName="Table26" ref="B8:H18" totalsRowShown="0" headerRowDxfId="251" dataDxfId="250" headerRowBorderDxfId="248" tableBorderDxfId="249" totalsRowBorderDxfId="247">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{46BFD46F-1AD6-4EF9-9F4D-9841A6E71CD9}" name="Table26" displayName="Table26" ref="B8:H18" totalsRowShown="0" headerRowDxfId="272" dataDxfId="271" headerRowBorderDxfId="269" tableBorderDxfId="270" totalsRowBorderDxfId="268">
   <autoFilter ref="B8:H18" xr:uid="{46BFD46F-1AD6-4EF9-9F4D-9841A6E71CD9}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7428D5F6-9EE3-49C6-B1BE-E57BFF59C7B0}" name="Resource Name" dataDxfId="246"/>
-    <tableColumn id="2" xr3:uid="{8EF82413-9CDB-4809-98BD-913D08316031}" name="In-progress" dataDxfId="245"/>
-    <tableColumn id="3" xr3:uid="{B4E2F1CC-113D-4DBD-9D8F-AFFEF819725B}" name="Done" dataDxfId="244"/>
-    <tableColumn id="4" xr3:uid="{A8C1C667-3FF8-4B7C-AEC8-2DD543708DEA}" name="Discarded / Hold" dataDxfId="243"/>
-    <tableColumn id="5" xr3:uid="{DF5599B4-665D-4C1C-8DFF-80F68FB27D64}" name="Hours Spent - Project" dataDxfId="242"/>
-    <tableColumn id="6" xr3:uid="{EAD7742A-CE22-40A8-90BD-AB0C0555FA39}" name="Hours Spent - Non Project" dataDxfId="241"/>
-    <tableColumn id="7" xr3:uid="{52C2DA4C-9FFA-48AF-B36A-2837B9ED00F1}" name="Comments" dataDxfId="240"/>
+    <tableColumn id="1" xr3:uid="{7428D5F6-9EE3-49C6-B1BE-E57BFF59C7B0}" name="Resource Name" dataDxfId="267"/>
+    <tableColumn id="2" xr3:uid="{8EF82413-9CDB-4809-98BD-913D08316031}" name="In-progress" dataDxfId="266"/>
+    <tableColumn id="3" xr3:uid="{B4E2F1CC-113D-4DBD-9D8F-AFFEF819725B}" name="Done" dataDxfId="265"/>
+    <tableColumn id="4" xr3:uid="{A8C1C667-3FF8-4B7C-AEC8-2DD543708DEA}" name="Discarded / Hold" dataDxfId="264"/>
+    <tableColumn id="5" xr3:uid="{DF5599B4-665D-4C1C-8DFF-80F68FB27D64}" name="Hours Spent - Project" dataDxfId="263"/>
+    <tableColumn id="6" xr3:uid="{EAD7742A-CE22-40A8-90BD-AB0C0555FA39}" name="Hours Spent - Non Project" dataDxfId="262"/>
+    <tableColumn id="7" xr3:uid="{52C2DA4C-9FFA-48AF-B36A-2837B9ED00F1}" name="Comments" dataDxfId="261"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9997EBAF-6A71-418E-B851-C8B1915211B5}" name="Table37" displayName="Table37" ref="B3:E5" totalsRowShown="0" headerRowDxfId="239" dataDxfId="238" headerRowBorderDxfId="236" tableBorderDxfId="237" totalsRowBorderDxfId="235">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9997EBAF-6A71-418E-B851-C8B1915211B5}" name="Table37" displayName="Table37" ref="B3:E5" totalsRowShown="0" headerRowDxfId="260" dataDxfId="259" headerRowBorderDxfId="257" tableBorderDxfId="258" totalsRowBorderDxfId="256">
   <autoFilter ref="B3:E5" xr:uid="{9997EBAF-6A71-418E-B851-C8B1915211B5}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7EDDA488-2881-4A15-9B9C-777D834D815F}" name="Column1" dataDxfId="234"/>
-    <tableColumn id="2" xr3:uid="{AFE02A3A-062D-4251-90A2-DA5D33B35508}" name="Column2" dataDxfId="233"/>
-    <tableColumn id="3" xr3:uid="{ED8EDBC8-15CC-4013-9D78-2DF925F82DCD}" name="Column3" dataDxfId="232"/>
-    <tableColumn id="4" xr3:uid="{62C95B61-46F3-42F7-A1B8-B69D37DD10DF}" name="Column4" dataDxfId="231"/>
+    <tableColumn id="1" xr3:uid="{7EDDA488-2881-4A15-9B9C-777D834D815F}" name="Column1" dataDxfId="255"/>
+    <tableColumn id="2" xr3:uid="{AFE02A3A-062D-4251-90A2-DA5D33B35508}" name="Column2" dataDxfId="254"/>
+    <tableColumn id="3" xr3:uid="{ED8EDBC8-15CC-4013-9D78-2DF925F82DCD}" name="Column3" dataDxfId="253"/>
+    <tableColumn id="4" xr3:uid="{62C95B61-46F3-42F7-A1B8-B69D37DD10DF}" name="Column4" dataDxfId="252"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{158FF28A-C282-456C-9B5E-C00624BAAA83}" name="Table2628" displayName="Table2628" ref="B7:H17" totalsRowShown="0" headerRowDxfId="230" dataDxfId="229" headerRowBorderDxfId="227" tableBorderDxfId="228" totalsRowBorderDxfId="226">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{158FF28A-C282-456C-9B5E-C00624BAAA83}" name="Table2628" displayName="Table2628" ref="B7:H17" totalsRowShown="0" headerRowDxfId="251" dataDxfId="250" headerRowBorderDxfId="248" tableBorderDxfId="249" totalsRowBorderDxfId="247">
   <autoFilter ref="B7:H17" xr:uid="{B1AE0DC9-D1F6-4E81-8D21-EBCF5F00B2B7}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{FA7FB678-9F12-498D-AC8C-EA3804FA6C35}" name="Resource Name" dataDxfId="225"/>
-    <tableColumn id="2" xr3:uid="{393B2B95-8815-4457-B760-B5E70FBBB0A5}" name="In-progress" dataDxfId="224"/>
-    <tableColumn id="3" xr3:uid="{400FD95F-D628-4B07-904B-1F5E11C584A9}" name="Done" dataDxfId="223"/>
-    <tableColumn id="4" xr3:uid="{DA6CAF01-4620-4AD9-8F22-C26934025345}" name="Discarded / Hold" dataDxfId="222"/>
-    <tableColumn id="5" xr3:uid="{D70C3DC4-AF79-4EA9-916E-2DDB8181B077}" name="Hours Spent - Project" dataDxfId="221"/>
-    <tableColumn id="6" xr3:uid="{BA92211F-9DF3-4897-86C0-5FE2D8FC9C28}" name="Hours Spent - Non Project" dataDxfId="220"/>
-    <tableColumn id="7" xr3:uid="{673B654E-8412-4BCE-9293-22370300F740}" name="Comments" dataDxfId="219"/>
+    <tableColumn id="1" xr3:uid="{FA7FB678-9F12-498D-AC8C-EA3804FA6C35}" name="Resource Name" dataDxfId="246"/>
+    <tableColumn id="2" xr3:uid="{393B2B95-8815-4457-B760-B5E70FBBB0A5}" name="In-progress" dataDxfId="245"/>
+    <tableColumn id="3" xr3:uid="{400FD95F-D628-4B07-904B-1F5E11C584A9}" name="Done" dataDxfId="244"/>
+    <tableColumn id="4" xr3:uid="{DA6CAF01-4620-4AD9-8F22-C26934025345}" name="Discarded / Hold" dataDxfId="243"/>
+    <tableColumn id="5" xr3:uid="{D70C3DC4-AF79-4EA9-916E-2DDB8181B077}" name="Hours Spent - Project" dataDxfId="242"/>
+    <tableColumn id="6" xr3:uid="{BA92211F-9DF3-4897-86C0-5FE2D8FC9C28}" name="Hours Spent - Non Project" dataDxfId="241"/>
+    <tableColumn id="7" xr3:uid="{673B654E-8412-4BCE-9293-22370300F740}" name="Comments" dataDxfId="240"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{FE979438-BC3B-45D4-9D8F-CD3DAC132734}" name="Table3759" displayName="Table3759" ref="B2:E4" totalsRowShown="0" headerRowDxfId="218" dataDxfId="217" headerRowBorderDxfId="215" tableBorderDxfId="216" totalsRowBorderDxfId="214">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{FE979438-BC3B-45D4-9D8F-CD3DAC132734}" name="Table3759" displayName="Table3759" ref="B2:E4" totalsRowShown="0" headerRowDxfId="239" dataDxfId="238" headerRowBorderDxfId="236" tableBorderDxfId="237" totalsRowBorderDxfId="235">
   <autoFilter ref="B2:E4" xr:uid="{ACFFF651-B126-4B94-92B4-F3166A18744A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D1B206E0-BC18-44C3-AC3A-E386EBC240DA}" name="Column1" dataDxfId="213"/>
-    <tableColumn id="2" xr3:uid="{93DD1EAA-9879-4D36-9385-C9A727E59F3F}" name="Column2" dataDxfId="212"/>
-    <tableColumn id="3" xr3:uid="{C1074E65-5D51-4E3A-B9B1-1AA797A29E27}" name="Column3" dataDxfId="211"/>
-    <tableColumn id="4" xr3:uid="{CB82D336-531C-4BB2-AC91-1CAC6E92E6B7}" name="Column4" dataDxfId="210"/>
+    <tableColumn id="1" xr3:uid="{D1B206E0-BC18-44C3-AC3A-E386EBC240DA}" name="Column1" dataDxfId="234"/>
+    <tableColumn id="2" xr3:uid="{93DD1EAA-9879-4D36-9385-C9A727E59F3F}" name="Column2" dataDxfId="233"/>
+    <tableColumn id="3" xr3:uid="{C1074E65-5D51-4E3A-B9B1-1AA797A29E27}" name="Column3" dataDxfId="232"/>
+    <tableColumn id="4" xr3:uid="{CB82D336-531C-4BB2-AC91-1CAC6E92E6B7}" name="Column4" dataDxfId="231"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1AE0DC9-D1F6-4E81-8D21-EBCF5F00B2B7}" name="Table262" displayName="Table262" ref="B7:H17" totalsRowShown="0" headerRowDxfId="209" dataDxfId="208" headerRowBorderDxfId="206" tableBorderDxfId="207" totalsRowBorderDxfId="205">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1AE0DC9-D1F6-4E81-8D21-EBCF5F00B2B7}" name="Table262" displayName="Table262" ref="B7:H17" totalsRowShown="0" headerRowDxfId="230" dataDxfId="229" headerRowBorderDxfId="227" tableBorderDxfId="228" totalsRowBorderDxfId="226">
   <autoFilter ref="B7:H17" xr:uid="{B1AE0DC9-D1F6-4E81-8D21-EBCF5F00B2B7}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C24C31E7-7289-4E64-B819-B73CBC38AAAC}" name="Resource Name" dataDxfId="204"/>
-    <tableColumn id="2" xr3:uid="{C2273D93-238B-4CCC-98AC-F0B06523F5CE}" name="In-progress" dataDxfId="203"/>
-    <tableColumn id="3" xr3:uid="{6E415DE6-A560-4988-877C-F716F699E312}" name="Done" dataDxfId="202"/>
-    <tableColumn id="4" xr3:uid="{C38A0EE9-47CE-4E5B-9C99-2B87137F78B9}" name="Discarded / Hold" dataDxfId="201"/>
-    <tableColumn id="5" xr3:uid="{1CC43B5C-77FA-4CED-8807-3E180A90E311}" name="Hours Spent - Project" dataDxfId="200"/>
-    <tableColumn id="6" xr3:uid="{356B8038-BBED-4F7F-B7BF-005E853F97B5}" name="Hours Spent - Non Project" dataDxfId="199"/>
-    <tableColumn id="7" xr3:uid="{AEE4776A-A2C0-4A70-ABAC-CB24A44ABC91}" name="Comments" dataDxfId="198"/>
+    <tableColumn id="1" xr3:uid="{C24C31E7-7289-4E64-B819-B73CBC38AAAC}" name="Resource Name" dataDxfId="225"/>
+    <tableColumn id="2" xr3:uid="{C2273D93-238B-4CCC-98AC-F0B06523F5CE}" name="In-progress" dataDxfId="224"/>
+    <tableColumn id="3" xr3:uid="{6E415DE6-A560-4988-877C-F716F699E312}" name="Done" dataDxfId="223"/>
+    <tableColumn id="4" xr3:uid="{C38A0EE9-47CE-4E5B-9C99-2B87137F78B9}" name="Discarded / Hold" dataDxfId="222"/>
+    <tableColumn id="5" xr3:uid="{1CC43B5C-77FA-4CED-8807-3E180A90E311}" name="Hours Spent - Project" dataDxfId="221"/>
+    <tableColumn id="6" xr3:uid="{356B8038-BBED-4F7F-B7BF-005E853F97B5}" name="Hours Spent - Non Project" dataDxfId="220"/>
+    <tableColumn id="7" xr3:uid="{AEE4776A-A2C0-4A70-ABAC-CB24A44ABC91}" name="Comments" dataDxfId="219"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{ACFFF651-B126-4B94-92B4-F3166A18744A}" name="Table375" displayName="Table375" ref="B2:E4" totalsRowShown="0" headerRowDxfId="197" dataDxfId="196" headerRowBorderDxfId="194" tableBorderDxfId="195" totalsRowBorderDxfId="193">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{ACFFF651-B126-4B94-92B4-F3166A18744A}" name="Table375" displayName="Table375" ref="B2:E4" totalsRowShown="0" headerRowDxfId="218" dataDxfId="217" headerRowBorderDxfId="215" tableBorderDxfId="216" totalsRowBorderDxfId="214">
   <autoFilter ref="B2:E4" xr:uid="{ACFFF651-B126-4B94-92B4-F3166A18744A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{83E614ED-6ABF-439F-A9B7-1518844696D4}" name="Column1" dataDxfId="192"/>
-    <tableColumn id="2" xr3:uid="{8840A839-8BBB-4DA6-9464-87D437F25D89}" name="Column2" dataDxfId="191"/>
-    <tableColumn id="3" xr3:uid="{ADAFE106-25BF-4F64-96D1-03AE2BD94818}" name="Column3" dataDxfId="190"/>
-    <tableColumn id="4" xr3:uid="{377D3DE4-F5C8-4A2C-99F9-A46F41134437}" name="Column4" dataDxfId="189"/>
+    <tableColumn id="1" xr3:uid="{83E614ED-6ABF-439F-A9B7-1518844696D4}" name="Column1" dataDxfId="213"/>
+    <tableColumn id="2" xr3:uid="{8840A839-8BBB-4DA6-9464-87D437F25D89}" name="Column2" dataDxfId="212"/>
+    <tableColumn id="3" xr3:uid="{ADAFE106-25BF-4F64-96D1-03AE2BD94818}" name="Column3" dataDxfId="211"/>
+    <tableColumn id="4" xr3:uid="{377D3DE4-F5C8-4A2C-99F9-A46F41134437}" name="Column4" dataDxfId="210"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A3D18560-C428-4868-B5CA-EBD1BE9F0FAE}" name="Table2621012" displayName="Table2621012" ref="B7:H17" totalsRowShown="0" headerRowDxfId="188" dataDxfId="187" headerRowBorderDxfId="185" tableBorderDxfId="186" totalsRowBorderDxfId="184">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A3D18560-C428-4868-B5CA-EBD1BE9F0FAE}" name="Table2621012" displayName="Table2621012" ref="B7:H17" totalsRowShown="0" headerRowDxfId="209" dataDxfId="208" headerRowBorderDxfId="206" tableBorderDxfId="207" totalsRowBorderDxfId="205">
   <autoFilter ref="B7:H17" xr:uid="{A30D6EFF-9BA6-4C4E-A49E-6E01C92313FC}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B99CA38C-6B70-44CB-94F1-34C0E18CAF38}" name="Resource Name" dataDxfId="183"/>
-    <tableColumn id="2" xr3:uid="{795625D3-DD18-4E77-8101-AB4369863885}" name="In-progress" dataDxfId="182"/>
-    <tableColumn id="3" xr3:uid="{F0C7DD64-C3AC-4A21-AA1F-AEAA2996C869}" name="Done" dataDxfId="181"/>
-    <tableColumn id="4" xr3:uid="{E1FC84EA-4ED4-4270-A149-E1E189A198C6}" name="Discarded / Hold" dataDxfId="180"/>
-    <tableColumn id="5" xr3:uid="{78CD14E8-1C2D-4CD1-A99E-E32FD07A85E3}" name="Hours Spent - Project" dataDxfId="179"/>
-    <tableColumn id="6" xr3:uid="{85ABF2B2-9FE1-4EFB-A748-B433E667EC67}" name="Hours Spent - Non Project" dataDxfId="178"/>
-    <tableColumn id="7" xr3:uid="{AA131BC6-5AD2-4A73-863A-093BE3A0E40F}" name="Comments" dataDxfId="177"/>
+    <tableColumn id="1" xr3:uid="{B99CA38C-6B70-44CB-94F1-34C0E18CAF38}" name="Resource Name" dataDxfId="204"/>
+    <tableColumn id="2" xr3:uid="{795625D3-DD18-4E77-8101-AB4369863885}" name="In-progress" dataDxfId="203"/>
+    <tableColumn id="3" xr3:uid="{F0C7DD64-C3AC-4A21-AA1F-AEAA2996C869}" name="Done" dataDxfId="202"/>
+    <tableColumn id="4" xr3:uid="{E1FC84EA-4ED4-4270-A149-E1E189A198C6}" name="Discarded / Hold" dataDxfId="201"/>
+    <tableColumn id="5" xr3:uid="{78CD14E8-1C2D-4CD1-A99E-E32FD07A85E3}" name="Hours Spent - Project" dataDxfId="200"/>
+    <tableColumn id="6" xr3:uid="{85ABF2B2-9FE1-4EFB-A748-B433E667EC67}" name="Hours Spent - Non Project" dataDxfId="199"/>
+    <tableColumn id="7" xr3:uid="{AA131BC6-5AD2-4A73-863A-093BE3A0E40F}" name="Comments" dataDxfId="198"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10256,8 +10830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FFC9C9-2848-4E62-84AF-44A9BCE5AD3F}">
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10499,7 +11073,7 @@
       </c>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" ht="196.5" customHeight="1">
+    <row r="15" spans="1:8" ht="303.75" customHeight="1">
       <c r="B15" s="19" t="s">
         <v>31</v>
       </c>
@@ -10507,7 +11081,7 @@
         <v>224</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="E15" s="35" t="s">
         <v>41</v>
@@ -10528,7 +11102,7 @@
         <v>191</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="35">
@@ -10559,6 +11133,320 @@
         <v>0.5</v>
       </c>
       <c r="H17" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7B8EE2-C09E-4672-919D-0F2EB56C51A0}">
+  <dimension ref="A4:H19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="57.28515625" customWidth="1"/>
+    <col min="3" max="3" width="72.28515625" customWidth="1"/>
+    <col min="4" max="5" width="70.42578125" customWidth="1"/>
+    <col min="6" max="6" width="72.7109375" customWidth="1"/>
+    <col min="7" max="7" width="82.28515625" customWidth="1"/>
+    <col min="8" max="8" width="109.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:8" ht="42">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="105">
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="21">
+      <c r="B6" s="6"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="21">
+      <c r="B7" s="4"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="105">
+      <c r="A9" s="12"/>
+      <c r="B9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="84">
+      <c r="B10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="35">
+        <v>1</v>
+      </c>
+      <c r="G10" s="35">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="1:8" ht="224.25" customHeight="1">
+      <c r="B11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="35">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="1:8" ht="177.75" customHeight="1">
+      <c r="B12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="35">
+        <v>2.15</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" ht="186.75" customHeight="1">
+      <c r="B13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="1:8" ht="248.25" customHeight="1">
+      <c r="B14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="1:8" ht="211.5" customHeight="1">
+      <c r="B15" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="G15" s="35">
+        <v>0</v>
+      </c>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" spans="1:8" ht="204" customHeight="1">
+      <c r="B16" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="35">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="2:8" ht="232.5" customHeight="1">
+      <c r="B17" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="45">
+        <v>3</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="2:8" ht="207.75" customHeight="1">
+      <c r="B18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="G18" s="35">
+        <v>0</v>
+      </c>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="2:8" ht="208.5" customHeight="1">
+      <c r="B19" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="42">
+        <v>2.5</v>
+      </c>
+      <c r="G19" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DCF4F85-0F49-4ED2-B213-894E273967AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32FE14C4-A086-453E-A390-BC722C6874A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 3(06-04-2022)" sheetId="40" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="230">
   <si>
     <t>Column1</t>
   </si>
@@ -931,10 +931,10 @@
     <t xml:space="preserve">                                                      Have to work on Api Implementations</t>
   </si>
   <si>
-    <t>9:30am to 10:00am : Brainstorming with team    
+    <t xml:space="preserve">9:30am to 10:00am : Brainstorming with team    
 10.10am to 11.30 am : Implemented Role Service and Role Model for API
 12.00pm to 12.30pm : Worked on EF Code First for Role Model class 
-12.30pm to 1.00 : System Allocation.</t>
+12.30pm to 1.00 : System Allocation.                                1.45pm to 3.00pm : worked on Data Acess layer            3.30pm to 4.15pm : Meeting with Rafi(changes in Operations and Api ) </t>
   </si>
   <si>
     <t xml:space="preserve"> 9:30 to 10:00 -Brainstorming with team                             10:00 to 10:30 - Working on layout for TAC's Upcoming drive.                                                                                          10:30 to 11:30 - Session with rafi.                                        11:30 to 11:45 - Break                                                           11:45 to 12:30 - continued on desiging the upcoming drives page .</t>
@@ -950,6 +950,15 @@
     <t>9:30am to 10:00am : Brainstorming with team    
 10.30am to 12.30 am : Reviewed Data model
 12.30pm to 1.00 : System Allocation</t>
+  </si>
+  <si>
+    <t>Have to work on Api Implementations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45am to 9.15am : worked on data acess layer for api
+9.15am to 10.30  : worked on Data Factory Classes
+10.30am to 10.45 : Refered sample API code in GitHub
+11.15am to 12.45 : worked on exception handling for api.                                                                                              1.30pm to 2.00 : reviewed my api implementation </t>
   </si>
   <si>
     <t>8.45 to 9.00 - Updating MOM &amp; Checking Mail
@@ -10830,8 +10839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FFC9C9-2848-4E62-84AF-44A9BCE5AD3F}">
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11147,8 +11156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7B8EE2-C09E-4672-919D-0F2EB56C51A0}">
   <dimension ref="A4:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11352,10 +11361,10 @@
         <v>27</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E15" s="35" t="s">
         <v>41</v>
@@ -11397,7 +11406,7 @@
         <v>224</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>41</v>

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32FE14C4-A086-453E-A390-BC722C6874A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0EDC525-F3D5-45F7-99BD-1EAA4C8A13FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="13" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 3(06-04-2022)" sheetId="40" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="232">
   <si>
     <t>Column1</t>
   </si>
@@ -947,9 +947,9 @@
 11.15to 11.45-Break                                                                11.45 to 12.30 - Studied how to connect EF with Web API Project                                                                               1.00 to 2.00 - Lunch                                                                     2.00 to 3.00 - How to use Postman App ( get post put methods, Using api's )                                                                     3.00 to 3.30 -  Idle                                                                                      3.30 to 4.00 - Review Meeting with Rafi                                                                </t>
   </si>
   <si>
-    <t>9:30am to 10:00am : Brainstorming with team    
+    <t xml:space="preserve">9:30am to 10:00am : Brainstorming with team    
 10.30am to 12.30 am : Reviewed Data model
-12.30pm to 1.00 : System Allocation</t>
+12.30pm to 1.00 am: System Allocation                           1.45 pm - 3.15 pm : Refined services                            3.30 pm - 4.10  pm: review with rafi(data model, WebApi, layout) </t>
   </si>
   <si>
     <t>Have to work on Api Implementations</t>
@@ -967,6 +967,14 @@
 10.45 to 11.15 - Break
 11.15 to 11.30 - General team Discussion
 11.30 to 12.30 - Created prototype for Admin ( final version )</t>
+  </si>
+  <si>
+    <t>Working on Register screen</t>
+  </si>
+  <si>
+    <t>8.45 am - 10.45 am : Corrections done in Data model and Prototype
+11.15 am - 12.45 pm : register layout
+1.15 pm - 2.30 pm : Refined Services(Role, Department, Employee, Drive, Pool, Location)</t>
   </si>
 </sst>
 </file>
@@ -10839,8 +10847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FFC9C9-2848-4E62-84AF-44A9BCE5AD3F}">
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11054,7 +11062,7 @@
         <v>41</v>
       </c>
       <c r="F13" s="35">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="G13" s="35">
         <v>0</v>
@@ -11115,7 +11123,7 @@
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="35">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="G16" s="35">
         <v>0</v>
@@ -11156,8 +11164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7B8EE2-C09E-4672-919D-0F2EB56C51A0}">
   <dimension ref="A4:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11370,7 +11378,7 @@
         <v>41</v>
       </c>
       <c r="F15" s="35">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="G15" s="35">
         <v>0</v>
@@ -11424,12 +11432,14 @@
         <v>34</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="D18" s="44"/>
+        <v>230</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>231</v>
+      </c>
       <c r="E18" s="35"/>
       <c r="F18" s="35">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="G18" s="35">
         <v>0</v>

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25217"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B05547DA-F93C-4E5B-9F79-FAA005AEA20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2598BE30-3BFA-401B-9491-14E8AE006B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 3(06-04-2022)" sheetId="40" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="252">
   <si>
     <t>Column1</t>
   </si>
@@ -1098,6 +1098,48 @@
 9:45-10:45- Softskills Session with Savitha(about Problem Solving)
 10:45-11:00 - Break
 11:00-12:00 - Corrected Layout page for Profile</t>
+  </si>
+  <si>
+    <t>Today :
+8.45-9.30Am System allocation and installation
+9.30-10.30Am Sessin with Savitha
+10.30-10.45Am Break
+10.45-12.00Am Layout for Create Invite
+Yesterday :
+4.20 to 4.40 : Estimation session with Rafi
+4.45-5.30Pm college project meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Yesterday :
+1:30 to 2:30    - lunch
+3:00 to 3:45    - Review meeting with Raafi.
+3:45 to 4:10    - Break.
+4:10 to 4:20    - Idle 
+4:20 to 4:40    - Estimation session with Raafi.
+4:40 to 6:00    - Worked on upcoming drives page.                                 Today:
+8:45 to 9:00      - Checked in the mail.
+9:00 to 9:30      - Working on listing page.
+9:30 to 10:30     - Softskills session with savitha ( Problem solving).
+10:30 to 10:45    - Break
+10:45 to 12:30    - continued on listing (pagination,responsiveness).</t>
+  </si>
+  <si>
+    <t>Yesterday :
+1.30 to 2.30 : lunch
+3.00 to 3.45 : Review Meeting with Rafi
+3.45 to 4.10 : Break
+4.20 to 4.40 : Estimation session with Rafi
+4.40 to 5.45 : Wroked on unique page identification for the whole system.
+5.45 to 6.00 : General team meeting on Layouts &amp; Unique pages in the system
+Today :
+8.45 to 9.00 : Checking mails &amp; Filled bank details for Pay role
+9.00 to 9.15 : Updating MOM
+9.15 to 9.30 : Surfed how to publish HTML pages in Github
+9.45 to 10.30 : Soft skill session with Savitha.
+10.30 to 11.00 : Break
+11.00 to 12.00 : Identifying unique pages and Operations for Estimation
+12.00 to 1.00 : Listing down the API usage for particular pages for reuse and Estimation</t>
   </si>
 </sst>
 </file>
@@ -12162,8 +12204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7B8EE2-C09E-4672-919D-0F2EB56C51A0}">
   <dimension ref="A4:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12282,7 +12324,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" ht="315" customHeight="1">
+    <row r="11" spans="1:8" ht="348" customHeight="1">
       <c r="B11" s="19" t="s">
         <v>17</v>
       </c>
@@ -12303,7 +12345,7 @@
       </c>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="287.25" customHeight="1">
+    <row r="12" spans="1:8" ht="327.75" customHeight="1">
       <c r="B12" s="19" t="s">
         <v>20</v>
       </c>
@@ -12324,7 +12366,7 @@
       </c>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="186.75" customHeight="1">
+    <row r="13" spans="1:8" ht="230.25" customHeight="1">
       <c r="B13" s="19" t="s">
         <v>21</v>
       </c>
@@ -12332,7 +12374,7 @@
         <v>233</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>41</v>
@@ -12362,7 +12404,7 @@
       <c r="G14" s="35"/>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" ht="211.5" customHeight="1">
+    <row r="15" spans="1:8" ht="178.5" customHeight="1">
       <c r="B15" s="19" t="s">
         <v>27</v>
       </c>
@@ -12383,7 +12425,7 @@
       </c>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" spans="1:8" ht="204" customHeight="1">
+    <row r="16" spans="1:8" ht="395.25" customHeight="1">
       <c r="B16" s="19" t="s">
         <v>30</v>
       </c>
@@ -12391,7 +12433,7 @@
         <v>167</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>41</v>
@@ -12404,7 +12446,7 @@
       </c>
       <c r="H16" s="25"/>
     </row>
-    <row r="17" spans="2:8" ht="232.5" customHeight="1">
+    <row r="17" spans="2:8" ht="408.75" customHeight="1">
       <c r="B17" s="19" t="s">
         <v>31</v>
       </c>
@@ -12412,7 +12454,7 @@
         <v>240</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>41</v>

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2598BE30-3BFA-401B-9491-14E8AE006B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CF2CBC9-4FE0-4C43-A088-789C9A7A9C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="253">
   <si>
     <t>Column1</t>
   </si>
@@ -1140,6 +1140,12 @@
 10.30 to 11.00 : Break
 11.00 to 12.00 : Identifying unique pages and Operations for Estimation
 12.00 to 1.00 : Listing down the API usage for particular pages for reuse and Estimation</t>
+  </si>
+  <si>
+    <t>Yesterday:                                                                            3.00 to 3.45 : Review Meeting with Rafi
+4.20 to 4.40 : Session with Rafi (Estimation)                         5.45 to 6.00 : Meeting with team members(Common Layout).                                                                                           Today:                                                                                              8.45 am - 9.30 am : Login page 
+9.45 am - 10.30 am : Soft skill Session with savitha
+11.00 am - 12.30 pm : Common Layout and register page</t>
   </si>
 </sst>
 </file>
@@ -11890,7 +11896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF485B7A-AA69-4806-81E2-DF87DCB7E7C5}">
   <dimension ref="A4:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12205,7 +12211,7 @@
   <dimension ref="A4:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12446,7 +12452,7 @@
       </c>
       <c r="H16" s="25"/>
     </row>
-    <row r="17" spans="2:8" ht="408.75" customHeight="1">
+    <row r="17" spans="2:8" ht="409.5" customHeight="1">
       <c r="B17" s="19" t="s">
         <v>31</v>
       </c>
@@ -12467,7 +12473,7 @@
       </c>
       <c r="H17" s="26"/>
     </row>
-    <row r="18" spans="2:8" ht="207.75" customHeight="1">
+    <row r="18" spans="2:8" ht="291.75" customHeight="1">
       <c r="B18" s="19" t="s">
         <v>34</v>
       </c>
@@ -12475,14 +12481,14 @@
         <v>242</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="35">
-        <v>4</v>
-      </c>
-      <c r="G18" s="35">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>217</v>
       </c>
       <c r="H18" s="27"/>
     </row>

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25216"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CF2CBC9-4FE0-4C43-A088-789C9A7A9C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67B85FC5-9DD3-484B-ABBA-A803AFA7F90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="255">
   <si>
     <t>Column1</t>
   </si>
@@ -1070,6 +1070,19 @@
 12.45 pm - 1.30 pm : BREAK
 1.30 PM - 2.30 PM: Github troubleshooting 
 2.30 pm - 3.30 pm :  Meeting with Rafi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Yesterday):                                                                                             3:00-3:45-Review with Rafi(Project)
+3:45-4:05-Break
+4:20-4:40-Estimation session with Rafi
+5:00-5:30-Written common and unique pages for the system
+5:40-6:00-Discussion with team about Layouts                                                                                                       (Today):                                                                                        8:15AM-8:20AM-Checking Mails.
+8:40AM-10:30AM -Worked on Layout(CreatePool)
+10:30AM-10:45AM-Break
+10:45AM-11:15AM -Refactored(Naming ) Common Css file.
+11:15AM-11:30PM-Brainstorming with team.
+11:30AM-12:50PM -Refined Layout(DashBoard)
+</t>
   </si>
   <si>
     <t>Exploring EF Core</t>
@@ -1110,13 +1123,17 @@
 4.45-5.30Pm college project meeting</t>
   </si>
   <si>
+    <t>Yesterday:                                                                                    3.00 to 3.45 : Review Meeting with Rafi
+4.20 to 4.40 : Session with Rafi (Estimation)                         5.30 to 6.00 : Meeting with team members(Common Layout).                                                                                                Today:                                                                                        9:00-11:00-Attended college review                                                       11:00-11:30-Merging CSS File                                                          11:30-1:00-Layout for View Pools and Notifications</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 Yesterday :
 1:30 to 2:30    - lunch
-3:00 to 3:45    - Review meeting with Raafi.
+3:00 to 3:45    - Review meeting with Rafi.
 3:45 to 4:10    - Break.
 4:10 to 4:20    - Idle 
-4:20 to 4:40    - Estimation session with Raafi.
+4:20 to 4:40    - Estimation session with Rafi.
 4:40 to 6:00    - Worked on upcoming drives page.                                 Today:
 8:45 to 9:00      - Checked in the mail.
 9:00 to 9:30      - Working on listing page.
@@ -12210,8 +12227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7B8EE2-C09E-4672-919D-0F2EB56C51A0}">
   <dimension ref="A4:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12309,7 +12326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="165.75">
+    <row r="10" spans="1:8" ht="331.5">
       <c r="B10" s="19" t="s">
         <v>13</v>
       </c>
@@ -12317,7 +12334,7 @@
         <v>228</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="E10" s="35" t="s">
         <v>41</v>
@@ -12335,10 +12352,10 @@
         <v>17</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E11" s="35" t="s">
         <v>41</v>
@@ -12359,7 +12376,7 @@
         <v>160</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E12" s="35" t="s">
         <v>41</v>
@@ -12380,7 +12397,7 @@
         <v>233</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>41</v>
@@ -12401,7 +12418,7 @@
         <v>235</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="E14" s="35" t="s">
         <v>41</v>
@@ -12439,7 +12456,7 @@
         <v>167</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>41</v>
@@ -12460,7 +12477,7 @@
         <v>240</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>41</v>
@@ -12481,7 +12498,7 @@
         <v>242</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="35">

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67B85FC5-9DD3-484B-ABBA-A803AFA7F90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C9153E6-5AD5-4593-9B42-C4B2ACBBBF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="257">
   <si>
     <t>Column1</t>
   </si>
@@ -1125,6 +1125,18 @@
   <si>
     <t>Yesterday:                                                                                    3.00 to 3.45 : Review Meeting with Rafi
 4.20 to 4.40 : Session with Rafi (Estimation)                         5.30 to 6.00 : Meeting with team members(Common Layout).                                                                                                Today:                                                                                        9:00-11:00-Attended college review                                                       11:00-11:30-Merging CSS File                                                          11:30-1:00-Layout for View Pools and Notifications</t>
+  </si>
+  <si>
+    <t>Have to complete estimation</t>
+  </si>
+  <si>
+    <t>Yesterday:                                                                                       3.00pm to 3.45pm : Review Meeting with Rafi
+4.20pm to 4.40pm : Session on Estimation with Rafi             5.00pm to 5.30pm : worked on nav bar                            5.45pm to 6.00pm : Meeting with team members(Common Layout).                                                                                      Today:
+8.45am to 9.30am : worked on login and register page css
+9.30am to 10.30  : Softskills with savitha(problem solving)
+11.15am to 11.45 : Created new repo and Hosted static HTML layouts
+11.50am to 1.00pm : worked on estimations
+1.30pm to 2.00pm : spoke with college mentor</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1160,9 +1172,9 @@
   </si>
   <si>
     <t>Yesterday:                                                                            3.00 to 3.45 : Review Meeting with Rafi
-4.20 to 4.40 : Session with Rafi (Estimation)                         5.45 to 6.00 : Meeting with team members(Common Layout).                                                                                           Today:                                                                                              8.45 am - 9.30 am : Login page 
+4.20 to 4.40 : Session with Rafi (Estimation)             5.00pm to 5.30pm : worked on comman layout                                                     5.45 to 6.00 : Meeting with team members(Common Layout).                                                                                           Today:                                                                                              8.45 am - 9.30 am : worked on Login page 
 9.45 am - 10.30 am : Soft skill Session with savitha
-11.00 am - 12.30 pm : Common Layout and register page</t>
+11.00 am - 12.30 pm : worked on register page</t>
   </si>
 </sst>
 </file>
@@ -12227,8 +12239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7B8EE2-C09E-4672-919D-0F2EB56C51A0}">
   <dimension ref="A4:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12427,15 +12439,15 @@
       <c r="G14" s="35"/>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" ht="178.5" customHeight="1">
+    <row r="15" spans="1:8" ht="329.25" customHeight="1">
       <c r="B15" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E15" s="35" t="s">
         <v>41</v>
@@ -12456,7 +12468,7 @@
         <v>167</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>41</v>
@@ -12477,7 +12489,7 @@
         <v>240</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>41</v>
@@ -12498,7 +12510,7 @@
         <v>242</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="35">

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59C30DC1-1F5E-466E-A3DD-5BAC07469400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{384F3761-3DBC-438A-B925-23C459AEAFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <sheet name="Day15 ( 23-04-2022 )" sheetId="54" r:id="rId13"/>
     <sheet name="Day16 (25-04-2022) (2)" sheetId="58" r:id="rId14"/>
     <sheet name="Day17(26-04-2022)" sheetId="57" r:id="rId15"/>
-    <sheet name="Day18(27-04-2022)  (2)" sheetId="61" r:id="rId16"/>
+    <sheet name="Day18(27-04-2022) " sheetId="61" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="274">
   <si>
     <t>Column1</t>
   </si>
@@ -1053,9 +1053,10 @@
     <t>Working on Register screen</t>
   </si>
   <si>
-    <t>8.45 am - 10.45 am : Corrections done in Data model and Prototype
+    <t xml:space="preserve">8.45 am - 10.45 am : Corrections done in Data model and Prototype
 11.15 am - 12.45 pm : register layout
-1.15 pm - 2.30 pm : Refined Services(Role, Department, Employee, Drive, Pool, Location)</t>
+1.15 pm - 2.30 pm : Refined Services(Role, Department, Employee, Drive, Pool, Location)                                    3.00 to 3.45 : Review Meeting with Rafi
+4.20 to 4.40 : Session with Rafi (Estimation)             5.00pm to 5.30pm : worked on comman layout                                                     5.45 to 6.00 : Meeting with team members(Common Layout).                                                                                           </t>
   </si>
   <si>
     <t>Should focus on Angular and Interactions</t>
@@ -1172,10 +1173,19 @@
 12.00 to 1.00 : Listing down the API usage for particular pages for reuse and Estimation</t>
   </si>
   <si>
-    <t>Yesterday:                                                                            3.00 to 3.45 : Review Meeting with Rafi
-4.20 to 4.40 : Session with Rafi (Estimation)             5.00pm to 5.30pm : worked on comman layout                                                     5.45 to 6.00 : Meeting with team members(Common Layout).                                                                                           Today:                                                                                              8.45 am - 9.30 am : worked on Login page 
+    <t>Working on Common layout</t>
+  </si>
+  <si>
+    <t>8.45 am - 9.30 am : worked on Login page 
 9.45 am - 10.30 am : Soft skill Session with savitha
-11.00 am - 12.30 pm : worked on register page</t>
+11.00 am - 12.30 pm : worked on register page 
+1.30 pm - 2.30 pm :Worked on Common Layout page
+2.30 pm - 2.50 pm : Review with rafi
+3.10 pm - 3.30 : Team Meeting
+3.30 - 4.00 : Worked on common layout page
+4.30 - 5.45 :Worked on common layout page
+7.00 - 8.00 : completed common layout page
+9.00 - 11.00 : Worked on current drives, home, profile, view response</t>
   </si>
   <si>
     <t xml:space="preserve">Should focus on Layout </t>
@@ -1268,7 +1278,7 @@
 8.00 to 9.00 : Worked on Most reused API &amp; Operation for Priority.</t>
   </si>
   <si>
-    <t>Vinoth (TL)</t>
+    <t>Vinoth J</t>
   </si>
   <si>
     <t xml:space="preserve">8.45 am  -  9.00 am : checking mails
@@ -12598,322 +12608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF485B7A-AA69-4806-81E2-DF87DCB7E7C5}">
   <dimension ref="A4:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="57.28515625" customWidth="1"/>
-    <col min="3" max="3" width="72.28515625" customWidth="1"/>
-    <col min="4" max="5" width="70.42578125" customWidth="1"/>
-    <col min="6" max="6" width="72.7109375" customWidth="1"/>
-    <col min="7" max="7" width="82.28515625" customWidth="1"/>
-    <col min="8" max="8" width="109.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:8" ht="42">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" ht="105">
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" ht="21">
-      <c r="B6" s="6"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="21">
-      <c r="B7" s="4"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="20.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="105">
-      <c r="A9" s="12"/>
-      <c r="B9" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="165.75">
-      <c r="B10" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="35">
-        <v>1</v>
-      </c>
-      <c r="G10" s="35">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H10" s="23"/>
-    </row>
-    <row r="11" spans="1:8" ht="224.25" customHeight="1">
-      <c r="B11" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="35">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="H11" s="24"/>
-    </row>
-    <row r="12" spans="1:8" ht="177.75" customHeight="1">
-      <c r="B12" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="35">
-        <v>2.15</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="H12" s="24"/>
-    </row>
-    <row r="13" spans="1:8" ht="186.75" customHeight="1">
-      <c r="B13" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="35">
-        <v>2.5</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="H13" s="25"/>
-    </row>
-    <row r="14" spans="1:8" ht="248.25" customHeight="1">
-      <c r="B14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="25"/>
-    </row>
-    <row r="15" spans="1:8" ht="211.5" customHeight="1">
-      <c r="B15" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>238</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="35">
-        <v>4</v>
-      </c>
-      <c r="G15" s="35">
-        <v>0</v>
-      </c>
-      <c r="H15" s="25"/>
-    </row>
-    <row r="16" spans="1:8" ht="204" customHeight="1">
-      <c r="B16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="35">
-        <v>3</v>
-      </c>
-      <c r="G16" s="35">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H16" s="25"/>
-    </row>
-    <row r="17" spans="2:8" ht="232.5" customHeight="1">
-      <c r="B17" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>241</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="45">
-        <v>3</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="H17" s="26"/>
-    </row>
-    <row r="18" spans="2:8" ht="207.75" customHeight="1">
-      <c r="B18" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35">
-        <v>4</v>
-      </c>
-      <c r="G18" s="35">
-        <v>0</v>
-      </c>
-      <c r="H18" s="27"/>
-    </row>
-    <row r="19" spans="2:8" ht="208.5" customHeight="1">
-      <c r="B19" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="42">
-        <v>4.5</v>
-      </c>
-      <c r="G19" s="42">
-        <v>2.5</v>
-      </c>
-      <c r="H19" s="28"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7B8EE2-C09E-4672-919D-0F2EB56C51A0}">
-  <dimension ref="A4:H19"/>
-  <sheetViews>
-    <sheetView topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13011,7 +12707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="331.5">
+    <row r="10" spans="1:8" ht="165.75">
       <c r="B10" s="19" t="s">
         <v>13</v>
       </c>
@@ -13019,7 +12715,7 @@
         <v>228</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="E10" s="35" t="s">
         <v>41</v>
@@ -13032,49 +12728,49 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" ht="348" customHeight="1">
+    <row r="11" spans="1:8" ht="224.25" customHeight="1">
       <c r="B11" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="E11" s="35" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="35">
-        <v>4</v>
-      </c>
-      <c r="G11" s="35">
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>214</v>
       </c>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="327.75" customHeight="1">
+    <row r="12" spans="1:8" ht="177.75" customHeight="1">
       <c r="B12" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>160</v>
+        <v>231</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="E12" s="35" t="s">
         <v>41</v>
       </c>
       <c r="F12" s="35">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G12" s="35">
-        <v>1</v>
+        <v>2.15</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>217</v>
       </c>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="230.25" customHeight="1">
+    <row r="13" spans="1:8" ht="186.75" customHeight="1">
       <c r="B13" s="19" t="s">
         <v>21</v>
       </c>
@@ -13082,7 +12778,7 @@
         <v>233</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>41</v>
@@ -13103,7 +12799,7 @@
         <v>235</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E14" s="35" t="s">
         <v>41</v>
@@ -13112,15 +12808,15 @@
       <c r="G14" s="35"/>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" ht="329.25" customHeight="1">
+    <row r="15" spans="1:8" ht="211.5" customHeight="1">
       <c r="B15" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E15" s="35" t="s">
         <v>41</v>
@@ -13133,7 +12829,7 @@
       </c>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" spans="1:8" ht="395.25" customHeight="1">
+    <row r="16" spans="1:8" ht="204" customHeight="1">
       <c r="B16" s="19" t="s">
         <v>30</v>
       </c>
@@ -13141,7 +12837,7 @@
         <v>167</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>41</v>
@@ -13154,7 +12850,7 @@
       </c>
       <c r="H16" s="25"/>
     </row>
-    <row r="17" spans="2:8" ht="409.5" customHeight="1">
+    <row r="17" spans="2:8" ht="232.5" customHeight="1">
       <c r="B17" s="19" t="s">
         <v>31</v>
       </c>
@@ -13162,7 +12858,7 @@
         <v>240</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>41</v>
@@ -13175,7 +12871,7 @@
       </c>
       <c r="H17" s="26"/>
     </row>
-    <row r="18" spans="2:8" ht="291.75" customHeight="1">
+    <row r="18" spans="2:8" ht="207.75" customHeight="1">
       <c r="B18" s="19" t="s">
         <v>34</v>
       </c>
@@ -13183,14 +12879,14 @@
         <v>242</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="35">
-        <v>5</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>217</v>
+        <v>4</v>
+      </c>
+      <c r="G18" s="35">
+        <v>0</v>
       </c>
       <c r="H18" s="27"/>
     </row>
@@ -13199,10 +12895,10 @@
         <v>54</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="E19" s="35" t="s">
         <v>41</v>
@@ -13224,12 +12920,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7E5E1D-E354-4FCD-AD92-53A00E511336}">
-  <dimension ref="A4:H21"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7B8EE2-C09E-4672-919D-0F2EB56C51A0}">
+  <dimension ref="A4:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13348,6 +13044,322 @@
       </c>
       <c r="H10" s="23"/>
     </row>
+    <row r="11" spans="1:8" ht="348" customHeight="1">
+      <c r="B11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="35">
+        <v>4</v>
+      </c>
+      <c r="G11" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="1:8" ht="327.75" customHeight="1">
+      <c r="B12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="35">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G12" s="35">
+        <v>1</v>
+      </c>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" ht="230.25" customHeight="1">
+      <c r="B13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="1:8" ht="248.25" customHeight="1">
+      <c r="B14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="1:8" ht="329.25" customHeight="1">
+      <c r="B15" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="35">
+        <v>4</v>
+      </c>
+      <c r="G15" s="35">
+        <v>0</v>
+      </c>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" spans="1:8" ht="395.25" customHeight="1">
+      <c r="B16" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="35">
+        <v>3</v>
+      </c>
+      <c r="G16" s="35">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="2:8" ht="409.5" customHeight="1">
+      <c r="B17" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="45">
+        <v>3</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="2:8" ht="291.75" customHeight="1">
+      <c r="B18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35">
+        <v>9.25</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="2:8" ht="208.5" customHeight="1">
+      <c r="B19" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="42">
+        <v>4.5</v>
+      </c>
+      <c r="G19" s="42">
+        <v>2.5</v>
+      </c>
+      <c r="H19" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7E5E1D-E354-4FCD-AD92-53A00E511336}">
+  <dimension ref="A4:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="57.28515625" customWidth="1"/>
+    <col min="3" max="3" width="72.28515625" customWidth="1"/>
+    <col min="4" max="5" width="70.42578125" customWidth="1"/>
+    <col min="6" max="6" width="72.7109375" customWidth="1"/>
+    <col min="7" max="7" width="82.28515625" customWidth="1"/>
+    <col min="8" max="8" width="109.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:8" ht="42">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="105">
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="21">
+      <c r="B6" s="6"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="21">
+      <c r="B7" s="4"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="105">
+      <c r="A9" s="12"/>
+      <c r="B9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="331.5">
+      <c r="B10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="35">
+        <v>1</v>
+      </c>
+      <c r="G10" s="35">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H10" s="23"/>
+    </row>
     <row r="11" spans="1:8" ht="120.75" customHeight="1">
       <c r="B11" s="19" t="s">
         <v>17</v>
@@ -13356,7 +13368,7 @@
         <v>73</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E11" s="35" t="s">
         <v>41</v>
@@ -13367,13 +13379,13 @@
     </row>
     <row r="12" spans="1:8" ht="373.5" customHeight="1">
       <c r="B12" s="19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E12" s="35" t="s">
         <v>41</v>
@@ -13394,7 +13406,7 @@
         <v>73</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>41</v>
@@ -13422,13 +13434,13 @@
     </row>
     <row r="15" spans="1:8" ht="405" customHeight="1">
       <c r="B15" s="19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E15" s="35" t="s">
         <v>41</v>
@@ -13449,7 +13461,7 @@
         <v>167</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>41</v>
@@ -13464,13 +13476,13 @@
     </row>
     <row r="17" spans="2:8" ht="409.5" customHeight="1">
       <c r="B17" s="19" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="35">
@@ -13481,12 +13493,18 @@
     </row>
     <row r="18" spans="2:8" ht="336" customHeight="1">
       <c r="B18" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="13"/>
+        <v>272</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>257</v>
+      </c>
       <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
+      <c r="F18" s="35">
+        <v>9.25</v>
+      </c>
       <c r="G18" s="35"/>
       <c r="H18" s="25"/>
     </row>
@@ -13498,7 +13516,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E19" s="35" t="s">
         <v>41</v>

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{384F3761-3DBC-438A-B925-23C459AEAFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16D39561-8163-4B3C-98E9-FF37AAFC3FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="275">
   <si>
     <t>Column1</t>
   </si>
@@ -1203,6 +1203,23 @@
 11.45 am -  12.15 pm : Creating common paging layout - Admin,TAC
 12.15 pm - 12.45 pm : worked out WEB API (GEO-LOCATION,WORKER API AND VALIDATION)  
 12.45 pm - 1.30 pm : Break</t>
+  </si>
+  <si>
+    <t>8:15AM-8:20AM-Checking Mails.
+8:40AM-10:30AM -Worked on Layout(CreatePool).
+10:30AM-10:45AM-Break.
+10:45AM-11:15AM -idle.
+11:15AM-11:30PM-Refined Layout( Create pool).
+11:30AM-12:50PM -Worked on Layout( Management Dashboard).
+12:50PM-1:50PM -Lunch Break.
+1:50PM-2:25PM - Refined Layout(DashBoard).
+2:20PM-2:25PM -idle.
+2:30PM-2:50PM -Review with Rafi.
+2:50PM-3:10PM -Break.
+3:10PM-3:30PM -Meeting with Team.
+3:30PM-4:30PM -Worked on Layout( Management Dashboard).
+4:30PM-5:30PM -Refined Layout( Management Dashboard).
+5:30PM-6:00PM -Worked on Layout( Dashboard Selection).</t>
   </si>
   <si>
     <t>AB</t>
@@ -13240,8 +13257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7E5E1D-E354-4FCD-AD92-53A00E511336}">
   <dimension ref="A4:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13339,7 +13356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="331.5">
+    <row r="10" spans="1:8" ht="393">
       <c r="B10" s="19" t="s">
         <v>13</v>
       </c>
@@ -13347,16 +13364,16 @@
         <v>228</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="E10" s="35" t="s">
         <v>41</v>
       </c>
       <c r="F10" s="35">
-        <v>1</v>
+        <v>7.15</v>
       </c>
       <c r="G10" s="35">
-        <v>2.2000000000000002</v>
+        <v>2.25</v>
       </c>
       <c r="H10" s="23"/>
     </row>
@@ -13368,7 +13385,7 @@
         <v>73</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E11" s="35" t="s">
         <v>41</v>
@@ -13379,13 +13396,13 @@
     </row>
     <row r="12" spans="1:8" ht="373.5" customHeight="1">
       <c r="B12" s="19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E12" s="35" t="s">
         <v>41</v>
@@ -13406,7 +13423,7 @@
         <v>73</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>41</v>
@@ -13434,13 +13451,13 @@
     </row>
     <row r="15" spans="1:8" ht="405" customHeight="1">
       <c r="B15" s="19" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E15" s="35" t="s">
         <v>41</v>
@@ -13461,7 +13478,7 @@
         <v>167</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>41</v>
@@ -13476,13 +13493,13 @@
     </row>
     <row r="17" spans="2:8" ht="409.5" customHeight="1">
       <c r="B17" s="19" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="35">
@@ -13493,7 +13510,7 @@
     </row>
     <row r="18" spans="2:8" ht="336" customHeight="1">
       <c r="B18" s="19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C18" s="35" t="s">
         <v>256</v>
@@ -13516,7 +13533,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E19" s="35" t="s">
         <v>41</v>

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16D39561-8163-4B3C-98E9-FF37AAFC3FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E68A3517-9E06-42B7-A9AB-762EA65241EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="278">
   <si>
     <t>Column1</t>
   </si>
@@ -1205,6 +1205,9 @@
 12.45 pm - 1.30 pm : Break</t>
   </si>
   <si>
+    <t>Working On Layouts</t>
+  </si>
+  <si>
     <t>8:15AM-8:20AM-Checking Mails.
 8:40AM-10:30AM -Worked on Layout(CreatePool).
 10:30AM-10:45AM-Break.
@@ -1246,6 +1249,21 @@
   </si>
   <si>
     <t>Ab</t>
+  </si>
+  <si>
+    <t>Exploring Angular and Working on Layouts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:00-11:00 - Attented College Project Review
+11:00-11:30-Merging CSS File                                                          
+11:30-1:00-Layout for Notifications
+2:00-2:30-Layout for ViewPools(Filter)
+2:30PM-2:50PM -Review with Rafi.
+3:10PM-3:30PM -Meeting with Team.
+3:30-4:00-Layout for ViewPools (Dropdown)
+4:00-5:00-Refined Common Layout
+5:00-6:00-Merging CSS file 
+</t>
   </si>
   <si>
     <t xml:space="preserve">Prithvi </t>
@@ -13257,8 +13275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7E5E1D-E354-4FCD-AD92-53A00E511336}">
   <dimension ref="A4:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13361,10 +13379,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E10" s="35" t="s">
         <v>41</v>
@@ -13385,7 +13403,7 @@
         <v>73</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E11" s="35" t="s">
         <v>41</v>
@@ -13396,13 +13414,13 @@
     </row>
     <row r="12" spans="1:8" ht="373.5" customHeight="1">
       <c r="B12" s="19" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E12" s="35" t="s">
         <v>41</v>
@@ -13423,7 +13441,7 @@
         <v>73</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>41</v>
@@ -13437,10 +13455,10 @@
         <v>24</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="E14" s="35" t="s">
         <v>41</v>
@@ -13451,13 +13469,13 @@
     </row>
     <row r="15" spans="1:8" ht="405" customHeight="1">
       <c r="B15" s="19" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E15" s="35" t="s">
         <v>41</v>
@@ -13478,7 +13496,7 @@
         <v>167</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>41</v>
@@ -13493,13 +13511,13 @@
     </row>
     <row r="17" spans="2:8" ht="409.5" customHeight="1">
       <c r="B17" s="19" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="35">
@@ -13510,7 +13528,7 @@
     </row>
     <row r="18" spans="2:8" ht="336" customHeight="1">
       <c r="B18" s="19" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C18" s="35" t="s">
         <v>256</v>
@@ -13533,7 +13551,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E19" s="35" t="s">
         <v>41</v>

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E68A3517-9E06-42B7-A9AB-762EA65241EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D773410E-F2B8-4F79-A4DC-CF5E86AEC478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13275,15 +13275,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7E5E1D-E354-4FCD-AD92-53A00E511336}">
   <dimension ref="A4:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="57.28515625" customWidth="1"/>
     <col min="3" max="3" width="72.28515625" customWidth="1"/>
-    <col min="4" max="5" width="70.42578125" customWidth="1"/>
+    <col min="4" max="4" width="88.140625" customWidth="1"/>
+    <col min="5" max="5" width="70.42578125" customWidth="1"/>
     <col min="6" max="6" width="72.7109375" customWidth="1"/>
     <col min="7" max="7" width="82.28515625" customWidth="1"/>
     <col min="8" max="8" width="109.7109375" customWidth="1"/>
@@ -13564,8 +13565,8 @@
       </c>
       <c r="H19" s="28"/>
     </row>
-    <row r="20" spans="2:8" ht="291.75" customHeight="1"/>
-    <row r="21" spans="2:8" ht="208.5" customHeight="1"/>
+    <row r="20" spans="2:8" ht="26.25" customHeight="1"/>
+    <row r="21" spans="2:8" ht="22.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D773410E-F2B8-4F79-A4DC-CF5E86AEC478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E86179E-86C4-4F6C-911A-2D56F4329A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 3(06-04-2022)" sheetId="40" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="Day16 (25-04-2022) (2)" sheetId="58" r:id="rId14"/>
     <sheet name="Day17(26-04-2022)" sheetId="57" r:id="rId15"/>
     <sheet name="Day18(27-04-2022) " sheetId="61" r:id="rId16"/>
+    <sheet name="Day19(28-04-2022)" sheetId="62" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="302">
   <si>
     <t>Column1</t>
   </si>
@@ -1333,12 +1334,87 @@
 10.30 pm to 12 pm : Verifying and paginating Admin's Location page - Responsiveness
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">Resource </t>
+  </si>
+  <si>
+    <t>Task Name</t>
+  </si>
+  <si>
+    <t>Task Type</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>Team Meeting</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Split</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Soft Skill</t>
+  </si>
+  <si>
+    <t>Non Project</t>
+  </si>
+  <si>
+    <t>Customer Meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunch </t>
+  </si>
+  <si>
+    <t>Lunch and Break</t>
+  </si>
+  <si>
+    <t>Customer Review</t>
+  </si>
+  <si>
+    <t>Morning Break</t>
+  </si>
+  <si>
+    <t>Evening Break</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Topics&gt;</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Working on HTML layout</t>
+  </si>
+  <si>
+    <t>Resource Name 11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14009]hh:mm:ss;@"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1398,16 +1474,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1596,11 +1686,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1735,11 +1853,161 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="336">
+  <dxfs count="349">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -10266,464 +10534,464 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B59126C7-EF4B-42B8-885B-D999B591F622}" name="Table2" displayName="Table2" ref="B9:H19" totalsRowShown="0" headerRowDxfId="335" dataDxfId="334" headerRowBorderDxfId="332" tableBorderDxfId="333" totalsRowBorderDxfId="331">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B59126C7-EF4B-42B8-885B-D999B591F622}" name="Table2" displayName="Table2" ref="B9:H19" totalsRowShown="0" headerRowDxfId="348" dataDxfId="347" headerRowBorderDxfId="345" tableBorderDxfId="346" totalsRowBorderDxfId="344">
   <autoFilter ref="B9:H19" xr:uid="{B59126C7-EF4B-42B8-885B-D999B591F622}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{52B5F38B-ABB3-47C0-BB3D-A29F2DE51CC7}" name="Resource Name" dataDxfId="330"/>
-    <tableColumn id="2" xr3:uid="{EE1FCD6C-E5A0-4CCC-B385-C1EFECE5FDAA}" name="In-progress" dataDxfId="329"/>
-    <tableColumn id="3" xr3:uid="{181E4433-047B-4DE4-8CA4-63F4C195E21B}" name="Done" dataDxfId="328"/>
-    <tableColumn id="4" xr3:uid="{3D6F0A13-3C98-4A4C-A37F-39C4F130B0FD}" name="Discarded / Hold" dataDxfId="327"/>
-    <tableColumn id="5" xr3:uid="{6C95647F-EC05-4637-9771-13884C172508}" name="Hours Spent - Project" dataDxfId="326"/>
-    <tableColumn id="6" xr3:uid="{61429939-C632-43F5-B197-7173C32B4F6F}" name="Hours Spent - Non Project" dataDxfId="325"/>
-    <tableColumn id="7" xr3:uid="{FA348B8C-B11C-46EA-A9B6-9E454AA967AA}" name="Comments" dataDxfId="324"/>
+    <tableColumn id="1" xr3:uid="{52B5F38B-ABB3-47C0-BB3D-A29F2DE51CC7}" name="Resource Name" dataDxfId="343"/>
+    <tableColumn id="2" xr3:uid="{EE1FCD6C-E5A0-4CCC-B385-C1EFECE5FDAA}" name="In-progress" dataDxfId="342"/>
+    <tableColumn id="3" xr3:uid="{181E4433-047B-4DE4-8CA4-63F4C195E21B}" name="Done" dataDxfId="341"/>
+    <tableColumn id="4" xr3:uid="{3D6F0A13-3C98-4A4C-A37F-39C4F130B0FD}" name="Discarded / Hold" dataDxfId="340"/>
+    <tableColumn id="5" xr3:uid="{6C95647F-EC05-4637-9771-13884C172508}" name="Hours Spent - Project" dataDxfId="339"/>
+    <tableColumn id="6" xr3:uid="{61429939-C632-43F5-B197-7173C32B4F6F}" name="Hours Spent - Non Project" dataDxfId="338"/>
+    <tableColumn id="7" xr3:uid="{FA348B8C-B11C-46EA-A9B6-9E454AA967AA}" name="Comments" dataDxfId="337"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D14697CD-D871-4BE9-9957-83E5498C6EE5}" name="Table3751113" displayName="Table3751113" ref="B2:E4" totalsRowShown="0" headerRowDxfId="239" dataDxfId="238" headerRowBorderDxfId="236" tableBorderDxfId="237" totalsRowBorderDxfId="235">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D14697CD-D871-4BE9-9957-83E5498C6EE5}" name="Table3751113" displayName="Table3751113" ref="B2:E4" totalsRowShown="0" headerRowDxfId="252" dataDxfId="251" headerRowBorderDxfId="249" tableBorderDxfId="250" totalsRowBorderDxfId="248">
   <autoFilter ref="B2:E4" xr:uid="{9D11D6AC-943D-4BD1-9800-DECD246F6E62}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{597AD08F-5CEE-486B-928A-4E0143DEB21C}" name="Column1" dataDxfId="234"/>
-    <tableColumn id="2" xr3:uid="{80BDA1F7-DDA4-494F-BB7E-61D9A6E30A98}" name="Column2" dataDxfId="233"/>
-    <tableColumn id="3" xr3:uid="{DF109DE4-28E3-4BB2-997F-34A3F319520E}" name="Column3" dataDxfId="232"/>
-    <tableColumn id="4" xr3:uid="{C98D2CDB-0DA6-4DBC-80D8-197F6DC8262F}" name="Column4" dataDxfId="231"/>
+    <tableColumn id="1" xr3:uid="{597AD08F-5CEE-486B-928A-4E0143DEB21C}" name="Column1" dataDxfId="247"/>
+    <tableColumn id="2" xr3:uid="{80BDA1F7-DDA4-494F-BB7E-61D9A6E30A98}" name="Column2" dataDxfId="246"/>
+    <tableColumn id="3" xr3:uid="{DF109DE4-28E3-4BB2-997F-34A3F319520E}" name="Column3" dataDxfId="245"/>
+    <tableColumn id="4" xr3:uid="{C98D2CDB-0DA6-4DBC-80D8-197F6DC8262F}" name="Column4" dataDxfId="244"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A036296C-A09A-4538-8AEF-52AAB9228500}" name="Table2621014" displayName="Table2621014" ref="B7:H17" totalsRowShown="0" headerRowDxfId="230" dataDxfId="229" headerRowBorderDxfId="227" tableBorderDxfId="228" totalsRowBorderDxfId="226">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A036296C-A09A-4538-8AEF-52AAB9228500}" name="Table2621014" displayName="Table2621014" ref="B7:H17" totalsRowShown="0" headerRowDxfId="243" dataDxfId="242" headerRowBorderDxfId="240" tableBorderDxfId="241" totalsRowBorderDxfId="239">
   <autoFilter ref="B7:H17" xr:uid="{A30D6EFF-9BA6-4C4E-A49E-6E01C92313FC}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AF106EC2-9249-449D-84E6-7F225A50644A}" name="Resource Name" dataDxfId="225"/>
-    <tableColumn id="2" xr3:uid="{C5721F56-75DD-416B-8AF4-882B78C097A4}" name="In-progress" dataDxfId="224"/>
-    <tableColumn id="3" xr3:uid="{65371F98-F64C-4B19-8CA2-7EF266D44FBF}" name="Done" dataDxfId="223"/>
-    <tableColumn id="4" xr3:uid="{EDCBD646-6D4A-4D8E-A78F-13A92C55A829}" name="Discarded / Hold" dataDxfId="222"/>
-    <tableColumn id="5" xr3:uid="{5216518A-9337-493A-8FBE-8BB58C828250}" name="Hours Spent - Project" dataDxfId="221"/>
-    <tableColumn id="6" xr3:uid="{249FD4AA-FDB0-40B3-A254-56EFA2226474}" name="Hours Spent - Non Project" dataDxfId="220"/>
-    <tableColumn id="7" xr3:uid="{47669AF2-CA1E-4E4D-8758-1BE493ED8AF4}" name="Comments" dataDxfId="219"/>
+    <tableColumn id="1" xr3:uid="{AF106EC2-9249-449D-84E6-7F225A50644A}" name="Resource Name" dataDxfId="238"/>
+    <tableColumn id="2" xr3:uid="{C5721F56-75DD-416B-8AF4-882B78C097A4}" name="In-progress" dataDxfId="237"/>
+    <tableColumn id="3" xr3:uid="{65371F98-F64C-4B19-8CA2-7EF266D44FBF}" name="Done" dataDxfId="236"/>
+    <tableColumn id="4" xr3:uid="{EDCBD646-6D4A-4D8E-A78F-13A92C55A829}" name="Discarded / Hold" dataDxfId="235"/>
+    <tableColumn id="5" xr3:uid="{5216518A-9337-493A-8FBE-8BB58C828250}" name="Hours Spent - Project" dataDxfId="234"/>
+    <tableColumn id="6" xr3:uid="{249FD4AA-FDB0-40B3-A254-56EFA2226474}" name="Hours Spent - Non Project" dataDxfId="233"/>
+    <tableColumn id="7" xr3:uid="{47669AF2-CA1E-4E4D-8758-1BE493ED8AF4}" name="Comments" dataDxfId="232"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{7FA1E999-6830-41E9-8136-B3DD83876559}" name="Table3751115" displayName="Table3751115" ref="B2:E4" totalsRowShown="0" headerRowDxfId="218" dataDxfId="217" headerRowBorderDxfId="215" tableBorderDxfId="216" totalsRowBorderDxfId="214">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{7FA1E999-6830-41E9-8136-B3DD83876559}" name="Table3751115" displayName="Table3751115" ref="B2:E4" totalsRowShown="0" headerRowDxfId="231" dataDxfId="230" headerRowBorderDxfId="228" tableBorderDxfId="229" totalsRowBorderDxfId="227">
   <autoFilter ref="B2:E4" xr:uid="{9D11D6AC-943D-4BD1-9800-DECD246F6E62}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D67A75C6-50A5-4ED9-9562-707A5D717E14}" name="Column1" dataDxfId="213"/>
-    <tableColumn id="2" xr3:uid="{4CBEA24E-4C4B-4B23-85EB-4A8217A30752}" name="Column2" dataDxfId="212"/>
-    <tableColumn id="3" xr3:uid="{A13B37EF-4736-411C-BF75-CBDF316BAB90}" name="Column3" dataDxfId="211"/>
-    <tableColumn id="4" xr3:uid="{504EFC7F-2F49-4D22-ACB4-DCD4F1C95FE1}" name="Column4" dataDxfId="210"/>
+    <tableColumn id="1" xr3:uid="{D67A75C6-50A5-4ED9-9562-707A5D717E14}" name="Column1" dataDxfId="226"/>
+    <tableColumn id="2" xr3:uid="{4CBEA24E-4C4B-4B23-85EB-4A8217A30752}" name="Column2" dataDxfId="225"/>
+    <tableColumn id="3" xr3:uid="{A13B37EF-4736-411C-BF75-CBDF316BAB90}" name="Column3" dataDxfId="224"/>
+    <tableColumn id="4" xr3:uid="{504EFC7F-2F49-4D22-ACB4-DCD4F1C95FE1}" name="Column4" dataDxfId="223"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A30D6EFF-9BA6-4C4E-A49E-6E01C92313FC}" name="Table26210" displayName="Table26210" ref="B7:H17" totalsRowShown="0" headerRowDxfId="209" dataDxfId="208" headerRowBorderDxfId="206" tableBorderDxfId="207" totalsRowBorderDxfId="205">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A30D6EFF-9BA6-4C4E-A49E-6E01C92313FC}" name="Table26210" displayName="Table26210" ref="B7:H17" totalsRowShown="0" headerRowDxfId="222" dataDxfId="221" headerRowBorderDxfId="219" tableBorderDxfId="220" totalsRowBorderDxfId="218">
   <autoFilter ref="B7:H17" xr:uid="{A30D6EFF-9BA6-4C4E-A49E-6E01C92313FC}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{CB514E32-07C5-40CB-B6EC-7CE1D7B57BF0}" name="Resource Name" dataDxfId="204"/>
-    <tableColumn id="2" xr3:uid="{C46C6E29-0824-4E17-8EAF-64A911996B4D}" name="In-progress" dataDxfId="203"/>
-    <tableColumn id="3" xr3:uid="{6B5DC81A-7A98-4BF7-864C-E5A79BB97505}" name="Done" dataDxfId="202"/>
-    <tableColumn id="4" xr3:uid="{0C243582-3F95-4A38-8545-76DB2898625E}" name="Discarded / Hold" dataDxfId="201"/>
-    <tableColumn id="5" xr3:uid="{FD3CD380-CAB0-422C-8CF7-6944378DDBE6}" name="Hours Spent - Project" dataDxfId="200"/>
-    <tableColumn id="6" xr3:uid="{145CB7BA-3D9C-44AC-9E51-716B58B77D2F}" name="Hours Spent - Non Project" dataDxfId="199"/>
-    <tableColumn id="7" xr3:uid="{507AE42A-A1CC-4934-90C2-3BFCE53238B3}" name="Comments" dataDxfId="198"/>
+    <tableColumn id="1" xr3:uid="{CB514E32-07C5-40CB-B6EC-7CE1D7B57BF0}" name="Resource Name" dataDxfId="217"/>
+    <tableColumn id="2" xr3:uid="{C46C6E29-0824-4E17-8EAF-64A911996B4D}" name="In-progress" dataDxfId="216"/>
+    <tableColumn id="3" xr3:uid="{6B5DC81A-7A98-4BF7-864C-E5A79BB97505}" name="Done" dataDxfId="215"/>
+    <tableColumn id="4" xr3:uid="{0C243582-3F95-4A38-8545-76DB2898625E}" name="Discarded / Hold" dataDxfId="214"/>
+    <tableColumn id="5" xr3:uid="{FD3CD380-CAB0-422C-8CF7-6944378DDBE6}" name="Hours Spent - Project" dataDxfId="213"/>
+    <tableColumn id="6" xr3:uid="{145CB7BA-3D9C-44AC-9E51-716B58B77D2F}" name="Hours Spent - Non Project" dataDxfId="212"/>
+    <tableColumn id="7" xr3:uid="{507AE42A-A1CC-4934-90C2-3BFCE53238B3}" name="Comments" dataDxfId="211"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9D11D6AC-943D-4BD1-9800-DECD246F6E62}" name="Table37511" displayName="Table37511" ref="B2:E4" totalsRowShown="0" headerRowDxfId="197" dataDxfId="196" headerRowBorderDxfId="194" tableBorderDxfId="195" totalsRowBorderDxfId="193">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9D11D6AC-943D-4BD1-9800-DECD246F6E62}" name="Table37511" displayName="Table37511" ref="B2:E4" totalsRowShown="0" headerRowDxfId="210" dataDxfId="209" headerRowBorderDxfId="207" tableBorderDxfId="208" totalsRowBorderDxfId="206">
   <autoFilter ref="B2:E4" xr:uid="{9D11D6AC-943D-4BD1-9800-DECD246F6E62}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6B075576-4726-42C8-996A-A7B4B187D27F}" name="Column1" dataDxfId="192"/>
-    <tableColumn id="2" xr3:uid="{2B0F43B9-480B-4C54-A4CC-3DFC00711929}" name="Column2" dataDxfId="191"/>
-    <tableColumn id="3" xr3:uid="{4353F121-13EC-4653-AB7A-C0BBED71F612}" name="Column3" dataDxfId="190"/>
-    <tableColumn id="4" xr3:uid="{AD8279C5-6226-4ECF-A6C8-F9C70974EABE}" name="Column4" dataDxfId="189"/>
+    <tableColumn id="1" xr3:uid="{6B075576-4726-42C8-996A-A7B4B187D27F}" name="Column1" dataDxfId="205"/>
+    <tableColumn id="2" xr3:uid="{2B0F43B9-480B-4C54-A4CC-3DFC00711929}" name="Column2" dataDxfId="204"/>
+    <tableColumn id="3" xr3:uid="{4353F121-13EC-4653-AB7A-C0BBED71F612}" name="Column3" dataDxfId="203"/>
+    <tableColumn id="4" xr3:uid="{AD8279C5-6226-4ECF-A6C8-F9C70974EABE}" name="Column4" dataDxfId="202"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{1356D4E1-15F0-41BF-B0C4-E4DC18B96A83}" name="Table2621016" displayName="Table2621016" ref="B7:H17" totalsRowShown="0" headerRowDxfId="188" dataDxfId="187" headerRowBorderDxfId="185" tableBorderDxfId="186" totalsRowBorderDxfId="184">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{1356D4E1-15F0-41BF-B0C4-E4DC18B96A83}" name="Table2621016" displayName="Table2621016" ref="B7:H17" totalsRowShown="0" headerRowDxfId="201" dataDxfId="200" headerRowBorderDxfId="198" tableBorderDxfId="199" totalsRowBorderDxfId="197">
   <autoFilter ref="B7:H17" xr:uid="{1356D4E1-15F0-41BF-B0C4-E4DC18B96A83}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{975CF6D7-F24C-4D9F-BA9F-439AF60EF114}" name="Resource Name" dataDxfId="183"/>
-    <tableColumn id="2" xr3:uid="{BC36331B-5C09-49F2-8E13-D5168DD28D0F}" name="In-progress" dataDxfId="182"/>
-    <tableColumn id="3" xr3:uid="{41B5A763-B80D-4E4B-976F-9969D2C0C14F}" name="Done" dataDxfId="181"/>
-    <tableColumn id="4" xr3:uid="{5D1F40BB-F239-4A1D-AEF6-82A5FC99D7CD}" name="Discarded / Hold" dataDxfId="180"/>
-    <tableColumn id="5" xr3:uid="{5C9549F2-9CF2-45B7-98E8-1D291B3630B2}" name="Hours Spent - Project" dataDxfId="179"/>
-    <tableColumn id="6" xr3:uid="{04DC6A6C-EEB6-4EF4-911D-C37E2C5B40FF}" name="Hours Spent - Non Project" dataDxfId="178"/>
-    <tableColumn id="7" xr3:uid="{C3902E87-CCB6-47C9-9BC1-FD0B37543238}" name="Comments" dataDxfId="177"/>
+    <tableColumn id="1" xr3:uid="{975CF6D7-F24C-4D9F-BA9F-439AF60EF114}" name="Resource Name" dataDxfId="196"/>
+    <tableColumn id="2" xr3:uid="{BC36331B-5C09-49F2-8E13-D5168DD28D0F}" name="In-progress" dataDxfId="195"/>
+    <tableColumn id="3" xr3:uid="{41B5A763-B80D-4E4B-976F-9969D2C0C14F}" name="Done" dataDxfId="194"/>
+    <tableColumn id="4" xr3:uid="{5D1F40BB-F239-4A1D-AEF6-82A5FC99D7CD}" name="Discarded / Hold" dataDxfId="193"/>
+    <tableColumn id="5" xr3:uid="{5C9549F2-9CF2-45B7-98E8-1D291B3630B2}" name="Hours Spent - Project" dataDxfId="192"/>
+    <tableColumn id="6" xr3:uid="{04DC6A6C-EEB6-4EF4-911D-C37E2C5B40FF}" name="Hours Spent - Non Project" dataDxfId="191"/>
+    <tableColumn id="7" xr3:uid="{C3902E87-CCB6-47C9-9BC1-FD0B37543238}" name="Comments" dataDxfId="190"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{E3497E54-1E59-44E7-9480-106E98FB838A}" name="Table3751117" displayName="Table3751117" ref="B2:E4" totalsRowShown="0" headerRowDxfId="176" dataDxfId="175" headerRowBorderDxfId="173" tableBorderDxfId="174" totalsRowBorderDxfId="172">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{E3497E54-1E59-44E7-9480-106E98FB838A}" name="Table3751117" displayName="Table3751117" ref="B2:E4" totalsRowShown="0" headerRowDxfId="189" dataDxfId="188" headerRowBorderDxfId="186" tableBorderDxfId="187" totalsRowBorderDxfId="185">
   <autoFilter ref="B2:E4" xr:uid="{E3497E54-1E59-44E7-9480-106E98FB838A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{69E7B7B7-0FF3-43D1-AE4A-578CB3CCCFBD}" name="Column1" dataDxfId="171"/>
-    <tableColumn id="2" xr3:uid="{753FC1E8-1B96-4804-A794-92A8953D5EE2}" name="Column2" dataDxfId="170"/>
-    <tableColumn id="3" xr3:uid="{50B38A4B-BAF8-4640-8ECB-0900A6C915DB}" name="Column3" dataDxfId="169"/>
-    <tableColumn id="4" xr3:uid="{4432DCD0-98FF-4B59-BAB7-E3FE0A3EDFBC}" name="Column4" dataDxfId="168"/>
+    <tableColumn id="1" xr3:uid="{69E7B7B7-0FF3-43D1-AE4A-578CB3CCCFBD}" name="Column1" dataDxfId="184"/>
+    <tableColumn id="2" xr3:uid="{753FC1E8-1B96-4804-A794-92A8953D5EE2}" name="Column2" dataDxfId="183"/>
+    <tableColumn id="3" xr3:uid="{50B38A4B-BAF8-4640-8ECB-0900A6C915DB}" name="Column3" dataDxfId="182"/>
+    <tableColumn id="4" xr3:uid="{4432DCD0-98FF-4B59-BAB7-E3FE0A3EDFBC}" name="Column4" dataDxfId="181"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{D3490739-1854-4802-BC7E-8F8A56938939}" name="Table262101618" displayName="Table262101618" ref="B7:H17" totalsRowShown="0" headerRowDxfId="167" dataDxfId="166" headerRowBorderDxfId="164" tableBorderDxfId="165" totalsRowBorderDxfId="163">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{D3490739-1854-4802-BC7E-8F8A56938939}" name="Table262101618" displayName="Table262101618" ref="B7:H17" totalsRowShown="0" headerRowDxfId="180" dataDxfId="179" headerRowBorderDxfId="177" tableBorderDxfId="178" totalsRowBorderDxfId="176">
   <autoFilter ref="B7:H17" xr:uid="{1356D4E1-15F0-41BF-B0C4-E4DC18B96A83}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F4CDC508-938F-4C7B-9D78-6C7897C95C75}" name="Resource Name" dataDxfId="162"/>
-    <tableColumn id="2" xr3:uid="{D24B5720-9179-4EA6-A1B2-11FFE3971AE0}" name="In-progress" dataDxfId="161"/>
-    <tableColumn id="3" xr3:uid="{38376D7D-1777-43ED-87F4-271C7CA93BC0}" name="Done" dataDxfId="160"/>
-    <tableColumn id="4" xr3:uid="{27CF804E-18A7-4ED9-9891-7FE4B93C6D6C}" name="Discarded / Hold" dataDxfId="159"/>
-    <tableColumn id="5" xr3:uid="{F23FF8B6-B301-4C5F-ACF3-3D16EEFFC3F0}" name="Hours Spent - Project" dataDxfId="158"/>
-    <tableColumn id="6" xr3:uid="{2D0142DB-38B6-4D6B-A60F-A9A19574C7ED}" name="Hours Spent - Non Project" dataDxfId="157"/>
-    <tableColumn id="7" xr3:uid="{8BAC7AAB-A572-4256-AFEE-71DC94CC59B9}" name="Comments" dataDxfId="156"/>
+    <tableColumn id="1" xr3:uid="{F4CDC508-938F-4C7B-9D78-6C7897C95C75}" name="Resource Name" dataDxfId="175"/>
+    <tableColumn id="2" xr3:uid="{D24B5720-9179-4EA6-A1B2-11FFE3971AE0}" name="In-progress" dataDxfId="174"/>
+    <tableColumn id="3" xr3:uid="{38376D7D-1777-43ED-87F4-271C7CA93BC0}" name="Done" dataDxfId="173"/>
+    <tableColumn id="4" xr3:uid="{27CF804E-18A7-4ED9-9891-7FE4B93C6D6C}" name="Discarded / Hold" dataDxfId="172"/>
+    <tableColumn id="5" xr3:uid="{F23FF8B6-B301-4C5F-ACF3-3D16EEFFC3F0}" name="Hours Spent - Project" dataDxfId="171"/>
+    <tableColumn id="6" xr3:uid="{2D0142DB-38B6-4D6B-A60F-A9A19574C7ED}" name="Hours Spent - Non Project" dataDxfId="170"/>
+    <tableColumn id="7" xr3:uid="{8BAC7AAB-A572-4256-AFEE-71DC94CC59B9}" name="Comments" dataDxfId="169"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{65B9F601-45A2-418D-921A-3D56A32B6C21}" name="Table375111719" displayName="Table375111719" ref="B2:E4" totalsRowShown="0" headerRowDxfId="155" dataDxfId="154" headerRowBorderDxfId="152" tableBorderDxfId="153" totalsRowBorderDxfId="151">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{65B9F601-45A2-418D-921A-3D56A32B6C21}" name="Table375111719" displayName="Table375111719" ref="B2:E4" totalsRowShown="0" headerRowDxfId="168" dataDxfId="167" headerRowBorderDxfId="165" tableBorderDxfId="166" totalsRowBorderDxfId="164">
   <autoFilter ref="B2:E4" xr:uid="{E3497E54-1E59-44E7-9480-106E98FB838A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6E252E52-03A5-4570-990A-B3378296E039}" name="Column1" dataDxfId="150"/>
-    <tableColumn id="2" xr3:uid="{D5447885-EF1E-44FE-B1A4-EE1475056221}" name="Column2" dataDxfId="149"/>
-    <tableColumn id="3" xr3:uid="{2F816DC6-3307-4F6E-9962-EB8AB2F91C9F}" name="Column3" dataDxfId="148"/>
-    <tableColumn id="4" xr3:uid="{21AE6030-4E77-45A3-8CDA-342E87194417}" name="Column4" dataDxfId="147"/>
+    <tableColumn id="1" xr3:uid="{6E252E52-03A5-4570-990A-B3378296E039}" name="Column1" dataDxfId="163"/>
+    <tableColumn id="2" xr3:uid="{D5447885-EF1E-44FE-B1A4-EE1475056221}" name="Column2" dataDxfId="162"/>
+    <tableColumn id="3" xr3:uid="{2F816DC6-3307-4F6E-9962-EB8AB2F91C9F}" name="Column3" dataDxfId="161"/>
+    <tableColumn id="4" xr3:uid="{21AE6030-4E77-45A3-8CDA-342E87194417}" name="Column4" dataDxfId="160"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{567599D8-F2AC-4863-A31E-867E4662A188}" name="Table26210161820" displayName="Table26210161820" ref="B7:H17" totalsRowShown="0" headerRowDxfId="146" dataDxfId="145" headerRowBorderDxfId="143" tableBorderDxfId="144" totalsRowBorderDxfId="142">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{567599D8-F2AC-4863-A31E-867E4662A188}" name="Table26210161820" displayName="Table26210161820" ref="B7:H17" totalsRowShown="0" headerRowDxfId="159" dataDxfId="158" headerRowBorderDxfId="156" tableBorderDxfId="157" totalsRowBorderDxfId="155">
   <autoFilter ref="B7:H17" xr:uid="{1356D4E1-15F0-41BF-B0C4-E4DC18B96A83}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6862ACD5-06E8-4C76-86B8-0FBF46C719AB}" name="Resource Name" dataDxfId="141"/>
-    <tableColumn id="2" xr3:uid="{2FEAF882-A5EF-4611-91BB-CAEDE2BD0142}" name="In-progress" dataDxfId="140"/>
-    <tableColumn id="3" xr3:uid="{FB3D921D-555F-47F7-9140-AB8143CB71BA}" name="Done" dataDxfId="139"/>
-    <tableColumn id="4" xr3:uid="{BD8867CA-8566-48C2-BDB8-839066AC235A}" name="Discarded / Hold" dataDxfId="138"/>
-    <tableColumn id="5" xr3:uid="{F71E5005-E794-436C-8ABB-93D21EB0BD11}" name="Hours Spent - Project" dataDxfId="137"/>
-    <tableColumn id="6" xr3:uid="{53117683-12E5-4475-8EE2-ECA8DBFEEF45}" name="Hours Spent - Non Project" dataDxfId="136"/>
-    <tableColumn id="7" xr3:uid="{A1C72867-09F6-497F-ACF5-1458D252B64F}" name="Comments" dataDxfId="135"/>
+    <tableColumn id="1" xr3:uid="{6862ACD5-06E8-4C76-86B8-0FBF46C719AB}" name="Resource Name" dataDxfId="154"/>
+    <tableColumn id="2" xr3:uid="{2FEAF882-A5EF-4611-91BB-CAEDE2BD0142}" name="In-progress" dataDxfId="153"/>
+    <tableColumn id="3" xr3:uid="{FB3D921D-555F-47F7-9140-AB8143CB71BA}" name="Done" dataDxfId="152"/>
+    <tableColumn id="4" xr3:uid="{BD8867CA-8566-48C2-BDB8-839066AC235A}" name="Discarded / Hold" dataDxfId="151"/>
+    <tableColumn id="5" xr3:uid="{F71E5005-E794-436C-8ABB-93D21EB0BD11}" name="Hours Spent - Project" dataDxfId="150"/>
+    <tableColumn id="6" xr3:uid="{53117683-12E5-4475-8EE2-ECA8DBFEEF45}" name="Hours Spent - Non Project" dataDxfId="149"/>
+    <tableColumn id="7" xr3:uid="{A1C72867-09F6-497F-ACF5-1458D252B64F}" name="Comments" dataDxfId="148"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF3C43CE-B630-4202-BD3A-6EE2D770899A}" name="Table3" displayName="Table3" ref="B4:E6" totalsRowShown="0" headerRowDxfId="323" dataDxfId="322" headerRowBorderDxfId="320" tableBorderDxfId="321" totalsRowBorderDxfId="319">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF3C43CE-B630-4202-BD3A-6EE2D770899A}" name="Table3" displayName="Table3" ref="B4:E6" totalsRowShown="0" headerRowDxfId="336" dataDxfId="335" headerRowBorderDxfId="333" tableBorderDxfId="334" totalsRowBorderDxfId="332">
   <autoFilter ref="B4:E6" xr:uid="{BF3C43CE-B630-4202-BD3A-6EE2D770899A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BE43EB49-4D5D-488E-9520-6CE4AC2E5C1B}" name="Column1" dataDxfId="318"/>
-    <tableColumn id="2" xr3:uid="{16DFD0E6-4C5E-443C-BF24-706A867EF798}" name="Column2" dataDxfId="317"/>
-    <tableColumn id="3" xr3:uid="{DC8A145E-C833-4BE6-BAE5-7E5E2AC2891C}" name="Column3" dataDxfId="316"/>
-    <tableColumn id="4" xr3:uid="{9454D612-74D7-428F-B9A0-7151862F7C2A}" name="Column4" dataDxfId="315"/>
+    <tableColumn id="1" xr3:uid="{BE43EB49-4D5D-488E-9520-6CE4AC2E5C1B}" name="Column1" dataDxfId="331"/>
+    <tableColumn id="2" xr3:uid="{16DFD0E6-4C5E-443C-BF24-706A867EF798}" name="Column2" dataDxfId="330"/>
+    <tableColumn id="3" xr3:uid="{DC8A145E-C833-4BE6-BAE5-7E5E2AC2891C}" name="Column3" dataDxfId="329"/>
+    <tableColumn id="4" xr3:uid="{9454D612-74D7-428F-B9A0-7151862F7C2A}" name="Column4" dataDxfId="328"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{3AB7E480-AA41-45EE-8BD2-799B66CF977F}" name="Table37511171921" displayName="Table37511171921" ref="B2:E4" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133" headerRowBorderDxfId="131" tableBorderDxfId="132" totalsRowBorderDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{3AB7E480-AA41-45EE-8BD2-799B66CF977F}" name="Table37511171921" displayName="Table37511171921" ref="B2:E4" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146" headerRowBorderDxfId="144" tableBorderDxfId="145" totalsRowBorderDxfId="143">
   <autoFilter ref="B2:E4" xr:uid="{E3497E54-1E59-44E7-9480-106E98FB838A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5F5286EA-BF04-4F20-B734-0734EC625276}" name="Column1" dataDxfId="129"/>
-    <tableColumn id="2" xr3:uid="{2666153F-F4E8-45C3-9985-38E5471A82F0}" name="Column2" dataDxfId="128"/>
-    <tableColumn id="3" xr3:uid="{ED99E108-F673-4294-9E8D-A329582DF55B}" name="Column3" dataDxfId="127"/>
-    <tableColumn id="4" xr3:uid="{B0F02456-D0DE-4E93-9016-90FA89E16184}" name="Column4" dataDxfId="126"/>
+    <tableColumn id="1" xr3:uid="{5F5286EA-BF04-4F20-B734-0734EC625276}" name="Column1" dataDxfId="142"/>
+    <tableColumn id="2" xr3:uid="{2666153F-F4E8-45C3-9985-38E5471A82F0}" name="Column2" dataDxfId="141"/>
+    <tableColumn id="3" xr3:uid="{ED99E108-F673-4294-9E8D-A329582DF55B}" name="Column3" dataDxfId="140"/>
+    <tableColumn id="4" xr3:uid="{B0F02456-D0DE-4E93-9016-90FA89E16184}" name="Column4" dataDxfId="139"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{B3B21B26-64D8-4DAA-B271-41535AB5FBA0}" name="Table2621016182022" displayName="Table2621016182022" ref="B7:H17" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124" headerRowBorderDxfId="122" tableBorderDxfId="123" totalsRowBorderDxfId="121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{B3B21B26-64D8-4DAA-B271-41535AB5FBA0}" name="Table2621016182022" displayName="Table2621016182022" ref="B7:H17" totalsRowShown="0" headerRowDxfId="138" dataDxfId="137" headerRowBorderDxfId="135" tableBorderDxfId="136" totalsRowBorderDxfId="134">
   <autoFilter ref="B7:H17" xr:uid="{B3B21B26-64D8-4DAA-B271-41535AB5FBA0}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F31F1358-1BCD-4E28-8DE6-55060AD83C78}" name="Resource Name" dataDxfId="120"/>
-    <tableColumn id="2" xr3:uid="{85795525-35CB-4867-B9E8-8424F3C504C7}" name="In-progress" dataDxfId="119"/>
-    <tableColumn id="3" xr3:uid="{14491860-1E0F-4FC2-B40C-7BFA09F08AD3}" name="Done" dataDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{4121DE0A-E31D-4416-93C4-5D79C06CB436}" name="Discarded / Hold" dataDxfId="117"/>
-    <tableColumn id="5" xr3:uid="{42DAEAF5-4695-460C-A7C8-11CA5A06441F}" name="Hours Spent - Project" dataDxfId="116"/>
-    <tableColumn id="6" xr3:uid="{5A90E8D4-8EBC-413F-9D20-BC476DDDDA89}" name="Hours Spent - Non Project" dataDxfId="115"/>
-    <tableColumn id="7" xr3:uid="{CDA42C61-7D2B-4220-801B-18B140C01D85}" name="Comments" dataDxfId="114"/>
+    <tableColumn id="1" xr3:uid="{F31F1358-1BCD-4E28-8DE6-55060AD83C78}" name="Resource Name" dataDxfId="133"/>
+    <tableColumn id="2" xr3:uid="{85795525-35CB-4867-B9E8-8424F3C504C7}" name="In-progress" dataDxfId="132"/>
+    <tableColumn id="3" xr3:uid="{14491860-1E0F-4FC2-B40C-7BFA09F08AD3}" name="Done" dataDxfId="131"/>
+    <tableColumn id="4" xr3:uid="{4121DE0A-E31D-4416-93C4-5D79C06CB436}" name="Discarded / Hold" dataDxfId="130"/>
+    <tableColumn id="5" xr3:uid="{42DAEAF5-4695-460C-A7C8-11CA5A06441F}" name="Hours Spent - Project" dataDxfId="129"/>
+    <tableColumn id="6" xr3:uid="{5A90E8D4-8EBC-413F-9D20-BC476DDDDA89}" name="Hours Spent - Non Project" dataDxfId="128"/>
+    <tableColumn id="7" xr3:uid="{CDA42C61-7D2B-4220-801B-18B140C01D85}" name="Comments" dataDxfId="127"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{055B31DD-6299-4C3C-ACAC-24A5C69F0229}" name="Table3751117192123" displayName="Table3751117192123" ref="B2:E4" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112" headerRowBorderDxfId="110" tableBorderDxfId="111" totalsRowBorderDxfId="109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{055B31DD-6299-4C3C-ACAC-24A5C69F0229}" name="Table3751117192123" displayName="Table3751117192123" ref="B2:E4" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125" headerRowBorderDxfId="123" tableBorderDxfId="124" totalsRowBorderDxfId="122">
   <autoFilter ref="B2:E4" xr:uid="{055B31DD-6299-4C3C-ACAC-24A5C69F0229}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A361ACD1-4939-41DE-8AA2-8A2C23550B5A}" name="Column1" dataDxfId="108"/>
-    <tableColumn id="2" xr3:uid="{ADE6E992-B56C-47A2-8484-0F95117DFA87}" name="Column2" dataDxfId="107"/>
-    <tableColumn id="3" xr3:uid="{5D6FC945-76E2-4A8F-A729-023221CFF273}" name="Column3" dataDxfId="106"/>
-    <tableColumn id="4" xr3:uid="{F5B29A6E-68F5-487F-AE11-943B1309598F}" name="Column4" dataDxfId="105"/>
+    <tableColumn id="1" xr3:uid="{A361ACD1-4939-41DE-8AA2-8A2C23550B5A}" name="Column1" dataDxfId="121"/>
+    <tableColumn id="2" xr3:uid="{ADE6E992-B56C-47A2-8484-0F95117DFA87}" name="Column2" dataDxfId="120"/>
+    <tableColumn id="3" xr3:uid="{5D6FC945-76E2-4A8F-A729-023221CFF273}" name="Column3" dataDxfId="119"/>
+    <tableColumn id="4" xr3:uid="{F5B29A6E-68F5-487F-AE11-943B1309598F}" name="Column4" dataDxfId="118"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{E41419C5-0FEE-481E-9DAC-E4E6D5B7C655}" name="Table26210161820222426" displayName="Table26210161820222426" ref="B7:H17" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103" headerRowBorderDxfId="101" tableBorderDxfId="102" totalsRowBorderDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{E41419C5-0FEE-481E-9DAC-E4E6D5B7C655}" name="Table26210161820222426" displayName="Table26210161820222426" ref="B7:H17" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116" headerRowBorderDxfId="114" tableBorderDxfId="115" totalsRowBorderDxfId="113">
   <autoFilter ref="B7:H17" xr:uid="{B3B21B26-64D8-4DAA-B271-41535AB5FBA0}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5E48B990-E5FC-4F2E-8D79-221CCDD32485}" name="Resource Name" dataDxfId="99"/>
-    <tableColumn id="2" xr3:uid="{47BD0B59-0AA0-4A62-9166-EDBA62A23A5F}" name="In-progress" dataDxfId="98"/>
-    <tableColumn id="3" xr3:uid="{2139A3E7-3873-4E56-A7E4-F325CBD86DB4}" name="Done" dataDxfId="97"/>
-    <tableColumn id="4" xr3:uid="{2AAC748E-739E-4CA5-89FD-D8B41E99A6E2}" name="Discarded / Hold" dataDxfId="96"/>
-    <tableColumn id="5" xr3:uid="{CDFFAC38-E4AB-41AB-B5F7-2454F4736746}" name="Hours Spent - Project" dataDxfId="95"/>
-    <tableColumn id="6" xr3:uid="{B9EED511-62FB-4D56-B7BA-9FA76DE7B86A}" name="Hours Spent - Non Project" dataDxfId="94"/>
-    <tableColumn id="7" xr3:uid="{144471FC-2B56-4F23-A325-ECCBBFB8B63E}" name="Comments" dataDxfId="93"/>
+    <tableColumn id="1" xr3:uid="{5E48B990-E5FC-4F2E-8D79-221CCDD32485}" name="Resource Name" dataDxfId="112"/>
+    <tableColumn id="2" xr3:uid="{47BD0B59-0AA0-4A62-9166-EDBA62A23A5F}" name="In-progress" dataDxfId="111"/>
+    <tableColumn id="3" xr3:uid="{2139A3E7-3873-4E56-A7E4-F325CBD86DB4}" name="Done" dataDxfId="110"/>
+    <tableColumn id="4" xr3:uid="{2AAC748E-739E-4CA5-89FD-D8B41E99A6E2}" name="Discarded / Hold" dataDxfId="109"/>
+    <tableColumn id="5" xr3:uid="{CDFFAC38-E4AB-41AB-B5F7-2454F4736746}" name="Hours Spent - Project" dataDxfId="108"/>
+    <tableColumn id="6" xr3:uid="{B9EED511-62FB-4D56-B7BA-9FA76DE7B86A}" name="Hours Spent - Non Project" dataDxfId="107"/>
+    <tableColumn id="7" xr3:uid="{144471FC-2B56-4F23-A325-ECCBBFB8B63E}" name="Comments" dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{0D12AF67-5BA0-4F63-8D88-C0611DA18A0C}" name="Table37511171921232527" displayName="Table37511171921232527" ref="B2:E4" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91" headerRowBorderDxfId="89" tableBorderDxfId="90" totalsRowBorderDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{0D12AF67-5BA0-4F63-8D88-C0611DA18A0C}" name="Table37511171921232527" displayName="Table37511171921232527" ref="B2:E4" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104" headerRowBorderDxfId="102" tableBorderDxfId="103" totalsRowBorderDxfId="101">
   <autoFilter ref="B2:E4" xr:uid="{055B31DD-6299-4C3C-ACAC-24A5C69F0229}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AC49F91A-C5E8-45DB-A758-6B33F8EED570}" name="Column1" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{C442E83E-F63F-4C00-8C84-217C7E0255A0}" name="Column2" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{C6D07BBA-4041-4DCF-B9D8-686A4E51F700}" name="Column3" dataDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{0A8DDA68-0AA3-4BC8-A928-C9205E931689}" name="Column4" dataDxfId="84"/>
+    <tableColumn id="1" xr3:uid="{AC49F91A-C5E8-45DB-A758-6B33F8EED570}" name="Column1" dataDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{C442E83E-F63F-4C00-8C84-217C7E0255A0}" name="Column2" dataDxfId="99"/>
+    <tableColumn id="3" xr3:uid="{C6D07BBA-4041-4DCF-B9D8-686A4E51F700}" name="Column3" dataDxfId="98"/>
+    <tableColumn id="4" xr3:uid="{0A8DDA68-0AA3-4BC8-A928-C9205E931689}" name="Column4" dataDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{8F6F8532-A566-4B0B-AECF-B2BE04EC37C4}" name="Table262101618202224" displayName="Table262101618202224" ref="B7:H17" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82" headerRowBorderDxfId="80" tableBorderDxfId="81" totalsRowBorderDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{8F6F8532-A566-4B0B-AECF-B2BE04EC37C4}" name="Table262101618202224" displayName="Table262101618202224" ref="B7:H17" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95" headerRowBorderDxfId="93" tableBorderDxfId="94" totalsRowBorderDxfId="92">
   <autoFilter ref="B7:H17" xr:uid="{B3B21B26-64D8-4DAA-B271-41535AB5FBA0}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C59EFFEB-6F71-4923-9EA4-A9988B5ABC38}" name="Resource Name" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{7656305F-8A5C-47DD-B30F-A5A2DDF6BA3B}" name="In-progress" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{01F03680-387B-4396-881D-D8692076CAFB}" name="Done" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{C8B16ACA-3649-43AE-9870-DA150B8F4C27}" name="Discarded / Hold" dataDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{94E9160D-5E84-446E-9333-D6366B7E94A9}" name="Hours Spent - Project" dataDxfId="74"/>
-    <tableColumn id="6" xr3:uid="{71FCC1BB-CD17-411D-84B5-72A33C3D732E}" name="Hours Spent - Non Project" dataDxfId="73"/>
-    <tableColumn id="7" xr3:uid="{AD223263-251D-4364-922D-657CA0BF6FED}" name="Comments" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{C59EFFEB-6F71-4923-9EA4-A9988B5ABC38}" name="Resource Name" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{7656305F-8A5C-47DD-B30F-A5A2DDF6BA3B}" name="In-progress" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{01F03680-387B-4396-881D-D8692076CAFB}" name="Done" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{C8B16ACA-3649-43AE-9870-DA150B8F4C27}" name="Discarded / Hold" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{94E9160D-5E84-446E-9333-D6366B7E94A9}" name="Hours Spent - Project" dataDxfId="87"/>
+    <tableColumn id="6" xr3:uid="{71FCC1BB-CD17-411D-84B5-72A33C3D732E}" name="Hours Spent - Non Project" dataDxfId="86"/>
+    <tableColumn id="7" xr3:uid="{AD223263-251D-4364-922D-657CA0BF6FED}" name="Comments" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{396EF6F7-EC64-4D4E-8E01-69FB9BDB9A54}" name="Table375111719212325" displayName="Table375111719212325" ref="B2:E4" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70" headerRowBorderDxfId="68" tableBorderDxfId="69" totalsRowBorderDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{396EF6F7-EC64-4D4E-8E01-69FB9BDB9A54}" name="Table375111719212325" displayName="Table375111719212325" ref="B2:E4" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83" headerRowBorderDxfId="81" tableBorderDxfId="82" totalsRowBorderDxfId="80">
   <autoFilter ref="B2:E4" xr:uid="{055B31DD-6299-4C3C-ACAC-24A5C69F0229}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{84A3FC7B-02E6-44DB-98AA-6783349E3D38}" name="Column1" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{4C90FA59-2548-4B68-BBFB-E6DE9B9B243A}" name="Column2" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{23DB2E45-3FE0-4350-8C54-7D8B45F36289}" name="Column3" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{4AC2DE38-C7EC-48C4-93E9-CB48E45B0F9C}" name="Column4" dataDxfId="63"/>
+    <tableColumn id="1" xr3:uid="{84A3FC7B-02E6-44DB-98AA-6783349E3D38}" name="Column1" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{4C90FA59-2548-4B68-BBFB-E6DE9B9B243A}" name="Column2" dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{23DB2E45-3FE0-4350-8C54-7D8B45F36289}" name="Column3" dataDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{4AC2DE38-C7EC-48C4-93E9-CB48E45B0F9C}" name="Column4" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{0F23DD49-CAA4-48B8-962C-E6288F9DFFA3}" name="Table2621016182022242830" displayName="Table2621016182022242830" ref="B9:H19" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" headerRowBorderDxfId="59" tableBorderDxfId="60" totalsRowBorderDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{0F23DD49-CAA4-48B8-962C-E6288F9DFFA3}" name="Table2621016182022242830" displayName="Table2621016182022242830" ref="B9:H19" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74" headerRowBorderDxfId="72" tableBorderDxfId="73" totalsRowBorderDxfId="71">
   <autoFilter ref="B9:H19" xr:uid="{E9A240DE-1194-474C-BF89-6BCD9A8E6CDB}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E0FBE707-0A4E-42AB-A409-4CDF8042703D}" name="Resource Name" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{A73D6E13-9FB4-44F9-87DF-B072C0251756}" name="In-progress" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{2C45B468-18E1-46E1-B708-C6B94637A8D5}" name="Done" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{598E8643-19AB-4014-A973-0230D6585609}" name="Discarded / Hold" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{E293A4F6-8118-4BF4-84A8-1AB729B32433}" name="Hours Spent - Project" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{FF0ABE07-DCC0-4F9D-ABAF-4B3DD0668863}" name="Hours Spent - Non Project" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{C16987D2-ABB4-4D8D-BF53-946508B869ED}" name="Comments" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{E0FBE707-0A4E-42AB-A409-4CDF8042703D}" name="Resource Name" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{A73D6E13-9FB4-44F9-87DF-B072C0251756}" name="In-progress" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{2C45B468-18E1-46E1-B708-C6B94637A8D5}" name="Done" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{598E8643-19AB-4014-A973-0230D6585609}" name="Discarded / Hold" dataDxfId="67"/>
+    <tableColumn id="5" xr3:uid="{E293A4F6-8118-4BF4-84A8-1AB729B32433}" name="Hours Spent - Project" dataDxfId="66"/>
+    <tableColumn id="6" xr3:uid="{FF0ABE07-DCC0-4F9D-ABAF-4B3DD0668863}" name="Hours Spent - Non Project" dataDxfId="65"/>
+    <tableColumn id="7" xr3:uid="{C16987D2-ABB4-4D8D-BF53-946508B869ED}" name="Comments" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{CADA5991-9943-4B33-B8C5-388C0E45E39F}" name="Table3751117192123252931" displayName="Table3751117192123252931" ref="B4:E6" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" headerRowBorderDxfId="47" tableBorderDxfId="48" totalsRowBorderDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{CADA5991-9943-4B33-B8C5-388C0E45E39F}" name="Table3751117192123252931" displayName="Table3751117192123252931" ref="B4:E6" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" headerRowBorderDxfId="60" tableBorderDxfId="61" totalsRowBorderDxfId="59">
   <autoFilter ref="B4:E6" xr:uid="{9C7594DF-77AA-4490-AF49-C5C8389AFDB0}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EDD92838-9873-4EDB-9433-43F4D9BB8E82}" name="Column1" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{8FEBCDDE-BA0E-43A2-B524-534D24D7D159}" name="Column2" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{CF15A780-E219-47E1-B6CB-D93B5F35E3C9}" name="Column3" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{615F0A06-B33A-47EB-9EF8-BCB7859FDD43}" name="Column4" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{EDD92838-9873-4EDB-9433-43F4D9BB8E82}" name="Column1" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{8FEBCDDE-BA0E-43A2-B524-534D24D7D159}" name="Column2" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{CF15A780-E219-47E1-B6CB-D93B5F35E3C9}" name="Column3" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{615F0A06-B33A-47EB-9EF8-BCB7859FDD43}" name="Column4" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{E9A240DE-1194-474C-BF89-6BCD9A8E6CDB}" name="Table26210161820222428" displayName="Table26210161820222428" ref="B9:H19" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" headerRowBorderDxfId="38" tableBorderDxfId="39" totalsRowBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{E9A240DE-1194-474C-BF89-6BCD9A8E6CDB}" name="Table26210161820222428" displayName="Table26210161820222428" ref="B9:H19" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53" headerRowBorderDxfId="51" tableBorderDxfId="52" totalsRowBorderDxfId="50">
   <autoFilter ref="B9:H19" xr:uid="{E9A240DE-1194-474C-BF89-6BCD9A8E6CDB}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{314C2A89-A6F2-4DA9-9300-19DD2D4EA0D2}" name="Resource Name" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{4FAE81E7-017A-44B9-83C5-6CC799E6B4A7}" name="In-progress" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{0688DF32-231C-405B-A94B-FC816D6043AA}" name="Done" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{2F9BED11-8078-4AD5-91EC-387CFA8EF706}" name="Discarded / Hold" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{DC02D5FC-68F3-4FC3-ABE0-83003E52744E}" name="Hours Spent - Project" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{914DCCA1-1D85-4C34-9B28-64ADBA4E9784}" name="Hours Spent - Non Project" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{3C3F1F03-BDFE-41A2-83D7-3E3192367926}" name="Comments" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{314C2A89-A6F2-4DA9-9300-19DD2D4EA0D2}" name="Resource Name" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{4FAE81E7-017A-44B9-83C5-6CC799E6B4A7}" name="In-progress" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{0688DF32-231C-405B-A94B-FC816D6043AA}" name="Done" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{2F9BED11-8078-4AD5-91EC-387CFA8EF706}" name="Discarded / Hold" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{DC02D5FC-68F3-4FC3-ABE0-83003E52744E}" name="Hours Spent - Project" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{914DCCA1-1D85-4C34-9B28-64ADBA4E9784}" name="Hours Spent - Non Project" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{3C3F1F03-BDFE-41A2-83D7-3E3192367926}" name="Comments" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{46BFD46F-1AD6-4EF9-9F4D-9841A6E71CD9}" name="Table26" displayName="Table26" ref="B8:H18" totalsRowShown="0" headerRowDxfId="314" dataDxfId="313" headerRowBorderDxfId="311" tableBorderDxfId="312" totalsRowBorderDxfId="310">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{46BFD46F-1AD6-4EF9-9F4D-9841A6E71CD9}" name="Table26" displayName="Table26" ref="B8:H18" totalsRowShown="0" headerRowDxfId="327" dataDxfId="326" headerRowBorderDxfId="324" tableBorderDxfId="325" totalsRowBorderDxfId="323">
   <autoFilter ref="B8:H18" xr:uid="{46BFD46F-1AD6-4EF9-9F4D-9841A6E71CD9}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7428D5F6-9EE3-49C6-B1BE-E57BFF59C7B0}" name="Resource Name" dataDxfId="309"/>
-    <tableColumn id="2" xr3:uid="{8EF82413-9CDB-4809-98BD-913D08316031}" name="In-progress" dataDxfId="308"/>
-    <tableColumn id="3" xr3:uid="{B4E2F1CC-113D-4DBD-9D8F-AFFEF819725B}" name="Done" dataDxfId="307"/>
-    <tableColumn id="4" xr3:uid="{A8C1C667-3FF8-4B7C-AEC8-2DD543708DEA}" name="Discarded / Hold" dataDxfId="306"/>
-    <tableColumn id="5" xr3:uid="{DF5599B4-665D-4C1C-8DFF-80F68FB27D64}" name="Hours Spent - Project" dataDxfId="305"/>
-    <tableColumn id="6" xr3:uid="{EAD7742A-CE22-40A8-90BD-AB0C0555FA39}" name="Hours Spent - Non Project" dataDxfId="304"/>
-    <tableColumn id="7" xr3:uid="{52C2DA4C-9FFA-48AF-B36A-2837B9ED00F1}" name="Comments" dataDxfId="303"/>
+    <tableColumn id="1" xr3:uid="{7428D5F6-9EE3-49C6-B1BE-E57BFF59C7B0}" name="Resource Name" dataDxfId="322"/>
+    <tableColumn id="2" xr3:uid="{8EF82413-9CDB-4809-98BD-913D08316031}" name="In-progress" dataDxfId="321"/>
+    <tableColumn id="3" xr3:uid="{B4E2F1CC-113D-4DBD-9D8F-AFFEF819725B}" name="Done" dataDxfId="320"/>
+    <tableColumn id="4" xr3:uid="{A8C1C667-3FF8-4B7C-AEC8-2DD543708DEA}" name="Discarded / Hold" dataDxfId="319"/>
+    <tableColumn id="5" xr3:uid="{DF5599B4-665D-4C1C-8DFF-80F68FB27D64}" name="Hours Spent - Project" dataDxfId="318"/>
+    <tableColumn id="6" xr3:uid="{EAD7742A-CE22-40A8-90BD-AB0C0555FA39}" name="Hours Spent - Non Project" dataDxfId="317"/>
+    <tableColumn id="7" xr3:uid="{52C2DA4C-9FFA-48AF-B36A-2837B9ED00F1}" name="Comments" dataDxfId="316"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{9C7594DF-77AA-4490-AF49-C5C8389AFDB0}" name="Table37511171921232529" displayName="Table37511171921232529" ref="B4:E6" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{9C7594DF-77AA-4490-AF49-C5C8389AFDB0}" name="Table37511171921232529" displayName="Table37511171921232529" ref="B4:E6" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41" headerRowBorderDxfId="39" tableBorderDxfId="40" totalsRowBorderDxfId="38">
   <autoFilter ref="B4:E6" xr:uid="{9C7594DF-77AA-4490-AF49-C5C8389AFDB0}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0EE1C1E4-E828-4110-9EEE-EA604DA38FCF}" name="Column1" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{9B029141-56F3-45A4-932E-D1D245DFC030}" name="Column2" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{2272A335-D2C1-4035-8FF6-9B62DF1ABABF}" name="Column3" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{A130B436-10F2-4DA0-BA88-CE38ED22AEA4}" name="Column4" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{0EE1C1E4-E828-4110-9EEE-EA604DA38FCF}" name="Column1" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{9B029141-56F3-45A4-932E-D1D245DFC030}" name="Column2" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{2272A335-D2C1-4035-8FF6-9B62DF1ABABF}" name="Column3" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{A130B436-10F2-4DA0-BA88-CE38ED22AEA4}" name="Column4" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{908B1DB8-78D8-42F5-8CBF-7B58FEA062AE}" name="Table262101618202224283234" displayName="Table262101618202224283234" ref="B9:H19" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" headerRowBorderDxfId="17" tableBorderDxfId="18" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{908B1DB8-78D8-42F5-8CBF-7B58FEA062AE}" name="Table262101618202224283234" displayName="Table262101618202224283234" ref="B9:H19" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32" headerRowBorderDxfId="30" tableBorderDxfId="31" totalsRowBorderDxfId="29">
   <autoFilter ref="B9:H19" xr:uid="{E9A240DE-1194-474C-BF89-6BCD9A8E6CDB}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{43267CDA-2000-41A4-A09C-87304607AEA3}" name="Resource Name" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{BD419325-803B-4268-A12E-76D50FCF15DD}" name="In-progress" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{97D4402C-CB2C-493D-9484-2AA7CDF4B5E8}" name="Done" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{E53C0155-55B8-4C5C-8594-C4D413BA8BD6}" name="Discarded / Hold" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{4A5213A3-DF44-49F4-9A71-CB87AA35B8A7}" name="Hours Spent - Project" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{003E4CF5-180C-4117-89B1-DC2B72B3D6CA}" name="Hours Spent - Non Project" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{4FA0C9B6-6BF8-4886-A41C-2FEBB3CF204D}" name="Comments" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{43267CDA-2000-41A4-A09C-87304607AEA3}" name="Resource Name" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{BD419325-803B-4268-A12E-76D50FCF15DD}" name="In-progress" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{97D4402C-CB2C-493D-9484-2AA7CDF4B5E8}" name="Done" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{E53C0155-55B8-4C5C-8594-C4D413BA8BD6}" name="Discarded / Hold" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{4A5213A3-DF44-49F4-9A71-CB87AA35B8A7}" name="Hours Spent - Project" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{003E4CF5-180C-4117-89B1-DC2B72B3D6CA}" name="Hours Spent - Non Project" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{4FA0C9B6-6BF8-4886-A41C-2FEBB3CF204D}" name="Comments" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{20284A4A-B5E6-4400-ABFA-FDC1D00C7212}" name="Table375111719212325293335" displayName="Table375111719212325293335" ref="B4:E6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{20284A4A-B5E6-4400-ABFA-FDC1D00C7212}" name="Table375111719212325293335" displayName="Table375111719212325293335" ref="B4:E6" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19" totalsRowBorderDxfId="17">
   <autoFilter ref="B4:E6" xr:uid="{9C7594DF-77AA-4490-AF49-C5C8389AFDB0}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{24E9E45B-AD4B-402A-9F47-A4EE22725424}" name="Column1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{C23222EF-801F-4A2B-A41F-3BA035E1A156}" name="Column2" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{B89C1A74-B9BD-44BC-8B36-A61348536B4D}" name="Column3" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{5A4201D8-E6E3-42F7-BBFC-10E2EC745DA5}" name="Column4" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{24E9E45B-AD4B-402A-9F47-A4EE22725424}" name="Column1" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{C23222EF-801F-4A2B-A41F-3BA035E1A156}" name="Column2" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{B89C1A74-B9BD-44BC-8B36-A61348536B4D}" name="Column3" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{5A4201D8-E6E3-42F7-BBFC-10E2EC745DA5}" name="Column4" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9997EBAF-6A71-418E-B851-C8B1915211B5}" name="Table37" displayName="Table37" ref="B3:E5" totalsRowShown="0" headerRowDxfId="302" dataDxfId="301" headerRowBorderDxfId="299" tableBorderDxfId="300" totalsRowBorderDxfId="298">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9997EBAF-6A71-418E-B851-C8B1915211B5}" name="Table37" displayName="Table37" ref="B3:E5" totalsRowShown="0" headerRowDxfId="315" dataDxfId="314" headerRowBorderDxfId="312" tableBorderDxfId="313" totalsRowBorderDxfId="311">
   <autoFilter ref="B3:E5" xr:uid="{9997EBAF-6A71-418E-B851-C8B1915211B5}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7EDDA488-2881-4A15-9B9C-777D834D815F}" name="Column1" dataDxfId="297"/>
-    <tableColumn id="2" xr3:uid="{AFE02A3A-062D-4251-90A2-DA5D33B35508}" name="Column2" dataDxfId="296"/>
-    <tableColumn id="3" xr3:uid="{ED8EDBC8-15CC-4013-9D78-2DF925F82DCD}" name="Column3" dataDxfId="295"/>
-    <tableColumn id="4" xr3:uid="{62C95B61-46F3-42F7-A1B8-B69D37DD10DF}" name="Column4" dataDxfId="294"/>
+    <tableColumn id="1" xr3:uid="{7EDDA488-2881-4A15-9B9C-777D834D815F}" name="Column1" dataDxfId="310"/>
+    <tableColumn id="2" xr3:uid="{AFE02A3A-062D-4251-90A2-DA5D33B35508}" name="Column2" dataDxfId="309"/>
+    <tableColumn id="3" xr3:uid="{ED8EDBC8-15CC-4013-9D78-2DF925F82DCD}" name="Column3" dataDxfId="308"/>
+    <tableColumn id="4" xr3:uid="{62C95B61-46F3-42F7-A1B8-B69D37DD10DF}" name="Column4" dataDxfId="307"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{158FF28A-C282-456C-9B5E-C00624BAAA83}" name="Table2628" displayName="Table2628" ref="B7:H17" totalsRowShown="0" headerRowDxfId="293" dataDxfId="292" headerRowBorderDxfId="290" tableBorderDxfId="291" totalsRowBorderDxfId="289">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{158FF28A-C282-456C-9B5E-C00624BAAA83}" name="Table2628" displayName="Table2628" ref="B7:H17" totalsRowShown="0" headerRowDxfId="306" dataDxfId="305" headerRowBorderDxfId="303" tableBorderDxfId="304" totalsRowBorderDxfId="302">
   <autoFilter ref="B7:H17" xr:uid="{B1AE0DC9-D1F6-4E81-8D21-EBCF5F00B2B7}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{FA7FB678-9F12-498D-AC8C-EA3804FA6C35}" name="Resource Name" dataDxfId="288"/>
-    <tableColumn id="2" xr3:uid="{393B2B95-8815-4457-B760-B5E70FBBB0A5}" name="In-progress" dataDxfId="287"/>
-    <tableColumn id="3" xr3:uid="{400FD95F-D628-4B07-904B-1F5E11C584A9}" name="Done" dataDxfId="286"/>
-    <tableColumn id="4" xr3:uid="{DA6CAF01-4620-4AD9-8F22-C26934025345}" name="Discarded / Hold" dataDxfId="285"/>
-    <tableColumn id="5" xr3:uid="{D70C3DC4-AF79-4EA9-916E-2DDB8181B077}" name="Hours Spent - Project" dataDxfId="284"/>
-    <tableColumn id="6" xr3:uid="{BA92211F-9DF3-4897-86C0-5FE2D8FC9C28}" name="Hours Spent - Non Project" dataDxfId="283"/>
-    <tableColumn id="7" xr3:uid="{673B654E-8412-4BCE-9293-22370300F740}" name="Comments" dataDxfId="282"/>
+    <tableColumn id="1" xr3:uid="{FA7FB678-9F12-498D-AC8C-EA3804FA6C35}" name="Resource Name" dataDxfId="301"/>
+    <tableColumn id="2" xr3:uid="{393B2B95-8815-4457-B760-B5E70FBBB0A5}" name="In-progress" dataDxfId="300"/>
+    <tableColumn id="3" xr3:uid="{400FD95F-D628-4B07-904B-1F5E11C584A9}" name="Done" dataDxfId="299"/>
+    <tableColumn id="4" xr3:uid="{DA6CAF01-4620-4AD9-8F22-C26934025345}" name="Discarded / Hold" dataDxfId="298"/>
+    <tableColumn id="5" xr3:uid="{D70C3DC4-AF79-4EA9-916E-2DDB8181B077}" name="Hours Spent - Project" dataDxfId="297"/>
+    <tableColumn id="6" xr3:uid="{BA92211F-9DF3-4897-86C0-5FE2D8FC9C28}" name="Hours Spent - Non Project" dataDxfId="296"/>
+    <tableColumn id="7" xr3:uid="{673B654E-8412-4BCE-9293-22370300F740}" name="Comments" dataDxfId="295"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{FE979438-BC3B-45D4-9D8F-CD3DAC132734}" name="Table3759" displayName="Table3759" ref="B2:E4" totalsRowShown="0" headerRowDxfId="281" dataDxfId="280" headerRowBorderDxfId="278" tableBorderDxfId="279" totalsRowBorderDxfId="277">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{FE979438-BC3B-45D4-9D8F-CD3DAC132734}" name="Table3759" displayName="Table3759" ref="B2:E4" totalsRowShown="0" headerRowDxfId="294" dataDxfId="293" headerRowBorderDxfId="291" tableBorderDxfId="292" totalsRowBorderDxfId="290">
   <autoFilter ref="B2:E4" xr:uid="{ACFFF651-B126-4B94-92B4-F3166A18744A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D1B206E0-BC18-44C3-AC3A-E386EBC240DA}" name="Column1" dataDxfId="276"/>
-    <tableColumn id="2" xr3:uid="{93DD1EAA-9879-4D36-9385-C9A727E59F3F}" name="Column2" dataDxfId="275"/>
-    <tableColumn id="3" xr3:uid="{C1074E65-5D51-4E3A-B9B1-1AA797A29E27}" name="Column3" dataDxfId="274"/>
-    <tableColumn id="4" xr3:uid="{CB82D336-531C-4BB2-AC91-1CAC6E92E6B7}" name="Column4" dataDxfId="273"/>
+    <tableColumn id="1" xr3:uid="{D1B206E0-BC18-44C3-AC3A-E386EBC240DA}" name="Column1" dataDxfId="289"/>
+    <tableColumn id="2" xr3:uid="{93DD1EAA-9879-4D36-9385-C9A727E59F3F}" name="Column2" dataDxfId="288"/>
+    <tableColumn id="3" xr3:uid="{C1074E65-5D51-4E3A-B9B1-1AA797A29E27}" name="Column3" dataDxfId="287"/>
+    <tableColumn id="4" xr3:uid="{CB82D336-531C-4BB2-AC91-1CAC6E92E6B7}" name="Column4" dataDxfId="286"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1AE0DC9-D1F6-4E81-8D21-EBCF5F00B2B7}" name="Table262" displayName="Table262" ref="B7:H17" totalsRowShown="0" headerRowDxfId="272" dataDxfId="271" headerRowBorderDxfId="269" tableBorderDxfId="270" totalsRowBorderDxfId="268">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1AE0DC9-D1F6-4E81-8D21-EBCF5F00B2B7}" name="Table262" displayName="Table262" ref="B7:H17" totalsRowShown="0" headerRowDxfId="285" dataDxfId="284" headerRowBorderDxfId="282" tableBorderDxfId="283" totalsRowBorderDxfId="281">
   <autoFilter ref="B7:H17" xr:uid="{B1AE0DC9-D1F6-4E81-8D21-EBCF5F00B2B7}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C24C31E7-7289-4E64-B819-B73CBC38AAAC}" name="Resource Name" dataDxfId="267"/>
-    <tableColumn id="2" xr3:uid="{C2273D93-238B-4CCC-98AC-F0B06523F5CE}" name="In-progress" dataDxfId="266"/>
-    <tableColumn id="3" xr3:uid="{6E415DE6-A560-4988-877C-F716F699E312}" name="Done" dataDxfId="265"/>
-    <tableColumn id="4" xr3:uid="{C38A0EE9-47CE-4E5B-9C99-2B87137F78B9}" name="Discarded / Hold" dataDxfId="264"/>
-    <tableColumn id="5" xr3:uid="{1CC43B5C-77FA-4CED-8807-3E180A90E311}" name="Hours Spent - Project" dataDxfId="263"/>
-    <tableColumn id="6" xr3:uid="{356B8038-BBED-4F7F-B7BF-005E853F97B5}" name="Hours Spent - Non Project" dataDxfId="262"/>
-    <tableColumn id="7" xr3:uid="{AEE4776A-A2C0-4A70-ABAC-CB24A44ABC91}" name="Comments" dataDxfId="261"/>
+    <tableColumn id="1" xr3:uid="{C24C31E7-7289-4E64-B819-B73CBC38AAAC}" name="Resource Name" dataDxfId="280"/>
+    <tableColumn id="2" xr3:uid="{C2273D93-238B-4CCC-98AC-F0B06523F5CE}" name="In-progress" dataDxfId="279"/>
+    <tableColumn id="3" xr3:uid="{6E415DE6-A560-4988-877C-F716F699E312}" name="Done" dataDxfId="278"/>
+    <tableColumn id="4" xr3:uid="{C38A0EE9-47CE-4E5B-9C99-2B87137F78B9}" name="Discarded / Hold" dataDxfId="277"/>
+    <tableColumn id="5" xr3:uid="{1CC43B5C-77FA-4CED-8807-3E180A90E311}" name="Hours Spent - Project" dataDxfId="276"/>
+    <tableColumn id="6" xr3:uid="{356B8038-BBED-4F7F-B7BF-005E853F97B5}" name="Hours Spent - Non Project" dataDxfId="275"/>
+    <tableColumn id="7" xr3:uid="{AEE4776A-A2C0-4A70-ABAC-CB24A44ABC91}" name="Comments" dataDxfId="274"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{ACFFF651-B126-4B94-92B4-F3166A18744A}" name="Table375" displayName="Table375" ref="B2:E4" totalsRowShown="0" headerRowDxfId="260" dataDxfId="259" headerRowBorderDxfId="257" tableBorderDxfId="258" totalsRowBorderDxfId="256">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{ACFFF651-B126-4B94-92B4-F3166A18744A}" name="Table375" displayName="Table375" ref="B2:E4" totalsRowShown="0" headerRowDxfId="273" dataDxfId="272" headerRowBorderDxfId="270" tableBorderDxfId="271" totalsRowBorderDxfId="269">
   <autoFilter ref="B2:E4" xr:uid="{ACFFF651-B126-4B94-92B4-F3166A18744A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{83E614ED-6ABF-439F-A9B7-1518844696D4}" name="Column1" dataDxfId="255"/>
-    <tableColumn id="2" xr3:uid="{8840A839-8BBB-4DA6-9464-87D437F25D89}" name="Column2" dataDxfId="254"/>
-    <tableColumn id="3" xr3:uid="{ADAFE106-25BF-4F64-96D1-03AE2BD94818}" name="Column3" dataDxfId="253"/>
-    <tableColumn id="4" xr3:uid="{377D3DE4-F5C8-4A2C-99F9-A46F41134437}" name="Column4" dataDxfId="252"/>
+    <tableColumn id="1" xr3:uid="{83E614ED-6ABF-439F-A9B7-1518844696D4}" name="Column1" dataDxfId="268"/>
+    <tableColumn id="2" xr3:uid="{8840A839-8BBB-4DA6-9464-87D437F25D89}" name="Column2" dataDxfId="267"/>
+    <tableColumn id="3" xr3:uid="{ADAFE106-25BF-4F64-96D1-03AE2BD94818}" name="Column3" dataDxfId="266"/>
+    <tableColumn id="4" xr3:uid="{377D3DE4-F5C8-4A2C-99F9-A46F41134437}" name="Column4" dataDxfId="265"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A3D18560-C428-4868-B5CA-EBD1BE9F0FAE}" name="Table2621012" displayName="Table2621012" ref="B7:H17" totalsRowShown="0" headerRowDxfId="251" dataDxfId="250" headerRowBorderDxfId="248" tableBorderDxfId="249" totalsRowBorderDxfId="247">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A3D18560-C428-4868-B5CA-EBD1BE9F0FAE}" name="Table2621012" displayName="Table2621012" ref="B7:H17" totalsRowShown="0" headerRowDxfId="264" dataDxfId="263" headerRowBorderDxfId="261" tableBorderDxfId="262" totalsRowBorderDxfId="260">
   <autoFilter ref="B7:H17" xr:uid="{A30D6EFF-9BA6-4C4E-A49E-6E01C92313FC}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B99CA38C-6B70-44CB-94F1-34C0E18CAF38}" name="Resource Name" dataDxfId="246"/>
-    <tableColumn id="2" xr3:uid="{795625D3-DD18-4E77-8101-AB4369863885}" name="In-progress" dataDxfId="245"/>
-    <tableColumn id="3" xr3:uid="{F0C7DD64-C3AC-4A21-AA1F-AEAA2996C869}" name="Done" dataDxfId="244"/>
-    <tableColumn id="4" xr3:uid="{E1FC84EA-4ED4-4270-A149-E1E189A198C6}" name="Discarded / Hold" dataDxfId="243"/>
-    <tableColumn id="5" xr3:uid="{78CD14E8-1C2D-4CD1-A99E-E32FD07A85E3}" name="Hours Spent - Project" dataDxfId="242"/>
-    <tableColumn id="6" xr3:uid="{85ABF2B2-9FE1-4EFB-A748-B433E667EC67}" name="Hours Spent - Non Project" dataDxfId="241"/>
-    <tableColumn id="7" xr3:uid="{AA131BC6-5AD2-4A73-863A-093BE3A0E40F}" name="Comments" dataDxfId="240"/>
+    <tableColumn id="1" xr3:uid="{B99CA38C-6B70-44CB-94F1-34C0E18CAF38}" name="Resource Name" dataDxfId="259"/>
+    <tableColumn id="2" xr3:uid="{795625D3-DD18-4E77-8101-AB4369863885}" name="In-progress" dataDxfId="258"/>
+    <tableColumn id="3" xr3:uid="{F0C7DD64-C3AC-4A21-AA1F-AEAA2996C869}" name="Done" dataDxfId="257"/>
+    <tableColumn id="4" xr3:uid="{E1FC84EA-4ED4-4270-A149-E1E189A198C6}" name="Discarded / Hold" dataDxfId="256"/>
+    <tableColumn id="5" xr3:uid="{78CD14E8-1C2D-4CD1-A99E-E32FD07A85E3}" name="Hours Spent - Project" dataDxfId="255"/>
+    <tableColumn id="6" xr3:uid="{85ABF2B2-9FE1-4EFB-A748-B433E667EC67}" name="Hours Spent - Non Project" dataDxfId="254"/>
+    <tableColumn id="7" xr3:uid="{AA131BC6-5AD2-4A73-863A-093BE3A0E40F}" name="Comments" dataDxfId="253"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13275,8 +13543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7E5E1D-E354-4FCD-AD92-53A00E511336}">
   <dimension ref="A4:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13375,7 +13643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="393">
+    <row r="10" spans="1:8" ht="315">
       <c r="B10" s="19" t="s">
         <v>13</v>
       </c>
@@ -13573,6 +13841,3397 @@
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952F3578-7816-40A6-B6F1-14F946DAF008}">
+  <dimension ref="A1:Q166"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137:A151"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>283</v>
+      </c>
+      <c r="G1" s="50"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" s="53">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E2" s="53">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F2" s="53">
+        <f>E2-D2</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="53">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E3" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F3" s="53">
+        <f t="shared" ref="F3:F66" si="0">E3-D3</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="I3" s="53">
+        <f>SUMIFS(F2:F16, C2:C16,H3)</f>
+        <v>0.22916666666666674</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E4" s="53">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F4" s="53">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="I4" s="53">
+        <f>SUMIFS(F2:F16, C2:C16,H4)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="51"/>
+      <c r="B5" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" s="53">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E5" s="53">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F5" s="53">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="I5" s="53">
+        <f>SUMIFS(F2:F16, C2:C16,H5)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="51"/>
+      <c r="B6" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D6" s="53">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E6" s="53">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F6" s="53">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="I6" s="53">
+        <f>SUMIFS(F2:F16, C2:C16,H6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="51"/>
+      <c r="B7" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" s="53">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E7" s="53">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F7" s="53">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="I7" s="53">
+        <f>SUMIFS(F2:F16, C2:C16,H7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="51"/>
+      <c r="B8" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D8" s="53">
+        <v>0.65625</v>
+      </c>
+      <c r="E8" s="53">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F8" s="53">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="I8" s="53">
+        <f>SUMIFS(F2:F16, C2:C16,H8)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="51"/>
+      <c r="B9" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" s="53">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E9" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="F9" s="53">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="I9" s="49">
+        <f>SUM(I3:I8)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="51"/>
+      <c r="B10" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D10" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="F10" s="53">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="I10" s="55"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="55"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="51"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D17" s="53">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E17" s="53">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F17" s="53">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="I17" s="49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="51"/>
+      <c r="B18" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D18" s="53">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E18" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F18" s="53">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H18" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="I18" s="53">
+        <f t="shared" ref="I18" si="1">SUMIFS(F17:F31, C17:C31,H18)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="51"/>
+      <c r="B19" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D19" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E19" s="53">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F19" s="53">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H19" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="I19" s="53">
+        <f t="shared" ref="I19" si="2">SUMIFS(F17:F31, C17:C31,H19)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="51"/>
+      <c r="B20" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D20" s="53">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E20" s="53">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F20" s="53">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H20" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="I20" s="53">
+        <f t="shared" ref="I20" si="3">SUMIFS(F17:F31, C17:C31,H20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="51"/>
+      <c r="B21" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D21" s="53">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E21" s="53">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F21" s="53">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H21" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="I21" s="53">
+        <f t="shared" ref="I21" si="4">SUMIFS(F17:F31, C17:C31,H21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="51"/>
+      <c r="B22" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D22" s="53">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E22" s="53">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F22" s="53">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H22" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="I22" s="53">
+        <f t="shared" ref="I22" si="5">SUMIFS(F17:F31, C17:C31,H22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="51"/>
+      <c r="B23" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D23" s="53">
+        <v>0.65625</v>
+      </c>
+      <c r="E23" s="53">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F23" s="53">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H23" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="I23" s="53">
+        <f t="shared" ref="I23" si="6">SUMIFS(F17:F31, C17:C31,H23)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="51"/>
+      <c r="B24" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D24" s="53">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E24" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="F24" s="53">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H24" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="I24" s="49">
+        <f t="shared" ref="I24" si="7">SUM(I18:I23)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="51"/>
+      <c r="B25" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D25" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="E25" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="F25" s="53">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="I25" s="55"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="51"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="55"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="51"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="51"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="51"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="51"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D32" s="53">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E32" s="53">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F32" s="53">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H32" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="I32" s="49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="51"/>
+      <c r="B33" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D33" s="53">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E33" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F33" s="53">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H33" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="I33" s="53">
+        <f t="shared" ref="I33" si="8">SUMIFS(F32:F46, C32:C46,H33)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="51"/>
+      <c r="B34" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D34" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E34" s="53">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F34" s="53">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H34" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="I34" s="53">
+        <f t="shared" ref="I34" si="9">SUMIFS(F32:F46, C32:C46,H34)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="51"/>
+      <c r="B35" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D35" s="53">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E35" s="53">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F35" s="53">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H35" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="I35" s="53">
+        <f t="shared" ref="I35" si="10">SUMIFS(F32:F46, C32:C46,H35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="51"/>
+      <c r="B36" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D36" s="53">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E36" s="53">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F36" s="53">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H36" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="I36" s="53">
+        <f t="shared" ref="I36" si="11">SUMIFS(F32:F46, C32:C46,H36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="51"/>
+      <c r="B37" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D37" s="53">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E37" s="53">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F37" s="53">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H37" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="I37" s="53">
+        <f t="shared" ref="I37" si="12">SUMIFS(F32:F46, C32:C46,H37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="51"/>
+      <c r="B38" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D38" s="53">
+        <v>0.65625</v>
+      </c>
+      <c r="E38" s="53">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F38" s="53">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H38" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="I38" s="53">
+        <f t="shared" ref="I38" si="13">SUMIFS(F32:F46, C32:C46,H38)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="51"/>
+      <c r="B39" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D39" s="53">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E39" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="F39" s="53">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H39" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="I39" s="49">
+        <f t="shared" ref="I39" si="14">SUM(I33:I38)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="51"/>
+      <c r="B40" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D40" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="E40" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="F40" s="53">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="I40" s="55"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="51"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="55"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="51"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="51"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="51"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="58"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D47" s="53">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E47" s="53">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F47" s="53">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H47" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="I47" s="49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="56"/>
+      <c r="B48" s="57" t="s">
+        <v>288</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D48" s="53">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E48" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F48" s="53">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H48" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="I48" s="53">
+        <f t="shared" ref="I48" si="15">SUMIFS(F47:F61, C47:C61,H48)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="56"/>
+      <c r="B49" s="57" t="s">
+        <v>290</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D49" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E49" s="53">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F49" s="53">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H49" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="I49" s="53">
+        <f t="shared" ref="I49" si="16">SUMIFS(F47:F61, C47:C61,H49)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="56"/>
+      <c r="B50" s="57" t="s">
+        <v>288</v>
+      </c>
+      <c r="C50" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D50" s="53">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E50" s="53">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F50" s="53">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H50" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="I50" s="53">
+        <f t="shared" ref="I50" si="17">SUMIFS(F47:F61, C47:C61,H50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="56"/>
+      <c r="B51" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="C51" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D51" s="53">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E51" s="53">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F51" s="53">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H51" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="I51" s="53">
+        <f t="shared" ref="I51" si="18">SUMIFS(F47:F61, C47:C61,H51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="56"/>
+      <c r="B52" s="57" t="s">
+        <v>296</v>
+      </c>
+      <c r="C52" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D52" s="53">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E52" s="53">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F52" s="53">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H52" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="I52" s="53">
+        <f t="shared" ref="I52" si="19">SUMIFS(F47:F61, C47:C61,H52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="56"/>
+      <c r="B53" s="57" t="s">
+        <v>297</v>
+      </c>
+      <c r="C53" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D53" s="53">
+        <v>0.65625</v>
+      </c>
+      <c r="E53" s="53">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F53" s="53">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H53" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="I53" s="53">
+        <f t="shared" ref="I53" si="20">SUMIFS(F47:F61, C47:C61,H53)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="56"/>
+      <c r="B54" s="57" t="s">
+        <v>298</v>
+      </c>
+      <c r="C54" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D54" s="53">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E54" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="F54" s="53">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H54" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="I54" s="49">
+        <f t="shared" ref="I54" si="21">SUM(I48:I53)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="56"/>
+      <c r="B55" s="57" t="s">
+        <v>300</v>
+      </c>
+      <c r="C55" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D55" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="E55" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="F55" s="53">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="I55" s="55"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="56"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="55"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="56"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="56"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="56"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="56"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="56"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="C62" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D62" s="53">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E62" s="53">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F62" s="53">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H62" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="I62" s="49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="51"/>
+      <c r="B63" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="C63" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D63" s="53">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E63" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F63" s="53">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H63" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="I63" s="53">
+        <f t="shared" ref="I63" si="22">SUMIFS(F62:F76, C62:C76,H63)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="51"/>
+      <c r="B64" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="C64" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D64" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E64" s="53">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F64" s="53">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H64" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="I64" s="53">
+        <f t="shared" ref="I64" si="23">SUMIFS(F62:F76, C62:C76,H64)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="51"/>
+      <c r="B65" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="C65" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D65" s="53">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E65" s="53">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F65" s="53">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H65" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="I65" s="53">
+        <f t="shared" ref="I65" si="24">SUMIFS(F62:F76, C62:C76,H65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="51"/>
+      <c r="B66" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="C66" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D66" s="53">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E66" s="53">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F66" s="53">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H66" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="I66" s="53">
+        <f t="shared" ref="I66" si="25">SUMIFS(F62:F76, C62:C76,H66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="51"/>
+      <c r="B67" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="C67" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D67" s="53">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E67" s="53">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F67" s="53">
+        <f t="shared" ref="F67:F130" si="26">E67-D67</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H67" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="I67" s="53">
+        <f t="shared" ref="I67" si="27">SUMIFS(F62:F76, C62:C76,H67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="51"/>
+      <c r="B68" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="C68" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D68" s="53">
+        <v>0.65625</v>
+      </c>
+      <c r="E68" s="53">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F68" s="53">
+        <f t="shared" si="26"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H68" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="I68" s="53">
+        <f t="shared" ref="I68" si="28">SUMIFS(F62:F76, C62:C76,H68)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="51"/>
+      <c r="B69" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="C69" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D69" s="53">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E69" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="F69" s="53">
+        <f t="shared" si="26"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H69" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="I69" s="49">
+        <f t="shared" ref="I69" si="29">SUM(I63:I68)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="51"/>
+      <c r="B70" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="C70" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D70" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="E70" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="F70" s="53">
+        <f t="shared" si="26"/>
+        <v>0.125</v>
+      </c>
+      <c r="I70" s="55"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="51"/>
+      <c r="B71" s="52"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="55"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="51"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="51"/>
+      <c r="B73" s="52"/>
+      <c r="C73" s="52"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="51"/>
+      <c r="B74" s="52"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="51"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="52"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="51"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="B77" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="C77" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D77" s="53">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E77" s="53">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F77" s="53">
+        <f t="shared" si="26"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H77" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="I77" s="49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="51"/>
+      <c r="B78" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="C78" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D78" s="53">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E78" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F78" s="53">
+        <f t="shared" si="26"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H78" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="I78" s="53">
+        <f t="shared" ref="I78" si="30">SUMIFS(F77:F91, C77:C91,H78)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="51"/>
+      <c r="B79" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="C79" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D79" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E79" s="53">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F79" s="53">
+        <f t="shared" si="26"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H79" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="I79" s="53">
+        <f t="shared" ref="I79" si="31">SUMIFS(F77:F91, C77:C91,H79)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="51"/>
+      <c r="B80" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="C80" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D80" s="53">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E80" s="53">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F80" s="53">
+        <f t="shared" si="26"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H80" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="I80" s="53">
+        <f t="shared" ref="I80" si="32">SUMIFS(F77:F91, C77:C91,H80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="51"/>
+      <c r="B81" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="C81" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D81" s="53">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E81" s="53">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F81" s="53">
+        <f t="shared" si="26"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H81" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="I81" s="53">
+        <f t="shared" ref="I81" si="33">SUMIFS(F77:F91, C77:C91,H81)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="51"/>
+      <c r="B82" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="C82" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D82" s="53">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E82" s="53">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F82" s="53">
+        <f t="shared" si="26"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H82" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="I82" s="53">
+        <f t="shared" ref="I82" si="34">SUMIFS(F77:F91, C77:C91,H82)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="51"/>
+      <c r="B83" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="C83" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D83" s="53">
+        <v>0.65625</v>
+      </c>
+      <c r="E83" s="53">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F83" s="53">
+        <f t="shared" si="26"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H83" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="I83" s="53">
+        <f t="shared" ref="I83" si="35">SUMIFS(F77:F91, C77:C91,H83)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="51"/>
+      <c r="B84" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="C84" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D84" s="53">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E84" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="F84" s="53">
+        <f t="shared" si="26"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H84" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="I84" s="49">
+        <f t="shared" ref="I84" si="36">SUM(I78:I83)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="51"/>
+      <c r="B85" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="C85" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D85" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="E85" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="F85" s="53">
+        <f t="shared" si="26"/>
+        <v>0.125</v>
+      </c>
+      <c r="I85" s="55"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="51"/>
+      <c r="B86" s="52"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="53"/>
+      <c r="E86" s="53"/>
+      <c r="F86" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I86" s="55"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="51"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="53"/>
+      <c r="F87" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="51"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="53"/>
+      <c r="F88" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="51"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="52"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="53"/>
+      <c r="F89" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="51"/>
+      <c r="B90" s="52"/>
+      <c r="C90" s="52"/>
+      <c r="D90" s="53"/>
+      <c r="E90" s="53"/>
+      <c r="F90" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="51"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="52"/>
+      <c r="D91" s="53"/>
+      <c r="E91" s="53"/>
+      <c r="F91" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B92" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="C92" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D92" s="53">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E92" s="53">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F92" s="53">
+        <f t="shared" si="26"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H92" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="I92" s="49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="51"/>
+      <c r="B93" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="C93" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D93" s="53">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E93" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F93" s="53">
+        <f t="shared" si="26"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H93" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="I93" s="53">
+        <f t="shared" ref="I93" si="37">SUMIFS(F92:F106, C92:C106,H93)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="51"/>
+      <c r="B94" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="C94" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D94" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E94" s="53">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F94" s="53">
+        <f t="shared" si="26"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H94" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="I94" s="53">
+        <f t="shared" ref="I94" si="38">SUMIFS(F92:F106, C92:C106,H94)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="51"/>
+      <c r="B95" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="C95" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D95" s="53">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E95" s="53">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F95" s="53">
+        <f t="shared" si="26"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H95" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="I95" s="53">
+        <f t="shared" ref="I95" si="39">SUMIFS(F92:F106, C92:C106,H95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="51"/>
+      <c r="B96" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="C96" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D96" s="53">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E96" s="53">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F96" s="53">
+        <f t="shared" si="26"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H96" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="I96" s="53">
+        <f t="shared" ref="I96" si="40">SUMIFS(F92:F106, C92:C106,H96)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="51"/>
+      <c r="B97" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="C97" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D97" s="53">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E97" s="53">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F97" s="53">
+        <f t="shared" si="26"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H97" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="I97" s="53">
+        <f t="shared" ref="I97" si="41">SUMIFS(F92:F106, C92:C106,H97)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="51"/>
+      <c r="B98" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="C98" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D98" s="53">
+        <v>0.65625</v>
+      </c>
+      <c r="E98" s="53">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F98" s="53">
+        <f t="shared" si="26"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H98" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="I98" s="53">
+        <f t="shared" ref="I98" si="42">SUMIFS(F92:F106, C92:C106,H98)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="51"/>
+      <c r="B99" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="C99" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D99" s="53">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E99" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="F99" s="53">
+        <f t="shared" si="26"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H99" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="I99" s="49">
+        <f t="shared" ref="I99" si="43">SUM(I93:I98)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="51"/>
+      <c r="B100" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="C100" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D100" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="E100" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="F100" s="53">
+        <f t="shared" si="26"/>
+        <v>0.125</v>
+      </c>
+      <c r="I100" s="55"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="51"/>
+      <c r="B101" s="52"/>
+      <c r="C101" s="52"/>
+      <c r="D101" s="53"/>
+      <c r="E101" s="53"/>
+      <c r="F101" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I101" s="55"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="51"/>
+      <c r="B102" s="52"/>
+      <c r="C102" s="52"/>
+      <c r="D102" s="53"/>
+      <c r="E102" s="53"/>
+      <c r="F102" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="51"/>
+      <c r="B103" s="52"/>
+      <c r="C103" s="52"/>
+      <c r="D103" s="53"/>
+      <c r="E103" s="53"/>
+      <c r="F103" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="51"/>
+      <c r="B104" s="52"/>
+      <c r="C104" s="52"/>
+      <c r="D104" s="53"/>
+      <c r="E104" s="53"/>
+      <c r="F104" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="51"/>
+      <c r="B105" s="52"/>
+      <c r="C105" s="52"/>
+      <c r="D105" s="53"/>
+      <c r="E105" s="53"/>
+      <c r="F105" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="58"/>
+      <c r="B106" s="52"/>
+      <c r="C106" s="52"/>
+      <c r="D106" s="53"/>
+      <c r="E106" s="53"/>
+      <c r="F106" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="B107" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="C107" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D107" s="53">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E107" s="53">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F107" s="53">
+        <f t="shared" si="26"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H107" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="I107" s="49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="56"/>
+      <c r="B108" s="57" t="s">
+        <v>288</v>
+      </c>
+      <c r="C108" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D108" s="53">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E108" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F108" s="53">
+        <f t="shared" si="26"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H108" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="I108" s="53">
+        <f t="shared" ref="I108" si="44">SUMIFS(F107:F121, C107:C121,H108)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="56"/>
+      <c r="B109" s="57" t="s">
+        <v>290</v>
+      </c>
+      <c r="C109" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D109" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E109" s="53">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F109" s="53">
+        <f t="shared" si="26"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H109" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="I109" s="53">
+        <f t="shared" ref="I109" si="45">SUMIFS(F107:F121, C107:C121,H109)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="56"/>
+      <c r="B110" s="57" t="s">
+        <v>288</v>
+      </c>
+      <c r="C110" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D110" s="53">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E110" s="53">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F110" s="53">
+        <f t="shared" si="26"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H110" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="I110" s="53">
+        <f t="shared" ref="I110" si="46">SUMIFS(F107:F121, C107:C121,H110)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="56"/>
+      <c r="B111" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="C111" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D111" s="53">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E111" s="53">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F111" s="53">
+        <f t="shared" si="26"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H111" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="I111" s="53">
+        <f t="shared" ref="I111" si="47">SUMIFS(F107:F121, C107:C121,H111)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="56"/>
+      <c r="B112" s="57" t="s">
+        <v>296</v>
+      </c>
+      <c r="C112" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D112" s="53">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E112" s="53">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F112" s="53">
+        <f t="shared" si="26"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H112" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="I112" s="53">
+        <f t="shared" ref="I112" si="48">SUMIFS(F107:F121, C107:C121,H112)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="56"/>
+      <c r="B113" s="57" t="s">
+        <v>297</v>
+      </c>
+      <c r="C113" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D113" s="53">
+        <v>0.65625</v>
+      </c>
+      <c r="E113" s="53">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F113" s="53">
+        <f t="shared" si="26"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H113" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="I113" s="53">
+        <f t="shared" ref="I113" si="49">SUMIFS(F107:F121, C107:C121,H113)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="56"/>
+      <c r="B114" s="57" t="s">
+        <v>298</v>
+      </c>
+      <c r="C114" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D114" s="53">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E114" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="F114" s="53">
+        <f t="shared" si="26"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H114" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="I114" s="49">
+        <f t="shared" ref="I114" si="50">SUM(I108:I113)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="56"/>
+      <c r="B115" s="57" t="s">
+        <v>300</v>
+      </c>
+      <c r="C115" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D115" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="E115" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="F115" s="53">
+        <f t="shared" si="26"/>
+        <v>0.125</v>
+      </c>
+      <c r="I115" s="55"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="56"/>
+      <c r="B116" s="57"/>
+      <c r="C116" s="52"/>
+      <c r="D116" s="53"/>
+      <c r="E116" s="53"/>
+      <c r="F116" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I116" s="55"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="56"/>
+      <c r="B117" s="57"/>
+      <c r="C117" s="52"/>
+      <c r="D117" s="53"/>
+      <c r="E117" s="53"/>
+      <c r="F117" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="56"/>
+      <c r="B118" s="57"/>
+      <c r="C118" s="52"/>
+      <c r="D118" s="53"/>
+      <c r="E118" s="53"/>
+      <c r="F118" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="56"/>
+      <c r="B119" s="57"/>
+      <c r="C119" s="52"/>
+      <c r="D119" s="53"/>
+      <c r="E119" s="53"/>
+      <c r="F119" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="56"/>
+      <c r="B120" s="57"/>
+      <c r="C120" s="52"/>
+      <c r="D120" s="53"/>
+      <c r="E120" s="53"/>
+      <c r="F120" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="56"/>
+      <c r="B121" s="57"/>
+      <c r="C121" s="52"/>
+      <c r="D121" s="53"/>
+      <c r="E121" s="53"/>
+      <c r="F121" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="B122" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="C122" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D122" s="53">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E122" s="53">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F122" s="53">
+        <f t="shared" si="26"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H122" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="I122" s="49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="51"/>
+      <c r="B123" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="C123" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D123" s="53">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E123" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F123" s="53">
+        <f t="shared" si="26"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H123" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="I123" s="53">
+        <f t="shared" ref="I123" si="51">SUMIFS(F122:F136, C122:C136,H123)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="51"/>
+      <c r="B124" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="C124" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D124" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E124" s="53">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F124" s="53">
+        <f t="shared" si="26"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H124" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="I124" s="53">
+        <f t="shared" ref="I124" si="52">SUMIFS(F122:F136, C122:C136,H124)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="51"/>
+      <c r="B125" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="C125" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D125" s="53">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E125" s="53">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F125" s="53">
+        <f t="shared" si="26"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H125" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="I125" s="53">
+        <f t="shared" ref="I125" si="53">SUMIFS(F122:F136, C122:C136,H125)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="51"/>
+      <c r="B126" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="C126" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D126" s="53">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E126" s="53">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F126" s="53">
+        <f t="shared" si="26"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H126" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="I126" s="53">
+        <f t="shared" ref="I126" si="54">SUMIFS(F122:F136, C122:C136,H126)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="51"/>
+      <c r="B127" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="C127" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D127" s="53">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E127" s="53">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F127" s="53">
+        <f t="shared" si="26"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H127" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="I127" s="53">
+        <f t="shared" ref="I127" si="55">SUMIFS(F122:F136, C122:C136,H127)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="51"/>
+      <c r="B128" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="C128" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D128" s="53">
+        <v>0.65625</v>
+      </c>
+      <c r="E128" s="53">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F128" s="53">
+        <f t="shared" si="26"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H128" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="I128" s="53">
+        <f t="shared" ref="I128" si="56">SUMIFS(F122:F136, C122:C136,H128)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="51"/>
+      <c r="B129" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="C129" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D129" s="53">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E129" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="F129" s="53">
+        <f t="shared" si="26"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H129" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="I129" s="49">
+        <f t="shared" ref="I129" si="57">SUM(I123:I128)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="51"/>
+      <c r="B130" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="C130" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D130" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="E130" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="F130" s="53">
+        <f t="shared" si="26"/>
+        <v>0.125</v>
+      </c>
+      <c r="I130" s="55"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="51"/>
+      <c r="B131" s="52"/>
+      <c r="C131" s="52"/>
+      <c r="D131" s="53"/>
+      <c r="E131" s="53"/>
+      <c r="F131" s="53">
+        <f t="shared" ref="F131:F194" si="58">E131-D131</f>
+        <v>0</v>
+      </c>
+      <c r="I131" s="55"/>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="51"/>
+      <c r="B132" s="52"/>
+      <c r="C132" s="52"/>
+      <c r="D132" s="53"/>
+      <c r="E132" s="53"/>
+      <c r="F132" s="53">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="51"/>
+      <c r="B133" s="52"/>
+      <c r="C133" s="52"/>
+      <c r="D133" s="53"/>
+      <c r="E133" s="53"/>
+      <c r="F133" s="53">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="51"/>
+      <c r="B134" s="52"/>
+      <c r="C134" s="52"/>
+      <c r="D134" s="53"/>
+      <c r="E134" s="53"/>
+      <c r="F134" s="53">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="51"/>
+      <c r="B135" s="52"/>
+      <c r="C135" s="52"/>
+      <c r="D135" s="53"/>
+      <c r="E135" s="53"/>
+      <c r="F135" s="53">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="58"/>
+      <c r="B136" s="52"/>
+      <c r="C136" s="52"/>
+      <c r="D136" s="53"/>
+      <c r="E136" s="53"/>
+      <c r="F136" s="53">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="B137" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="C137" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D137" s="53">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E137" s="53">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F137" s="53">
+        <f t="shared" si="58"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H137" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="I137" s="49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="56"/>
+      <c r="B138" s="57" t="s">
+        <v>288</v>
+      </c>
+      <c r="C138" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D138" s="53">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E138" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F138" s="53">
+        <f t="shared" si="58"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H138" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="I138" s="53">
+        <f t="shared" ref="I138" si="59">SUMIFS(F137:F151, C137:C151,H138)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="56"/>
+      <c r="B139" s="57" t="s">
+        <v>290</v>
+      </c>
+      <c r="C139" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D139" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E139" s="53">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F139" s="53">
+        <f t="shared" si="58"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H139" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="I139" s="53">
+        <f t="shared" ref="I139" si="60">SUMIFS(F137:F151, C137:C151,H139)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="56"/>
+      <c r="B140" s="57" t="s">
+        <v>288</v>
+      </c>
+      <c r="C140" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D140" s="53">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E140" s="53">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F140" s="53">
+        <f t="shared" si="58"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H140" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="I140" s="53">
+        <f t="shared" ref="I140" si="61">SUMIFS(F137:F151, C137:C151,H140)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="56"/>
+      <c r="B141" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="C141" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D141" s="53">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E141" s="53">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F141" s="53">
+        <f t="shared" si="58"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H141" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="I141" s="53">
+        <f t="shared" ref="I141" si="62">SUMIFS(F137:F151, C137:C151,H141)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="56"/>
+      <c r="B142" s="57" t="s">
+        <v>296</v>
+      </c>
+      <c r="C142" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D142" s="53">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E142" s="53">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F142" s="53">
+        <f t="shared" si="58"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H142" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="I142" s="53">
+        <f t="shared" ref="I142" si="63">SUMIFS(F137:F151, C137:C151,H142)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="56"/>
+      <c r="B143" s="57" t="s">
+        <v>297</v>
+      </c>
+      <c r="C143" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D143" s="53">
+        <v>0.65625</v>
+      </c>
+      <c r="E143" s="53">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F143" s="53">
+        <f t="shared" si="58"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H143" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="I143" s="53">
+        <f t="shared" ref="I143" si="64">SUMIFS(F137:F151, C137:C151,H143)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="56"/>
+      <c r="B144" s="57" t="s">
+        <v>298</v>
+      </c>
+      <c r="C144" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D144" s="53">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E144" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="F144" s="53">
+        <f t="shared" si="58"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H144" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="I144" s="49">
+        <f t="shared" ref="I144" si="65">SUM(I138:I143)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="56"/>
+      <c r="B145" s="57" t="s">
+        <v>300</v>
+      </c>
+      <c r="C145" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D145" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="E145" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="F145" s="53">
+        <f t="shared" si="58"/>
+        <v>0.125</v>
+      </c>
+      <c r="I145" s="55"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="56"/>
+      <c r="B146" s="57"/>
+      <c r="C146" s="52"/>
+      <c r="D146" s="53"/>
+      <c r="E146" s="53"/>
+      <c r="F146" s="53">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="I146" s="55"/>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="56"/>
+      <c r="B147" s="57"/>
+      <c r="C147" s="52"/>
+      <c r="D147" s="53"/>
+      <c r="E147" s="53"/>
+      <c r="F147" s="53">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="56"/>
+      <c r="B148" s="57"/>
+      <c r="C148" s="52"/>
+      <c r="D148" s="53"/>
+      <c r="E148" s="53"/>
+      <c r="F148" s="53">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="56"/>
+      <c r="B149" s="57"/>
+      <c r="C149" s="52"/>
+      <c r="D149" s="53"/>
+      <c r="E149" s="53"/>
+      <c r="F149" s="53">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="56"/>
+      <c r="B150" s="57"/>
+      <c r="C150" s="52"/>
+      <c r="D150" s="53"/>
+      <c r="E150" s="53"/>
+      <c r="F150" s="53">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="56"/>
+      <c r="B151" s="57"/>
+      <c r="C151" s="52"/>
+      <c r="D151" s="53"/>
+      <c r="E151" s="53"/>
+      <c r="F151" s="53">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="B152" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="C152" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D152" s="53">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E152" s="53">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F152" s="53">
+        <f t="shared" si="58"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H152" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="I152" s="49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="51"/>
+      <c r="B153" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="C153" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D153" s="53">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E153" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F153" s="53">
+        <f t="shared" si="58"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H153" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="I153" s="53">
+        <f t="shared" ref="I153" si="66">SUMIFS(F152:F166, C152:C166,H153)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="51"/>
+      <c r="B154" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="C154" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D154" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E154" s="53">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F154" s="53">
+        <f t="shared" si="58"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H154" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="I154" s="53">
+        <f t="shared" ref="I154" si="67">SUMIFS(F152:F166, C152:C166,H154)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="51"/>
+      <c r="B155" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="C155" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D155" s="53">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E155" s="53">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F155" s="53">
+        <f t="shared" si="58"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H155" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="I155" s="53">
+        <f t="shared" ref="I155" si="68">SUMIFS(F152:F166, C152:C166,H155)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="51"/>
+      <c r="B156" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="C156" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D156" s="53">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E156" s="53">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F156" s="53">
+        <f t="shared" si="58"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H156" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="I156" s="53">
+        <f t="shared" ref="I156" si="69">SUMIFS(F152:F166, C152:C166,H156)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="51"/>
+      <c r="B157" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="C157" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D157" s="53">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E157" s="53">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F157" s="53">
+        <f t="shared" si="58"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H157" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="I157" s="53">
+        <f t="shared" ref="I157" si="70">SUMIFS(F152:F166, C152:C166,H157)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="51"/>
+      <c r="B158" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="C158" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D158" s="53">
+        <v>0.65625</v>
+      </c>
+      <c r="E158" s="53">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F158" s="53">
+        <f t="shared" si="58"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H158" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="I158" s="53">
+        <f t="shared" ref="I158" si="71">SUMIFS(F152:F166, C152:C166,H158)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="51"/>
+      <c r="B159" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="C159" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D159" s="53">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E159" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="F159" s="53">
+        <f t="shared" si="58"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H159" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="I159" s="49">
+        <f t="shared" ref="I159" si="72">SUM(I153:I158)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="51"/>
+      <c r="B160" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="C160" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D160" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="E160" s="53">
+        <v>0.875</v>
+      </c>
+      <c r="F160" s="53">
+        <f t="shared" si="58"/>
+        <v>0.125</v>
+      </c>
+      <c r="I160" s="55"/>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="51"/>
+      <c r="B161" s="52"/>
+      <c r="C161" s="52"/>
+      <c r="D161" s="53"/>
+      <c r="E161" s="53"/>
+      <c r="F161" s="53">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="I161" s="55"/>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="51"/>
+      <c r="B162" s="52"/>
+      <c r="C162" s="52"/>
+      <c r="D162" s="53"/>
+      <c r="E162" s="53"/>
+      <c r="F162" s="53">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="51"/>
+      <c r="B163" s="52"/>
+      <c r="C163" s="52"/>
+      <c r="D163" s="53"/>
+      <c r="E163" s="53"/>
+      <c r="F163" s="53">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="51"/>
+      <c r="B164" s="52"/>
+      <c r="C164" s="52"/>
+      <c r="D164" s="53"/>
+      <c r="E164" s="53"/>
+      <c r="F164" s="53">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="51"/>
+      <c r="B165" s="52"/>
+      <c r="C165" s="52"/>
+      <c r="D165" s="53"/>
+      <c r="E165" s="53"/>
+      <c r="F165" s="53">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="51"/>
+      <c r="B166" s="52"/>
+      <c r="C166" s="52"/>
+      <c r="D166" s="53"/>
+      <c r="E166" s="53"/>
+      <c r="F166" s="53">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="A47:A61"/>
+    <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A77:A91"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="lessThan">
+      <formula>0.25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4 I19 I34 I49 I64 I79 I94 I109 I124 I139 I154">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5 I20 I35 I50 I65 I80 I95 I110 I125 I140 I155">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6 I21 I36 I51 I66 I81 I96 I111 I126 I141 I156">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7 I22 I37 I52 I67 I82 I97 I112 I127 I142 I157">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8 I23 I38 I53 I68 I83 I98 I113 I128 I143 I158">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0.0625</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0.0625</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C166" xr:uid="{A5A02956-BEE0-46E0-9316-12A86E7B69A1}">
+      <formula1>$Q$1:$Q$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E86179E-86C4-4F6C-911A-2D56F4329A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F6B6898-F0C5-4A45-ACA3-BA37D5AE9D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 3(06-04-2022)" sheetId="40" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="313">
   <si>
     <t>Column1</t>
   </si>
@@ -1353,52 +1353,85 @@
     <t>Total Time</t>
   </si>
   <si>
+    <t>Checked Mails</t>
+  </si>
+  <si>
+    <t>Non Project</t>
+  </si>
+  <si>
+    <t>Split</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Explored on  CSS Box Model(margin , Border ,padding)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration </t>
+  </si>
+  <si>
+    <t>Explored on Grid Layout( Partitioning a Page into Columns &amp; Rows )</t>
+  </si>
+  <si>
+    <t>Refined Layout(DashBoard Selection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting </t>
+  </si>
+  <si>
+    <t>Morning Break</t>
+  </si>
+  <si>
+    <t>Lunch and Break</t>
+  </si>
+  <si>
+    <t>Customer Review</t>
+  </si>
+  <si>
+    <t>Merging Layout (DashBoard Selection)&amp; Common CSS file</t>
+  </si>
+  <si>
+    <t>Rafi Information (On Team Performance Notice Board)</t>
+  </si>
+  <si>
+    <t>Searching Bootstrap classes for Layout ( to improve DashBoard responsiveness )</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunch </t>
+  </si>
+  <si>
+    <t>Review Meetingwith Rafi</t>
+  </si>
+  <si>
+    <t>Started Exploring on Entity FrameWork Core (Pluralsight)</t>
+  </si>
+  <si>
+    <t>Evening Break</t>
+  </si>
+  <si>
+    <t>Technical Session on Angular(Typescript Basics)</t>
+  </si>
+  <si>
+    <t>Meeting with team</t>
+  </si>
+  <si>
     <t>Team Meeting</t>
   </si>
   <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>Split</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Soft Skill</t>
   </si>
   <si>
-    <t>Non Project</t>
-  </si>
-  <si>
     <t>Customer Meeting</t>
   </si>
   <si>
-    <t xml:space="preserve">Exploration </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lunch </t>
-  </si>
-  <si>
-    <t>Lunch and Break</t>
-  </si>
-  <si>
-    <t>Customer Review</t>
-  </si>
-  <si>
-    <t>Morning Break</t>
-  </si>
-  <si>
-    <t>Evening Break</t>
-  </si>
-  <si>
     <t>Learned Angular &lt;Topics&gt;</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
   </si>
   <si>
     <t>Working on HTML layout</t>
@@ -1856,18 +1889,18 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13543,7 +13576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7E5E1D-E354-4FCD-AD92-53A00E511336}">
   <dimension ref="A4:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -13848,8 +13881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952F3578-7816-40A6-B6F1-14F946DAF008}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137:A151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13857,9 +13890,9 @@
     <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="54" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
@@ -13888,24 +13921,24 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>284</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="D2" s="53">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E2" s="53">
-        <v>0.4236111111111111</v>
-      </c>
-      <c r="F2" s="53">
+      <c r="D2" s="52">
+        <v>0.34375</v>
+      </c>
+      <c r="E2" s="52">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="F2" s="52">
         <f>E2-D2</f>
-        <v>6.9444444444444198E-3</v>
+        <v>3.4722222222222654E-3</v>
       </c>
       <c r="H2" s="49" t="s">
         <v>286</v>
@@ -13914,1177 +13947,1217 @@
         <v>287</v>
       </c>
       <c r="Q2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="56"/>
+      <c r="B3" s="51" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="D3" s="52">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="E3" s="52">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="F3" s="52">
+        <f t="shared" ref="F3:F66" si="0">E3-D3</f>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="I3" s="52">
+        <f>SUMIFS(F2:F16, C2:C16,H3)</f>
+        <v>0.18749999999999994</v>
+      </c>
+      <c r="Q3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52" t="s">
+    <row r="4" spans="1:17">
+      <c r="A4" s="56"/>
+      <c r="B4" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" s="52">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E4" s="52">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F4" s="52">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="I4" s="52">
+        <f>SUMIFS(F2:F16, C2:C16,H4)</f>
+        <v>9.0277777777779122E-3</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="56"/>
+      <c r="B5" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="C3" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="D3" s="53">
+      <c r="D5" s="52">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E5" s="52">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="F5" s="52">
+        <f t="shared" si="0"/>
+        <v>4.5138888888888895E-2</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="I5" s="52">
+        <f>SUMIFS(F2:F16, C2:C16,H5)</f>
+        <v>5.5555555555555469E-2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="56"/>
+      <c r="B6" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D6" s="52">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E6" s="52">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F6" s="52">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H6" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="I6" s="52">
+        <f>SUMIFS(F2:F16, C2:C16,H6)</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="56"/>
+      <c r="B7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D7" s="52">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E7" s="52">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="F7" s="52">
+        <f t="shared" ref="F7" si="1">E7-D7</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="I7" s="52">
+        <f>SUMIFS(F2:F16, C2:C16,H7)</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="56"/>
+      <c r="B8" s="51" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" s="52">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="E8" s="52">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F8" s="52">
+        <f t="shared" si="0"/>
+        <v>5.5555555555556468E-3</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="I8" s="52">
+        <f>SUMIFS(F2:F16, C2:C16,H8)</f>
+        <v>3.8194444444444586E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="56"/>
+      <c r="B9" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" s="52">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E9" s="52">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="F9" s="52">
+        <f>E9-D9</f>
+        <v>6.2499999999999944E-2</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="I9" s="49">
+        <f>SUM(I3:I8)</f>
+        <v>0.32152777777777791</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="56"/>
+      <c r="B10" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D10" s="52">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E10" s="52">
+        <v>0.5625</v>
+      </c>
+      <c r="F10" s="52">
+        <f>E10-D10</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="I10" s="54"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="56"/>
+      <c r="B11" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="D11" s="52">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="E11" s="52">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="F11" s="52">
+        <f>E11-D11</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="I11" s="54"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="56"/>
+      <c r="B12" s="51" t="s">
+        <v>303</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" s="52">
+        <v>0.625</v>
+      </c>
+      <c r="E12" s="52">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="F12" s="52">
+        <f>E12-D12</f>
+        <v>1.7361111111111049E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="56"/>
+      <c r="B13" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D13" s="52">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E13" s="52">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="F13" s="52">
+        <f>E13-D13</f>
+        <v>6.9444444444445308E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="56"/>
+      <c r="B14" s="51" t="s">
+        <v>305</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D14" s="52">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="E14" s="52">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F14" s="52">
+        <f>E14-D14</f>
+        <v>5.902777777777779E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="56"/>
+      <c r="B15" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15" s="52">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="E15" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="F15" s="52">
+        <f>E15-D15</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="56"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D17" s="52">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E17" s="52">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F17" s="52">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="I17" s="49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="56"/>
+      <c r="B18" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D18" s="52">
         <v>0.42708333333333331</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E18" s="52">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F3" s="53">
-        <f t="shared" ref="F3:F66" si="0">E3-D3</f>
+      <c r="F18" s="52">
+        <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="H3" s="54" t="s">
-        <v>285</v>
-      </c>
-      <c r="I3" s="53">
-        <f>SUMIFS(F2:F16, C2:C16,H3)</f>
+      <c r="H18" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="I18" s="52">
+        <f t="shared" ref="I18" si="2">SUMIFS(F17:F31, C17:C31,H18)</f>
         <v>0.22916666666666674</v>
       </c>
-      <c r="Q3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52" t="s">
-        <v>290</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D4" s="53">
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="56"/>
+      <c r="B19" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D19" s="52">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E19" s="52">
         <v>0.47222222222222227</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F19" s="52">
         <f t="shared" si="0"/>
         <v>1.3888888888888951E-2</v>
       </c>
-      <c r="H4" s="54" t="s">
-        <v>289</v>
-      </c>
-      <c r="I4" s="53">
-        <f>SUMIFS(F2:F16, C2:C16,H4)</f>
+      <c r="H19" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="I19" s="52">
+        <f t="shared" ref="I19" si="3">SUMIFS(F17:F31, C17:C31,H19)</f>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="Q4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52" t="s">
-        <v>288</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="D5" s="53">
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="56"/>
+      <c r="B20" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D20" s="52">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E20" s="52">
         <v>0.52083333333333337</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F20" s="52">
         <f t="shared" si="0"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="H5" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="I5" s="53">
-        <f>SUMIFS(F2:F16, C2:C16,H5)</f>
+      <c r="H20" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="I20" s="52">
+        <f t="shared" ref="I20" si="4">SUMIFS(F17:F31, C17:C31,H20)</f>
         <v>0</v>
       </c>
-      <c r="Q5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D6" s="53">
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="56"/>
+      <c r="B21" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D21" s="52">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E21" s="52">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F21" s="52">
         <f t="shared" si="0"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="H6" s="54" t="s">
-        <v>292</v>
-      </c>
-      <c r="I6" s="53">
-        <f>SUMIFS(F2:F16, C2:C16,H6)</f>
+      <c r="H21" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="I21" s="52">
+        <f t="shared" ref="I21" si="5">SUMIFS(F17:F31, C17:C31,H21)</f>
         <v>0</v>
       </c>
-      <c r="Q6" t="s">
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="56"/>
+      <c r="B22" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="C22" s="51" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D7" s="53">
+      <c r="D22" s="52">
         <v>0.47222222222222227</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E22" s="52">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F22" s="52">
         <f t="shared" si="0"/>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H22" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="I22" s="52">
+        <f t="shared" ref="I22" si="6">SUMIFS(F17:F31, C17:C31,H22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="56"/>
+      <c r="B23" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="C23" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="I7" s="53">
-        <f>SUMIFS(F2:F16, C2:C16,H7)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52" t="s">
-        <v>297</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D8" s="53">
+      <c r="D23" s="52">
         <v>0.65625</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E23" s="52">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F23" s="52">
         <f t="shared" si="0"/>
         <v>1.041666666666663E-2</v>
       </c>
-      <c r="H8" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="I8" s="53">
-        <f>SUMIFS(F2:F16, C2:C16,H8)</f>
+      <c r="H23" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="I23" s="52">
+        <f t="shared" ref="I23" si="7">SUMIFS(F17:F31, C17:C31,H23)</f>
         <v>3.8194444444444309E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="51"/>
-      <c r="B9" s="52" t="s">
-        <v>298</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D9" s="53">
+    <row r="24" spans="1:9">
+      <c r="A24" s="56"/>
+      <c r="B24" s="51" t="s">
+        <v>310</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D24" s="52">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E24" s="52">
         <v>0.75</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F24" s="52">
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="H9" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="I9" s="49">
-        <f>SUM(I3:I8)</f>
+      <c r="H24" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="I24" s="49">
+        <f t="shared" ref="I24" si="8">SUM(I18:I23)</f>
         <v>0.34027777777777773</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D10" s="53">
+    <row r="25" spans="1:9">
+      <c r="A25" s="56"/>
+      <c r="B25" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D25" s="52">
         <v>0.75</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E25" s="52">
         <v>0.875</v>
       </c>
-      <c r="F10" s="53">
+      <c r="F25" s="52">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="I10" s="55"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53">
+      <c r="I25" s="54"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="56"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="55"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="51"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53">
+      <c r="I26" s="54"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="56"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53">
+    <row r="28" spans="1:9">
+      <c r="A28" s="56"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53">
+    <row r="29" spans="1:9">
+      <c r="A29" s="56"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="51"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53">
+    <row r="30" spans="1:9">
+      <c r="A30" s="56"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="51"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53">
+    <row r="31" spans="1:9">
+      <c r="A31" s="56"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>284</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D17" s="53">
+    <row r="32" spans="1:9">
+      <c r="A32" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D32" s="52">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E32" s="52">
         <v>0.4236111111111111</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F32" s="52">
         <f t="shared" si="0"/>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="H17" s="49" t="s">
+      <c r="H32" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="I17" s="49" t="s">
+      <c r="I32" s="49" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52" t="s">
-        <v>288</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="D18" s="53">
+    <row r="33" spans="1:9">
+      <c r="A33" s="56"/>
+      <c r="B33" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D33" s="52">
         <v>0.42708333333333331</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E33" s="52">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F18" s="53">
+      <c r="F33" s="52">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="H18" s="54" t="s">
-        <v>285</v>
-      </c>
-      <c r="I18" s="53">
-        <f t="shared" ref="I18" si="1">SUMIFS(F17:F31, C17:C31,H18)</f>
+      <c r="H33" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="I33" s="52">
+        <f t="shared" ref="I33" si="9">SUMIFS(F32:F46, C32:C46,H33)</f>
         <v>0.22916666666666674</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="51"/>
-      <c r="B19" s="52" t="s">
-        <v>290</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D19" s="53">
+    <row r="34" spans="1:9">
+      <c r="A34" s="56"/>
+      <c r="B34" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D34" s="52">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E34" s="52">
         <v>0.47222222222222227</v>
       </c>
-      <c r="F19" s="53">
+      <c r="F34" s="52">
         <f t="shared" si="0"/>
         <v>1.3888888888888951E-2</v>
       </c>
-      <c r="H19" s="54" t="s">
-        <v>289</v>
-      </c>
-      <c r="I19" s="53">
-        <f t="shared" ref="I19" si="2">SUMIFS(F17:F31, C17:C31,H19)</f>
+      <c r="H34" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="I34" s="52">
+        <f t="shared" ref="I34" si="10">SUMIFS(F32:F46, C32:C46,H34)</f>
         <v>7.2916666666666685E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52" t="s">
-        <v>288</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="D20" s="53">
+    <row r="35" spans="1:9">
+      <c r="A35" s="56"/>
+      <c r="B35" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D35" s="52">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E35" s="52">
         <v>0.52083333333333337</v>
       </c>
-      <c r="F20" s="53">
+      <c r="F35" s="52">
         <f t="shared" si="0"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="H20" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="I20" s="53">
-        <f t="shared" ref="I20" si="3">SUMIFS(F17:F31, C17:C31,H20)</f>
+      <c r="H35" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="I35" s="52">
+        <f t="shared" ref="I35" si="11">SUMIFS(F32:F46, C32:C46,H35)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D21" s="53">
+    <row r="36" spans="1:9">
+      <c r="A36" s="56"/>
+      <c r="B36" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D36" s="52">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E36" s="52">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F21" s="53">
+      <c r="F36" s="52">
         <f t="shared" si="0"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="H21" s="54" t="s">
-        <v>292</v>
-      </c>
-      <c r="I21" s="53">
-        <f t="shared" ref="I21" si="4">SUMIFS(F17:F31, C17:C31,H21)</f>
+      <c r="H36" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="I36" s="52">
+        <f t="shared" ref="I36" si="12">SUMIFS(F32:F46, C32:C46,H36)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="51"/>
-      <c r="B22" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="C22" s="52" t="s">
+    <row r="37" spans="1:9">
+      <c r="A37" s="56"/>
+      <c r="B37" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="D22" s="53">
+      <c r="C37" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D37" s="52">
         <v>0.47222222222222227</v>
       </c>
-      <c r="E22" s="53">
+      <c r="E37" s="52">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F22" s="53">
+      <c r="F37" s="52">
         <f t="shared" si="0"/>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="H22" s="54" t="s">
+      <c r="H37" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="I37" s="52">
+        <f t="shared" ref="I37" si="13">SUMIFS(F32:F46, C32:C46,H37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="56"/>
+      <c r="B38" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="C38" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="I22" s="53">
-        <f t="shared" ref="I22" si="5">SUMIFS(F17:F31, C17:C31,H22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="51"/>
-      <c r="B23" s="52" t="s">
-        <v>297</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D23" s="53">
+      <c r="D38" s="52">
         <v>0.65625</v>
       </c>
-      <c r="E23" s="53">
+      <c r="E38" s="52">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F23" s="53">
+      <c r="F38" s="52">
         <f t="shared" si="0"/>
         <v>1.041666666666663E-2</v>
       </c>
-      <c r="H23" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="I23" s="53">
-        <f t="shared" ref="I23" si="6">SUMIFS(F17:F31, C17:C31,H23)</f>
+      <c r="H38" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="I38" s="52">
+        <f t="shared" ref="I38" si="14">SUMIFS(F32:F46, C32:C46,H38)</f>
         <v>3.8194444444444309E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="51"/>
-      <c r="B24" s="52" t="s">
-        <v>298</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D24" s="53">
+    <row r="39" spans="1:9">
+      <c r="A39" s="56"/>
+      <c r="B39" s="51" t="s">
+        <v>310</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D39" s="52">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E24" s="53">
+      <c r="E39" s="52">
         <v>0.75</v>
       </c>
-      <c r="F24" s="53">
+      <c r="F39" s="52">
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="H24" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="I24" s="49">
-        <f t="shared" ref="I24" si="7">SUM(I18:I23)</f>
+      <c r="H39" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="I39" s="49">
+        <f t="shared" ref="I39" si="15">SUM(I33:I38)</f>
         <v>0.34027777777777773</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="51"/>
-      <c r="B25" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D25" s="53">
+    <row r="40" spans="1:9">
+      <c r="A40" s="56"/>
+      <c r="B40" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D40" s="52">
         <v>0.75</v>
       </c>
-      <c r="E25" s="53">
+      <c r="E40" s="52">
         <v>0.875</v>
       </c>
-      <c r="F25" s="53">
+      <c r="F40" s="52">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="I25" s="55"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="51"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53">
+      <c r="I40" s="54"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="56"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I26" s="55"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="51"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53">
+      <c r="I41" s="54"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="56"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="51"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53">
+    <row r="43" spans="1:9">
+      <c r="A43" s="56"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="51"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53">
+    <row r="44" spans="1:9">
+      <c r="A44" s="56"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="51"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53">
+    <row r="45" spans="1:9">
+      <c r="A45" s="56"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="51"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53">
+    <row r="46" spans="1:9">
+      <c r="A46" s="57"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="51" t="s">
-        <v>263</v>
-      </c>
-      <c r="B32" s="52" t="s">
-        <v>284</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D32" s="53">
+    <row r="47" spans="1:9">
+      <c r="A47" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="C47" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D47" s="52">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E32" s="53">
+      <c r="E47" s="52">
         <v>0.4236111111111111</v>
       </c>
-      <c r="F32" s="53">
+      <c r="F47" s="52">
         <f t="shared" si="0"/>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="H32" s="49" t="s">
+      <c r="H47" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="I32" s="49" t="s">
+      <c r="I47" s="49" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="51"/>
-      <c r="B33" s="52" t="s">
-        <v>288</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="D33" s="53">
+    <row r="48" spans="1:9">
+      <c r="A48" s="58"/>
+      <c r="B48" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="C48" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D48" s="52">
         <v>0.42708333333333331</v>
       </c>
-      <c r="E33" s="53">
+      <c r="E48" s="52">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F33" s="53">
+      <c r="F48" s="52">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="H33" s="54" t="s">
-        <v>285</v>
-      </c>
-      <c r="I33" s="53">
-        <f t="shared" ref="I33" si="8">SUMIFS(F32:F46, C32:C46,H33)</f>
+      <c r="H48" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="I48" s="52">
+        <f t="shared" ref="I48" si="16">SUMIFS(F47:F61, C47:C61,H48)</f>
         <v>0.22916666666666674</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="51"/>
-      <c r="B34" s="52" t="s">
-        <v>290</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D34" s="53">
+    <row r="49" spans="1:9">
+      <c r="A49" s="58"/>
+      <c r="B49" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="C49" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D49" s="52">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E34" s="53">
+      <c r="E49" s="52">
         <v>0.47222222222222227</v>
       </c>
-      <c r="F34" s="53">
+      <c r="F49" s="52">
         <f t="shared" si="0"/>
         <v>1.3888888888888951E-2</v>
       </c>
-      <c r="H34" s="54" t="s">
-        <v>289</v>
-      </c>
-      <c r="I34" s="53">
-        <f t="shared" ref="I34" si="9">SUMIFS(F32:F46, C32:C46,H34)</f>
+      <c r="H49" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="I49" s="52">
+        <f t="shared" ref="I49" si="17">SUMIFS(F47:F61, C47:C61,H49)</f>
         <v>7.2916666666666685E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="51"/>
-      <c r="B35" s="52" t="s">
-        <v>288</v>
-      </c>
-      <c r="C35" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="D35" s="53">
+    <row r="50" spans="1:9">
+      <c r="A50" s="58"/>
+      <c r="B50" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="C50" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D50" s="52">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E35" s="53">
+      <c r="E50" s="52">
         <v>0.52083333333333337</v>
       </c>
-      <c r="F35" s="53">
+      <c r="F50" s="52">
         <f t="shared" si="0"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="H35" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="I35" s="53">
-        <f t="shared" ref="I35" si="10">SUMIFS(F32:F46, C32:C46,H35)</f>
+      <c r="H50" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="I50" s="52">
+        <f t="shared" ref="I50" si="18">SUMIFS(F47:F61, C47:C61,H50)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="51"/>
-      <c r="B36" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D36" s="53">
+    <row r="51" spans="1:9">
+      <c r="A51" s="58"/>
+      <c r="B51" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="C51" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D51" s="52">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E36" s="53">
+      <c r="E51" s="52">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F36" s="53">
+      <c r="F51" s="52">
         <f t="shared" si="0"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="H36" s="54" t="s">
-        <v>292</v>
-      </c>
-      <c r="I36" s="53">
-        <f t="shared" ref="I36" si="11">SUMIFS(F32:F46, C32:C46,H36)</f>
+      <c r="H51" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="I51" s="52">
+        <f t="shared" ref="I51" si="19">SUMIFS(F47:F61, C47:C61,H51)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="51"/>
-      <c r="B37" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="C37" s="52" t="s">
+    <row r="52" spans="1:9">
+      <c r="A52" s="58"/>
+      <c r="B52" s="55" t="s">
         <v>294</v>
       </c>
-      <c r="D37" s="53">
+      <c r="C52" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D52" s="52">
         <v>0.47222222222222227</v>
       </c>
-      <c r="E37" s="53">
+      <c r="E52" s="52">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F37" s="53">
+      <c r="F52" s="52">
         <f t="shared" si="0"/>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="H37" s="54" t="s">
+      <c r="H52" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="I52" s="52">
+        <f t="shared" ref="I52" si="20">SUMIFS(F47:F61, C47:C61,H52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="58"/>
+      <c r="B53" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="C53" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="I37" s="53">
-        <f t="shared" ref="I37" si="12">SUMIFS(F32:F46, C32:C46,H37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="51"/>
-      <c r="B38" s="52" t="s">
-        <v>297</v>
-      </c>
-      <c r="C38" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D38" s="53">
+      <c r="D53" s="52">
         <v>0.65625</v>
       </c>
-      <c r="E38" s="53">
+      <c r="E53" s="52">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F38" s="53">
+      <c r="F53" s="52">
         <f t="shared" si="0"/>
         <v>1.041666666666663E-2</v>
       </c>
-      <c r="H38" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="I38" s="53">
-        <f t="shared" ref="I38" si="13">SUMIFS(F32:F46, C32:C46,H38)</f>
+      <c r="H53" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="I53" s="52">
+        <f t="shared" ref="I53" si="21">SUMIFS(F47:F61, C47:C61,H53)</f>
         <v>3.8194444444444309E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="51"/>
-      <c r="B39" s="52" t="s">
-        <v>298</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D39" s="53">
+    <row r="54" spans="1:9">
+      <c r="A54" s="58"/>
+      <c r="B54" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="C54" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D54" s="52">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E39" s="53">
+      <c r="E54" s="52">
         <v>0.75</v>
       </c>
-      <c r="F39" s="53">
+      <c r="F54" s="52">
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="H39" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="I39" s="49">
-        <f t="shared" ref="I39" si="14">SUM(I33:I38)</f>
+      <c r="H54" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="I54" s="49">
+        <f t="shared" ref="I54" si="22">SUM(I48:I53)</f>
         <v>0.34027777777777773</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="51"/>
-      <c r="B40" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D40" s="53">
+    <row r="55" spans="1:9">
+      <c r="A55" s="58"/>
+      <c r="B55" s="55" t="s">
+        <v>311</v>
+      </c>
+      <c r="C55" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D55" s="52">
         <v>0.75</v>
       </c>
-      <c r="E40" s="53">
+      <c r="E55" s="52">
         <v>0.875</v>
       </c>
-      <c r="F40" s="53">
+      <c r="F55" s="52">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="I40" s="55"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="51"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53">
+      <c r="I55" s="54"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="58"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="55"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="51"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53">
+      <c r="I56" s="54"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="58"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="51"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53">
+    <row r="58" spans="1:9">
+      <c r="A58" s="58"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="51"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53">
+    <row r="59" spans="1:9">
+      <c r="A59" s="58"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="51"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53">
+    <row r="60" spans="1:9">
+      <c r="A60" s="58"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="58"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" s="57" t="s">
-        <v>284</v>
-      </c>
-      <c r="C47" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D47" s="53">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E47" s="53">
-        <v>0.4236111111111111</v>
-      </c>
-      <c r="F47" s="53">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
-      </c>
-      <c r="H47" s="49" t="s">
-        <v>286</v>
-      </c>
-      <c r="I47" s="49" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="56"/>
-      <c r="B48" s="57" t="s">
-        <v>288</v>
-      </c>
-      <c r="C48" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="D48" s="53">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="E48" s="53">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F48" s="53">
-        <f t="shared" si="0"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="H48" s="54" t="s">
-        <v>285</v>
-      </c>
-      <c r="I48" s="53">
-        <f t="shared" ref="I48" si="15">SUMIFS(F47:F61, C47:C61,H48)</f>
-        <v>0.22916666666666674</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="56"/>
-      <c r="B49" s="57" t="s">
-        <v>290</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D49" s="53">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E49" s="53">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="F49" s="53">
-        <f t="shared" si="0"/>
-        <v>1.3888888888888951E-2</v>
-      </c>
-      <c r="H49" s="54" t="s">
-        <v>289</v>
-      </c>
-      <c r="I49" s="53">
-        <f t="shared" ref="I49" si="16">SUMIFS(F47:F61, C47:C61,H49)</f>
-        <v>7.2916666666666685E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="56"/>
-      <c r="B50" s="57" t="s">
-        <v>288</v>
-      </c>
-      <c r="C50" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="D50" s="53">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E50" s="53">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F50" s="53">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
-      </c>
-      <c r="H50" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="I50" s="53">
-        <f t="shared" ref="I50" si="17">SUMIFS(F47:F61, C47:C61,H50)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="56"/>
-      <c r="B51" s="57" t="s">
-        <v>293</v>
-      </c>
-      <c r="C51" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D51" s="53">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E51" s="53">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="F51" s="53">
-        <f t="shared" si="0"/>
-        <v>2.0833333333333259E-2</v>
-      </c>
-      <c r="H51" s="54" t="s">
-        <v>292</v>
-      </c>
-      <c r="I51" s="53">
-        <f t="shared" ref="I51" si="18">SUMIFS(F47:F61, C47:C61,H51)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="56"/>
-      <c r="B52" s="57" t="s">
-        <v>296</v>
-      </c>
-      <c r="C52" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D52" s="53">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="E52" s="53">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="F52" s="53">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
-      </c>
-      <c r="H52" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="I52" s="53">
-        <f t="shared" ref="I52" si="19">SUMIFS(F47:F61, C47:C61,H52)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="56"/>
-      <c r="B53" s="57" t="s">
-        <v>297</v>
-      </c>
-      <c r="C53" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D53" s="53">
-        <v>0.65625</v>
-      </c>
-      <c r="E53" s="53">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F53" s="53">
-        <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
-      </c>
-      <c r="H53" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="I53" s="53">
-        <f t="shared" ref="I53" si="20">SUMIFS(F47:F61, C47:C61,H53)</f>
-        <v>3.8194444444444309E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="56"/>
-      <c r="B54" s="57" t="s">
-        <v>298</v>
-      </c>
-      <c r="C54" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D54" s="53">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E54" s="53">
-        <v>0.75</v>
-      </c>
-      <c r="F54" s="53">
-        <f t="shared" si="0"/>
-        <v>8.333333333333337E-2</v>
-      </c>
-      <c r="H54" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="I54" s="49">
-        <f t="shared" ref="I54" si="21">SUM(I48:I53)</f>
-        <v>0.34027777777777773</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="56"/>
-      <c r="B55" s="57" t="s">
-        <v>300</v>
-      </c>
-      <c r="C55" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D55" s="53">
-        <v>0.75</v>
-      </c>
-      <c r="E55" s="53">
-        <v>0.875</v>
-      </c>
-      <c r="F55" s="53">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="I55" s="55"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="56"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="55"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="56"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="56"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="56"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="56"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="56"/>
-      <c r="B61" s="57"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53">
+      <c r="A61" s="58"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -15093,19 +15166,19 @@
       <c r="A62" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="52" t="s">
-        <v>284</v>
-      </c>
-      <c r="C62" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D62" s="53">
+      <c r="B62" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="C62" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D62" s="52">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E62" s="53">
+      <c r="E62" s="52">
         <v>0.4236111111111111</v>
       </c>
-      <c r="F62" s="53">
+      <c r="F62" s="52">
         <f t="shared" si="0"/>
         <v>6.9444444444444198E-3</v>
       </c>
@@ -15117,292 +15190,292 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="51"/>
-      <c r="B63" s="52" t="s">
-        <v>288</v>
-      </c>
-      <c r="C63" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="D63" s="53">
+      <c r="A63" s="56"/>
+      <c r="B63" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="C63" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D63" s="52">
         <v>0.42708333333333331</v>
       </c>
-      <c r="E63" s="53">
+      <c r="E63" s="52">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F63" s="53">
+      <c r="F63" s="52">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="H63" s="54" t="s">
-        <v>285</v>
-      </c>
-      <c r="I63" s="53">
-        <f t="shared" ref="I63" si="22">SUMIFS(F62:F76, C62:C76,H63)</f>
+      <c r="H63" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="I63" s="52">
+        <f t="shared" ref="I63" si="23">SUMIFS(F62:F76, C62:C76,H63)</f>
         <v>0.22916666666666674</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="51"/>
-      <c r="B64" s="52" t="s">
-        <v>290</v>
-      </c>
-      <c r="C64" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D64" s="53">
+      <c r="A64" s="56"/>
+      <c r="B64" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="C64" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D64" s="52">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E64" s="53">
+      <c r="E64" s="52">
         <v>0.47222222222222227</v>
       </c>
-      <c r="F64" s="53">
+      <c r="F64" s="52">
         <f t="shared" si="0"/>
         <v>1.3888888888888951E-2</v>
       </c>
-      <c r="H64" s="54" t="s">
-        <v>289</v>
-      </c>
-      <c r="I64" s="53">
-        <f t="shared" ref="I64" si="23">SUMIFS(F62:F76, C62:C76,H64)</f>
+      <c r="H64" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="I64" s="52">
+        <f t="shared" ref="I64" si="24">SUMIFS(F62:F76, C62:C76,H64)</f>
         <v>7.2916666666666685E-2</v>
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="51"/>
-      <c r="B65" s="52" t="s">
-        <v>288</v>
-      </c>
-      <c r="C65" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="D65" s="53">
+      <c r="A65" s="56"/>
+      <c r="B65" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="C65" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D65" s="52">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E65" s="53">
+      <c r="E65" s="52">
         <v>0.52083333333333337</v>
       </c>
-      <c r="F65" s="53">
+      <c r="F65" s="52">
         <f t="shared" si="0"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="H65" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="I65" s="53">
-        <f t="shared" ref="I65" si="24">SUMIFS(F62:F76, C62:C76,H65)</f>
+      <c r="H65" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="I65" s="52">
+        <f t="shared" ref="I65" si="25">SUMIFS(F62:F76, C62:C76,H65)</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="51"/>
-      <c r="B66" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="C66" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D66" s="53">
+      <c r="A66" s="56"/>
+      <c r="B66" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="C66" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D66" s="52">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E66" s="53">
+      <c r="E66" s="52">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F66" s="53">
+      <c r="F66" s="52">
         <f t="shared" si="0"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="H66" s="54" t="s">
-        <v>292</v>
-      </c>
-      <c r="I66" s="53">
-        <f t="shared" ref="I66" si="25">SUMIFS(F62:F76, C62:C76,H66)</f>
+      <c r="H66" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="I66" s="52">
+        <f t="shared" ref="I66" si="26">SUMIFS(F62:F76, C62:C76,H66)</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="51"/>
-      <c r="B67" s="52" t="s">
+      <c r="A67" s="56"/>
+      <c r="B67" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="C67" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D67" s="52">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E67" s="52">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F67" s="52">
+        <f t="shared" ref="F67:F130" si="27">E67-D67</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H67" s="53" t="s">
         <v>296</v>
       </c>
-      <c r="C67" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D67" s="53">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="E67" s="53">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="F67" s="53">
-        <f t="shared" ref="F67:F130" si="26">E67-D67</f>
-        <v>6.9444444444444198E-3</v>
-      </c>
-      <c r="H67" s="54" t="s">
+      <c r="I67" s="52">
+        <f t="shared" ref="I67" si="28">SUMIFS(F62:F76, C62:C76,H67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="56"/>
+      <c r="B68" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="C68" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="I67" s="53">
-        <f t="shared" ref="I67" si="27">SUMIFS(F62:F76, C62:C76,H67)</f>
+      <c r="D68" s="52">
+        <v>0.65625</v>
+      </c>
+      <c r="E68" s="52">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F68" s="52">
+        <f t="shared" si="27"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H68" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="I68" s="52">
+        <f t="shared" ref="I68" si="29">SUMIFS(F62:F76, C62:C76,H68)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="56"/>
+      <c r="B69" s="51" t="s">
+        <v>310</v>
+      </c>
+      <c r="C69" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D69" s="52">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E69" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="F69" s="52">
+        <f t="shared" si="27"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H69" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="I69" s="49">
+        <f t="shared" ref="I69" si="30">SUM(I63:I68)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="56"/>
+      <c r="B70" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="C70" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D70" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="E70" s="52">
+        <v>0.875</v>
+      </c>
+      <c r="F70" s="52">
+        <f t="shared" si="27"/>
+        <v>0.125</v>
+      </c>
+      <c r="I70" s="54"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="56"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="52"/>
+      <c r="F71" s="52">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="51"/>
-      <c r="B68" s="52" t="s">
-        <v>297</v>
-      </c>
-      <c r="C68" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D68" s="53">
-        <v>0.65625</v>
-      </c>
-      <c r="E68" s="53">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F68" s="53">
-        <f t="shared" si="26"/>
-        <v>1.041666666666663E-2</v>
-      </c>
-      <c r="H68" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="I68" s="53">
-        <f t="shared" ref="I68" si="28">SUMIFS(F62:F76, C62:C76,H68)</f>
-        <v>3.8194444444444309E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="51"/>
-      <c r="B69" s="52" t="s">
-        <v>298</v>
-      </c>
-      <c r="C69" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D69" s="53">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E69" s="53">
-        <v>0.75</v>
-      </c>
-      <c r="F69" s="53">
-        <f t="shared" si="26"/>
-        <v>8.333333333333337E-2</v>
-      </c>
-      <c r="H69" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="I69" s="49">
-        <f t="shared" ref="I69" si="29">SUM(I63:I68)</f>
-        <v>0.34027777777777773</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="51"/>
-      <c r="B70" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="C70" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D70" s="53">
-        <v>0.75</v>
-      </c>
-      <c r="E70" s="53">
-        <v>0.875</v>
-      </c>
-      <c r="F70" s="53">
-        <f t="shared" si="26"/>
-        <v>0.125</v>
-      </c>
-      <c r="I70" s="55"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="51"/>
-      <c r="B71" s="52"/>
-      <c r="C71" s="52"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53"/>
-      <c r="F71" s="53">
-        <f t="shared" si="26"/>
+      <c r="I71" s="54"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="56"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="52">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I71" s="55"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="51"/>
-      <c r="B72" s="52"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="53">
-        <f t="shared" si="26"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="56"/>
+      <c r="B73" s="51"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="52"/>
+      <c r="E73" s="52"/>
+      <c r="F73" s="52">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="51"/>
-      <c r="B73" s="52"/>
-      <c r="C73" s="52"/>
-      <c r="D73" s="53"/>
-      <c r="E73" s="53"/>
-      <c r="F73" s="53">
-        <f t="shared" si="26"/>
+    <row r="74" spans="1:9">
+      <c r="A74" s="56"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="52">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="51"/>
-      <c r="B74" s="52"/>
-      <c r="C74" s="52"/>
-      <c r="D74" s="53"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="53">
-        <f t="shared" si="26"/>
+    <row r="75" spans="1:9">
+      <c r="A75" s="56"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="52"/>
+      <c r="E75" s="52"/>
+      <c r="F75" s="52">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="51"/>
-      <c r="B75" s="52"/>
-      <c r="C75" s="52"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="53">
-        <f t="shared" si="26"/>
+    <row r="76" spans="1:9">
+      <c r="A76" s="56"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="52"/>
+      <c r="F76" s="52">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="51"/>
-      <c r="B76" s="52"/>
-      <c r="C76" s="52"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="51" t="s">
+      <c r="A77" s="56" t="s">
         <v>269</v>
       </c>
-      <c r="B77" s="52" t="s">
-        <v>284</v>
-      </c>
-      <c r="C77" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D77" s="53">
+      <c r="B77" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="C77" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D77" s="52">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E77" s="53">
+      <c r="E77" s="52">
         <v>0.4236111111111111</v>
       </c>
-      <c r="F77" s="53">
-        <f t="shared" si="26"/>
+      <c r="F77" s="52">
+        <f t="shared" si="27"/>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="H77" s="49" t="s">
@@ -15413,292 +15486,292 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="51"/>
-      <c r="B78" s="52" t="s">
+      <c r="A78" s="56"/>
+      <c r="B78" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="C78" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D78" s="52">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E78" s="52">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F78" s="52">
+        <f t="shared" si="27"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H78" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="C78" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="D78" s="53">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="E78" s="53">
+      <c r="I78" s="52">
+        <f t="shared" ref="I78" si="31">SUMIFS(F77:F91, C77:C91,H78)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="56"/>
+      <c r="B79" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="C79" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D79" s="52">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F78" s="53">
-        <f t="shared" si="26"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="H78" s="54" t="s">
+      <c r="E79" s="52">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F79" s="52">
+        <f t="shared" si="27"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H79" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="I78" s="53">
-        <f t="shared" ref="I78" si="30">SUMIFS(F77:F91, C77:C91,H78)</f>
-        <v>0.22916666666666674</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="51"/>
-      <c r="B79" s="52" t="s">
+      <c r="I79" s="52">
+        <f t="shared" ref="I79" si="32">SUMIFS(F77:F91, C77:C91,H79)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="56"/>
+      <c r="B80" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="C80" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D80" s="52">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E80" s="52">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F80" s="52">
+        <f t="shared" si="27"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H80" s="53" t="s">
         <v>290</v>
       </c>
-      <c r="C79" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D79" s="53">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E79" s="53">
+      <c r="I80" s="52">
+        <f t="shared" ref="I80" si="33">SUMIFS(F77:F91, C77:C91,H80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="56"/>
+      <c r="B81" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="C81" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D81" s="52">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E81" s="52">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F81" s="52">
+        <f t="shared" si="27"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H81" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="I81" s="52">
+        <f t="shared" ref="I81" si="34">SUMIFS(F77:F91, C77:C91,H81)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="56"/>
+      <c r="B82" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="C82" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D82" s="52">
         <v>0.47222222222222227</v>
       </c>
-      <c r="F79" s="53">
-        <f t="shared" si="26"/>
-        <v>1.3888888888888951E-2</v>
-      </c>
-      <c r="H79" s="54" t="s">
-        <v>289</v>
-      </c>
-      <c r="I79" s="53">
-        <f t="shared" ref="I79" si="31">SUMIFS(F77:F91, C77:C91,H79)</f>
-        <v>7.2916666666666685E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="51"/>
-      <c r="B80" s="52" t="s">
+      <c r="E82" s="52">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F82" s="52">
+        <f t="shared" si="27"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H82" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="I82" s="52">
+        <f t="shared" ref="I82" si="35">SUMIFS(F77:F91, C77:C91,H82)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="56"/>
+      <c r="B83" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="C83" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D83" s="52">
+        <v>0.65625</v>
+      </c>
+      <c r="E83" s="52">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F83" s="52">
+        <f t="shared" si="27"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H83" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="I83" s="52">
+        <f t="shared" ref="I83" si="36">SUMIFS(F77:F91, C77:C91,H83)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="56"/>
+      <c r="B84" s="51" t="s">
+        <v>310</v>
+      </c>
+      <c r="C84" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="C80" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="D80" s="53">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E80" s="53">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F80" s="53">
-        <f t="shared" si="26"/>
-        <v>4.1666666666666685E-2</v>
-      </c>
-      <c r="H80" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="I80" s="53">
-        <f t="shared" ref="I80" si="32">SUMIFS(F77:F91, C77:C91,H80)</f>
+      <c r="D84" s="52">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E84" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="F84" s="52">
+        <f t="shared" si="27"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H84" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="I84" s="49">
+        <f t="shared" ref="I84" si="37">SUM(I78:I83)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="56"/>
+      <c r="B85" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="C85" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D85" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="E85" s="52">
+        <v>0.875</v>
+      </c>
+      <c r="F85" s="52">
+        <f t="shared" si="27"/>
+        <v>0.125</v>
+      </c>
+      <c r="I85" s="54"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="56"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="51"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="52">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="51"/>
-      <c r="B81" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="C81" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D81" s="53">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E81" s="53">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="F81" s="53">
-        <f t="shared" si="26"/>
-        <v>2.0833333333333259E-2</v>
-      </c>
-      <c r="H81" s="54" t="s">
-        <v>292</v>
-      </c>
-      <c r="I81" s="53">
-        <f t="shared" ref="I81" si="33">SUMIFS(F77:F91, C77:C91,H81)</f>
+      <c r="I86" s="54"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="56"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="52"/>
+      <c r="F87" s="52">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="51"/>
-      <c r="B82" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="C82" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D82" s="53">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="E82" s="53">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="F82" s="53">
-        <f t="shared" si="26"/>
-        <v>6.9444444444444198E-3</v>
-      </c>
-      <c r="H82" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="I82" s="53">
-        <f t="shared" ref="I82" si="34">SUMIFS(F77:F91, C77:C91,H82)</f>
+    <row r="88" spans="1:9">
+      <c r="A88" s="56"/>
+      <c r="B88" s="51"/>
+      <c r="C88" s="51"/>
+      <c r="D88" s="52"/>
+      <c r="E88" s="52"/>
+      <c r="F88" s="52">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="51"/>
-      <c r="B83" s="52" t="s">
-        <v>297</v>
-      </c>
-      <c r="C83" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D83" s="53">
-        <v>0.65625</v>
-      </c>
-      <c r="E83" s="53">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F83" s="53">
-        <f t="shared" si="26"/>
-        <v>1.041666666666663E-2</v>
-      </c>
-      <c r="H83" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="I83" s="53">
-        <f t="shared" ref="I83" si="35">SUMIFS(F77:F91, C77:C91,H83)</f>
-        <v>3.8194444444444309E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="51"/>
-      <c r="B84" s="52" t="s">
-        <v>298</v>
-      </c>
-      <c r="C84" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D84" s="53">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E84" s="53">
-        <v>0.75</v>
-      </c>
-      <c r="F84" s="53">
-        <f t="shared" si="26"/>
-        <v>8.333333333333337E-2</v>
-      </c>
-      <c r="H84" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="I84" s="49">
-        <f t="shared" ref="I84" si="36">SUM(I78:I83)</f>
-        <v>0.34027777777777773</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="51"/>
-      <c r="B85" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="C85" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D85" s="53">
-        <v>0.75</v>
-      </c>
-      <c r="E85" s="53">
-        <v>0.875</v>
-      </c>
-      <c r="F85" s="53">
-        <f t="shared" si="26"/>
-        <v>0.125</v>
-      </c>
-      <c r="I85" s="55"/>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="51"/>
-      <c r="B86" s="52"/>
-      <c r="C86" s="52"/>
-      <c r="D86" s="53"/>
-      <c r="E86" s="53"/>
-      <c r="F86" s="53">
-        <f t="shared" si="26"/>
+    <row r="89" spans="1:9">
+      <c r="A89" s="56"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="52"/>
+      <c r="E89" s="52"/>
+      <c r="F89" s="52">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I86" s="55"/>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="51"/>
-      <c r="B87" s="52"/>
-      <c r="C87" s="52"/>
-      <c r="D87" s="53"/>
-      <c r="E87" s="53"/>
-      <c r="F87" s="53">
-        <f t="shared" si="26"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="56"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="52"/>
+      <c r="E90" s="52"/>
+      <c r="F90" s="52">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="51"/>
-      <c r="B88" s="52"/>
-      <c r="C88" s="52"/>
-      <c r="D88" s="53"/>
-      <c r="E88" s="53"/>
-      <c r="F88" s="53">
-        <f t="shared" si="26"/>
+    <row r="91" spans="1:9">
+      <c r="A91" s="56"/>
+      <c r="B91" s="51"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="52"/>
+      <c r="E91" s="52"/>
+      <c r="F91" s="52">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="51"/>
-      <c r="B89" s="52"/>
-      <c r="C89" s="52"/>
-      <c r="D89" s="53"/>
-      <c r="E89" s="53"/>
-      <c r="F89" s="53">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="51"/>
-      <c r="B90" s="52"/>
-      <c r="C90" s="52"/>
-      <c r="D90" s="53"/>
-      <c r="E90" s="53"/>
-      <c r="F90" s="53">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="51"/>
-      <c r="B91" s="52"/>
-      <c r="C91" s="52"/>
-      <c r="D91" s="53"/>
-      <c r="E91" s="53"/>
-      <c r="F91" s="53">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="51" t="s">
+      <c r="A92" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="B92" s="52" t="s">
-        <v>284</v>
-      </c>
-      <c r="C92" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D92" s="53">
+      <c r="B92" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="C92" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D92" s="52">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E92" s="53">
+      <c r="E92" s="52">
         <v>0.4236111111111111</v>
       </c>
-      <c r="F92" s="53">
-        <f t="shared" si="26"/>
+      <c r="F92" s="52">
+        <f t="shared" si="27"/>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="H92" s="49" t="s">
@@ -15709,292 +15782,292 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="51"/>
-      <c r="B93" s="52" t="s">
+      <c r="A93" s="56"/>
+      <c r="B93" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="C93" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D93" s="52">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E93" s="52">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F93" s="52">
+        <f t="shared" si="27"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H93" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="C93" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="D93" s="53">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="E93" s="53">
+      <c r="I93" s="52">
+        <f t="shared" ref="I93" si="38">SUMIFS(F92:F106, C92:C106,H93)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="56"/>
+      <c r="B94" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="C94" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D94" s="52">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F93" s="53">
-        <f t="shared" si="26"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="H93" s="54" t="s">
+      <c r="E94" s="52">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F94" s="52">
+        <f t="shared" si="27"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H94" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="I93" s="53">
-        <f t="shared" ref="I93" si="37">SUMIFS(F92:F106, C92:C106,H93)</f>
-        <v>0.22916666666666674</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="51"/>
-      <c r="B94" s="52" t="s">
+      <c r="I94" s="52">
+        <f t="shared" ref="I94" si="39">SUMIFS(F92:F106, C92:C106,H94)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="56"/>
+      <c r="B95" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="C95" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D95" s="52">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E95" s="52">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F95" s="52">
+        <f t="shared" si="27"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H95" s="53" t="s">
         <v>290</v>
       </c>
-      <c r="C94" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D94" s="53">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E94" s="53">
+      <c r="I95" s="52">
+        <f t="shared" ref="I95" si="40">SUMIFS(F92:F106, C92:C106,H95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="56"/>
+      <c r="B96" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="C96" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D96" s="52">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E96" s="52">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F96" s="52">
+        <f t="shared" si="27"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H96" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="I96" s="52">
+        <f t="shared" ref="I96" si="41">SUMIFS(F92:F106, C92:C106,H96)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="56"/>
+      <c r="B97" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="C97" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D97" s="52">
         <v>0.47222222222222227</v>
       </c>
-      <c r="F94" s="53">
-        <f t="shared" si="26"/>
-        <v>1.3888888888888951E-2</v>
-      </c>
-      <c r="H94" s="54" t="s">
-        <v>289</v>
-      </c>
-      <c r="I94" s="53">
-        <f t="shared" ref="I94" si="38">SUMIFS(F92:F106, C92:C106,H94)</f>
-        <v>7.2916666666666685E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="51"/>
-      <c r="B95" s="52" t="s">
+      <c r="E97" s="52">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F97" s="52">
+        <f t="shared" si="27"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H97" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="I97" s="52">
+        <f t="shared" ref="I97" si="42">SUMIFS(F92:F106, C92:C106,H97)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="56"/>
+      <c r="B98" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="C98" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D98" s="52">
+        <v>0.65625</v>
+      </c>
+      <c r="E98" s="52">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F98" s="52">
+        <f t="shared" si="27"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H98" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="I98" s="52">
+        <f t="shared" ref="I98" si="43">SUMIFS(F92:F106, C92:C106,H98)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="56"/>
+      <c r="B99" s="51" t="s">
+        <v>310</v>
+      </c>
+      <c r="C99" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="C95" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="D95" s="53">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E95" s="53">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F95" s="53">
-        <f t="shared" si="26"/>
-        <v>4.1666666666666685E-2</v>
-      </c>
-      <c r="H95" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="I95" s="53">
-        <f t="shared" ref="I95" si="39">SUMIFS(F92:F106, C92:C106,H95)</f>
+      <c r="D99" s="52">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E99" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="F99" s="52">
+        <f t="shared" si="27"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H99" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="I99" s="49">
+        <f t="shared" ref="I99" si="44">SUM(I93:I98)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="56"/>
+      <c r="B100" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="C100" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D100" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="E100" s="52">
+        <v>0.875</v>
+      </c>
+      <c r="F100" s="52">
+        <f t="shared" si="27"/>
+        <v>0.125</v>
+      </c>
+      <c r="I100" s="54"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="56"/>
+      <c r="B101" s="51"/>
+      <c r="C101" s="51"/>
+      <c r="D101" s="52"/>
+      <c r="E101" s="52"/>
+      <c r="F101" s="52">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="51"/>
-      <c r="B96" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="C96" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D96" s="53">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E96" s="53">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="F96" s="53">
-        <f t="shared" si="26"/>
-        <v>2.0833333333333259E-2</v>
-      </c>
-      <c r="H96" s="54" t="s">
-        <v>292</v>
-      </c>
-      <c r="I96" s="53">
-        <f t="shared" ref="I96" si="40">SUMIFS(F92:F106, C92:C106,H96)</f>
+      <c r="I101" s="54"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="56"/>
+      <c r="B102" s="51"/>
+      <c r="C102" s="51"/>
+      <c r="D102" s="52"/>
+      <c r="E102" s="52"/>
+      <c r="F102" s="52">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="51"/>
-      <c r="B97" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="C97" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D97" s="53">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="E97" s="53">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="F97" s="53">
-        <f t="shared" si="26"/>
-        <v>6.9444444444444198E-3</v>
-      </c>
-      <c r="H97" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="I97" s="53">
-        <f t="shared" ref="I97" si="41">SUMIFS(F92:F106, C92:C106,H97)</f>
+    <row r="103" spans="1:9">
+      <c r="A103" s="56"/>
+      <c r="B103" s="51"/>
+      <c r="C103" s="51"/>
+      <c r="D103" s="52"/>
+      <c r="E103" s="52"/>
+      <c r="F103" s="52">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="51"/>
-      <c r="B98" s="52" t="s">
-        <v>297</v>
-      </c>
-      <c r="C98" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D98" s="53">
-        <v>0.65625</v>
-      </c>
-      <c r="E98" s="53">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F98" s="53">
-        <f t="shared" si="26"/>
-        <v>1.041666666666663E-2</v>
-      </c>
-      <c r="H98" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="I98" s="53">
-        <f t="shared" ref="I98" si="42">SUMIFS(F92:F106, C92:C106,H98)</f>
-        <v>3.8194444444444309E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="51"/>
-      <c r="B99" s="52" t="s">
-        <v>298</v>
-      </c>
-      <c r="C99" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D99" s="53">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E99" s="53">
-        <v>0.75</v>
-      </c>
-      <c r="F99" s="53">
-        <f t="shared" si="26"/>
-        <v>8.333333333333337E-2</v>
-      </c>
-      <c r="H99" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="I99" s="49">
-        <f t="shared" ref="I99" si="43">SUM(I93:I98)</f>
-        <v>0.34027777777777773</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="51"/>
-      <c r="B100" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="C100" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D100" s="53">
-        <v>0.75</v>
-      </c>
-      <c r="E100" s="53">
-        <v>0.875</v>
-      </c>
-      <c r="F100" s="53">
-        <f t="shared" si="26"/>
-        <v>0.125</v>
-      </c>
-      <c r="I100" s="55"/>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="51"/>
-      <c r="B101" s="52"/>
-      <c r="C101" s="52"/>
-      <c r="D101" s="53"/>
-      <c r="E101" s="53"/>
-      <c r="F101" s="53">
-        <f t="shared" si="26"/>
+    <row r="104" spans="1:9">
+      <c r="A104" s="56"/>
+      <c r="B104" s="51"/>
+      <c r="C104" s="51"/>
+      <c r="D104" s="52"/>
+      <c r="E104" s="52"/>
+      <c r="F104" s="52">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I101" s="55"/>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="51"/>
-      <c r="B102" s="52"/>
-      <c r="C102" s="52"/>
-      <c r="D102" s="53"/>
-      <c r="E102" s="53"/>
-      <c r="F102" s="53">
-        <f t="shared" si="26"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="56"/>
+      <c r="B105" s="51"/>
+      <c r="C105" s="51"/>
+      <c r="D105" s="52"/>
+      <c r="E105" s="52"/>
+      <c r="F105" s="52">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="51"/>
-      <c r="B103" s="52"/>
-      <c r="C103" s="52"/>
-      <c r="D103" s="53"/>
-      <c r="E103" s="53"/>
-      <c r="F103" s="53">
-        <f t="shared" si="26"/>
+    <row r="106" spans="1:9">
+      <c r="A106" s="57"/>
+      <c r="B106" s="51"/>
+      <c r="C106" s="51"/>
+      <c r="D106" s="52"/>
+      <c r="E106" s="52"/>
+      <c r="F106" s="52">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="51"/>
-      <c r="B104" s="52"/>
-      <c r="C104" s="52"/>
-      <c r="D104" s="53"/>
-      <c r="E104" s="53"/>
-      <c r="F104" s="53">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="51"/>
-      <c r="B105" s="52"/>
-      <c r="C105" s="52"/>
-      <c r="D105" s="53"/>
-      <c r="E105" s="53"/>
-      <c r="F105" s="53">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="58"/>
-      <c r="B106" s="52"/>
-      <c r="C106" s="52"/>
-      <c r="D106" s="53"/>
-      <c r="E106" s="53"/>
-      <c r="F106" s="53">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="56" t="s">
+      <c r="A107" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B107" s="57" t="s">
-        <v>284</v>
-      </c>
-      <c r="C107" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D107" s="53">
+      <c r="B107" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="C107" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D107" s="52">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E107" s="53">
+      <c r="E107" s="52">
         <v>0.4236111111111111</v>
       </c>
-      <c r="F107" s="53">
-        <f t="shared" si="26"/>
+      <c r="F107" s="52">
+        <f t="shared" si="27"/>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="H107" s="49" t="s">
@@ -16005,271 +16078,271 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="56"/>
-      <c r="B108" s="57" t="s">
+      <c r="A108" s="58"/>
+      <c r="B108" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="C108" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D108" s="52">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E108" s="52">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F108" s="52">
+        <f t="shared" si="27"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H108" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="C108" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="D108" s="53">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="E108" s="53">
+      <c r="I108" s="52">
+        <f t="shared" ref="I108" si="45">SUMIFS(F107:F121, C107:C121,H108)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="58"/>
+      <c r="B109" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="C109" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D109" s="52">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F108" s="53">
-        <f t="shared" si="26"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="H108" s="54" t="s">
+      <c r="E109" s="52">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F109" s="52">
+        <f t="shared" si="27"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H109" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="I108" s="53">
-        <f t="shared" ref="I108" si="44">SUMIFS(F107:F121, C107:C121,H108)</f>
-        <v>0.22916666666666674</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="56"/>
-      <c r="B109" s="57" t="s">
+      <c r="I109" s="52">
+        <f t="shared" ref="I109" si="46">SUMIFS(F107:F121, C107:C121,H109)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="58"/>
+      <c r="B110" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="C110" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D110" s="52">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E110" s="52">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F110" s="52">
+        <f t="shared" si="27"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H110" s="53" t="s">
         <v>290</v>
       </c>
-      <c r="C109" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D109" s="53">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E109" s="53">
+      <c r="I110" s="52">
+        <f t="shared" ref="I110" si="47">SUMIFS(F107:F121, C107:C121,H110)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="58"/>
+      <c r="B111" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="C111" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D111" s="52">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E111" s="52">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F111" s="52">
+        <f t="shared" si="27"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H111" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="I111" s="52">
+        <f t="shared" ref="I111" si="48">SUMIFS(F107:F121, C107:C121,H111)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="58"/>
+      <c r="B112" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="C112" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D112" s="52">
         <v>0.47222222222222227</v>
       </c>
-      <c r="F109" s="53">
-        <f t="shared" si="26"/>
-        <v>1.3888888888888951E-2</v>
-      </c>
-      <c r="H109" s="54" t="s">
-        <v>289</v>
-      </c>
-      <c r="I109" s="53">
-        <f t="shared" ref="I109" si="45">SUMIFS(F107:F121, C107:C121,H109)</f>
-        <v>7.2916666666666685E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="56"/>
-      <c r="B110" s="57" t="s">
+      <c r="E112" s="52">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F112" s="52">
+        <f t="shared" si="27"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H112" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="I112" s="52">
+        <f t="shared" ref="I112" si="49">SUMIFS(F107:F121, C107:C121,H112)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="58"/>
+      <c r="B113" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="C113" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D113" s="52">
+        <v>0.65625</v>
+      </c>
+      <c r="E113" s="52">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F113" s="52">
+        <f t="shared" si="27"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H113" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="I113" s="52">
+        <f t="shared" ref="I113" si="50">SUMIFS(F107:F121, C107:C121,H113)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="58"/>
+      <c r="B114" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="C114" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="C110" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="D110" s="53">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E110" s="53">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F110" s="53">
-        <f t="shared" si="26"/>
-        <v>4.1666666666666685E-2</v>
-      </c>
-      <c r="H110" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="I110" s="53">
-        <f t="shared" ref="I110" si="46">SUMIFS(F107:F121, C107:C121,H110)</f>
+      <c r="D114" s="52">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E114" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="F114" s="52">
+        <f t="shared" si="27"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H114" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="I114" s="49">
+        <f t="shared" ref="I114" si="51">SUM(I108:I113)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="58"/>
+      <c r="B115" s="55" t="s">
+        <v>311</v>
+      </c>
+      <c r="C115" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D115" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="E115" s="52">
+        <v>0.875</v>
+      </c>
+      <c r="F115" s="52">
+        <f t="shared" si="27"/>
+        <v>0.125</v>
+      </c>
+      <c r="I115" s="54"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="58"/>
+      <c r="B116" s="55"/>
+      <c r="C116" s="51"/>
+      <c r="D116" s="52"/>
+      <c r="E116" s="52"/>
+      <c r="F116" s="52">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="56"/>
-      <c r="B111" s="57" t="s">
-        <v>293</v>
-      </c>
-      <c r="C111" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D111" s="53">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E111" s="53">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="F111" s="53">
-        <f t="shared" si="26"/>
-        <v>2.0833333333333259E-2</v>
-      </c>
-      <c r="H111" s="54" t="s">
-        <v>292</v>
-      </c>
-      <c r="I111" s="53">
-        <f t="shared" ref="I111" si="47">SUMIFS(F107:F121, C107:C121,H111)</f>
+      <c r="I116" s="54"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="58"/>
+      <c r="B117" s="55"/>
+      <c r="C117" s="51"/>
+      <c r="D117" s="52"/>
+      <c r="E117" s="52"/>
+      <c r="F117" s="52">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="56"/>
-      <c r="B112" s="57" t="s">
-        <v>296</v>
-      </c>
-      <c r="C112" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D112" s="53">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="E112" s="53">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="F112" s="53">
-        <f t="shared" si="26"/>
-        <v>6.9444444444444198E-3</v>
-      </c>
-      <c r="H112" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="I112" s="53">
-        <f t="shared" ref="I112" si="48">SUMIFS(F107:F121, C107:C121,H112)</f>
+    <row r="118" spans="1:9">
+      <c r="A118" s="58"/>
+      <c r="B118" s="55"/>
+      <c r="C118" s="51"/>
+      <c r="D118" s="52"/>
+      <c r="E118" s="52"/>
+      <c r="F118" s="52">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="56"/>
-      <c r="B113" s="57" t="s">
-        <v>297</v>
-      </c>
-      <c r="C113" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D113" s="53">
-        <v>0.65625</v>
-      </c>
-      <c r="E113" s="53">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F113" s="53">
-        <f t="shared" si="26"/>
-        <v>1.041666666666663E-2</v>
-      </c>
-      <c r="H113" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="I113" s="53">
-        <f t="shared" ref="I113" si="49">SUMIFS(F107:F121, C107:C121,H113)</f>
-        <v>3.8194444444444309E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="56"/>
-      <c r="B114" s="57" t="s">
-        <v>298</v>
-      </c>
-      <c r="C114" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D114" s="53">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E114" s="53">
-        <v>0.75</v>
-      </c>
-      <c r="F114" s="53">
-        <f t="shared" si="26"/>
-        <v>8.333333333333337E-2</v>
-      </c>
-      <c r="H114" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="I114" s="49">
-        <f t="shared" ref="I114" si="50">SUM(I108:I113)</f>
-        <v>0.34027777777777773</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="56"/>
-      <c r="B115" s="57" t="s">
-        <v>300</v>
-      </c>
-      <c r="C115" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D115" s="53">
-        <v>0.75</v>
-      </c>
-      <c r="E115" s="53">
-        <v>0.875</v>
-      </c>
-      <c r="F115" s="53">
-        <f t="shared" si="26"/>
-        <v>0.125</v>
-      </c>
-      <c r="I115" s="55"/>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="56"/>
-      <c r="B116" s="57"/>
-      <c r="C116" s="52"/>
-      <c r="D116" s="53"/>
-      <c r="E116" s="53"/>
-      <c r="F116" s="53">
-        <f t="shared" si="26"/>
+    <row r="119" spans="1:9">
+      <c r="A119" s="58"/>
+      <c r="B119" s="55"/>
+      <c r="C119" s="51"/>
+      <c r="D119" s="52"/>
+      <c r="E119" s="52"/>
+      <c r="F119" s="52">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I116" s="55"/>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117" s="56"/>
-      <c r="B117" s="57"/>
-      <c r="C117" s="52"/>
-      <c r="D117" s="53"/>
-      <c r="E117" s="53"/>
-      <c r="F117" s="53">
-        <f t="shared" si="26"/>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="58"/>
+      <c r="B120" s="55"/>
+      <c r="C120" s="51"/>
+      <c r="D120" s="52"/>
+      <c r="E120" s="52"/>
+      <c r="F120" s="52">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="56"/>
-      <c r="B118" s="57"/>
-      <c r="C118" s="52"/>
-      <c r="D118" s="53"/>
-      <c r="E118" s="53"/>
-      <c r="F118" s="53">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="56"/>
-      <c r="B119" s="57"/>
-      <c r="C119" s="52"/>
-      <c r="D119" s="53"/>
-      <c r="E119" s="53"/>
-      <c r="F119" s="53">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="56"/>
-      <c r="B120" s="57"/>
-      <c r="C120" s="52"/>
-      <c r="D120" s="53"/>
-      <c r="E120" s="53"/>
-      <c r="F120" s="53">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="56"/>
-      <c r="B121" s="57"/>
-      <c r="C121" s="52"/>
-      <c r="D121" s="53"/>
-      <c r="E121" s="53"/>
-      <c r="F121" s="53">
-        <f t="shared" si="26"/>
+      <c r="A121" s="58"/>
+      <c r="B121" s="55"/>
+      <c r="C121" s="51"/>
+      <c r="D121" s="52"/>
+      <c r="E121" s="52"/>
+      <c r="F121" s="52">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -16277,20 +16350,20 @@
       <c r="A122" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="B122" s="52" t="s">
-        <v>284</v>
-      </c>
-      <c r="C122" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D122" s="53">
+      <c r="B122" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="C122" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D122" s="52">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E122" s="53">
+      <c r="E122" s="52">
         <v>0.4236111111111111</v>
       </c>
-      <c r="F122" s="53">
-        <f t="shared" si="26"/>
+      <c r="F122" s="52">
+        <f t="shared" si="27"/>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="H122" s="49" t="s">
@@ -16301,292 +16374,292 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="51"/>
-      <c r="B123" s="52" t="s">
+      <c r="A123" s="56"/>
+      <c r="B123" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="C123" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D123" s="52">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E123" s="52">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F123" s="52">
+        <f t="shared" si="27"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H123" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="C123" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="D123" s="53">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="E123" s="53">
+      <c r="I123" s="52">
+        <f t="shared" ref="I123" si="52">SUMIFS(F122:F136, C122:C136,H123)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="56"/>
+      <c r="B124" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="C124" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D124" s="52">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F123" s="53">
-        <f t="shared" si="26"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="H123" s="54" t="s">
+      <c r="E124" s="52">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F124" s="52">
+        <f t="shared" si="27"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H124" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="I123" s="53">
-        <f t="shared" ref="I123" si="51">SUMIFS(F122:F136, C122:C136,H123)</f>
-        <v>0.22916666666666674</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="51"/>
-      <c r="B124" s="52" t="s">
+      <c r="I124" s="52">
+        <f t="shared" ref="I124" si="53">SUMIFS(F122:F136, C122:C136,H124)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="56"/>
+      <c r="B125" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="C125" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D125" s="52">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E125" s="52">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F125" s="52">
+        <f t="shared" si="27"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H125" s="53" t="s">
         <v>290</v>
       </c>
-      <c r="C124" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D124" s="53">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E124" s="53">
+      <c r="I125" s="52">
+        <f t="shared" ref="I125" si="54">SUMIFS(F122:F136, C122:C136,H125)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="56"/>
+      <c r="B126" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="C126" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D126" s="52">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E126" s="52">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F126" s="52">
+        <f t="shared" si="27"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H126" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="I126" s="52">
+        <f t="shared" ref="I126" si="55">SUMIFS(F122:F136, C122:C136,H126)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="56"/>
+      <c r="B127" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="C127" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D127" s="52">
         <v>0.47222222222222227</v>
       </c>
-      <c r="F124" s="53">
-        <f t="shared" si="26"/>
-        <v>1.3888888888888951E-2</v>
-      </c>
-      <c r="H124" s="54" t="s">
-        <v>289</v>
-      </c>
-      <c r="I124" s="53">
-        <f t="shared" ref="I124" si="52">SUMIFS(F122:F136, C122:C136,H124)</f>
-        <v>7.2916666666666685E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125" s="51"/>
-      <c r="B125" s="52" t="s">
+      <c r="E127" s="52">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F127" s="52">
+        <f t="shared" si="27"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H127" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="I127" s="52">
+        <f t="shared" ref="I127" si="56">SUMIFS(F122:F136, C122:C136,H127)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="56"/>
+      <c r="B128" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="C128" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D128" s="52">
+        <v>0.65625</v>
+      </c>
+      <c r="E128" s="52">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F128" s="52">
+        <f t="shared" si="27"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H128" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="I128" s="52">
+        <f t="shared" ref="I128" si="57">SUMIFS(F122:F136, C122:C136,H128)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="56"/>
+      <c r="B129" s="51" t="s">
+        <v>310</v>
+      </c>
+      <c r="C129" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="C125" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="D125" s="53">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E125" s="53">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F125" s="53">
-        <f t="shared" si="26"/>
-        <v>4.1666666666666685E-2</v>
-      </c>
-      <c r="H125" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="I125" s="53">
-        <f t="shared" ref="I125" si="53">SUMIFS(F122:F136, C122:C136,H125)</f>
+      <c r="D129" s="52">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E129" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="F129" s="52">
+        <f t="shared" si="27"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H129" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="I129" s="49">
+        <f t="shared" ref="I129" si="58">SUM(I123:I128)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="56"/>
+      <c r="B130" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="C130" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D130" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="E130" s="52">
+        <v>0.875</v>
+      </c>
+      <c r="F130" s="52">
+        <f t="shared" si="27"/>
+        <v>0.125</v>
+      </c>
+      <c r="I130" s="54"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="56"/>
+      <c r="B131" s="51"/>
+      <c r="C131" s="51"/>
+      <c r="D131" s="52"/>
+      <c r="E131" s="52"/>
+      <c r="F131" s="52">
+        <f t="shared" ref="F131:F194" si="59">E131-D131</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126" s="51"/>
-      <c r="B126" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="C126" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D126" s="53">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E126" s="53">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="F126" s="53">
-        <f t="shared" si="26"/>
-        <v>2.0833333333333259E-2</v>
-      </c>
-      <c r="H126" s="54" t="s">
-        <v>292</v>
-      </c>
-      <c r="I126" s="53">
-        <f t="shared" ref="I126" si="54">SUMIFS(F122:F136, C122:C136,H126)</f>
+      <c r="I131" s="54"/>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="56"/>
+      <c r="B132" s="51"/>
+      <c r="C132" s="51"/>
+      <c r="D132" s="52"/>
+      <c r="E132" s="52"/>
+      <c r="F132" s="52">
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="51"/>
-      <c r="B127" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="C127" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D127" s="53">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="E127" s="53">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="F127" s="53">
-        <f t="shared" si="26"/>
-        <v>6.9444444444444198E-3</v>
-      </c>
-      <c r="H127" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="I127" s="53">
-        <f t="shared" ref="I127" si="55">SUMIFS(F122:F136, C122:C136,H127)</f>
+    <row r="133" spans="1:9">
+      <c r="A133" s="56"/>
+      <c r="B133" s="51"/>
+      <c r="C133" s="51"/>
+      <c r="D133" s="52"/>
+      <c r="E133" s="52"/>
+      <c r="F133" s="52">
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
-      <c r="A128" s="51"/>
-      <c r="B128" s="52" t="s">
-        <v>297</v>
-      </c>
-      <c r="C128" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D128" s="53">
-        <v>0.65625</v>
-      </c>
-      <c r="E128" s="53">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F128" s="53">
-        <f t="shared" si="26"/>
-        <v>1.041666666666663E-2</v>
-      </c>
-      <c r="H128" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="I128" s="53">
-        <f t="shared" ref="I128" si="56">SUMIFS(F122:F136, C122:C136,H128)</f>
-        <v>3.8194444444444309E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="51"/>
-      <c r="B129" s="52" t="s">
-        <v>298</v>
-      </c>
-      <c r="C129" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D129" s="53">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E129" s="53">
-        <v>0.75</v>
-      </c>
-      <c r="F129" s="53">
-        <f t="shared" si="26"/>
-        <v>8.333333333333337E-2</v>
-      </c>
-      <c r="H129" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="I129" s="49">
-        <f t="shared" ref="I129" si="57">SUM(I123:I128)</f>
-        <v>0.34027777777777773</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="51"/>
-      <c r="B130" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="C130" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D130" s="53">
-        <v>0.75</v>
-      </c>
-      <c r="E130" s="53">
-        <v>0.875</v>
-      </c>
-      <c r="F130" s="53">
-        <f t="shared" si="26"/>
-        <v>0.125</v>
-      </c>
-      <c r="I130" s="55"/>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="51"/>
-      <c r="B131" s="52"/>
-      <c r="C131" s="52"/>
-      <c r="D131" s="53"/>
-      <c r="E131" s="53"/>
-      <c r="F131" s="53">
-        <f t="shared" ref="F131:F194" si="58">E131-D131</f>
+    <row r="134" spans="1:9">
+      <c r="A134" s="56"/>
+      <c r="B134" s="51"/>
+      <c r="C134" s="51"/>
+      <c r="D134" s="52"/>
+      <c r="E134" s="52"/>
+      <c r="F134" s="52">
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="I131" s="55"/>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="51"/>
-      <c r="B132" s="52"/>
-      <c r="C132" s="52"/>
-      <c r="D132" s="53"/>
-      <c r="E132" s="53"/>
-      <c r="F132" s="53">
-        <f t="shared" si="58"/>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="56"/>
+      <c r="B135" s="51"/>
+      <c r="C135" s="51"/>
+      <c r="D135" s="52"/>
+      <c r="E135" s="52"/>
+      <c r="F135" s="52">
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="51"/>
-      <c r="B133" s="52"/>
-      <c r="C133" s="52"/>
-      <c r="D133" s="53"/>
-      <c r="E133" s="53"/>
-      <c r="F133" s="53">
-        <f t="shared" si="58"/>
+    <row r="136" spans="1:9">
+      <c r="A136" s="57"/>
+      <c r="B136" s="51"/>
+      <c r="C136" s="51"/>
+      <c r="D136" s="52"/>
+      <c r="E136" s="52"/>
+      <c r="F136" s="52">
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="51"/>
-      <c r="B134" s="52"/>
-      <c r="C134" s="52"/>
-      <c r="D134" s="53"/>
-      <c r="E134" s="53"/>
-      <c r="F134" s="53">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="A135" s="51"/>
-      <c r="B135" s="52"/>
-      <c r="C135" s="52"/>
-      <c r="D135" s="53"/>
-      <c r="E135" s="53"/>
-      <c r="F135" s="53">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="58"/>
-      <c r="B136" s="52"/>
-      <c r="C136" s="52"/>
-      <c r="D136" s="53"/>
-      <c r="E136" s="53"/>
-      <c r="F136" s="53">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="56" t="s">
+      <c r="A137" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="B137" s="57" t="s">
-        <v>284</v>
-      </c>
-      <c r="C137" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D137" s="53">
+      <c r="B137" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="C137" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D137" s="52">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E137" s="53">
+      <c r="E137" s="52">
         <v>0.4236111111111111</v>
       </c>
-      <c r="F137" s="53">
-        <f t="shared" si="58"/>
+      <c r="F137" s="52">
+        <f t="shared" si="59"/>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="H137" s="49" t="s">
@@ -16597,292 +16670,292 @@
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="56"/>
-      <c r="B138" s="57" t="s">
+      <c r="A138" s="58"/>
+      <c r="B138" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="C138" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D138" s="52">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E138" s="52">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F138" s="52">
+        <f t="shared" si="59"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H138" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="C138" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="D138" s="53">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="E138" s="53">
+      <c r="I138" s="52">
+        <f t="shared" ref="I138" si="60">SUMIFS(F137:F151, C137:C151,H138)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="58"/>
+      <c r="B139" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="C139" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D139" s="52">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F138" s="53">
-        <f t="shared" si="58"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="H138" s="54" t="s">
+      <c r="E139" s="52">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F139" s="52">
+        <f t="shared" si="59"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H139" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="I138" s="53">
-        <f t="shared" ref="I138" si="59">SUMIFS(F137:F151, C137:C151,H138)</f>
-        <v>0.22916666666666674</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="56"/>
-      <c r="B139" s="57" t="s">
+      <c r="I139" s="52">
+        <f t="shared" ref="I139" si="61">SUMIFS(F137:F151, C137:C151,H139)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="58"/>
+      <c r="B140" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="C140" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D140" s="52">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E140" s="52">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F140" s="52">
+        <f t="shared" si="59"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H140" s="53" t="s">
         <v>290</v>
       </c>
-      <c r="C139" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D139" s="53">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E139" s="53">
+      <c r="I140" s="52">
+        <f t="shared" ref="I140" si="62">SUMIFS(F137:F151, C137:C151,H140)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="58"/>
+      <c r="B141" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="C141" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D141" s="52">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E141" s="52">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F141" s="52">
+        <f t="shared" si="59"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H141" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="I141" s="52">
+        <f t="shared" ref="I141" si="63">SUMIFS(F137:F151, C137:C151,H141)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="58"/>
+      <c r="B142" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="C142" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D142" s="52">
         <v>0.47222222222222227</v>
       </c>
-      <c r="F139" s="53">
-        <f t="shared" si="58"/>
-        <v>1.3888888888888951E-2</v>
-      </c>
-      <c r="H139" s="54" t="s">
-        <v>289</v>
-      </c>
-      <c r="I139" s="53">
-        <f t="shared" ref="I139" si="60">SUMIFS(F137:F151, C137:C151,H139)</f>
-        <v>7.2916666666666685E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="56"/>
-      <c r="B140" s="57" t="s">
+      <c r="E142" s="52">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F142" s="52">
+        <f t="shared" si="59"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H142" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="I142" s="52">
+        <f t="shared" ref="I142" si="64">SUMIFS(F137:F151, C137:C151,H142)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="58"/>
+      <c r="B143" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="C143" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D143" s="52">
+        <v>0.65625</v>
+      </c>
+      <c r="E143" s="52">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F143" s="52">
+        <f t="shared" si="59"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H143" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="I143" s="52">
+        <f t="shared" ref="I143" si="65">SUMIFS(F137:F151, C137:C151,H143)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="58"/>
+      <c r="B144" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="C144" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="C140" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="D140" s="53">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E140" s="53">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F140" s="53">
-        <f t="shared" si="58"/>
-        <v>4.1666666666666685E-2</v>
-      </c>
-      <c r="H140" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="I140" s="53">
-        <f t="shared" ref="I140" si="61">SUMIFS(F137:F151, C137:C151,H140)</f>
+      <c r="D144" s="52">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E144" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="F144" s="52">
+        <f t="shared" si="59"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H144" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="I144" s="49">
+        <f t="shared" ref="I144" si="66">SUM(I138:I143)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="58"/>
+      <c r="B145" s="55" t="s">
+        <v>311</v>
+      </c>
+      <c r="C145" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D145" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="E145" s="52">
+        <v>0.875</v>
+      </c>
+      <c r="F145" s="52">
+        <f t="shared" si="59"/>
+        <v>0.125</v>
+      </c>
+      <c r="I145" s="54"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="58"/>
+      <c r="B146" s="55"/>
+      <c r="C146" s="51"/>
+      <c r="D146" s="52"/>
+      <c r="E146" s="52"/>
+      <c r="F146" s="52">
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="56"/>
-      <c r="B141" s="57" t="s">
-        <v>293</v>
-      </c>
-      <c r="C141" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D141" s="53">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E141" s="53">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="F141" s="53">
-        <f t="shared" si="58"/>
-        <v>2.0833333333333259E-2</v>
-      </c>
-      <c r="H141" s="54" t="s">
-        <v>292</v>
-      </c>
-      <c r="I141" s="53">
-        <f t="shared" ref="I141" si="62">SUMIFS(F137:F151, C137:C151,H141)</f>
+      <c r="I146" s="54"/>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="58"/>
+      <c r="B147" s="55"/>
+      <c r="C147" s="51"/>
+      <c r="D147" s="52"/>
+      <c r="E147" s="52"/>
+      <c r="F147" s="52">
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="56"/>
-      <c r="B142" s="57" t="s">
-        <v>296</v>
-      </c>
-      <c r="C142" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D142" s="53">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="E142" s="53">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="F142" s="53">
-        <f t="shared" si="58"/>
-        <v>6.9444444444444198E-3</v>
-      </c>
-      <c r="H142" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="I142" s="53">
-        <f t="shared" ref="I142" si="63">SUMIFS(F137:F151, C137:C151,H142)</f>
+    <row r="148" spans="1:9">
+      <c r="A148" s="58"/>
+      <c r="B148" s="55"/>
+      <c r="C148" s="51"/>
+      <c r="D148" s="52"/>
+      <c r="E148" s="52"/>
+      <c r="F148" s="52">
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
-      <c r="A143" s="56"/>
-      <c r="B143" s="57" t="s">
-        <v>297</v>
-      </c>
-      <c r="C143" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D143" s="53">
-        <v>0.65625</v>
-      </c>
-      <c r="E143" s="53">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F143" s="53">
-        <f t="shared" si="58"/>
-        <v>1.041666666666663E-2</v>
-      </c>
-      <c r="H143" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="I143" s="53">
-        <f t="shared" ref="I143" si="64">SUMIFS(F137:F151, C137:C151,H143)</f>
-        <v>3.8194444444444309E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="A144" s="56"/>
-      <c r="B144" s="57" t="s">
-        <v>298</v>
-      </c>
-      <c r="C144" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D144" s="53">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E144" s="53">
-        <v>0.75</v>
-      </c>
-      <c r="F144" s="53">
-        <f t="shared" si="58"/>
-        <v>8.333333333333337E-2</v>
-      </c>
-      <c r="H144" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="I144" s="49">
-        <f t="shared" ref="I144" si="65">SUM(I138:I143)</f>
-        <v>0.34027777777777773</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
-      <c r="A145" s="56"/>
-      <c r="B145" s="57" t="s">
-        <v>300</v>
-      </c>
-      <c r="C145" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D145" s="53">
-        <v>0.75</v>
-      </c>
-      <c r="E145" s="53">
-        <v>0.875</v>
-      </c>
-      <c r="F145" s="53">
-        <f t="shared" si="58"/>
-        <v>0.125</v>
-      </c>
-      <c r="I145" s="55"/>
-    </row>
-    <row r="146" spans="1:9">
-      <c r="A146" s="56"/>
-      <c r="B146" s="57"/>
-      <c r="C146" s="52"/>
-      <c r="D146" s="53"/>
-      <c r="E146" s="53"/>
-      <c r="F146" s="53">
-        <f t="shared" si="58"/>
+    <row r="149" spans="1:9">
+      <c r="A149" s="58"/>
+      <c r="B149" s="55"/>
+      <c r="C149" s="51"/>
+      <c r="D149" s="52"/>
+      <c r="E149" s="52"/>
+      <c r="F149" s="52">
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="I146" s="55"/>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147" s="56"/>
-      <c r="B147" s="57"/>
-      <c r="C147" s="52"/>
-      <c r="D147" s="53"/>
-      <c r="E147" s="53"/>
-      <c r="F147" s="53">
-        <f t="shared" si="58"/>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="58"/>
+      <c r="B150" s="55"/>
+      <c r="C150" s="51"/>
+      <c r="D150" s="52"/>
+      <c r="E150" s="52"/>
+      <c r="F150" s="52">
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
-      <c r="A148" s="56"/>
-      <c r="B148" s="57"/>
-      <c r="C148" s="52"/>
-      <c r="D148" s="53"/>
-      <c r="E148" s="53"/>
-      <c r="F148" s="53">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
-      <c r="A149" s="56"/>
-      <c r="B149" s="57"/>
-      <c r="C149" s="52"/>
-      <c r="D149" s="53"/>
-      <c r="E149" s="53"/>
-      <c r="F149" s="53">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
-      <c r="A150" s="56"/>
-      <c r="B150" s="57"/>
-      <c r="C150" s="52"/>
-      <c r="D150" s="53"/>
-      <c r="E150" s="53"/>
-      <c r="F150" s="53">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="56"/>
-      <c r="B151" s="57"/>
-      <c r="C151" s="52"/>
-      <c r="D151" s="53"/>
-      <c r="E151" s="53"/>
-      <c r="F151" s="53">
-        <f t="shared" si="58"/>
+      <c r="A151" s="58"/>
+      <c r="B151" s="55"/>
+      <c r="C151" s="51"/>
+      <c r="D151" s="52"/>
+      <c r="E151" s="52"/>
+      <c r="F151" s="52">
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="59" t="s">
-        <v>301</v>
-      </c>
-      <c r="B152" s="52" t="s">
-        <v>284</v>
-      </c>
-      <c r="C152" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D152" s="53">
+        <v>312</v>
+      </c>
+      <c r="B152" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="C152" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D152" s="52">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E152" s="53">
+      <c r="E152" s="52">
         <v>0.4236111111111111</v>
       </c>
-      <c r="F152" s="53">
-        <f t="shared" si="58"/>
+      <c r="F152" s="52">
+        <f t="shared" si="59"/>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="H152" s="49" t="s">
@@ -16893,287 +16966,287 @@
       </c>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="51"/>
-      <c r="B153" s="52" t="s">
+      <c r="A153" s="56"/>
+      <c r="B153" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="C153" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D153" s="52">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E153" s="52">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F153" s="52">
+        <f t="shared" si="59"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H153" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="C153" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="D153" s="53">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="E153" s="53">
+      <c r="I153" s="52">
+        <f t="shared" ref="I153" si="67">SUMIFS(F152:F166, C152:C166,H153)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="56"/>
+      <c r="B154" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="C154" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D154" s="52">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F153" s="53">
-        <f t="shared" si="58"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="H153" s="54" t="s">
+      <c r="E154" s="52">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F154" s="52">
+        <f t="shared" si="59"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H154" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="I153" s="53">
-        <f t="shared" ref="I153" si="66">SUMIFS(F152:F166, C152:C166,H153)</f>
-        <v>0.22916666666666674</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
-      <c r="A154" s="51"/>
-      <c r="B154" s="52" t="s">
+      <c r="I154" s="52">
+        <f t="shared" ref="I154" si="68">SUMIFS(F152:F166, C152:C166,H154)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="56"/>
+      <c r="B155" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="C155" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D155" s="52">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E155" s="52">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F155" s="52">
+        <f t="shared" si="59"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H155" s="53" t="s">
         <v>290</v>
       </c>
-      <c r="C154" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D154" s="53">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E154" s="53">
+      <c r="I155" s="52">
+        <f t="shared" ref="I155" si="69">SUMIFS(F152:F166, C152:C166,H155)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="56"/>
+      <c r="B156" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="C156" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D156" s="52">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E156" s="52">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F156" s="52">
+        <f t="shared" si="59"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H156" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="I156" s="52">
+        <f t="shared" ref="I156" si="70">SUMIFS(F152:F166, C152:C166,H156)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="56"/>
+      <c r="B157" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="C157" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D157" s="52">
         <v>0.47222222222222227</v>
       </c>
-      <c r="F154" s="53">
-        <f t="shared" si="58"/>
-        <v>1.3888888888888951E-2</v>
-      </c>
-      <c r="H154" s="54" t="s">
-        <v>289</v>
-      </c>
-      <c r="I154" s="53">
-        <f t="shared" ref="I154" si="67">SUMIFS(F152:F166, C152:C166,H154)</f>
-        <v>7.2916666666666685E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
-      <c r="A155" s="51"/>
-      <c r="B155" s="52" t="s">
+      <c r="E157" s="52">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F157" s="52">
+        <f t="shared" si="59"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H157" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="I157" s="52">
+        <f t="shared" ref="I157" si="71">SUMIFS(F152:F166, C152:C166,H157)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="56"/>
+      <c r="B158" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="C158" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D158" s="52">
+        <v>0.65625</v>
+      </c>
+      <c r="E158" s="52">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F158" s="52">
+        <f t="shared" si="59"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H158" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="I158" s="52">
+        <f t="shared" ref="I158" si="72">SUMIFS(F152:F166, C152:C166,H158)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="56"/>
+      <c r="B159" s="51" t="s">
+        <v>310</v>
+      </c>
+      <c r="C159" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="C155" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="D155" s="53">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E155" s="53">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F155" s="53">
-        <f t="shared" si="58"/>
-        <v>4.1666666666666685E-2</v>
-      </c>
-      <c r="H155" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="I155" s="53">
-        <f t="shared" ref="I155" si="68">SUMIFS(F152:F166, C152:C166,H155)</f>
+      <c r="D159" s="52">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E159" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="F159" s="52">
+        <f t="shared" si="59"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H159" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="I159" s="49">
+        <f t="shared" ref="I159" si="73">SUM(I153:I158)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="56"/>
+      <c r="B160" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="C160" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D160" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="E160" s="52">
+        <v>0.875</v>
+      </c>
+      <c r="F160" s="52">
+        <f t="shared" si="59"/>
+        <v>0.125</v>
+      </c>
+      <c r="I160" s="54"/>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="56"/>
+      <c r="B161" s="51"/>
+      <c r="C161" s="51"/>
+      <c r="D161" s="52"/>
+      <c r="E161" s="52"/>
+      <c r="F161" s="52">
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="51"/>
-      <c r="B156" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="C156" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D156" s="53">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E156" s="53">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="F156" s="53">
-        <f t="shared" si="58"/>
-        <v>2.0833333333333259E-2</v>
-      </c>
-      <c r="H156" s="54" t="s">
-        <v>292</v>
-      </c>
-      <c r="I156" s="53">
-        <f t="shared" ref="I156" si="69">SUMIFS(F152:F166, C152:C166,H156)</f>
+      <c r="I161" s="54"/>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="56"/>
+      <c r="B162" s="51"/>
+      <c r="C162" s="51"/>
+      <c r="D162" s="52"/>
+      <c r="E162" s="52"/>
+      <c r="F162" s="52">
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="51"/>
-      <c r="B157" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="C157" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D157" s="53">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="E157" s="53">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="F157" s="53">
-        <f t="shared" si="58"/>
-        <v>6.9444444444444198E-3</v>
-      </c>
-      <c r="H157" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="I157" s="53">
-        <f t="shared" ref="I157" si="70">SUMIFS(F152:F166, C152:C166,H157)</f>
+    <row r="163" spans="1:9">
+      <c r="A163" s="56"/>
+      <c r="B163" s="51"/>
+      <c r="C163" s="51"/>
+      <c r="D163" s="52"/>
+      <c r="E163" s="52"/>
+      <c r="F163" s="52">
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
-      <c r="A158" s="51"/>
-      <c r="B158" s="52" t="s">
-        <v>297</v>
-      </c>
-      <c r="C158" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D158" s="53">
-        <v>0.65625</v>
-      </c>
-      <c r="E158" s="53">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F158" s="53">
-        <f t="shared" si="58"/>
-        <v>1.041666666666663E-2</v>
-      </c>
-      <c r="H158" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="I158" s="53">
-        <f t="shared" ref="I158" si="71">SUMIFS(F152:F166, C152:C166,H158)</f>
-        <v>3.8194444444444309E-2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
-      <c r="A159" s="51"/>
-      <c r="B159" s="52" t="s">
-        <v>298</v>
-      </c>
-      <c r="C159" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D159" s="53">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E159" s="53">
-        <v>0.75</v>
-      </c>
-      <c r="F159" s="53">
-        <f t="shared" si="58"/>
-        <v>8.333333333333337E-2</v>
-      </c>
-      <c r="H159" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="I159" s="49">
-        <f t="shared" ref="I159" si="72">SUM(I153:I158)</f>
-        <v>0.34027777777777773</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
-      <c r="A160" s="51"/>
-      <c r="B160" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="C160" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D160" s="53">
-        <v>0.75</v>
-      </c>
-      <c r="E160" s="53">
-        <v>0.875</v>
-      </c>
-      <c r="F160" s="53">
-        <f t="shared" si="58"/>
-        <v>0.125</v>
-      </c>
-      <c r="I160" s="55"/>
-    </row>
-    <row r="161" spans="1:9">
-      <c r="A161" s="51"/>
-      <c r="B161" s="52"/>
-      <c r="C161" s="52"/>
-      <c r="D161" s="53"/>
-      <c r="E161" s="53"/>
-      <c r="F161" s="53">
-        <f t="shared" si="58"/>
+    <row r="164" spans="1:9">
+      <c r="A164" s="56"/>
+      <c r="B164" s="51"/>
+      <c r="C164" s="51"/>
+      <c r="D164" s="52"/>
+      <c r="E164" s="52"/>
+      <c r="F164" s="52">
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="I161" s="55"/>
-    </row>
-    <row r="162" spans="1:9">
-      <c r="A162" s="51"/>
-      <c r="B162" s="52"/>
-      <c r="C162" s="52"/>
-      <c r="D162" s="53"/>
-      <c r="E162" s="53"/>
-      <c r="F162" s="53">
-        <f t="shared" si="58"/>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="56"/>
+      <c r="B165" s="51"/>
+      <c r="C165" s="51"/>
+      <c r="D165" s="52"/>
+      <c r="E165" s="52"/>
+      <c r="F165" s="52">
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
-      <c r="A163" s="51"/>
-      <c r="B163" s="52"/>
-      <c r="C163" s="52"/>
-      <c r="D163" s="53"/>
-      <c r="E163" s="53"/>
-      <c r="F163" s="53">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
-      <c r="A164" s="51"/>
-      <c r="B164" s="52"/>
-      <c r="C164" s="52"/>
-      <c r="D164" s="53"/>
-      <c r="E164" s="53"/>
-      <c r="F164" s="53">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
-      <c r="A165" s="51"/>
-      <c r="B165" s="52"/>
-      <c r="C165" s="52"/>
-      <c r="D165" s="53"/>
-      <c r="E165" s="53"/>
-      <c r="F165" s="53">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="51"/>
-      <c r="B166" s="52"/>
-      <c r="C166" s="52"/>
-      <c r="D166" s="53"/>
-      <c r="E166" s="53"/>
-      <c r="F166" s="53">
-        <f t="shared" si="58"/>
+      <c r="A166" s="56"/>
+      <c r="B166" s="51"/>
+      <c r="C166" s="51"/>
+      <c r="D166" s="52"/>
+      <c r="E166" s="52"/>
+      <c r="F166" s="52">
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A77:A91"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="A47:A61"/>
+    <mergeCell ref="A62:A76"/>
     <mergeCell ref="A92:A106"/>
     <mergeCell ref="A107:A121"/>
     <mergeCell ref="A122:A136"/>
     <mergeCell ref="A137:A151"/>
     <mergeCell ref="A152:A166"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A31"/>
-    <mergeCell ref="A32:A46"/>
-    <mergeCell ref="A47:A61"/>
-    <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A77:A91"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
@@ -17227,7 +17300,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C166" xr:uid="{A5A02956-BEE0-46E0-9316-12A86E7B69A1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C166 C10:C15 C2:C9" xr:uid="{A5A02956-BEE0-46E0-9316-12A86E7B69A1}">
       <formula1>$Q$1:$Q$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25216"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F6B6898-F0C5-4A45-ACA3-BA37D5AE9D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C025271-CAAE-4408-B195-2CC15599C6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="328">
   <si>
     <t>Column1</t>
   </si>
@@ -1422,6 +1422,36 @@
     <t>Meeting with team</t>
   </si>
   <si>
+    <t>Refined Cancel Invite &amp; made it responsive</t>
+  </si>
+  <si>
+    <t>Added button in Create Invite &amp; refined it</t>
+  </si>
+  <si>
+    <t>Break</t>
+  </si>
+  <si>
+    <t>Refined Cancel Drive &amp; made it responsive</t>
+  </si>
+  <si>
+    <t>Updated Timesheet</t>
+  </si>
+  <si>
+    <t>Alignments in Profile Page</t>
+  </si>
+  <si>
+    <t>Lunch Break</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Meeting with Rafi </t>
+  </si>
+  <si>
+    <t>Technical Session on Angular with Saraswathi</t>
+  </si>
+  <si>
+    <t>General Team discussion</t>
+  </si>
+  <si>
     <t>Team Meeting</t>
   </si>
   <si>
@@ -1435,6 +1465,21 @@
   </si>
   <si>
     <t>Working on HTML layout</t>
+  </si>
+  <si>
+    <t>Refined changes in admin Location and fixed Icons with buttons</t>
+  </si>
+  <si>
+    <t>Back button,paading value assign for location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploring on Buttons and container,padding, rem ,px  - HTML </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client Meeting with Rafi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular session - By Saraswathi </t>
   </si>
   <si>
     <t>Resource Name 11</t>
@@ -1447,7 +1492,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1514,6 +1559,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1751,7 +1802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1906,6 +1957,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13881,8 +13933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952F3578-7816-40A6-B6F1-14F946DAF008}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14278,12 +14330,8 @@
       <c r="A17" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="51" t="s">
-        <v>307</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>288</v>
-      </c>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="52">
         <v>0.41666666666666669</v>
       </c>
@@ -14303,12 +14351,8 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="56"/>
-      <c r="B18" s="51" t="s">
-        <v>308</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>285</v>
-      </c>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="52">
         <v>0.42708333333333331</v>
       </c>
@@ -14324,17 +14368,13 @@
       </c>
       <c r="I18" s="52">
         <f t="shared" ref="I18" si="2">SUMIFS(F17:F31, C17:C31,H18)</f>
-        <v>0.22916666666666674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="56"/>
-      <c r="B19" s="51" t="s">
-        <v>309</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>288</v>
-      </c>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="52">
         <v>0.45833333333333331</v>
       </c>
@@ -14350,17 +14390,13 @@
       </c>
       <c r="I19" s="52">
         <f t="shared" ref="I19" si="3">SUMIFS(F17:F31, C17:C31,H19)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="56"/>
-      <c r="B20" s="51" t="s">
-        <v>308</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>285</v>
-      </c>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="52">
         <v>0.47916666666666669</v>
       </c>
@@ -14381,12 +14417,8 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="56"/>
-      <c r="B21" s="51" t="s">
-        <v>301</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>295</v>
-      </c>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="52">
         <v>0.52083333333333337</v>
       </c>
@@ -14407,12 +14439,8 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="56"/>
-      <c r="B22" s="51" t="s">
-        <v>294</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>295</v>
-      </c>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="52">
         <v>0.47222222222222227</v>
       </c>
@@ -14434,11 +14462,9 @@
     <row r="23" spans="1:9">
       <c r="A23" s="56"/>
       <c r="B23" s="51" t="s">
-        <v>304</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>295</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C23" s="51"/>
       <c r="D23" s="52">
         <v>0.65625</v>
       </c>
@@ -14454,17 +14480,13 @@
       </c>
       <c r="I23" s="52">
         <f t="shared" ref="I23" si="7">SUMIFS(F17:F31, C17:C31,H23)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="56"/>
-      <c r="B24" s="51" t="s">
-        <v>310</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>288</v>
-      </c>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="52">
         <v>0.66666666666666663</v>
       </c>
@@ -14480,17 +14502,13 @@
       </c>
       <c r="I24" s="49">
         <f t="shared" ref="I24" si="8">SUM(I18:I23)</f>
-        <v>0.34027777777777773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="56"/>
-      <c r="B25" s="51" t="s">
-        <v>311</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>288</v>
-      </c>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="52">
         <v>0.75</v>
       </c>
@@ -14575,20 +14593,20 @@
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="C32" s="51" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D32" s="52">
-        <v>0.41666666666666669</v>
+        <v>0.35069444444444442</v>
       </c>
       <c r="E32" s="52">
-        <v>0.4236111111111111</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="F32" s="52">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>3.4722222222222654E-3</v>
       </c>
       <c r="H32" s="49" t="s">
         <v>286</v>
@@ -14600,72 +14618,72 @@
     <row r="33" spans="1:9">
       <c r="A33" s="56"/>
       <c r="B33" s="51" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D33" s="52">
-        <v>0.42708333333333331</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="E33" s="52">
-        <v>0.45833333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="F33" s="52">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H33" s="53" t="s">
         <v>288</v>
       </c>
       <c r="I33" s="52">
         <f t="shared" ref="I33" si="9">SUMIFS(F32:F46, C32:C46,H33)</f>
-        <v>0.22916666666666674</v>
+        <v>0.19791666666666663</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="56"/>
       <c r="B34" s="51" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C34" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D34" s="52">
-        <v>0.45833333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E34" s="52">
-        <v>0.47222222222222227</v>
+        <v>0.4375</v>
       </c>
       <c r="F34" s="52">
         <f t="shared" si="0"/>
-        <v>1.3888888888888951E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H34" s="53" t="s">
         <v>285</v>
       </c>
       <c r="I34" s="52">
         <f t="shared" ref="I34" si="10">SUMIFS(F32:F46, C32:C46,H34)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>6.5972222222222265E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="56"/>
       <c r="B35" s="51" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C35" s="51" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="D35" s="52">
-        <v>0.47916666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="E35" s="52">
-        <v>0.52083333333333337</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="F35" s="52">
         <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H35" s="53" t="s">
         <v>290</v>
@@ -14678,20 +14696,20 @@
     <row r="36" spans="1:9">
       <c r="A36" s="56"/>
       <c r="B36" s="51" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C36" s="51" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D36" s="52">
-        <v>0.52083333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E36" s="52">
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="F36" s="52">
         <f t="shared" si="0"/>
-        <v>2.0833333333333259E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H36" s="53" t="s">
         <v>293</v>
@@ -14704,144 +14722,176 @@
     <row r="37" spans="1:9">
       <c r="A37" s="56"/>
       <c r="B37" s="51" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="C37" s="51" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D37" s="52">
-        <v>0.47222222222222227</v>
+        <v>0.5</v>
       </c>
       <c r="E37" s="52">
-        <v>0.47916666666666669</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="F37" s="52">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H37" s="53" t="s">
         <v>296</v>
       </c>
       <c r="I37" s="52">
         <f t="shared" ref="I37" si="13">SUMIFS(F32:F46, C32:C46,H37)</f>
-        <v>0</v>
+        <v>1.3888888888888951E-2</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="56"/>
       <c r="B38" s="51" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C38" s="51" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D38" s="52">
-        <v>0.65625</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E38" s="52">
-        <v>0.66666666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F38" s="52">
-        <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <f>E38-D38</f>
+        <v>3.125E-2</v>
       </c>
       <c r="H38" s="53" t="s">
         <v>295</v>
       </c>
       <c r="I38" s="52">
         <f t="shared" ref="I38" si="14">SUMIFS(F32:F46, C32:C46,H38)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="56"/>
       <c r="B39" s="51" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C39" s="51" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D39" s="52">
-        <v>0.66666666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E39" s="52">
-        <v>0.75</v>
+        <v>0.5625</v>
       </c>
       <c r="F39" s="52">
         <f t="shared" si="0"/>
-        <v>8.333333333333337E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H39" s="48" t="s">
         <v>300</v>
       </c>
       <c r="I39" s="49">
         <f t="shared" ref="I39" si="15">SUM(I33:I38)</f>
-        <v>0.34027777777777773</v>
+        <v>0.31944444444444453</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="56"/>
       <c r="B40" s="51" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C40" s="51" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="D40" s="52">
-        <v>0.75</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E40" s="52">
-        <v>0.875</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="F40" s="52">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
+        <f>E40-D40</f>
+        <v>1.3888888888888951E-2</v>
       </c>
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="56"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
+      <c r="B41" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D41" s="52">
+        <v>0.625</v>
+      </c>
+      <c r="E41" s="52">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="F41" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="56"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
+      <c r="B42" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D42" s="52">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E42" s="52">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F42" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="56"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
+      <c r="B43" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D43" s="52">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E43" s="52">
+        <v>0.71875</v>
+      </c>
       <c r="F43" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E43-D43</f>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="56"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
+      <c r="B44" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D44" s="52">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="E44" s="52">
+        <v>0.75</v>
+      </c>
       <c r="F44" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E44-D44</f>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -14871,7 +14921,7 @@
         <v>21</v>
       </c>
       <c r="B47" s="55" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C47" s="51" t="s">
         <v>288</v>
@@ -14896,7 +14946,7 @@
     <row r="48" spans="1:9">
       <c r="A48" s="58"/>
       <c r="B48" s="55" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C48" s="51" t="s">
         <v>285</v>
@@ -14922,7 +14972,7 @@
     <row r="49" spans="1:9">
       <c r="A49" s="58"/>
       <c r="B49" s="55" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C49" s="51" t="s">
         <v>288</v>
@@ -14948,7 +14998,7 @@
     <row r="50" spans="1:9">
       <c r="A50" s="58"/>
       <c r="B50" s="55" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C50" s="51" t="s">
         <v>285</v>
@@ -15052,7 +15102,7 @@
     <row r="54" spans="1:9">
       <c r="A54" s="58"/>
       <c r="B54" s="55" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C54" s="51" t="s">
         <v>288</v>
@@ -15078,7 +15128,7 @@
     <row r="55" spans="1:9">
       <c r="A55" s="58"/>
       <c r="B55" s="55" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C55" s="51" t="s">
         <v>288</v>
@@ -15167,7 +15217,7 @@
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C62" s="51" t="s">
         <v>288</v>
@@ -15192,7 +15242,7 @@
     <row r="63" spans="1:9">
       <c r="A63" s="56"/>
       <c r="B63" s="51" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C63" s="51" t="s">
         <v>285</v>
@@ -15218,7 +15268,7 @@
     <row r="64" spans="1:9">
       <c r="A64" s="56"/>
       <c r="B64" s="51" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C64" s="51" t="s">
         <v>288</v>
@@ -15244,7 +15294,7 @@
     <row r="65" spans="1:9">
       <c r="A65" s="56"/>
       <c r="B65" s="51" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C65" s="51" t="s">
         <v>285</v>
@@ -15348,7 +15398,7 @@
     <row r="69" spans="1:9">
       <c r="A69" s="56"/>
       <c r="B69" s="51" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C69" s="51" t="s">
         <v>288</v>
@@ -15374,7 +15424,7 @@
     <row r="70" spans="1:9">
       <c r="A70" s="56"/>
       <c r="B70" s="51" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C70" s="51" t="s">
         <v>288</v>
@@ -15463,7 +15513,7 @@
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C77" s="51" t="s">
         <v>288</v>
@@ -15488,7 +15538,7 @@
     <row r="78" spans="1:9">
       <c r="A78" s="56"/>
       <c r="B78" s="51" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C78" s="51" t="s">
         <v>285</v>
@@ -15514,7 +15564,7 @@
     <row r="79" spans="1:9">
       <c r="A79" s="56"/>
       <c r="B79" s="51" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C79" s="51" t="s">
         <v>288</v>
@@ -15540,7 +15590,7 @@
     <row r="80" spans="1:9">
       <c r="A80" s="56"/>
       <c r="B80" s="51" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C80" s="51" t="s">
         <v>285</v>
@@ -15644,7 +15694,7 @@
     <row r="84" spans="1:9">
       <c r="A84" s="56"/>
       <c r="B84" s="51" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C84" s="51" t="s">
         <v>288</v>
@@ -15670,7 +15720,7 @@
     <row r="85" spans="1:9">
       <c r="A85" s="56"/>
       <c r="B85" s="51" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C85" s="51" t="s">
         <v>288</v>
@@ -15759,20 +15809,20 @@
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="C92" s="51" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D92" s="52">
-        <v>0.41666666666666669</v>
+        <v>0.35069444444444442</v>
       </c>
       <c r="E92" s="52">
-        <v>0.4236111111111111</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="F92" s="52">
         <f t="shared" si="27"/>
-        <v>6.9444444444444198E-3</v>
+        <v>1.3888888888888895E-2</v>
       </c>
       <c r="H92" s="49" t="s">
         <v>286</v>
@@ -15784,226 +15834,242 @@
     <row r="93" spans="1:9">
       <c r="A93" s="56"/>
       <c r="B93" s="51" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="C93" s="51" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D93" s="52">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="E93" s="52">
         <v>0.42708333333333331</v>
-      </c>
-      <c r="E93" s="52">
-        <v>0.45833333333333331</v>
       </c>
       <c r="F93" s="52">
         <f t="shared" si="27"/>
-        <v>3.125E-2</v>
+        <v>8.680555555555558E-2</v>
       </c>
       <c r="H93" s="53" t="s">
         <v>288</v>
       </c>
       <c r="I93" s="52">
-        <f t="shared" ref="I93" si="38">SUMIFS(F92:F106, C92:C106,H93)</f>
-        <v>0.22916666666666674</v>
+        <f>SUMIFS(F92:F106, C92:C106,H93)</f>
+        <v>0.19097222222222221</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="56"/>
-      <c r="B94" s="51" t="s">
-        <v>309</v>
+      <c r="B94" s="60" t="s">
+        <v>323</v>
       </c>
       <c r="C94" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D94" s="52">
-        <v>0.45833333333333331</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="E94" s="52">
-        <v>0.47222222222222227</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="F94" s="52">
         <f t="shared" si="27"/>
-        <v>1.3888888888888951E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H94" s="53" t="s">
         <v>285</v>
       </c>
       <c r="I94" s="52">
-        <f t="shared" ref="I94" si="39">SUMIFS(F92:F106, C92:C106,H94)</f>
-        <v>7.2916666666666685E-2</v>
+        <f>SUMIFS(F92:F106, C92:C106,H94)</f>
+        <v>1.3888888888888895E-2</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="56"/>
       <c r="B95" s="51" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C95" s="51" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="D95" s="52">
-        <v>0.47916666666666669</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="E95" s="52">
-        <v>0.52083333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F95" s="52">
         <f t="shared" si="27"/>
-        <v>4.1666666666666685E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H95" s="53" t="s">
         <v>290</v>
       </c>
       <c r="I95" s="52">
-        <f t="shared" ref="I95" si="40">SUMIFS(F92:F106, C92:C106,H95)</f>
-        <v>0</v>
+        <f>SUMIFS(F92:F106, C92:C106,H95)</f>
+        <v>6.2500000000000056E-2</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="56"/>
       <c r="B96" s="51" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="C96" s="51" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D96" s="52">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E96" s="52">
         <v>0.52083333333333337</v>
-      </c>
-      <c r="E96" s="52">
-        <v>0.54166666666666663</v>
       </c>
       <c r="F96" s="52">
         <f t="shared" si="27"/>
-        <v>2.0833333333333259E-2</v>
+        <v>6.2500000000000056E-2</v>
       </c>
       <c r="H96" s="53" t="s">
         <v>293</v>
       </c>
       <c r="I96" s="52">
-        <f t="shared" ref="I96" si="41">SUMIFS(F92:F106, C92:C106,H96)</f>
+        <f>SUMIFS(F92:F106, C92:C106,H96)</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="56"/>
       <c r="B97" s="51" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="C97" s="51" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D97" s="52">
-        <v>0.47222222222222227</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="E97" s="52">
-        <v>0.47916666666666669</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="F97" s="52">
         <f t="shared" si="27"/>
-        <v>6.9444444444444198E-3</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H97" s="53" t="s">
         <v>296</v>
       </c>
       <c r="I97" s="52">
-        <f t="shared" ref="I97" si="42">SUMIFS(F92:F106, C92:C106,H97)</f>
-        <v>0</v>
+        <f>SUMIFS(F92:F106, C92:C106,H97)</f>
+        <v>2.430555555555558E-2</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="56"/>
       <c r="B98" s="51" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C98" s="51" t="s">
         <v>295</v>
       </c>
       <c r="D98" s="52">
-        <v>0.65625</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E98" s="52">
-        <v>0.66666666666666663</v>
+        <v>0.59375</v>
       </c>
       <c r="F98" s="52">
         <f t="shared" si="27"/>
-        <v>1.041666666666663E-2</v>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="H98" s="53" t="s">
         <v>295</v>
       </c>
       <c r="I98" s="52">
-        <f t="shared" ref="I98" si="43">SUMIFS(F92:F106, C92:C106,H98)</f>
-        <v>3.8194444444444309E-2</v>
+        <f>SUMIFS(F92:F106, C92:C106,H98)</f>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="56"/>
       <c r="B99" s="51" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="C99" s="51" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="D99" s="52">
-        <v>0.66666666666666663</v>
+        <v>0.59375</v>
       </c>
       <c r="E99" s="52">
-        <v>0.75</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="F99" s="52">
         <f t="shared" si="27"/>
-        <v>8.333333333333337E-2</v>
+        <v>2.430555555555558E-2</v>
       </c>
       <c r="H99" s="48" t="s">
         <v>300</v>
       </c>
       <c r="I99" s="49">
-        <f t="shared" ref="I99" si="44">SUM(I93:I98)</f>
-        <v>0.34027777777777773</v>
+        <f t="shared" ref="I99" si="38">SUM(I93:I98)</f>
+        <v>0.38541666666666674</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="56"/>
       <c r="B100" s="51" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="C100" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D100" s="52">
-        <v>0.75</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E100" s="52">
-        <v>0.875</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F100" s="52">
-        <f t="shared" si="27"/>
-        <v>0.125</v>
+        <f>E100-D100</f>
+        <v>6.25E-2</v>
       </c>
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="56"/>
-      <c r="B101" s="51"/>
-      <c r="C101" s="51"/>
-      <c r="D101" s="52"/>
-      <c r="E101" s="52"/>
+      <c r="B101" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="C101" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D101" s="52">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E101" s="52">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="F101" s="52">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f>E101-D101</f>
+        <v>3.125E-2</v>
       </c>
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="56"/>
-      <c r="B102" s="51"/>
-      <c r="C102" s="51"/>
-      <c r="D102" s="52"/>
-      <c r="E102" s="52"/>
+      <c r="B102" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="C102" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D102" s="52">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="E102" s="52">
+        <v>0.75</v>
+      </c>
       <c r="F102" s="52">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f>E102-D102</f>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -16012,10 +16078,7 @@
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
       <c r="E103" s="52"/>
-      <c r="F103" s="52">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
+      <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="56"/>
@@ -16023,10 +16086,7 @@
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
       <c r="E104" s="52"/>
-      <c r="F104" s="52">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
+      <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="56"/>
@@ -16034,10 +16094,7 @@
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
       <c r="E105" s="52"/>
-      <c r="F105" s="52">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
+      <c r="F105" s="52"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="57"/>
@@ -16045,17 +16102,14 @@
       <c r="C106" s="51"/>
       <c r="D106" s="52"/>
       <c r="E106" s="52"/>
-      <c r="F106" s="52">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
+      <c r="F106" s="52"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="58" t="s">
         <v>30</v>
       </c>
       <c r="B107" s="55" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C107" s="51" t="s">
         <v>288</v>
@@ -16080,7 +16134,7 @@
     <row r="108" spans="1:9">
       <c r="A108" s="58"/>
       <c r="B108" s="55" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C108" s="51" t="s">
         <v>285</v>
@@ -16099,14 +16153,14 @@
         <v>288</v>
       </c>
       <c r="I108" s="52">
-        <f t="shared" ref="I108" si="45">SUMIFS(F107:F121, C107:C121,H108)</f>
+        <f t="shared" ref="I108" si="39">SUMIFS(F107:F121, C107:C121,H108)</f>
         <v>0.22916666666666674</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="58"/>
       <c r="B109" s="55" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C109" s="51" t="s">
         <v>288</v>
@@ -16125,14 +16179,14 @@
         <v>285</v>
       </c>
       <c r="I109" s="52">
-        <f t="shared" ref="I109" si="46">SUMIFS(F107:F121, C107:C121,H109)</f>
+        <f t="shared" ref="I109" si="40">SUMIFS(F107:F121, C107:C121,H109)</f>
         <v>7.2916666666666685E-2</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="58"/>
       <c r="B110" s="55" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C110" s="51" t="s">
         <v>285</v>
@@ -16151,7 +16205,7 @@
         <v>290</v>
       </c>
       <c r="I110" s="52">
-        <f t="shared" ref="I110" si="47">SUMIFS(F107:F121, C107:C121,H110)</f>
+        <f t="shared" ref="I110" si="41">SUMIFS(F107:F121, C107:C121,H110)</f>
         <v>0</v>
       </c>
     </row>
@@ -16177,7 +16231,7 @@
         <v>293</v>
       </c>
       <c r="I111" s="52">
-        <f t="shared" ref="I111" si="48">SUMIFS(F107:F121, C107:C121,H111)</f>
+        <f t="shared" ref="I111" si="42">SUMIFS(F107:F121, C107:C121,H111)</f>
         <v>0</v>
       </c>
     </row>
@@ -16203,7 +16257,7 @@
         <v>296</v>
       </c>
       <c r="I112" s="52">
-        <f t="shared" ref="I112" si="49">SUMIFS(F107:F121, C107:C121,H112)</f>
+        <f t="shared" ref="I112" si="43">SUMIFS(F107:F121, C107:C121,H112)</f>
         <v>0</v>
       </c>
     </row>
@@ -16229,14 +16283,14 @@
         <v>295</v>
       </c>
       <c r="I113" s="52">
-        <f t="shared" ref="I113" si="50">SUMIFS(F107:F121, C107:C121,H113)</f>
+        <f t="shared" ref="I113" si="44">SUMIFS(F107:F121, C107:C121,H113)</f>
         <v>3.8194444444444309E-2</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="58"/>
       <c r="B114" s="55" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C114" s="51" t="s">
         <v>288</v>
@@ -16255,14 +16309,14 @@
         <v>300</v>
       </c>
       <c r="I114" s="49">
-        <f t="shared" ref="I114" si="51">SUM(I108:I113)</f>
+        <f t="shared" ref="I114" si="45">SUM(I108:I113)</f>
         <v>0.34027777777777773</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="58"/>
       <c r="B115" s="55" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C115" s="51" t="s">
         <v>288</v>
@@ -16351,7 +16405,7 @@
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C122" s="51" t="s">
         <v>288</v>
@@ -16376,7 +16430,7 @@
     <row r="123" spans="1:9">
       <c r="A123" s="56"/>
       <c r="B123" s="51" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C123" s="51" t="s">
         <v>285</v>
@@ -16395,14 +16449,14 @@
         <v>288</v>
       </c>
       <c r="I123" s="52">
-        <f t="shared" ref="I123" si="52">SUMIFS(F122:F136, C122:C136,H123)</f>
+        <f t="shared" ref="I123" si="46">SUMIFS(F122:F136, C122:C136,H123)</f>
         <v>0.22916666666666674</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="56"/>
       <c r="B124" s="51" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C124" s="51" t="s">
         <v>288</v>
@@ -16421,14 +16475,14 @@
         <v>285</v>
       </c>
       <c r="I124" s="52">
-        <f t="shared" ref="I124" si="53">SUMIFS(F122:F136, C122:C136,H124)</f>
+        <f t="shared" ref="I124" si="47">SUMIFS(F122:F136, C122:C136,H124)</f>
         <v>7.2916666666666685E-2</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="56"/>
       <c r="B125" s="51" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C125" s="51" t="s">
         <v>285</v>
@@ -16447,7 +16501,7 @@
         <v>290</v>
       </c>
       <c r="I125" s="52">
-        <f t="shared" ref="I125" si="54">SUMIFS(F122:F136, C122:C136,H125)</f>
+        <f t="shared" ref="I125" si="48">SUMIFS(F122:F136, C122:C136,H125)</f>
         <v>0</v>
       </c>
     </row>
@@ -16473,7 +16527,7 @@
         <v>293</v>
       </c>
       <c r="I126" s="52">
-        <f t="shared" ref="I126" si="55">SUMIFS(F122:F136, C122:C136,H126)</f>
+        <f t="shared" ref="I126" si="49">SUMIFS(F122:F136, C122:C136,H126)</f>
         <v>0</v>
       </c>
     </row>
@@ -16499,7 +16553,7 @@
         <v>296</v>
       </c>
       <c r="I127" s="52">
-        <f t="shared" ref="I127" si="56">SUMIFS(F122:F136, C122:C136,H127)</f>
+        <f t="shared" ref="I127" si="50">SUMIFS(F122:F136, C122:C136,H127)</f>
         <v>0</v>
       </c>
     </row>
@@ -16525,14 +16579,14 @@
         <v>295</v>
       </c>
       <c r="I128" s="52">
-        <f t="shared" ref="I128" si="57">SUMIFS(F122:F136, C122:C136,H128)</f>
+        <f t="shared" ref="I128" si="51">SUMIFS(F122:F136, C122:C136,H128)</f>
         <v>3.8194444444444309E-2</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="56"/>
       <c r="B129" s="51" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C129" s="51" t="s">
         <v>288</v>
@@ -16551,14 +16605,14 @@
         <v>300</v>
       </c>
       <c r="I129" s="49">
-        <f t="shared" ref="I129" si="58">SUM(I123:I128)</f>
+        <f t="shared" ref="I129" si="52">SUM(I123:I128)</f>
         <v>0.34027777777777773</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="56"/>
       <c r="B130" s="51" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C130" s="51" t="s">
         <v>288</v>
@@ -16582,7 +16636,7 @@
       <c r="D131" s="52"/>
       <c r="E131" s="52"/>
       <c r="F131" s="52">
-        <f t="shared" ref="F131:F194" si="59">E131-D131</f>
+        <f t="shared" ref="F131:F194" si="53">E131-D131</f>
         <v>0</v>
       </c>
       <c r="I131" s="54"/>
@@ -16594,7 +16648,7 @@
       <c r="D132" s="52"/>
       <c r="E132" s="52"/>
       <c r="F132" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -16605,7 +16659,7 @@
       <c r="D133" s="52"/>
       <c r="E133" s="52"/>
       <c r="F133" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -16616,7 +16670,7 @@
       <c r="D134" s="52"/>
       <c r="E134" s="52"/>
       <c r="F134" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -16627,7 +16681,7 @@
       <c r="D135" s="52"/>
       <c r="E135" s="52"/>
       <c r="F135" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -16638,7 +16692,7 @@
       <c r="D136" s="52"/>
       <c r="E136" s="52"/>
       <c r="F136" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -16647,7 +16701,7 @@
         <v>276</v>
       </c>
       <c r="B137" s="55" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C137" s="51" t="s">
         <v>288</v>
@@ -16659,7 +16713,7 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="F137" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="H137" s="49" t="s">
@@ -16672,7 +16726,7 @@
     <row r="138" spans="1:9">
       <c r="A138" s="58"/>
       <c r="B138" s="55" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C138" s="51" t="s">
         <v>285</v>
@@ -16684,21 +16738,21 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F138" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>3.125E-2</v>
       </c>
       <c r="H138" s="53" t="s">
         <v>288</v>
       </c>
       <c r="I138" s="52">
-        <f t="shared" ref="I138" si="60">SUMIFS(F137:F151, C137:C151,H138)</f>
+        <f t="shared" ref="I138" si="54">SUMIFS(F137:F151, C137:C151,H138)</f>
         <v>0.22916666666666674</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="58"/>
       <c r="B139" s="55" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C139" s="51" t="s">
         <v>288</v>
@@ -16710,21 +16764,21 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="F139" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>1.3888888888888951E-2</v>
       </c>
       <c r="H139" s="53" t="s">
         <v>285</v>
       </c>
       <c r="I139" s="52">
-        <f t="shared" ref="I139" si="61">SUMIFS(F137:F151, C137:C151,H139)</f>
+        <f t="shared" ref="I139" si="55">SUMIFS(F137:F151, C137:C151,H139)</f>
         <v>7.2916666666666685E-2</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="58"/>
       <c r="B140" s="55" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C140" s="51" t="s">
         <v>285</v>
@@ -16736,14 +16790,14 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="F140" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>4.1666666666666685E-2</v>
       </c>
       <c r="H140" s="53" t="s">
         <v>290</v>
       </c>
       <c r="I140" s="52">
-        <f t="shared" ref="I140" si="62">SUMIFS(F137:F151, C137:C151,H140)</f>
+        <f t="shared" ref="I140" si="56">SUMIFS(F137:F151, C137:C151,H140)</f>
         <v>0</v>
       </c>
     </row>
@@ -16762,14 +16816,14 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F141" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="H141" s="53" t="s">
         <v>293</v>
       </c>
       <c r="I141" s="52">
-        <f t="shared" ref="I141" si="63">SUMIFS(F137:F151, C137:C151,H141)</f>
+        <f t="shared" ref="I141" si="57">SUMIFS(F137:F151, C137:C151,H141)</f>
         <v>0</v>
       </c>
     </row>
@@ -16788,14 +16842,14 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="F142" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="H142" s="53" t="s">
         <v>296</v>
       </c>
       <c r="I142" s="52">
-        <f t="shared" ref="I142" si="64">SUMIFS(F137:F151, C137:C151,H142)</f>
+        <f t="shared" ref="I142" si="58">SUMIFS(F137:F151, C137:C151,H142)</f>
         <v>0</v>
       </c>
     </row>
@@ -16814,21 +16868,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F143" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="H143" s="53" t="s">
         <v>295</v>
       </c>
       <c r="I143" s="52">
-        <f t="shared" ref="I143" si="65">SUMIFS(F137:F151, C137:C151,H143)</f>
+        <f t="shared" ref="I143" si="59">SUMIFS(F137:F151, C137:C151,H143)</f>
         <v>3.8194444444444309E-2</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="58"/>
       <c r="B144" s="55" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C144" s="51" t="s">
         <v>288</v>
@@ -16840,21 +16894,21 @@
         <v>0.75</v>
       </c>
       <c r="F144" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="H144" s="48" t="s">
         <v>300</v>
       </c>
       <c r="I144" s="49">
-        <f t="shared" ref="I144" si="66">SUM(I138:I143)</f>
+        <f t="shared" ref="I144" si="60">SUM(I138:I143)</f>
         <v>0.34027777777777773</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="58"/>
       <c r="B145" s="55" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C145" s="51" t="s">
         <v>288</v>
@@ -16866,7 +16920,7 @@
         <v>0.875</v>
       </c>
       <c r="F145" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>0.125</v>
       </c>
       <c r="I145" s="54"/>
@@ -16878,7 +16932,7 @@
       <c r="D146" s="52"/>
       <c r="E146" s="52"/>
       <c r="F146" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="I146" s="54"/>
@@ -16890,7 +16944,7 @@
       <c r="D147" s="52"/>
       <c r="E147" s="52"/>
       <c r="F147" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -16901,7 +16955,7 @@
       <c r="D148" s="52"/>
       <c r="E148" s="52"/>
       <c r="F148" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -16912,7 +16966,7 @@
       <c r="D149" s="52"/>
       <c r="E149" s="52"/>
       <c r="F149" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -16923,7 +16977,7 @@
       <c r="D150" s="52"/>
       <c r="E150" s="52"/>
       <c r="F150" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -16934,16 +16988,16 @@
       <c r="D151" s="52"/>
       <c r="E151" s="52"/>
       <c r="F151" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="59" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="B152" s="51" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C152" s="51" t="s">
         <v>288</v>
@@ -16955,7 +17009,7 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="F152" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="H152" s="49" t="s">
@@ -16968,7 +17022,7 @@
     <row r="153" spans="1:9">
       <c r="A153" s="56"/>
       <c r="B153" s="51" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C153" s="51" t="s">
         <v>285</v>
@@ -16980,21 +17034,21 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F153" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>3.125E-2</v>
       </c>
       <c r="H153" s="53" t="s">
         <v>288</v>
       </c>
       <c r="I153" s="52">
-        <f t="shared" ref="I153" si="67">SUMIFS(F152:F166, C152:C166,H153)</f>
+        <f t="shared" ref="I153" si="61">SUMIFS(F152:F166, C152:C166,H153)</f>
         <v>0.22916666666666674</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="56"/>
       <c r="B154" s="51" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C154" s="51" t="s">
         <v>288</v>
@@ -17006,21 +17060,21 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="F154" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>1.3888888888888951E-2</v>
       </c>
       <c r="H154" s="53" t="s">
         <v>285</v>
       </c>
       <c r="I154" s="52">
-        <f t="shared" ref="I154" si="68">SUMIFS(F152:F166, C152:C166,H154)</f>
+        <f t="shared" ref="I154" si="62">SUMIFS(F152:F166, C152:C166,H154)</f>
         <v>7.2916666666666685E-2</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="56"/>
       <c r="B155" s="51" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C155" s="51" t="s">
         <v>285</v>
@@ -17032,14 +17086,14 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="F155" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>4.1666666666666685E-2</v>
       </c>
       <c r="H155" s="53" t="s">
         <v>290</v>
       </c>
       <c r="I155" s="52">
-        <f t="shared" ref="I155" si="69">SUMIFS(F152:F166, C152:C166,H155)</f>
+        <f t="shared" ref="I155" si="63">SUMIFS(F152:F166, C152:C166,H155)</f>
         <v>0</v>
       </c>
     </row>
@@ -17058,14 +17112,14 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F156" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="H156" s="53" t="s">
         <v>293</v>
       </c>
       <c r="I156" s="52">
-        <f t="shared" ref="I156" si="70">SUMIFS(F152:F166, C152:C166,H156)</f>
+        <f t="shared" ref="I156" si="64">SUMIFS(F152:F166, C152:C166,H156)</f>
         <v>0</v>
       </c>
     </row>
@@ -17084,14 +17138,14 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="F157" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="H157" s="53" t="s">
         <v>296</v>
       </c>
       <c r="I157" s="52">
-        <f t="shared" ref="I157" si="71">SUMIFS(F152:F166, C152:C166,H157)</f>
+        <f t="shared" ref="I157" si="65">SUMIFS(F152:F166, C152:C166,H157)</f>
         <v>0</v>
       </c>
     </row>
@@ -17110,21 +17164,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F158" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="H158" s="53" t="s">
         <v>295</v>
       </c>
       <c r="I158" s="52">
-        <f t="shared" ref="I158" si="72">SUMIFS(F152:F166, C152:C166,H158)</f>
+        <f t="shared" ref="I158" si="66">SUMIFS(F152:F166, C152:C166,H158)</f>
         <v>3.8194444444444309E-2</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="56"/>
       <c r="B159" s="51" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C159" s="51" t="s">
         <v>288</v>
@@ -17136,21 +17190,21 @@
         <v>0.75</v>
       </c>
       <c r="F159" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="H159" s="48" t="s">
         <v>300</v>
       </c>
       <c r="I159" s="49">
-        <f t="shared" ref="I159" si="73">SUM(I153:I158)</f>
+        <f t="shared" ref="I159" si="67">SUM(I153:I158)</f>
         <v>0.34027777777777773</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="56"/>
       <c r="B160" s="51" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C160" s="51" t="s">
         <v>288</v>
@@ -17162,7 +17216,7 @@
         <v>0.875</v>
       </c>
       <c r="F160" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>0.125</v>
       </c>
       <c r="I160" s="54"/>
@@ -17174,7 +17228,7 @@
       <c r="D161" s="52"/>
       <c r="E161" s="52"/>
       <c r="F161" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="I161" s="54"/>
@@ -17186,7 +17240,7 @@
       <c r="D162" s="52"/>
       <c r="E162" s="52"/>
       <c r="F162" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -17197,7 +17251,7 @@
       <c r="D163" s="52"/>
       <c r="E163" s="52"/>
       <c r="F163" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -17208,7 +17262,7 @@
       <c r="D164" s="52"/>
       <c r="E164" s="52"/>
       <c r="F164" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -17219,7 +17273,7 @@
       <c r="D165" s="52"/>
       <c r="E165" s="52"/>
       <c r="F165" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -17230,23 +17284,23 @@
       <c r="D166" s="52"/>
       <c r="E166" s="52"/>
       <c r="F166" s="52">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
@@ -17300,7 +17354,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C166 C10:C15 C2:C9" xr:uid="{A5A02956-BEE0-46E0-9316-12A86E7B69A1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C166" xr:uid="{A5A02956-BEE0-46E0-9316-12A86E7B69A1}">
       <formula1>$Q$1:$Q$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FB7B622-20AD-47CA-BA49-1969D28D09AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB2FB392-8CC6-46BC-9F82-05B9B65F6A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="346">
   <si>
     <t>Column1</t>
   </si>
@@ -1452,6 +1452,18 @@
     <t>General Team discussion</t>
   </si>
   <si>
+    <t>Rafi meeting regarding Team performance</t>
+  </si>
+  <si>
+    <t>Linking Back Button to all Pages</t>
+  </si>
+  <si>
+    <t>Worked on profile page Layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on dashboard </t>
+  </si>
+  <si>
     <t>Team Meeting</t>
   </si>
   <si>
@@ -1467,18 +1479,6 @@
     <t>Working on HTML layout</t>
   </si>
   <si>
-    <t>Rafi meeting regarding Team performance</t>
-  </si>
-  <si>
-    <t>Linking Back Button to all Pages</t>
-  </si>
-  <si>
-    <t>Worked on profile page Layout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worked on dashboard </t>
-  </si>
-  <si>
     <t>Refined changes in admin Location and fixed Icons with buttons</t>
   </si>
   <si>
@@ -1516,6 +1516,24 @@
   </si>
   <si>
     <t>Session on Angular with Sarawathi</t>
+  </si>
+  <si>
+    <t>Mail checking</t>
+  </si>
+  <si>
+    <t>Merging other pages with layout</t>
+  </si>
+  <si>
+    <t>Added and edited admin layout</t>
+  </si>
+  <si>
+    <t>Tried to publish layout page</t>
+  </si>
+  <si>
+    <t>Worked on home page</t>
+  </si>
+  <si>
+    <t>Review with Rafi</t>
   </si>
   <si>
     <t>Resource Name 11</t>
@@ -13969,8 +13987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952F3578-7816-40A6-B6F1-14F946DAF008}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14061,7 +14079,7 @@
       </c>
       <c r="I3" s="52">
         <f>SUMIFS(F2:F16, C2:C16,H3)</f>
-        <v>0.18749999999999994</v>
+        <v>0.12847222222222215</v>
       </c>
       <c r="Q3" t="s">
         <v>285</v>
@@ -14119,7 +14137,7 @@
       </c>
       <c r="I5" s="52">
         <f>SUMIFS(F2:F16, C2:C16,H5)</f>
-        <v>5.5555555555555469E-2</v>
+        <v>0.11458333333333326</v>
       </c>
       <c r="Q5" t="s">
         <v>293</v>
@@ -14319,7 +14337,7 @@
         <v>305</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D14" s="52">
         <v>0.64930555555555558</v>
@@ -14700,7 +14718,7 @@
       </c>
       <c r="I34" s="52">
         <f t="shared" ref="I34" si="10">SUMIFS(F32:F46, C32:C46,H34)</f>
-        <v>6.5972222222222265E-2</v>
+        <v>3.4722222222222654E-3</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -14726,7 +14744,7 @@
       </c>
       <c r="I35" s="52">
         <f t="shared" ref="I35" si="11">SUMIFS(F32:F46, C32:C46,H35)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -14879,7 +14897,7 @@
         <v>315</v>
       </c>
       <c r="C42" s="51" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D42" s="52">
         <v>0.64583333333333337</v>
@@ -14956,21 +14974,13 @@
       <c r="A47" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="55" t="s">
-        <v>317</v>
-      </c>
-      <c r="C47" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="D47" s="52">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E47" s="52">
-        <v>0.4236111111111111</v>
-      </c>
+      <c r="B47" s="55"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
       <c r="F47" s="52">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>0</v>
       </c>
       <c r="H47" s="49" t="s">
         <v>286</v>
@@ -14981,73 +14991,49 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="59"/>
-      <c r="B48" s="55" t="s">
-        <v>318</v>
-      </c>
-      <c r="C48" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="D48" s="52">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="E48" s="52">
-        <v>0.45833333333333331</v>
-      </c>
+      <c r="B48" s="55"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
       <c r="F48" s="52">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
       <c r="H48" s="53" t="s">
         <v>288</v>
       </c>
       <c r="I48" s="52">
         <f t="shared" ref="I48" si="16">SUMIFS(F47:F61, C47:C61,H48)</f>
-        <v>0.22916666666666674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="59"/>
-      <c r="B49" s="55" t="s">
-        <v>319</v>
-      </c>
-      <c r="C49" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="D49" s="52">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E49" s="52">
-        <v>0.47222222222222227</v>
-      </c>
+      <c r="B49" s="55"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
       <c r="F49" s="52">
         <f t="shared" si="0"/>
-        <v>1.3888888888888951E-2</v>
+        <v>0</v>
       </c>
       <c r="H49" s="53" t="s">
         <v>285</v>
       </c>
       <c r="I49" s="52">
         <f t="shared" ref="I49" si="17">SUMIFS(F47:F61, C47:C61,H49)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="59"/>
-      <c r="B50" s="55" t="s">
-        <v>318</v>
-      </c>
-      <c r="C50" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="D50" s="52">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E50" s="52">
-        <v>0.52083333333333337</v>
-      </c>
+      <c r="B50" s="55"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
       <c r="F50" s="52">
         <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
+        <v>0</v>
       </c>
       <c r="H50" s="53" t="s">
         <v>290</v>
@@ -15059,21 +15045,13 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="59"/>
-      <c r="B51" s="55" t="s">
-        <v>301</v>
-      </c>
-      <c r="C51" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="D51" s="52">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E51" s="52">
-        <v>0.54166666666666663</v>
-      </c>
+      <c r="B51" s="55"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
       <c r="F51" s="52">
         <f t="shared" si="0"/>
-        <v>2.0833333333333259E-2</v>
+        <v>0</v>
       </c>
       <c r="H51" s="53" t="s">
         <v>293</v>
@@ -15085,21 +15063,13 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="59"/>
-      <c r="B52" s="55" t="s">
-        <v>294</v>
-      </c>
-      <c r="C52" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="D52" s="52">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="E52" s="52">
-        <v>0.47916666666666669</v>
-      </c>
+      <c r="B52" s="55"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
       <c r="F52" s="52">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>0</v>
       </c>
       <c r="H52" s="53" t="s">
         <v>296</v>
@@ -15111,73 +15081,49 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="59"/>
-      <c r="B53" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="C53" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="D53" s="52">
-        <v>0.65625</v>
-      </c>
-      <c r="E53" s="52">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="B53" s="55"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
       <c r="F53" s="52">
         <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>0</v>
       </c>
       <c r="H53" s="53" t="s">
         <v>295</v>
       </c>
       <c r="I53" s="52">
         <f t="shared" ref="I53" si="21">SUMIFS(F47:F61, C47:C61,H53)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="59"/>
-      <c r="B54" s="55" t="s">
-        <v>320</v>
-      </c>
-      <c r="C54" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="D54" s="52">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E54" s="52">
-        <v>0.75</v>
-      </c>
+      <c r="B54" s="55"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
       <c r="F54" s="52">
         <f t="shared" si="0"/>
-        <v>8.333333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="H54" s="48" t="s">
         <v>300</v>
       </c>
       <c r="I54" s="49">
         <f t="shared" ref="I54" si="22">SUM(I48:I53)</f>
-        <v>0.34027777777777773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="59"/>
-      <c r="B55" s="55" t="s">
-        <v>321</v>
-      </c>
-      <c r="C55" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="D55" s="52">
-        <v>0.75</v>
-      </c>
-      <c r="E55" s="52">
-        <v>0.875</v>
-      </c>
+      <c r="B55" s="55"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
       <c r="F55" s="52">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I55" s="54"/>
     </row>
@@ -15253,7 +15199,7 @@
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C62" s="51" t="s">
         <v>285</v>
@@ -15303,7 +15249,7 @@
     <row r="64" spans="1:9">
       <c r="A64" s="57"/>
       <c r="B64" s="51" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C64" s="51" t="s">
         <v>288</v>
@@ -15323,7 +15269,7 @@
       </c>
       <c r="I64" s="52">
         <f t="shared" ref="I64" si="24">SUMIFS(F62:F76, C62:C76,H64)</f>
-        <v>7.2916666666666755E-2</v>
+        <v>1.0416666666666753E-2</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -15349,13 +15295,13 @@
       </c>
       <c r="I65" s="52">
         <f t="shared" ref="I65" si="25">SUMIFS(F62:F76, C62:C76,H65)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="57"/>
       <c r="B66" s="51" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C66" s="51" t="s">
         <v>288</v>
@@ -15436,7 +15382,7 @@
         <v>315</v>
       </c>
       <c r="C69" s="51" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D69" s="52">
         <v>0.64583333333333337</v>
@@ -15459,7 +15405,7 @@
     <row r="70" spans="1:9">
       <c r="A70" s="57"/>
       <c r="B70" s="51" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C70" s="51" t="s">
         <v>288</v>
@@ -15556,7 +15502,7 @@
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C77" s="51" t="s">
         <v>288</v>
@@ -15581,7 +15527,7 @@
     <row r="78" spans="1:9">
       <c r="A78" s="57"/>
       <c r="B78" s="51" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C78" s="51" t="s">
         <v>285</v>
@@ -15607,7 +15553,7 @@
     <row r="79" spans="1:9">
       <c r="A79" s="57"/>
       <c r="B79" s="51" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C79" s="51" t="s">
         <v>288</v>
@@ -15633,7 +15579,7 @@
     <row r="80" spans="1:9">
       <c r="A80" s="57"/>
       <c r="B80" s="51" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C80" s="51" t="s">
         <v>285</v>
@@ -15737,7 +15683,7 @@
     <row r="84" spans="1:9">
       <c r="A84" s="57"/>
       <c r="B84" s="51" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C84" s="51" t="s">
         <v>288</v>
@@ -15763,7 +15709,7 @@
     <row r="85" spans="1:9">
       <c r="A85" s="57"/>
       <c r="B85" s="51" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C85" s="51" t="s">
         <v>288</v>
@@ -15897,7 +15843,7 @@
       </c>
       <c r="I93" s="52">
         <f>SUMIFS(F92:F106, C92:C106,H93)</f>
-        <v>0.19097222222222221</v>
+        <v>0.12847222222222221</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -15949,7 +15895,7 @@
       </c>
       <c r="I95" s="52">
         <f>SUMIFS(F92:F106, C92:C106,H95)</f>
-        <v>6.2500000000000056E-2</v>
+        <v>0.12500000000000006</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -16062,7 +16008,7 @@
         <v>330</v>
       </c>
       <c r="C100" s="51" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D100" s="52">
         <v>0.64583333333333337</v>
@@ -16197,7 +16143,7 @@
       </c>
       <c r="I108" s="52">
         <f t="shared" ref="I108" si="40">SUMIFS(F107:F121, C107:C121,H108)</f>
-        <v>0.2104166666666667</v>
+        <v>0.1479166666666667</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -16249,7 +16195,7 @@
       </c>
       <c r="I110" s="52">
         <f t="shared" ref="I110" si="42">SUMIFS(F107:F121, C107:C121,H110)</f>
-        <v>3.125E-2</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -16359,7 +16305,7 @@
     <row r="115" spans="1:9">
       <c r="A115" s="59"/>
       <c r="B115" s="55" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C115" s="51" t="s">
         <v>288</v>
@@ -16402,7 +16348,7 @@
         <v>338</v>
       </c>
       <c r="C117" s="51" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D117" s="52">
         <v>0.64583333333333337</v>
@@ -16464,7 +16410,7 @@
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C122" s="51" t="s">
         <v>288</v>
@@ -16489,7 +16435,7 @@
     <row r="123" spans="1:9">
       <c r="A123" s="57"/>
       <c r="B123" s="51" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C123" s="51" t="s">
         <v>285</v>
@@ -16515,7 +16461,7 @@
     <row r="124" spans="1:9">
       <c r="A124" s="57"/>
       <c r="B124" s="51" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C124" s="51" t="s">
         <v>288</v>
@@ -16541,7 +16487,7 @@
     <row r="125" spans="1:9">
       <c r="A125" s="57"/>
       <c r="B125" s="51" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C125" s="51" t="s">
         <v>285</v>
@@ -16645,7 +16591,7 @@
     <row r="129" spans="1:9">
       <c r="A129" s="57"/>
       <c r="B129" s="51" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C129" s="51" t="s">
         <v>288</v>
@@ -16671,7 +16617,7 @@
     <row r="130" spans="1:9">
       <c r="A130" s="57"/>
       <c r="B130" s="51" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C130" s="51" t="s">
         <v>288</v>
@@ -16760,20 +16706,20 @@
         <v>276</v>
       </c>
       <c r="B137" s="55" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="C137" s="51" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D137" s="52">
-        <v>0.41666666666666669</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="E137" s="52">
-        <v>0.4236111111111111</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="F137" s="52">
         <f t="shared" si="54"/>
-        <v>6.9444444444444198E-3</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H137" s="49" t="s">
         <v>286</v>
@@ -16785,33 +16731,33 @@
     <row r="138" spans="1:9">
       <c r="A138" s="59"/>
       <c r="B138" s="55" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="C138" s="51" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D138" s="52">
-        <v>0.42708333333333331</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="E138" s="52">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="F138" s="52">
         <f t="shared" si="54"/>
-        <v>3.125E-2</v>
+        <v>7.2916666666666685E-2</v>
       </c>
       <c r="H138" s="53" t="s">
         <v>288</v>
       </c>
       <c r="I138" s="52">
         <f t="shared" ref="I138" si="55">SUMIFS(F137:F151, C137:C151,H138)</f>
-        <v>0.22916666666666674</v>
+        <v>0.22916666666666663</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="59"/>
       <c r="B139" s="55" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="C139" s="51" t="s">
         <v>288</v>
@@ -16820,44 +16766,44 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E139" s="52">
-        <v>0.47222222222222227</v>
+        <v>0.53125</v>
       </c>
       <c r="F139" s="52">
         <f t="shared" si="54"/>
-        <v>1.3888888888888951E-2</v>
+        <v>7.2916666666666685E-2</v>
       </c>
       <c r="H139" s="53" t="s">
         <v>285</v>
       </c>
       <c r="I139" s="52">
         <f t="shared" ref="I139" si="56">SUMIFS(F137:F151, C137:C151,H139)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="59"/>
       <c r="B140" s="55" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="C140" s="51" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D140" s="52">
-        <v>0.47916666666666669</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="E140" s="52">
-        <v>0.52083333333333337</v>
+        <v>0.59375</v>
       </c>
       <c r="F140" s="52">
         <f t="shared" si="54"/>
-        <v>4.1666666666666685E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H140" s="53" t="s">
         <v>290</v>
       </c>
       <c r="I140" s="52">
         <f t="shared" ref="I140" si="57">SUMIFS(F137:F151, C137:C151,H140)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -16869,14 +16815,14 @@
         <v>295</v>
       </c>
       <c r="D141" s="52">
-        <v>0.52083333333333337</v>
+        <v>0.53125</v>
       </c>
       <c r="E141" s="52">
-        <v>0.54166666666666663</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="F141" s="52">
         <f t="shared" si="54"/>
-        <v>2.0833333333333259E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H141" s="53" t="s">
         <v>293</v>
@@ -16895,21 +16841,21 @@
         <v>295</v>
       </c>
       <c r="D142" s="52">
-        <v>0.47222222222222227</v>
+        <v>0.4375</v>
       </c>
       <c r="E142" s="52">
-        <v>0.47916666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F142" s="52">
         <f t="shared" si="54"/>
-        <v>6.9444444444444198E-3</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H142" s="53" t="s">
         <v>296</v>
       </c>
       <c r="I142" s="52">
         <f t="shared" ref="I142" si="59">SUMIFS(F137:F151, C137:C151,H142)</f>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -16921,78 +16867,86 @@
         <v>295</v>
       </c>
       <c r="D143" s="52">
-        <v>0.65625</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="E143" s="52">
-        <v>0.66666666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F143" s="52">
         <f t="shared" si="54"/>
-        <v>1.041666666666663E-2</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H143" s="53" t="s">
         <v>295</v>
       </c>
       <c r="I143" s="52">
         <f t="shared" ref="I143" si="60">SUMIFS(F137:F151, C137:C151,H143)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>6.9444444444444475E-2</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="59"/>
       <c r="B144" s="55" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C144" s="51" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D144" s="52">
-        <v>0.66666666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E144" s="52">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F144" s="52">
         <f t="shared" si="54"/>
-        <v>8.333333333333337E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H144" s="48" t="s">
         <v>300</v>
       </c>
       <c r="I144" s="49">
         <f t="shared" ref="I144" si="61">SUM(I138:I143)</f>
-        <v>0.34027777777777773</v>
+        <v>0.3923611111111111</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="59"/>
       <c r="B145" s="55" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="C145" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D145" s="52">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E145" s="52">
         <v>0.75</v>
-      </c>
-      <c r="E145" s="52">
-        <v>0.875</v>
       </c>
       <c r="F145" s="52">
         <f t="shared" si="54"/>
-        <v>0.125</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="I145" s="54"/>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="59"/>
-      <c r="B146" s="55"/>
-      <c r="C146" s="51"/>
-      <c r="D146" s="52"/>
-      <c r="E146" s="52"/>
+      <c r="B146" s="55" t="s">
+        <v>344</v>
+      </c>
+      <c r="C146" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="D146" s="52">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="E146" s="52">
+        <v>0.61805555555555558</v>
+      </c>
       <c r="F146" s="52">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="I146" s="54"/>
     </row>
@@ -17053,10 +17007,10 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="60" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B152" s="51" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C152" s="51" t="s">
         <v>288</v>
@@ -17081,7 +17035,7 @@
     <row r="153" spans="1:9">
       <c r="A153" s="57"/>
       <c r="B153" s="51" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C153" s="51" t="s">
         <v>285</v>
@@ -17107,7 +17061,7 @@
     <row r="154" spans="1:9">
       <c r="A154" s="57"/>
       <c r="B154" s="51" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C154" s="51" t="s">
         <v>288</v>
@@ -17133,7 +17087,7 @@
     <row r="155" spans="1:9">
       <c r="A155" s="57"/>
       <c r="B155" s="51" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C155" s="51" t="s">
         <v>285</v>
@@ -17237,7 +17191,7 @@
     <row r="159" spans="1:9">
       <c r="A159" s="57"/>
       <c r="B159" s="51" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C159" s="51" t="s">
         <v>288</v>
@@ -17263,7 +17217,7 @@
     <row r="160" spans="1:9">
       <c r="A160" s="57"/>
       <c r="B160" s="51" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C160" s="51" t="s">
         <v>288</v>
@@ -17349,17 +17303,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB2FB392-8CC6-46BC-9F82-05B9B65F6A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFBF3283-7E4E-450D-B1B8-0F7D64B8C9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="355">
   <si>
     <t>Column1</t>
   </si>
@@ -1464,58 +1464,85 @@
     <t xml:space="preserve">Worked on dashboard </t>
   </si>
   <si>
+    <t>Completed estimations for TAC and Interviewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed estimations for Management and Admin		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edited employee data model	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worked on dashboard Cards </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faced Publishing issue and solving </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting with rafi	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular Sessions	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edited on dashboard Cards CSS	</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Refined changes in admin Location and fixed Icons with buttons</t>
+  </si>
+  <si>
+    <t>Back button,paading value assign for location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploring on Buttons and container,padding, rem ,px  - HTML </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client Meeting with Rafi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular session - By Saraswathi </t>
+  </si>
+  <si>
+    <t>Checking Mails</t>
+  </si>
+  <si>
+    <t>Working on HTML layout for view responses</t>
+  </si>
+  <si>
+    <t>Exploring on Web API</t>
+  </si>
+  <si>
+    <t>Correction on Html layouts in View response page.</t>
+  </si>
+  <si>
+    <t>Rafi's information on Timesheet Standards</t>
+  </si>
+  <si>
+    <t>Correction on Html layouts in upcoming drives page.</t>
+  </si>
+  <si>
+    <t>Customer Meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break </t>
+  </si>
+  <si>
+    <t>Session on Angular with Sarawathi</t>
+  </si>
+  <si>
     <t>Team Meeting</t>
   </si>
   <si>
     <t>Soft Skill</t>
   </si>
   <si>
-    <t>Customer Meeting</t>
-  </si>
-  <si>
     <t>Learned Angular &lt;Topics&gt;</t>
   </si>
   <si>
     <t>Working on HTML layout</t>
-  </si>
-  <si>
-    <t>Refined changes in admin Location and fixed Icons with buttons</t>
-  </si>
-  <si>
-    <t>Back button,paading value assign for location.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploring on Buttons and container,padding, rem ,px  - HTML </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client Meeting with Rafi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angular session - By Saraswathi </t>
-  </si>
-  <si>
-    <t>Checking Mails</t>
-  </si>
-  <si>
-    <t>Working on HTML layout for view responses</t>
-  </si>
-  <si>
-    <t>Exploring on Web API</t>
-  </si>
-  <si>
-    <t>Correction on Html layouts in View response page.</t>
-  </si>
-  <si>
-    <t>Rafi's information on Timesheet Standards</t>
-  </si>
-  <si>
-    <t>Correction on Html layouts in upcoming drives page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Break </t>
-  </si>
-  <si>
-    <t>Session on Angular with Sarawathi</t>
   </si>
   <si>
     <t>Mail checking</t>
@@ -13987,8 +14014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952F3578-7816-40A6-B6F1-14F946DAF008}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15508,14 +15535,14 @@
         <v>288</v>
       </c>
       <c r="D77" s="52">
-        <v>0.41666666666666669</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="E77" s="52">
-        <v>0.4236111111111111</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="F77" s="52">
         <f t="shared" si="27"/>
-        <v>6.9444444444444198E-3</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H77" s="49" t="s">
         <v>286</v>
@@ -15530,24 +15557,24 @@
         <v>322</v>
       </c>
       <c r="C78" s="51" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D78" s="52">
-        <v>0.42708333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E78" s="52">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="F78" s="52">
         <f t="shared" si="27"/>
-        <v>3.125E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H78" s="53" t="s">
         <v>288</v>
       </c>
       <c r="I78" s="52">
         <f t="shared" ref="I78" si="32">SUMIFS(F77:F91, C77:C91,H78)</f>
-        <v>0.22916666666666674</v>
+        <v>0.19791666666666663</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -15562,63 +15589,63 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E79" s="52">
-        <v>0.47222222222222227</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F79" s="52">
         <f t="shared" si="27"/>
-        <v>1.3888888888888951E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H79" s="53" t="s">
         <v>285</v>
       </c>
       <c r="I79" s="52">
         <f t="shared" ref="I79" si="33">SUMIFS(F77:F91, C77:C91,H79)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="57"/>
       <c r="B80" s="51" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C80" s="51" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D80" s="52">
         <v>0.47916666666666669</v>
       </c>
       <c r="E80" s="52">
-        <v>0.52083333333333337</v>
+        <v>0.53125</v>
       </c>
       <c r="F80" s="52">
         <f t="shared" si="27"/>
-        <v>4.1666666666666685E-2</v>
+        <v>5.2083333333333315E-2</v>
       </c>
       <c r="H80" s="53" t="s">
         <v>290</v>
       </c>
       <c r="I80" s="52">
         <f t="shared" ref="I80" si="34">SUMIFS(F77:F91, C77:C91,H80)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="57"/>
       <c r="B81" s="51" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="C81" s="51" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D81" s="52">
-        <v>0.52083333333333337</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="E81" s="52">
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F81" s="52">
         <f t="shared" si="27"/>
-        <v>2.0833333333333259E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H81" s="53" t="s">
         <v>293</v>
@@ -15631,122 +15658,138 @@
     <row r="82" spans="1:9">
       <c r="A82" s="57"/>
       <c r="B82" s="51" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="C82" s="51" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D82" s="52">
-        <v>0.47222222222222227</v>
+        <v>0.59375</v>
       </c>
       <c r="E82" s="52">
-        <v>0.47916666666666669</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="F82" s="52">
         <f t="shared" si="27"/>
-        <v>6.9444444444444198E-3</v>
+        <v>2.430555555555558E-2</v>
       </c>
       <c r="H82" s="53" t="s">
         <v>296</v>
       </c>
       <c r="I82" s="52">
         <f t="shared" ref="I82" si="36">SUMIFS(F77:F91, C77:C91,H82)</f>
-        <v>0</v>
+        <v>2.430555555555558E-2</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="57"/>
       <c r="B83" s="51" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="C83" s="51" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D83" s="52">
-        <v>0.65625</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E83" s="52">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F83" s="52">
         <f t="shared" si="27"/>
-        <v>1.041666666666663E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H83" s="53" t="s">
         <v>295</v>
       </c>
       <c r="I83" s="52">
         <f t="shared" ref="I83" si="37">SUMIFS(F77:F91, C77:C91,H83)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>6.9444444444444475E-2</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="57"/>
       <c r="B84" s="51" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C84" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D84" s="52">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E84" s="52">
         <v>0.75</v>
       </c>
       <c r="F84" s="52">
         <f t="shared" si="27"/>
-        <v>8.333333333333337E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H84" s="48" t="s">
         <v>300</v>
       </c>
       <c r="I84" s="49">
         <f t="shared" ref="I84" si="38">SUM(I78:I83)</f>
-        <v>0.34027777777777773</v>
+        <v>0.38541666666666669</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="57"/>
       <c r="B85" s="51" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="C85" s="51" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D85" s="52">
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
       <c r="E85" s="52">
-        <v>0.875</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F85" s="52">
         <f t="shared" si="27"/>
-        <v>0.125</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="57"/>
-      <c r="B86" s="51"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="52"/>
-      <c r="E86" s="52"/>
+      <c r="B86" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="C86" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D86" s="52">
+        <v>0.53125</v>
+      </c>
+      <c r="E86" s="52">
+        <v>0.55208333333333337</v>
+      </c>
       <c r="F86" s="52">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="57"/>
-      <c r="B87" s="51"/>
-      <c r="C87" s="51"/>
-      <c r="D87" s="52"/>
-      <c r="E87" s="52"/>
+      <c r="B87" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="C87" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D87" s="52">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="E87" s="52">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="F87" s="52">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>2.777777777777779E-2</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -15823,7 +15866,7 @@
     <row r="93" spans="1:9">
       <c r="A93" s="57"/>
       <c r="B93" s="51" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C93" s="51" t="s">
         <v>288</v>
@@ -15849,7 +15892,7 @@
     <row r="94" spans="1:9">
       <c r="A94" s="57"/>
       <c r="B94" s="56" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C94" s="51" t="s">
         <v>288</v>
@@ -15901,7 +15944,7 @@
     <row r="96" spans="1:9">
       <c r="A96" s="57"/>
       <c r="B96" s="51" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C96" s="51" t="s">
         <v>290</v>
@@ -15979,7 +16022,7 @@
     <row r="99" spans="1:9">
       <c r="A99" s="57"/>
       <c r="B99" s="51" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C99" s="51" t="s">
         <v>296</v>
@@ -16005,7 +16048,7 @@
     <row r="100" spans="1:9">
       <c r="A100" s="57"/>
       <c r="B100" s="51" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C100" s="51" t="s">
         <v>290</v>
@@ -16098,7 +16141,7 @@
         <v>30</v>
       </c>
       <c r="B107" s="55" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C107" s="51" t="s">
         <v>288</v>
@@ -16123,7 +16166,7 @@
     <row r="108" spans="1:9">
       <c r="A108" s="59"/>
       <c r="B108" s="55" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C108" s="51" t="s">
         <v>288</v>
@@ -16149,7 +16192,7 @@
     <row r="109" spans="1:9">
       <c r="A109" s="59"/>
       <c r="B109" s="55" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C109" s="51" t="s">
         <v>290</v>
@@ -16201,7 +16244,7 @@
     <row r="111" spans="1:9">
       <c r="A111" s="59"/>
       <c r="B111" s="55" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C111" s="51" t="s">
         <v>288</v>
@@ -16227,7 +16270,7 @@
     <row r="112" spans="1:9">
       <c r="A112" s="59"/>
       <c r="B112" s="55" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C112" s="51" t="s">
         <v>288</v>
@@ -16253,7 +16296,7 @@
     <row r="113" spans="1:9">
       <c r="A113" s="59"/>
       <c r="B113" s="55" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C113" s="51" t="s">
         <v>288</v>
@@ -16305,7 +16348,7 @@
     <row r="115" spans="1:9">
       <c r="A115" s="59"/>
       <c r="B115" s="55" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="C115" s="51" t="s">
         <v>288</v>
@@ -16325,7 +16368,7 @@
     <row r="116" spans="1:9">
       <c r="A116" s="59"/>
       <c r="B116" s="55" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C116" s="51" t="s">
         <v>285</v>
@@ -16345,7 +16388,7 @@
     <row r="117" spans="1:9">
       <c r="A117" s="59"/>
       <c r="B117" s="55" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C117" s="51" t="s">
         <v>290</v>
@@ -16410,7 +16453,7 @@
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="C122" s="51" t="s">
         <v>288</v>
@@ -16435,7 +16478,7 @@
     <row r="123" spans="1:9">
       <c r="A123" s="57"/>
       <c r="B123" s="51" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="C123" s="51" t="s">
         <v>285</v>
@@ -16461,7 +16504,7 @@
     <row r="124" spans="1:9">
       <c r="A124" s="57"/>
       <c r="B124" s="51" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="C124" s="51" t="s">
         <v>288</v>
@@ -16487,7 +16530,7 @@
     <row r="125" spans="1:9">
       <c r="A125" s="57"/>
       <c r="B125" s="51" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="C125" s="51" t="s">
         <v>285</v>
@@ -16591,7 +16634,7 @@
     <row r="129" spans="1:9">
       <c r="A129" s="57"/>
       <c r="B129" s="51" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="C129" s="51" t="s">
         <v>288</v>
@@ -16617,7 +16660,7 @@
     <row r="130" spans="1:9">
       <c r="A130" s="57"/>
       <c r="B130" s="51" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="C130" s="51" t="s">
         <v>288</v>
@@ -16706,7 +16749,7 @@
         <v>276</v>
       </c>
       <c r="B137" s="55" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="C137" s="51" t="s">
         <v>285</v>
@@ -16731,7 +16774,7 @@
     <row r="138" spans="1:9">
       <c r="A138" s="59"/>
       <c r="B138" s="55" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="C138" s="51" t="s">
         <v>288</v>
@@ -16757,7 +16800,7 @@
     <row r="139" spans="1:9">
       <c r="A139" s="59"/>
       <c r="B139" s="55" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="C139" s="51" t="s">
         <v>288</v>
@@ -16783,7 +16826,7 @@
     <row r="140" spans="1:9">
       <c r="A140" s="59"/>
       <c r="B140" s="55" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="C140" s="51" t="s">
         <v>288</v>
@@ -16887,7 +16930,7 @@
     <row r="144" spans="1:9">
       <c r="A144" s="59"/>
       <c r="B144" s="55" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C144" s="51" t="s">
         <v>290</v>
@@ -16913,7 +16956,7 @@
     <row r="145" spans="1:9">
       <c r="A145" s="59"/>
       <c r="B145" s="55" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="C145" s="51" t="s">
         <v>288</v>
@@ -16933,7 +16976,7 @@
     <row r="146" spans="1:9">
       <c r="A146" s="59"/>
       <c r="B146" s="55" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="C146" s="51" t="s">
         <v>296</v>
@@ -17007,10 +17050,10 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="60" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="B152" s="51" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="C152" s="51" t="s">
         <v>288</v>
@@ -17035,7 +17078,7 @@
     <row r="153" spans="1:9">
       <c r="A153" s="57"/>
       <c r="B153" s="51" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="C153" s="51" t="s">
         <v>285</v>
@@ -17061,7 +17104,7 @@
     <row r="154" spans="1:9">
       <c r="A154" s="57"/>
       <c r="B154" s="51" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="C154" s="51" t="s">
         <v>288</v>
@@ -17087,7 +17130,7 @@
     <row r="155" spans="1:9">
       <c r="A155" s="57"/>
       <c r="B155" s="51" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="C155" s="51" t="s">
         <v>285</v>
@@ -17191,7 +17234,7 @@
     <row r="159" spans="1:9">
       <c r="A159" s="57"/>
       <c r="B159" s="51" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="C159" s="51" t="s">
         <v>288</v>
@@ -17217,7 +17260,7 @@
     <row r="160" spans="1:9">
       <c r="A160" s="57"/>
       <c r="B160" s="51" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="C160" s="51" t="s">
         <v>288</v>
@@ -17303,17 +17346,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFBF3283-7E4E-450D-B1B8-0F7D64B8C9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B540B46C-49C7-4B51-82EA-F9953E3DA232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="361">
   <si>
     <t>Column1</t>
   </si>
@@ -1533,6 +1533,45 @@
     <t>Session on Angular with Sarawathi</t>
   </si>
   <si>
+    <t>Edited Data model</t>
+  </si>
+  <si>
+    <t>Review Meeting with Rafi</t>
+  </si>
+  <si>
+    <t>Angular Sessions</t>
+  </si>
+  <si>
+    <t>Refining Estimation Documents</t>
+  </si>
+  <si>
+    <t>General Team Meating</t>
+  </si>
+  <si>
+    <t>Analysed Existing Code For Web API</t>
+  </si>
+  <si>
+    <t>Mail checking</t>
+  </si>
+  <si>
+    <t>Merging other pages with layout</t>
+  </si>
+  <si>
+    <t>Added and edited admin layout</t>
+  </si>
+  <si>
+    <t>Tried to publish layout page</t>
+  </si>
+  <si>
+    <t>Worked on home page</t>
+  </si>
+  <si>
+    <t>Review with Rafi</t>
+  </si>
+  <si>
+    <t>Resource Name 11</t>
+  </si>
+  <si>
     <t>Team Meeting</t>
   </si>
   <si>
@@ -1543,27 +1582,6 @@
   </si>
   <si>
     <t>Working on HTML layout</t>
-  </si>
-  <si>
-    <t>Mail checking</t>
-  </si>
-  <si>
-    <t>Merging other pages with layout</t>
-  </si>
-  <si>
-    <t>Added and edited admin layout</t>
-  </si>
-  <si>
-    <t>Tried to publish layout page</t>
-  </si>
-  <si>
-    <t>Worked on home page</t>
-  </si>
-  <si>
-    <t>Review with Rafi</t>
-  </si>
-  <si>
-    <t>Resource Name 11</t>
   </si>
 </sst>
 </file>
@@ -1662,7 +1680,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1879,11 +1897,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2037,6 +2070,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -14014,8 +14050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952F3578-7816-40A6-B6F1-14F946DAF008}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14719,7 +14755,7 @@
       </c>
       <c r="I33" s="52">
         <f t="shared" ref="I33" si="9">SUMIFS(F32:F46, C32:C46,H33)</f>
-        <v>0.19791666666666663</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -14797,7 +14833,7 @@
       </c>
       <c r="I36" s="52">
         <f t="shared" ref="I36" si="12">SUMIFS(F32:F46, C32:C46,H36)</f>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -14962,7 +14998,7 @@
         <v>316</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D44" s="52">
         <v>0.73958333333333337</v>
@@ -15826,7 +15862,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="57"/>
+      <c r="A91" s="61"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -15837,7 +15873,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="57" t="s">
+      <c r="A92" s="60" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -15886,7 +15922,7 @@
       </c>
       <c r="I93" s="52">
         <f>SUMIFS(F92:F106, C92:C106,H93)</f>
-        <v>0.12847222222222221</v>
+        <v>0.11805555555555558</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -15964,7 +16000,7 @@
       </c>
       <c r="I96" s="52">
         <f>SUMIFS(F92:F106, C92:C106,H96)</f>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -16091,7 +16127,7 @@
         <v>316</v>
       </c>
       <c r="C102" s="51" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D102" s="52">
         <v>0.73958333333333337</v>
@@ -16453,20 +16489,20 @@
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="C122" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D122" s="52">
-        <v>0.41666666666666669</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="E122" s="52">
-        <v>0.4236111111111111</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="F122" s="52">
         <f t="shared" si="27"/>
-        <v>6.9444444444444198E-3</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H122" s="49" t="s">
         <v>286</v>
@@ -16478,85 +16514,85 @@
     <row r="123" spans="1:9">
       <c r="A123" s="57"/>
       <c r="B123" s="51" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="C123" s="51" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D123" s="52">
-        <v>0.42708333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E123" s="52">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="F123" s="52">
         <f t="shared" si="27"/>
-        <v>3.125E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H123" s="53" t="s">
         <v>288</v>
       </c>
       <c r="I123" s="52">
         <f t="shared" ref="I123" si="47">SUMIFS(F122:F136, C122:C136,H123)</f>
-        <v>0.22916666666666674</v>
+        <v>0.20833333333333337</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="57"/>
       <c r="B124" s="51" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="C124" s="51" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D124" s="52">
+        <v>0.4375</v>
+      </c>
+      <c r="E124" s="52">
         <v>0.45833333333333331</v>
-      </c>
-      <c r="E124" s="52">
-        <v>0.47222222222222227</v>
       </c>
       <c r="F124" s="52">
         <f t="shared" si="27"/>
-        <v>1.3888888888888951E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H124" s="53" t="s">
         <v>285</v>
       </c>
       <c r="I124" s="52">
         <f t="shared" ref="I124" si="48">SUMIFS(F122:F136, C122:C136,H124)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="57"/>
       <c r="B125" s="51" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C125" s="51" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D125" s="52">
-        <v>0.47916666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E125" s="52">
         <v>0.52083333333333337</v>
       </c>
       <c r="F125" s="52">
         <f t="shared" si="27"/>
-        <v>4.1666666666666685E-2</v>
+        <v>6.2500000000000056E-2</v>
       </c>
       <c r="H125" s="53" t="s">
         <v>290</v>
       </c>
       <c r="I125" s="52">
         <f t="shared" ref="I125" si="49">SUMIFS(F122:F136, C122:C136,H125)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="57"/>
       <c r="B126" s="51" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="C126" s="51" t="s">
         <v>295</v>
@@ -16576,85 +16612,85 @@
       </c>
       <c r="I126" s="52">
         <f t="shared" ref="I126" si="50">SUMIFS(F122:F136, C122:C136,H126)</f>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="57"/>
-      <c r="B127" s="51" t="s">
-        <v>294</v>
+      <c r="B127" s="56" t="s">
+        <v>345</v>
       </c>
       <c r="C127" s="51" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D127" s="52">
-        <v>0.47222222222222227</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="E127" s="52">
-        <v>0.47916666666666669</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="F127" s="52">
         <f t="shared" si="27"/>
-        <v>6.9444444444444198E-3</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H127" s="53" t="s">
         <v>296</v>
       </c>
       <c r="I127" s="52">
         <f t="shared" ref="I127" si="51">SUMIFS(F122:F136, C122:C136,H127)</f>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="57"/>
       <c r="B128" s="51" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="C128" s="51" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D128" s="52">
-        <v>0.65625</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E128" s="52">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F128" s="52">
         <f t="shared" si="27"/>
-        <v>1.041666666666663E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H128" s="53" t="s">
         <v>295</v>
       </c>
       <c r="I128" s="52">
         <f t="shared" ref="I128" si="52">SUMIFS(F122:F136, C122:C136,H128)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>5.2083333333333204E-2</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="57"/>
-      <c r="B129" s="51" t="s">
-        <v>346</v>
+      <c r="B129" s="56" t="s">
+        <v>304</v>
       </c>
       <c r="C129" s="51" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D129" s="52">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E129" s="52">
-        <v>0.75</v>
+        <v>0.71875</v>
       </c>
       <c r="F129" s="52">
         <f t="shared" si="27"/>
-        <v>8.333333333333337E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H129" s="48" t="s">
         <v>300</v>
       </c>
       <c r="I129" s="49">
         <f t="shared" ref="I129" si="53">SUM(I123:I128)</f>
-        <v>0.34027777777777773</v>
+        <v>0.35416666666666657</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -16666,38 +16702,54 @@
         <v>288</v>
       </c>
       <c r="D130" s="52">
-        <v>0.75</v>
+        <v>0.71875</v>
       </c>
       <c r="E130" s="52">
-        <v>0.875</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="F130" s="52">
         <f t="shared" si="27"/>
-        <v>0.125</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="57"/>
-      <c r="B131" s="51"/>
-      <c r="C131" s="51"/>
-      <c r="D131" s="52"/>
-      <c r="E131" s="52"/>
+      <c r="B131" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="C131" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="D131" s="52">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="E131" s="52">
+        <v>0.75</v>
+      </c>
       <c r="F131" s="52">
         <f t="shared" ref="F131:F194" si="54">E131-D131</f>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="57"/>
-      <c r="B132" s="51"/>
-      <c r="C132" s="51"/>
-      <c r="D132" s="52"/>
-      <c r="E132" s="52"/>
+      <c r="B132" s="51" t="s">
+        <v>349</v>
+      </c>
+      <c r="C132" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D132" s="52">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E132" s="52">
+        <v>0.875</v>
+      </c>
       <c r="F132" s="52">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -16749,7 +16801,7 @@
         <v>276</v>
       </c>
       <c r="B137" s="55" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C137" s="51" t="s">
         <v>285</v>
@@ -16774,7 +16826,7 @@
     <row r="138" spans="1:9">
       <c r="A138" s="59"/>
       <c r="B138" s="55" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C138" s="51" t="s">
         <v>288</v>
@@ -16800,7 +16852,7 @@
     <row r="139" spans="1:9">
       <c r="A139" s="59"/>
       <c r="B139" s="55" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C139" s="51" t="s">
         <v>288</v>
@@ -16826,7 +16878,7 @@
     <row r="140" spans="1:9">
       <c r="A140" s="59"/>
       <c r="B140" s="55" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C140" s="51" t="s">
         <v>288</v>
@@ -16956,7 +17008,7 @@
     <row r="145" spans="1:9">
       <c r="A145" s="59"/>
       <c r="B145" s="55" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C145" s="51" t="s">
         <v>288</v>
@@ -16976,7 +17028,7 @@
     <row r="146" spans="1:9">
       <c r="A146" s="59"/>
       <c r="B146" s="55" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C146" s="51" t="s">
         <v>296</v>
@@ -17050,10 +17102,10 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="60" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B152" s="51" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="C152" s="51" t="s">
         <v>288</v>
@@ -17078,7 +17130,7 @@
     <row r="153" spans="1:9">
       <c r="A153" s="57"/>
       <c r="B153" s="51" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="C153" s="51" t="s">
         <v>285</v>
@@ -17130,7 +17182,7 @@
     <row r="155" spans="1:9">
       <c r="A155" s="57"/>
       <c r="B155" s="51" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="C155" s="51" t="s">
         <v>285</v>
@@ -17234,7 +17286,7 @@
     <row r="159" spans="1:9">
       <c r="A159" s="57"/>
       <c r="B159" s="51" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="C159" s="51" t="s">
         <v>288</v>
@@ -17260,7 +17312,7 @@
     <row r="160" spans="1:9">
       <c r="A160" s="57"/>
       <c r="B160" s="51" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C160" s="51" t="s">
         <v>288</v>
@@ -17346,17 +17398,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vinoth\GIT\TeamProject\Project\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{782BBF83-C70F-46C5-B3BA-8351A3780398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F0DACDE-1101-4477-AE39-82A0B88611A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23263" windowHeight="12463" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="393">
   <si>
     <t>Column1</t>
   </si>
@@ -1580,6 +1580,33 @@
   </si>
   <si>
     <t>Working on HTML layout</t>
+  </si>
+  <si>
+    <t>Worked on Layout(Dashboard Selection)</t>
+  </si>
+  <si>
+    <t>Softskills session on Problem Solving by Savitha</t>
+  </si>
+  <si>
+    <t>Worked on Layout (Delete Pool)</t>
+  </si>
+  <si>
+    <t>Updated MOM(Day 15)</t>
+  </si>
+  <si>
+    <t>Working on Layout( Add Members too Pool)</t>
+  </si>
+  <si>
+    <t>Worked on Layout(Dashboard My Performance)</t>
+  </si>
+  <si>
+    <t>MOM Updation(Day 16),Refined Layout (DashBoard Selection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting with Team </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration onAngular ,Typescript </t>
   </si>
   <si>
     <t>ABSENT</t>
@@ -2130,10 +2157,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2142,7 +2169,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -14064,7 +14091,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -14094,7 +14121,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="57"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="51" t="s">
         <v>289</v>
       </c>
@@ -14123,7 +14150,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="57"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="51" t="s">
         <v>291</v>
       </c>
@@ -14152,7 +14179,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="57"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="51" t="s">
         <v>292</v>
       </c>
@@ -14181,7 +14208,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="57"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="51" t="s">
         <v>294</v>
       </c>
@@ -14210,7 +14237,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="57"/>
+      <c r="A7" s="58"/>
       <c r="B7" t="s">
         <v>297</v>
       </c>
@@ -14239,7 +14266,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="57"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="51" t="s">
         <v>298</v>
       </c>
@@ -14265,7 +14292,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="57"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="51" t="s">
         <v>299</v>
       </c>
@@ -14291,7 +14318,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="57"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="51" t="s">
         <v>301</v>
       </c>
@@ -14311,7 +14338,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="57"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="51" t="s">
         <v>302</v>
       </c>
@@ -14331,7 +14358,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="57"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="51" t="s">
         <v>303</v>
       </c>
@@ -14350,7 +14377,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="57"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="51" t="s">
         <v>304</v>
       </c>
@@ -14369,7 +14396,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="57"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="51" t="s">
         <v>305</v>
       </c>
@@ -14388,7 +14415,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="57"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="51" t="s">
         <v>306</v>
       </c>
@@ -14407,7 +14434,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="57"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="52"/>
@@ -14418,7 +14445,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="58" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51"/>
@@ -14441,7 +14468,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="57"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="52">
@@ -14463,7 +14490,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="57"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="52">
@@ -14485,7 +14512,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="57"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
       <c r="D20" s="52">
@@ -14507,7 +14534,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="57"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="52">
@@ -14529,7 +14556,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="57"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="52">
@@ -14551,7 +14578,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="57"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="51" t="s">
         <v>73</v>
       </c>
@@ -14575,7 +14602,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="57"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52">
@@ -14597,7 +14624,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="57"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52">
@@ -14613,7 +14640,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="57"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -14625,7 +14652,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="57"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -14636,7 +14663,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="57"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -14647,7 +14674,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="57"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -14658,7 +14685,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="57"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -14669,7 +14696,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="57"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -14680,7 +14707,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="58" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -14707,7 +14734,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="57"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="51" t="s">
         <v>307</v>
       </c>
@@ -14733,7 +14760,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="57"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="51" t="s">
         <v>308</v>
       </c>
@@ -14759,7 +14786,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="57"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="51" t="s">
         <v>309</v>
       </c>
@@ -14785,7 +14812,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="57"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="51" t="s">
         <v>310</v>
       </c>
@@ -14811,7 +14838,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="57"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -14837,7 +14864,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="57"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="51" t="s">
         <v>312</v>
       </c>
@@ -14863,7 +14890,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="57"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="51" t="s">
         <v>313</v>
       </c>
@@ -14889,7 +14916,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="57"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="51" t="s">
         <v>314</v>
       </c>
@@ -14909,7 +14936,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="57"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="51" t="s">
         <v>312</v>
       </c>
@@ -14929,7 +14956,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="57"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="51" t="s">
         <v>315</v>
       </c>
@@ -14948,7 +14975,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="57"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="51" t="s">
         <v>309</v>
       </c>
@@ -14967,7 +14994,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="57"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="51" t="s">
         <v>316</v>
       </c>
@@ -14986,7 +15013,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="57"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -15232,7 +15259,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="61" t="s">
+      <c r="A62" s="57" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -15259,7 +15286,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="57"/>
+      <c r="A63" s="58"/>
       <c r="B63" s="51" t="s">
         <v>284</v>
       </c>
@@ -15284,7 +15311,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="57"/>
+      <c r="A64" s="58"/>
       <c r="B64" s="51" t="s">
         <v>318</v>
       </c>
@@ -15310,7 +15337,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="57"/>
+      <c r="A65" s="58"/>
       <c r="B65" s="51" t="s">
         <v>313</v>
       </c>
@@ -15336,7 +15363,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="57"/>
+      <c r="A66" s="58"/>
       <c r="B66" s="51" t="s">
         <v>319</v>
       </c>
@@ -15362,7 +15389,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="57"/>
+      <c r="A67" s="58"/>
       <c r="B67" s="51" t="s">
         <v>302</v>
       </c>
@@ -15388,7 +15415,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="57"/>
+      <c r="A68" s="58"/>
       <c r="B68" s="51" t="s">
         <v>304</v>
       </c>
@@ -15414,7 +15441,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="57"/>
+      <c r="A69" s="58"/>
       <c r="B69" s="51" t="s">
         <v>315</v>
       </c>
@@ -15440,7 +15467,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="57"/>
+      <c r="A70" s="58"/>
       <c r="B70" s="51" t="s">
         <v>320</v>
       </c>
@@ -15460,7 +15487,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="57"/>
+      <c r="A71" s="58"/>
       <c r="B71" s="51" t="s">
         <v>306</v>
       </c>
@@ -15480,7 +15507,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="57"/>
+      <c r="A72" s="58"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -15491,7 +15518,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="57"/>
+      <c r="A73" s="58"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -15502,7 +15529,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="57"/>
+      <c r="A74" s="58"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -15513,7 +15540,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="57"/>
+      <c r="A75" s="58"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -15524,7 +15551,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="57"/>
+      <c r="A76" s="58"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -15535,7 +15562,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="57" t="s">
+      <c r="A77" s="58" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -15562,7 +15589,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="57"/>
+      <c r="A78" s="58"/>
       <c r="B78" s="51" t="s">
         <v>322</v>
       </c>
@@ -15588,7 +15615,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="57"/>
+      <c r="A79" s="58"/>
       <c r="B79" s="51" t="s">
         <v>323</v>
       </c>
@@ -15614,7 +15641,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="57"/>
+      <c r="A80" s="58"/>
       <c r="B80" s="51" t="s">
         <v>324</v>
       </c>
@@ -15640,7 +15667,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="57"/>
+      <c r="A81" s="58"/>
       <c r="B81" s="51" t="s">
         <v>325</v>
       </c>
@@ -15666,7 +15693,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="57"/>
+      <c r="A82" s="58"/>
       <c r="B82" s="51" t="s">
         <v>326</v>
       </c>
@@ -15692,7 +15719,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="57"/>
+      <c r="A83" s="58"/>
       <c r="B83" s="51" t="s">
         <v>327</v>
       </c>
@@ -15718,7 +15745,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="57"/>
+      <c r="A84" s="58"/>
       <c r="B84" s="51" t="s">
         <v>328</v>
       </c>
@@ -15744,7 +15771,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="57"/>
+      <c r="A85" s="58"/>
       <c r="B85" s="51" t="s">
         <v>294</v>
       </c>
@@ -15764,7 +15791,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="57"/>
+      <c r="A86" s="58"/>
       <c r="B86" s="51" t="s">
         <v>329</v>
       </c>
@@ -15784,7 +15811,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="57"/>
+      <c r="A87" s="58"/>
       <c r="B87" s="51" t="s">
         <v>304</v>
       </c>
@@ -15803,7 +15830,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="57"/>
+      <c r="A88" s="58"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -15814,7 +15841,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="57"/>
+      <c r="A89" s="58"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -15825,7 +15852,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="57"/>
+      <c r="A90" s="58"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -15836,7 +15863,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="58"/>
+      <c r="A91" s="61"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -15847,7 +15874,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="61" t="s">
+      <c r="A92" s="57" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -15874,7 +15901,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="57"/>
+      <c r="A93" s="58"/>
       <c r="B93" s="51" t="s">
         <v>330</v>
       </c>
@@ -15900,7 +15927,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="57"/>
+      <c r="A94" s="58"/>
       <c r="B94" s="56" t="s">
         <v>331</v>
       </c>
@@ -15926,7 +15953,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="57"/>
+      <c r="A95" s="58"/>
       <c r="B95" s="51" t="s">
         <v>309</v>
       </c>
@@ -15952,7 +15979,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="57"/>
+      <c r="A96" s="58"/>
       <c r="B96" s="51" t="s">
         <v>332</v>
       </c>
@@ -15978,7 +16005,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="57"/>
+      <c r="A97" s="58"/>
       <c r="B97" s="51" t="s">
         <v>311</v>
       </c>
@@ -16004,7 +16031,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="57"/>
+      <c r="A98" s="58"/>
       <c r="B98" s="51" t="s">
         <v>313</v>
       </c>
@@ -16030,7 +16057,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="57"/>
+      <c r="A99" s="58"/>
       <c r="B99" s="51" t="s">
         <v>333</v>
       </c>
@@ -16056,7 +16083,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="57"/>
+      <c r="A100" s="58"/>
       <c r="B100" s="51" t="s">
         <v>334</v>
       </c>
@@ -16076,7 +16103,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="57"/>
+      <c r="A101" s="58"/>
       <c r="B101" s="51" t="s">
         <v>309</v>
       </c>
@@ -16096,7 +16123,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="57"/>
+      <c r="A102" s="58"/>
       <c r="B102" s="51" t="s">
         <v>316</v>
       </c>
@@ -16115,7 +16142,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="57"/>
+      <c r="A103" s="58"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -16123,7 +16150,7 @@
       <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="57"/>
+      <c r="A104" s="58"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
@@ -16131,7 +16158,7 @@
       <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="57"/>
+      <c r="A105" s="58"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -16459,7 +16486,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="61" t="s">
+      <c r="A122" s="57" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -16486,7 +16513,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="57"/>
+      <c r="A123" s="58"/>
       <c r="B123" s="51" t="s">
         <v>322</v>
       </c>
@@ -16512,7 +16539,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="57"/>
+      <c r="A124" s="58"/>
       <c r="B124" s="51" t="s">
         <v>294</v>
       </c>
@@ -16538,7 +16565,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="57"/>
+      <c r="A125" s="58"/>
       <c r="B125" s="51" t="s">
         <v>344</v>
       </c>
@@ -16564,7 +16591,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="57"/>
+      <c r="A126" s="58"/>
       <c r="B126" s="51" t="s">
         <v>329</v>
       </c>
@@ -16590,7 +16617,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="57"/>
+      <c r="A127" s="58"/>
       <c r="B127" s="56" t="s">
         <v>345</v>
       </c>
@@ -16616,7 +16643,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="57"/>
+      <c r="A128" s="58"/>
       <c r="B128" s="51" t="s">
         <v>346</v>
       </c>
@@ -16642,7 +16669,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="57"/>
+      <c r="A129" s="58"/>
       <c r="B129" s="56" t="s">
         <v>304</v>
       </c>
@@ -16668,7 +16695,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="57"/>
+      <c r="A130" s="58"/>
       <c r="B130" s="56" t="s">
         <v>304</v>
       </c>
@@ -16688,7 +16715,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="57"/>
+      <c r="A131" s="58"/>
       <c r="B131" s="51" t="s">
         <v>347</v>
       </c>
@@ -16708,7 +16735,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="57"/>
+      <c r="A132" s="58"/>
       <c r="B132" s="51" t="s">
         <v>348</v>
       </c>
@@ -16727,7 +16754,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="57"/>
+      <c r="A133" s="58"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -16738,7 +16765,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="57"/>
+      <c r="A134" s="58"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -16749,7 +16776,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="57"/>
+      <c r="A135" s="58"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -17075,7 +17102,7 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="61" t="s">
+      <c r="A152" s="57" t="s">
         <v>355</v>
       </c>
       <c r="B152" s="51" t="s">
@@ -17102,7 +17129,7 @@
       </c>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="57"/>
+      <c r="A153" s="58"/>
       <c r="B153" s="51" t="s">
         <v>357</v>
       </c>
@@ -17128,7 +17155,7 @@
       </c>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="57"/>
+      <c r="A154" s="58"/>
       <c r="B154" s="51" t="s">
         <v>341</v>
       </c>
@@ -17154,7 +17181,7 @@
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="57"/>
+      <c r="A155" s="58"/>
       <c r="B155" s="51" t="s">
         <v>357</v>
       </c>
@@ -17180,7 +17207,7 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="57"/>
+      <c r="A156" s="58"/>
       <c r="B156" s="51" t="s">
         <v>301</v>
       </c>
@@ -17206,7 +17233,7 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="57"/>
+      <c r="A157" s="58"/>
       <c r="B157" s="51" t="s">
         <v>294</v>
       </c>
@@ -17232,7 +17259,7 @@
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="57"/>
+      <c r="A158" s="58"/>
       <c r="B158" s="51" t="s">
         <v>304</v>
       </c>
@@ -17258,7 +17285,7 @@
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="57"/>
+      <c r="A159" s="58"/>
       <c r="B159" s="51" t="s">
         <v>358</v>
       </c>
@@ -17284,7 +17311,7 @@
       </c>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="57"/>
+      <c r="A160" s="58"/>
       <c r="B160" s="51" t="s">
         <v>359</v>
       </c>
@@ -17304,7 +17331,7 @@
       <c r="I160" s="54"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="57"/>
+      <c r="A161" s="58"/>
       <c r="B161" s="51"/>
       <c r="C161" s="51"/>
       <c r="D161" s="52"/>
@@ -17316,7 +17343,7 @@
       <c r="I161" s="54"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="57"/>
+      <c r="A162" s="58"/>
       <c r="B162" s="51"/>
       <c r="C162" s="51"/>
       <c r="D162" s="52"/>
@@ -17327,7 +17354,7 @@
       </c>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="57"/>
+      <c r="A163" s="58"/>
       <c r="B163" s="51"/>
       <c r="C163" s="51"/>
       <c r="D163" s="52"/>
@@ -17338,7 +17365,7 @@
       </c>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="57"/>
+      <c r="A164" s="58"/>
       <c r="B164" s="51"/>
       <c r="C164" s="51"/>
       <c r="D164" s="52"/>
@@ -17349,7 +17376,7 @@
       </c>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="57"/>
+      <c r="A165" s="58"/>
       <c r="B165" s="51"/>
       <c r="C165" s="51"/>
       <c r="D165" s="52"/>
@@ -17360,7 +17387,7 @@
       </c>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="57"/>
+      <c r="A166" s="58"/>
       <c r="B166" s="51"/>
       <c r="C166" s="51"/>
       <c r="D166" s="52"/>
@@ -17372,17 +17399,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
@@ -17448,8 +17475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17488,18 +17515,24 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="51" t="s">
+        <v>284</v>
+      </c>
       <c r="C2" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+        <v>285</v>
+      </c>
+      <c r="D2" s="52">
+        <v>0.34375</v>
+      </c>
+      <c r="E2" s="52">
+        <v>0.34722222222222227</v>
+      </c>
       <c r="F2" s="52">
         <f>E2-D2</f>
-        <v>0</v>
+        <v>3.4722222222222654E-3</v>
       </c>
       <c r="H2" s="49" t="s">
         <v>286</v>
@@ -17512,226 +17545,339 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="57"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="51" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" s="52">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="E3" s="52">
+        <v>0.39652777777777781</v>
+      </c>
       <c r="F3" s="52">
         <f t="shared" ref="F3:F66" si="0">E3-D3</f>
-        <v>0</v>
+        <v>4.9305555555555547E-2</v>
       </c>
       <c r="H3" s="53" t="s">
         <v>288</v>
       </c>
       <c r="I3" s="52">
         <f>SUMIFS(F2:F16, C2:C16,H3)</f>
-        <v>0</v>
+        <v>0.26805555555555555</v>
       </c>
       <c r="Q3" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="57"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="51" t="s">
+        <v>361</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" s="52">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="E4" s="52">
+        <v>0.43472222222222223</v>
+      </c>
       <c r="F4" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4722222222222265E-2</v>
       </c>
       <c r="H4" s="53" t="s">
         <v>285</v>
       </c>
       <c r="I4" s="52">
         <f>SUMIFS(F2:F16, C2:C16,H4)</f>
-        <v>0</v>
+        <v>4.5138888888888951E-2</v>
       </c>
       <c r="Q4" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="57"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D5" s="52">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="E5" s="52">
+        <v>0.4465277777777778</v>
+      </c>
       <c r="F5" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.1805555555555569E-2</v>
       </c>
       <c r="H5" s="53" t="s">
         <v>290</v>
       </c>
       <c r="I5" s="52">
         <f>SUMIFS(F2:F16, C2:C16,H5)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="Q5" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="57"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" s="52">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E6" s="52">
+        <v>0.4548611111111111</v>
+      </c>
       <c r="F6" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H6" s="53" t="s">
         <v>293</v>
       </c>
       <c r="I6" s="52">
         <f>SUMIFS(F2:F16, C2:C16,H6)</f>
-        <v>0</v>
+        <v>2.7777777777777901E-2</v>
       </c>
       <c r="Q6" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="57"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="58"/>
+      <c r="B7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D7" s="52">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="E7" s="52">
+        <v>0.48958333333333331</v>
+      </c>
       <c r="F7" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="H7" s="53" t="s">
         <v>296</v>
       </c>
       <c r="I7" s="52">
         <f>SUMIFS(F2:F16, C2:C16,H7)</f>
-        <v>0</v>
+        <v>4.8611111111111049E-2</v>
       </c>
       <c r="Q7" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="57"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8" s="52">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E8" s="52">
+        <v>0.53819444444444442</v>
+      </c>
       <c r="F8" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.8611111111111105E-2</v>
       </c>
       <c r="H8" s="53" t="s">
         <v>295</v>
       </c>
       <c r="I8" s="52">
         <f>SUMIFS(F2:F16, C2:C16,H8)</f>
-        <v>0</v>
+        <v>4.6527777777777779E-2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="57"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="51" t="s">
+        <v>364</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" s="52">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E9" s="52">
+        <v>0.53472222222222221</v>
+      </c>
       <c r="F9" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.2499999999999944E-2</v>
       </c>
       <c r="H9" s="48" t="s">
         <v>300</v>
       </c>
       <c r="I9" s="49">
         <f>SUM(I3:I8)</f>
-        <v>0</v>
+        <v>0.49861111111111123</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="57"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D10" s="52">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="E10" s="52">
+        <v>0.5625</v>
+      </c>
       <c r="F10" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.430555555555558E-2</v>
       </c>
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="57"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="51" t="s">
+        <v>365</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D11" s="52">
+        <v>0.5625</v>
+      </c>
+      <c r="E11" s="52">
+        <v>0.61805555555555558</v>
+      </c>
       <c r="F11" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.555555555555558E-2</v>
       </c>
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="57"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="51" t="s">
+        <v>345</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="D12" s="52">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="E12" s="52">
+        <v>0.67013888888888884</v>
+      </c>
       <c r="F12" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.8611111111111049E-2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="57"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D13" s="52">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="E13" s="52">
+        <v>0.68055555555555547</v>
+      </c>
       <c r="F13" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="57"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="51" t="s">
+        <v>366</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D14" s="52">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="E14" s="52">
+        <v>0.69791666666666663</v>
+      </c>
       <c r="F14" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.736111111111116E-2</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="57"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="51" t="s">
+        <v>367</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15" s="52">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E15" s="52">
+        <v>0.72569444444444453</v>
+      </c>
       <c r="F15" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7777777777777901E-2</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="57"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="51" t="s">
+        <v>368</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="D16" s="52">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="E16" s="52">
+        <v>0.80555555555555547</v>
+      </c>
       <c r="F16" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="58" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51"/>
@@ -17750,7 +17896,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="57"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="52"/>
@@ -17768,7 +17914,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="57"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="52"/>
@@ -17786,7 +17932,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="57"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
       <c r="D20" s="52"/>
@@ -17804,7 +17950,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="57"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="52"/>
@@ -17822,7 +17968,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="57"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="52"/>
@@ -17840,7 +17986,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="57"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
@@ -17858,7 +18004,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="57"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
@@ -17876,7 +18022,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="57"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -17888,7 +18034,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="57"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -17900,7 +18046,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="57"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -17911,7 +18057,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="57"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -17922,7 +18068,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="57"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -17933,7 +18079,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="57"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -17944,7 +18090,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="57"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -17955,7 +18101,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="58" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51"/>
@@ -17974,7 +18120,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="57"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -17992,7 +18138,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="57"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -18010,7 +18156,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="57"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="52"/>
@@ -18028,7 +18174,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="57"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -18046,7 +18192,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="57"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
       <c r="D37" s="52"/>
@@ -18064,7 +18210,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="57"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -18082,7 +18228,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="57"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -18100,7 +18246,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="57"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -18112,7 +18258,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="57"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -18124,7 +18270,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="57"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -18135,7 +18281,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="57"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -18146,7 +18292,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="57"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -18157,7 +18303,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="57"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -18326,7 +18472,7 @@
     <row r="55" spans="1:9">
       <c r="A55" s="60"/>
       <c r="B55" s="56" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="C55" s="51"/>
       <c r="D55" s="52"/>
@@ -18405,7 +18551,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="61" t="s">
+      <c r="A62" s="57" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -18424,7 +18570,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="57"/>
+      <c r="A63" s="58"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -18441,7 +18587,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="57"/>
+      <c r="A64" s="58"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -18459,7 +18605,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="57"/>
+      <c r="A65" s="58"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -18477,7 +18623,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="57"/>
+      <c r="A66" s="58"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -18495,7 +18641,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="57"/>
+      <c r="A67" s="58"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -18513,9 +18659,9 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="57"/>
+      <c r="A68" s="58"/>
       <c r="B68" s="56" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="C68" s="51"/>
       <c r="D68" s="52"/>
@@ -18533,7 +18679,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="57"/>
+      <c r="A69" s="58"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -18551,7 +18697,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="57"/>
+      <c r="A70" s="58"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -18563,7 +18709,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="57"/>
+      <c r="A71" s="58"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -18575,7 +18721,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="57"/>
+      <c r="A72" s="58"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -18586,7 +18732,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="57"/>
+      <c r="A73" s="58"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -18597,7 +18743,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="57"/>
+      <c r="A74" s="58"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -18608,7 +18754,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="57"/>
+      <c r="A75" s="58"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -18619,7 +18765,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="57"/>
+      <c r="A76" s="58"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -18630,11 +18776,11 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="57" t="s">
+      <c r="A77" s="58" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C77" s="51" t="s">
         <v>285</v>
@@ -18657,9 +18803,9 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="57"/>
+      <c r="A78" s="58"/>
       <c r="B78" s="51" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C78" s="51" t="s">
         <v>288</v>
@@ -18683,9 +18829,9 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="57"/>
+      <c r="A79" s="58"/>
       <c r="B79" s="51" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="C79" s="51" t="s">
         <v>285</v>
@@ -18709,7 +18855,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="57"/>
+      <c r="A80" s="58"/>
       <c r="B80" s="51" t="s">
         <v>309</v>
       </c>
@@ -18735,9 +18881,9 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="57"/>
+      <c r="A81" s="58"/>
       <c r="B81" s="51" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C81" s="51" t="s">
         <v>288</v>
@@ -18761,9 +18907,9 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="57"/>
+      <c r="A82" s="58"/>
       <c r="B82" s="51" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="C82" s="51" t="s">
         <v>288</v>
@@ -18787,7 +18933,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="57"/>
+      <c r="A83" s="58"/>
       <c r="B83" s="51" t="s">
         <v>329</v>
       </c>
@@ -18813,9 +18959,9 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="57"/>
+      <c r="A84" s="58"/>
       <c r="B84" s="51" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="C84" s="51" t="s">
         <v>290</v>
@@ -18839,9 +18985,9 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="57"/>
+      <c r="A85" s="58"/>
       <c r="B85" s="51" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="C85" s="51" t="s">
         <v>296</v>
@@ -18859,7 +19005,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="57"/>
+      <c r="A86" s="58"/>
       <c r="B86" s="51" t="s">
         <v>309</v>
       </c>
@@ -18879,9 +19025,9 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="57"/>
+      <c r="A87" s="58"/>
       <c r="B87" s="51" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C87" s="51" t="s">
         <v>293</v>
@@ -18898,9 +19044,9 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="57"/>
+      <c r="A88" s="58"/>
       <c r="B88" s="51" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="C88" s="51" t="s">
         <v>288</v>
@@ -18917,9 +19063,9 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="57"/>
+      <c r="A89" s="58"/>
       <c r="B89" s="51" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="C89" s="51" t="s">
         <v>288</v>
@@ -18936,7 +19082,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="57"/>
+      <c r="A90" s="58"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -18947,7 +19093,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="58"/>
+      <c r="A91" s="61"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -18958,7 +19104,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="61" t="s">
+      <c r="A92" s="57" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51"/>
@@ -18977,7 +19123,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="57"/>
+      <c r="A93" s="58"/>
       <c r="B93" s="51"/>
       <c r="C93" s="51"/>
       <c r="D93" s="52"/>
@@ -18995,7 +19141,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="57"/>
+      <c r="A94" s="58"/>
       <c r="B94" s="56"/>
       <c r="C94" s="51"/>
       <c r="D94" s="52"/>
@@ -19013,7 +19159,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="57"/>
+      <c r="A95" s="58"/>
       <c r="B95" s="51"/>
       <c r="C95" s="51"/>
       <c r="D95" s="52"/>
@@ -19031,7 +19177,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="57"/>
+      <c r="A96" s="58"/>
       <c r="B96" s="51"/>
       <c r="C96" s="51"/>
       <c r="D96" s="52"/>
@@ -19049,7 +19195,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="57"/>
+      <c r="A97" s="58"/>
       <c r="B97" s="51"/>
       <c r="C97" s="51"/>
       <c r="D97" s="52"/>
@@ -19067,7 +19213,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="57"/>
+      <c r="A98" s="58"/>
       <c r="B98" s="51"/>
       <c r="C98" s="51"/>
       <c r="D98" s="52"/>
@@ -19085,7 +19231,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="57"/>
+      <c r="A99" s="58"/>
       <c r="B99" s="51"/>
       <c r="C99" s="51"/>
       <c r="D99" s="52"/>
@@ -19103,7 +19249,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="57"/>
+      <c r="A100" s="58"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51"/>
       <c r="D100" s="52"/>
@@ -19115,7 +19261,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="57"/>
+      <c r="A101" s="58"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51"/>
       <c r="D101" s="52"/>
@@ -19127,7 +19273,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="57"/>
+      <c r="A102" s="58"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51"/>
       <c r="D102" s="52"/>
@@ -19138,7 +19284,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="57"/>
+      <c r="A103" s="58"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -19146,7 +19292,7 @@
       <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="57"/>
+      <c r="A104" s="58"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
@@ -19154,7 +19300,7 @@
       <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="57"/>
+      <c r="A105" s="58"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -19245,7 +19391,7 @@
     <row r="111" spans="1:9">
       <c r="A111" s="60"/>
       <c r="B111" s="55" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="C111" s="51"/>
       <c r="D111" s="52"/>
@@ -19396,11 +19542,11 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="61" t="s">
+      <c r="A122" s="57" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="C122" s="51" t="s">
         <v>288</v>
@@ -19423,9 +19569,9 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="57"/>
+      <c r="A123" s="58"/>
       <c r="B123" s="51" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="C123" s="51" t="s">
         <v>293</v>
@@ -19449,9 +19595,9 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="57"/>
+      <c r="A124" s="58"/>
       <c r="B124" s="51" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C124" s="51" t="s">
         <v>288</v>
@@ -19475,9 +19621,9 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="57"/>
+      <c r="A125" s="58"/>
       <c r="B125" s="51" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C125" s="51" t="s">
         <v>288</v>
@@ -19501,9 +19647,9 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="57"/>
+      <c r="A126" s="58"/>
       <c r="B126" s="51" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="C126" s="51" t="s">
         <v>288</v>
@@ -19527,9 +19673,9 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="57"/>
+      <c r="A127" s="58"/>
       <c r="B127" s="56" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="C127" s="51" t="s">
         <v>288</v>
@@ -19553,9 +19699,9 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="57"/>
+      <c r="A128" s="58"/>
       <c r="B128" s="51" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="C128" s="51" t="s">
         <v>296</v>
@@ -19579,9 +19725,9 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="57"/>
+      <c r="A129" s="58"/>
       <c r="B129" s="56" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C129" s="51" t="s">
         <v>293</v>
@@ -19605,9 +19751,9 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="57"/>
+      <c r="A130" s="58"/>
       <c r="B130" s="56" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="C130" s="51" t="s">
         <v>288</v>
@@ -19625,7 +19771,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="57"/>
+      <c r="A131" s="58"/>
       <c r="B131" s="51" t="s">
         <v>294</v>
       </c>
@@ -19645,7 +19791,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="57"/>
+      <c r="A132" s="58"/>
       <c r="B132" s="51" t="s">
         <v>329</v>
       </c>
@@ -19664,7 +19810,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="57"/>
+      <c r="A133" s="58"/>
       <c r="B133" s="51" t="s">
         <v>304</v>
       </c>
@@ -19683,7 +19829,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="57"/>
+      <c r="A134" s="58"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -19694,7 +19840,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="57"/>
+      <c r="A135" s="58"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -19720,7 +19866,7 @@
         <v>276</v>
       </c>
       <c r="B137" s="55" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="C137" s="51" t="s">
         <v>288</v>
@@ -19745,7 +19891,7 @@
     <row r="138" spans="1:9">
       <c r="A138" s="60"/>
       <c r="B138" s="55" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="C138" s="51" t="s">
         <v>288</v>
@@ -19771,7 +19917,7 @@
     <row r="139" spans="1:9">
       <c r="A139" s="60"/>
       <c r="B139" s="55" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="C139" s="51" t="s">
         <v>285</v>
@@ -19823,7 +19969,7 @@
     <row r="141" spans="1:9">
       <c r="A141" s="60"/>
       <c r="B141" s="55" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="C141" s="51" t="s">
         <v>288</v>
@@ -19849,7 +19995,7 @@
     <row r="142" spans="1:9">
       <c r="A142" s="60"/>
       <c r="B142" s="55" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="C142" s="51" t="s">
         <v>288</v>

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vinoth\GIT\TeamProject\Project\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCFDE085-9A33-4168-81FD-97602E6CE663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B1C05F1-CC24-4762-9BB8-C2F5339A1018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23263" windowHeight="12463" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="426">
   <si>
     <t>Column1</t>
   </si>
@@ -1609,12 +1609,66 @@
     <t xml:space="preserve">Exploration onAngular ,Typescript </t>
   </si>
   <si>
+    <t>Responsive profile page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soft skills with Savitha (Problem Solving) </t>
+  </si>
+  <si>
+    <t>Responsive cancel Invite page</t>
+  </si>
+  <si>
+    <t>Made Responsive Cancel Drive page</t>
+  </si>
+  <si>
+    <t>Aligned Cancel Drive page</t>
+  </si>
+  <si>
+    <t>Client Meeting with Rafi</t>
+  </si>
+  <si>
+    <t>Listed the corrrections in the Layout</t>
+  </si>
+  <si>
+    <t>Discussion with team</t>
+  </si>
+  <si>
+    <t>Made corrections in every page</t>
+  </si>
+  <si>
+    <t>Created Drive details page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked Mails </t>
+  </si>
+  <si>
+    <t>Profile Page (Added profile image and Alignment changes)</t>
+  </si>
+  <si>
+    <t>Started created Drive Details page(added cards)</t>
+  </si>
+  <si>
+    <t>Continued designing Drive Details</t>
+  </si>
+  <si>
+    <t>Added Button &amp; alignment/color changes in Drive Details</t>
+  </si>
+  <si>
+    <t>Noted the corrections in the Layout and started working on it</t>
+  </si>
+  <si>
+    <t>Team Discussion</t>
+  </si>
+  <si>
+    <t>Started correcting the mistakes</t>
+  </si>
+  <si>
+    <t>Corrected the mistakes said by Rafi(labels,button colors)</t>
+  </si>
+  <si>
     <t>ABSENT</t>
   </si>
   <si>
-    <t xml:space="preserve">Checked Mails </t>
-  </si>
-  <si>
     <t>Worked on Estimations(TAC)</t>
   </si>
   <si>
@@ -1631,9 +1685,6 @@
   </si>
   <si>
     <t>Meeting with rafi</t>
-  </si>
-  <si>
-    <t>Team Discussion</t>
   </si>
   <si>
     <t>Worked on Current Drives Cards</t>
@@ -2205,10 +2256,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2217,7 +2268,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -14100,7 +14151,7 @@
   <dimension ref="A1:Q166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A92" sqref="A1:XFD1048576"/>
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14139,7 +14190,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -14169,7 +14220,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="58"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="51" t="s">
         <v>289</v>
       </c>
@@ -14198,7 +14249,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="58"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="51" t="s">
         <v>291</v>
       </c>
@@ -14227,7 +14278,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="58"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="51" t="s">
         <v>292</v>
       </c>
@@ -14256,7 +14307,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="58"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="51" t="s">
         <v>294</v>
       </c>
@@ -14285,7 +14336,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="58"/>
+      <c r="A7" s="57"/>
       <c r="B7" t="s">
         <v>297</v>
       </c>
@@ -14314,7 +14365,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="58"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="51" t="s">
         <v>298</v>
       </c>
@@ -14340,7 +14391,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="58"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="51" t="s">
         <v>299</v>
       </c>
@@ -14366,7 +14417,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="58"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="51" t="s">
         <v>301</v>
       </c>
@@ -14386,7 +14437,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="58"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="51" t="s">
         <v>302</v>
       </c>
@@ -14406,7 +14457,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="58"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="51" t="s">
         <v>303</v>
       </c>
@@ -14425,7 +14476,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="58"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="51" t="s">
         <v>304</v>
       </c>
@@ -14444,7 +14495,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="58"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="51" t="s">
         <v>305</v>
       </c>
@@ -14463,7 +14514,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="58"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="51" t="s">
         <v>306</v>
       </c>
@@ -14482,7 +14533,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="58"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="52"/>
@@ -14493,7 +14544,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="57" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51"/>
@@ -14516,7 +14567,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="58"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="52">
@@ -14538,7 +14589,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="58"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="52">
@@ -14560,7 +14611,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="58"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
       <c r="D20" s="52">
@@ -14582,7 +14633,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="58"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="52">
@@ -14604,7 +14655,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="58"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="52">
@@ -14626,7 +14677,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="58"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="51" t="s">
         <v>73</v>
       </c>
@@ -14650,7 +14701,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="58"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52">
@@ -14672,7 +14723,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="58"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52">
@@ -14688,7 +14739,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="58"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -14700,7 +14751,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="58"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -14711,7 +14762,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="58"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -14722,7 +14773,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="58"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -14733,7 +14784,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="58"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -14744,7 +14795,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="58"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -14755,7 +14806,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="57" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -14782,7 +14833,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="58"/>
+      <c r="A33" s="57"/>
       <c r="B33" s="51" t="s">
         <v>307</v>
       </c>
@@ -14808,7 +14859,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="58"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="51" t="s">
         <v>308</v>
       </c>
@@ -14834,7 +14885,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="58"/>
+      <c r="A35" s="57"/>
       <c r="B35" s="51" t="s">
         <v>309</v>
       </c>
@@ -14860,7 +14911,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="58"/>
+      <c r="A36" s="57"/>
       <c r="B36" s="51" t="s">
         <v>310</v>
       </c>
@@ -14886,7 +14937,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="58"/>
+      <c r="A37" s="57"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -14912,7 +14963,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="58"/>
+      <c r="A38" s="57"/>
       <c r="B38" s="51" t="s">
         <v>312</v>
       </c>
@@ -14938,7 +14989,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="58"/>
+      <c r="A39" s="57"/>
       <c r="B39" s="51" t="s">
         <v>313</v>
       </c>
@@ -14964,7 +15015,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="58"/>
+      <c r="A40" s="57"/>
       <c r="B40" s="51" t="s">
         <v>314</v>
       </c>
@@ -14984,7 +15035,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="58"/>
+      <c r="A41" s="57"/>
       <c r="B41" s="51" t="s">
         <v>312</v>
       </c>
@@ -15004,7 +15055,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="58"/>
+      <c r="A42" s="57"/>
       <c r="B42" s="51" t="s">
         <v>315</v>
       </c>
@@ -15023,7 +15074,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="58"/>
+      <c r="A43" s="57"/>
       <c r="B43" s="51" t="s">
         <v>309</v>
       </c>
@@ -15042,7 +15093,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="58"/>
+      <c r="A44" s="57"/>
       <c r="B44" s="51" t="s">
         <v>316</v>
       </c>
@@ -15061,7 +15112,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="58"/>
+      <c r="A45" s="57"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -15307,7 +15358,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="57" t="s">
+      <c r="A62" s="61" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -15334,7 +15385,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="58"/>
+      <c r="A63" s="57"/>
       <c r="B63" s="51" t="s">
         <v>284</v>
       </c>
@@ -15359,7 +15410,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="58"/>
+      <c r="A64" s="57"/>
       <c r="B64" s="51" t="s">
         <v>318</v>
       </c>
@@ -15385,7 +15436,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="58"/>
+      <c r="A65" s="57"/>
       <c r="B65" s="51" t="s">
         <v>313</v>
       </c>
@@ -15411,7 +15462,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="58"/>
+      <c r="A66" s="57"/>
       <c r="B66" s="51" t="s">
         <v>319</v>
       </c>
@@ -15437,7 +15488,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="58"/>
+      <c r="A67" s="57"/>
       <c r="B67" s="51" t="s">
         <v>302</v>
       </c>
@@ -15463,7 +15514,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="58"/>
+      <c r="A68" s="57"/>
       <c r="B68" s="51" t="s">
         <v>304</v>
       </c>
@@ -15489,7 +15540,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="58"/>
+      <c r="A69" s="57"/>
       <c r="B69" s="51" t="s">
         <v>315</v>
       </c>
@@ -15515,7 +15566,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="58"/>
+      <c r="A70" s="57"/>
       <c r="B70" s="51" t="s">
         <v>320</v>
       </c>
@@ -15535,7 +15586,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="58"/>
+      <c r="A71" s="57"/>
       <c r="B71" s="51" t="s">
         <v>306</v>
       </c>
@@ -15555,7 +15606,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="58"/>
+      <c r="A72" s="57"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -15566,7 +15617,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="58"/>
+      <c r="A73" s="57"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -15577,7 +15628,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="58"/>
+      <c r="A74" s="57"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -15588,7 +15639,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="58"/>
+      <c r="A75" s="57"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -15599,7 +15650,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="58"/>
+      <c r="A76" s="57"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -15610,7 +15661,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="58" t="s">
+      <c r="A77" s="57" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -15637,7 +15688,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="58"/>
+      <c r="A78" s="57"/>
       <c r="B78" s="51" t="s">
         <v>322</v>
       </c>
@@ -15663,7 +15714,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="58"/>
+      <c r="A79" s="57"/>
       <c r="B79" s="51" t="s">
         <v>323</v>
       </c>
@@ -15689,7 +15740,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="58"/>
+      <c r="A80" s="57"/>
       <c r="B80" s="51" t="s">
         <v>324</v>
       </c>
@@ -15715,7 +15766,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="58"/>
+      <c r="A81" s="57"/>
       <c r="B81" s="51" t="s">
         <v>325</v>
       </c>
@@ -15741,7 +15792,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="58"/>
+      <c r="A82" s="57"/>
       <c r="B82" s="51" t="s">
         <v>326</v>
       </c>
@@ -15767,7 +15818,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="58"/>
+      <c r="A83" s="57"/>
       <c r="B83" s="51" t="s">
         <v>327</v>
       </c>
@@ -15793,7 +15844,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="58"/>
+      <c r="A84" s="57"/>
       <c r="B84" s="51" t="s">
         <v>328</v>
       </c>
@@ -15819,7 +15870,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="58"/>
+      <c r="A85" s="57"/>
       <c r="B85" s="51" t="s">
         <v>294</v>
       </c>
@@ -15839,7 +15890,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="58"/>
+      <c r="A86" s="57"/>
       <c r="B86" s="51" t="s">
         <v>329</v>
       </c>
@@ -15859,7 +15910,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="58"/>
+      <c r="A87" s="57"/>
       <c r="B87" s="51" t="s">
         <v>304</v>
       </c>
@@ -15878,7 +15929,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="58"/>
+      <c r="A88" s="57"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -15889,7 +15940,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="58"/>
+      <c r="A89" s="57"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -15900,7 +15951,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="58"/>
+      <c r="A90" s="57"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -15911,7 +15962,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="61"/>
+      <c r="A91" s="58"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -15922,7 +15973,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="57" t="s">
+      <c r="A92" s="61" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -15949,7 +16000,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="58"/>
+      <c r="A93" s="57"/>
       <c r="B93" s="51" t="s">
         <v>330</v>
       </c>
@@ -15975,7 +16026,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="58"/>
+      <c r="A94" s="57"/>
       <c r="B94" s="56" t="s">
         <v>331</v>
       </c>
@@ -16001,7 +16052,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="58"/>
+      <c r="A95" s="57"/>
       <c r="B95" s="51" t="s">
         <v>309</v>
       </c>
@@ -16027,7 +16078,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="58"/>
+      <c r="A96" s="57"/>
       <c r="B96" s="51" t="s">
         <v>332</v>
       </c>
@@ -16053,7 +16104,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="58"/>
+      <c r="A97" s="57"/>
       <c r="B97" s="51" t="s">
         <v>311</v>
       </c>
@@ -16079,7 +16130,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="58"/>
+      <c r="A98" s="57"/>
       <c r="B98" s="51" t="s">
         <v>313</v>
       </c>
@@ -16105,7 +16156,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="58"/>
+      <c r="A99" s="57"/>
       <c r="B99" s="51" t="s">
         <v>333</v>
       </c>
@@ -16131,7 +16182,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="58"/>
+      <c r="A100" s="57"/>
       <c r="B100" s="51" t="s">
         <v>334</v>
       </c>
@@ -16151,7 +16202,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="58"/>
+      <c r="A101" s="57"/>
       <c r="B101" s="51" t="s">
         <v>309</v>
       </c>
@@ -16171,7 +16222,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="58"/>
+      <c r="A102" s="57"/>
       <c r="B102" s="51" t="s">
         <v>316</v>
       </c>
@@ -16190,7 +16241,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="58"/>
+      <c r="A103" s="57"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -16198,7 +16249,7 @@
       <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="58"/>
+      <c r="A104" s="57"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
@@ -16206,7 +16257,7 @@
       <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="58"/>
+      <c r="A105" s="57"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -16534,7 +16585,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="57" t="s">
+      <c r="A122" s="61" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -16561,7 +16612,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="58"/>
+      <c r="A123" s="57"/>
       <c r="B123" s="51" t="s">
         <v>322</v>
       </c>
@@ -16587,7 +16638,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="58"/>
+      <c r="A124" s="57"/>
       <c r="B124" s="51" t="s">
         <v>294</v>
       </c>
@@ -16613,7 +16664,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="58"/>
+      <c r="A125" s="57"/>
       <c r="B125" s="51" t="s">
         <v>344</v>
       </c>
@@ -16639,7 +16690,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="58"/>
+      <c r="A126" s="57"/>
       <c r="B126" s="51" t="s">
         <v>329</v>
       </c>
@@ -16665,7 +16716,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="58"/>
+      <c r="A127" s="57"/>
       <c r="B127" s="56" t="s">
         <v>345</v>
       </c>
@@ -16691,7 +16742,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="58"/>
+      <c r="A128" s="57"/>
       <c r="B128" s="51" t="s">
         <v>346</v>
       </c>
@@ -16717,7 +16768,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="58"/>
+      <c r="A129" s="57"/>
       <c r="B129" s="56" t="s">
         <v>304</v>
       </c>
@@ -16743,7 +16794,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="58"/>
+      <c r="A130" s="57"/>
       <c r="B130" s="56" t="s">
         <v>304</v>
       </c>
@@ -16763,7 +16814,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="58"/>
+      <c r="A131" s="57"/>
       <c r="B131" s="51" t="s">
         <v>347</v>
       </c>
@@ -16783,7 +16834,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="58"/>
+      <c r="A132" s="57"/>
       <c r="B132" s="51" t="s">
         <v>348</v>
       </c>
@@ -16802,7 +16853,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="58"/>
+      <c r="A133" s="57"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -16813,7 +16864,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="58"/>
+      <c r="A134" s="57"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -16824,7 +16875,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="58"/>
+      <c r="A135" s="57"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -17150,7 +17201,7 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="57" t="s">
+      <c r="A152" s="61" t="s">
         <v>355</v>
       </c>
       <c r="B152" s="51" t="s">
@@ -17177,7 +17228,7 @@
       </c>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="58"/>
+      <c r="A153" s="57"/>
       <c r="B153" s="51" t="s">
         <v>357</v>
       </c>
@@ -17203,7 +17254,7 @@
       </c>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="58"/>
+      <c r="A154" s="57"/>
       <c r="B154" s="51" t="s">
         <v>341</v>
       </c>
@@ -17229,7 +17280,7 @@
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="58"/>
+      <c r="A155" s="57"/>
       <c r="B155" s="51" t="s">
         <v>357</v>
       </c>
@@ -17255,7 +17306,7 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="58"/>
+      <c r="A156" s="57"/>
       <c r="B156" s="51" t="s">
         <v>301</v>
       </c>
@@ -17281,7 +17332,7 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="58"/>
+      <c r="A157" s="57"/>
       <c r="B157" s="51" t="s">
         <v>294</v>
       </c>
@@ -17307,7 +17358,7 @@
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="58"/>
+      <c r="A158" s="57"/>
       <c r="B158" s="51" t="s">
         <v>304</v>
       </c>
@@ -17333,7 +17384,7 @@
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="58"/>
+      <c r="A159" s="57"/>
       <c r="B159" s="51" t="s">
         <v>358</v>
       </c>
@@ -17359,7 +17410,7 @@
       </c>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="58"/>
+      <c r="A160" s="57"/>
       <c r="B160" s="51" t="s">
         <v>359</v>
       </c>
@@ -17379,7 +17430,7 @@
       <c r="I160" s="54"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="58"/>
+      <c r="A161" s="57"/>
       <c r="B161" s="51"/>
       <c r="C161" s="51"/>
       <c r="D161" s="52"/>
@@ -17391,7 +17442,7 @@
       <c r="I161" s="54"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="58"/>
+      <c r="A162" s="57"/>
       <c r="B162" s="51"/>
       <c r="C162" s="51"/>
       <c r="D162" s="52"/>
@@ -17402,7 +17453,7 @@
       </c>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="58"/>
+      <c r="A163" s="57"/>
       <c r="B163" s="51"/>
       <c r="C163" s="51"/>
       <c r="D163" s="52"/>
@@ -17413,7 +17464,7 @@
       </c>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="58"/>
+      <c r="A164" s="57"/>
       <c r="B164" s="51"/>
       <c r="C164" s="51"/>
       <c r="D164" s="52"/>
@@ -17424,7 +17475,7 @@
       </c>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="58"/>
+      <c r="A165" s="57"/>
       <c r="B165" s="51"/>
       <c r="C165" s="51"/>
       <c r="D165" s="52"/>
@@ -17435,7 +17486,7 @@
       </c>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="58"/>
+      <c r="A166" s="57"/>
       <c r="B166" s="51"/>
       <c r="C166" s="51"/>
       <c r="D166" s="52"/>
@@ -17447,17 +17498,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
@@ -17523,8 +17574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="F145" sqref="F145"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17563,7 +17614,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -17593,7 +17644,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="58"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="51" t="s">
         <v>360</v>
       </c>
@@ -17622,7 +17673,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="58"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="51" t="s">
         <v>361</v>
       </c>
@@ -17651,7 +17702,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="58"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="51" t="s">
         <v>309</v>
       </c>
@@ -17680,7 +17731,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="58"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="51" t="s">
         <v>311</v>
       </c>
@@ -17709,7 +17760,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="58"/>
+      <c r="A7" s="57"/>
       <c r="B7" t="s">
         <v>362</v>
       </c>
@@ -17738,7 +17789,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="58"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="51" t="s">
         <v>363</v>
       </c>
@@ -17764,7 +17815,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="58"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="51" t="s">
         <v>364</v>
       </c>
@@ -17790,7 +17841,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="58"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="51" t="s">
         <v>329</v>
       </c>
@@ -17810,7 +17861,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="58"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="51" t="s">
         <v>365</v>
       </c>
@@ -17830,7 +17881,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="58"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="51" t="s">
         <v>345</v>
       </c>
@@ -17849,7 +17900,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="58"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="51" t="s">
         <v>309</v>
       </c>
@@ -17868,7 +17919,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="58"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="51" t="s">
         <v>366</v>
       </c>
@@ -17887,7 +17938,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="58"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="51" t="s">
         <v>367</v>
       </c>
@@ -17906,7 +17957,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="58"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="51" t="s">
         <v>368</v>
       </c>
@@ -17925,16 +17976,24 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
+      <c r="B17" s="51" t="s">
+        <v>369</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D17" s="52">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E17" s="52">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="F17" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>286</v>
@@ -17944,50 +18003,74 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="58"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="51" t="s">
+        <v>370</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D18" s="52">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E18" s="52">
+        <v>0.4375</v>
+      </c>
       <c r="F18" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H18" s="53" t="s">
         <v>288</v>
       </c>
       <c r="I18" s="52">
         <f t="shared" ref="I18" si="1">SUMIFS(F17:F31, C17:C31,H18)</f>
-        <v>0</v>
+        <v>0.26736111111111088</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="58"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="51" t="s">
+        <v>342</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D19" s="52">
+        <v>0.4375</v>
+      </c>
+      <c r="E19" s="52">
+        <v>0.44791666666666669</v>
+      </c>
       <c r="F19" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H19" s="53" t="s">
         <v>285</v>
       </c>
       <c r="I19" s="52">
         <f t="shared" ref="I19" si="2">SUMIFS(F17:F31, C17:C31,H19)</f>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="58"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="51" t="s">
+        <v>371</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D20" s="52">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E20" s="52">
+        <v>0.5</v>
+      </c>
       <c r="F20" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.2083333333333315E-2</v>
       </c>
       <c r="H20" s="53" t="s">
         <v>290</v>
@@ -17998,32 +18081,48 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="58"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D21" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="52">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="F21" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H21" s="53" t="s">
         <v>293</v>
       </c>
       <c r="I21" s="52">
         <f t="shared" ref="I21" si="4">SUMIFS(F17:F31, C17:C31,H21)</f>
-        <v>0</v>
+        <v>7.2916666666666741E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="58"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D22" s="52">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E22" s="52">
+        <v>0.57291666666666663</v>
+      </c>
       <c r="F22" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H22" s="53" t="s">
         <v>296</v>
@@ -18034,100 +18133,156 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="58"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="51" t="s">
+        <v>373</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D23" s="52">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E23" s="52">
+        <v>0.61111111111111105</v>
+      </c>
       <c r="F23" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4722222222222099E-2</v>
       </c>
       <c r="H23" s="53" t="s">
         <v>295</v>
       </c>
       <c r="I23" s="52">
         <f t="shared" ref="I23" si="6">SUMIFS(F17:F31, C17:C31,H23)</f>
-        <v>0</v>
+        <v>5.2083333333333315E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="58"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="51" t="s">
+        <v>374</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="D24" s="52">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="E24" s="52">
+        <v>0.67013888888888884</v>
+      </c>
       <c r="F24" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.8611111111111049E-2</v>
       </c>
       <c r="H24" s="48" t="s">
         <v>300</v>
       </c>
       <c r="I24" s="49">
         <f t="shared" ref="I24" si="7">SUM(I18:I23)</f>
-        <v>0</v>
+        <v>0.43402777777777762</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="58"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D25" s="52">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="E25" s="52">
+        <v>0.68055555555555547</v>
+      </c>
       <c r="F25" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="58"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="51" t="s">
+        <v>375</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D26" s="52">
+        <v>0.6875</v>
+      </c>
+      <c r="E26" s="52">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="F26" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="58"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="51" t="s">
+        <v>376</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="D27" s="52">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="E27" s="52">
+        <v>0.72569444444444453</v>
+      </c>
       <c r="F27" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.4305555555555691E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="58"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D28" s="52">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E28" s="52">
+        <v>0.75</v>
+      </c>
       <c r="F28" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="58"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="51" t="s">
+        <v>378</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D29" s="52">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E29" s="52">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="F29" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="58"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -18138,7 +18293,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="58"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -18149,16 +18304,24 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="57" t="s">
         <v>263</v>
       </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
+      <c r="B32" s="51" t="s">
+        <v>379</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D32" s="52">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E32" s="52">
+        <v>0.3611111111111111</v>
+      </c>
       <c r="F32" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H32" s="49" t="s">
         <v>286</v>
@@ -18168,50 +18331,74 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="58"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="51" t="s">
+        <v>380</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D33" s="52">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E33" s="52">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="F33" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H33" s="53" t="s">
         <v>288</v>
       </c>
       <c r="I33" s="52">
         <f t="shared" ref="I33" si="8">SUMIFS(F32:F46, C32:C46,H33)</f>
-        <v>0</v>
+        <v>0.27083333333333331</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="58"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="51" t="s">
+        <v>370</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D34" s="52">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E34" s="52">
+        <v>0.4375</v>
+      </c>
       <c r="F34" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H34" s="53" t="s">
         <v>285</v>
       </c>
       <c r="I34" s="52">
         <f t="shared" ref="I34" si="9">SUMIFS(F32:F46, C32:C46,H34)</f>
-        <v>0</v>
+        <v>4.8611111111111105E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="58"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D35" s="52">
+        <v>0.4375</v>
+      </c>
+      <c r="E35" s="52">
+        <v>0.44791666666666669</v>
+      </c>
       <c r="F35" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H35" s="53" t="s">
         <v>290</v>
@@ -18222,154 +18409,242 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="58"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="51" t="s">
+        <v>381</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D36" s="52">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E36" s="52">
+        <v>0.48958333333333331</v>
+      </c>
       <c r="F36" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H36" s="53" t="s">
         <v>293</v>
       </c>
       <c r="I36" s="52">
         <f t="shared" ref="I36" si="11">SUMIFS(F32:F46, C32:C46,H36)</f>
-        <v>0</v>
+        <v>2.4305555555555691E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="58"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D37" s="52">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E37" s="52">
+        <v>0.5</v>
+      </c>
       <c r="F37" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H37" s="53" t="s">
         <v>296</v>
       </c>
       <c r="I37" s="52">
         <f t="shared" ref="I37" si="12">SUMIFS(F32:F46, C32:C46,H37)</f>
-        <v>0</v>
+        <v>4.8611111111111049E-2</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="58"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="51" t="s">
+        <v>382</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D38" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="52">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="F38" s="52">
         <f>E38-D38</f>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H38" s="53" t="s">
         <v>295</v>
       </c>
       <c r="I38" s="52">
         <f t="shared" ref="I38" si="13">SUMIFS(F32:F46, C32:C46,H38)</f>
-        <v>0</v>
+        <v>5.2083333333333315E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="58"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D39" s="52">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E39" s="52">
+        <v>0.57291666666666663</v>
+      </c>
       <c r="F39" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H39" s="48" t="s">
         <v>300</v>
       </c>
       <c r="I39" s="49">
         <f t="shared" ref="I39" si="14">SUM(I33:I38)</f>
-        <v>0</v>
+        <v>0.44444444444444448</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="58"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="51" t="s">
+        <v>383</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D40" s="52">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E40" s="52">
+        <v>0.61458333333333337</v>
+      </c>
       <c r="F40" s="52">
         <f>E40-D40</f>
-        <v>0</v>
+        <v>3.819444444444442E-2</v>
       </c>
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="58"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="51" t="s">
+        <v>374</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="D41" s="52">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="E41" s="52">
+        <v>0.67013888888888884</v>
+      </c>
       <c r="F41" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.8611111111111049E-2</v>
       </c>
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="58"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D42" s="52">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="E42" s="52">
+        <v>0.68055555555555547</v>
+      </c>
       <c r="F42" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="58"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D43" s="52">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="E43" s="52">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="F43" s="52">
         <f>E43-D43</f>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="58"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="51" t="s">
+        <v>385</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="D44" s="52">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="E44" s="52">
+        <v>0.72569444444444453</v>
+      </c>
       <c r="F44" s="52">
         <f>E44-D44</f>
-        <v>0</v>
+        <v>2.4305555555555691E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="58"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="51" t="s">
+        <v>386</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D45" s="52">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E45" s="52">
+        <v>0.75347222222222221</v>
+      </c>
       <c r="F45" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.430555555555558E-2</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="59"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
+      <c r="B46" s="51" t="s">
+        <v>387</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D46" s="52">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E46" s="52">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="F46" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -18520,7 +18795,7 @@
     <row r="55" spans="1:9">
       <c r="A55" s="60"/>
       <c r="B55" s="56" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C55" s="51"/>
       <c r="D55" s="52"/>
@@ -18599,7 +18874,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="57" t="s">
+      <c r="A62" s="61" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -18618,7 +18893,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="58"/>
+      <c r="A63" s="57"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -18635,7 +18910,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="58"/>
+      <c r="A64" s="57"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -18653,7 +18928,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="58"/>
+      <c r="A65" s="57"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -18671,7 +18946,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="58"/>
+      <c r="A66" s="57"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -18689,7 +18964,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="58"/>
+      <c r="A67" s="57"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -18707,9 +18982,9 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="58"/>
+      <c r="A68" s="57"/>
       <c r="B68" s="56" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C68" s="51"/>
       <c r="D68" s="52"/>
@@ -18727,7 +19002,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="58"/>
+      <c r="A69" s="57"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -18745,7 +19020,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="58"/>
+      <c r="A70" s="57"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -18757,7 +19032,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="58"/>
+      <c r="A71" s="57"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -18769,7 +19044,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="58"/>
+      <c r="A72" s="57"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -18780,7 +19055,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="58"/>
+      <c r="A73" s="57"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -18791,7 +19066,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="58"/>
+      <c r="A74" s="57"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -18802,7 +19077,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="58"/>
+      <c r="A75" s="57"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -18813,7 +19088,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="58"/>
+      <c r="A76" s="57"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -18824,11 +19099,11 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="58" t="s">
+      <c r="A77" s="57" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="C77" s="51" t="s">
         <v>285</v>
@@ -18851,9 +19126,9 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="58"/>
+      <c r="A78" s="57"/>
       <c r="B78" s="51" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="C78" s="51" t="s">
         <v>288</v>
@@ -18877,9 +19152,9 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="58"/>
+      <c r="A79" s="57"/>
       <c r="B79" s="51" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="C79" s="51" t="s">
         <v>285</v>
@@ -18903,7 +19178,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="58"/>
+      <c r="A80" s="57"/>
       <c r="B80" s="51" t="s">
         <v>309</v>
       </c>
@@ -18929,9 +19204,9 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="58"/>
+      <c r="A81" s="57"/>
       <c r="B81" s="51" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="C81" s="51" t="s">
         <v>288</v>
@@ -18955,9 +19230,9 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="58"/>
+      <c r="A82" s="57"/>
       <c r="B82" s="51" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="C82" s="51" t="s">
         <v>288</v>
@@ -18981,7 +19256,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="58"/>
+      <c r="A83" s="57"/>
       <c r="B83" s="51" t="s">
         <v>329</v>
       </c>
@@ -19007,9 +19282,9 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="58"/>
+      <c r="A84" s="57"/>
       <c r="B84" s="51" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="C84" s="51" t="s">
         <v>290</v>
@@ -19033,9 +19308,9 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="58"/>
+      <c r="A85" s="57"/>
       <c r="B85" s="51" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="C85" s="51" t="s">
         <v>296</v>
@@ -19053,7 +19328,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="58"/>
+      <c r="A86" s="57"/>
       <c r="B86" s="51" t="s">
         <v>309</v>
       </c>
@@ -19073,9 +19348,9 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="58"/>
+      <c r="A87" s="57"/>
       <c r="B87" s="51" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C87" s="51" t="s">
         <v>293</v>
@@ -19092,9 +19367,9 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="58"/>
+      <c r="A88" s="57"/>
       <c r="B88" s="51" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="C88" s="51" t="s">
         <v>288</v>
@@ -19111,9 +19386,9 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="58"/>
+      <c r="A89" s="57"/>
       <c r="B89" s="51" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="C89" s="51" t="s">
         <v>288</v>
@@ -19130,7 +19405,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="58"/>
+      <c r="A90" s="57"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -19141,7 +19416,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="61"/>
+      <c r="A91" s="58"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -19152,11 +19427,11 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="57" t="s">
+      <c r="A92" s="61" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="C92" s="51" t="s">
         <v>285</v>
@@ -19179,9 +19454,9 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="58"/>
+      <c r="A93" s="57"/>
       <c r="B93" s="51" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="C93" s="51" t="s">
         <v>288</v>
@@ -19205,9 +19480,9 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="58"/>
+      <c r="A94" s="57"/>
       <c r="B94" s="56" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="C94" s="51" t="s">
         <v>288</v>
@@ -19231,9 +19506,9 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="58"/>
+      <c r="A95" s="57"/>
       <c r="B95" s="51" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="C95" s="51" t="s">
         <v>293</v>
@@ -19257,7 +19532,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="58"/>
+      <c r="A96" s="57"/>
       <c r="B96" s="51" t="s">
         <v>342</v>
       </c>
@@ -19283,9 +19558,9 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="58"/>
+      <c r="A97" s="57"/>
       <c r="B97" s="51" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="C97" s="51" t="s">
         <v>288</v>
@@ -19309,9 +19584,9 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="58"/>
+      <c r="A98" s="57"/>
       <c r="B98" s="51" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="C98" s="51" t="s">
         <v>285</v>
@@ -19335,9 +19610,9 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="58"/>
+      <c r="A99" s="57"/>
       <c r="B99" s="51" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="C99" s="51" t="s">
         <v>290</v>
@@ -19361,9 +19636,9 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="58"/>
+      <c r="A100" s="57"/>
       <c r="B100" s="51" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="C100" s="51" t="s">
         <v>288</v>
@@ -19381,9 +19656,9 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="58"/>
+      <c r="A101" s="57"/>
       <c r="B101" s="51" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="C101" s="51" t="s">
         <v>295</v>
@@ -19401,9 +19676,9 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="58"/>
+      <c r="A102" s="57"/>
       <c r="B102" s="51" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="C102" s="51" t="s">
         <v>288</v>
@@ -19420,9 +19695,9 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="58"/>
+      <c r="A103" s="57"/>
       <c r="B103" s="51" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -19439,7 +19714,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="58"/>
+      <c r="A104" s="57"/>
       <c r="B104" s="51" t="s">
         <v>304</v>
       </c>
@@ -19458,9 +19733,9 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="58"/>
+      <c r="A105" s="57"/>
       <c r="B105" s="51" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -19479,7 +19754,7 @@
     <row r="106" spans="1:9">
       <c r="A106" s="59"/>
       <c r="B106" s="51" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="C106" s="51" t="s">
         <v>285</v>
@@ -19571,7 +19846,7 @@
     <row r="111" spans="1:9">
       <c r="A111" s="60"/>
       <c r="B111" s="55" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C111" s="51"/>
       <c r="D111" s="52"/>
@@ -19722,11 +19997,11 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="57" t="s">
+      <c r="A122" s="61" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="C122" s="51" t="s">
         <v>288</v>
@@ -19749,9 +20024,9 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="58"/>
+      <c r="A123" s="57"/>
       <c r="B123" s="51" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="C123" s="51" t="s">
         <v>293</v>
@@ -19775,9 +20050,9 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="58"/>
+      <c r="A124" s="57"/>
       <c r="B124" s="51" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="C124" s="51" t="s">
         <v>288</v>
@@ -19801,9 +20076,9 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="58"/>
+      <c r="A125" s="57"/>
       <c r="B125" s="51" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="C125" s="51" t="s">
         <v>288</v>
@@ -19827,9 +20102,9 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="58"/>
+      <c r="A126" s="57"/>
       <c r="B126" s="51" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="C126" s="51" t="s">
         <v>288</v>
@@ -19853,9 +20128,9 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="58"/>
+      <c r="A127" s="57"/>
       <c r="B127" s="56" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="C127" s="51" t="s">
         <v>288</v>
@@ -19879,9 +20154,9 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="58"/>
+      <c r="A128" s="57"/>
       <c r="B128" s="51" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="C128" s="51" t="s">
         <v>296</v>
@@ -19905,9 +20180,9 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="58"/>
+      <c r="A129" s="57"/>
       <c r="B129" s="56" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="C129" s="51" t="s">
         <v>293</v>
@@ -19931,9 +20206,9 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="58"/>
+      <c r="A130" s="57"/>
       <c r="B130" s="56" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="C130" s="51" t="s">
         <v>288</v>
@@ -19951,7 +20226,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="58"/>
+      <c r="A131" s="57"/>
       <c r="B131" s="51" t="s">
         <v>294</v>
       </c>
@@ -19971,7 +20246,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="58"/>
+      <c r="A132" s="57"/>
       <c r="B132" s="51" t="s">
         <v>329</v>
       </c>
@@ -19990,7 +20265,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="58"/>
+      <c r="A133" s="57"/>
       <c r="B133" s="51" t="s">
         <v>304</v>
       </c>
@@ -20009,7 +20284,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="58"/>
+      <c r="A134" s="57"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -20020,7 +20295,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="58"/>
+      <c r="A135" s="57"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -20046,7 +20321,7 @@
         <v>276</v>
       </c>
       <c r="B137" s="55" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="C137" s="51" t="s">
         <v>288</v>
@@ -20071,7 +20346,7 @@
     <row r="138" spans="1:9">
       <c r="A138" s="60"/>
       <c r="B138" s="55" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="C138" s="51" t="s">
         <v>288</v>
@@ -20097,7 +20372,7 @@
     <row r="139" spans="1:9">
       <c r="A139" s="60"/>
       <c r="B139" s="55" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="C139" s="51" t="s">
         <v>285</v>
@@ -20149,7 +20424,7 @@
     <row r="141" spans="1:9">
       <c r="A141" s="60"/>
       <c r="B141" s="55" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="C141" s="51" t="s">
         <v>288</v>
@@ -20201,7 +20476,7 @@
     <row r="143" spans="1:9">
       <c r="A143" s="60"/>
       <c r="B143" s="55" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="C143" s="51" t="s">
         <v>288</v>
@@ -20227,7 +20502,7 @@
     <row r="144" spans="1:9">
       <c r="A144" s="60"/>
       <c r="B144" s="51" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="C144" s="51" t="s">
         <v>296</v>
@@ -20273,7 +20548,7 @@
     <row r="146" spans="1:9">
       <c r="A146" s="60"/>
       <c r="B146" s="56" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="C146" s="51" t="s">
         <v>293</v>
@@ -20293,7 +20568,7 @@
     <row r="147" spans="1:9">
       <c r="A147" s="60"/>
       <c r="B147" s="55" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="C147" s="51" t="s">
         <v>288</v>
@@ -20312,7 +20587,7 @@
     <row r="148" spans="1:9">
       <c r="A148" s="60"/>
       <c r="B148" s="55" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="C148" s="51" t="s">
         <v>288</v>

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vinoth\GIT\TeamProject\Project\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B1C05F1-CC24-4762-9BB8-C2F5339A1018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E01DE7C-EEC4-4D52-8249-4FEF2B5D3D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23263" windowHeight="12463" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2256,10 +2256,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2268,7 +2268,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -14190,7 +14190,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -14220,7 +14220,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="57"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="51" t="s">
         <v>289</v>
       </c>
@@ -14249,7 +14249,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="57"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="51" t="s">
         <v>291</v>
       </c>
@@ -14278,7 +14278,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="57"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="51" t="s">
         <v>292</v>
       </c>
@@ -14307,7 +14307,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="57"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="51" t="s">
         <v>294</v>
       </c>
@@ -14336,7 +14336,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="57"/>
+      <c r="A7" s="58"/>
       <c r="B7" t="s">
         <v>297</v>
       </c>
@@ -14365,7 +14365,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="57"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="51" t="s">
         <v>298</v>
       </c>
@@ -14391,7 +14391,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="57"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="51" t="s">
         <v>299</v>
       </c>
@@ -14417,7 +14417,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="57"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="51" t="s">
         <v>301</v>
       </c>
@@ -14437,7 +14437,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="57"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="51" t="s">
         <v>302</v>
       </c>
@@ -14457,7 +14457,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="57"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="51" t="s">
         <v>303</v>
       </c>
@@ -14476,7 +14476,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="57"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="51" t="s">
         <v>304</v>
       </c>
@@ -14495,7 +14495,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="57"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="51" t="s">
         <v>305</v>
       </c>
@@ -14514,7 +14514,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="57"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="51" t="s">
         <v>306</v>
       </c>
@@ -14533,7 +14533,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="57"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="52"/>
@@ -14544,7 +14544,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="58" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51"/>
@@ -14567,7 +14567,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="57"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="52">
@@ -14589,7 +14589,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="57"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="52">
@@ -14611,7 +14611,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="57"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
       <c r="D20" s="52">
@@ -14633,7 +14633,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="57"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="52">
@@ -14655,7 +14655,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="57"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="52">
@@ -14677,7 +14677,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="57"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="51" t="s">
         <v>73</v>
       </c>
@@ -14701,7 +14701,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="57"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52">
@@ -14723,7 +14723,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="57"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52">
@@ -14739,7 +14739,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="57"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -14751,7 +14751,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="57"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -14762,7 +14762,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="57"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -14773,7 +14773,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="57"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -14784,7 +14784,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="57"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -14795,7 +14795,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="57"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -14806,7 +14806,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="58" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -14833,7 +14833,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="57"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="51" t="s">
         <v>307</v>
       </c>
@@ -14859,7 +14859,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="57"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="51" t="s">
         <v>308</v>
       </c>
@@ -14885,7 +14885,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="57"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="51" t="s">
         <v>309</v>
       </c>
@@ -14911,7 +14911,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="57"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="51" t="s">
         <v>310</v>
       </c>
@@ -14937,7 +14937,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="57"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -14963,7 +14963,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="57"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="51" t="s">
         <v>312</v>
       </c>
@@ -14989,7 +14989,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="57"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="51" t="s">
         <v>313</v>
       </c>
@@ -15015,7 +15015,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="57"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="51" t="s">
         <v>314</v>
       </c>
@@ -15035,7 +15035,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="57"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="51" t="s">
         <v>312</v>
       </c>
@@ -15055,7 +15055,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="57"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="51" t="s">
         <v>315</v>
       </c>
@@ -15074,7 +15074,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="57"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="51" t="s">
         <v>309</v>
       </c>
@@ -15093,7 +15093,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="57"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="51" t="s">
         <v>316</v>
       </c>
@@ -15112,7 +15112,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="57"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -15358,7 +15358,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="61" t="s">
+      <c r="A62" s="57" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -15385,7 +15385,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="57"/>
+      <c r="A63" s="58"/>
       <c r="B63" s="51" t="s">
         <v>284</v>
       </c>
@@ -15410,7 +15410,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="57"/>
+      <c r="A64" s="58"/>
       <c r="B64" s="51" t="s">
         <v>318</v>
       </c>
@@ -15436,7 +15436,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="57"/>
+      <c r="A65" s="58"/>
       <c r="B65" s="51" t="s">
         <v>313</v>
       </c>
@@ -15462,7 +15462,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="57"/>
+      <c r="A66" s="58"/>
       <c r="B66" s="51" t="s">
         <v>319</v>
       </c>
@@ -15488,7 +15488,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="57"/>
+      <c r="A67" s="58"/>
       <c r="B67" s="51" t="s">
         <v>302</v>
       </c>
@@ -15514,7 +15514,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="57"/>
+      <c r="A68" s="58"/>
       <c r="B68" s="51" t="s">
         <v>304</v>
       </c>
@@ -15540,7 +15540,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="57"/>
+      <c r="A69" s="58"/>
       <c r="B69" s="51" t="s">
         <v>315</v>
       </c>
@@ -15566,7 +15566,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="57"/>
+      <c r="A70" s="58"/>
       <c r="B70" s="51" t="s">
         <v>320</v>
       </c>
@@ -15586,7 +15586,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="57"/>
+      <c r="A71" s="58"/>
       <c r="B71" s="51" t="s">
         <v>306</v>
       </c>
@@ -15606,7 +15606,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="57"/>
+      <c r="A72" s="58"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -15617,7 +15617,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="57"/>
+      <c r="A73" s="58"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -15628,7 +15628,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="57"/>
+      <c r="A74" s="58"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -15639,7 +15639,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="57"/>
+      <c r="A75" s="58"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -15650,7 +15650,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="57"/>
+      <c r="A76" s="58"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -15661,7 +15661,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="57" t="s">
+      <c r="A77" s="58" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -15688,7 +15688,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="57"/>
+      <c r="A78" s="58"/>
       <c r="B78" s="51" t="s">
         <v>322</v>
       </c>
@@ -15714,7 +15714,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="57"/>
+      <c r="A79" s="58"/>
       <c r="B79" s="51" t="s">
         <v>323</v>
       </c>
@@ -15740,7 +15740,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="57"/>
+      <c r="A80" s="58"/>
       <c r="B80" s="51" t="s">
         <v>324</v>
       </c>
@@ -15766,7 +15766,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="57"/>
+      <c r="A81" s="58"/>
       <c r="B81" s="51" t="s">
         <v>325</v>
       </c>
@@ -15792,7 +15792,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="57"/>
+      <c r="A82" s="58"/>
       <c r="B82" s="51" t="s">
         <v>326</v>
       </c>
@@ -15818,7 +15818,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="57"/>
+      <c r="A83" s="58"/>
       <c r="B83" s="51" t="s">
         <v>327</v>
       </c>
@@ -15844,7 +15844,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="57"/>
+      <c r="A84" s="58"/>
       <c r="B84" s="51" t="s">
         <v>328</v>
       </c>
@@ -15870,7 +15870,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="57"/>
+      <c r="A85" s="58"/>
       <c r="B85" s="51" t="s">
         <v>294</v>
       </c>
@@ -15890,7 +15890,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="57"/>
+      <c r="A86" s="58"/>
       <c r="B86" s="51" t="s">
         <v>329</v>
       </c>
@@ -15910,7 +15910,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="57"/>
+      <c r="A87" s="58"/>
       <c r="B87" s="51" t="s">
         <v>304</v>
       </c>
@@ -15929,7 +15929,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="57"/>
+      <c r="A88" s="58"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -15940,7 +15940,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="57"/>
+      <c r="A89" s="58"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -15951,7 +15951,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="57"/>
+      <c r="A90" s="58"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -15962,7 +15962,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="58"/>
+      <c r="A91" s="61"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -15973,7 +15973,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="61" t="s">
+      <c r="A92" s="57" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -16000,7 +16000,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="57"/>
+      <c r="A93" s="58"/>
       <c r="B93" s="51" t="s">
         <v>330</v>
       </c>
@@ -16026,7 +16026,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="57"/>
+      <c r="A94" s="58"/>
       <c r="B94" s="56" t="s">
         <v>331</v>
       </c>
@@ -16052,7 +16052,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="57"/>
+      <c r="A95" s="58"/>
       <c r="B95" s="51" t="s">
         <v>309</v>
       </c>
@@ -16078,7 +16078,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="57"/>
+      <c r="A96" s="58"/>
       <c r="B96" s="51" t="s">
         <v>332</v>
       </c>
@@ -16104,7 +16104,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="57"/>
+      <c r="A97" s="58"/>
       <c r="B97" s="51" t="s">
         <v>311</v>
       </c>
@@ -16130,7 +16130,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="57"/>
+      <c r="A98" s="58"/>
       <c r="B98" s="51" t="s">
         <v>313</v>
       </c>
@@ -16156,7 +16156,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="57"/>
+      <c r="A99" s="58"/>
       <c r="B99" s="51" t="s">
         <v>333</v>
       </c>
@@ -16182,7 +16182,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="57"/>
+      <c r="A100" s="58"/>
       <c r="B100" s="51" t="s">
         <v>334</v>
       </c>
@@ -16202,7 +16202,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="57"/>
+      <c r="A101" s="58"/>
       <c r="B101" s="51" t="s">
         <v>309</v>
       </c>
@@ -16222,7 +16222,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="57"/>
+      <c r="A102" s="58"/>
       <c r="B102" s="51" t="s">
         <v>316</v>
       </c>
@@ -16241,7 +16241,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="57"/>
+      <c r="A103" s="58"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -16249,7 +16249,7 @@
       <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="57"/>
+      <c r="A104" s="58"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
@@ -16257,7 +16257,7 @@
       <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="57"/>
+      <c r="A105" s="58"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -16585,7 +16585,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="61" t="s">
+      <c r="A122" s="57" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -16612,7 +16612,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="57"/>
+      <c r="A123" s="58"/>
       <c r="B123" s="51" t="s">
         <v>322</v>
       </c>
@@ -16638,7 +16638,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="57"/>
+      <c r="A124" s="58"/>
       <c r="B124" s="51" t="s">
         <v>294</v>
       </c>
@@ -16664,7 +16664,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="57"/>
+      <c r="A125" s="58"/>
       <c r="B125" s="51" t="s">
         <v>344</v>
       </c>
@@ -16690,7 +16690,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="57"/>
+      <c r="A126" s="58"/>
       <c r="B126" s="51" t="s">
         <v>329</v>
       </c>
@@ -16716,7 +16716,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="57"/>
+      <c r="A127" s="58"/>
       <c r="B127" s="56" t="s">
         <v>345</v>
       </c>
@@ -16742,7 +16742,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="57"/>
+      <c r="A128" s="58"/>
       <c r="B128" s="51" t="s">
         <v>346</v>
       </c>
@@ -16768,7 +16768,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="57"/>
+      <c r="A129" s="58"/>
       <c r="B129" s="56" t="s">
         <v>304</v>
       </c>
@@ -16794,7 +16794,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="57"/>
+      <c r="A130" s="58"/>
       <c r="B130" s="56" t="s">
         <v>304</v>
       </c>
@@ -16814,7 +16814,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="57"/>
+      <c r="A131" s="58"/>
       <c r="B131" s="51" t="s">
         <v>347</v>
       </c>
@@ -16834,7 +16834,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="57"/>
+      <c r="A132" s="58"/>
       <c r="B132" s="51" t="s">
         <v>348</v>
       </c>
@@ -16853,7 +16853,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="57"/>
+      <c r="A133" s="58"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -16864,7 +16864,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="57"/>
+      <c r="A134" s="58"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -16875,7 +16875,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="57"/>
+      <c r="A135" s="58"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -17201,7 +17201,7 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="61" t="s">
+      <c r="A152" s="57" t="s">
         <v>355</v>
       </c>
       <c r="B152" s="51" t="s">
@@ -17228,7 +17228,7 @@
       </c>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="57"/>
+      <c r="A153" s="58"/>
       <c r="B153" s="51" t="s">
         <v>357</v>
       </c>
@@ -17254,7 +17254,7 @@
       </c>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="57"/>
+      <c r="A154" s="58"/>
       <c r="B154" s="51" t="s">
         <v>341</v>
       </c>
@@ -17280,7 +17280,7 @@
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="57"/>
+      <c r="A155" s="58"/>
       <c r="B155" s="51" t="s">
         <v>357</v>
       </c>
@@ -17306,7 +17306,7 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="57"/>
+      <c r="A156" s="58"/>
       <c r="B156" s="51" t="s">
         <v>301</v>
       </c>
@@ -17332,7 +17332,7 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="57"/>
+      <c r="A157" s="58"/>
       <c r="B157" s="51" t="s">
         <v>294</v>
       </c>
@@ -17358,7 +17358,7 @@
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="57"/>
+      <c r="A158" s="58"/>
       <c r="B158" s="51" t="s">
         <v>304</v>
       </c>
@@ -17384,7 +17384,7 @@
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="57"/>
+      <c r="A159" s="58"/>
       <c r="B159" s="51" t="s">
         <v>358</v>
       </c>
@@ -17410,7 +17410,7 @@
       </c>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="57"/>
+      <c r="A160" s="58"/>
       <c r="B160" s="51" t="s">
         <v>359</v>
       </c>
@@ -17430,7 +17430,7 @@
       <c r="I160" s="54"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="57"/>
+      <c r="A161" s="58"/>
       <c r="B161" s="51"/>
       <c r="C161" s="51"/>
       <c r="D161" s="52"/>
@@ -17442,7 +17442,7 @@
       <c r="I161" s="54"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="57"/>
+      <c r="A162" s="58"/>
       <c r="B162" s="51"/>
       <c r="C162" s="51"/>
       <c r="D162" s="52"/>
@@ -17453,7 +17453,7 @@
       </c>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="57"/>
+      <c r="A163" s="58"/>
       <c r="B163" s="51"/>
       <c r="C163" s="51"/>
       <c r="D163" s="52"/>
@@ -17464,7 +17464,7 @@
       </c>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="57"/>
+      <c r="A164" s="58"/>
       <c r="B164" s="51"/>
       <c r="C164" s="51"/>
       <c r="D164" s="52"/>
@@ -17475,7 +17475,7 @@
       </c>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="57"/>
+      <c r="A165" s="58"/>
       <c r="B165" s="51"/>
       <c r="C165" s="51"/>
       <c r="D165" s="52"/>
@@ -17486,7 +17486,7 @@
       </c>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="57"/>
+      <c r="A166" s="58"/>
       <c r="B166" s="51"/>
       <c r="C166" s="51"/>
       <c r="D166" s="52"/>
@@ -17498,17 +17498,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
@@ -17614,7 +17614,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -17644,7 +17644,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="57"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="51" t="s">
         <v>360</v>
       </c>
@@ -17673,7 +17673,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="57"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="51" t="s">
         <v>361</v>
       </c>
@@ -17702,7 +17702,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="57"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="51" t="s">
         <v>309</v>
       </c>
@@ -17731,7 +17731,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="57"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="51" t="s">
         <v>311</v>
       </c>
@@ -17760,7 +17760,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="57"/>
+      <c r="A7" s="58"/>
       <c r="B7" t="s">
         <v>362</v>
       </c>
@@ -17789,7 +17789,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="57"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="51" t="s">
         <v>363</v>
       </c>
@@ -17815,7 +17815,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="57"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="51" t="s">
         <v>364</v>
       </c>
@@ -17841,7 +17841,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="57"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="51" t="s">
         <v>329</v>
       </c>
@@ -17861,7 +17861,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="57"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="51" t="s">
         <v>365</v>
       </c>
@@ -17881,7 +17881,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="57"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="51" t="s">
         <v>345</v>
       </c>
@@ -17900,7 +17900,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="57"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="51" t="s">
         <v>309</v>
       </c>
@@ -17919,7 +17919,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="57"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="51" t="s">
         <v>366</v>
       </c>
@@ -17938,7 +17938,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="57"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="51" t="s">
         <v>367</v>
       </c>
@@ -17957,7 +17957,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="57"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="51" t="s">
         <v>368</v>
       </c>
@@ -17976,7 +17976,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="58" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -18003,7 +18003,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="57"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="51" t="s">
         <v>370</v>
       </c>
@@ -18029,7 +18029,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="57"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="51" t="s">
         <v>342</v>
       </c>
@@ -18055,7 +18055,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="57"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="51" t="s">
         <v>371</v>
       </c>
@@ -18081,7 +18081,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="57"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="51" t="s">
         <v>372</v>
       </c>
@@ -18107,7 +18107,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="57"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -18133,7 +18133,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="57"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="51" t="s">
         <v>373</v>
       </c>
@@ -18159,7 +18159,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="57"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="51" t="s">
         <v>374</v>
       </c>
@@ -18185,7 +18185,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="57"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="51" t="s">
         <v>304</v>
       </c>
@@ -18205,7 +18205,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="57"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="51" t="s">
         <v>375</v>
       </c>
@@ -18225,7 +18225,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="57"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="51" t="s">
         <v>376</v>
       </c>
@@ -18244,7 +18244,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="57"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="51" t="s">
         <v>377</v>
       </c>
@@ -18263,7 +18263,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="57"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="51" t="s">
         <v>378</v>
       </c>
@@ -18282,7 +18282,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="57"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -18293,7 +18293,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="57"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -18304,7 +18304,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="58" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -18331,7 +18331,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="57"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="51" t="s">
         <v>380</v>
       </c>
@@ -18357,7 +18357,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="57"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="51" t="s">
         <v>370</v>
       </c>
@@ -18383,7 +18383,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="57"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="51" t="s">
         <v>294</v>
       </c>
@@ -18409,7 +18409,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="57"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="51" t="s">
         <v>381</v>
       </c>
@@ -18435,7 +18435,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="57"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -18461,7 +18461,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="57"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="51" t="s">
         <v>382</v>
       </c>
@@ -18487,7 +18487,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="57"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -18513,7 +18513,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="57"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="51" t="s">
         <v>383</v>
       </c>
@@ -18533,7 +18533,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="57"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="51" t="s">
         <v>374</v>
       </c>
@@ -18553,7 +18553,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="57"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="51" t="s">
         <v>304</v>
       </c>
@@ -18572,7 +18572,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="57"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="51" t="s">
         <v>384</v>
       </c>
@@ -18591,7 +18591,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="57"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="51" t="s">
         <v>385</v>
       </c>
@@ -18610,7 +18610,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="57"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="51" t="s">
         <v>386</v>
       </c>
@@ -18874,7 +18874,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="61" t="s">
+      <c r="A62" s="57" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -18893,7 +18893,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="57"/>
+      <c r="A63" s="58"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -18910,7 +18910,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="57"/>
+      <c r="A64" s="58"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -18928,7 +18928,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="57"/>
+      <c r="A65" s="58"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -18946,7 +18946,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="57"/>
+      <c r="A66" s="58"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -18964,7 +18964,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="57"/>
+      <c r="A67" s="58"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -18982,7 +18982,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="57"/>
+      <c r="A68" s="58"/>
       <c r="B68" s="56" t="s">
         <v>388</v>
       </c>
@@ -19002,7 +19002,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="57"/>
+      <c r="A69" s="58"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -19020,7 +19020,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="57"/>
+      <c r="A70" s="58"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -19032,7 +19032,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="57"/>
+      <c r="A71" s="58"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -19044,7 +19044,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="57"/>
+      <c r="A72" s="58"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -19055,7 +19055,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="57"/>
+      <c r="A73" s="58"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -19066,7 +19066,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="57"/>
+      <c r="A74" s="58"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -19077,7 +19077,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="57"/>
+      <c r="A75" s="58"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -19088,7 +19088,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="57"/>
+      <c r="A76" s="58"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -19099,7 +19099,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="57" t="s">
+      <c r="A77" s="58" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -19126,7 +19126,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="57"/>
+      <c r="A78" s="58"/>
       <c r="B78" s="51" t="s">
         <v>389</v>
       </c>
@@ -19152,7 +19152,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="57"/>
+      <c r="A79" s="58"/>
       <c r="B79" s="51" t="s">
         <v>390</v>
       </c>
@@ -19178,7 +19178,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="57"/>
+      <c r="A80" s="58"/>
       <c r="B80" s="51" t="s">
         <v>309</v>
       </c>
@@ -19204,7 +19204,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="57"/>
+      <c r="A81" s="58"/>
       <c r="B81" s="51" t="s">
         <v>391</v>
       </c>
@@ -19230,7 +19230,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="57"/>
+      <c r="A82" s="58"/>
       <c r="B82" s="51" t="s">
         <v>392</v>
       </c>
@@ -19256,7 +19256,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="57"/>
+      <c r="A83" s="58"/>
       <c r="B83" s="51" t="s">
         <v>329</v>
       </c>
@@ -19282,7 +19282,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="57"/>
+      <c r="A84" s="58"/>
       <c r="B84" s="51" t="s">
         <v>393</v>
       </c>
@@ -19308,7 +19308,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="57"/>
+      <c r="A85" s="58"/>
       <c r="B85" s="51" t="s">
         <v>394</v>
       </c>
@@ -19328,7 +19328,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="57"/>
+      <c r="A86" s="58"/>
       <c r="B86" s="51" t="s">
         <v>309</v>
       </c>
@@ -19348,7 +19348,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="57"/>
+      <c r="A87" s="58"/>
       <c r="B87" s="51" t="s">
         <v>385</v>
       </c>
@@ -19367,7 +19367,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="57"/>
+      <c r="A88" s="58"/>
       <c r="B88" s="51" t="s">
         <v>395</v>
       </c>
@@ -19386,7 +19386,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="57"/>
+      <c r="A89" s="58"/>
       <c r="B89" s="51" t="s">
         <v>396</v>
       </c>
@@ -19405,7 +19405,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="57"/>
+      <c r="A90" s="58"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -19416,7 +19416,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="58"/>
+      <c r="A91" s="61"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -19427,7 +19427,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="61" t="s">
+      <c r="A92" s="57" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -19454,7 +19454,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="57"/>
+      <c r="A93" s="58"/>
       <c r="B93" s="51" t="s">
         <v>398</v>
       </c>
@@ -19480,7 +19480,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="57"/>
+      <c r="A94" s="58"/>
       <c r="B94" s="56" t="s">
         <v>399</v>
       </c>
@@ -19506,7 +19506,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="57"/>
+      <c r="A95" s="58"/>
       <c r="B95" s="51" t="s">
         <v>400</v>
       </c>
@@ -19532,7 +19532,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="57"/>
+      <c r="A96" s="58"/>
       <c r="B96" s="51" t="s">
         <v>342</v>
       </c>
@@ -19558,7 +19558,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="57"/>
+      <c r="A97" s="58"/>
       <c r="B97" s="51" t="s">
         <v>401</v>
       </c>
@@ -19584,7 +19584,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="57"/>
+      <c r="A98" s="58"/>
       <c r="B98" s="51" t="s">
         <v>402</v>
       </c>
@@ -19610,7 +19610,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="57"/>
+      <c r="A99" s="58"/>
       <c r="B99" s="51" t="s">
         <v>403</v>
       </c>
@@ -19636,7 +19636,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="57"/>
+      <c r="A100" s="58"/>
       <c r="B100" s="51" t="s">
         <v>404</v>
       </c>
@@ -19656,7 +19656,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="57"/>
+      <c r="A101" s="58"/>
       <c r="B101" s="51" t="s">
         <v>405</v>
       </c>
@@ -19676,7 +19676,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="57"/>
+      <c r="A102" s="58"/>
       <c r="B102" s="51" t="s">
         <v>406</v>
       </c>
@@ -19695,7 +19695,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="57"/>
+      <c r="A103" s="58"/>
       <c r="B103" s="51" t="s">
         <v>407</v>
       </c>
@@ -19714,7 +19714,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="57"/>
+      <c r="A104" s="58"/>
       <c r="B104" s="51" t="s">
         <v>304</v>
       </c>
@@ -19733,7 +19733,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="57"/>
+      <c r="A105" s="58"/>
       <c r="B105" s="51" t="s">
         <v>408</v>
       </c>
@@ -19997,7 +19997,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="61" t="s">
+      <c r="A122" s="57" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -20024,7 +20024,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="57"/>
+      <c r="A123" s="58"/>
       <c r="B123" s="51" t="s">
         <v>411</v>
       </c>
@@ -20050,7 +20050,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="57"/>
+      <c r="A124" s="58"/>
       <c r="B124" s="51" t="s">
         <v>412</v>
       </c>
@@ -20076,7 +20076,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="57"/>
+      <c r="A125" s="58"/>
       <c r="B125" s="51" t="s">
         <v>413</v>
       </c>
@@ -20102,7 +20102,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="57"/>
+      <c r="A126" s="58"/>
       <c r="B126" s="51" t="s">
         <v>414</v>
       </c>
@@ -20128,7 +20128,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="57"/>
+      <c r="A127" s="58"/>
       <c r="B127" s="56" t="s">
         <v>415</v>
       </c>
@@ -20154,7 +20154,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="57"/>
+      <c r="A128" s="58"/>
       <c r="B128" s="51" t="s">
         <v>416</v>
       </c>
@@ -20180,7 +20180,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="57"/>
+      <c r="A129" s="58"/>
       <c r="B129" s="56" t="s">
         <v>417</v>
       </c>
@@ -20206,7 +20206,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="57"/>
+      <c r="A130" s="58"/>
       <c r="B130" s="56" t="s">
         <v>418</v>
       </c>
@@ -20226,7 +20226,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="57"/>
+      <c r="A131" s="58"/>
       <c r="B131" s="51" t="s">
         <v>294</v>
       </c>
@@ -20246,7 +20246,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="57"/>
+      <c r="A132" s="58"/>
       <c r="B132" s="51" t="s">
         <v>329</v>
       </c>
@@ -20265,7 +20265,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="57"/>
+      <c r="A133" s="58"/>
       <c r="B133" s="51" t="s">
         <v>304</v>
       </c>
@@ -20284,7 +20284,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="57"/>
+      <c r="A134" s="58"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -20295,7 +20295,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="57"/>
+      <c r="A135" s="58"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vinoth\GIT\TeamProject\Project\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E01DE7C-EEC4-4D52-8249-4FEF2B5D3D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92A73F3D-2B08-4E6E-B5F9-FCBC6E3248EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23263" windowHeight="12463" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23263" windowHeight="12463" firstSheet="17" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 3(06-04-2022)" sheetId="40" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="Day18(27-04-2022) " sheetId="61" r:id="rId16"/>
     <sheet name="Day19(28-04-2022)" sheetId="62" r:id="rId17"/>
     <sheet name="Day20(29-04-2022)" sheetId="63" r:id="rId18"/>
+    <sheet name="Day21(30-04-2022)" sheetId="64" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="433">
   <si>
     <t>Column1</t>
   </si>
@@ -1778,6 +1779,27 @@
   </si>
   <si>
     <t>Corrections done in every pages</t>
+  </si>
+  <si>
+    <t>Started working on Models</t>
+  </si>
+  <si>
+    <t>Relaxing &amp; Snacks</t>
+  </si>
+  <si>
+    <t>Done sample migration for Department Table</t>
+  </si>
+  <si>
+    <t>Lunch &amp; Sleep</t>
+  </si>
+  <si>
+    <t>Started working on Models for all Entities with Relationship</t>
+  </si>
+  <si>
+    <t>Resting and watching Youtube</t>
+  </si>
+  <si>
+    <t>Created 2 data models with Relationships and keys</t>
   </si>
 </sst>
 </file>
@@ -1876,7 +1898,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2108,11 +2130,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2256,10 +2291,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2268,14 +2303,150 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="362">
+  <dxfs count="375">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -10838,464 +11009,464 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="B9:H19" totalsRowShown="0" headerRowDxfId="361" dataDxfId="360" headerRowBorderDxfId="358" tableBorderDxfId="359" totalsRowBorderDxfId="357">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="B9:H19" totalsRowShown="0" headerRowDxfId="374" dataDxfId="373" headerRowBorderDxfId="371" tableBorderDxfId="372" totalsRowBorderDxfId="370">
   <autoFilter ref="B9:H19" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Resource Name" dataDxfId="356"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="In-progress" dataDxfId="355"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Done" dataDxfId="354"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Discarded / Hold" dataDxfId="353"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Hours Spent - Project" dataDxfId="352"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Hours Spent - Non Project" dataDxfId="351"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Comments" dataDxfId="350"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Resource Name" dataDxfId="369"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="In-progress" dataDxfId="368"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Done" dataDxfId="367"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Discarded / Hold" dataDxfId="366"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Hours Spent - Project" dataDxfId="365"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Hours Spent - Non Project" dataDxfId="364"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Comments" dataDxfId="363"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table3751113" displayName="Table3751113" ref="B2:E4" totalsRowShown="0" headerRowDxfId="265" dataDxfId="264" headerRowBorderDxfId="262" tableBorderDxfId="263" totalsRowBorderDxfId="261">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table3751113" displayName="Table3751113" ref="B2:E4" totalsRowShown="0" headerRowDxfId="278" dataDxfId="277" headerRowBorderDxfId="275" tableBorderDxfId="276" totalsRowBorderDxfId="274">
   <autoFilter ref="B2:E4" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Column1" dataDxfId="260"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Column2" dataDxfId="259"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Column3" dataDxfId="258"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Column4" dataDxfId="257"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Column1" dataDxfId="273"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Column2" dataDxfId="272"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Column3" dataDxfId="271"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Column4" dataDxfId="270"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table2621014" displayName="Table2621014" ref="B7:H17" totalsRowShown="0" headerRowDxfId="256" dataDxfId="255" headerRowBorderDxfId="253" tableBorderDxfId="254" totalsRowBorderDxfId="252">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table2621014" displayName="Table2621014" ref="B7:H17" totalsRowShown="0" headerRowDxfId="269" dataDxfId="268" headerRowBorderDxfId="266" tableBorderDxfId="267" totalsRowBorderDxfId="265">
   <autoFilter ref="B7:H17" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Resource Name" dataDxfId="251"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="In-progress" dataDxfId="250"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Done" dataDxfId="249"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Discarded / Hold" dataDxfId="248"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Hours Spent - Project" dataDxfId="247"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="Hours Spent - Non Project" dataDxfId="246"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="Comments" dataDxfId="245"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Resource Name" dataDxfId="264"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="In-progress" dataDxfId="263"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Done" dataDxfId="262"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Discarded / Hold" dataDxfId="261"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Hours Spent - Project" dataDxfId="260"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="Hours Spent - Non Project" dataDxfId="259"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="Comments" dataDxfId="258"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table3751115" displayName="Table3751115" ref="B2:E4" totalsRowShown="0" headerRowDxfId="244" dataDxfId="243" headerRowBorderDxfId="241" tableBorderDxfId="242" totalsRowBorderDxfId="240">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table3751115" displayName="Table3751115" ref="B2:E4" totalsRowShown="0" headerRowDxfId="257" dataDxfId="256" headerRowBorderDxfId="254" tableBorderDxfId="255" totalsRowBorderDxfId="253">
   <autoFilter ref="B2:E4" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Column1" dataDxfId="239"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Column2" dataDxfId="238"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Column3" dataDxfId="237"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Column4" dataDxfId="236"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Column1" dataDxfId="252"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Column2" dataDxfId="251"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Column3" dataDxfId="250"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Column4" dataDxfId="249"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table26210" displayName="Table26210" ref="B7:H17" totalsRowShown="0" headerRowDxfId="235" dataDxfId="234" headerRowBorderDxfId="232" tableBorderDxfId="233" totalsRowBorderDxfId="231">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table26210" displayName="Table26210" ref="B7:H17" totalsRowShown="0" headerRowDxfId="248" dataDxfId="247" headerRowBorderDxfId="245" tableBorderDxfId="246" totalsRowBorderDxfId="244">
   <autoFilter ref="B7:H17" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Resource Name" dataDxfId="230"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="In-progress" dataDxfId="229"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Done" dataDxfId="228"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Discarded / Hold" dataDxfId="227"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Hours Spent - Project" dataDxfId="226"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="Hours Spent - Non Project" dataDxfId="225"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="Comments" dataDxfId="224"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Resource Name" dataDxfId="243"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="In-progress" dataDxfId="242"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Done" dataDxfId="241"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Discarded / Hold" dataDxfId="240"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Hours Spent - Project" dataDxfId="239"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="Hours Spent - Non Project" dataDxfId="238"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="Comments" dataDxfId="237"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table37511" displayName="Table37511" ref="B2:E4" totalsRowShown="0" headerRowDxfId="223" dataDxfId="222" headerRowBorderDxfId="220" tableBorderDxfId="221" totalsRowBorderDxfId="219">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table37511" displayName="Table37511" ref="B2:E4" totalsRowShown="0" headerRowDxfId="236" dataDxfId="235" headerRowBorderDxfId="233" tableBorderDxfId="234" totalsRowBorderDxfId="232">
   <autoFilter ref="B2:E4" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="Column1" dataDxfId="218"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="Column2" dataDxfId="217"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="Column3" dataDxfId="216"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="Column4" dataDxfId="215"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="Column1" dataDxfId="231"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="Column2" dataDxfId="230"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="Column3" dataDxfId="229"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="Column4" dataDxfId="228"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table2621016" displayName="Table2621016" ref="B7:H17" totalsRowShown="0" headerRowDxfId="214" dataDxfId="213" headerRowBorderDxfId="211" tableBorderDxfId="212" totalsRowBorderDxfId="210">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table2621016" displayName="Table2621016" ref="B7:H17" totalsRowShown="0" headerRowDxfId="227" dataDxfId="226" headerRowBorderDxfId="224" tableBorderDxfId="225" totalsRowBorderDxfId="223">
   <autoFilter ref="B7:H17" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="Resource Name" dataDxfId="209"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="In-progress" dataDxfId="208"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="Done" dataDxfId="207"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="Discarded / Hold" dataDxfId="206"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="Hours Spent - Project" dataDxfId="205"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="Hours Spent - Non Project" dataDxfId="204"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" name="Comments" dataDxfId="203"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="Resource Name" dataDxfId="222"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="In-progress" dataDxfId="221"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="Done" dataDxfId="220"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="Discarded / Hold" dataDxfId="219"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="Hours Spent - Project" dataDxfId="218"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="Hours Spent - Non Project" dataDxfId="217"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" name="Comments" dataDxfId="216"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table3751117" displayName="Table3751117" ref="B2:E4" totalsRowShown="0" headerRowDxfId="202" dataDxfId="201" headerRowBorderDxfId="199" tableBorderDxfId="200" totalsRowBorderDxfId="198">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table3751117" displayName="Table3751117" ref="B2:E4" totalsRowShown="0" headerRowDxfId="215" dataDxfId="214" headerRowBorderDxfId="212" tableBorderDxfId="213" totalsRowBorderDxfId="211">
   <autoFilter ref="B2:E4" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="Column1" dataDxfId="197"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="Column2" dataDxfId="196"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="Column3" dataDxfId="195"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="Column4" dataDxfId="194"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="Column1" dataDxfId="210"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="Column2" dataDxfId="209"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="Column3" dataDxfId="208"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="Column4" dataDxfId="207"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table262101618" displayName="Table262101618" ref="B7:H17" totalsRowShown="0" headerRowDxfId="193" dataDxfId="192" headerRowBorderDxfId="190" tableBorderDxfId="191" totalsRowBorderDxfId="189">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table262101618" displayName="Table262101618" ref="B7:H17" totalsRowShown="0" headerRowDxfId="206" dataDxfId="205" headerRowBorderDxfId="203" tableBorderDxfId="204" totalsRowBorderDxfId="202">
   <autoFilter ref="B7:H17" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="Resource Name" dataDxfId="188"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="In-progress" dataDxfId="187"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="Done" dataDxfId="186"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="Discarded / Hold" dataDxfId="185"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" name="Hours Spent - Project" dataDxfId="184"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" name="Hours Spent - Non Project" dataDxfId="183"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1000-000007000000}" name="Comments" dataDxfId="182"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="Resource Name" dataDxfId="201"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="In-progress" dataDxfId="200"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="Done" dataDxfId="199"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="Discarded / Hold" dataDxfId="198"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" name="Hours Spent - Project" dataDxfId="197"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" name="Hours Spent - Non Project" dataDxfId="196"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1000-000007000000}" name="Comments" dataDxfId="195"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table375111719" displayName="Table375111719" ref="B2:E4" totalsRowShown="0" headerRowDxfId="181" dataDxfId="180" headerRowBorderDxfId="178" tableBorderDxfId="179" totalsRowBorderDxfId="177">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table375111719" displayName="Table375111719" ref="B2:E4" totalsRowShown="0" headerRowDxfId="194" dataDxfId="193" headerRowBorderDxfId="191" tableBorderDxfId="192" totalsRowBorderDxfId="190">
   <autoFilter ref="B2:E4" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="Column1" dataDxfId="176"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="Column2" dataDxfId="175"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="Column3" dataDxfId="174"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="Column4" dataDxfId="173"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="Column1" dataDxfId="189"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="Column2" dataDxfId="188"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="Column3" dataDxfId="187"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="Column4" dataDxfId="186"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table26210161820" displayName="Table26210161820" ref="B7:H17" totalsRowShown="0" headerRowDxfId="172" dataDxfId="171" headerRowBorderDxfId="169" tableBorderDxfId="170" totalsRowBorderDxfId="168">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table26210161820" displayName="Table26210161820" ref="B7:H17" totalsRowShown="0" headerRowDxfId="185" dataDxfId="184" headerRowBorderDxfId="182" tableBorderDxfId="183" totalsRowBorderDxfId="181">
   <autoFilter ref="B7:H17" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="Resource Name" dataDxfId="167"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="In-progress" dataDxfId="166"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="Done" dataDxfId="165"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="Discarded / Hold" dataDxfId="164"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="Hours Spent - Project" dataDxfId="163"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" name="Hours Spent - Non Project" dataDxfId="162"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" name="Comments" dataDxfId="161"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="Resource Name" dataDxfId="180"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="In-progress" dataDxfId="179"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="Done" dataDxfId="178"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="Discarded / Hold" dataDxfId="177"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="Hours Spent - Project" dataDxfId="176"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" name="Hours Spent - Non Project" dataDxfId="175"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" name="Comments" dataDxfId="174"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="B4:E6" totalsRowShown="0" headerRowDxfId="349" dataDxfId="348" headerRowBorderDxfId="346" tableBorderDxfId="347" totalsRowBorderDxfId="345">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="B4:E6" totalsRowShown="0" headerRowDxfId="362" dataDxfId="361" headerRowBorderDxfId="359" tableBorderDxfId="360" totalsRowBorderDxfId="358">
   <autoFilter ref="B4:E6" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1" dataDxfId="344"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Column2" dataDxfId="343"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Column3" dataDxfId="342"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Column4" dataDxfId="341"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1" dataDxfId="357"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Column2" dataDxfId="356"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Column3" dataDxfId="355"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Column4" dataDxfId="354"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table37511171921" displayName="Table37511171921" ref="B2:E4" totalsRowShown="0" headerRowDxfId="160" dataDxfId="159" headerRowBorderDxfId="157" tableBorderDxfId="158" totalsRowBorderDxfId="156">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table37511171921" displayName="Table37511171921" ref="B2:E4" totalsRowShown="0" headerRowDxfId="173" dataDxfId="172" headerRowBorderDxfId="170" tableBorderDxfId="171" totalsRowBorderDxfId="169">
   <autoFilter ref="B2:E4" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="Column1" dataDxfId="155"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="Column2" dataDxfId="154"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="Column3" dataDxfId="153"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="Column4" dataDxfId="152"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="Column1" dataDxfId="168"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="Column2" dataDxfId="167"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="Column3" dataDxfId="166"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="Column4" dataDxfId="165"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table2621016182022" displayName="Table2621016182022" ref="B7:H17" totalsRowShown="0" headerRowDxfId="151" dataDxfId="150" headerRowBorderDxfId="148" tableBorderDxfId="149" totalsRowBorderDxfId="147">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table2621016182022" displayName="Table2621016182022" ref="B7:H17" totalsRowShown="0" headerRowDxfId="164" dataDxfId="163" headerRowBorderDxfId="161" tableBorderDxfId="162" totalsRowBorderDxfId="160">
   <autoFilter ref="B7:H17" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="Resource Name" dataDxfId="146"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="In-progress" dataDxfId="145"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="Done" dataDxfId="144"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="Discarded / Hold" dataDxfId="143"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1400-000005000000}" name="Hours Spent - Project" dataDxfId="142"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1400-000006000000}" name="Hours Spent - Non Project" dataDxfId="141"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1400-000007000000}" name="Comments" dataDxfId="140"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="Resource Name" dataDxfId="159"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="In-progress" dataDxfId="158"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="Done" dataDxfId="157"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="Discarded / Hold" dataDxfId="156"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1400-000005000000}" name="Hours Spent - Project" dataDxfId="155"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1400-000006000000}" name="Hours Spent - Non Project" dataDxfId="154"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1400-000007000000}" name="Comments" dataDxfId="153"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Table3751117192123" displayName="Table3751117192123" ref="B2:E4" totalsRowShown="0" headerRowDxfId="139" dataDxfId="138" headerRowBorderDxfId="136" tableBorderDxfId="137" totalsRowBorderDxfId="135">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Table3751117192123" displayName="Table3751117192123" ref="B2:E4" totalsRowShown="0" headerRowDxfId="152" dataDxfId="151" headerRowBorderDxfId="149" tableBorderDxfId="150" totalsRowBorderDxfId="148">
   <autoFilter ref="B2:E4" xr:uid="{00000000-0009-0000-0100-000016000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="Column1" dataDxfId="134"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="Column2" dataDxfId="133"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="Column3" dataDxfId="132"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="Column4" dataDxfId="131"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="Column1" dataDxfId="147"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="Column2" dataDxfId="146"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="Column3" dataDxfId="145"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="Column4" dataDxfId="144"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Table26210161820222426" displayName="Table26210161820222426" ref="B7:H17" totalsRowShown="0" headerRowDxfId="130" dataDxfId="129" headerRowBorderDxfId="127" tableBorderDxfId="128" totalsRowBorderDxfId="126">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Table26210161820222426" displayName="Table26210161820222426" ref="B7:H17" totalsRowShown="0" headerRowDxfId="143" dataDxfId="142" headerRowBorderDxfId="140" tableBorderDxfId="141" totalsRowBorderDxfId="139">
   <autoFilter ref="B7:H17" xr:uid="{00000000-0009-0000-0100-000019000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="Resource Name" dataDxfId="125"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="In-progress" dataDxfId="124"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="Done" dataDxfId="123"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="Discarded / Hold" dataDxfId="122"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="Hours Spent - Project" dataDxfId="121"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1600-000006000000}" name="Hours Spent - Non Project" dataDxfId="120"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1600-000007000000}" name="Comments" dataDxfId="119"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="Resource Name" dataDxfId="138"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="In-progress" dataDxfId="137"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="Done" dataDxfId="136"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="Discarded / Hold" dataDxfId="135"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="Hours Spent - Project" dataDxfId="134"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1600-000006000000}" name="Hours Spent - Non Project" dataDxfId="133"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1600-000007000000}" name="Comments" dataDxfId="132"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Table37511171921232527" displayName="Table37511171921232527" ref="B2:E4" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117" headerRowBorderDxfId="115" tableBorderDxfId="116" totalsRowBorderDxfId="114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Table37511171921232527" displayName="Table37511171921232527" ref="B2:E4" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130" headerRowBorderDxfId="128" tableBorderDxfId="129" totalsRowBorderDxfId="127">
   <autoFilter ref="B2:E4" xr:uid="{00000000-0009-0000-0100-00001A000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="Column1" dataDxfId="113"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="Column2" dataDxfId="112"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" name="Column3" dataDxfId="111"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1700-000004000000}" name="Column4" dataDxfId="110"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="Column1" dataDxfId="126"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="Column2" dataDxfId="125"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" name="Column3" dataDxfId="124"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1700-000004000000}" name="Column4" dataDxfId="123"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Table262101618202224" displayName="Table262101618202224" ref="B7:H17" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108" headerRowBorderDxfId="106" tableBorderDxfId="107" totalsRowBorderDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Table262101618202224" displayName="Table262101618202224" ref="B7:H17" totalsRowShown="0" headerRowDxfId="122" dataDxfId="121" headerRowBorderDxfId="119" tableBorderDxfId="120" totalsRowBorderDxfId="118">
   <autoFilter ref="B7:H17" xr:uid="{00000000-0009-0000-0100-000017000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="Resource Name" dataDxfId="104"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="In-progress" dataDxfId="103"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="Done" dataDxfId="102"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="Discarded / Hold" dataDxfId="101"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1800-000005000000}" name="Hours Spent - Project" dataDxfId="100"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1800-000006000000}" name="Hours Spent - Non Project" dataDxfId="99"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1800-000007000000}" name="Comments" dataDxfId="98"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="Resource Name" dataDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="In-progress" dataDxfId="116"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="Done" dataDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="Discarded / Hold" dataDxfId="114"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1800-000005000000}" name="Hours Spent - Project" dataDxfId="113"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1800-000006000000}" name="Hours Spent - Non Project" dataDxfId="112"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1800-000007000000}" name="Comments" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF19000000}" name="Table375111719212325" displayName="Table375111719212325" ref="B2:E4" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96" headerRowBorderDxfId="94" tableBorderDxfId="95" totalsRowBorderDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF19000000}" name="Table375111719212325" displayName="Table375111719212325" ref="B2:E4" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109" headerRowBorderDxfId="107" tableBorderDxfId="108" totalsRowBorderDxfId="106">
   <autoFilter ref="B2:E4" xr:uid="{00000000-0009-0000-0100-000018000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1900-000001000000}" name="Column1" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1900-000002000000}" name="Column2" dataDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1900-000003000000}" name="Column3" dataDxfId="90"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1900-000004000000}" name="Column4" dataDxfId="89"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1900-000001000000}" name="Column1" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1900-000002000000}" name="Column2" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1900-000003000000}" name="Column3" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1900-000004000000}" name="Column4" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF1A000000}" name="Table2621016182022242830" displayName="Table2621016182022242830" ref="B9:H19" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87" headerRowBorderDxfId="85" tableBorderDxfId="86" totalsRowBorderDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF1A000000}" name="Table2621016182022242830" displayName="Table2621016182022242830" ref="B9:H19" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100" headerRowBorderDxfId="98" tableBorderDxfId="99" totalsRowBorderDxfId="97">
   <autoFilter ref="B9:H19" xr:uid="{00000000-0009-0000-0100-00001D000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1A00-000001000000}" name="Resource Name" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1A00-000002000000}" name="In-progress" dataDxfId="82"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1A00-000003000000}" name="Done" dataDxfId="81"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1A00-000004000000}" name="Discarded / Hold" dataDxfId="80"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1A00-000005000000}" name="Hours Spent - Project" dataDxfId="79"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1A00-000006000000}" name="Hours Spent - Non Project" dataDxfId="78"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1A00-000007000000}" name="Comments" dataDxfId="77"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1A00-000001000000}" name="Resource Name" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1A00-000002000000}" name="In-progress" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1A00-000003000000}" name="Done" dataDxfId="94"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1A00-000004000000}" name="Discarded / Hold" dataDxfId="93"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1A00-000005000000}" name="Hours Spent - Project" dataDxfId="92"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1A00-000006000000}" name="Hours Spent - Non Project" dataDxfId="91"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1A00-000007000000}" name="Comments" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF1B000000}" name="Table3751117192123252931" displayName="Table3751117192123252931" ref="B4:E6" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75" headerRowBorderDxfId="73" tableBorderDxfId="74" totalsRowBorderDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF1B000000}" name="Table3751117192123252931" displayName="Table3751117192123252931" ref="B4:E6" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88" headerRowBorderDxfId="86" tableBorderDxfId="87" totalsRowBorderDxfId="85">
   <autoFilter ref="B4:E6" xr:uid="{00000000-0009-0000-0100-00001E000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1B00-000001000000}" name="Column1" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1B00-000002000000}" name="Column2" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1B00-000003000000}" name="Column3" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1B00-000004000000}" name="Column4" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1B00-000001000000}" name="Column1" dataDxfId="84"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1B00-000002000000}" name="Column2" dataDxfId="83"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1B00-000003000000}" name="Column3" dataDxfId="82"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1B00-000004000000}" name="Column4" dataDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF1C000000}" name="Table26210161820222428" displayName="Table26210161820222428" ref="B9:H19" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66" headerRowBorderDxfId="64" tableBorderDxfId="65" totalsRowBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF1C000000}" name="Table26210161820222428" displayName="Table26210161820222428" ref="B9:H19" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79" headerRowBorderDxfId="77" tableBorderDxfId="78" totalsRowBorderDxfId="76">
   <autoFilter ref="B9:H19" xr:uid="{00000000-0009-0000-0100-00001B000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1C00-000001000000}" name="Resource Name" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1C00-000002000000}" name="In-progress" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1C00-000003000000}" name="Done" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1C00-000004000000}" name="Discarded / Hold" dataDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1C00-000005000000}" name="Hours Spent - Project" dataDxfId="58"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1C00-000006000000}" name="Hours Spent - Non Project" dataDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1C00-000007000000}" name="Comments" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1C00-000001000000}" name="Resource Name" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1C00-000002000000}" name="In-progress" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1C00-000003000000}" name="Done" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1C00-000004000000}" name="Discarded / Hold" dataDxfId="72"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1C00-000005000000}" name="Hours Spent - Project" dataDxfId="71"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1C00-000006000000}" name="Hours Spent - Non Project" dataDxfId="70"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1C00-000007000000}" name="Comments" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table26" displayName="Table26" ref="B8:H18" totalsRowShown="0" headerRowDxfId="340" dataDxfId="339" headerRowBorderDxfId="337" tableBorderDxfId="338" totalsRowBorderDxfId="336">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table26" displayName="Table26" ref="B8:H18" totalsRowShown="0" headerRowDxfId="353" dataDxfId="352" headerRowBorderDxfId="350" tableBorderDxfId="351" totalsRowBorderDxfId="349">
   <autoFilter ref="B8:H18" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Resource Name" dataDxfId="335"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="In-progress" dataDxfId="334"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Done" dataDxfId="333"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Discarded / Hold" dataDxfId="332"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Hours Spent - Project" dataDxfId="331"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Hours Spent - Non Project" dataDxfId="330"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Comments" dataDxfId="329"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Resource Name" dataDxfId="348"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="In-progress" dataDxfId="347"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Done" dataDxfId="346"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Discarded / Hold" dataDxfId="345"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Hours Spent - Project" dataDxfId="344"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Hours Spent - Non Project" dataDxfId="343"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Comments" dataDxfId="342"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF1D000000}" name="Table37511171921232529" displayName="Table37511171921232529" ref="B4:E6" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" headerRowBorderDxfId="52" tableBorderDxfId="53" totalsRowBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF1D000000}" name="Table37511171921232529" displayName="Table37511171921232529" ref="B4:E6" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67" headerRowBorderDxfId="65" tableBorderDxfId="66" totalsRowBorderDxfId="64">
   <autoFilter ref="B4:E6" xr:uid="{00000000-0009-0000-0100-00001C000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1D00-000001000000}" name="Column1" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1D00-000002000000}" name="Column2" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1D00-000003000000}" name="Column3" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1D00-000004000000}" name="Column4" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1D00-000001000000}" name="Column1" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1D00-000002000000}" name="Column2" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1D00-000003000000}" name="Column3" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1D00-000004000000}" name="Column4" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{00000000-000C-0000-FFFF-FFFF1E000000}" name="Table262101618202224283234" displayName="Table262101618202224283234" ref="B9:H19" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45" headerRowBorderDxfId="43" tableBorderDxfId="44" totalsRowBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{00000000-000C-0000-FFFF-FFFF1E000000}" name="Table262101618202224283234" displayName="Table262101618202224283234" ref="B9:H19" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" headerRowBorderDxfId="56" tableBorderDxfId="57" totalsRowBorderDxfId="55">
   <autoFilter ref="B9:H19" xr:uid="{00000000-0009-0000-0100-000021000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1E00-000001000000}" name="Resource Name" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1E00-000002000000}" name="In-progress" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1E00-000003000000}" name="Done" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1E00-000004000000}" name="Discarded / Hold" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1E00-000005000000}" name="Hours Spent - Project" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1E00-000006000000}" name="Hours Spent - Non Project" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1E00-000007000000}" name="Comments" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1E00-000001000000}" name="Resource Name" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1E00-000002000000}" name="In-progress" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1E00-000003000000}" name="Done" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1E00-000004000000}" name="Discarded / Hold" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1E00-000005000000}" name="Hours Spent - Project" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1E00-000006000000}" name="Hours Spent - Non Project" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1E00-000007000000}" name="Comments" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{00000000-000C-0000-FFFF-FFFF1F000000}" name="Table375111719212325293335" displayName="Table375111719212325293335" ref="B4:E6" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" headerRowBorderDxfId="31" tableBorderDxfId="32" totalsRowBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{00000000-000C-0000-FFFF-FFFF1F000000}" name="Table375111719212325293335" displayName="Table375111719212325293335" ref="B4:E6" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46" headerRowBorderDxfId="44" tableBorderDxfId="45" totalsRowBorderDxfId="43">
   <autoFilter ref="B4:E6" xr:uid="{00000000-0009-0000-0100-000022000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1F00-000001000000}" name="Column1" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1F00-000002000000}" name="Column2" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1F00-000003000000}" name="Column3" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1F00-000004000000}" name="Column4" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1F00-000001000000}" name="Column1" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1F00-000002000000}" name="Column2" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1F00-000003000000}" name="Column3" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1F00-000004000000}" name="Column4" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table37" displayName="Table37" ref="B3:E5" totalsRowShown="0" headerRowDxfId="328" dataDxfId="327" headerRowBorderDxfId="325" tableBorderDxfId="326" totalsRowBorderDxfId="324">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table37" displayName="Table37" ref="B3:E5" totalsRowShown="0" headerRowDxfId="341" dataDxfId="340" headerRowBorderDxfId="338" tableBorderDxfId="339" totalsRowBorderDxfId="337">
   <autoFilter ref="B3:E5" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Column1" dataDxfId="323"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Column2" dataDxfId="322"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Column3" dataDxfId="321"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Column4" dataDxfId="320"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Column1" dataDxfId="336"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Column2" dataDxfId="335"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Column3" dataDxfId="334"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Column4" dataDxfId="333"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table2628" displayName="Table2628" ref="B7:H17" totalsRowShown="0" headerRowDxfId="319" dataDxfId="318" headerRowBorderDxfId="316" tableBorderDxfId="317" totalsRowBorderDxfId="315">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table2628" displayName="Table2628" ref="B7:H17" totalsRowShown="0" headerRowDxfId="332" dataDxfId="331" headerRowBorderDxfId="329" tableBorderDxfId="330" totalsRowBorderDxfId="328">
   <autoFilter ref="B7:H17" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Resource Name" dataDxfId="314"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="In-progress" dataDxfId="313"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Done" dataDxfId="312"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Discarded / Hold" dataDxfId="311"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Hours Spent - Project" dataDxfId="310"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Hours Spent - Non Project" dataDxfId="309"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Comments" dataDxfId="308"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Resource Name" dataDxfId="327"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="In-progress" dataDxfId="326"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Done" dataDxfId="325"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Discarded / Hold" dataDxfId="324"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Hours Spent - Project" dataDxfId="323"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Hours Spent - Non Project" dataDxfId="322"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Comments" dataDxfId="321"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table3759" displayName="Table3759" ref="B2:E4" totalsRowShown="0" headerRowDxfId="307" dataDxfId="306" headerRowBorderDxfId="304" tableBorderDxfId="305" totalsRowBorderDxfId="303">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table3759" displayName="Table3759" ref="B2:E4" totalsRowShown="0" headerRowDxfId="320" dataDxfId="319" headerRowBorderDxfId="317" tableBorderDxfId="318" totalsRowBorderDxfId="316">
   <autoFilter ref="B2:E4" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Column1" dataDxfId="302"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Column2" dataDxfId="301"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Column3" dataDxfId="300"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Column4" dataDxfId="299"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Column1" dataDxfId="315"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Column2" dataDxfId="314"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Column3" dataDxfId="313"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Column4" dataDxfId="312"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table262" displayName="Table262" ref="B7:H17" totalsRowShown="0" headerRowDxfId="298" dataDxfId="297" headerRowBorderDxfId="295" tableBorderDxfId="296" totalsRowBorderDxfId="294">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table262" displayName="Table262" ref="B7:H17" totalsRowShown="0" headerRowDxfId="311" dataDxfId="310" headerRowBorderDxfId="308" tableBorderDxfId="309" totalsRowBorderDxfId="307">
   <autoFilter ref="B7:H17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Resource Name" dataDxfId="293"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="In-progress" dataDxfId="292"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Done" dataDxfId="291"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Discarded / Hold" dataDxfId="290"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Hours Spent - Project" dataDxfId="289"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Hours Spent - Non Project" dataDxfId="288"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Comments" dataDxfId="287"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Resource Name" dataDxfId="306"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="In-progress" dataDxfId="305"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Done" dataDxfId="304"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Discarded / Hold" dataDxfId="303"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Hours Spent - Project" dataDxfId="302"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Hours Spent - Non Project" dataDxfId="301"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Comments" dataDxfId="300"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table375" displayName="Table375" ref="B2:E4" totalsRowShown="0" headerRowDxfId="286" dataDxfId="285" headerRowBorderDxfId="283" tableBorderDxfId="284" totalsRowBorderDxfId="282">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table375" displayName="Table375" ref="B2:E4" totalsRowShown="0" headerRowDxfId="299" dataDxfId="298" headerRowBorderDxfId="296" tableBorderDxfId="297" totalsRowBorderDxfId="295">
   <autoFilter ref="B2:E4" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Column1" dataDxfId="281"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Column2" dataDxfId="280"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Column3" dataDxfId="279"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Column4" dataDxfId="278"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Column1" dataDxfId="294"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Column2" dataDxfId="293"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Column3" dataDxfId="292"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Column4" dataDxfId="291"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table2621012" displayName="Table2621012" ref="B7:H17" totalsRowShown="0" headerRowDxfId="277" dataDxfId="276" headerRowBorderDxfId="274" tableBorderDxfId="275" totalsRowBorderDxfId="273">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table2621012" displayName="Table2621012" ref="B7:H17" totalsRowShown="0" headerRowDxfId="290" dataDxfId="289" headerRowBorderDxfId="287" tableBorderDxfId="288" totalsRowBorderDxfId="286">
   <autoFilter ref="B7:H17" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Resource Name" dataDxfId="272"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="In-progress" dataDxfId="271"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Done" dataDxfId="270"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Discarded / Hold" dataDxfId="269"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Hours Spent - Project" dataDxfId="268"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Hours Spent - Non Project" dataDxfId="267"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="Comments" dataDxfId="266"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Resource Name" dataDxfId="285"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="In-progress" dataDxfId="284"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Done" dataDxfId="283"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Discarded / Hold" dataDxfId="282"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Hours Spent - Project" dataDxfId="281"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Hours Spent - Non Project" dataDxfId="280"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="Comments" dataDxfId="279"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14150,7 +14321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A171" workbookViewId="0">
       <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
@@ -14190,7 +14361,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -14220,7 +14391,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="58"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="51" t="s">
         <v>289</v>
       </c>
@@ -14249,7 +14420,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="58"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="51" t="s">
         <v>291</v>
       </c>
@@ -14278,7 +14449,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="58"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="51" t="s">
         <v>292</v>
       </c>
@@ -14307,7 +14478,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="58"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="51" t="s">
         <v>294</v>
       </c>
@@ -14336,7 +14507,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="58"/>
+      <c r="A7" s="57"/>
       <c r="B7" t="s">
         <v>297</v>
       </c>
@@ -14365,7 +14536,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="58"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="51" t="s">
         <v>298</v>
       </c>
@@ -14391,7 +14562,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="58"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="51" t="s">
         <v>299</v>
       </c>
@@ -14417,7 +14588,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="58"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="51" t="s">
         <v>301</v>
       </c>
@@ -14437,7 +14608,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="58"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="51" t="s">
         <v>302</v>
       </c>
@@ -14457,7 +14628,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="58"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="51" t="s">
         <v>303</v>
       </c>
@@ -14476,7 +14647,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="58"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="51" t="s">
         <v>304</v>
       </c>
@@ -14495,7 +14666,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="58"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="51" t="s">
         <v>305</v>
       </c>
@@ -14514,7 +14685,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="58"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="51" t="s">
         <v>306</v>
       </c>
@@ -14533,7 +14704,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="58"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="52"/>
@@ -14544,7 +14715,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="57" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51"/>
@@ -14567,7 +14738,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="58"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="52">
@@ -14589,7 +14760,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="58"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="52">
@@ -14611,7 +14782,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="58"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
       <c r="D20" s="52">
@@ -14633,7 +14804,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="58"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="52">
@@ -14655,7 +14826,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="58"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="52">
@@ -14677,7 +14848,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="58"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="51" t="s">
         <v>73</v>
       </c>
@@ -14701,7 +14872,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="58"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52">
@@ -14723,7 +14894,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="58"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52">
@@ -14739,7 +14910,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="58"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -14751,7 +14922,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="58"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -14762,7 +14933,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="58"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -14773,7 +14944,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="58"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -14784,7 +14955,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="58"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -14795,7 +14966,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="58"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -14806,7 +14977,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="57" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -14833,7 +15004,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="58"/>
+      <c r="A33" s="57"/>
       <c r="B33" s="51" t="s">
         <v>307</v>
       </c>
@@ -14859,7 +15030,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="58"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="51" t="s">
         <v>308</v>
       </c>
@@ -14885,7 +15056,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="58"/>
+      <c r="A35" s="57"/>
       <c r="B35" s="51" t="s">
         <v>309</v>
       </c>
@@ -14911,7 +15082,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="58"/>
+      <c r="A36" s="57"/>
       <c r="B36" s="51" t="s">
         <v>310</v>
       </c>
@@ -14937,7 +15108,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="58"/>
+      <c r="A37" s="57"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -14963,7 +15134,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="58"/>
+      <c r="A38" s="57"/>
       <c r="B38" s="51" t="s">
         <v>312</v>
       </c>
@@ -14989,7 +15160,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="58"/>
+      <c r="A39" s="57"/>
       <c r="B39" s="51" t="s">
         <v>313</v>
       </c>
@@ -15015,7 +15186,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="58"/>
+      <c r="A40" s="57"/>
       <c r="B40" s="51" t="s">
         <v>314</v>
       </c>
@@ -15035,7 +15206,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="58"/>
+      <c r="A41" s="57"/>
       <c r="B41" s="51" t="s">
         <v>312</v>
       </c>
@@ -15055,7 +15226,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="58"/>
+      <c r="A42" s="57"/>
       <c r="B42" s="51" t="s">
         <v>315</v>
       </c>
@@ -15074,7 +15245,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="58"/>
+      <c r="A43" s="57"/>
       <c r="B43" s="51" t="s">
         <v>309</v>
       </c>
@@ -15093,7 +15264,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="58"/>
+      <c r="A44" s="57"/>
       <c r="B44" s="51" t="s">
         <v>316</v>
       </c>
@@ -15112,7 +15283,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="58"/>
+      <c r="A45" s="57"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -15358,7 +15529,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="57" t="s">
+      <c r="A62" s="61" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -15385,7 +15556,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="58"/>
+      <c r="A63" s="57"/>
       <c r="B63" s="51" t="s">
         <v>284</v>
       </c>
@@ -15410,7 +15581,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="58"/>
+      <c r="A64" s="57"/>
       <c r="B64" s="51" t="s">
         <v>318</v>
       </c>
@@ -15436,7 +15607,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="58"/>
+      <c r="A65" s="57"/>
       <c r="B65" s="51" t="s">
         <v>313</v>
       </c>
@@ -15462,7 +15633,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="58"/>
+      <c r="A66" s="57"/>
       <c r="B66" s="51" t="s">
         <v>319</v>
       </c>
@@ -15488,7 +15659,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="58"/>
+      <c r="A67" s="57"/>
       <c r="B67" s="51" t="s">
         <v>302</v>
       </c>
@@ -15514,7 +15685,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="58"/>
+      <c r="A68" s="57"/>
       <c r="B68" s="51" t="s">
         <v>304</v>
       </c>
@@ -15540,7 +15711,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="58"/>
+      <c r="A69" s="57"/>
       <c r="B69" s="51" t="s">
         <v>315</v>
       </c>
@@ -15566,7 +15737,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="58"/>
+      <c r="A70" s="57"/>
       <c r="B70" s="51" t="s">
         <v>320</v>
       </c>
@@ -15586,7 +15757,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="58"/>
+      <c r="A71" s="57"/>
       <c r="B71" s="51" t="s">
         <v>306</v>
       </c>
@@ -15606,7 +15777,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="58"/>
+      <c r="A72" s="57"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -15617,7 +15788,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="58"/>
+      <c r="A73" s="57"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -15628,7 +15799,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="58"/>
+      <c r="A74" s="57"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -15639,7 +15810,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="58"/>
+      <c r="A75" s="57"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -15650,7 +15821,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="58"/>
+      <c r="A76" s="57"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -15661,7 +15832,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="58" t="s">
+      <c r="A77" s="57" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -15688,7 +15859,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="58"/>
+      <c r="A78" s="57"/>
       <c r="B78" s="51" t="s">
         <v>322</v>
       </c>
@@ -15714,7 +15885,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="58"/>
+      <c r="A79" s="57"/>
       <c r="B79" s="51" t="s">
         <v>323</v>
       </c>
@@ -15740,7 +15911,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="58"/>
+      <c r="A80" s="57"/>
       <c r="B80" s="51" t="s">
         <v>324</v>
       </c>
@@ -15766,7 +15937,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="58"/>
+      <c r="A81" s="57"/>
       <c r="B81" s="51" t="s">
         <v>325</v>
       </c>
@@ -15792,7 +15963,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="58"/>
+      <c r="A82" s="57"/>
       <c r="B82" s="51" t="s">
         <v>326</v>
       </c>
@@ -15818,7 +15989,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="58"/>
+      <c r="A83" s="57"/>
       <c r="B83" s="51" t="s">
         <v>327</v>
       </c>
@@ -15844,7 +16015,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="58"/>
+      <c r="A84" s="57"/>
       <c r="B84" s="51" t="s">
         <v>328</v>
       </c>
@@ -15870,7 +16041,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="58"/>
+      <c r="A85" s="57"/>
       <c r="B85" s="51" t="s">
         <v>294</v>
       </c>
@@ -15890,7 +16061,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="58"/>
+      <c r="A86" s="57"/>
       <c r="B86" s="51" t="s">
         <v>329</v>
       </c>
@@ -15910,7 +16081,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="58"/>
+      <c r="A87" s="57"/>
       <c r="B87" s="51" t="s">
         <v>304</v>
       </c>
@@ -15929,7 +16100,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="58"/>
+      <c r="A88" s="57"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -15940,7 +16111,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="58"/>
+      <c r="A89" s="57"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -15951,7 +16122,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="58"/>
+      <c r="A90" s="57"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -15962,7 +16133,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="61"/>
+      <c r="A91" s="58"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -15973,7 +16144,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="57" t="s">
+      <c r="A92" s="61" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -16000,7 +16171,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="58"/>
+      <c r="A93" s="57"/>
       <c r="B93" s="51" t="s">
         <v>330</v>
       </c>
@@ -16026,7 +16197,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="58"/>
+      <c r="A94" s="57"/>
       <c r="B94" s="56" t="s">
         <v>331</v>
       </c>
@@ -16052,7 +16223,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="58"/>
+      <c r="A95" s="57"/>
       <c r="B95" s="51" t="s">
         <v>309</v>
       </c>
@@ -16078,7 +16249,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="58"/>
+      <c r="A96" s="57"/>
       <c r="B96" s="51" t="s">
         <v>332</v>
       </c>
@@ -16104,7 +16275,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="58"/>
+      <c r="A97" s="57"/>
       <c r="B97" s="51" t="s">
         <v>311</v>
       </c>
@@ -16130,7 +16301,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="58"/>
+      <c r="A98" s="57"/>
       <c r="B98" s="51" t="s">
         <v>313</v>
       </c>
@@ -16156,7 +16327,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="58"/>
+      <c r="A99" s="57"/>
       <c r="B99" s="51" t="s">
         <v>333</v>
       </c>
@@ -16182,7 +16353,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="58"/>
+      <c r="A100" s="57"/>
       <c r="B100" s="51" t="s">
         <v>334</v>
       </c>
@@ -16202,7 +16373,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="58"/>
+      <c r="A101" s="57"/>
       <c r="B101" s="51" t="s">
         <v>309</v>
       </c>
@@ -16222,7 +16393,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="58"/>
+      <c r="A102" s="57"/>
       <c r="B102" s="51" t="s">
         <v>316</v>
       </c>
@@ -16241,7 +16412,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="58"/>
+      <c r="A103" s="57"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -16249,7 +16420,7 @@
       <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="58"/>
+      <c r="A104" s="57"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
@@ -16257,7 +16428,7 @@
       <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="58"/>
+      <c r="A105" s="57"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -16585,7 +16756,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="57" t="s">
+      <c r="A122" s="61" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -16612,7 +16783,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="58"/>
+      <c r="A123" s="57"/>
       <c r="B123" s="51" t="s">
         <v>322</v>
       </c>
@@ -16638,7 +16809,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="58"/>
+      <c r="A124" s="57"/>
       <c r="B124" s="51" t="s">
         <v>294</v>
       </c>
@@ -16664,7 +16835,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="58"/>
+      <c r="A125" s="57"/>
       <c r="B125" s="51" t="s">
         <v>344</v>
       </c>
@@ -16690,7 +16861,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="58"/>
+      <c r="A126" s="57"/>
       <c r="B126" s="51" t="s">
         <v>329</v>
       </c>
@@ -16716,7 +16887,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="58"/>
+      <c r="A127" s="57"/>
       <c r="B127" s="56" t="s">
         <v>345</v>
       </c>
@@ -16742,7 +16913,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="58"/>
+      <c r="A128" s="57"/>
       <c r="B128" s="51" t="s">
         <v>346</v>
       </c>
@@ -16768,7 +16939,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="58"/>
+      <c r="A129" s="57"/>
       <c r="B129" s="56" t="s">
         <v>304</v>
       </c>
@@ -16794,7 +16965,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="58"/>
+      <c r="A130" s="57"/>
       <c r="B130" s="56" t="s">
         <v>304</v>
       </c>
@@ -16814,7 +16985,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="58"/>
+      <c r="A131" s="57"/>
       <c r="B131" s="51" t="s">
         <v>347</v>
       </c>
@@ -16834,7 +17005,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="58"/>
+      <c r="A132" s="57"/>
       <c r="B132" s="51" t="s">
         <v>348</v>
       </c>
@@ -16853,7 +17024,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="58"/>
+      <c r="A133" s="57"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -16864,7 +17035,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="58"/>
+      <c r="A134" s="57"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -16875,7 +17046,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="58"/>
+      <c r="A135" s="57"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -17201,7 +17372,7 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="57" t="s">
+      <c r="A152" s="61" t="s">
         <v>355</v>
       </c>
       <c r="B152" s="51" t="s">
@@ -17228,7 +17399,7 @@
       </c>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="58"/>
+      <c r="A153" s="57"/>
       <c r="B153" s="51" t="s">
         <v>357</v>
       </c>
@@ -17254,7 +17425,7 @@
       </c>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="58"/>
+      <c r="A154" s="57"/>
       <c r="B154" s="51" t="s">
         <v>341</v>
       </c>
@@ -17280,7 +17451,7 @@
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="58"/>
+      <c r="A155" s="57"/>
       <c r="B155" s="51" t="s">
         <v>357</v>
       </c>
@@ -17306,7 +17477,7 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="58"/>
+      <c r="A156" s="57"/>
       <c r="B156" s="51" t="s">
         <v>301</v>
       </c>
@@ -17332,7 +17503,7 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="58"/>
+      <c r="A157" s="57"/>
       <c r="B157" s="51" t="s">
         <v>294</v>
       </c>
@@ -17358,7 +17529,7 @@
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="58"/>
+      <c r="A158" s="57"/>
       <c r="B158" s="51" t="s">
         <v>304</v>
       </c>
@@ -17384,7 +17555,7 @@
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="58"/>
+      <c r="A159" s="57"/>
       <c r="B159" s="51" t="s">
         <v>358</v>
       </c>
@@ -17410,7 +17581,7 @@
       </c>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="58"/>
+      <c r="A160" s="57"/>
       <c r="B160" s="51" t="s">
         <v>359</v>
       </c>
@@ -17430,7 +17601,7 @@
       <c r="I160" s="54"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="58"/>
+      <c r="A161" s="57"/>
       <c r="B161" s="51"/>
       <c r="C161" s="51"/>
       <c r="D161" s="52"/>
@@ -17442,7 +17613,7 @@
       <c r="I161" s="54"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="58"/>
+      <c r="A162" s="57"/>
       <c r="B162" s="51"/>
       <c r="C162" s="51"/>
       <c r="D162" s="52"/>
@@ -17453,7 +17624,7 @@
       </c>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="58"/>
+      <c r="A163" s="57"/>
       <c r="B163" s="51"/>
       <c r="C163" s="51"/>
       <c r="D163" s="52"/>
@@ -17464,7 +17635,7 @@
       </c>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="58"/>
+      <c r="A164" s="57"/>
       <c r="B164" s="51"/>
       <c r="C164" s="51"/>
       <c r="D164" s="52"/>
@@ -17475,7 +17646,7 @@
       </c>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="58"/>
+      <c r="A165" s="57"/>
       <c r="B165" s="51"/>
       <c r="C165" s="51"/>
       <c r="D165" s="52"/>
@@ -17486,7 +17657,7 @@
       </c>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="58"/>
+      <c r="A166" s="57"/>
       <c r="B166" s="51"/>
       <c r="C166" s="51"/>
       <c r="D166" s="52"/>
@@ -17498,66 +17669,66 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="12" operator="greaterThan">
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="13" operator="lessThan">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4 I19 I34 I49 I64 I79 I94 I109 I124 I139 I154">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="lessThan">
       <formula>0.0416666666666667</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="greaterThan">
       <formula>0.0416666666666667</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="greaterThan">
       <formula>0.0416666666666667</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5 I20 I35 I50 I65 I80 I95 I110 I125 I140 I155">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="lessThan">
       <formula>0.0833333333333333</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="8" operator="greaterThan">
       <formula>0.0833333333333333</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6 I21 I36 I51 I66 I81 I96 I111 I126 I141 I156">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="lessThan">
       <formula>0.0416666666666667</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="greaterThan">
       <formula>0.0416666666666667</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7 I22 I37 I52 I67 I82 I97 I112 I127 I142 I157">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="lessThan">
       <formula>0.0416666666666667</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="greaterThan">
       <formula>0.0416666666666667</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8 I23 I38 I53 I68 I83 I98 I113 I128 I143 I158">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="lessThan">
       <formula>0.0625</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="greaterThan">
       <formula>0.0625</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17574,8 +17745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17614,7 +17785,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -17644,7 +17815,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="58"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="51" t="s">
         <v>360</v>
       </c>
@@ -17673,7 +17844,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="58"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="51" t="s">
         <v>361</v>
       </c>
@@ -17702,7 +17873,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="58"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="51" t="s">
         <v>309</v>
       </c>
@@ -17731,7 +17902,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="58"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="51" t="s">
         <v>311</v>
       </c>
@@ -17760,7 +17931,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="58"/>
+      <c r="A7" s="57"/>
       <c r="B7" t="s">
         <v>362</v>
       </c>
@@ -17789,7 +17960,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="58"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="51" t="s">
         <v>363</v>
       </c>
@@ -17815,7 +17986,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="58"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="51" t="s">
         <v>364</v>
       </c>
@@ -17841,7 +18012,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="58"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="51" t="s">
         <v>329</v>
       </c>
@@ -17861,7 +18032,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="58"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="51" t="s">
         <v>365</v>
       </c>
@@ -17881,7 +18052,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="58"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="51" t="s">
         <v>345</v>
       </c>
@@ -17900,7 +18071,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="58"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="51" t="s">
         <v>309</v>
       </c>
@@ -17919,7 +18090,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="58"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="51" t="s">
         <v>366</v>
       </c>
@@ -17938,7 +18109,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="58"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="51" t="s">
         <v>367</v>
       </c>
@@ -17957,7 +18128,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="58"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="51" t="s">
         <v>368</v>
       </c>
@@ -17976,7 +18147,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="57" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -18003,7 +18174,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="58"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="51" t="s">
         <v>370</v>
       </c>
@@ -18029,7 +18200,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="58"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="51" t="s">
         <v>342</v>
       </c>
@@ -18055,7 +18226,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="58"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="51" t="s">
         <v>371</v>
       </c>
@@ -18081,7 +18252,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="58"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="51" t="s">
         <v>372</v>
       </c>
@@ -18107,7 +18278,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="58"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -18133,7 +18304,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="58"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="51" t="s">
         <v>373</v>
       </c>
@@ -18159,7 +18330,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="58"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="51" t="s">
         <v>374</v>
       </c>
@@ -18185,7 +18356,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="58"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="51" t="s">
         <v>304</v>
       </c>
@@ -18205,7 +18376,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="58"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="51" t="s">
         <v>375</v>
       </c>
@@ -18225,7 +18396,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="58"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="51" t="s">
         <v>376</v>
       </c>
@@ -18244,7 +18415,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="58"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="51" t="s">
         <v>377</v>
       </c>
@@ -18263,7 +18434,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="58"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="51" t="s">
         <v>378</v>
       </c>
@@ -18282,7 +18453,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="58"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -18293,7 +18464,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="58"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -18304,7 +18475,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="57" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -18331,7 +18502,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="58"/>
+      <c r="A33" s="57"/>
       <c r="B33" s="51" t="s">
         <v>380</v>
       </c>
@@ -18357,7 +18528,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="58"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="51" t="s">
         <v>370</v>
       </c>
@@ -18383,7 +18554,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="58"/>
+      <c r="A35" s="57"/>
       <c r="B35" s="51" t="s">
         <v>294</v>
       </c>
@@ -18409,7 +18580,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="58"/>
+      <c r="A36" s="57"/>
       <c r="B36" s="51" t="s">
         <v>381</v>
       </c>
@@ -18435,7 +18606,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="58"/>
+      <c r="A37" s="57"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -18461,7 +18632,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="58"/>
+      <c r="A38" s="57"/>
       <c r="B38" s="51" t="s">
         <v>382</v>
       </c>
@@ -18487,7 +18658,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="58"/>
+      <c r="A39" s="57"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -18513,7 +18684,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="58"/>
+      <c r="A40" s="57"/>
       <c r="B40" s="51" t="s">
         <v>383</v>
       </c>
@@ -18533,7 +18704,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="58"/>
+      <c r="A41" s="57"/>
       <c r="B41" s="51" t="s">
         <v>374</v>
       </c>
@@ -18553,7 +18724,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="58"/>
+      <c r="A42" s="57"/>
       <c r="B42" s="51" t="s">
         <v>304</v>
       </c>
@@ -18572,7 +18743,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="58"/>
+      <c r="A43" s="57"/>
       <c r="B43" s="51" t="s">
         <v>384</v>
       </c>
@@ -18591,7 +18762,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="58"/>
+      <c r="A44" s="57"/>
       <c r="B44" s="51" t="s">
         <v>385</v>
       </c>
@@ -18610,7 +18781,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="58"/>
+      <c r="A45" s="57"/>
       <c r="B45" s="51" t="s">
         <v>386</v>
       </c>
@@ -18874,7 +19045,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="57" t="s">
+      <c r="A62" s="61" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -18893,7 +19064,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="58"/>
+      <c r="A63" s="57"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -18910,7 +19081,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="58"/>
+      <c r="A64" s="57"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -18928,7 +19099,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="58"/>
+      <c r="A65" s="57"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -18946,7 +19117,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="58"/>
+      <c r="A66" s="57"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -18964,7 +19135,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="58"/>
+      <c r="A67" s="57"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -18982,7 +19153,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="58"/>
+      <c r="A68" s="57"/>
       <c r="B68" s="56" t="s">
         <v>388</v>
       </c>
@@ -19002,7 +19173,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="58"/>
+      <c r="A69" s="57"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -19020,7 +19191,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="58"/>
+      <c r="A70" s="57"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -19032,7 +19203,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="58"/>
+      <c r="A71" s="57"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -19044,7 +19215,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="58"/>
+      <c r="A72" s="57"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -19055,7 +19226,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="58"/>
+      <c r="A73" s="57"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -19066,7 +19237,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="58"/>
+      <c r="A74" s="57"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -19077,7 +19248,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="58"/>
+      <c r="A75" s="57"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -19088,7 +19259,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="58"/>
+      <c r="A76" s="57"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -19099,7 +19270,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="58" t="s">
+      <c r="A77" s="57" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -19126,7 +19297,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="58"/>
+      <c r="A78" s="57"/>
       <c r="B78" s="51" t="s">
         <v>389</v>
       </c>
@@ -19152,7 +19323,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="58"/>
+      <c r="A79" s="57"/>
       <c r="B79" s="51" t="s">
         <v>390</v>
       </c>
@@ -19178,7 +19349,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="58"/>
+      <c r="A80" s="57"/>
       <c r="B80" s="51" t="s">
         <v>309</v>
       </c>
@@ -19204,7 +19375,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="58"/>
+      <c r="A81" s="57"/>
       <c r="B81" s="51" t="s">
         <v>391</v>
       </c>
@@ -19230,7 +19401,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="58"/>
+      <c r="A82" s="57"/>
       <c r="B82" s="51" t="s">
         <v>392</v>
       </c>
@@ -19256,7 +19427,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="58"/>
+      <c r="A83" s="57"/>
       <c r="B83" s="51" t="s">
         <v>329</v>
       </c>
@@ -19282,7 +19453,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="58"/>
+      <c r="A84" s="57"/>
       <c r="B84" s="51" t="s">
         <v>393</v>
       </c>
@@ -19308,7 +19479,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="58"/>
+      <c r="A85" s="57"/>
       <c r="B85" s="51" t="s">
         <v>394</v>
       </c>
@@ -19328,7 +19499,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="58"/>
+      <c r="A86" s="57"/>
       <c r="B86" s="51" t="s">
         <v>309</v>
       </c>
@@ -19348,7 +19519,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="58"/>
+      <c r="A87" s="57"/>
       <c r="B87" s="51" t="s">
         <v>385</v>
       </c>
@@ -19367,7 +19538,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="58"/>
+      <c r="A88" s="57"/>
       <c r="B88" s="51" t="s">
         <v>395</v>
       </c>
@@ -19386,7 +19557,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="58"/>
+      <c r="A89" s="57"/>
       <c r="B89" s="51" t="s">
         <v>396</v>
       </c>
@@ -19405,7 +19576,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="58"/>
+      <c r="A90" s="57"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -19416,7 +19587,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="61"/>
+      <c r="A91" s="58"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -19427,7 +19598,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="57" t="s">
+      <c r="A92" s="61" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -19454,7 +19625,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="58"/>
+      <c r="A93" s="57"/>
       <c r="B93" s="51" t="s">
         <v>398</v>
       </c>
@@ -19480,7 +19651,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="58"/>
+      <c r="A94" s="57"/>
       <c r="B94" s="56" t="s">
         <v>399</v>
       </c>
@@ -19506,7 +19677,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="58"/>
+      <c r="A95" s="57"/>
       <c r="B95" s="51" t="s">
         <v>400</v>
       </c>
@@ -19532,7 +19703,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="58"/>
+      <c r="A96" s="57"/>
       <c r="B96" s="51" t="s">
         <v>342</v>
       </c>
@@ -19558,7 +19729,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="58"/>
+      <c r="A97" s="57"/>
       <c r="B97" s="51" t="s">
         <v>401</v>
       </c>
@@ -19584,7 +19755,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="58"/>
+      <c r="A98" s="57"/>
       <c r="B98" s="51" t="s">
         <v>402</v>
       </c>
@@ -19610,7 +19781,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="58"/>
+      <c r="A99" s="57"/>
       <c r="B99" s="51" t="s">
         <v>403</v>
       </c>
@@ -19636,7 +19807,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="58"/>
+      <c r="A100" s="57"/>
       <c r="B100" s="51" t="s">
         <v>404</v>
       </c>
@@ -19656,7 +19827,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="58"/>
+      <c r="A101" s="57"/>
       <c r="B101" s="51" t="s">
         <v>405</v>
       </c>
@@ -19676,7 +19847,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="58"/>
+      <c r="A102" s="57"/>
       <c r="B102" s="51" t="s">
         <v>406</v>
       </c>
@@ -19695,7 +19866,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="58"/>
+      <c r="A103" s="57"/>
       <c r="B103" s="51" t="s">
         <v>407</v>
       </c>
@@ -19714,7 +19885,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="58"/>
+      <c r="A104" s="57"/>
       <c r="B104" s="51" t="s">
         <v>304</v>
       </c>
@@ -19733,7 +19904,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="58"/>
+      <c r="A105" s="57"/>
       <c r="B105" s="51" t="s">
         <v>408</v>
       </c>
@@ -19997,7 +20168,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="57" t="s">
+      <c r="A122" s="61" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -20024,7 +20195,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="58"/>
+      <c r="A123" s="57"/>
       <c r="B123" s="51" t="s">
         <v>411</v>
       </c>
@@ -20050,7 +20221,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="58"/>
+      <c r="A124" s="57"/>
       <c r="B124" s="51" t="s">
         <v>412</v>
       </c>
@@ -20076,7 +20247,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="58"/>
+      <c r="A125" s="57"/>
       <c r="B125" s="51" t="s">
         <v>413</v>
       </c>
@@ -20102,7 +20273,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="58"/>
+      <c r="A126" s="57"/>
       <c r="B126" s="51" t="s">
         <v>414</v>
       </c>
@@ -20128,7 +20299,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="58"/>
+      <c r="A127" s="57"/>
       <c r="B127" s="56" t="s">
         <v>415</v>
       </c>
@@ -20154,7 +20325,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="58"/>
+      <c r="A128" s="57"/>
       <c r="B128" s="51" t="s">
         <v>416</v>
       </c>
@@ -20180,7 +20351,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="58"/>
+      <c r="A129" s="57"/>
       <c r="B129" s="56" t="s">
         <v>417</v>
       </c>
@@ -20206,7 +20377,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="58"/>
+      <c r="A130" s="57"/>
       <c r="B130" s="56" t="s">
         <v>418</v>
       </c>
@@ -20226,7 +20397,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="58"/>
+      <c r="A131" s="57"/>
       <c r="B131" s="51" t="s">
         <v>294</v>
       </c>
@@ -20246,7 +20417,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="58"/>
+      <c r="A132" s="57"/>
       <c r="B132" s="51" t="s">
         <v>329</v>
       </c>
@@ -20265,7 +20436,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="58"/>
+      <c r="A133" s="57"/>
       <c r="B133" s="51" t="s">
         <v>304</v>
       </c>
@@ -20284,7 +20455,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="58"/>
+      <c r="A134" s="57"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -20295,7 +20466,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="58"/>
+      <c r="A135" s="57"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -20334,6 +20505,3081 @@
       </c>
       <c r="F137" s="52">
         <f t="shared" si="53"/>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="H137" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="I137" s="49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="60"/>
+      <c r="B138" s="55" t="s">
+        <v>420</v>
+      </c>
+      <c r="C138" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D138" s="52">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="E138" s="52">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F138" s="52">
+        <f t="shared" si="53"/>
+        <v>3.819444444444442E-2</v>
+      </c>
+      <c r="H138" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="I138" s="52">
+        <f t="shared" ref="I138" si="54">SUMIFS(F137:F151, C137:C151,H138)</f>
+        <v>0.40624999999999994</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="60"/>
+      <c r="B139" s="55" t="s">
+        <v>421</v>
+      </c>
+      <c r="C139" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D139" s="52">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E139" s="52">
+        <v>0.4375</v>
+      </c>
+      <c r="F139" s="52">
+        <f t="shared" si="53"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H139" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="I139" s="52">
+        <f t="shared" ref="I139" si="55">SUMIFS(F137:F151, C137:C151,H139)</f>
+        <v>4.1666666666666685E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="60"/>
+      <c r="B140" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="C140" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D140" s="52">
+        <v>0.4375</v>
+      </c>
+      <c r="E140" s="52">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F140" s="52">
+        <f t="shared" si="53"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H140" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="I140" s="52">
+        <f t="shared" ref="I140" si="56">SUMIFS(F137:F151, C137:C151,H140)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="60"/>
+      <c r="B141" s="55" t="s">
+        <v>422</v>
+      </c>
+      <c r="C141" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D141" s="52">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E141" s="52">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F141" s="52">
+        <f>E141-D141</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+      <c r="H141" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="I141" s="52">
+        <f t="shared" ref="I141" si="57">SUMIFS(F137:F151, C137:C151,H141)</f>
+        <v>2.4305555555555691E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="60"/>
+      <c r="B142" s="55" t="s">
+        <v>329</v>
+      </c>
+      <c r="C142" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D142" s="52">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E142" s="52">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F142" s="52">
+        <f>E142-D142</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H142" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="I142" s="52">
+        <f t="shared" ref="I142" si="58">SUMIFS(F137:F151, C137:C151,H142)</f>
+        <v>4.8611111111111049E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="60"/>
+      <c r="B143" s="55" t="s">
+        <v>423</v>
+      </c>
+      <c r="C143" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D143" s="52">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E143" s="52">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F143" s="52">
+        <f t="shared" si="53"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H143" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="I143" s="52">
+        <f t="shared" ref="I143" si="59">SUMIFS(F137:F151, C137:C151,H143)</f>
+        <v>4.1666666666666574E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="60"/>
+      <c r="B144" s="51" t="s">
+        <v>416</v>
+      </c>
+      <c r="C144" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="D144" s="52">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="E144" s="52">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="F144" s="52">
+        <f t="shared" si="53"/>
+        <v>4.8611111111111049E-2</v>
+      </c>
+      <c r="H144" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="I144" s="49">
+        <f t="shared" ref="I144" si="60">SUM(I138:I143)</f>
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="60"/>
+      <c r="B145" s="56" t="s">
+        <v>309</v>
+      </c>
+      <c r="C145" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D145" s="52">
+        <v>0.6875</v>
+      </c>
+      <c r="E145" s="52">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="F145" s="52">
+        <f t="shared" si="53"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="I145" s="54"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="60"/>
+      <c r="B146" s="56" t="s">
+        <v>417</v>
+      </c>
+      <c r="C146" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="D146" s="52">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="E146" s="52">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="F146" s="52">
+        <f>E146-D146</f>
+        <v>2.4305555555555691E-2</v>
+      </c>
+      <c r="I146" s="54"/>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="60"/>
+      <c r="B147" s="55" t="s">
+        <v>424</v>
+      </c>
+      <c r="C147" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D147" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="E147" s="52">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F147" s="52">
+        <f>E147-D147</f>
+        <v>0.10416666666666663</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="60"/>
+      <c r="B148" s="55" t="s">
+        <v>425</v>
+      </c>
+      <c r="C148" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D148" s="52">
+        <v>0.875</v>
+      </c>
+      <c r="E148" s="52">
+        <v>1</v>
+      </c>
+      <c r="F148" s="52">
+        <f t="shared" si="53"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="60"/>
+      <c r="B149" s="55"/>
+      <c r="C149" s="51"/>
+      <c r="D149" s="52"/>
+      <c r="E149" s="52"/>
+      <c r="F149" s="52">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="60"/>
+      <c r="B150" s="55"/>
+      <c r="C150" s="51"/>
+      <c r="D150" s="52"/>
+      <c r="E150" s="52"/>
+      <c r="F150" s="52">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="60"/>
+      <c r="B151" s="55"/>
+      <c r="C151" s="51"/>
+      <c r="D151" s="52"/>
+      <c r="E151" s="52"/>
+      <c r="F151" s="52">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="A47:A61"/>
+    <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A77:A91"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="lessThan">
+      <formula>0.25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4 I19 I34 I49 I64 I79 I94 I109 I124 I139">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5 I20 I35 I50 I65 I80 I95 I110 I125 I140">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="lessThan">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="greaterThan">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6 I21 I36 I51 I66 I81 I96 I111 I126 I141">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7 I22 I37 I52 I67 I82 I97 I112 I127 I142">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8 I23 I38 I53 I68 I83 I98 I113 I128 I143">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+      <formula>0.0625</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+      <formula>0.0625</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C151" xr:uid="{00000000-0002-0000-1100-000000000000}">
+      <formula1>$Q$1:$Q$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33E6869-2FFE-469C-BC51-1F33B1FD25A5}">
+  <dimension ref="A1:Q151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="F136" sqref="F136"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>283</v>
+      </c>
+      <c r="G1" s="50"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" s="52">
+        <v>0.34375</v>
+      </c>
+      <c r="E2" s="52">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="F2" s="52">
+        <f>E2-D2</f>
+        <v>3.4722222222222654E-3</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="57"/>
+      <c r="B3" s="51" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" s="52">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="E3" s="52">
+        <v>0.39652777777777781</v>
+      </c>
+      <c r="F3" s="52">
+        <f t="shared" ref="F3:F66" si="0">E3-D3</f>
+        <v>4.9305555555555547E-2</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="I3" s="52">
+        <f>SUMIFS(F2:F16, C2:C16,H3)</f>
+        <v>0.26805555555555555</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="57"/>
+      <c r="B4" s="51" t="s">
+        <v>361</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" s="52">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="E4" s="52">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="F4" s="52">
+        <f t="shared" si="0"/>
+        <v>3.4722222222222265E-2</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="I4" s="52">
+        <f>SUMIFS(F2:F16, C2:C16,H4)</f>
+        <v>4.5138888888888951E-2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="57"/>
+      <c r="B5" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D5" s="52">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="E5" s="52">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="F5" s="52">
+        <f t="shared" si="0"/>
+        <v>1.1805555555555569E-2</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="I5" s="52">
+        <f>SUMIFS(F2:F16, C2:C16,H5)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="57"/>
+      <c r="B6" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" s="52">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E6" s="52">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="F6" s="52">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H6" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="I6" s="52">
+        <f>SUMIFS(F2:F16, C2:C16,H6)</f>
+        <v>2.7777777777777901E-2</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="57"/>
+      <c r="B7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D7" s="52">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="E7" s="52">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F7" s="52">
+        <f t="shared" si="0"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="I7" s="52">
+        <f>SUMIFS(F2:F16, C2:C16,H7)</f>
+        <v>4.8611111111111049E-2</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="57"/>
+      <c r="B8" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8" s="52">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E8" s="52">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="F8" s="52">
+        <f t="shared" si="0"/>
+        <v>4.8611111111111105E-2</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="I8" s="52">
+        <f>SUMIFS(F2:F16, C2:C16,H8)</f>
+        <v>4.6527777777777779E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="57"/>
+      <c r="B9" s="51" t="s">
+        <v>364</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" s="52">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E9" s="52">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="F9" s="52">
+        <f t="shared" si="0"/>
+        <v>6.2499999999999944E-2</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="I9" s="49">
+        <f>SUM(I3:I8)</f>
+        <v>0.49861111111111123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="57"/>
+      <c r="B10" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D10" s="52">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="E10" s="52">
+        <v>0.5625</v>
+      </c>
+      <c r="F10" s="52">
+        <f t="shared" si="0"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="I10" s="54"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="57"/>
+      <c r="B11" s="51" t="s">
+        <v>365</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D11" s="52">
+        <v>0.5625</v>
+      </c>
+      <c r="E11" s="52">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="F11" s="52">
+        <f t="shared" si="0"/>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="I11" s="54"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="57"/>
+      <c r="B12" s="51" t="s">
+        <v>345</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="D12" s="52">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="E12" s="52">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="F12" s="52">
+        <f t="shared" si="0"/>
+        <v>4.8611111111111049E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="57"/>
+      <c r="B13" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D13" s="52">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="E13" s="52">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="F13" s="52">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="57"/>
+      <c r="B14" s="51" t="s">
+        <v>366</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D14" s="52">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="E14" s="52">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="F14" s="52">
+        <f t="shared" si="0"/>
+        <v>1.736111111111116E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="57"/>
+      <c r="B15" s="51" t="s">
+        <v>367</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15" s="52">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E15" s="52">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="F15" s="52">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777901E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="57"/>
+      <c r="B16" s="51" t="s">
+        <v>368</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="D16" s="52">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="E16" s="52">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="F16" s="52">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>369</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D17" s="52">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E17" s="52">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F17" s="52">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="I17" s="49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="57"/>
+      <c r="B18" s="51" t="s">
+        <v>370</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D18" s="52">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E18" s="52">
+        <v>0.4375</v>
+      </c>
+      <c r="F18" s="52">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="I18" s="52">
+        <f t="shared" ref="I18" si="1">SUMIFS(F17:F31, C17:C31,H18)</f>
+        <v>0.26736111111111088</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="57"/>
+      <c r="B19" s="51" t="s">
+        <v>342</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D19" s="52">
+        <v>0.4375</v>
+      </c>
+      <c r="E19" s="52">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F19" s="52">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H19" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="I19" s="52">
+        <f t="shared" ref="I19" si="2">SUMIFS(F17:F31, C17:C31,H19)</f>
+        <v>4.1666666666666685E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="57"/>
+      <c r="B20" s="51" t="s">
+        <v>371</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D20" s="52">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E20" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="52">
+        <f t="shared" si="0"/>
+        <v>5.2083333333333315E-2</v>
+      </c>
+      <c r="H20" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="I20" s="52">
+        <f t="shared" ref="I20" si="3">SUMIFS(F17:F31, C17:C31,H20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="57"/>
+      <c r="B21" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D21" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="52">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F21" s="52">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="H21" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="I21" s="52">
+        <f t="shared" ref="I21" si="4">SUMIFS(F17:F31, C17:C31,H21)</f>
+        <v>7.2916666666666741E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="57"/>
+      <c r="B22" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D22" s="52">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E22" s="52">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="F22" s="52">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H22" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="I22" s="52">
+        <f t="shared" ref="I22" si="5">SUMIFS(F17:F31, C17:C31,H22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="57"/>
+      <c r="B23" s="51" t="s">
+        <v>373</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D23" s="52">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E23" s="52">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="F23" s="52">
+        <f t="shared" si="0"/>
+        <v>3.4722222222222099E-2</v>
+      </c>
+      <c r="H23" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="I23" s="52">
+        <f t="shared" ref="I23" si="6">SUMIFS(F17:F31, C17:C31,H23)</f>
+        <v>5.2083333333333315E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="57"/>
+      <c r="B24" s="51" t="s">
+        <v>374</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="D24" s="52">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="E24" s="52">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="F24" s="52">
+        <f t="shared" si="0"/>
+        <v>4.8611111111111049E-2</v>
+      </c>
+      <c r="H24" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="I24" s="49">
+        <f t="shared" ref="I24" si="7">SUM(I18:I23)</f>
+        <v>0.43402777777777762</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="57"/>
+      <c r="B25" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D25" s="52">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="E25" s="52">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="F25" s="52">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="I25" s="54"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="57"/>
+      <c r="B26" s="51" t="s">
+        <v>375</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D26" s="52">
+        <v>0.6875</v>
+      </c>
+      <c r="E26" s="52">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="F26" s="52">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="I26" s="54"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="57"/>
+      <c r="B27" s="51" t="s">
+        <v>376</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="D27" s="52">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="E27" s="52">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="F27" s="52">
+        <f t="shared" si="0"/>
+        <v>2.4305555555555691E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="57"/>
+      <c r="B28" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D28" s="52">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E28" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="F28" s="52">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="57"/>
+      <c r="B29" s="51" t="s">
+        <v>378</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D29" s="52">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E29" s="52">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F29" s="52">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="57"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="57"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>379</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D32" s="52">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E32" s="52">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="F32" s="52">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H32" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="I32" s="49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="57"/>
+      <c r="B33" s="51" t="s">
+        <v>380</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D33" s="52">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E33" s="52">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F33" s="52">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H33" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="I33" s="52">
+        <f t="shared" ref="I33" si="8">SUMIFS(F32:F46, C32:C46,H33)</f>
+        <v>0.27083333333333331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="57"/>
+      <c r="B34" s="51" t="s">
+        <v>370</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D34" s="52">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E34" s="52">
+        <v>0.4375</v>
+      </c>
+      <c r="F34" s="52">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H34" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="I34" s="52">
+        <f t="shared" ref="I34" si="9">SUMIFS(F32:F46, C32:C46,H34)</f>
+        <v>4.8611111111111105E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="57"/>
+      <c r="B35" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D35" s="52">
+        <v>0.4375</v>
+      </c>
+      <c r="E35" s="52">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F35" s="52">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H35" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="I35" s="52">
+        <f t="shared" ref="I35" si="10">SUMIFS(F32:F46, C32:C46,H35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="57"/>
+      <c r="B36" s="51" t="s">
+        <v>381</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D36" s="52">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E36" s="52">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F36" s="52">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="H36" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="I36" s="52">
+        <f t="shared" ref="I36" si="11">SUMIFS(F32:F46, C32:C46,H36)</f>
+        <v>2.4305555555555691E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="57"/>
+      <c r="B37" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D37" s="52">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E37" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="F37" s="52">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H37" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="I37" s="52">
+        <f t="shared" ref="I37" si="12">SUMIFS(F32:F46, C32:C46,H37)</f>
+        <v>4.8611111111111049E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="57"/>
+      <c r="B38" s="51" t="s">
+        <v>382</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D38" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="52">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F38" s="52">
+        <f>E38-D38</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="H38" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="I38" s="52">
+        <f t="shared" ref="I38" si="13">SUMIFS(F32:F46, C32:C46,H38)</f>
+        <v>5.2083333333333315E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="57"/>
+      <c r="B39" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D39" s="52">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E39" s="52">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="F39" s="52">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H39" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="I39" s="49">
+        <f t="shared" ref="I39" si="14">SUM(I33:I38)</f>
+        <v>0.44444444444444448</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="57"/>
+      <c r="B40" s="51" t="s">
+        <v>383</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D40" s="52">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E40" s="52">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="F40" s="52">
+        <f>E40-D40</f>
+        <v>3.819444444444442E-2</v>
+      </c>
+      <c r="I40" s="54"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="57"/>
+      <c r="B41" s="51" t="s">
+        <v>374</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="D41" s="52">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="E41" s="52">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="F41" s="52">
+        <f t="shared" si="0"/>
+        <v>4.8611111111111049E-2</v>
+      </c>
+      <c r="I41" s="54"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="57"/>
+      <c r="B42" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D42" s="52">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="E42" s="52">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="F42" s="52">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="57"/>
+      <c r="B43" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D43" s="52">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="E43" s="52">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="F43" s="52">
+        <f>E43-D43</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="57"/>
+      <c r="B44" s="51" t="s">
+        <v>385</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="D44" s="52">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="E44" s="52">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="F44" s="52">
+        <f>E44-D44</f>
+        <v>2.4305555555555691E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="57"/>
+      <c r="B45" s="51" t="s">
+        <v>386</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D45" s="52">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E45" s="52">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="F45" s="52">
+        <f t="shared" si="0"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="59"/>
+      <c r="B46" s="51" t="s">
+        <v>387</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D46" s="52">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E46" s="52">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F46" s="52">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="55"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="I47" s="49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="60"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="I48" s="52">
+        <f t="shared" ref="I48" si="15">SUMIFS(F47:F61, C47:C61,H48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="60"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="I49" s="52">
+        <f t="shared" ref="I49" si="16">SUMIFS(F47:F61, C47:C61,H49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="60"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="I50" s="52">
+        <f t="shared" ref="I50" si="17">SUMIFS(F47:F61, C47:C61,H50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="60"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="I51" s="52">
+        <f t="shared" ref="I51" si="18">SUMIFS(F47:F61, C47:C61,H51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="60"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="I52" s="52">
+        <f t="shared" ref="I52" si="19">SUMIFS(F47:F61, C47:C61,H52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="60"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="I53" s="52">
+        <f t="shared" ref="I53" si="20">SUMIFS(F47:F61, C47:C61,H53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="60"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="I54" s="49">
+        <f t="shared" ref="I54" si="21">SUM(I48:I53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="60"/>
+      <c r="B55" s="56" t="s">
+        <v>388</v>
+      </c>
+      <c r="C55" s="51"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="54"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="60"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="54"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="60"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="60"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="60"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="60"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="60"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="51"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="I62" s="49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="57"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="H63" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="I63" s="52">
+        <f t="shared" ref="I63" si="22">SUMIFS(F62:F76, C62:C76,H63)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="57"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="I64" s="52">
+        <f t="shared" ref="I64" si="23">SUMIFS(F62:F76, C62:C76,H64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="57"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="I65" s="52">
+        <f t="shared" ref="I65" si="24">SUMIFS(F62:F76, C62:C76,H65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="57"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="I66" s="52">
+        <f t="shared" ref="I66" si="25">SUMIFS(F62:F76, C62:C76,H66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="57"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52">
+        <f t="shared" ref="F67:F130" si="26">E67-D67</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="I67" s="52">
+        <f t="shared" ref="I67" si="27">SUMIFS(F62:F76, C62:C76,H67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="57"/>
+      <c r="B68" s="56" t="s">
+        <v>388</v>
+      </c>
+      <c r="C68" s="51"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H68" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="I68" s="52">
+        <f t="shared" ref="I68" si="28">SUMIFS(F62:F76, C62:C76,H68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="57"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52">
+        <f>E69-D69</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="I69" s="49">
+        <f t="shared" ref="I69" si="29">SUM(I63:I68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="57"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="52"/>
+      <c r="F70" s="52">
+        <f>E70-D70</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="54"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="57"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="52"/>
+      <c r="F71" s="52">
+        <f t="shared" ref="F71" si="30">E71-D71</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="54"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="57"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="57"/>
+      <c r="B73" s="51"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="52"/>
+      <c r="E73" s="52"/>
+      <c r="F73" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="57"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="57"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="52"/>
+      <c r="E75" s="52"/>
+      <c r="F75" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="57"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="52"/>
+      <c r="F76" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="B77" s="51" t="s">
+        <v>379</v>
+      </c>
+      <c r="C77" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D77" s="52">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E77" s="52">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="F77" s="52">
+        <f t="shared" si="26"/>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="H77" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="I77" s="49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="57"/>
+      <c r="B78" s="51" t="s">
+        <v>389</v>
+      </c>
+      <c r="C78" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D78" s="52">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="E78" s="52">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F78" s="52">
+        <f t="shared" si="26"/>
+        <v>3.819444444444442E-2</v>
+      </c>
+      <c r="H78" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="I78" s="52">
+        <f t="shared" ref="I78" si="31">SUMIFS(F77:F91, C77:C91,H78)</f>
+        <v>0.22569444444444436</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="57"/>
+      <c r="B79" s="51" t="s">
+        <v>390</v>
+      </c>
+      <c r="C79" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D79" s="52">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E79" s="52">
+        <v>0.4375</v>
+      </c>
+      <c r="F79" s="52">
+        <f t="shared" si="26"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H79" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="I79" s="52">
+        <f t="shared" ref="I79" si="32">SUMIFS(F77:F91, C77:C91,H79)</f>
+        <v>4.5138888888888895E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="57"/>
+      <c r="B80" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="C80" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D80" s="52">
+        <v>0.4375</v>
+      </c>
+      <c r="E80" s="52">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F80" s="52">
+        <f t="shared" si="26"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H80" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="I80" s="52">
+        <f t="shared" ref="I80" si="33">SUMIFS(F77:F91, C77:C91,H80)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="57"/>
+      <c r="B81" s="51" t="s">
+        <v>391</v>
+      </c>
+      <c r="C81" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D81" s="52">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E81" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="F81" s="52">
+        <f t="shared" si="26"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H81" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="I81" s="52">
+        <f t="shared" ref="I81" si="34">SUMIFS(F77:F91, C77:C91,H81)</f>
+        <v>1.8750000000000155E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="57"/>
+      <c r="B82" s="51" t="s">
+        <v>392</v>
+      </c>
+      <c r="C82" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D82" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="E82" s="52">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F82" s="52">
+        <f t="shared" si="26"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="H82" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="I82" s="52">
+        <f t="shared" ref="I82" si="35">SUMIFS(F77:F91, C77:C91,H82)</f>
+        <v>4.513888888888884E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="57"/>
+      <c r="B83" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="C83" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D83" s="52">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E83" s="52">
+        <v>0.5625</v>
+      </c>
+      <c r="F83" s="52">
+        <f t="shared" si="26"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H83" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="I83" s="52">
+        <f t="shared" ref="I83" si="36">SUMIFS(F77:F91, C77:C91,H83)</f>
+        <v>5.5555555555555525E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="57"/>
+      <c r="B84" s="51" t="s">
+        <v>393</v>
+      </c>
+      <c r="C84" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="D84" s="52">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E84" s="52">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="F84" s="52">
+        <f>E84-D84</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H84" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="I84" s="49">
+        <f t="shared" ref="I84" si="37">SUM(I78:I83)</f>
+        <v>0.42152777777777778</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="57"/>
+      <c r="B85" s="51" t="s">
+        <v>394</v>
+      </c>
+      <c r="C85" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="D85" s="52">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="E85" s="52">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F85" s="52">
+        <f>E85-D85</f>
+        <v>4.513888888888884E-2</v>
+      </c>
+      <c r="I85" s="54"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="57"/>
+      <c r="B86" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="C86" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D86" s="52">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E86" s="52">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="F86" s="52">
+        <f t="shared" si="26"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="I86" s="54"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="57"/>
+      <c r="B87" s="51" t="s">
+        <v>385</v>
+      </c>
+      <c r="C87" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="D87" s="52">
+        <v>0.70694444444444438</v>
+      </c>
+      <c r="E87" s="52">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="F87" s="52">
+        <f t="shared" si="26"/>
+        <v>1.8750000000000155E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="57"/>
+      <c r="B88" s="51" t="s">
+        <v>395</v>
+      </c>
+      <c r="C88" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D88" s="52">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E88" s="52">
+        <v>0.8125</v>
+      </c>
+      <c r="F88" s="52">
+        <f t="shared" si="26"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="57"/>
+      <c r="B89" s="51" t="s">
+        <v>396</v>
+      </c>
+      <c r="C89" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D89" s="52">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E89" s="52">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F89" s="52">
+        <f t="shared" si="26"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="57"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="52"/>
+      <c r="E90" s="52"/>
+      <c r="F90" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="58"/>
+      <c r="B91" s="51"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="52"/>
+      <c r="E91" s="52"/>
+      <c r="F91" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="B92" s="51" t="s">
+        <v>397</v>
+      </c>
+      <c r="C92" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D92" s="52">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E92" s="52">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="F92" s="52">
+        <f t="shared" si="26"/>
+        <v>3.4722222222222654E-3</v>
+      </c>
+      <c r="H92" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="I92" s="49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="57"/>
+      <c r="B93" s="51" t="s">
+        <v>398</v>
+      </c>
+      <c r="C93" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D93" s="52">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E93" s="52">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F93" s="52">
+        <f t="shared" si="26"/>
+        <v>1.7361111111111105E-2</v>
+      </c>
+      <c r="H93" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="I93" s="52">
+        <f>SUMIFS(F92:F106, C92:C106,H93)</f>
+        <v>0.1666666666666668</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="57"/>
+      <c r="B94" s="56" t="s">
+        <v>399</v>
+      </c>
+      <c r="C94" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D94" s="52">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E94" s="52">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F94" s="52">
+        <f t="shared" si="26"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H94" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="I94" s="52">
+        <f>SUMIFS(F92:F106, C92:C106,H94)</f>
+        <v>2.4305555555555525E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="57"/>
+      <c r="B95" s="51" t="s">
+        <v>400</v>
+      </c>
+      <c r="C95" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="D95" s="52">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E95" s="52">
+        <v>0.4375</v>
+      </c>
+      <c r="F95" s="52">
+        <f t="shared" si="26"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H95" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="I95" s="52">
+        <f>SUMIFS(F92:F106, C92:C106,H95)</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="57"/>
+      <c r="B96" s="51" t="s">
+        <v>342</v>
+      </c>
+      <c r="C96" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D96" s="52">
+        <v>0.4375</v>
+      </c>
+      <c r="E96" s="52">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="F96" s="52">
+        <f t="shared" si="26"/>
+        <v>9.0277777777778012E-3</v>
+      </c>
+      <c r="H96" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="I96" s="52">
+        <f>SUMIFS(F92:F106, C92:C106,H96)</f>
+        <v>4.1666666666666685E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="57"/>
+      <c r="B97" s="51" t="s">
+        <v>401</v>
+      </c>
+      <c r="C97" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D97" s="52">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E97" s="52">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F97" s="52">
+        <f t="shared" si="26"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H97" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="I97" s="52">
+        <f>SUMIFS(F92:F106, C92:C106,H97)</f>
+        <v>4.8611111111111049E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="57"/>
+      <c r="B98" s="51" t="s">
+        <v>402</v>
+      </c>
+      <c r="C98" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D98" s="52">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E98" s="52">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F98" s="52">
+        <f t="shared" si="26"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H98" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="I98" s="52">
+        <f>SUMIFS(F92:F106, C92:C106,H98)</f>
+        <v>4.3750000000000011E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="57"/>
+      <c r="B99" s="51" t="s">
+        <v>403</v>
+      </c>
+      <c r="C99" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="D99" s="52">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E99" s="52">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="F99" s="52">
+        <f t="shared" si="26"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H99" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="I99" s="49">
+        <f t="shared" ref="I99" si="38">SUM(I93:I98)</f>
+        <v>0.34583333333333338</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="57"/>
+      <c r="B100" s="51" t="s">
+        <v>404</v>
+      </c>
+      <c r="C100" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D100" s="52">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E100" s="52">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="F100" s="52">
+        <f>E100-D100</f>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="I100" s="54"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="57"/>
+      <c r="B101" s="51" t="s">
+        <v>405</v>
+      </c>
+      <c r="C101" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D101" s="52">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="E101" s="52">
+        <v>0.5625</v>
+      </c>
+      <c r="F101" s="52">
+        <f>E101-D101</f>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="I101" s="54"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="57"/>
+      <c r="B102" s="51" t="s">
+        <v>406</v>
+      </c>
+      <c r="C102" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D102" s="52">
+        <v>0.5625</v>
+      </c>
+      <c r="E102" s="52">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="F102" s="52">
+        <f>E102-D102</f>
+        <v>5.902777777777779E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="57"/>
+      <c r="B103" s="51" t="s">
+        <v>407</v>
+      </c>
+      <c r="C103" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="D103" s="52">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="E103" s="52">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="F103" s="52">
+        <f>E103-D103</f>
+        <v>4.8611111111111049E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="57"/>
+      <c r="B104" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="C104" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D104" s="52">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="E104" s="52">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="F104" s="52">
+        <f>E104-D104</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="57"/>
+      <c r="B105" s="51" t="s">
+        <v>408</v>
+      </c>
+      <c r="C105" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D105" s="52">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="E105" s="52">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="F105" s="52">
+        <f>E105-D105</f>
+        <v>2.4305555555555691E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="59"/>
+      <c r="B106" s="51" t="s">
+        <v>409</v>
+      </c>
+      <c r="C106" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D106" s="52">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="E106" s="52">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="F106" s="52">
+        <f>E106-D106</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B107" s="55"/>
+      <c r="C107" s="51"/>
+      <c r="D107" s="52"/>
+      <c r="E107" s="52"/>
+      <c r="F107" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H107" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="I107" s="49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="60"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="51"/>
+      <c r="D108" s="52"/>
+      <c r="E108" s="52"/>
+      <c r="F108" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H108" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="I108" s="52">
+        <f t="shared" ref="I108" si="39">SUMIFS(F107:F121, C107:C121,H108)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="60"/>
+      <c r="B109" s="55"/>
+      <c r="C109" s="51"/>
+      <c r="D109" s="52"/>
+      <c r="E109" s="52"/>
+      <c r="F109" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H109" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="I109" s="52">
+        <f t="shared" ref="I109" si="40">SUMIFS(F107:F121, C107:C121,H109)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="60"/>
+      <c r="B110" s="55"/>
+      <c r="C110" s="51"/>
+      <c r="D110" s="52"/>
+      <c r="E110" s="52"/>
+      <c r="F110" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H110" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="I110" s="52">
+        <f t="shared" ref="I110" si="41">SUMIFS(F107:F121, C107:C121,H110)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="60"/>
+      <c r="B111" s="55" t="s">
+        <v>388</v>
+      </c>
+      <c r="C111" s="51"/>
+      <c r="D111" s="52"/>
+      <c r="E111" s="52"/>
+      <c r="F111" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H111" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="I111" s="52">
+        <f t="shared" ref="I111" si="42">SUMIFS(F107:F121, C107:C121,H111)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="60"/>
+      <c r="B112" s="55"/>
+      <c r="C112" s="51"/>
+      <c r="D112" s="52"/>
+      <c r="E112" s="52"/>
+      <c r="F112" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H112" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="I112" s="52">
+        <f t="shared" ref="I112" si="43">SUMIFS(F107:F121, C107:C121,H112)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="60"/>
+      <c r="B113" s="55"/>
+      <c r="C113" s="51"/>
+      <c r="D113" s="52"/>
+      <c r="E113" s="52"/>
+      <c r="F113" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H113" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="I113" s="52">
+        <f t="shared" ref="I113" si="44">SUMIFS(F107:F121, C107:C121,H113)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="60"/>
+      <c r="B114" s="55"/>
+      <c r="C114" s="51"/>
+      <c r="D114" s="52"/>
+      <c r="E114" s="52"/>
+      <c r="F114" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H114" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="I114" s="49">
+        <f t="shared" ref="I114" si="45">SUM(I108:I113)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="60"/>
+      <c r="B115" s="55"/>
+      <c r="C115" s="51"/>
+      <c r="D115" s="52"/>
+      <c r="E115" s="52"/>
+      <c r="F115" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I115" s="54"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="60"/>
+      <c r="B116" s="55"/>
+      <c r="C116" s="51"/>
+      <c r="D116" s="52"/>
+      <c r="E116" s="52"/>
+      <c r="F116" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I116" s="54"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="60"/>
+      <c r="B117" s="55"/>
+      <c r="C117" s="51"/>
+      <c r="D117" s="52"/>
+      <c r="E117" s="52"/>
+      <c r="F117" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="60"/>
+      <c r="B118" s="55"/>
+      <c r="C118" s="51"/>
+      <c r="D118" s="52"/>
+      <c r="E118" s="52"/>
+      <c r="F118" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="60"/>
+      <c r="B119" s="55"/>
+      <c r="C119" s="51"/>
+      <c r="D119" s="52"/>
+      <c r="E119" s="52"/>
+      <c r="F119" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="60"/>
+      <c r="B120" s="55"/>
+      <c r="C120" s="51"/>
+      <c r="D120" s="52"/>
+      <c r="E120" s="52"/>
+      <c r="F120" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" hidden="1">
+      <c r="A121" s="60"/>
+      <c r="B121" s="55"/>
+      <c r="C121" s="51"/>
+      <c r="D121" s="52"/>
+      <c r="E121" s="52"/>
+      <c r="F121" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="B122" s="51" t="s">
+        <v>426</v>
+      </c>
+      <c r="C122" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D122" s="52">
+        <v>0.375</v>
+      </c>
+      <c r="E122" s="52">
+        <v>0.46875</v>
+      </c>
+      <c r="F122" s="52">
+        <f t="shared" si="26"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="H122" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="I122" s="49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="57"/>
+      <c r="B123" s="51" t="s">
+        <v>427</v>
+      </c>
+      <c r="C123" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D123" s="52">
+        <v>0.46875</v>
+      </c>
+      <c r="E123" s="52">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F123" s="52">
+        <f t="shared" si="26"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H123" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="I123" s="52">
+        <f t="shared" ref="I123" si="46">SUMIFS(F122:F136, C122:C136,H123)</f>
+        <v>0.34375000000000006</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="57"/>
+      <c r="B124" s="51" t="s">
+        <v>428</v>
+      </c>
+      <c r="C124" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D124" s="52">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E124" s="52">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="F124" s="52">
+        <f t="shared" si="26"/>
+        <v>6.9444444444444475E-2</v>
+      </c>
+      <c r="H124" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="I124" s="52">
+        <f t="shared" ref="I124" si="47">SUMIFS(F122:F136, C122:C136,H124)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="57"/>
+      <c r="B125" s="51" t="s">
+        <v>429</v>
+      </c>
+      <c r="C125" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D125" s="52">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="E125" s="52">
+        <v>0.625</v>
+      </c>
+      <c r="F125" s="52">
+        <f t="shared" si="26"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="H125" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="I125" s="52">
+        <f t="shared" ref="I125" si="48">SUMIFS(F122:F136, C122:C136,H125)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="57"/>
+      <c r="B126" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="C126" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D126" s="52">
+        <v>0.625</v>
+      </c>
+      <c r="E126" s="52">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="F126" s="52">
+        <f t="shared" si="26"/>
+        <v>0.12847222222222221</v>
+      </c>
+      <c r="H126" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="I126" s="52">
+        <f t="shared" ref="I126" si="49">SUMIFS(F122:F136, C122:C136,H126)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="63"/>
+      <c r="B127" s="62" t="s">
+        <v>431</v>
+      </c>
+      <c r="C127" s="55" t="s">
+        <v>295</v>
+      </c>
+      <c r="D127" s="52">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="E127" s="52">
+        <v>0.78125</v>
+      </c>
+      <c r="F127" s="52">
+        <f t="shared" si="26"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="H127" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="I127" s="52">
+        <f t="shared" ref="I127" si="50">SUMIFS(F122:F136, C122:C136,H127)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="63"/>
+      <c r="B128" s="62" t="s">
+        <v>432</v>
+      </c>
+      <c r="C128" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="D128" s="52">
+        <v>0.78125</v>
+      </c>
+      <c r="E128" s="52">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F128" s="52">
+        <f t="shared" si="26"/>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="H128" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="I128" s="52">
+        <f t="shared" ref="I128" si="51">SUMIFS(F122:F136, C122:C136,H128)</f>
+        <v>0.11458333333333331</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="63"/>
+      <c r="B129" s="62"/>
+      <c r="C129" s="55"/>
+      <c r="D129" s="52"/>
+      <c r="E129" s="52"/>
+      <c r="F129" s="52"/>
+      <c r="H129" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="I129" s="49">
+        <f t="shared" ref="I129" si="52">SUM(I123:I128)</f>
+        <v>0.45833333333333337</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="63"/>
+      <c r="B130" s="62"/>
+      <c r="C130" s="55"/>
+      <c r="D130" s="52"/>
+      <c r="E130" s="52"/>
+      <c r="F130" s="52"/>
+      <c r="I130" s="54"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="57"/>
+      <c r="B131" s="65"/>
+      <c r="C131" s="51"/>
+      <c r="D131" s="52"/>
+      <c r="E131" s="52"/>
+      <c r="F131" s="52"/>
+      <c r="I131" s="54"/>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="57"/>
+      <c r="B132" s="51"/>
+      <c r="C132" s="51"/>
+      <c r="D132" s="52"/>
+      <c r="E132" s="52"/>
+      <c r="F132" s="52"/>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="57"/>
+      <c r="B133" s="51"/>
+      <c r="C133" s="51"/>
+      <c r="D133" s="52"/>
+      <c r="E133" s="52"/>
+      <c r="F133" s="52"/>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="57"/>
+      <c r="B134" s="51"/>
+      <c r="C134" s="51"/>
+      <c r="D134" s="52"/>
+      <c r="E134" s="52"/>
+      <c r="F134" s="52"/>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="57"/>
+      <c r="B135" s="51"/>
+      <c r="C135" s="51"/>
+      <c r="D135" s="52"/>
+      <c r="E135" s="52"/>
+      <c r="F135" s="52"/>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="59"/>
+      <c r="B136" s="51"/>
+      <c r="C136" s="51"/>
+      <c r="D136" s="52"/>
+      <c r="E136" s="52"/>
+      <c r="F136" s="52"/>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="60" t="s">
+        <v>276</v>
+      </c>
+      <c r="B137" s="55" t="s">
+        <v>419</v>
+      </c>
+      <c r="C137" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D137" s="52">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E137" s="52">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="F137" s="52">
+        <f t="shared" ref="F131:F151" si="53">E137-D137</f>
         <v>3.4722222222222099E-3</v>
       </c>
       <c r="H137" s="49" t="s">
@@ -20701,7 +23947,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C151" xr:uid="{00000000-0002-0000-1100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C151" xr:uid="{F6F14048-1ECC-4B05-9BB7-DF6402E9FA3F}">
       <formula1>$Q$1:$Q$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire\GIT-Rafi_Project\Project\Process\Timesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6335a4d563d7e8e3/Documents/GitHub/Project/Process/Timesheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D908E7D-36CA-4FE6-8A75-57F70C0E2D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{5D908E7D-36CA-4FE6-8A75-57F70C0E2D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0D1C64E-EBE0-41EE-8B15-B7325C33BCB8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="17" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="17" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 3(06-04-2022)" sheetId="40" r:id="rId1"/>
@@ -34,12 +34,14 @@
     <sheet name="Day21(30-04-2022)-Friday's" sheetId="65" r:id="rId19"/>
     <sheet name="Day22(01-05-2022)-Saturday's" sheetId="64" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="456">
   <si>
     <t>Column1</t>
   </si>
@@ -1844,6 +1846,30 @@
   </si>
   <si>
     <t>ABSENT(Went To College)</t>
+  </si>
+  <si>
+    <t>Explored on Webapi Security</t>
+  </si>
+  <si>
+    <t>Explored on datafactory</t>
+  </si>
+  <si>
+    <t>Explored how to connect Webapi with EFcore</t>
+  </si>
+  <si>
+    <t>Explored on Data injection</t>
+  </si>
+  <si>
+    <t>Explored on Role services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          05:30.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          04:45:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         00:45:00</t>
   </si>
 </sst>
 </file>
@@ -2338,10 +2364,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2350,7 +2376,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11973,16 +11999,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.109375" customWidth="1"/>
-    <col min="3" max="3" width="92.109375" customWidth="1"/>
-    <col min="4" max="4" width="64.5546875" customWidth="1"/>
-    <col min="5" max="7" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.08984375" customWidth="1"/>
+    <col min="3" max="3" width="92.08984375" customWidth="1"/>
+    <col min="4" max="4" width="64.54296875" customWidth="1"/>
+    <col min="5" max="7" width="29.08984375" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -11999,7 +12025,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
@@ -12016,7 +12042,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="2:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -12025,7 +12051,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="2:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B7" s="4"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -12034,7 +12060,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="11"/>
       <c r="C8" s="5"/>
       <c r="D8" s="11"/>
@@ -12043,7 +12069,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="2:8" s="12" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" s="12" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="18" t="s">
         <v>4</v>
       </c>
@@ -12066,7 +12092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
         <v>13</v>
       </c>
@@ -12087,7 +12113,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
         <v>17</v>
       </c>
@@ -12108,7 +12134,7 @@
       </c>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
         <v>20</v>
       </c>
@@ -12129,7 +12155,7 @@
       </c>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
         <v>21</v>
       </c>
@@ -12150,7 +12176,7 @@
       </c>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B14" s="19" t="s">
         <v>24</v>
       </c>
@@ -12171,7 +12197,7 @@
       </c>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B15" s="20" t="s">
         <v>27</v>
       </c>
@@ -12192,7 +12218,7 @@
       </c>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B16" s="19" t="s">
         <v>30</v>
       </c>
@@ -12213,7 +12239,7 @@
       </c>
       <c r="H16" s="26"/>
     </row>
-    <row r="17" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B17" s="19" t="s">
         <v>31</v>
       </c>
@@ -12234,7 +12260,7 @@
       </c>
       <c r="H17" s="26"/>
     </row>
-    <row r="18" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B18" s="19" t="s">
         <v>34</v>
       </c>
@@ -12255,7 +12281,7 @@
       </c>
       <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B19" s="21" t="s">
         <v>36</v>
       </c>
@@ -12294,18 +12320,18 @@
       <selection activeCell="B5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="39.88671875" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="68.6640625" customWidth="1"/>
-    <col min="5" max="5" width="62.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="39.90625" customWidth="1"/>
+    <col min="3" max="3" width="42.36328125" customWidth="1"/>
+    <col min="4" max="4" width="68.6328125" customWidth="1"/>
+    <col min="5" max="5" width="62.6328125" customWidth="1"/>
+    <col min="6" max="6" width="22.54296875" customWidth="1"/>
+    <col min="7" max="7" width="19.08984375" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -12322,7 +12348,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
@@ -12339,7 +12365,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B4" s="6"/>
       <c r="C4" s="33"/>
       <c r="D4" s="7"/>
@@ -12348,7 +12374,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B5" s="4"/>
       <c r="C5" s="34"/>
       <c r="D5" s="9"/>
@@ -12357,7 +12383,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="20.5" x14ac:dyDescent="0.45">
       <c r="B6" s="11"/>
       <c r="C6" s="36"/>
       <c r="D6" s="11"/>
@@ -12366,7 +12392,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="42" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="18" t="s">
         <v>4</v>
@@ -12390,7 +12416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="219.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="19" t="s">
         <v>13</v>
       </c>
@@ -12411,7 +12437,7 @@
       </c>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="1:8" ht="185.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="185.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="19" t="s">
         <v>17</v>
       </c>
@@ -12432,7 +12458,7 @@
       </c>
       <c r="H9" s="24"/>
     </row>
-    <row r="10" spans="1:8" ht="147" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="147" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
         <v>20</v>
       </c>
@@ -12453,7 +12479,7 @@
       </c>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:8" ht="229.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="229.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
         <v>21</v>
       </c>
@@ -12474,7 +12500,7 @@
       </c>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8" ht="186.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="186.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
         <v>24</v>
       </c>
@@ -12491,7 +12517,7 @@
       <c r="G12" s="35"/>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
         <v>27</v>
       </c>
@@ -12512,7 +12538,7 @@
       </c>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" ht="197.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="197.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="19" t="s">
         <v>30</v>
       </c>
@@ -12533,7 +12559,7 @@
       </c>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" ht="196.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="196.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B15" s="19" t="s">
         <v>31</v>
       </c>
@@ -12554,7 +12580,7 @@
       </c>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="1:8" ht="197.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="197.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="19" t="s">
         <v>34</v>
       </c>
@@ -12573,7 +12599,7 @@
       </c>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="2:8" ht="273.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" ht="273.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B17" s="21" t="s">
         <v>54</v>
       </c>
@@ -12611,18 +12637,18 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="39.88671875" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="68.6640625" customWidth="1"/>
-    <col min="5" max="5" width="62.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="39.90625" customWidth="1"/>
+    <col min="3" max="3" width="42.36328125" customWidth="1"/>
+    <col min="4" max="4" width="68.6328125" customWidth="1"/>
+    <col min="5" max="5" width="62.6328125" customWidth="1"/>
+    <col min="6" max="6" width="22.54296875" customWidth="1"/>
+    <col min="7" max="7" width="19.08984375" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -12639,7 +12665,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
@@ -12656,7 +12682,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B4" s="6"/>
       <c r="C4" s="33"/>
       <c r="D4" s="7"/>
@@ -12665,7 +12691,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B5" s="4"/>
       <c r="C5" s="34"/>
       <c r="D5" s="9"/>
@@ -12674,7 +12700,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="20.5" x14ac:dyDescent="0.45">
       <c r="B6" s="11"/>
       <c r="C6" s="36"/>
       <c r="D6" s="11"/>
@@ -12683,7 +12709,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="42" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="18" t="s">
         <v>4</v>
@@ -12707,7 +12733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="219.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="19" t="s">
         <v>13</v>
       </c>
@@ -12728,7 +12754,7 @@
       </c>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="1:8" ht="185.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="185.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="19" t="s">
         <v>17</v>
       </c>
@@ -12749,7 +12775,7 @@
       </c>
       <c r="H9" s="24"/>
     </row>
-    <row r="10" spans="1:8" ht="147" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="147" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
         <v>20</v>
       </c>
@@ -12770,7 +12796,7 @@
       </c>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:8" ht="229.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="229.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
         <v>21</v>
       </c>
@@ -12791,7 +12817,7 @@
       </c>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8" ht="186.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="186.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
         <v>24</v>
       </c>
@@ -12808,7 +12834,7 @@
       <c r="G12" s="35"/>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
         <v>27</v>
       </c>
@@ -12829,7 +12855,7 @@
       </c>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" ht="197.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="197.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="19" t="s">
         <v>30</v>
       </c>
@@ -12850,7 +12876,7 @@
       </c>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" ht="196.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="196.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B15" s="19" t="s">
         <v>31</v>
       </c>
@@ -12871,7 +12897,7 @@
       </c>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="1:8" ht="284.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="284.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="19" t="s">
         <v>34</v>
       </c>
@@ -12890,7 +12916,7 @@
       </c>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="2:8" ht="273.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" ht="273.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B17" s="21" t="s">
         <v>54</v>
       </c>
@@ -12928,18 +12954,18 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="39.88671875" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="68.6640625" customWidth="1"/>
-    <col min="5" max="5" width="62.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="39.90625" customWidth="1"/>
+    <col min="3" max="3" width="42.36328125" customWidth="1"/>
+    <col min="4" max="4" width="68.6328125" customWidth="1"/>
+    <col min="5" max="5" width="62.6328125" customWidth="1"/>
+    <col min="6" max="6" width="22.54296875" customWidth="1"/>
+    <col min="7" max="7" width="19.08984375" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -12956,7 +12982,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
@@ -12973,7 +12999,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B4" s="6"/>
       <c r="C4" s="33"/>
       <c r="D4" s="7"/>
@@ -12982,7 +13008,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B5" s="4"/>
       <c r="C5" s="34"/>
       <c r="D5" s="9"/>
@@ -12991,7 +13017,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="20.5" x14ac:dyDescent="0.45">
       <c r="B6" s="11"/>
       <c r="C6" s="36"/>
       <c r="D6" s="11"/>
@@ -13000,7 +13026,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="42" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="18" t="s">
         <v>4</v>
@@ -13024,7 +13050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="219.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="19" t="s">
         <v>13</v>
       </c>
@@ -13045,7 +13071,7 @@
       </c>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="1:8" ht="234.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="234.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="19" t="s">
         <v>17</v>
       </c>
@@ -13066,7 +13092,7 @@
       </c>
       <c r="H9" s="24"/>
     </row>
-    <row r="10" spans="1:8" ht="204" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="204" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
         <v>20</v>
       </c>
@@ -13087,7 +13113,7 @@
       </c>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:8" ht="229.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="229.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
         <v>21</v>
       </c>
@@ -13108,7 +13134,7 @@
       </c>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8" ht="186.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="186.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
         <v>24</v>
       </c>
@@ -13125,7 +13151,7 @@
       <c r="G12" s="35"/>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
         <v>27</v>
       </c>
@@ -13146,7 +13172,7 @@
       </c>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" ht="197.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="197.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="19" t="s">
         <v>30</v>
       </c>
@@ -13167,7 +13193,7 @@
       </c>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" ht="196.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="196.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B15" s="19" t="s">
         <v>31</v>
       </c>
@@ -13188,7 +13214,7 @@
       </c>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="1:8" ht="197.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="197.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="19" t="s">
         <v>34</v>
       </c>
@@ -13207,7 +13233,7 @@
       </c>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="2:8" ht="273.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" ht="273.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B17" s="21" t="s">
         <v>54</v>
       </c>
@@ -13245,18 +13271,18 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="39.88671875" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="68.6640625" customWidth="1"/>
-    <col min="5" max="5" width="62.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="39.90625" customWidth="1"/>
+    <col min="3" max="3" width="42.36328125" customWidth="1"/>
+    <col min="4" max="4" width="68.6328125" customWidth="1"/>
+    <col min="5" max="5" width="62.6328125" customWidth="1"/>
+    <col min="6" max="6" width="22.54296875" customWidth="1"/>
+    <col min="7" max="7" width="19.08984375" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -13273,7 +13299,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
@@ -13290,7 +13316,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B4" s="6"/>
       <c r="C4" s="33"/>
       <c r="D4" s="7"/>
@@ -13299,7 +13325,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B5" s="4"/>
       <c r="C5" s="34"/>
       <c r="D5" s="9"/>
@@ -13308,7 +13334,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="20.5" x14ac:dyDescent="0.45">
       <c r="B6" s="11"/>
       <c r="C6" s="36"/>
       <c r="D6" s="11"/>
@@ -13317,7 +13343,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="42" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="18" t="s">
         <v>4</v>
@@ -13341,7 +13367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="219.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="19" t="s">
         <v>13</v>
       </c>
@@ -13362,7 +13388,7 @@
       </c>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="1:8" ht="174" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="174" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="19" t="s">
         <v>17</v>
       </c>
@@ -13383,7 +13409,7 @@
       </c>
       <c r="H9" s="24"/>
     </row>
-    <row r="10" spans="1:8" ht="170.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="170.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
         <v>20</v>
       </c>
@@ -13404,7 +13430,7 @@
       </c>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:8" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="179.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
         <v>21</v>
       </c>
@@ -13425,7 +13451,7 @@
       </c>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8" ht="186.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="186.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
         <v>24</v>
       </c>
@@ -13442,7 +13468,7 @@
       <c r="G12" s="35"/>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
         <v>27</v>
       </c>
@@ -13463,7 +13489,7 @@
       </c>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" ht="197.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="197.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="19" t="s">
         <v>30</v>
       </c>
@@ -13484,7 +13510,7 @@
       </c>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" ht="303.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="303.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B15" s="19" t="s">
         <v>31</v>
       </c>
@@ -13505,7 +13531,7 @@
       </c>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="1:8" ht="197.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="197.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="19" t="s">
         <v>34</v>
       </c>
@@ -13524,7 +13550,7 @@
       </c>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="2:8" ht="273.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" ht="273.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B17" s="21" t="s">
         <v>54</v>
       </c>
@@ -13562,17 +13588,17 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="57.33203125" customWidth="1"/>
-    <col min="3" max="3" width="72.33203125" customWidth="1"/>
-    <col min="4" max="5" width="70.44140625" customWidth="1"/>
-    <col min="6" max="6" width="72.6640625" customWidth="1"/>
-    <col min="7" max="7" width="82.33203125" customWidth="1"/>
-    <col min="8" max="8" width="109.6640625" customWidth="1"/>
+    <col min="2" max="2" width="57.36328125" customWidth="1"/>
+    <col min="3" max="3" width="72.36328125" customWidth="1"/>
+    <col min="4" max="5" width="70.453125" customWidth="1"/>
+    <col min="6" max="6" width="72.6328125" customWidth="1"/>
+    <col min="7" max="7" width="82.36328125" customWidth="1"/>
+    <col min="8" max="8" width="109.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -13589,7 +13615,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
@@ -13606,7 +13632,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B6" s="6"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
@@ -13615,7 +13641,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B7" s="4"/>
       <c r="C7" s="34"/>
       <c r="D7" s="9"/>
@@ -13624,7 +13650,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="20.5" x14ac:dyDescent="0.45">
       <c r="B8" s="11"/>
       <c r="C8" s="36"/>
       <c r="D8" s="11"/>
@@ -13633,7 +13659,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="18" t="s">
         <v>4</v>
@@ -13657,7 +13683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="168" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="168" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
         <v>13</v>
       </c>
@@ -13678,7 +13704,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" ht="224.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="224.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
         <v>17</v>
       </c>
@@ -13699,7 +13725,7 @@
       </c>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="177.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="177.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
         <v>20</v>
       </c>
@@ -13720,7 +13746,7 @@
       </c>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="186.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="186.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
         <v>21</v>
       </c>
@@ -13741,7 +13767,7 @@
       </c>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" ht="248.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="248.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="19" t="s">
         <v>24</v>
       </c>
@@ -13758,7 +13784,7 @@
       <c r="G14" s="35"/>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" ht="211.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="211.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="19" t="s">
         <v>27</v>
       </c>
@@ -13779,7 +13805,7 @@
       </c>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" spans="1:8" ht="204" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="204" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="19" t="s">
         <v>30</v>
       </c>
@@ -13800,7 +13826,7 @@
       </c>
       <c r="H16" s="25"/>
     </row>
-    <row r="17" spans="2:8" ht="232.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" ht="232.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B17" s="19" t="s">
         <v>31</v>
       </c>
@@ -13821,7 +13847,7 @@
       </c>
       <c r="H17" s="26"/>
     </row>
-    <row r="18" spans="2:8" ht="207.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="207.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="19" t="s">
         <v>34</v>
       </c>
@@ -13840,7 +13866,7 @@
       </c>
       <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="2:8" ht="208.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8" ht="208.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B19" s="21" t="s">
         <v>54</v>
       </c>
@@ -13878,17 +13904,17 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="57.33203125" customWidth="1"/>
-    <col min="3" max="3" width="72.33203125" customWidth="1"/>
-    <col min="4" max="5" width="70.44140625" customWidth="1"/>
-    <col min="6" max="6" width="72.6640625" customWidth="1"/>
-    <col min="7" max="7" width="82.33203125" customWidth="1"/>
-    <col min="8" max="8" width="109.6640625" customWidth="1"/>
+    <col min="2" max="2" width="57.36328125" customWidth="1"/>
+    <col min="3" max="3" width="72.36328125" customWidth="1"/>
+    <col min="4" max="5" width="70.453125" customWidth="1"/>
+    <col min="6" max="6" width="72.6328125" customWidth="1"/>
+    <col min="7" max="7" width="82.36328125" customWidth="1"/>
+    <col min="8" max="8" width="109.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -13905,7 +13931,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
@@ -13922,7 +13948,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B6" s="6"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
@@ -13931,7 +13957,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B7" s="4"/>
       <c r="C7" s="34"/>
       <c r="D7" s="9"/>
@@ -13940,7 +13966,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="20.5" x14ac:dyDescent="0.45">
       <c r="B8" s="11"/>
       <c r="C8" s="36"/>
       <c r="D8" s="11"/>
@@ -13949,7 +13975,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="18" t="s">
         <v>4</v>
@@ -13973,7 +13999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="336" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="336" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
         <v>13</v>
       </c>
@@ -13994,7 +14020,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" ht="348" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="348" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
         <v>17</v>
       </c>
@@ -14015,7 +14041,7 @@
       </c>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="327.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="327.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
         <v>20</v>
       </c>
@@ -14036,7 +14062,7 @@
       </c>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="230.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="230.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
         <v>21</v>
       </c>
@@ -14057,7 +14083,7 @@
       </c>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" ht="248.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="248.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="19" t="s">
         <v>24</v>
       </c>
@@ -14074,7 +14100,7 @@
       <c r="G14" s="35"/>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" ht="329.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="329.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="19" t="s">
         <v>27</v>
       </c>
@@ -14095,7 +14121,7 @@
       </c>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" spans="1:8" ht="395.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="395.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="19" t="s">
         <v>30</v>
       </c>
@@ -14116,7 +14142,7 @@
       </c>
       <c r="H16" s="25"/>
     </row>
-    <row r="17" spans="2:8" ht="409.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" ht="409.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B17" s="19" t="s">
         <v>31</v>
       </c>
@@ -14137,7 +14163,7 @@
       </c>
       <c r="H17" s="26"/>
     </row>
-    <row r="18" spans="2:8" ht="291.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="291.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="19" t="s">
         <v>34</v>
       </c>
@@ -14156,7 +14182,7 @@
       </c>
       <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="2:8" ht="208.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8" ht="208.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B19" s="21" t="s">
         <v>54</v>
       </c>
@@ -14194,18 +14220,18 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="57.33203125" customWidth="1"/>
-    <col min="3" max="3" width="72.33203125" customWidth="1"/>
-    <col min="4" max="4" width="88.109375" customWidth="1"/>
-    <col min="5" max="5" width="70.44140625" customWidth="1"/>
-    <col min="6" max="6" width="72.6640625" customWidth="1"/>
-    <col min="7" max="7" width="82.33203125" customWidth="1"/>
-    <col min="8" max="8" width="109.6640625" customWidth="1"/>
+    <col min="2" max="2" width="57.36328125" customWidth="1"/>
+    <col min="3" max="3" width="72.36328125" customWidth="1"/>
+    <col min="4" max="4" width="88.08984375" customWidth="1"/>
+    <col min="5" max="5" width="70.453125" customWidth="1"/>
+    <col min="6" max="6" width="72.6328125" customWidth="1"/>
+    <col min="7" max="7" width="82.36328125" customWidth="1"/>
+    <col min="8" max="8" width="109.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -14222,7 +14248,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
@@ -14239,7 +14265,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B6" s="6"/>
       <c r="C6" s="33"/>
       <c r="D6" s="7"/>
@@ -14248,7 +14274,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B7" s="4"/>
       <c r="C7" s="34"/>
       <c r="D7" s="9"/>
@@ -14257,7 +14283,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="20.5" x14ac:dyDescent="0.45">
       <c r="B8" s="11"/>
       <c r="C8" s="36"/>
       <c r="D8" s="11"/>
@@ -14266,7 +14292,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="18" t="s">
         <v>4</v>
@@ -14290,7 +14316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="315" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="315" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
         <v>13</v>
       </c>
@@ -14311,7 +14337,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="120.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
         <v>17</v>
       </c>
@@ -14328,7 +14354,7 @@
       <c r="G11" s="35"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="373.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="373.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
         <v>263</v>
       </c>
@@ -14349,7 +14375,7 @@
       </c>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
         <v>21</v>
       </c>
@@ -14366,7 +14392,7 @@
       <c r="G13" s="35"/>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" ht="248.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="248.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="19" t="s">
         <v>24</v>
       </c>
@@ -14383,7 +14409,7 @@
       <c r="G14" s="35"/>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" ht="405" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="405" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="19" t="s">
         <v>269</v>
       </c>
@@ -14404,7 +14430,7 @@
       </c>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" spans="1:8" ht="401.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="401.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="19" t="s">
         <v>30</v>
       </c>
@@ -14425,7 +14451,7 @@
       </c>
       <c r="H16" s="25"/>
     </row>
-    <row r="17" spans="2:8" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="19" t="s">
         <v>273</v>
       </c>
@@ -14442,7 +14468,7 @@
       <c r="G17" s="35"/>
       <c r="H17" s="25"/>
     </row>
-    <row r="18" spans="2:8" ht="336" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="336" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="19" t="s">
         <v>276</v>
       </c>
@@ -14459,7 +14485,7 @@
       <c r="G18" s="35"/>
       <c r="H18" s="25"/>
     </row>
-    <row r="19" spans="2:8" ht="409.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8" ht="409.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B19" s="21" t="s">
         <v>54</v>
       </c>
@@ -14480,8 +14506,8 @@
       </c>
       <c r="H19" s="28"/>
     </row>
-    <row r="20" spans="2:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:8" ht="22.65" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="2:8" ht="22.65" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
@@ -14499,21 +14525,21 @@
       <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="54" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="54" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="54" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.08984375" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5546875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="15.54296875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
         <v>278</v>
       </c>
@@ -14534,8 +14560,8 @@
       </c>
       <c r="G1" s="50"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="61" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -14564,8 +14590,8 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="61"/>
       <c r="B3" s="51" t="s">
         <v>289</v>
       </c>
@@ -14593,8 +14619,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="61"/>
       <c r="B4" s="51" t="s">
         <v>291</v>
       </c>
@@ -14622,8 +14648,8 @@
         <v>290</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="61"/>
       <c r="B5" s="51" t="s">
         <v>292</v>
       </c>
@@ -14651,8 +14677,8 @@
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="60"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="61"/>
       <c r="B6" s="51" t="s">
         <v>294</v>
       </c>
@@ -14680,8 +14706,8 @@
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="61"/>
       <c r="B7" t="s">
         <v>297</v>
       </c>
@@ -14709,8 +14735,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="60"/>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="61"/>
       <c r="B8" s="51" t="s">
         <v>298</v>
       </c>
@@ -14735,8 +14761,8 @@
         <v>3.8194444444444586E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="61"/>
       <c r="B9" s="51" t="s">
         <v>299</v>
       </c>
@@ -14761,8 +14787,8 @@
         <v>0.32152777777777791</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="61"/>
       <c r="B10" s="51" t="s">
         <v>301</v>
       </c>
@@ -14781,8 +14807,8 @@
       </c>
       <c r="I10" s="54"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="60"/>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="61"/>
       <c r="B11" s="51" t="s">
         <v>302</v>
       </c>
@@ -14801,8 +14827,8 @@
       </c>
       <c r="I11" s="54"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="60"/>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="61"/>
       <c r="B12" s="51" t="s">
         <v>303</v>
       </c>
@@ -14820,8 +14846,8 @@
         <v>1.7361111111111049E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="60"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="61"/>
       <c r="B13" s="51" t="s">
         <v>304</v>
       </c>
@@ -14839,8 +14865,8 @@
         <v>6.9444444444445308E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="60"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="61"/>
       <c r="B14" s="51" t="s">
         <v>305</v>
       </c>
@@ -14858,8 +14884,8 @@
         <v>5.902777777777779E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="60"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="61"/>
       <c r="B15" s="51" t="s">
         <v>306</v>
       </c>
@@ -14877,8 +14903,8 @@
         <v>1.041666666666663E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="60"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="61"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="52"/>
@@ -14888,8 +14914,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="60" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="61" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51"/>
@@ -14911,8 +14937,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="60"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="61"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="52">
@@ -14933,8 +14959,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="60"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="61"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="52">
@@ -14955,8 +14981,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="60"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="61"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
       <c r="D20" s="52">
@@ -14977,8 +15003,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="60"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="61"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="52">
@@ -14999,8 +15025,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="60"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="61"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="52">
@@ -15021,8 +15047,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="60"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="61"/>
       <c r="B23" s="51" t="s">
         <v>73</v>
       </c>
@@ -15045,8 +15071,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="60"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="61"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52">
@@ -15067,8 +15093,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="60"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="61"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52">
@@ -15083,8 +15109,8 @@
       </c>
       <c r="I25" s="54"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="60"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="61"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -15095,8 +15121,8 @@
       </c>
       <c r="I26" s="54"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="60"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="61"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -15106,8 +15132,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="60"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="61"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -15117,8 +15143,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="60"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="61"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -15128,8 +15154,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="60"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="61"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -15139,8 +15165,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="60"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="61"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -15150,8 +15176,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="60" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="61" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -15177,8 +15203,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="60"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="61"/>
       <c r="B33" s="51" t="s">
         <v>307</v>
       </c>
@@ -15203,8 +15229,8 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="60"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="61"/>
       <c r="B34" s="51" t="s">
         <v>308</v>
       </c>
@@ -15229,8 +15255,8 @@
         <v>3.4722222222222654E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="60"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="61"/>
       <c r="B35" s="51" t="s">
         <v>309</v>
       </c>
@@ -15255,8 +15281,8 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="60"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="61"/>
       <c r="B36" s="51" t="s">
         <v>310</v>
       </c>
@@ -15281,8 +15307,8 @@
         <v>1.041666666666663E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="60"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="61"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -15307,8 +15333,8 @@
         <v>1.3888888888888951E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="60"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="61"/>
       <c r="B38" s="51" t="s">
         <v>312</v>
       </c>
@@ -15333,8 +15359,8 @@
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="60"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="61"/>
       <c r="B39" s="51" t="s">
         <v>313</v>
       </c>
@@ -15359,8 +15385,8 @@
         <v>0.31944444444444453</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="60"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="61"/>
       <c r="B40" s="51" t="s">
         <v>314</v>
       </c>
@@ -15379,8 +15405,8 @@
       </c>
       <c r="I40" s="54"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="60"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="61"/>
       <c r="B41" s="51" t="s">
         <v>312</v>
       </c>
@@ -15399,8 +15425,8 @@
       </c>
       <c r="I41" s="54"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="60"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="61"/>
       <c r="B42" s="51" t="s">
         <v>315</v>
       </c>
@@ -15418,8 +15444,8 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="60"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="61"/>
       <c r="B43" s="51" t="s">
         <v>309</v>
       </c>
@@ -15437,8 +15463,8 @@
         <v>1.041666666666663E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="60"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="61"/>
       <c r="B44" s="51" t="s">
         <v>316</v>
       </c>
@@ -15456,8 +15482,8 @@
         <v>1.041666666666663E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="60"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="61"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -15467,7 +15493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="62"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -15478,7 +15504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="63" t="s">
         <v>21</v>
       </c>
@@ -15497,7 +15523,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="63"/>
       <c r="B48" s="55"/>
       <c r="C48" s="51"/>
@@ -15515,7 +15541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="63"/>
       <c r="B49" s="55"/>
       <c r="C49" s="51"/>
@@ -15533,7 +15559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="63"/>
       <c r="B50" s="55"/>
       <c r="C50" s="51"/>
@@ -15551,7 +15577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="63"/>
       <c r="B51" s="55"/>
       <c r="C51" s="51"/>
@@ -15569,7 +15595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="63"/>
       <c r="B52" s="55"/>
       <c r="C52" s="51"/>
@@ -15587,7 +15613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="63"/>
       <c r="B53" s="55"/>
       <c r="C53" s="51"/>
@@ -15605,7 +15631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="63"/>
       <c r="B54" s="55"/>
       <c r="C54" s="51"/>
@@ -15623,7 +15649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="63"/>
       <c r="B55" s="55"/>
       <c r="C55" s="51"/>
@@ -15635,7 +15661,7 @@
       </c>
       <c r="I55" s="54"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="63"/>
       <c r="B56" s="55"/>
       <c r="C56" s="51"/>
@@ -15647,7 +15673,7 @@
       </c>
       <c r="I56" s="54"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="63"/>
       <c r="B57" s="55"/>
       <c r="C57" s="51"/>
@@ -15658,7 +15684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="63"/>
       <c r="B58" s="55"/>
       <c r="C58" s="51"/>
@@ -15669,7 +15695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="63"/>
       <c r="B59" s="55"/>
       <c r="C59" s="51"/>
@@ -15680,7 +15706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="63"/>
       <c r="B60" s="55"/>
       <c r="C60" s="51"/>
@@ -15691,7 +15717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="63"/>
       <c r="B61" s="55"/>
       <c r="C61" s="51"/>
@@ -15702,8 +15728,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="64" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="60" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -15729,8 +15755,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="60"/>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="61"/>
       <c r="B63" s="51" t="s">
         <v>284</v>
       </c>
@@ -15754,8 +15780,8 @@
         <v>0.12847222222222232</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="60"/>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="61"/>
       <c r="B64" s="51" t="s">
         <v>318</v>
       </c>
@@ -15780,8 +15806,8 @@
         <v>1.0416666666666753E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="60"/>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="61"/>
       <c r="B65" s="51" t="s">
         <v>313</v>
       </c>
@@ -15806,8 +15832,8 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="60"/>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="61"/>
       <c r="B66" s="51" t="s">
         <v>319</v>
       </c>
@@ -15832,8 +15858,8 @@
         <v>1.041666666666663E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="60"/>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="61"/>
       <c r="B67" s="51" t="s">
         <v>302</v>
       </c>
@@ -15858,8 +15884,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="60"/>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="61"/>
       <c r="B68" s="51" t="s">
         <v>304</v>
       </c>
@@ -15884,8 +15910,8 @@
         <v>2.777777777777779E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="60"/>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="61"/>
       <c r="B69" s="51" t="s">
         <v>315</v>
       </c>
@@ -15910,8 +15936,8 @@
         <v>0.23958333333333348</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="60"/>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="61"/>
       <c r="B70" s="51" t="s">
         <v>320</v>
       </c>
@@ -15930,8 +15956,8 @@
       </c>
       <c r="I70" s="54"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="60"/>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="61"/>
       <c r="B71" s="51" t="s">
         <v>306</v>
       </c>
@@ -15950,8 +15976,8 @@
       </c>
       <c r="I71" s="54"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="60"/>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="61"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -15961,8 +15987,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="60"/>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="61"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -15972,8 +15998,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="60"/>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="61"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -15983,8 +16009,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="60"/>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="61"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -15994,8 +16020,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="60"/>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="61"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -16005,8 +16031,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="60" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="61" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -16032,8 +16058,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="60"/>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="61"/>
       <c r="B78" s="51" t="s">
         <v>322</v>
       </c>
@@ -16058,8 +16084,8 @@
         <v>0.19791666666666663</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="60"/>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="61"/>
       <c r="B79" s="51" t="s">
         <v>323</v>
       </c>
@@ -16084,8 +16110,8 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="60"/>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="61"/>
       <c r="B80" s="51" t="s">
         <v>324</v>
       </c>
@@ -16110,8 +16136,8 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="60"/>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="61"/>
       <c r="B81" s="51" t="s">
         <v>325</v>
       </c>
@@ -16136,8 +16162,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="60"/>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="61"/>
       <c r="B82" s="51" t="s">
         <v>326</v>
       </c>
@@ -16162,8 +16188,8 @@
         <v>2.430555555555558E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="60"/>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="61"/>
       <c r="B83" s="51" t="s">
         <v>327</v>
       </c>
@@ -16188,8 +16214,8 @@
         <v>6.9444444444444475E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="60"/>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="61"/>
       <c r="B84" s="51" t="s">
         <v>328</v>
       </c>
@@ -16214,8 +16240,8 @@
         <v>0.38541666666666669</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="60"/>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="61"/>
       <c r="B85" s="51" t="s">
         <v>294</v>
       </c>
@@ -16234,8 +16260,8 @@
       </c>
       <c r="I85" s="54"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="60"/>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="61"/>
       <c r="B86" s="51" t="s">
         <v>329</v>
       </c>
@@ -16254,8 +16280,8 @@
       </c>
       <c r="I86" s="54"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="60"/>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="61"/>
       <c r="B87" s="51" t="s">
         <v>304</v>
       </c>
@@ -16273,8 +16299,8 @@
         <v>2.777777777777779E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="60"/>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="61"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -16284,8 +16310,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="60"/>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="61"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -16295,8 +16321,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="60"/>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="61"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -16306,8 +16332,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="61"/>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="64"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -16317,8 +16343,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="64" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="60" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -16344,8 +16370,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="60"/>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="61"/>
       <c r="B93" s="51" t="s">
         <v>330</v>
       </c>
@@ -16370,8 +16396,8 @@
         <v>0.11805555555555558</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="60"/>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="61"/>
       <c r="B94" s="56" t="s">
         <v>331</v>
       </c>
@@ -16396,8 +16422,8 @@
         <v>1.3888888888888895E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="60"/>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="61"/>
       <c r="B95" s="51" t="s">
         <v>309</v>
       </c>
@@ -16422,8 +16448,8 @@
         <v>0.12500000000000006</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="60"/>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="61"/>
       <c r="B96" s="51" t="s">
         <v>332</v>
       </c>
@@ -16448,8 +16474,8 @@
         <v>1.041666666666663E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="60"/>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="61"/>
       <c r="B97" s="51" t="s">
         <v>311</v>
       </c>
@@ -16474,8 +16500,8 @@
         <v>2.430555555555558E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="60"/>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" s="61"/>
       <c r="B98" s="51" t="s">
         <v>313</v>
       </c>
@@ -16500,8 +16526,8 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="60"/>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="61"/>
       <c r="B99" s="51" t="s">
         <v>333</v>
       </c>
@@ -16526,8 +16552,8 @@
         <v>0.38541666666666674</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="60"/>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="61"/>
       <c r="B100" s="51" t="s">
         <v>334</v>
       </c>
@@ -16546,8 +16572,8 @@
       </c>
       <c r="I100" s="54"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="60"/>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="61"/>
       <c r="B101" s="51" t="s">
         <v>309</v>
       </c>
@@ -16566,8 +16592,8 @@
       </c>
       <c r="I101" s="54"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="60"/>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" s="61"/>
       <c r="B102" s="51" t="s">
         <v>316</v>
       </c>
@@ -16585,31 +16611,31 @@
         <v>1.041666666666663E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="60"/>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" s="61"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
       <c r="E103" s="52"/>
       <c r="F103" s="52"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="60"/>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" s="61"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
       <c r="E104" s="52"/>
       <c r="F104" s="52"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="60"/>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" s="61"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
       <c r="E105" s="52"/>
       <c r="F105" s="52"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="62"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51"/>
@@ -16617,7 +16643,7 @@
       <c r="E106" s="52"/>
       <c r="F106" s="52"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="63" t="s">
         <v>30</v>
       </c>
@@ -16644,7 +16670,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="63"/>
       <c r="B108" s="55" t="s">
         <v>336</v>
@@ -16670,7 +16696,7 @@
         <v>0.1479166666666667</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="63"/>
       <c r="B109" s="55" t="s">
         <v>337</v>
@@ -16696,7 +16722,7 @@
         <v>1.041666666666663E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="63"/>
       <c r="B110" s="55" t="s">
         <v>294</v>
@@ -16722,7 +16748,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="63"/>
       <c r="B111" s="55" t="s">
         <v>338</v>
@@ -16748,7 +16774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="63"/>
       <c r="B112" s="55" t="s">
         <v>339</v>
@@ -16774,7 +16800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="63"/>
       <c r="B113" s="55" t="s">
         <v>340</v>
@@ -16800,7 +16826,7 @@
         <v>3.1250000000000056E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="63"/>
       <c r="B114" s="55" t="s">
         <v>301</v>
@@ -16826,7 +16852,7 @@
         <v>0.28333333333333338</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="63"/>
       <c r="B115" s="55" t="s">
         <v>341</v>
@@ -16846,7 +16872,7 @@
       </c>
       <c r="I115" s="54"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="63"/>
       <c r="B116" s="55" t="s">
         <v>342</v>
@@ -16866,7 +16892,7 @@
       </c>
       <c r="I116" s="54"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="63"/>
       <c r="B117" s="55" t="s">
         <v>343</v>
@@ -16885,7 +16911,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="63"/>
       <c r="B118" s="55"/>
       <c r="C118" s="51"/>
@@ -16896,7 +16922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="63"/>
       <c r="B119" s="55"/>
       <c r="C119" s="51"/>
@@ -16907,7 +16933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="63"/>
       <c r="B120" s="55"/>
       <c r="C120" s="51"/>
@@ -16918,7 +16944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="63"/>
       <c r="B121" s="55"/>
       <c r="C121" s="51"/>
@@ -16929,8 +16955,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" s="64" t="s">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A122" s="60" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -16956,8 +16982,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="60"/>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A123" s="61"/>
       <c r="B123" s="51" t="s">
         <v>322</v>
       </c>
@@ -16982,8 +17008,8 @@
         <v>0.20833333333333337</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="60"/>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A124" s="61"/>
       <c r="B124" s="51" t="s">
         <v>294</v>
       </c>
@@ -17008,8 +17034,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="60"/>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A125" s="61"/>
       <c r="B125" s="51" t="s">
         <v>344</v>
       </c>
@@ -17034,8 +17060,8 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="60"/>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A126" s="61"/>
       <c r="B126" s="51" t="s">
         <v>329</v>
       </c>
@@ -17060,8 +17086,8 @@
         <v>1.041666666666663E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="60"/>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A127" s="61"/>
       <c r="B127" s="56" t="s">
         <v>345</v>
       </c>
@@ -17086,8 +17112,8 @@
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128" s="60"/>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A128" s="61"/>
       <c r="B128" s="51" t="s">
         <v>346</v>
       </c>
@@ -17112,8 +17138,8 @@
         <v>5.2083333333333204E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" s="60"/>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A129" s="61"/>
       <c r="B129" s="56" t="s">
         <v>304</v>
       </c>
@@ -17138,8 +17164,8 @@
         <v>0.35416666666666657</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="60"/>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A130" s="61"/>
       <c r="B130" s="56" t="s">
         <v>304</v>
       </c>
@@ -17158,8 +17184,8 @@
       </c>
       <c r="I130" s="54"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="60"/>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A131" s="61"/>
       <c r="B131" s="51" t="s">
         <v>347</v>
       </c>
@@ -17178,8 +17204,8 @@
       </c>
       <c r="I131" s="54"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" s="60"/>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A132" s="61"/>
       <c r="B132" s="51" t="s">
         <v>348</v>
       </c>
@@ -17197,8 +17223,8 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" s="60"/>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133" s="61"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -17208,8 +17234,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="60"/>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A134" s="61"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -17219,8 +17245,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A135" s="60"/>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A135" s="61"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -17230,7 +17256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="62"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
@@ -17241,7 +17267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="63" t="s">
         <v>276</v>
       </c>
@@ -17268,7 +17294,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="63"/>
       <c r="B138" s="55" t="s">
         <v>350</v>
@@ -17294,7 +17320,7 @@
         <v>0.22916666666666663</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="63"/>
       <c r="B139" s="55" t="s">
         <v>351</v>
@@ -17320,7 +17346,7 @@
         <v>1.041666666666663E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="63"/>
       <c r="B140" s="55" t="s">
         <v>352</v>
@@ -17346,7 +17372,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="63"/>
       <c r="B141" s="55" t="s">
         <v>301</v>
@@ -17372,7 +17398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="63"/>
       <c r="B142" s="55" t="s">
         <v>294</v>
@@ -17398,7 +17424,7 @@
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="63"/>
       <c r="B143" s="55" t="s">
         <v>304</v>
@@ -17424,7 +17450,7 @@
         <v>6.9444444444444475E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="63"/>
       <c r="B144" s="55" t="s">
         <v>334</v>
@@ -17450,7 +17476,7 @@
         <v>0.3923611111111111</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="63"/>
       <c r="B145" s="55" t="s">
         <v>353</v>
@@ -17470,7 +17496,7 @@
       </c>
       <c r="I145" s="54"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="63"/>
       <c r="B146" s="55" t="s">
         <v>354</v>
@@ -17490,7 +17516,7 @@
       </c>
       <c r="I146" s="54"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="63"/>
       <c r="B147" s="55"/>
       <c r="C147" s="51"/>
@@ -17501,7 +17527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="63"/>
       <c r="B148" s="55"/>
       <c r="C148" s="51"/>
@@ -17512,7 +17538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="63"/>
       <c r="B149" s="55"/>
       <c r="C149" s="51"/>
@@ -17523,7 +17549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="63"/>
       <c r="B150" s="55"/>
       <c r="C150" s="51"/>
@@ -17534,7 +17560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="63"/>
       <c r="B151" s="55"/>
       <c r="C151" s="51"/>
@@ -17545,8 +17571,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A152" s="64" t="s">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A152" s="60" t="s">
         <v>355</v>
       </c>
       <c r="B152" s="51" t="s">
@@ -17572,8 +17598,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A153" s="60"/>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A153" s="61"/>
       <c r="B153" s="51" t="s">
         <v>357</v>
       </c>
@@ -17598,8 +17624,8 @@
         <v>0.22916666666666674</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A154" s="60"/>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A154" s="61"/>
       <c r="B154" s="51" t="s">
         <v>341</v>
       </c>
@@ -17624,8 +17650,8 @@
         <v>7.2916666666666685E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A155" s="60"/>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A155" s="61"/>
       <c r="B155" s="51" t="s">
         <v>357</v>
       </c>
@@ -17650,8 +17676,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A156" s="60"/>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A156" s="61"/>
       <c r="B156" s="51" t="s">
         <v>301</v>
       </c>
@@ -17676,8 +17702,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A157" s="60"/>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A157" s="61"/>
       <c r="B157" s="51" t="s">
         <v>294</v>
       </c>
@@ -17702,8 +17728,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A158" s="60"/>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A158" s="61"/>
       <c r="B158" s="51" t="s">
         <v>304</v>
       </c>
@@ -17728,8 +17754,8 @@
         <v>3.8194444444444309E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A159" s="60"/>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A159" s="61"/>
       <c r="B159" s="51" t="s">
         <v>358</v>
       </c>
@@ -17754,8 +17780,8 @@
         <v>0.34027777777777773</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A160" s="60"/>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A160" s="61"/>
       <c r="B160" s="51" t="s">
         <v>359</v>
       </c>
@@ -17774,8 +17800,8 @@
       </c>
       <c r="I160" s="54"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A161" s="60"/>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A161" s="61"/>
       <c r="B161" s="51"/>
       <c r="C161" s="51"/>
       <c r="D161" s="52"/>
@@ -17786,8 +17812,8 @@
       </c>
       <c r="I161" s="54"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A162" s="60"/>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A162" s="61"/>
       <c r="B162" s="51"/>
       <c r="C162" s="51"/>
       <c r="D162" s="52"/>
@@ -17797,8 +17823,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A163" s="60"/>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A163" s="61"/>
       <c r="B163" s="51"/>
       <c r="C163" s="51"/>
       <c r="D163" s="52"/>
@@ -17808,8 +17834,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A164" s="60"/>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A164" s="61"/>
       <c r="B164" s="51"/>
       <c r="C164" s="51"/>
       <c r="D164" s="52"/>
@@ -17819,8 +17845,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A165" s="60"/>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A165" s="61"/>
       <c r="B165" s="51"/>
       <c r="C165" s="51"/>
       <c r="D165" s="52"/>
@@ -17830,8 +17856,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A166" s="60"/>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A166" s="61"/>
       <c r="B166" s="51"/>
       <c r="C166" s="51"/>
       <c r="D166" s="52"/>
@@ -17843,17 +17869,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="51" priority="12" operator="greaterThan">
@@ -17923,21 +17949,21 @@
       <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="54" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="54" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="54" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.08984375" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5546875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="15.54296875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
         <v>278</v>
       </c>
@@ -17958,8 +17984,8 @@
       </c>
       <c r="G1" s="50"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="61" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -17988,8 +18014,8 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="61"/>
       <c r="B3" s="51" t="s">
         <v>360</v>
       </c>
@@ -18017,8 +18043,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="61"/>
       <c r="B4" s="51" t="s">
         <v>361</v>
       </c>
@@ -18046,8 +18072,8 @@
         <v>290</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="61"/>
       <c r="B5" s="51" t="s">
         <v>309</v>
       </c>
@@ -18075,8 +18101,8 @@
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="60"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="61"/>
       <c r="B6" s="51" t="s">
         <v>311</v>
       </c>
@@ -18104,8 +18130,8 @@
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="61"/>
       <c r="B7" t="s">
         <v>362</v>
       </c>
@@ -18133,8 +18159,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="60"/>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="61"/>
       <c r="B8" s="51" t="s">
         <v>363</v>
       </c>
@@ -18159,8 +18185,8 @@
         <v>4.6527777777777779E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="61"/>
       <c r="B9" s="51" t="s">
         <v>364</v>
       </c>
@@ -18185,8 +18211,8 @@
         <v>0.49861111111111123</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="61"/>
       <c r="B10" s="51" t="s">
         <v>329</v>
       </c>
@@ -18205,8 +18231,8 @@
       </c>
       <c r="I10" s="54"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="60"/>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="61"/>
       <c r="B11" s="51" t="s">
         <v>365</v>
       </c>
@@ -18225,8 +18251,8 @@
       </c>
       <c r="I11" s="54"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="60"/>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="61"/>
       <c r="B12" s="51" t="s">
         <v>345</v>
       </c>
@@ -18244,8 +18270,8 @@
         <v>4.8611111111111049E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="60"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="61"/>
       <c r="B13" s="51" t="s">
         <v>309</v>
       </c>
@@ -18263,8 +18289,8 @@
         <v>1.041666666666663E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="60"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="61"/>
       <c r="B14" s="51" t="s">
         <v>366</v>
       </c>
@@ -18282,8 +18308,8 @@
         <v>1.736111111111116E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="60"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="61"/>
       <c r="B15" s="51" t="s">
         <v>367</v>
       </c>
@@ -18301,8 +18327,8 @@
         <v>2.7777777777777901E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="60"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="61"/>
       <c r="B16" s="51" t="s">
         <v>368</v>
       </c>
@@ -18320,8 +18346,8 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="60" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="61" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -18347,8 +18373,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="60"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="61"/>
       <c r="B18" s="51" t="s">
         <v>370</v>
       </c>
@@ -18373,8 +18399,8 @@
         <v>0.26736111111111088</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="60"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="61"/>
       <c r="B19" s="51" t="s">
         <v>342</v>
       </c>
@@ -18399,8 +18425,8 @@
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="60"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="61"/>
       <c r="B20" s="51" t="s">
         <v>371</v>
       </c>
@@ -18425,8 +18451,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="60"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="61"/>
       <c r="B21" s="51" t="s">
         <v>372</v>
       </c>
@@ -18451,8 +18477,8 @@
         <v>7.2916666666666741E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="60"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="61"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -18477,8 +18503,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="60"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="61"/>
       <c r="B23" s="51" t="s">
         <v>373</v>
       </c>
@@ -18503,8 +18529,8 @@
         <v>5.2083333333333315E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="60"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="61"/>
       <c r="B24" s="51" t="s">
         <v>374</v>
       </c>
@@ -18529,8 +18555,8 @@
         <v>0.43402777777777762</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="60"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="61"/>
       <c r="B25" s="51" t="s">
         <v>304</v>
       </c>
@@ -18549,8 +18575,8 @@
       </c>
       <c r="I25" s="54"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="60"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="61"/>
       <c r="B26" s="51" t="s">
         <v>375</v>
       </c>
@@ -18569,8 +18595,8 @@
       </c>
       <c r="I26" s="54"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="60"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="61"/>
       <c r="B27" s="51" t="s">
         <v>376</v>
       </c>
@@ -18588,8 +18614,8 @@
         <v>2.4305555555555691E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="60"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="61"/>
       <c r="B28" s="51" t="s">
         <v>377</v>
       </c>
@@ -18607,8 +18633,8 @@
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="60"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="61"/>
       <c r="B29" s="51" t="s">
         <v>378</v>
       </c>
@@ -18626,8 +18652,8 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="60"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="61"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -18637,8 +18663,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="60"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="61"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -18648,8 +18674,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="60" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="61" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -18675,8 +18701,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="60"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="61"/>
       <c r="B33" s="51" t="s">
         <v>380</v>
       </c>
@@ -18701,8 +18727,8 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="60"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="61"/>
       <c r="B34" s="51" t="s">
         <v>370</v>
       </c>
@@ -18727,8 +18753,8 @@
         <v>4.8611111111111105E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="60"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="61"/>
       <c r="B35" s="51" t="s">
         <v>294</v>
       </c>
@@ -18753,8 +18779,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="60"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="61"/>
       <c r="B36" s="51" t="s">
         <v>381</v>
       </c>
@@ -18779,8 +18805,8 @@
         <v>2.4305555555555691E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="60"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="61"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -18805,8 +18831,8 @@
         <v>4.8611111111111049E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="60"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="61"/>
       <c r="B38" s="51" t="s">
         <v>382</v>
       </c>
@@ -18831,8 +18857,8 @@
         <v>5.2083333333333315E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="60"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="61"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -18857,8 +18883,8 @@
         <v>0.44444444444444448</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="60"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="61"/>
       <c r="B40" s="51" t="s">
         <v>383</v>
       </c>
@@ -18877,8 +18903,8 @@
       </c>
       <c r="I40" s="54"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="60"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="61"/>
       <c r="B41" s="51" t="s">
         <v>374</v>
       </c>
@@ -18897,8 +18923,8 @@
       </c>
       <c r="I41" s="54"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="60"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="61"/>
       <c r="B42" s="51" t="s">
         <v>304</v>
       </c>
@@ -18916,8 +18942,8 @@
         <v>1.041666666666663E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="60"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="61"/>
       <c r="B43" s="51" t="s">
         <v>384</v>
       </c>
@@ -18935,8 +18961,8 @@
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="60"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="61"/>
       <c r="B44" s="51" t="s">
         <v>385</v>
       </c>
@@ -18954,8 +18980,8 @@
         <v>2.4305555555555691E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="60"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="61"/>
       <c r="B45" s="51" t="s">
         <v>386</v>
       </c>
@@ -18973,7 +18999,7 @@
         <v>2.430555555555558E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="62"/>
       <c r="B46" s="51" t="s">
         <v>387</v>
@@ -18992,7 +19018,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="63" t="s">
         <v>21</v>
       </c>
@@ -19011,7 +19037,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="63"/>
       <c r="B48" s="55"/>
       <c r="C48" s="51"/>
@@ -19029,7 +19055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="63"/>
       <c r="B49" s="55"/>
       <c r="C49" s="51"/>
@@ -19047,7 +19073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="63"/>
       <c r="B50" s="55"/>
       <c r="C50" s="51"/>
@@ -19065,7 +19091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="63"/>
       <c r="B51" s="55"/>
       <c r="C51" s="51"/>
@@ -19083,7 +19109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="63"/>
       <c r="B52" s="55"/>
       <c r="C52" s="51"/>
@@ -19101,7 +19127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="63"/>
       <c r="B53" s="55"/>
       <c r="C53" s="51"/>
@@ -19119,7 +19145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="63"/>
       <c r="B54" s="55"/>
       <c r="C54" s="51"/>
@@ -19137,7 +19163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="63"/>
       <c r="B55" s="56" t="s">
         <v>388</v>
@@ -19151,7 +19177,7 @@
       </c>
       <c r="I55" s="54"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="63"/>
       <c r="B56" s="55"/>
       <c r="C56" s="51"/>
@@ -19163,7 +19189,7 @@
       </c>
       <c r="I56" s="54"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="63"/>
       <c r="B57" s="55"/>
       <c r="C57" s="51"/>
@@ -19174,7 +19200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="63"/>
       <c r="B58" s="55"/>
       <c r="C58" s="51"/>
@@ -19185,7 +19211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="63"/>
       <c r="B59" s="55"/>
       <c r="C59" s="51"/>
@@ -19196,7 +19222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="63"/>
       <c r="B60" s="55"/>
       <c r="C60" s="51"/>
@@ -19207,7 +19233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="63"/>
       <c r="B61" s="55"/>
       <c r="C61" s="51"/>
@@ -19218,8 +19244,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="64" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="60" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -19237,8 +19263,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="60"/>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="61"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -19254,8 +19280,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="60"/>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="61"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -19272,8 +19298,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="60"/>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="61"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -19290,8 +19316,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="60"/>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="61"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -19308,8 +19334,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="60"/>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="61"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -19326,8 +19352,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="60"/>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="61"/>
       <c r="B68" s="56" t="s">
         <v>388</v>
       </c>
@@ -19346,8 +19372,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="60"/>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="61"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -19364,8 +19390,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="60"/>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="61"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -19376,8 +19402,8 @@
       </c>
       <c r="I70" s="54"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="60"/>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="61"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -19388,8 +19414,8 @@
       </c>
       <c r="I71" s="54"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="60"/>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="61"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -19399,8 +19425,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="60"/>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="61"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -19410,8 +19436,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="60"/>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="61"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -19421,8 +19447,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="60"/>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="61"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -19432,8 +19458,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="60"/>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="61"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -19443,8 +19469,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="60" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="61" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -19470,8 +19496,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="60"/>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="61"/>
       <c r="B78" s="51" t="s">
         <v>389</v>
       </c>
@@ -19496,8 +19522,8 @@
         <v>0.22569444444444436</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="60"/>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="61"/>
       <c r="B79" s="51" t="s">
         <v>390</v>
       </c>
@@ -19522,8 +19548,8 @@
         <v>4.5138888888888895E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="60"/>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="61"/>
       <c r="B80" s="51" t="s">
         <v>309</v>
       </c>
@@ -19548,8 +19574,8 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="60"/>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="61"/>
       <c r="B81" s="51" t="s">
         <v>391</v>
       </c>
@@ -19574,8 +19600,8 @@
         <v>1.8750000000000155E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="60"/>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="61"/>
       <c r="B82" s="51" t="s">
         <v>392</v>
       </c>
@@ -19600,8 +19626,8 @@
         <v>4.513888888888884E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="60"/>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="61"/>
       <c r="B83" s="51" t="s">
         <v>329</v>
       </c>
@@ -19626,8 +19652,8 @@
         <v>5.5555555555555525E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="60"/>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="61"/>
       <c r="B84" s="51" t="s">
         <v>393</v>
       </c>
@@ -19652,8 +19678,8 @@
         <v>0.42152777777777778</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="60"/>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="61"/>
       <c r="B85" s="51" t="s">
         <v>394</v>
       </c>
@@ -19672,8 +19698,8 @@
       </c>
       <c r="I85" s="54"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="60"/>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="61"/>
       <c r="B86" s="51" t="s">
         <v>309</v>
       </c>
@@ -19692,8 +19718,8 @@
       </c>
       <c r="I86" s="54"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="60"/>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="61"/>
       <c r="B87" s="51" t="s">
         <v>385</v>
       </c>
@@ -19711,8 +19737,8 @@
         <v>1.8750000000000155E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="60"/>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="61"/>
       <c r="B88" s="51" t="s">
         <v>395</v>
       </c>
@@ -19730,8 +19756,8 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="60"/>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="61"/>
       <c r="B89" s="51" t="s">
         <v>396</v>
       </c>
@@ -19749,8 +19775,8 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="60"/>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="61"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -19760,8 +19786,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="61"/>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="64"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -19771,8 +19797,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="64" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="60" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -19798,8 +19824,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="60"/>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="61"/>
       <c r="B93" s="51" t="s">
         <v>398</v>
       </c>
@@ -19824,8 +19850,8 @@
         <v>0.1666666666666668</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="60"/>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="61"/>
       <c r="B94" s="56" t="s">
         <v>399</v>
       </c>
@@ -19850,8 +19876,8 @@
         <v>2.4305555555555525E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="60"/>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="61"/>
       <c r="B95" s="51" t="s">
         <v>400</v>
       </c>
@@ -19876,8 +19902,8 @@
         <v>2.0833333333333315E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="60"/>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="61"/>
       <c r="B96" s="51" t="s">
         <v>342</v>
       </c>
@@ -19902,8 +19928,8 @@
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="60"/>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="61"/>
       <c r="B97" s="51" t="s">
         <v>401</v>
       </c>
@@ -19928,8 +19954,8 @@
         <v>4.8611111111111049E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="60"/>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" s="61"/>
       <c r="B98" s="51" t="s">
         <v>402</v>
       </c>
@@ -19954,8 +19980,8 @@
         <v>4.3750000000000011E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="60"/>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="61"/>
       <c r="B99" s="51" t="s">
         <v>403</v>
       </c>
@@ -19980,8 +20006,8 @@
         <v>0.34583333333333338</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="60"/>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="61"/>
       <c r="B100" s="51" t="s">
         <v>404</v>
       </c>
@@ -20000,8 +20026,8 @@
       </c>
       <c r="I100" s="54"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="60"/>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="61"/>
       <c r="B101" s="51" t="s">
         <v>405</v>
       </c>
@@ -20020,8 +20046,8 @@
       </c>
       <c r="I101" s="54"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="60"/>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" s="61"/>
       <c r="B102" s="51" t="s">
         <v>406</v>
       </c>
@@ -20039,8 +20065,8 @@
         <v>5.902777777777779E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="60"/>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" s="61"/>
       <c r="B103" s="51" t="s">
         <v>407</v>
       </c>
@@ -20058,8 +20084,8 @@
         <v>4.8611111111111049E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="60"/>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" s="61"/>
       <c r="B104" s="51" t="s">
         <v>304</v>
       </c>
@@ -20077,8 +20103,8 @@
         <v>1.041666666666663E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="60"/>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" s="61"/>
       <c r="B105" s="51" t="s">
         <v>408</v>
       </c>
@@ -20096,7 +20122,7 @@
         <v>2.4305555555555691E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="62"/>
       <c r="B106" s="51" t="s">
         <v>409</v>
@@ -20115,7 +20141,7 @@
         <v>1.041666666666663E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="63" t="s">
         <v>30</v>
       </c>
@@ -20134,7 +20160,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="63"/>
       <c r="B108" s="55"/>
       <c r="C108" s="51"/>
@@ -20152,7 +20178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="63"/>
       <c r="B109" s="55"/>
       <c r="C109" s="51"/>
@@ -20170,7 +20196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="63"/>
       <c r="B110" s="55"/>
       <c r="C110" s="51"/>
@@ -20188,7 +20214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="63"/>
       <c r="B111" s="55" t="s">
         <v>388</v>
@@ -20208,7 +20234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="63"/>
       <c r="B112" s="55"/>
       <c r="C112" s="51"/>
@@ -20226,7 +20252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="63"/>
       <c r="B113" s="55"/>
       <c r="C113" s="51"/>
@@ -20244,7 +20270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="63"/>
       <c r="B114" s="55"/>
       <c r="C114" s="51"/>
@@ -20262,7 +20288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="63"/>
       <c r="B115" s="55"/>
       <c r="C115" s="51"/>
@@ -20274,7 +20300,7 @@
       </c>
       <c r="I115" s="54"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="63"/>
       <c r="B116" s="55"/>
       <c r="C116" s="51"/>
@@ -20286,7 +20312,7 @@
       </c>
       <c r="I116" s="54"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="63"/>
       <c r="B117" s="55"/>
       <c r="C117" s="51"/>
@@ -20297,7 +20323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="63"/>
       <c r="B118" s="55"/>
       <c r="C118" s="51"/>
@@ -20308,7 +20334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="63"/>
       <c r="B119" s="55"/>
       <c r="C119" s="51"/>
@@ -20319,7 +20345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="63"/>
       <c r="B120" s="55"/>
       <c r="C120" s="51"/>
@@ -20330,7 +20356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="63"/>
       <c r="B121" s="55"/>
       <c r="C121" s="51"/>
@@ -20341,8 +20367,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" s="64" t="s">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A122" s="60" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -20368,8 +20394,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="60"/>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A123" s="61"/>
       <c r="B123" s="51" t="s">
         <v>411</v>
       </c>
@@ -20394,8 +20420,8 @@
         <v>0.32291666666666674</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="60"/>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A124" s="61"/>
       <c r="B124" s="51" t="s">
         <v>412</v>
       </c>
@@ -20420,8 +20446,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="60"/>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A125" s="61"/>
       <c r="B125" s="51" t="s">
         <v>413</v>
       </c>
@@ -20446,8 +20472,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="60"/>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A126" s="61"/>
       <c r="B126" s="51" t="s">
         <v>414</v>
       </c>
@@ -20472,8 +20498,8 @@
         <v>6.1111111111111227E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="60"/>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A127" s="61"/>
       <c r="B127" s="56" t="s">
         <v>415</v>
       </c>
@@ -20498,8 +20524,8 @@
         <v>4.8611111111111049E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128" s="60"/>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A128" s="61"/>
       <c r="B128" s="51" t="s">
         <v>416</v>
       </c>
@@ -20524,8 +20550,8 @@
         <v>4.9999999999999989E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" s="60"/>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A129" s="61"/>
       <c r="B129" s="56" t="s">
         <v>417</v>
       </c>
@@ -20550,8 +20576,8 @@
         <v>0.48263888888888901</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="60"/>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A130" s="61"/>
       <c r="B130" s="56" t="s">
         <v>418</v>
       </c>
@@ -20570,8 +20596,8 @@
       </c>
       <c r="I130" s="54"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="60"/>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A131" s="61"/>
       <c r="B131" s="51" t="s">
         <v>294</v>
       </c>
@@ -20590,8 +20616,8 @@
       </c>
       <c r="I131" s="54"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" s="60"/>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A132" s="61"/>
       <c r="B132" s="51" t="s">
         <v>329</v>
       </c>
@@ -20609,8 +20635,8 @@
         <v>1.9444444444444375E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" s="60"/>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133" s="61"/>
       <c r="B133" s="51" t="s">
         <v>304</v>
       </c>
@@ -20628,8 +20654,8 @@
         <v>1.736111111111116E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="60"/>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A134" s="61"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -20639,8 +20665,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A135" s="60"/>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A135" s="61"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -20650,7 +20676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="62"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
@@ -20661,7 +20687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="63" t="s">
         <v>276</v>
       </c>
@@ -20688,7 +20714,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="63"/>
       <c r="B138" s="55" t="s">
         <v>420</v>
@@ -20714,7 +20740,7 @@
         <v>0.40624999999999994</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="63"/>
       <c r="B139" s="55" t="s">
         <v>421</v>
@@ -20740,7 +20766,7 @@
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="63"/>
       <c r="B140" s="55" t="s">
         <v>309</v>
@@ -20766,7 +20792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="63"/>
       <c r="B141" s="55" t="s">
         <v>422</v>
@@ -20792,7 +20818,7 @@
         <v>2.4305555555555691E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="63"/>
       <c r="B142" s="55" t="s">
         <v>329</v>
@@ -20818,7 +20844,7 @@
         <v>4.8611111111111049E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="63"/>
       <c r="B143" s="55" t="s">
         <v>423</v>
@@ -20844,7 +20870,7 @@
         <v>4.1666666666666574E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="63"/>
       <c r="B144" s="51" t="s">
         <v>416</v>
@@ -20870,7 +20896,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="63"/>
       <c r="B145" s="56" t="s">
         <v>309</v>
@@ -20890,7 +20916,7 @@
       </c>
       <c r="I145" s="54"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="63"/>
       <c r="B146" s="56" t="s">
         <v>417</v>
@@ -20910,7 +20936,7 @@
       </c>
       <c r="I146" s="54"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="63"/>
       <c r="B147" s="55" t="s">
         <v>424</v>
@@ -20929,7 +20955,7 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="63"/>
       <c r="B148" s="55" t="s">
         <v>425</v>
@@ -20948,7 +20974,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="63"/>
       <c r="B149" s="55"/>
       <c r="C149" s="51"/>
@@ -20959,7 +20985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="63"/>
       <c r="B150" s="55"/>
       <c r="C150" s="51"/>
@@ -20970,7 +20996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="63"/>
       <c r="B151" s="55"/>
       <c r="C151" s="51"/>
@@ -21062,21 +21088,21 @@
       <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="54" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="54" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="54" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.08984375" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5546875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="15.54296875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
         <v>278</v>
       </c>
@@ -21097,8 +21123,8 @@
       </c>
       <c r="G1" s="50"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="61" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -21127,8 +21153,8 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="61"/>
       <c r="B3" s="51" t="s">
         <v>360</v>
       </c>
@@ -21156,8 +21182,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="61"/>
       <c r="B4" s="51" t="s">
         <v>361</v>
       </c>
@@ -21185,8 +21211,8 @@
         <v>290</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="61"/>
       <c r="B5" s="51" t="s">
         <v>309</v>
       </c>
@@ -21214,8 +21240,8 @@
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="60"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="61"/>
       <c r="B6" s="51" t="s">
         <v>311</v>
       </c>
@@ -21243,8 +21269,8 @@
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="61"/>
       <c r="B7" t="s">
         <v>362</v>
       </c>
@@ -21272,8 +21298,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="60"/>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="61"/>
       <c r="B8" s="51" t="s">
         <v>363</v>
       </c>
@@ -21298,8 +21324,8 @@
         <v>4.6527777777777779E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="61"/>
       <c r="B9" s="51" t="s">
         <v>364</v>
       </c>
@@ -21324,8 +21350,8 @@
         <v>0.49861111111111123</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="61"/>
       <c r="B10" s="51" t="s">
         <v>329</v>
       </c>
@@ -21344,8 +21370,8 @@
       </c>
       <c r="I10" s="54"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="60"/>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="61"/>
       <c r="B11" s="51" t="s">
         <v>365</v>
       </c>
@@ -21364,8 +21390,8 @@
       </c>
       <c r="I11" s="54"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="60"/>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="61"/>
       <c r="B12" s="51" t="s">
         <v>345</v>
       </c>
@@ -21383,8 +21409,8 @@
         <v>4.8611111111111049E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="60"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="61"/>
       <c r="B13" s="51" t="s">
         <v>309</v>
       </c>
@@ -21402,8 +21428,8 @@
         <v>1.041666666666663E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="60"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="61"/>
       <c r="B14" s="51" t="s">
         <v>366</v>
       </c>
@@ -21421,8 +21447,8 @@
         <v>1.736111111111116E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="60"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="61"/>
       <c r="B15" s="51" t="s">
         <v>367</v>
       </c>
@@ -21440,8 +21466,8 @@
         <v>2.7777777777777901E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="60"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="61"/>
       <c r="B16" s="51" t="s">
         <v>368</v>
       </c>
@@ -21459,8 +21485,8 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="60" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="61" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -21486,8 +21512,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="60"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="61"/>
       <c r="B18" s="51" t="s">
         <v>370</v>
       </c>
@@ -21512,8 +21538,8 @@
         <v>0.26736111111111088</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="60"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="61"/>
       <c r="B19" s="51" t="s">
         <v>342</v>
       </c>
@@ -21538,8 +21564,8 @@
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="60"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="61"/>
       <c r="B20" s="51" t="s">
         <v>371</v>
       </c>
@@ -21564,8 +21590,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="60"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="61"/>
       <c r="B21" s="51" t="s">
         <v>372</v>
       </c>
@@ -21590,8 +21616,8 @@
         <v>7.2916666666666741E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="60"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="61"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -21616,8 +21642,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="60"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="61"/>
       <c r="B23" s="51" t="s">
         <v>373</v>
       </c>
@@ -21642,8 +21668,8 @@
         <v>5.2083333333333315E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="60"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="61"/>
       <c r="B24" s="51" t="s">
         <v>374</v>
       </c>
@@ -21668,8 +21694,8 @@
         <v>0.43402777777777762</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="60"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="61"/>
       <c r="B25" s="51" t="s">
         <v>304</v>
       </c>
@@ -21688,8 +21714,8 @@
       </c>
       <c r="I25" s="54"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="60"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="61"/>
       <c r="B26" s="51" t="s">
         <v>375</v>
       </c>
@@ -21708,8 +21734,8 @@
       </c>
       <c r="I26" s="54"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="60"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="61"/>
       <c r="B27" s="51" t="s">
         <v>376</v>
       </c>
@@ -21727,8 +21753,8 @@
         <v>2.4305555555555691E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="60"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="61"/>
       <c r="B28" s="51" t="s">
         <v>377</v>
       </c>
@@ -21746,8 +21772,8 @@
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="60"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="61"/>
       <c r="B29" s="51" t="s">
         <v>378</v>
       </c>
@@ -21765,8 +21791,8 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="60"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="61"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -21776,8 +21802,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="60"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="61"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -21787,8 +21813,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="60" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="61" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -21814,8 +21840,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="60"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="61"/>
       <c r="B33" s="51" t="s">
         <v>380</v>
       </c>
@@ -21840,8 +21866,8 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="60"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="61"/>
       <c r="B34" s="51" t="s">
         <v>370</v>
       </c>
@@ -21855,7 +21881,7 @@
         <v>0.4375</v>
       </c>
       <c r="F34" s="52">
-        <f t="shared" ref="F34:F65" si="1">E34-D34</f>
+        <f t="shared" ref="F34:F62" si="1">E34-D34</f>
         <v>4.1666666666666685E-2</v>
       </c>
       <c r="H34" s="53" t="s">
@@ -21866,8 +21892,8 @@
         <v>4.8611111111111105E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="60"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="61"/>
       <c r="B35" s="51" t="s">
         <v>294</v>
       </c>
@@ -21892,8 +21918,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="60"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="61"/>
       <c r="B36" s="51" t="s">
         <v>381</v>
       </c>
@@ -21918,8 +21944,8 @@
         <v>2.4305555555555691E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="60"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="61"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -21944,8 +21970,8 @@
         <v>4.8611111111111049E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="60"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="61"/>
       <c r="B38" s="51" t="s">
         <v>382</v>
       </c>
@@ -21970,8 +21996,8 @@
         <v>5.2083333333333315E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="60"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="61"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -21996,8 +22022,8 @@
         <v>0.44444444444444448</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="60"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="61"/>
       <c r="B40" s="51" t="s">
         <v>383</v>
       </c>
@@ -22016,8 +22042,8 @@
       </c>
       <c r="I40" s="54"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="60"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="61"/>
       <c r="B41" s="51" t="s">
         <v>374</v>
       </c>
@@ -22036,8 +22062,8 @@
       </c>
       <c r="I41" s="54"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="60"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="61"/>
       <c r="B42" s="51" t="s">
         <v>304</v>
       </c>
@@ -22055,8 +22081,8 @@
         <v>1.041666666666663E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="60"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="61"/>
       <c r="B43" s="51" t="s">
         <v>384</v>
       </c>
@@ -22074,8 +22100,8 @@
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="60"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="61"/>
       <c r="B44" s="51" t="s">
         <v>385</v>
       </c>
@@ -22093,8 +22119,8 @@
         <v>2.4305555555555691E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="60"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="61"/>
       <c r="B45" s="51" t="s">
         <v>386</v>
       </c>
@@ -22112,7 +22138,7 @@
         <v>2.430555555555558E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="62"/>
       <c r="B46" s="51" t="s">
         <v>387</v>
@@ -22131,7 +22157,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="63" t="s">
         <v>21</v>
       </c>
@@ -22150,7 +22176,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="63"/>
       <c r="B48" s="55"/>
       <c r="C48" s="51"/>
@@ -22168,7 +22194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="63"/>
       <c r="B49" s="55"/>
       <c r="C49" s="51"/>
@@ -22186,7 +22212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="63"/>
       <c r="B50" s="55"/>
       <c r="C50" s="51"/>
@@ -22204,7 +22230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="63"/>
       <c r="B51" s="55"/>
       <c r="C51" s="51"/>
@@ -22222,7 +22248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="63"/>
       <c r="B52" s="55"/>
       <c r="C52" s="51"/>
@@ -22240,7 +22266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="63"/>
       <c r="B53" s="55"/>
       <c r="C53" s="51"/>
@@ -22258,7 +22284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="63"/>
       <c r="B54" s="55"/>
       <c r="C54" s="51"/>
@@ -22276,7 +22302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="63"/>
       <c r="B55" s="56" t="s">
         <v>388</v>
@@ -22290,7 +22316,7 @@
       </c>
       <c r="I55" s="54"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="63"/>
       <c r="B56" s="55"/>
       <c r="C56" s="51"/>
@@ -22302,7 +22328,7 @@
       </c>
       <c r="I56" s="54"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="63"/>
       <c r="B57" s="55"/>
       <c r="C57" s="51"/>
@@ -22313,7 +22339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="63"/>
       <c r="B58" s="55"/>
       <c r="C58" s="51"/>
@@ -22324,7 +22350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="63"/>
       <c r="B59" s="55"/>
       <c r="C59" s="51"/>
@@ -22335,7 +22361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="63"/>
       <c r="B60" s="55"/>
       <c r="C60" s="51"/>
@@ -22346,7 +22372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="63"/>
       <c r="B61" s="55"/>
       <c r="C61" s="51"/>
@@ -22357,8 +22383,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="64" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="60" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -22376,8 +22402,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="60"/>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="61"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -22393,8 +22419,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="60"/>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="61"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -22411,8 +22437,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="60"/>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="61"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -22429,8 +22455,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="60"/>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="61"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -22447,8 +22473,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="60"/>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="61"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -22465,8 +22491,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="60"/>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="61"/>
       <c r="B68" s="56" t="s">
         <v>426</v>
       </c>
@@ -22485,8 +22511,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="60"/>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="61"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -22503,8 +22529,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="60"/>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="61"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -22515,8 +22541,8 @@
       </c>
       <c r="I70" s="54"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="60"/>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="61"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -22527,8 +22553,8 @@
       </c>
       <c r="I71" s="54"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="60"/>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="61"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -22538,8 +22564,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="60"/>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="61"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -22549,8 +22575,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="60"/>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="61"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -22560,8 +22586,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="60"/>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="61"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -22571,8 +22597,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="60"/>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="61"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -22582,8 +22608,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="60" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="61" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -22609,8 +22635,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="60"/>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="61"/>
       <c r="B78" s="51" t="s">
         <v>444</v>
       </c>
@@ -22635,8 +22661,8 @@
         <v>0.22569444444444436</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="60"/>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="61"/>
       <c r="B79" s="51" t="s">
         <v>445</v>
       </c>
@@ -22661,8 +22687,8 @@
         <v>4.513888888888884E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="60"/>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="61"/>
       <c r="B80" s="51" t="s">
         <v>309</v>
       </c>
@@ -22687,8 +22713,8 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="60"/>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="61"/>
       <c r="B81" s="51" t="s">
         <v>446</v>
       </c>
@@ -22713,8 +22739,8 @@
         <v>1.8750000000000155E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="60"/>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="61"/>
       <c r="B82" s="51" t="s">
         <v>392</v>
       </c>
@@ -22739,8 +22765,8 @@
         <v>4.513888888888884E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="60"/>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="61"/>
       <c r="B83" s="51" t="s">
         <v>329</v>
       </c>
@@ -22765,8 +22791,8 @@
         <v>5.555555555555558E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="60"/>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="61"/>
       <c r="B84" s="51" t="s">
         <v>393</v>
       </c>
@@ -22791,8 +22817,8 @@
         <v>0.42152777777777778</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="60"/>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="61"/>
       <c r="B85" s="51" t="s">
         <v>394</v>
       </c>
@@ -22811,8 +22837,8 @@
       </c>
       <c r="I85" s="54"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="60"/>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="61"/>
       <c r="B86" s="51" t="s">
         <v>309</v>
       </c>
@@ -22831,8 +22857,8 @@
       </c>
       <c r="I86" s="54"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="60"/>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="61"/>
       <c r="B87" s="51" t="s">
         <v>385</v>
       </c>
@@ -22850,8 +22876,8 @@
         <v>1.8750000000000155E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="60"/>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="61"/>
       <c r="B88" s="51" t="s">
         <v>395</v>
       </c>
@@ -22869,8 +22895,8 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="60"/>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="61"/>
       <c r="B89" s="51" t="s">
         <v>396</v>
       </c>
@@ -22888,8 +22914,8 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="60"/>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="61"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -22899,8 +22925,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="61"/>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="64"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -22910,8 +22936,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="64" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="60" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -22937,8 +22963,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="60"/>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="61"/>
       <c r="B93" s="51" t="s">
         <v>398</v>
       </c>
@@ -22963,8 +22989,8 @@
         <v>0.1666666666666668</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="60"/>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="61"/>
       <c r="B94" s="56" t="s">
         <v>399</v>
       </c>
@@ -22989,8 +23015,8 @@
         <v>2.4305555555555525E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="60"/>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="61"/>
       <c r="B95" s="51" t="s">
         <v>400</v>
       </c>
@@ -23015,8 +23041,8 @@
         <v>2.0833333333333315E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="60"/>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="61"/>
       <c r="B96" s="51" t="s">
         <v>342</v>
       </c>
@@ -23041,8 +23067,8 @@
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="60"/>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="61"/>
       <c r="B97" s="51" t="s">
         <v>401</v>
       </c>
@@ -23067,8 +23093,8 @@
         <v>4.8611111111111049E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="60"/>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" s="61"/>
       <c r="B98" s="51" t="s">
         <v>402</v>
       </c>
@@ -23093,8 +23119,8 @@
         <v>4.3750000000000011E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="60"/>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="61"/>
       <c r="B99" s="51" t="s">
         <v>403</v>
       </c>
@@ -23119,8 +23145,8 @@
         <v>0.34583333333333338</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="60"/>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="61"/>
       <c r="B100" s="51" t="s">
         <v>404</v>
       </c>
@@ -23139,8 +23165,8 @@
       </c>
       <c r="I100" s="54"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="60"/>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="61"/>
       <c r="B101" s="51" t="s">
         <v>405</v>
       </c>
@@ -23159,8 +23185,8 @@
       </c>
       <c r="I101" s="54"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="60"/>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" s="61"/>
       <c r="B102" s="51" t="s">
         <v>406</v>
       </c>
@@ -23178,8 +23204,8 @@
         <v>5.902777777777779E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="60"/>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" s="61"/>
       <c r="B103" s="51" t="s">
         <v>407</v>
       </c>
@@ -23197,8 +23223,8 @@
         <v>4.8611111111111049E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="60"/>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" s="61"/>
       <c r="B104" s="51" t="s">
         <v>304</v>
       </c>
@@ -23216,8 +23242,8 @@
         <v>1.041666666666663E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="60"/>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" s="61"/>
       <c r="B105" s="51" t="s">
         <v>408</v>
       </c>
@@ -23235,7 +23261,7 @@
         <v>2.4305555555555691E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="62"/>
       <c r="B106" s="51" t="s">
         <v>409</v>
@@ -23254,7 +23280,7 @@
         <v>1.041666666666663E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="63" t="s">
         <v>30</v>
       </c>
@@ -23273,7 +23299,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="63"/>
       <c r="B108" s="55"/>
       <c r="C108" s="51"/>
@@ -23291,7 +23317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="63"/>
       <c r="B109" s="55"/>
       <c r="C109" s="51"/>
@@ -23309,7 +23335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="63"/>
       <c r="B110" s="55"/>
       <c r="C110" s="51"/>
@@ -23327,7 +23353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="63"/>
       <c r="B111" s="55" t="s">
         <v>427</v>
@@ -23347,7 +23373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="63"/>
       <c r="B112" s="55"/>
       <c r="C112" s="51"/>
@@ -23365,7 +23391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="63"/>
       <c r="B113" s="55"/>
       <c r="C113" s="51"/>
@@ -23383,7 +23409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="63"/>
       <c r="B114" s="55"/>
       <c r="C114" s="51"/>
@@ -23401,7 +23427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="63"/>
       <c r="B115" s="55"/>
       <c r="C115" s="51"/>
@@ -23413,7 +23439,7 @@
       </c>
       <c r="I115" s="54"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="63"/>
       <c r="B116" s="55"/>
       <c r="C116" s="51"/>
@@ -23425,7 +23451,7 @@
       </c>
       <c r="I116" s="54"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="63"/>
       <c r="B117" s="55"/>
       <c r="C117" s="51"/>
@@ -23436,7 +23462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="63"/>
       <c r="B118" s="55"/>
       <c r="C118" s="51"/>
@@ -23447,7 +23473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="63"/>
       <c r="B119" s="55"/>
       <c r="C119" s="51"/>
@@ -23458,7 +23484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="63"/>
       <c r="B120" s="55"/>
       <c r="C120" s="51"/>
@@ -23469,7 +23495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="63"/>
       <c r="B121" s="55"/>
       <c r="C121" s="51"/>
@@ -23480,8 +23506,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" s="64" t="s">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A122" s="60" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51"/>
@@ -23505,8 +23531,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="60"/>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A123" s="61"/>
       <c r="B123" s="51"/>
       <c r="C123" s="51" t="s">
         <v>295</v>
@@ -23529,8 +23555,8 @@
         <v>0.34375000000000006</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="60"/>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A124" s="61"/>
       <c r="B124" s="51"/>
       <c r="C124" s="51" t="s">
         <v>288</v>
@@ -23553,8 +23579,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="60"/>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A125" s="61"/>
       <c r="B125" s="51"/>
       <c r="C125" s="51" t="s">
         <v>295</v>
@@ -23577,8 +23603,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="60"/>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A126" s="61"/>
       <c r="B126" s="58"/>
       <c r="C126" s="51" t="s">
         <v>288</v>
@@ -23601,7 +23627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="65"/>
       <c r="B127" s="57"/>
       <c r="C127" s="55" t="s">
@@ -23625,7 +23651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="65"/>
       <c r="B128" s="57"/>
       <c r="C128" s="55" t="s">
@@ -23638,7 +23664,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="F128" s="52">
-        <f t="shared" ref="F128:F159" si="4">E128-D128</f>
+        <f t="shared" ref="F128" si="4">E128-D128</f>
         <v>5.208333333333337E-2</v>
       </c>
       <c r="H128" s="53" t="s">
@@ -23649,7 +23675,7 @@
         <v>0.11458333333333331</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="65"/>
       <c r="B129" s="57"/>
       <c r="C129" s="55"/>
@@ -23664,7 +23690,7 @@
         <v>0.45833333333333337</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="65"/>
       <c r="B130" s="57"/>
       <c r="C130" s="55"/>
@@ -23673,8 +23699,8 @@
       <c r="F130" s="52"/>
       <c r="I130" s="54"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="60"/>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A131" s="61"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -23682,39 +23708,39 @@
       <c r="F131" s="52"/>
       <c r="I131" s="54"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" s="60"/>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A132" s="61"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
       <c r="E132" s="52"/>
       <c r="F132" s="52"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" s="60"/>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133" s="61"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
       <c r="E133" s="52"/>
       <c r="F133" s="52"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="60"/>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A134" s="61"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
       <c r="E134" s="52"/>
       <c r="F134" s="52"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A135" s="60"/>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A135" s="61"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
       <c r="E135" s="52"/>
       <c r="F135" s="52"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="62"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
@@ -23722,7 +23748,7 @@
       <c r="E136" s="52"/>
       <c r="F136" s="52"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="63" t="s">
         <v>276</v>
       </c>
@@ -23749,7 +23775,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="63"/>
       <c r="B138" s="55" t="s">
         <v>420</v>
@@ -23775,7 +23801,7 @@
         <v>0.40624999999999994</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="63"/>
       <c r="B139" s="55" t="s">
         <v>421</v>
@@ -23801,7 +23827,7 @@
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="63"/>
       <c r="B140" s="55" t="s">
         <v>309</v>
@@ -23827,7 +23853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="63"/>
       <c r="B141" s="55" t="s">
         <v>422</v>
@@ -23853,7 +23879,7 @@
         <v>2.4305555555555691E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="63"/>
       <c r="B142" s="55" t="s">
         <v>329</v>
@@ -23879,7 +23905,7 @@
         <v>4.8611111111111049E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="63"/>
       <c r="B143" s="55" t="s">
         <v>423</v>
@@ -23905,7 +23931,7 @@
         <v>4.1666666666666574E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="63"/>
       <c r="B144" s="51" t="s">
         <v>416</v>
@@ -23931,7 +23957,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="63"/>
       <c r="B145" s="56" t="s">
         <v>309</v>
@@ -23951,7 +23977,7 @@
       </c>
       <c r="I145" s="54"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="63"/>
       <c r="B146" s="56" t="s">
         <v>417</v>
@@ -23971,7 +23997,7 @@
       </c>
       <c r="I146" s="54"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="63"/>
       <c r="B147" s="55" t="s">
         <v>424</v>
@@ -23990,7 +24016,7 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="63"/>
       <c r="B148" s="55" t="s">
         <v>425</v>
@@ -24009,7 +24035,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="63"/>
       <c r="B149" s="55"/>
       <c r="C149" s="51"/>
@@ -24020,7 +24046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="63"/>
       <c r="B150" s="55"/>
       <c r="C150" s="51"/>
@@ -24031,7 +24057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="63"/>
       <c r="B151" s="55"/>
       <c r="C151" s="51"/>
@@ -24123,17 +24149,17 @@
       <selection activeCell="A2" sqref="A2:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="34.5546875" customWidth="1"/>
-    <col min="3" max="3" width="105.33203125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="81.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="31.44140625" customWidth="1"/>
-    <col min="7" max="8" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.54296875" customWidth="1"/>
+    <col min="3" max="3" width="105.36328125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="81.54296875" customWidth="1"/>
+    <col min="5" max="5" width="29.36328125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="31.453125" customWidth="1"/>
+    <col min="7" max="8" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -24150,7 +24176,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -24167,7 +24193,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="21" x14ac:dyDescent="0.45">
       <c r="B5" s="6"/>
       <c r="C5" s="33"/>
       <c r="D5" s="7"/>
@@ -24176,7 +24202,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="21" x14ac:dyDescent="0.45">
       <c r="B6" s="4"/>
       <c r="C6" s="34"/>
       <c r="D6" s="9"/>
@@ -24185,7 +24211,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="20.5" x14ac:dyDescent="0.45">
       <c r="B7" s="11"/>
       <c r="C7" s="36"/>
       <c r="D7" s="11"/>
@@ -24194,7 +24220,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="40.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="40.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="18" t="s">
         <v>4</v>
@@ -24221,7 +24247,7 @@
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:11" ht="133.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="133.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
@@ -24242,7 +24268,7 @@
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
         <v>17</v>
       </c>
@@ -24263,7 +24289,7 @@
       </c>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="114.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
         <v>20</v>
       </c>
@@ -24284,7 +24310,7 @@
       </c>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="148.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="148.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
         <v>21</v>
       </c>
@@ -24305,7 +24331,7 @@
       </c>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:11" ht="148.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="148.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
         <v>24</v>
       </c>
@@ -24326,7 +24352,7 @@
       </c>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:11" ht="148.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="148.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="19" t="s">
         <v>27</v>
       </c>
@@ -24337,7 +24363,7 @@
       <c r="G14" s="35"/>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:11" ht="148.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="148.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="19" t="s">
         <v>30</v>
       </c>
@@ -24350,7 +24376,7 @@
       <c r="G15" s="35"/>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" spans="1:11" ht="197.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="197.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B16" s="19" t="s">
         <v>31</v>
       </c>
@@ -24371,7 +24397,7 @@
       </c>
       <c r="H16" s="26"/>
     </row>
-    <row r="17" spans="2:8" ht="183.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="183.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="19" t="s">
         <v>34</v>
       </c>
@@ -24392,7 +24418,7 @@
       </c>
       <c r="H17" s="27"/>
     </row>
-    <row r="18" spans="2:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B18" s="21" t="s">
         <v>54</v>
       </c>
@@ -24413,9 +24439,9 @@
       </c>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" spans="2:8" ht="188.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:8" ht="153.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:8" ht="120.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:8" ht="188.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:8" ht="153.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="2:8" ht="120.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
@@ -24429,25 +24455,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33E6869-2FFE-469C-BC51-1F33B1FD25A5}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="54" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="54" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="54" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.08984375" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5546875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="15.54296875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
         <v>278</v>
       </c>
@@ -24468,8 +24494,8 @@
       </c>
       <c r="G1" s="50"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="61" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -24498,8 +24524,8 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="61"/>
       <c r="B3" s="51" t="s">
         <v>360</v>
       </c>
@@ -24527,8 +24553,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="61"/>
       <c r="B4" s="51" t="s">
         <v>361</v>
       </c>
@@ -24556,8 +24582,8 @@
         <v>290</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="61"/>
       <c r="B5" s="51" t="s">
         <v>309</v>
       </c>
@@ -24585,8 +24611,8 @@
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="60"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="61"/>
       <c r="B6" s="51" t="s">
         <v>311</v>
       </c>
@@ -24614,8 +24640,8 @@
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="61"/>
       <c r="B7" t="s">
         <v>362</v>
       </c>
@@ -24643,8 +24669,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="60"/>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="61"/>
       <c r="B8" s="51" t="s">
         <v>363</v>
       </c>
@@ -24669,8 +24695,8 @@
         <v>4.6527777777777779E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="61"/>
       <c r="B9" s="51" t="s">
         <v>364</v>
       </c>
@@ -24695,8 +24721,8 @@
         <v>0.49861111111111123</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="61"/>
       <c r="B10" s="51" t="s">
         <v>329</v>
       </c>
@@ -24715,8 +24741,8 @@
       </c>
       <c r="I10" s="54"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="60"/>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="61"/>
       <c r="B11" s="51" t="s">
         <v>365</v>
       </c>
@@ -24735,8 +24761,8 @@
       </c>
       <c r="I11" s="54"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="60"/>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="61"/>
       <c r="B12" s="51" t="s">
         <v>345</v>
       </c>
@@ -24754,8 +24780,8 @@
         <v>4.8611111111111049E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="60"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="61"/>
       <c r="B13" s="51" t="s">
         <v>309</v>
       </c>
@@ -24773,8 +24799,8 @@
         <v>1.041666666666663E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="60"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="61"/>
       <c r="B14" s="51" t="s">
         <v>366</v>
       </c>
@@ -24792,8 +24818,8 @@
         <v>1.736111111111116E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="60"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="61"/>
       <c r="B15" s="51" t="s">
         <v>367</v>
       </c>
@@ -24811,8 +24837,8 @@
         <v>2.7777777777777901E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="60"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="61"/>
       <c r="B16" s="51" t="s">
         <v>368</v>
       </c>
@@ -24830,8 +24856,8 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="60" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="61" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -24857,8 +24883,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="60"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="61"/>
       <c r="B18" s="51" t="s">
         <v>429</v>
       </c>
@@ -24883,8 +24909,8 @@
         <v>0.17708333333333348</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="60"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="61"/>
       <c r="B19" s="51" t="s">
         <v>329</v>
       </c>
@@ -24909,8 +24935,8 @@
         <v>0.20833333333333331</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="60"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="61"/>
       <c r="B20" s="51" t="s">
         <v>430</v>
       </c>
@@ -24935,8 +24961,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="60"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="61"/>
       <c r="B21" s="51" t="s">
         <v>309</v>
       </c>
@@ -24961,8 +24987,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="60"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="61"/>
       <c r="B22" s="51" t="s">
         <v>431</v>
       </c>
@@ -24987,8 +25013,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="60"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="61"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
@@ -25002,8 +25028,8 @@
         <v>6.2499999999999889E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="60"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="61"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
@@ -25017,8 +25043,8 @@
         <v>0.44791666666666669</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="60"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="61"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -25026,8 +25052,8 @@
       <c r="F25" s="52"/>
       <c r="I25" s="54"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="60"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="61"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -25038,8 +25064,8 @@
       </c>
       <c r="I26" s="54"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="60"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="61"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -25049,8 +25075,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="60"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="61"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -25060,8 +25086,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="60"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="61"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -25071,8 +25097,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="60"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="61"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -25082,8 +25108,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="60"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="61"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -25093,8 +25119,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="60" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="61" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -25114,8 +25140,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="60"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="61"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -25132,8 +25158,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="60"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="61"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -25150,8 +25176,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="60"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="61"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="52"/>
@@ -25168,8 +25194,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="60"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="61"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -25186,8 +25212,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="60"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="61"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
       <c r="D37" s="52"/>
@@ -25204,8 +25230,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="60"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="61"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -25222,8 +25248,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="60"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="61"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -25240,8 +25266,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="60"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="61"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -25252,8 +25278,8 @@
       </c>
       <c r="I40" s="54"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="60"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="61"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -25264,8 +25290,8 @@
       </c>
       <c r="I41" s="54"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="60"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="61"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -25275,8 +25301,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="60"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="61"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -25286,8 +25312,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="60"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="61"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -25297,8 +25323,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="60"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="61"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -25308,7 +25334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="62"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -25319,17 +25345,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="55"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
+      <c r="B47" s="55" t="s">
+        <v>448</v>
+      </c>
+      <c r="C47" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="D47" s="52">
+        <v>0.375</v>
+      </c>
+      <c r="E47" s="52">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="F47" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="H47" s="49" t="s">
         <v>286</v>
@@ -25338,15 +25371,22 @@
         <v>287</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="63"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
+      <c r="B48" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="C48" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="D48" s="52">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E48" s="52">
+        <v>0.44791666666666669</v>
+      </c>
       <c r="F48" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H48" s="53" t="s">
         <v>288</v>
@@ -25356,15 +25396,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="63"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
+      <c r="B49" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="C49" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D49" s="52">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E49" s="52">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="F49" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="H49" s="53" t="s">
         <v>285</v>
@@ -25374,33 +25421,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="63"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
+      <c r="B50" s="55" t="s">
+        <v>450</v>
+      </c>
+      <c r="C50" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="D50" s="52">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E50" s="52">
+        <v>0.5</v>
+      </c>
       <c r="F50" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="H50" s="53" t="s">
         <v>290</v>
       </c>
-      <c r="I50" s="52">
-        <f>SUMIFS(F47:F61, C47:C61,H50)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I50" s="52" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="63"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
+      <c r="B51" s="55" t="s">
+        <v>451</v>
+      </c>
+      <c r="C51" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="D51" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="E51" s="52">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="F51" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="H51" s="53" t="s">
         <v>293</v>
@@ -25410,15 +25470,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="63"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
+      <c r="B52" s="55" t="s">
+        <v>329</v>
+      </c>
+      <c r="C52" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D52" s="52">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E52" s="52">
+        <v>0.5625</v>
+      </c>
       <c r="F52" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="H52" s="53" t="s">
         <v>296</v>
@@ -25428,25 +25495,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="63"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
+      <c r="B53" s="55" t="s">
+        <v>452</v>
+      </c>
+      <c r="C53" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="D53" s="52">
+        <v>0.5625</v>
+      </c>
+      <c r="E53" s="52">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="F53" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="H53" s="53" t="s">
         <v>295</v>
       </c>
-      <c r="I53" s="52">
-        <f>SUMIFS(F47:F61, C47:C61,H53)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I53" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="63"/>
       <c r="B54" s="55"/>
       <c r="C54" s="51"/>
@@ -25459,16 +25532,13 @@
       <c r="H54" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="I54" s="49">
-        <f>SUM(I48:I53)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I54" s="49" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="63"/>
-      <c r="B55" s="56" t="s">
-        <v>388</v>
-      </c>
+      <c r="B55" s="56"/>
       <c r="C55" s="51"/>
       <c r="D55" s="52"/>
       <c r="E55" s="52"/>
@@ -25478,7 +25548,7 @@
       </c>
       <c r="I55" s="54"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="63"/>
       <c r="B56" s="55"/>
       <c r="C56" s="51"/>
@@ -25490,7 +25560,7 @@
       </c>
       <c r="I56" s="54"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="63"/>
       <c r="B57" s="55"/>
       <c r="C57" s="51"/>
@@ -25501,7 +25571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="63"/>
       <c r="B58" s="55"/>
       <c r="C58" s="51"/>
@@ -25512,7 +25582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="63"/>
       <c r="B59" s="55"/>
       <c r="C59" s="51"/>
@@ -25523,7 +25593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="63"/>
       <c r="B60" s="55"/>
       <c r="C60" s="51"/>
@@ -25534,7 +25604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="63"/>
       <c r="B61" s="55"/>
       <c r="C61" s="51"/>
@@ -25545,8 +25615,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="64" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="60" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -25564,8 +25634,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="60"/>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="61"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -25581,8 +25651,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="60"/>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="61"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -25599,8 +25669,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="60"/>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="61"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -25617,8 +25687,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="60"/>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="61"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -25635,8 +25705,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="60"/>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="61"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -25653,8 +25723,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="60"/>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="61"/>
       <c r="B68" s="56" t="s">
         <v>432</v>
       </c>
@@ -25673,8 +25743,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="60"/>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="61"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -25691,8 +25761,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="60"/>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="61"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -25703,8 +25773,8 @@
       </c>
       <c r="I70" s="54"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="60"/>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="61"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -25715,8 +25785,8 @@
       </c>
       <c r="I71" s="54"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="60"/>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="61"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -25726,8 +25796,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="60"/>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="61"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -25737,8 +25807,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="60"/>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="61"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -25748,8 +25818,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="60"/>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="61"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -25759,8 +25829,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="60"/>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="61"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -25770,8 +25840,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="60" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="61" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -25791,8 +25861,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="60"/>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="61"/>
       <c r="B78" s="51"/>
       <c r="C78" s="51"/>
       <c r="D78" s="52"/>
@@ -25809,8 +25879,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="60"/>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="61"/>
       <c r="B79" s="51"/>
       <c r="C79" s="51"/>
       <c r="D79" s="52"/>
@@ -25827,8 +25897,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="60"/>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="61"/>
       <c r="B80" s="51"/>
       <c r="C80" s="51"/>
       <c r="D80" s="52"/>
@@ -25845,8 +25915,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="60"/>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="61"/>
       <c r="B81" s="51"/>
       <c r="C81" s="51"/>
       <c r="D81" s="52"/>
@@ -25863,8 +25933,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="60"/>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="61"/>
       <c r="B82" s="51"/>
       <c r="C82" s="51"/>
       <c r="D82" s="52"/>
@@ -25881,8 +25951,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="60"/>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="61"/>
       <c r="B83" s="51"/>
       <c r="C83" s="51"/>
       <c r="D83" s="52"/>
@@ -25899,8 +25969,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="60"/>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="61"/>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
@@ -25917,8 +25987,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="60"/>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="61"/>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
       <c r="D85" s="52"/>
@@ -25929,8 +25999,8 @@
       </c>
       <c r="I85" s="54"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="60"/>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="61"/>
       <c r="B86" s="51"/>
       <c r="C86" s="51"/>
       <c r="D86" s="52"/>
@@ -25941,8 +26011,8 @@
       </c>
       <c r="I86" s="54"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="60"/>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="61"/>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
       <c r="D87" s="52"/>
@@ -25952,8 +26022,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="60"/>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="61"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -25963,8 +26033,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="60"/>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="61"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -25974,8 +26044,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="60"/>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="61"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -25985,8 +26055,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="61"/>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="64"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -25996,8 +26066,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="64" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="60" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -26023,8 +26093,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="60"/>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="61"/>
       <c r="B93" s="51" t="s">
         <v>398</v>
       </c>
@@ -26049,8 +26119,8 @@
         <v>0.1666666666666668</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="60"/>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="61"/>
       <c r="B94" s="56" t="s">
         <v>399</v>
       </c>
@@ -26075,8 +26145,8 @@
         <v>2.4305555555555525E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="60"/>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="61"/>
       <c r="B95" s="51" t="s">
         <v>400</v>
       </c>
@@ -26101,8 +26171,8 @@
         <v>2.0833333333333315E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="60"/>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="61"/>
       <c r="B96" s="51" t="s">
         <v>342</v>
       </c>
@@ -26127,8 +26197,8 @@
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="60"/>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="61"/>
       <c r="B97" s="51" t="s">
         <v>401</v>
       </c>
@@ -26153,8 +26223,8 @@
         <v>4.8611111111111049E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="60"/>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" s="61"/>
       <c r="B98" s="51" t="s">
         <v>402</v>
       </c>
@@ -26179,8 +26249,8 @@
         <v>4.3750000000000011E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="60"/>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="61"/>
       <c r="B99" s="51" t="s">
         <v>403</v>
       </c>
@@ -26205,8 +26275,8 @@
         <v>0.34583333333333338</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="60"/>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="61"/>
       <c r="B100" s="51" t="s">
         <v>404</v>
       </c>
@@ -26225,8 +26295,8 @@
       </c>
       <c r="I100" s="54"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="60"/>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="61"/>
       <c r="B101" s="51" t="s">
         <v>405</v>
       </c>
@@ -26245,8 +26315,8 @@
       </c>
       <c r="I101" s="54"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="60"/>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" s="61"/>
       <c r="B102" s="51" t="s">
         <v>406</v>
       </c>
@@ -26264,8 +26334,8 @@
         <v>5.902777777777779E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="60"/>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" s="61"/>
       <c r="B103" s="51" t="s">
         <v>407</v>
       </c>
@@ -26283,8 +26353,8 @@
         <v>4.8611111111111049E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="60"/>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" s="61"/>
       <c r="B104" s="51" t="s">
         <v>304</v>
       </c>
@@ -26302,8 +26372,8 @@
         <v>1.041666666666663E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="60"/>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" s="61"/>
       <c r="B105" s="51" t="s">
         <v>408</v>
       </c>
@@ -26321,7 +26391,7 @@
         <v>2.4305555555555691E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="62"/>
       <c r="B106" s="51" t="s">
         <v>409</v>
@@ -26340,7 +26410,7 @@
         <v>1.041666666666663E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="63" t="s">
         <v>30</v>
       </c>
@@ -26359,7 +26429,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="63"/>
       <c r="B108" s="55"/>
       <c r="C108" s="51"/>
@@ -26377,7 +26447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="63"/>
       <c r="B109" s="55"/>
       <c r="C109" s="51"/>
@@ -26395,7 +26465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="63"/>
       <c r="B110" s="55"/>
       <c r="C110" s="51"/>
@@ -26413,7 +26483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="63"/>
       <c r="B111" s="55" t="s">
         <v>432</v>
@@ -26433,7 +26503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="63"/>
       <c r="B112" s="55"/>
       <c r="C112" s="51"/>
@@ -26451,7 +26521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="63"/>
       <c r="B113" s="55"/>
       <c r="C113" s="51"/>
@@ -26469,7 +26539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="63"/>
       <c r="B114" s="55"/>
       <c r="C114" s="51"/>
@@ -26487,7 +26557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="63"/>
       <c r="B115" s="55"/>
       <c r="C115" s="51"/>
@@ -26499,7 +26569,7 @@
       </c>
       <c r="I115" s="54"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="63"/>
       <c r="B116" s="55"/>
       <c r="C116" s="51"/>
@@ -26511,7 +26581,7 @@
       </c>
       <c r="I116" s="54"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="63"/>
       <c r="B117" s="55"/>
       <c r="C117" s="51"/>
@@ -26522,7 +26592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="63"/>
       <c r="B118" s="55"/>
       <c r="C118" s="51"/>
@@ -26533,7 +26603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="63"/>
       <c r="B119" s="55"/>
       <c r="C119" s="51"/>
@@ -26544,7 +26614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="63"/>
       <c r="B120" s="55"/>
       <c r="C120" s="51"/>
@@ -26555,7 +26625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="63"/>
       <c r="B121" s="55"/>
       <c r="C121" s="51"/>
@@ -26566,8 +26636,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" s="64" t="s">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A122" s="60" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -26593,8 +26663,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="60"/>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A123" s="61"/>
       <c r="B123" s="51" t="s">
         <v>434</v>
       </c>
@@ -26619,8 +26689,8 @@
         <v>0.47569444444444453</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="60"/>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A124" s="61"/>
       <c r="B124" s="51" t="s">
         <v>435</v>
       </c>
@@ -26645,8 +26715,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="60"/>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A125" s="61"/>
       <c r="B125" s="51" t="s">
         <v>436</v>
       </c>
@@ -26671,8 +26741,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="60"/>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A126" s="61"/>
       <c r="B126" s="58" t="s">
         <v>437</v>
       </c>
@@ -26697,7 +26767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="65"/>
       <c r="B127" s="57" t="s">
         <v>438</v>
@@ -26723,7 +26793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="65"/>
       <c r="B128" s="57" t="s">
         <v>439</v>
@@ -26738,7 +26808,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="F128" s="52">
-        <f t="shared" ref="F128:F159" si="4">E128-D128</f>
+        <f t="shared" ref="F128" si="4">E128-D128</f>
         <v>5.208333333333337E-2</v>
       </c>
       <c r="H128" s="53" t="s">
@@ -26749,7 +26819,7 @@
         <v>0.13888888888888887</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="65"/>
       <c r="B129" s="57" t="s">
         <v>440</v>
@@ -26774,7 +26844,7 @@
         <v>0.61458333333333337</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="65"/>
       <c r="B130" s="57" t="s">
         <v>441</v>
@@ -26793,8 +26863,8 @@
       </c>
       <c r="I130" s="54"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="60"/>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A131" s="61"/>
       <c r="B131" s="59" t="s">
         <v>442</v>
       </c>
@@ -26812,8 +26882,8 @@
       </c>
       <c r="I131" s="54"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" s="60"/>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A132" s="61"/>
       <c r="B132" s="51" t="s">
         <v>443</v>
       </c>
@@ -26830,31 +26900,31 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" s="60"/>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133" s="61"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
       <c r="E133" s="52"/>
       <c r="F133" s="52"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="60"/>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A134" s="61"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
       <c r="E134" s="52"/>
       <c r="F134" s="52"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A135" s="60"/>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A135" s="61"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
       <c r="E135" s="52"/>
       <c r="F135" s="52"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="62"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
@@ -26862,7 +26932,7 @@
       <c r="E136" s="52"/>
       <c r="F136" s="52"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="63" t="s">
         <v>276</v>
       </c>
@@ -26889,7 +26959,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="63"/>
       <c r="B138" s="55" t="s">
         <v>420</v>
@@ -26915,7 +26985,7 @@
         <v>0.40624999999999994</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="63"/>
       <c r="B139" s="55" t="s">
         <v>421</v>
@@ -26941,7 +27011,7 @@
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="63"/>
       <c r="B140" s="55" t="s">
         <v>309</v>
@@ -26967,7 +27037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="63"/>
       <c r="B141" s="55" t="s">
         <v>422</v>
@@ -26993,7 +27063,7 @@
         <v>2.4305555555555691E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="63"/>
       <c r="B142" s="55" t="s">
         <v>329</v>
@@ -27019,7 +27089,7 @@
         <v>4.8611111111111049E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="63"/>
       <c r="B143" s="55" t="s">
         <v>423</v>
@@ -27045,7 +27115,7 @@
         <v>4.1666666666666574E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="63"/>
       <c r="B144" s="51" t="s">
         <v>416</v>
@@ -27071,7 +27141,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="63"/>
       <c r="B145" s="56" t="s">
         <v>309</v>
@@ -27091,7 +27161,7 @@
       </c>
       <c r="I145" s="54"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="63"/>
       <c r="B146" s="56" t="s">
         <v>417</v>
@@ -27111,7 +27181,7 @@
       </c>
       <c r="I146" s="54"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="63"/>
       <c r="B147" s="55" t="s">
         <v>424</v>
@@ -27130,7 +27200,7 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="63"/>
       <c r="B148" s="55" t="s">
         <v>425</v>
@@ -27149,7 +27219,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="63"/>
       <c r="B149" s="55"/>
       <c r="C149" s="51"/>
@@ -27160,7 +27230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="63"/>
       <c r="B150" s="55"/>
       <c r="C150" s="51"/>
@@ -27171,7 +27241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="63"/>
       <c r="B151" s="55"/>
       <c r="C151" s="51"/>
@@ -27261,22 +27331,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="49.5546875" customWidth="1"/>
-    <col min="4" max="4" width="63.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.90625" customWidth="1"/>
+    <col min="3" max="3" width="49.54296875" customWidth="1"/>
+    <col min="4" max="4" width="63.90625" customWidth="1"/>
     <col min="5" max="5" width="47" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
-    <col min="7" max="7" width="29.88671875" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.6328125" customWidth="1"/>
+    <col min="7" max="7" width="29.90625" customWidth="1"/>
+    <col min="8" max="8" width="30.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C1" s="38"/>
       <c r="E1" s="38"/>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -27293,7 +27363,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
@@ -27310,7 +27380,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B4" s="6"/>
       <c r="C4" s="33"/>
       <c r="D4" s="7"/>
@@ -27319,7 +27389,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B5" s="4"/>
       <c r="C5" s="34"/>
       <c r="D5" s="9"/>
@@ -27328,7 +27398,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="20.5" x14ac:dyDescent="0.45">
       <c r="B6" s="11"/>
       <c r="C6" s="36"/>
       <c r="D6" s="11"/>
@@ -27337,7 +27407,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="42" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="18" t="s">
         <v>4</v>
@@ -27361,7 +27431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="168" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="147" x14ac:dyDescent="0.35">
       <c r="B8" s="19" t="s">
         <v>13</v>
       </c>
@@ -27382,7 +27452,7 @@
       </c>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="1:8" ht="84" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="84" x14ac:dyDescent="0.35">
       <c r="B9" s="19" t="s">
         <v>17</v>
       </c>
@@ -27401,7 +27471,7 @@
       </c>
       <c r="H9" s="24"/>
     </row>
-    <row r="10" spans="1:8" ht="105" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="105" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
         <v>20</v>
       </c>
@@ -27420,7 +27490,7 @@
       </c>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:8" ht="214.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="214.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
         <v>21</v>
       </c>
@@ -27441,7 +27511,7 @@
       </c>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8" ht="189.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="189.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
         <v>24</v>
       </c>
@@ -27462,7 +27532,7 @@
       </c>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" ht="205.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="205.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
         <v>27</v>
       </c>
@@ -27483,7 +27553,7 @@
       </c>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" ht="126" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.35">
       <c r="B14" s="19" t="s">
         <v>30</v>
       </c>
@@ -27500,7 +27570,7 @@
       <c r="G14" s="35"/>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" ht="126" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="126" x14ac:dyDescent="0.5">
       <c r="B15" s="19" t="s">
         <v>31</v>
       </c>
@@ -27521,7 +27591,7 @@
       </c>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="1:8" ht="126" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="126" x14ac:dyDescent="0.35">
       <c r="B16" s="19" t="s">
         <v>34</v>
       </c>
@@ -27542,7 +27612,7 @@
       </c>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="2:8" ht="168" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" ht="168" x14ac:dyDescent="0.5">
       <c r="B17" s="21" t="s">
         <v>54</v>
       </c>
@@ -27580,22 +27650,22 @@
       <selection activeCell="A17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="49.5546875" customWidth="1"/>
-    <col min="4" max="4" width="63.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.90625" customWidth="1"/>
+    <col min="3" max="3" width="49.54296875" customWidth="1"/>
+    <col min="4" max="4" width="63.90625" customWidth="1"/>
     <col min="5" max="5" width="47" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
-    <col min="7" max="7" width="29.88671875" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.6328125" customWidth="1"/>
+    <col min="7" max="7" width="29.90625" customWidth="1"/>
+    <col min="8" max="8" width="30.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C1" s="38"/>
       <c r="E1" s="38"/>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -27612,7 +27682,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
@@ -27629,7 +27699,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B4" s="6"/>
       <c r="C4" s="33"/>
       <c r="D4" s="7"/>
@@ -27638,7 +27708,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B5" s="4"/>
       <c r="C5" s="34"/>
       <c r="D5" s="9"/>
@@ -27647,7 +27717,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="20.5" x14ac:dyDescent="0.45">
       <c r="B6" s="11"/>
       <c r="C6" s="36"/>
       <c r="D6" s="11"/>
@@ -27656,7 +27726,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="42" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="18" t="s">
         <v>4</v>
@@ -27680,7 +27750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="B8" s="19" t="s">
         <v>13</v>
       </c>
@@ -27701,7 +27771,7 @@
       </c>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="1:8" ht="63" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="63" x14ac:dyDescent="0.35">
       <c r="B9" s="19" t="s">
         <v>17</v>
       </c>
@@ -27722,7 +27792,7 @@
       </c>
       <c r="H9" s="24"/>
     </row>
-    <row r="10" spans="1:8" ht="84" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="84" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
         <v>20</v>
       </c>
@@ -27743,7 +27813,7 @@
       </c>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:8" ht="214.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="214.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
         <v>21</v>
       </c>
@@ -27764,7 +27834,7 @@
       </c>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8" ht="189.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="189.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
         <v>24</v>
       </c>
@@ -27785,7 +27855,7 @@
       </c>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" ht="205.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="205.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
         <v>27</v>
       </c>
@@ -27806,7 +27876,7 @@
       </c>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" ht="63" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="63" x14ac:dyDescent="0.35">
       <c r="B14" s="19" t="s">
         <v>30</v>
       </c>
@@ -27827,7 +27897,7 @@
       </c>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" ht="105" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="105" x14ac:dyDescent="0.5">
       <c r="B15" s="19" t="s">
         <v>31</v>
       </c>
@@ -27848,7 +27918,7 @@
       </c>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="1:8" ht="84" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="84" x14ac:dyDescent="0.35">
       <c r="B16" s="19" t="s">
         <v>34</v>
       </c>
@@ -27869,7 +27939,7 @@
       </c>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="2:8" ht="84" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" ht="84" x14ac:dyDescent="0.5">
       <c r="B17" s="21" t="s">
         <v>54</v>
       </c>
@@ -27907,22 +27977,22 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="49.5546875" customWidth="1"/>
-    <col min="4" max="4" width="63.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.90625" customWidth="1"/>
+    <col min="3" max="3" width="49.54296875" customWidth="1"/>
+    <col min="4" max="4" width="63.90625" customWidth="1"/>
     <col min="5" max="5" width="47" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
-    <col min="7" max="7" width="29.88671875" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.6328125" customWidth="1"/>
+    <col min="7" max="7" width="29.90625" customWidth="1"/>
+    <col min="8" max="8" width="30.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C1" s="38"/>
       <c r="E1" s="38"/>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -27939,7 +28009,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
@@ -27956,7 +28026,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B4" s="6"/>
       <c r="C4" s="33"/>
       <c r="D4" s="7"/>
@@ -27965,7 +28035,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B5" s="4"/>
       <c r="C5" s="34"/>
       <c r="D5" s="9"/>
@@ -27974,7 +28044,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="20.5" x14ac:dyDescent="0.45">
       <c r="B6" s="11"/>
       <c r="C6" s="36"/>
       <c r="D6" s="11"/>
@@ -27983,7 +28053,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="42" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="18" t="s">
         <v>4</v>
@@ -28007,7 +28077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="103.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="103.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="19" t="s">
         <v>13</v>
       </c>
@@ -28028,7 +28098,7 @@
       </c>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="19" t="s">
         <v>17</v>
       </c>
@@ -28049,7 +28119,7 @@
       </c>
       <c r="H9" s="24"/>
     </row>
-    <row r="10" spans="1:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
         <v>20</v>
       </c>
@@ -28070,7 +28140,7 @@
       </c>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
         <v>21</v>
       </c>
@@ -28091,7 +28161,7 @@
       </c>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8" ht="133.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="133.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
         <v>24</v>
       </c>
@@ -28112,7 +28182,7 @@
       </c>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" ht="133.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="133.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
         <v>27</v>
       </c>
@@ -28133,7 +28203,7 @@
       </c>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" ht="84" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="84" x14ac:dyDescent="0.35">
       <c r="B14" s="19" t="s">
         <v>30</v>
       </c>
@@ -28154,7 +28224,7 @@
       </c>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B15" s="19" t="s">
         <v>31</v>
       </c>
@@ -28175,7 +28245,7 @@
       </c>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="19" t="s">
         <v>34</v>
       </c>
@@ -28196,7 +28266,7 @@
       </c>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="2:8" ht="142.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" ht="142.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B17" s="21" t="s">
         <v>54</v>
       </c>
@@ -28234,22 +28304,22 @@
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="49.5546875" customWidth="1"/>
-    <col min="4" max="4" width="63.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.90625" customWidth="1"/>
+    <col min="3" max="3" width="49.54296875" customWidth="1"/>
+    <col min="4" max="4" width="63.90625" customWidth="1"/>
     <col min="5" max="5" width="47" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
-    <col min="7" max="7" width="29.88671875" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.6328125" customWidth="1"/>
+    <col min="7" max="7" width="29.90625" customWidth="1"/>
+    <col min="8" max="8" width="30.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C1" s="38"/>
       <c r="E1" s="38"/>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -28266,7 +28336,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
@@ -28283,7 +28353,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B4" s="6"/>
       <c r="C4" s="33"/>
       <c r="D4" s="7"/>
@@ -28292,7 +28362,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B5" s="4"/>
       <c r="C5" s="34"/>
       <c r="D5" s="9"/>
@@ -28301,7 +28371,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="20.5" x14ac:dyDescent="0.45">
       <c r="B6" s="11"/>
       <c r="C6" s="36"/>
       <c r="D6" s="11"/>
@@ -28310,7 +28380,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="42" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="18" t="s">
         <v>4</v>
@@ -28334,7 +28404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="19" t="s">
         <v>13</v>
       </c>
@@ -28355,7 +28425,7 @@
       </c>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="19" t="s">
         <v>17</v>
       </c>
@@ -28376,7 +28446,7 @@
       </c>
       <c r="H9" s="24"/>
     </row>
-    <row r="10" spans="1:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
         <v>20</v>
       </c>
@@ -28397,7 +28467,7 @@
       </c>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
         <v>21</v>
       </c>
@@ -28418,7 +28488,7 @@
       </c>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8" ht="133.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="133.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
         <v>24</v>
       </c>
@@ -28439,7 +28509,7 @@
       </c>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" ht="133.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="133.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
         <v>27</v>
       </c>
@@ -28460,7 +28530,7 @@
       </c>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" ht="117.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="117.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="19" t="s">
         <v>30</v>
       </c>
@@ -28481,7 +28551,7 @@
       </c>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B15" s="19" t="s">
         <v>31</v>
       </c>
@@ -28502,7 +28572,7 @@
       </c>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B16" s="19" t="s">
         <v>34</v>
       </c>
@@ -28523,7 +28593,7 @@
       </c>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="2:8" ht="142.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" ht="142.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B17" s="21" t="s">
         <v>54</v>
       </c>
@@ -28561,22 +28631,22 @@
       <selection activeCell="A2" sqref="A2:M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="49.5546875" customWidth="1"/>
-    <col min="4" max="4" width="63.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.90625" customWidth="1"/>
+    <col min="3" max="3" width="49.54296875" customWidth="1"/>
+    <col min="4" max="4" width="63.90625" customWidth="1"/>
     <col min="5" max="5" width="47" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
-    <col min="7" max="7" width="29.88671875" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.6328125" customWidth="1"/>
+    <col min="7" max="7" width="29.90625" customWidth="1"/>
+    <col min="8" max="8" width="30.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C1" s="38"/>
       <c r="E1" s="38"/>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -28593,7 +28663,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
@@ -28610,7 +28680,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B4" s="6"/>
       <c r="C4" s="33"/>
       <c r="D4" s="7"/>
@@ -28619,7 +28689,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B5" s="4"/>
       <c r="C5" s="34"/>
       <c r="D5" s="9"/>
@@ -28628,7 +28698,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="20.5" x14ac:dyDescent="0.45">
       <c r="B6" s="11"/>
       <c r="C6" s="36"/>
       <c r="D6" s="11"/>
@@ -28637,7 +28707,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="42" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="18" t="s">
         <v>4</v>
@@ -28661,7 +28731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="112.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="112.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="19" t="s">
         <v>13</v>
       </c>
@@ -28682,7 +28752,7 @@
       </c>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="19" t="s">
         <v>17</v>
       </c>
@@ -28703,7 +28773,7 @@
       </c>
       <c r="H9" s="24"/>
     </row>
-    <row r="10" spans="1:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
         <v>20</v>
       </c>
@@ -28724,7 +28794,7 @@
       </c>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
         <v>21</v>
       </c>
@@ -28745,7 +28815,7 @@
       </c>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8" ht="133.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="133.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
         <v>24</v>
       </c>
@@ -28766,7 +28836,7 @@
       </c>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" ht="133.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="133.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
         <v>27</v>
       </c>
@@ -28787,7 +28857,7 @@
       </c>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" ht="112.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="112.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="19" t="s">
         <v>30</v>
       </c>
@@ -28808,7 +28878,7 @@
       </c>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" ht="201" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="201" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B15" s="19" t="s">
         <v>31</v>
       </c>
@@ -28829,7 +28899,7 @@
       </c>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="1:8" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="146.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="19" t="s">
         <v>34</v>
       </c>
@@ -28850,7 +28920,7 @@
       </c>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="2:8" ht="268.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" ht="268.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B17" s="21" t="s">
         <v>54</v>
       </c>
@@ -28888,18 +28958,18 @@
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="39.88671875" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="68.6640625" customWidth="1"/>
-    <col min="5" max="5" width="62.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="39.90625" customWidth="1"/>
+    <col min="3" max="3" width="42.36328125" customWidth="1"/>
+    <col min="4" max="4" width="68.6328125" customWidth="1"/>
+    <col min="5" max="5" width="62.6328125" customWidth="1"/>
+    <col min="6" max="6" width="22.54296875" customWidth="1"/>
+    <col min="7" max="7" width="19.08984375" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -28916,7 +28986,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
@@ -28933,7 +29003,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B4" s="6"/>
       <c r="C4" s="33"/>
       <c r="D4" s="7"/>
@@ -28942,7 +29012,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B5" s="4"/>
       <c r="C5" s="34"/>
       <c r="D5" s="9"/>
@@ -28951,7 +29021,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="20.5" x14ac:dyDescent="0.45">
       <c r="B6" s="11"/>
       <c r="C6" s="36"/>
       <c r="D6" s="11"/>
@@ -28960,7 +29030,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="42" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="18" t="s">
         <v>4</v>
@@ -28984,7 +29054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="243.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="243.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="19" t="s">
         <v>13</v>
       </c>
@@ -29005,7 +29075,7 @@
       </c>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="1:8" ht="233.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="233.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="19" t="s">
         <v>17</v>
       </c>
@@ -29024,7 +29094,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="24"/>
     </row>
-    <row r="10" spans="1:8" ht="147" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="147" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
         <v>20</v>
       </c>
@@ -29043,7 +29113,7 @@
       <c r="G10" s="35"/>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:8" ht="229.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="229.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
         <v>21</v>
       </c>
@@ -29064,7 +29134,7 @@
       </c>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8" ht="186.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="186.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
         <v>24</v>
       </c>
@@ -29085,7 +29155,7 @@
       </c>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
         <v>27</v>
       </c>
@@ -29106,7 +29176,7 @@
       </c>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" ht="197.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="197.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="19" t="s">
         <v>30</v>
       </c>
@@ -29127,7 +29197,7 @@
       </c>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" ht="196.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="196.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B15" s="19" t="s">
         <v>31</v>
       </c>
@@ -29148,7 +29218,7 @@
       </c>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="1:8" ht="197.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="197.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="19" t="s">
         <v>34</v>
       </c>
@@ -29169,7 +29239,7 @@
       </c>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="2:8" ht="273.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" ht="273.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B17" s="21" t="s">
         <v>54</v>
       </c>
@@ -29207,18 +29277,18 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="39.88671875" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="68.6640625" customWidth="1"/>
-    <col min="5" max="5" width="62.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="39.90625" customWidth="1"/>
+    <col min="3" max="3" width="42.36328125" customWidth="1"/>
+    <col min="4" max="4" width="68.6328125" customWidth="1"/>
+    <col min="5" max="5" width="62.6328125" customWidth="1"/>
+    <col min="6" max="6" width="22.54296875" customWidth="1"/>
+    <col min="7" max="7" width="19.08984375" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -29235,7 +29305,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
@@ -29252,7 +29322,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B4" s="6"/>
       <c r="C4" s="33"/>
       <c r="D4" s="7"/>
@@ -29261,7 +29331,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.45">
       <c r="B5" s="4"/>
       <c r="C5" s="34"/>
       <c r="D5" s="9"/>
@@ -29270,7 +29340,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="20.5" x14ac:dyDescent="0.45">
       <c r="B6" s="11"/>
       <c r="C6" s="36"/>
       <c r="D6" s="11"/>
@@ -29279,7 +29349,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="42" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="18" t="s">
         <v>4</v>
@@ -29303,7 +29373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="243.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="243.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="19" t="s">
         <v>13</v>
       </c>
@@ -29324,7 +29394,7 @@
       </c>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="1:8" ht="233.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="233.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="19" t="s">
         <v>17</v>
       </c>
@@ -29343,7 +29413,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="24"/>
     </row>
-    <row r="10" spans="1:8" ht="147" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="147" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
         <v>20</v>
       </c>
@@ -29364,7 +29434,7 @@
       </c>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:8" ht="229.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="229.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
         <v>21</v>
       </c>
@@ -29385,7 +29455,7 @@
       </c>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8" ht="186.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="186.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
         <v>24</v>
       </c>
@@ -29406,7 +29476,7 @@
       </c>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
         <v>27</v>
       </c>
@@ -29427,7 +29497,7 @@
       </c>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" ht="197.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="197.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="19" t="s">
         <v>30</v>
       </c>
@@ -29448,7 +29518,7 @@
       </c>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" ht="196.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="196.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B15" s="19" t="s">
         <v>31</v>
       </c>
@@ -29469,7 +29539,7 @@
       </c>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="1:8" ht="197.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="197.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="19" t="s">
         <v>34</v>
       </c>
@@ -29488,7 +29558,7 @@
       </c>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="2:8" ht="273.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" ht="273.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B17" s="21" t="s">
         <v>54</v>
       </c>

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vinoth\GIT\TeamProject\Project\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5C8010E-99C4-4F9D-A5EA-1EA1541E1614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77903387-2DC8-43A8-8D4D-29AEE2315DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19414" windowHeight="10303" firstSheet="18" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19414" windowHeight="10303" firstSheet="22" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 3(06-04-2022)" sheetId="40" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="511">
   <si>
     <t>Column1</t>
   </si>
@@ -1908,6 +1908,33 @@
     <t>Worked on Drive - Employee Navigation Property</t>
   </si>
   <si>
+    <t>refined html layout for manage pool</t>
+  </si>
+  <si>
+    <t>Breakfast</t>
+  </si>
+  <si>
+    <t>Started exploring angular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lunch </t>
+  </si>
+  <si>
+    <t>Created angular application and started working in it</t>
+  </si>
+  <si>
+    <t>explored angular(binding methods)</t>
+  </si>
+  <si>
+    <t>dinner</t>
+  </si>
+  <si>
+    <t>Separated components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">break </t>
+  </si>
+  <si>
     <t>worked on Logger and Intergrated Drive service with Role service</t>
   </si>
   <si>
@@ -1944,6 +1971,30 @@
     <t>worked on Drive get methods Service + DAL</t>
   </si>
   <si>
+    <t>crreated common components</t>
+  </si>
+  <si>
+    <t>created home component for interviewer</t>
+  </si>
+  <si>
+    <t>created header component</t>
+  </si>
+  <si>
+    <t>lunch</t>
+  </si>
+  <si>
+    <t>refined components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rearranged files </t>
+  </si>
+  <si>
+    <t>worked on interviewer component</t>
+  </si>
+  <si>
+    <t>exploration on angular (structural directive)</t>
+  </si>
+  <si>
     <t>worked on Drive validations</t>
   </si>
   <si>
@@ -1969,6 +2020,24 @@
   </si>
   <si>
     <t>worked on Employe Availability service</t>
+  </si>
+  <si>
+    <t>Worked on cards</t>
+  </si>
+  <si>
+    <t>Worked on interviewer components(profile)</t>
+  </si>
+  <si>
+    <t>angular session</t>
+  </si>
+  <si>
+    <t>worked on filter</t>
+  </si>
+  <si>
+    <t>Worked on interviewer components(current drive, scheduled drive)</t>
+  </si>
+  <si>
+    <t>tried to integrate webapi and angular</t>
   </si>
 </sst>
 </file>
@@ -2316,7 +2385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2463,10 +2532,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2475,12 +2544,16 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15050,7 +15123,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="60" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -15080,7 +15153,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="61"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="51" t="s">
         <v>289</v>
       </c>
@@ -15109,7 +15182,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="61"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="51" t="s">
         <v>291</v>
       </c>
@@ -15138,7 +15211,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="61"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="51" t="s">
         <v>292</v>
       </c>
@@ -15167,7 +15240,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="61"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="51" t="s">
         <v>294</v>
       </c>
@@ -15196,7 +15269,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="61"/>
+      <c r="A7" s="60"/>
       <c r="B7" t="s">
         <v>297</v>
       </c>
@@ -15225,7 +15298,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="61"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="51" t="s">
         <v>298</v>
       </c>
@@ -15251,7 +15324,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="61"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="51" t="s">
         <v>299</v>
       </c>
@@ -15277,7 +15350,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="61"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="51" t="s">
         <v>301</v>
       </c>
@@ -15297,7 +15370,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="61"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="51" t="s">
         <v>302</v>
       </c>
@@ -15317,7 +15390,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="61"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="51" t="s">
         <v>303</v>
       </c>
@@ -15336,7 +15409,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="61"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="51" t="s">
         <v>304</v>
       </c>
@@ -15355,7 +15428,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="61"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="51" t="s">
         <v>305</v>
       </c>
@@ -15374,7 +15447,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="61"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="51" t="s">
         <v>306</v>
       </c>
@@ -15393,7 +15466,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="61"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="52"/>
@@ -15404,7 +15477,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="60" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51"/>
@@ -15427,7 +15500,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="61"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="52">
@@ -15449,7 +15522,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="61"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="52">
@@ -15471,7 +15544,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="61"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
       <c r="D20" s="52">
@@ -15493,7 +15566,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="61"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="52">
@@ -15515,7 +15588,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="61"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="52">
@@ -15537,7 +15610,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="61"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="51" t="s">
         <v>73</v>
       </c>
@@ -15561,7 +15634,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="61"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52">
@@ -15583,7 +15656,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="61"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52">
@@ -15599,7 +15672,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="61"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -15611,7 +15684,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="61"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -15622,7 +15695,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="61"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -15633,7 +15706,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="61"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -15644,7 +15717,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="61"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -15655,7 +15728,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="61"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -15666,7 +15739,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="60" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -15693,7 +15766,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="61"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="51" t="s">
         <v>307</v>
       </c>
@@ -15719,7 +15792,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="61"/>
+      <c r="A34" s="60"/>
       <c r="B34" s="51" t="s">
         <v>308</v>
       </c>
@@ -15745,7 +15818,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="61"/>
+      <c r="A35" s="60"/>
       <c r="B35" s="51" t="s">
         <v>309</v>
       </c>
@@ -15771,7 +15844,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="61"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="51" t="s">
         <v>310</v>
       </c>
@@ -15797,7 +15870,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="61"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -15823,7 +15896,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="61"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="51" t="s">
         <v>312</v>
       </c>
@@ -15849,7 +15922,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="61"/>
+      <c r="A39" s="60"/>
       <c r="B39" s="51" t="s">
         <v>313</v>
       </c>
@@ -15875,7 +15948,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="61"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="51" t="s">
         <v>314</v>
       </c>
@@ -15895,7 +15968,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="61"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="51" t="s">
         <v>312</v>
       </c>
@@ -15915,7 +15988,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="61"/>
+      <c r="A42" s="60"/>
       <c r="B42" s="51" t="s">
         <v>315</v>
       </c>
@@ -15934,7 +16007,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="61"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="51" t="s">
         <v>309</v>
       </c>
@@ -15953,7 +16026,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="61"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="51" t="s">
         <v>316</v>
       </c>
@@ -15972,7 +16045,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="61"/>
+      <c r="A45" s="60"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -16218,7 +16291,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="60" t="s">
+      <c r="A62" s="64" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -16245,7 +16318,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="61"/>
+      <c r="A63" s="60"/>
       <c r="B63" s="51" t="s">
         <v>284</v>
       </c>
@@ -16270,7 +16343,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="61"/>
+      <c r="A64" s="60"/>
       <c r="B64" s="51" t="s">
         <v>318</v>
       </c>
@@ -16296,7 +16369,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="61"/>
+      <c r="A65" s="60"/>
       <c r="B65" s="51" t="s">
         <v>313</v>
       </c>
@@ -16322,7 +16395,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="61"/>
+      <c r="A66" s="60"/>
       <c r="B66" s="51" t="s">
         <v>319</v>
       </c>
@@ -16348,7 +16421,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="61"/>
+      <c r="A67" s="60"/>
       <c r="B67" s="51" t="s">
         <v>302</v>
       </c>
@@ -16374,7 +16447,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="61"/>
+      <c r="A68" s="60"/>
       <c r="B68" s="51" t="s">
         <v>304</v>
       </c>
@@ -16400,7 +16473,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="61"/>
+      <c r="A69" s="60"/>
       <c r="B69" s="51" t="s">
         <v>315</v>
       </c>
@@ -16426,7 +16499,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="61"/>
+      <c r="A70" s="60"/>
       <c r="B70" s="51" t="s">
         <v>320</v>
       </c>
@@ -16446,7 +16519,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="61"/>
+      <c r="A71" s="60"/>
       <c r="B71" s="51" t="s">
         <v>306</v>
       </c>
@@ -16466,7 +16539,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="61"/>
+      <c r="A72" s="60"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -16477,7 +16550,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="61"/>
+      <c r="A73" s="60"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -16488,7 +16561,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="61"/>
+      <c r="A74" s="60"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -16499,7 +16572,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="61"/>
+      <c r="A75" s="60"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -16510,7 +16583,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="61"/>
+      <c r="A76" s="60"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -16521,7 +16594,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="61" t="s">
+      <c r="A77" s="60" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -16548,7 +16621,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="61"/>
+      <c r="A78" s="60"/>
       <c r="B78" s="51" t="s">
         <v>322</v>
       </c>
@@ -16574,7 +16647,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="61"/>
+      <c r="A79" s="60"/>
       <c r="B79" s="51" t="s">
         <v>323</v>
       </c>
@@ -16600,7 +16673,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="61"/>
+      <c r="A80" s="60"/>
       <c r="B80" s="51" t="s">
         <v>324</v>
       </c>
@@ -16626,7 +16699,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="61"/>
+      <c r="A81" s="60"/>
       <c r="B81" s="51" t="s">
         <v>325</v>
       </c>
@@ -16652,7 +16725,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="61"/>
+      <c r="A82" s="60"/>
       <c r="B82" s="51" t="s">
         <v>326</v>
       </c>
@@ -16678,7 +16751,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="61"/>
+      <c r="A83" s="60"/>
       <c r="B83" s="51" t="s">
         <v>327</v>
       </c>
@@ -16704,7 +16777,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="61"/>
+      <c r="A84" s="60"/>
       <c r="B84" s="51" t="s">
         <v>328</v>
       </c>
@@ -16730,7 +16803,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="61"/>
+      <c r="A85" s="60"/>
       <c r="B85" s="51" t="s">
         <v>294</v>
       </c>
@@ -16750,7 +16823,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="61"/>
+      <c r="A86" s="60"/>
       <c r="B86" s="51" t="s">
         <v>329</v>
       </c>
@@ -16770,7 +16843,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="61"/>
+      <c r="A87" s="60"/>
       <c r="B87" s="51" t="s">
         <v>304</v>
       </c>
@@ -16789,7 +16862,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="61"/>
+      <c r="A88" s="60"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -16800,7 +16873,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="61"/>
+      <c r="A89" s="60"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -16811,7 +16884,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="61"/>
+      <c r="A90" s="60"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -16822,7 +16895,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="64"/>
+      <c r="A91" s="61"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -16833,7 +16906,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="60" t="s">
+      <c r="A92" s="64" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -16860,7 +16933,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="61"/>
+      <c r="A93" s="60"/>
       <c r="B93" s="51" t="s">
         <v>330</v>
       </c>
@@ -16886,7 +16959,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="61"/>
+      <c r="A94" s="60"/>
       <c r="B94" s="56" t="s">
         <v>331</v>
       </c>
@@ -16912,7 +16985,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="61"/>
+      <c r="A95" s="60"/>
       <c r="B95" s="51" t="s">
         <v>309</v>
       </c>
@@ -16938,7 +17011,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="61"/>
+      <c r="A96" s="60"/>
       <c r="B96" s="51" t="s">
         <v>332</v>
       </c>
@@ -16964,7 +17037,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="61"/>
+      <c r="A97" s="60"/>
       <c r="B97" s="51" t="s">
         <v>311</v>
       </c>
@@ -16990,7 +17063,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="61"/>
+      <c r="A98" s="60"/>
       <c r="B98" s="51" t="s">
         <v>313</v>
       </c>
@@ -17016,7 +17089,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="61"/>
+      <c r="A99" s="60"/>
       <c r="B99" s="51" t="s">
         <v>333</v>
       </c>
@@ -17042,7 +17115,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="61"/>
+      <c r="A100" s="60"/>
       <c r="B100" s="51" t="s">
         <v>334</v>
       </c>
@@ -17062,7 +17135,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="61"/>
+      <c r="A101" s="60"/>
       <c r="B101" s="51" t="s">
         <v>309</v>
       </c>
@@ -17082,7 +17155,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="61"/>
+      <c r="A102" s="60"/>
       <c r="B102" s="51" t="s">
         <v>316</v>
       </c>
@@ -17101,7 +17174,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="61"/>
+      <c r="A103" s="60"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -17109,7 +17182,7 @@
       <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="61"/>
+      <c r="A104" s="60"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
@@ -17117,7 +17190,7 @@
       <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="61"/>
+      <c r="A105" s="60"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -17445,7 +17518,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="60" t="s">
+      <c r="A122" s="64" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -17472,7 +17545,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="61"/>
+      <c r="A123" s="60"/>
       <c r="B123" s="51" t="s">
         <v>322</v>
       </c>
@@ -17498,7 +17571,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="61"/>
+      <c r="A124" s="60"/>
       <c r="B124" s="51" t="s">
         <v>294</v>
       </c>
@@ -17524,7 +17597,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="61"/>
+      <c r="A125" s="60"/>
       <c r="B125" s="51" t="s">
         <v>344</v>
       </c>
@@ -17550,7 +17623,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="61"/>
+      <c r="A126" s="60"/>
       <c r="B126" s="51" t="s">
         <v>329</v>
       </c>
@@ -17576,7 +17649,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="61"/>
+      <c r="A127" s="60"/>
       <c r="B127" s="56" t="s">
         <v>345</v>
       </c>
@@ -17602,7 +17675,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="61"/>
+      <c r="A128" s="60"/>
       <c r="B128" s="51" t="s">
         <v>346</v>
       </c>
@@ -17628,7 +17701,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="61"/>
+      <c r="A129" s="60"/>
       <c r="B129" s="56" t="s">
         <v>304</v>
       </c>
@@ -17654,7 +17727,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="61"/>
+      <c r="A130" s="60"/>
       <c r="B130" s="56" t="s">
         <v>304</v>
       </c>
@@ -17674,7 +17747,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="61"/>
+      <c r="A131" s="60"/>
       <c r="B131" s="51" t="s">
         <v>347</v>
       </c>
@@ -17694,7 +17767,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="61"/>
+      <c r="A132" s="60"/>
       <c r="B132" s="51" t="s">
         <v>348</v>
       </c>
@@ -17713,7 +17786,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="61"/>
+      <c r="A133" s="60"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -17724,7 +17797,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="61"/>
+      <c r="A134" s="60"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -17735,7 +17808,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="61"/>
+      <c r="A135" s="60"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -18061,7 +18134,7 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="60" t="s">
+      <c r="A152" s="64" t="s">
         <v>355</v>
       </c>
       <c r="B152" s="51" t="s">
@@ -18088,7 +18161,7 @@
       </c>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="61"/>
+      <c r="A153" s="60"/>
       <c r="B153" s="51" t="s">
         <v>357</v>
       </c>
@@ -18114,7 +18187,7 @@
       </c>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="61"/>
+      <c r="A154" s="60"/>
       <c r="B154" s="51" t="s">
         <v>341</v>
       </c>
@@ -18140,7 +18213,7 @@
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="61"/>
+      <c r="A155" s="60"/>
       <c r="B155" s="51" t="s">
         <v>357</v>
       </c>
@@ -18166,7 +18239,7 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="61"/>
+      <c r="A156" s="60"/>
       <c r="B156" s="51" t="s">
         <v>301</v>
       </c>
@@ -18192,7 +18265,7 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="61"/>
+      <c r="A157" s="60"/>
       <c r="B157" s="51" t="s">
         <v>294</v>
       </c>
@@ -18218,7 +18291,7 @@
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="61"/>
+      <c r="A158" s="60"/>
       <c r="B158" s="51" t="s">
         <v>304</v>
       </c>
@@ -18244,7 +18317,7 @@
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="61"/>
+      <c r="A159" s="60"/>
       <c r="B159" s="51" t="s">
         <v>358</v>
       </c>
@@ -18270,7 +18343,7 @@
       </c>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="61"/>
+      <c r="A160" s="60"/>
       <c r="B160" s="51" t="s">
         <v>359</v>
       </c>
@@ -18290,7 +18363,7 @@
       <c r="I160" s="54"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="61"/>
+      <c r="A161" s="60"/>
       <c r="B161" s="51"/>
       <c r="C161" s="51"/>
       <c r="D161" s="52"/>
@@ -18302,7 +18375,7 @@
       <c r="I161" s="54"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="61"/>
+      <c r="A162" s="60"/>
       <c r="B162" s="51"/>
       <c r="C162" s="51"/>
       <c r="D162" s="52"/>
@@ -18313,7 +18386,7 @@
       </c>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="61"/>
+      <c r="A163" s="60"/>
       <c r="B163" s="51"/>
       <c r="C163" s="51"/>
       <c r="D163" s="52"/>
@@ -18324,7 +18397,7 @@
       </c>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="61"/>
+      <c r="A164" s="60"/>
       <c r="B164" s="51"/>
       <c r="C164" s="51"/>
       <c r="D164" s="52"/>
@@ -18335,7 +18408,7 @@
       </c>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="61"/>
+      <c r="A165" s="60"/>
       <c r="B165" s="51"/>
       <c r="C165" s="51"/>
       <c r="D165" s="52"/>
@@ -18346,7 +18419,7 @@
       </c>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="61"/>
+      <c r="A166" s="60"/>
       <c r="B166" s="51"/>
       <c r="C166" s="51"/>
       <c r="D166" s="52"/>
@@ -18358,17 +18431,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="90" priority="12" operator="greaterThan">
@@ -18474,7 +18547,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="60" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -18504,7 +18577,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="61"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="51" t="s">
         <v>360</v>
       </c>
@@ -18533,7 +18606,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="61"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="51" t="s">
         <v>361</v>
       </c>
@@ -18562,7 +18635,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="61"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="51" t="s">
         <v>309</v>
       </c>
@@ -18591,7 +18664,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="61"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="51" t="s">
         <v>311</v>
       </c>
@@ -18620,7 +18693,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="61"/>
+      <c r="A7" s="60"/>
       <c r="B7" t="s">
         <v>362</v>
       </c>
@@ -18649,7 +18722,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="61"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="51" t="s">
         <v>363</v>
       </c>
@@ -18675,7 +18748,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="61"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="51" t="s">
         <v>364</v>
       </c>
@@ -18701,7 +18774,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="61"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="51" t="s">
         <v>329</v>
       </c>
@@ -18721,7 +18794,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="61"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="51" t="s">
         <v>365</v>
       </c>
@@ -18741,7 +18814,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="61"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="51" t="s">
         <v>345</v>
       </c>
@@ -18760,7 +18833,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="61"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="51" t="s">
         <v>309</v>
       </c>
@@ -18779,7 +18852,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="61"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="51" t="s">
         <v>366</v>
       </c>
@@ -18798,7 +18871,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="61"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="51" t="s">
         <v>367</v>
       </c>
@@ -18817,7 +18890,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="61"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="51" t="s">
         <v>368</v>
       </c>
@@ -18836,7 +18909,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="60" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -18863,7 +18936,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="61"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="51" t="s">
         <v>370</v>
       </c>
@@ -18889,7 +18962,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="61"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="51" t="s">
         <v>342</v>
       </c>
@@ -18915,7 +18988,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="61"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="51" t="s">
         <v>371</v>
       </c>
@@ -18941,7 +19014,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="61"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="51" t="s">
         <v>372</v>
       </c>
@@ -18967,7 +19040,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="61"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -18993,7 +19066,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="61"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="51" t="s">
         <v>373</v>
       </c>
@@ -19019,7 +19092,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="61"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="51" t="s">
         <v>374</v>
       </c>
@@ -19045,7 +19118,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="61"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="51" t="s">
         <v>304</v>
       </c>
@@ -19065,7 +19138,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="61"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="51" t="s">
         <v>375</v>
       </c>
@@ -19085,7 +19158,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="61"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="51" t="s">
         <v>376</v>
       </c>
@@ -19104,7 +19177,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="61"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="51" t="s">
         <v>377</v>
       </c>
@@ -19123,7 +19196,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="61"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="51" t="s">
         <v>378</v>
       </c>
@@ -19142,7 +19215,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="61"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -19153,7 +19226,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="61"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -19164,7 +19237,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="60" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -19191,7 +19264,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="61"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="51" t="s">
         <v>380</v>
       </c>
@@ -19217,7 +19290,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="61"/>
+      <c r="A34" s="60"/>
       <c r="B34" s="51" t="s">
         <v>370</v>
       </c>
@@ -19243,7 +19316,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="61"/>
+      <c r="A35" s="60"/>
       <c r="B35" s="51" t="s">
         <v>294</v>
       </c>
@@ -19269,7 +19342,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="61"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="51" t="s">
         <v>381</v>
       </c>
@@ -19295,7 +19368,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="61"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -19321,7 +19394,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="61"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="51" t="s">
         <v>382</v>
       </c>
@@ -19347,7 +19420,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="61"/>
+      <c r="A39" s="60"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -19373,7 +19446,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="61"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="51" t="s">
         <v>383</v>
       </c>
@@ -19393,7 +19466,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="61"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="51" t="s">
         <v>374</v>
       </c>
@@ -19413,7 +19486,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="61"/>
+      <c r="A42" s="60"/>
       <c r="B42" s="51" t="s">
         <v>304</v>
       </c>
@@ -19432,7 +19505,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="61"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="51" t="s">
         <v>384</v>
       </c>
@@ -19451,7 +19524,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="61"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="51" t="s">
         <v>385</v>
       </c>
@@ -19470,7 +19543,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="61"/>
+      <c r="A45" s="60"/>
       <c r="B45" s="51" t="s">
         <v>386</v>
       </c>
@@ -19734,7 +19807,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="60" t="s">
+      <c r="A62" s="64" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -19753,7 +19826,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="61"/>
+      <c r="A63" s="60"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -19770,7 +19843,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="61"/>
+      <c r="A64" s="60"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -19788,7 +19861,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="61"/>
+      <c r="A65" s="60"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -19806,7 +19879,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="61"/>
+      <c r="A66" s="60"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -19824,7 +19897,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="61"/>
+      <c r="A67" s="60"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -19842,7 +19915,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="61"/>
+      <c r="A68" s="60"/>
       <c r="B68" s="56" t="s">
         <v>388</v>
       </c>
@@ -19862,7 +19935,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="61"/>
+      <c r="A69" s="60"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -19880,7 +19953,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="61"/>
+      <c r="A70" s="60"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -19892,7 +19965,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="61"/>
+      <c r="A71" s="60"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -19904,7 +19977,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="61"/>
+      <c r="A72" s="60"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -19915,7 +19988,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="61"/>
+      <c r="A73" s="60"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -19926,7 +19999,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="61"/>
+      <c r="A74" s="60"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -19937,7 +20010,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="61"/>
+      <c r="A75" s="60"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -19948,7 +20021,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="61"/>
+      <c r="A76" s="60"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -19959,7 +20032,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="61" t="s">
+      <c r="A77" s="60" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -19986,7 +20059,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="61"/>
+      <c r="A78" s="60"/>
       <c r="B78" s="51" t="s">
         <v>389</v>
       </c>
@@ -20012,7 +20085,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="61"/>
+      <c r="A79" s="60"/>
       <c r="B79" s="51" t="s">
         <v>390</v>
       </c>
@@ -20038,7 +20111,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="61"/>
+      <c r="A80" s="60"/>
       <c r="B80" s="51" t="s">
         <v>309</v>
       </c>
@@ -20064,7 +20137,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="61"/>
+      <c r="A81" s="60"/>
       <c r="B81" s="51" t="s">
         <v>391</v>
       </c>
@@ -20090,7 +20163,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="61"/>
+      <c r="A82" s="60"/>
       <c r="B82" s="51" t="s">
         <v>392</v>
       </c>
@@ -20116,7 +20189,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="61"/>
+      <c r="A83" s="60"/>
       <c r="B83" s="51" t="s">
         <v>329</v>
       </c>
@@ -20142,7 +20215,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="61"/>
+      <c r="A84" s="60"/>
       <c r="B84" s="51" t="s">
         <v>393</v>
       </c>
@@ -20168,7 +20241,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="61"/>
+      <c r="A85" s="60"/>
       <c r="B85" s="51" t="s">
         <v>394</v>
       </c>
@@ -20188,7 +20261,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="61"/>
+      <c r="A86" s="60"/>
       <c r="B86" s="51" t="s">
         <v>309</v>
       </c>
@@ -20208,7 +20281,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="61"/>
+      <c r="A87" s="60"/>
       <c r="B87" s="51" t="s">
         <v>385</v>
       </c>
@@ -20227,7 +20300,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="61"/>
+      <c r="A88" s="60"/>
       <c r="B88" s="51" t="s">
         <v>395</v>
       </c>
@@ -20246,7 +20319,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="61"/>
+      <c r="A89" s="60"/>
       <c r="B89" s="51" t="s">
         <v>396</v>
       </c>
@@ -20265,7 +20338,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="61"/>
+      <c r="A90" s="60"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -20276,7 +20349,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="64"/>
+      <c r="A91" s="61"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -20287,7 +20360,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="60" t="s">
+      <c r="A92" s="64" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -20314,7 +20387,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="61"/>
+      <c r="A93" s="60"/>
       <c r="B93" s="51" t="s">
         <v>398</v>
       </c>
@@ -20340,7 +20413,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="61"/>
+      <c r="A94" s="60"/>
       <c r="B94" s="56" t="s">
         <v>399</v>
       </c>
@@ -20366,7 +20439,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="61"/>
+      <c r="A95" s="60"/>
       <c r="B95" s="51" t="s">
         <v>400</v>
       </c>
@@ -20392,7 +20465,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="61"/>
+      <c r="A96" s="60"/>
       <c r="B96" s="51" t="s">
         <v>342</v>
       </c>
@@ -20418,7 +20491,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="61"/>
+      <c r="A97" s="60"/>
       <c r="B97" s="51" t="s">
         <v>401</v>
       </c>
@@ -20444,7 +20517,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="61"/>
+      <c r="A98" s="60"/>
       <c r="B98" s="51" t="s">
         <v>402</v>
       </c>
@@ -20470,7 +20543,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="61"/>
+      <c r="A99" s="60"/>
       <c r="B99" s="51" t="s">
         <v>403</v>
       </c>
@@ -20496,7 +20569,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="61"/>
+      <c r="A100" s="60"/>
       <c r="B100" s="51" t="s">
         <v>404</v>
       </c>
@@ -20516,7 +20589,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="61"/>
+      <c r="A101" s="60"/>
       <c r="B101" s="51" t="s">
         <v>405</v>
       </c>
@@ -20536,7 +20609,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="61"/>
+      <c r="A102" s="60"/>
       <c r="B102" s="51" t="s">
         <v>406</v>
       </c>
@@ -20555,7 +20628,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="61"/>
+      <c r="A103" s="60"/>
       <c r="B103" s="51" t="s">
         <v>407</v>
       </c>
@@ -20574,7 +20647,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="61"/>
+      <c r="A104" s="60"/>
       <c r="B104" s="51" t="s">
         <v>304</v>
       </c>
@@ -20593,7 +20666,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="61"/>
+      <c r="A105" s="60"/>
       <c r="B105" s="51" t="s">
         <v>408</v>
       </c>
@@ -20857,7 +20930,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="60" t="s">
+      <c r="A122" s="64" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -20884,7 +20957,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="61"/>
+      <c r="A123" s="60"/>
       <c r="B123" s="51" t="s">
         <v>411</v>
       </c>
@@ -20910,7 +20983,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="61"/>
+      <c r="A124" s="60"/>
       <c r="B124" s="51" t="s">
         <v>412</v>
       </c>
@@ -20936,7 +21009,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="61"/>
+      <c r="A125" s="60"/>
       <c r="B125" s="51" t="s">
         <v>413</v>
       </c>
@@ -20962,7 +21035,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="61"/>
+      <c r="A126" s="60"/>
       <c r="B126" s="51" t="s">
         <v>414</v>
       </c>
@@ -20988,7 +21061,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="61"/>
+      <c r="A127" s="60"/>
       <c r="B127" s="56" t="s">
         <v>415</v>
       </c>
@@ -21014,7 +21087,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="61"/>
+      <c r="A128" s="60"/>
       <c r="B128" s="51" t="s">
         <v>416</v>
       </c>
@@ -21040,7 +21113,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="61"/>
+      <c r="A129" s="60"/>
       <c r="B129" s="56" t="s">
         <v>417</v>
       </c>
@@ -21066,7 +21139,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="61"/>
+      <c r="A130" s="60"/>
       <c r="B130" s="56" t="s">
         <v>418</v>
       </c>
@@ -21086,7 +21159,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="61"/>
+      <c r="A131" s="60"/>
       <c r="B131" s="51" t="s">
         <v>294</v>
       </c>
@@ -21106,7 +21179,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="61"/>
+      <c r="A132" s="60"/>
       <c r="B132" s="51" t="s">
         <v>329</v>
       </c>
@@ -21125,7 +21198,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="61"/>
+      <c r="A133" s="60"/>
       <c r="B133" s="51" t="s">
         <v>304</v>
       </c>
@@ -21144,7 +21217,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="61"/>
+      <c r="A134" s="60"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -21155,7 +21228,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="61"/>
+      <c r="A135" s="60"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -21613,7 +21686,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="60" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -21643,7 +21716,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="61"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="51" t="s">
         <v>360</v>
       </c>
@@ -21672,7 +21745,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="61"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="51" t="s">
         <v>361</v>
       </c>
@@ -21701,7 +21774,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="61"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="51" t="s">
         <v>309</v>
       </c>
@@ -21730,7 +21803,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="61"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="51" t="s">
         <v>311</v>
       </c>
@@ -21759,7 +21832,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="61"/>
+      <c r="A7" s="60"/>
       <c r="B7" t="s">
         <v>362</v>
       </c>
@@ -21788,7 +21861,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="61"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="51" t="s">
         <v>363</v>
       </c>
@@ -21814,7 +21887,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="61"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="51" t="s">
         <v>364</v>
       </c>
@@ -21840,7 +21913,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="61"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="51" t="s">
         <v>329</v>
       </c>
@@ -21860,7 +21933,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="61"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="51" t="s">
         <v>365</v>
       </c>
@@ -21880,7 +21953,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="61"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="51" t="s">
         <v>345</v>
       </c>
@@ -21899,7 +21972,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="61"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="51" t="s">
         <v>309</v>
       </c>
@@ -21918,7 +21991,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="61"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="51" t="s">
         <v>366</v>
       </c>
@@ -21937,7 +22010,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="61"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="51" t="s">
         <v>367</v>
       </c>
@@ -21956,7 +22029,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="61"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="51" t="s">
         <v>368</v>
       </c>
@@ -21975,7 +22048,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="60" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -22002,7 +22075,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="61"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="51" t="s">
         <v>370</v>
       </c>
@@ -22028,7 +22101,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="61"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="51" t="s">
         <v>342</v>
       </c>
@@ -22054,7 +22127,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="61"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="51" t="s">
         <v>371</v>
       </c>
@@ -22080,7 +22153,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="61"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="51" t="s">
         <v>372</v>
       </c>
@@ -22106,7 +22179,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="61"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -22132,7 +22205,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="61"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="51" t="s">
         <v>373</v>
       </c>
@@ -22158,7 +22231,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="61"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="51" t="s">
         <v>374</v>
       </c>
@@ -22184,7 +22257,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="61"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="51" t="s">
         <v>304</v>
       </c>
@@ -22204,7 +22277,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="61"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="51" t="s">
         <v>375</v>
       </c>
@@ -22224,7 +22297,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="61"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="51" t="s">
         <v>376</v>
       </c>
@@ -22243,7 +22316,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="61"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="51" t="s">
         <v>377</v>
       </c>
@@ -22262,7 +22335,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="61"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="51" t="s">
         <v>378</v>
       </c>
@@ -22281,7 +22354,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="61"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -22292,7 +22365,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="61"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -22303,7 +22376,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="60" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -22330,7 +22403,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="61"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="51" t="s">
         <v>380</v>
       </c>
@@ -22356,7 +22429,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="61"/>
+      <c r="A34" s="60"/>
       <c r="B34" s="51" t="s">
         <v>370</v>
       </c>
@@ -22382,7 +22455,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="61"/>
+      <c r="A35" s="60"/>
       <c r="B35" s="51" t="s">
         <v>294</v>
       </c>
@@ -22408,7 +22481,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="61"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="51" t="s">
         <v>381</v>
       </c>
@@ -22434,7 +22507,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="61"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -22460,7 +22533,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="61"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="51" t="s">
         <v>382</v>
       </c>
@@ -22486,7 +22559,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="61"/>
+      <c r="A39" s="60"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -22512,7 +22585,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="61"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="51" t="s">
         <v>383</v>
       </c>
@@ -22532,7 +22605,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="61"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="51" t="s">
         <v>374</v>
       </c>
@@ -22552,7 +22625,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="61"/>
+      <c r="A42" s="60"/>
       <c r="B42" s="51" t="s">
         <v>304</v>
       </c>
@@ -22571,7 +22644,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="61"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="51" t="s">
         <v>384</v>
       </c>
@@ -22590,7 +22663,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="61"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="51" t="s">
         <v>385</v>
       </c>
@@ -22609,7 +22682,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="61"/>
+      <c r="A45" s="60"/>
       <c r="B45" s="51" t="s">
         <v>386</v>
       </c>
@@ -22873,7 +22946,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="60" t="s">
+      <c r="A62" s="64" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -22892,7 +22965,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="61"/>
+      <c r="A63" s="60"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -22909,7 +22982,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="61"/>
+      <c r="A64" s="60"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -22927,7 +23000,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="61"/>
+      <c r="A65" s="60"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -22945,7 +23018,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="61"/>
+      <c r="A66" s="60"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -22963,7 +23036,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="61"/>
+      <c r="A67" s="60"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -22981,7 +23054,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="61"/>
+      <c r="A68" s="60"/>
       <c r="B68" s="56" t="s">
         <v>426</v>
       </c>
@@ -23001,7 +23074,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="61"/>
+      <c r="A69" s="60"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -23019,7 +23092,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="61"/>
+      <c r="A70" s="60"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -23031,7 +23104,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="61"/>
+      <c r="A71" s="60"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -23043,7 +23116,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="61"/>
+      <c r="A72" s="60"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -23054,7 +23127,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="61"/>
+      <c r="A73" s="60"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -23065,7 +23138,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="61"/>
+      <c r="A74" s="60"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -23076,7 +23149,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="61"/>
+      <c r="A75" s="60"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -23087,7 +23160,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="61"/>
+      <c r="A76" s="60"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -23098,7 +23171,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="61" t="s">
+      <c r="A77" s="60" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -23125,7 +23198,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="61"/>
+      <c r="A78" s="60"/>
       <c r="B78" s="51" t="s">
         <v>427</v>
       </c>
@@ -23151,7 +23224,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="61"/>
+      <c r="A79" s="60"/>
       <c r="B79" s="51" t="s">
         <v>428</v>
       </c>
@@ -23177,7 +23250,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="61"/>
+      <c r="A80" s="60"/>
       <c r="B80" s="51" t="s">
         <v>309</v>
       </c>
@@ -23203,7 +23276,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="61"/>
+      <c r="A81" s="60"/>
       <c r="B81" s="51" t="s">
         <v>429</v>
       </c>
@@ -23229,7 +23302,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="61"/>
+      <c r="A82" s="60"/>
       <c r="B82" s="51" t="s">
         <v>392</v>
       </c>
@@ -23255,7 +23328,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="61"/>
+      <c r="A83" s="60"/>
       <c r="B83" s="51" t="s">
         <v>329</v>
       </c>
@@ -23281,7 +23354,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="61"/>
+      <c r="A84" s="60"/>
       <c r="B84" s="51" t="s">
         <v>393</v>
       </c>
@@ -23307,7 +23380,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="61"/>
+      <c r="A85" s="60"/>
       <c r="B85" s="51" t="s">
         <v>394</v>
       </c>
@@ -23327,7 +23400,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="61"/>
+      <c r="A86" s="60"/>
       <c r="B86" s="51" t="s">
         <v>309</v>
       </c>
@@ -23347,7 +23420,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="61"/>
+      <c r="A87" s="60"/>
       <c r="B87" s="51" t="s">
         <v>385</v>
       </c>
@@ -23366,7 +23439,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="61"/>
+      <c r="A88" s="60"/>
       <c r="B88" s="51" t="s">
         <v>395</v>
       </c>
@@ -23385,7 +23458,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="61"/>
+      <c r="A89" s="60"/>
       <c r="B89" s="51" t="s">
         <v>396</v>
       </c>
@@ -23404,7 +23477,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="61"/>
+      <c r="A90" s="60"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -23415,7 +23488,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="64"/>
+      <c r="A91" s="61"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -23426,7 +23499,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="60" t="s">
+      <c r="A92" s="64" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -23453,7 +23526,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="61"/>
+      <c r="A93" s="60"/>
       <c r="B93" s="51" t="s">
         <v>398</v>
       </c>
@@ -23479,7 +23552,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="61"/>
+      <c r="A94" s="60"/>
       <c r="B94" s="56" t="s">
         <v>399</v>
       </c>
@@ -23505,7 +23578,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="61"/>
+      <c r="A95" s="60"/>
       <c r="B95" s="51" t="s">
         <v>400</v>
       </c>
@@ -23531,7 +23604,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="61"/>
+      <c r="A96" s="60"/>
       <c r="B96" s="51" t="s">
         <v>342</v>
       </c>
@@ -23557,7 +23630,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="61"/>
+      <c r="A97" s="60"/>
       <c r="B97" s="51" t="s">
         <v>401</v>
       </c>
@@ -23583,7 +23656,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="61"/>
+      <c r="A98" s="60"/>
       <c r="B98" s="51" t="s">
         <v>402</v>
       </c>
@@ -23609,7 +23682,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="61"/>
+      <c r="A99" s="60"/>
       <c r="B99" s="51" t="s">
         <v>403</v>
       </c>
@@ -23635,7 +23708,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="61"/>
+      <c r="A100" s="60"/>
       <c r="B100" s="51" t="s">
         <v>404</v>
       </c>
@@ -23655,7 +23728,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="61"/>
+      <c r="A101" s="60"/>
       <c r="B101" s="51" t="s">
         <v>405</v>
       </c>
@@ -23675,7 +23748,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="61"/>
+      <c r="A102" s="60"/>
       <c r="B102" s="51" t="s">
         <v>406</v>
       </c>
@@ -23694,7 +23767,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="61"/>
+      <c r="A103" s="60"/>
       <c r="B103" s="51" t="s">
         <v>407</v>
       </c>
@@ -23713,7 +23786,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="61"/>
+      <c r="A104" s="60"/>
       <c r="B104" s="51" t="s">
         <v>304</v>
       </c>
@@ -23732,7 +23805,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="61"/>
+      <c r="A105" s="60"/>
       <c r="B105" s="51" t="s">
         <v>408</v>
       </c>
@@ -23996,7 +24069,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="60" t="s">
+      <c r="A122" s="64" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51"/>
@@ -24021,7 +24094,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="61"/>
+      <c r="A123" s="60"/>
       <c r="B123" s="51"/>
       <c r="C123" s="51" t="s">
         <v>295</v>
@@ -24045,7 +24118,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="61"/>
+      <c r="A124" s="60"/>
       <c r="B124" s="51"/>
       <c r="C124" s="51" t="s">
         <v>288</v>
@@ -24069,7 +24142,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="61"/>
+      <c r="A125" s="60"/>
       <c r="B125" s="51"/>
       <c r="C125" s="51" t="s">
         <v>295</v>
@@ -24093,7 +24166,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="61"/>
+      <c r="A126" s="60"/>
       <c r="B126" s="58"/>
       <c r="C126" s="51" t="s">
         <v>288</v>
@@ -24189,7 +24262,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="61"/>
+      <c r="A131" s="60"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -24198,7 +24271,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="61"/>
+      <c r="A132" s="60"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -24206,7 +24279,7 @@
       <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="61"/>
+      <c r="A133" s="60"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -24214,7 +24287,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="61"/>
+      <c r="A134" s="60"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -24222,7 +24295,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="61"/>
+      <c r="A135" s="60"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -24944,7 +25017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
+    <sheetView topLeftCell="A100" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
       <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
@@ -24984,7 +25057,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="60" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -25014,7 +25087,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="61"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="51" t="s">
         <v>360</v>
       </c>
@@ -25043,7 +25116,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="61"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="51" t="s">
         <v>361</v>
       </c>
@@ -25072,7 +25145,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="61"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="51" t="s">
         <v>309</v>
       </c>
@@ -25101,7 +25174,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="61"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="51" t="s">
         <v>311</v>
       </c>
@@ -25130,7 +25203,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="61"/>
+      <c r="A7" s="60"/>
       <c r="B7" t="s">
         <v>362</v>
       </c>
@@ -25159,7 +25232,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="61"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="51" t="s">
         <v>363</v>
       </c>
@@ -25185,7 +25258,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="61"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="51" t="s">
         <v>364</v>
       </c>
@@ -25211,7 +25284,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="61"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="51" t="s">
         <v>329</v>
       </c>
@@ -25231,7 +25304,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="61"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="51" t="s">
         <v>365</v>
       </c>
@@ -25251,7 +25324,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="61"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="51" t="s">
         <v>345</v>
       </c>
@@ -25270,7 +25343,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="61"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="51" t="s">
         <v>309</v>
       </c>
@@ -25289,7 +25362,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="61"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="51" t="s">
         <v>366</v>
       </c>
@@ -25308,7 +25381,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="61"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="51" t="s">
         <v>367</v>
       </c>
@@ -25327,7 +25400,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="61"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="51" t="s">
         <v>368</v>
       </c>
@@ -25346,7 +25419,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="60" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -25373,7 +25446,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="61"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="51" t="s">
         <v>432</v>
       </c>
@@ -25399,7 +25472,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="61"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="51" t="s">
         <v>329</v>
       </c>
@@ -25425,7 +25498,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="61"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="51" t="s">
         <v>433</v>
       </c>
@@ -25451,7 +25524,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="61"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="51" t="s">
         <v>309</v>
       </c>
@@ -25477,7 +25550,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="61"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="51" t="s">
         <v>434</v>
       </c>
@@ -25503,7 +25576,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="61"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
@@ -25518,7 +25591,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="61"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
@@ -25533,7 +25606,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="61"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -25542,7 +25615,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="61"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -25554,7 +25627,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="61"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -25565,7 +25638,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="61"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -25576,7 +25649,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="61"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -25587,7 +25660,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="61"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -25598,7 +25671,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="61"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -25609,7 +25682,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="60" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -25630,7 +25703,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="61"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -25648,7 +25721,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="61"/>
+      <c r="A34" s="60"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -25666,7 +25739,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="61"/>
+      <c r="A35" s="60"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="52"/>
@@ -25684,7 +25757,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="61"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -25702,7 +25775,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="61"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
       <c r="D37" s="52"/>
@@ -25720,7 +25793,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="61"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -25738,7 +25811,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="61"/>
+      <c r="A39" s="60"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -25756,7 +25829,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="61"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -25768,7 +25841,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="61"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -25780,7 +25853,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="61"/>
+      <c r="A42" s="60"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -25791,7 +25864,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="61"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -25802,7 +25875,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="61"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -25813,7 +25886,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="61"/>
+      <c r="A45" s="60"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -26105,7 +26178,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="60" t="s">
+      <c r="A62" s="64" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -26124,7 +26197,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="61"/>
+      <c r="A63" s="60"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -26141,7 +26214,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="61"/>
+      <c r="A64" s="60"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -26159,7 +26232,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="61"/>
+      <c r="A65" s="60"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -26177,7 +26250,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="61"/>
+      <c r="A66" s="60"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -26195,7 +26268,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="61"/>
+      <c r="A67" s="60"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -26213,7 +26286,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="61"/>
+      <c r="A68" s="60"/>
       <c r="B68" s="56" t="s">
         <v>444</v>
       </c>
@@ -26233,7 +26306,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="61"/>
+      <c r="A69" s="60"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -26251,7 +26324,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="61"/>
+      <c r="A70" s="60"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -26263,7 +26336,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="61"/>
+      <c r="A71" s="60"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -26275,7 +26348,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="61"/>
+      <c r="A72" s="60"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -26286,7 +26359,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="61"/>
+      <c r="A73" s="60"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -26297,7 +26370,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="61"/>
+      <c r="A74" s="60"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -26308,7 +26381,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="61"/>
+      <c r="A75" s="60"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -26319,7 +26392,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="61"/>
+      <c r="A76" s="60"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -26330,7 +26403,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="61" t="s">
+      <c r="A77" s="60" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -26351,7 +26424,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="61"/>
+      <c r="A78" s="60"/>
       <c r="B78" s="51"/>
       <c r="C78" s="51"/>
       <c r="D78" s="52"/>
@@ -26369,7 +26442,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="61"/>
+      <c r="A79" s="60"/>
       <c r="B79" s="51"/>
       <c r="C79" s="51"/>
       <c r="D79" s="52"/>
@@ -26387,7 +26460,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="61"/>
+      <c r="A80" s="60"/>
       <c r="B80" s="51"/>
       <c r="C80" s="51"/>
       <c r="D80" s="52"/>
@@ -26405,7 +26478,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="61"/>
+      <c r="A81" s="60"/>
       <c r="B81" s="51"/>
       <c r="C81" s="51"/>
       <c r="D81" s="52"/>
@@ -26423,7 +26496,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="61"/>
+      <c r="A82" s="60"/>
       <c r="B82" s="51"/>
       <c r="C82" s="51"/>
       <c r="D82" s="52"/>
@@ -26441,7 +26514,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="61"/>
+      <c r="A83" s="60"/>
       <c r="B83" s="51"/>
       <c r="C83" s="51"/>
       <c r="D83" s="52"/>
@@ -26459,7 +26532,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="61"/>
+      <c r="A84" s="60"/>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
@@ -26477,7 +26550,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="61"/>
+      <c r="A85" s="60"/>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
       <c r="D85" s="52"/>
@@ -26489,7 +26562,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="61"/>
+      <c r="A86" s="60"/>
       <c r="B86" s="51"/>
       <c r="C86" s="51"/>
       <c r="D86" s="52"/>
@@ -26501,7 +26574,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="61"/>
+      <c r="A87" s="60"/>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
       <c r="D87" s="52"/>
@@ -26512,7 +26585,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="61"/>
+      <c r="A88" s="60"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -26523,7 +26596,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="61"/>
+      <c r="A89" s="60"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -26534,7 +26607,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="61"/>
+      <c r="A90" s="60"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -26545,7 +26618,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="64"/>
+      <c r="A91" s="61"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -26556,7 +26629,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="60" t="s">
+      <c r="A92" s="64" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -26583,7 +26656,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="61"/>
+      <c r="A93" s="60"/>
       <c r="B93" s="51" t="s">
         <v>398</v>
       </c>
@@ -26609,7 +26682,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="61"/>
+      <c r="A94" s="60"/>
       <c r="B94" s="56" t="s">
         <v>399</v>
       </c>
@@ -26635,7 +26708,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="61"/>
+      <c r="A95" s="60"/>
       <c r="B95" s="51" t="s">
         <v>400</v>
       </c>
@@ -26661,7 +26734,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="61"/>
+      <c r="A96" s="60"/>
       <c r="B96" s="51" t="s">
         <v>342</v>
       </c>
@@ -26687,7 +26760,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="61"/>
+      <c r="A97" s="60"/>
       <c r="B97" s="51" t="s">
         <v>401</v>
       </c>
@@ -26713,7 +26786,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="61"/>
+      <c r="A98" s="60"/>
       <c r="B98" s="51" t="s">
         <v>402</v>
       </c>
@@ -26739,7 +26812,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="61"/>
+      <c r="A99" s="60"/>
       <c r="B99" s="51" t="s">
         <v>403</v>
       </c>
@@ -26765,7 +26838,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="61"/>
+      <c r="A100" s="60"/>
       <c r="B100" s="51" t="s">
         <v>404</v>
       </c>
@@ -26785,7 +26858,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="61"/>
+      <c r="A101" s="60"/>
       <c r="B101" s="51" t="s">
         <v>405</v>
       </c>
@@ -26805,7 +26878,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="61"/>
+      <c r="A102" s="60"/>
       <c r="B102" s="51" t="s">
         <v>406</v>
       </c>
@@ -26824,7 +26897,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="61"/>
+      <c r="A103" s="60"/>
       <c r="B103" s="51" t="s">
         <v>407</v>
       </c>
@@ -26843,7 +26916,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="61"/>
+      <c r="A104" s="60"/>
       <c r="B104" s="51" t="s">
         <v>304</v>
       </c>
@@ -26862,7 +26935,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="61"/>
+      <c r="A105" s="60"/>
       <c r="B105" s="51" t="s">
         <v>408</v>
       </c>
@@ -27126,7 +27199,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="60" t="s">
+      <c r="A122" s="64" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -27153,7 +27226,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="61"/>
+      <c r="A123" s="60"/>
       <c r="B123" s="51" t="s">
         <v>446</v>
       </c>
@@ -27179,7 +27252,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="61"/>
+      <c r="A124" s="60"/>
       <c r="B124" s="51" t="s">
         <v>447</v>
       </c>
@@ -27205,7 +27278,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="61"/>
+      <c r="A125" s="60"/>
       <c r="B125" s="51" t="s">
         <v>448</v>
       </c>
@@ -27231,7 +27304,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="61"/>
+      <c r="A126" s="60"/>
       <c r="B126" s="58" t="s">
         <v>449</v>
       </c>
@@ -27353,7 +27426,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="61"/>
+      <c r="A131" s="60"/>
       <c r="B131" s="59" t="s">
         <v>454</v>
       </c>
@@ -27372,7 +27445,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="61"/>
+      <c r="A132" s="60"/>
       <c r="B132" s="51" t="s">
         <v>455</v>
       </c>
@@ -27390,7 +27463,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="61"/>
+      <c r="A133" s="60"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -27398,7 +27471,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="61"/>
+      <c r="A134" s="60"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -27406,7 +27479,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="61"/>
+      <c r="A135" s="60"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -27786,8 +27859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FEAF5B-97F7-432E-B793-D5FB1B024CCE}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J135" sqref="J135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27826,7 +27899,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="60" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51"/>
@@ -27854,7 +27927,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="61"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51" t="s">
         <v>288</v>
@@ -27881,7 +27954,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="61"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51" t="s">
         <v>285</v>
@@ -27908,7 +27981,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="61"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51" t="s">
         <v>295</v>
@@ -27935,7 +28008,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="61"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51" t="s">
         <v>285</v>
@@ -27962,7 +28035,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="61"/>
+      <c r="A7" s="60"/>
       <c r="C7" s="51" t="s">
         <v>288</v>
       </c>
@@ -27988,7 +28061,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="61"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51" t="s">
         <v>288</v>
@@ -28012,7 +28085,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="61"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
         <v>288</v>
@@ -28036,7 +28109,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="61"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51" t="s">
         <v>295</v>
@@ -28054,7 +28127,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="61"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
         <v>288</v>
@@ -28072,7 +28145,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="61"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
         <v>296</v>
@@ -28089,7 +28162,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="61"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -28106,7 +28179,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="61"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -28123,7 +28196,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="61"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -28140,7 +28213,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="61"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -28157,7 +28230,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="60" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51"/>
@@ -28182,7 +28255,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="61"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51" t="s">
         <v>288</v>
@@ -28206,7 +28279,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="61"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51" t="s">
         <v>295</v>
@@ -28230,7 +28303,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="61"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51" t="s">
         <v>288</v>
@@ -28254,7 +28327,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="61"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51" t="s">
         <v>295</v>
@@ -28278,7 +28351,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="61"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51" t="s">
         <v>288</v>
@@ -28302,7 +28375,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="61"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
@@ -28317,7 +28390,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="61"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
@@ -28332,7 +28405,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="61"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -28341,7 +28414,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="61"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -28353,7 +28426,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="61"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -28364,7 +28437,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="61"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -28375,7 +28448,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="61"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -28386,7 +28459,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="61"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -28397,7 +28470,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="61"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -28408,7 +28481,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="60" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51"/>
@@ -28427,7 +28500,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="61"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -28445,7 +28518,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="61"/>
+      <c r="A34" s="60"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -28463,7 +28536,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="61"/>
+      <c r="A35" s="60"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="52"/>
@@ -28481,7 +28554,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="61"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -28499,7 +28572,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="61"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
       <c r="D37" s="52"/>
@@ -28517,7 +28590,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="61"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -28535,7 +28608,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="61"/>
+      <c r="A39" s="60"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -28553,7 +28626,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="61"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -28565,7 +28638,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="61"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -28577,7 +28650,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="61"/>
+      <c r="A42" s="60"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -28588,7 +28661,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="61"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -28599,7 +28672,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="61"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -28610,7 +28683,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="61"/>
+      <c r="A45" s="60"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -28888,7 +28961,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="60" t="s">
+      <c r="A62" s="64" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -28907,7 +28980,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="61"/>
+      <c r="A63" s="60"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -28924,7 +28997,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="61"/>
+      <c r="A64" s="60"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -28942,7 +29015,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="61"/>
+      <c r="A65" s="60"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -28960,7 +29033,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="61"/>
+      <c r="A66" s="60"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -28978,7 +29051,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="61"/>
+      <c r="A67" s="60"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -28996,7 +29069,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="61"/>
+      <c r="A68" s="60"/>
       <c r="B68" s="56"/>
       <c r="C68" s="51"/>
       <c r="D68" s="52"/>
@@ -29014,7 +29087,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="61"/>
+      <c r="A69" s="60"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -29032,7 +29105,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="61"/>
+      <c r="A70" s="60"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -29044,7 +29117,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="61"/>
+      <c r="A71" s="60"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -29056,7 +29129,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="61"/>
+      <c r="A72" s="60"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -29067,7 +29140,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="61"/>
+      <c r="A73" s="60"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -29078,7 +29151,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="61"/>
+      <c r="A74" s="60"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -29089,7 +29162,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="61"/>
+      <c r="A75" s="60"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -29100,7 +29173,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="61"/>
+      <c r="A76" s="60"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -29111,7 +29184,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="61" t="s">
+      <c r="A77" s="60" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -29138,7 +29211,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="61"/>
+      <c r="A78" s="60"/>
       <c r="B78" s="56" t="s">
         <v>462</v>
       </c>
@@ -29164,7 +29237,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="61"/>
+      <c r="A79" s="60"/>
       <c r="B79" s="51" t="s">
         <v>463</v>
       </c>
@@ -29190,7 +29263,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="61"/>
+      <c r="A80" s="60"/>
       <c r="B80" s="51" t="s">
         <v>464</v>
       </c>
@@ -29216,7 +29289,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="61"/>
+      <c r="A81" s="60"/>
       <c r="B81" s="51" t="s">
         <v>465</v>
       </c>
@@ -29242,7 +29315,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="61"/>
+      <c r="A82" s="60"/>
       <c r="B82" s="51" t="s">
         <v>329</v>
       </c>
@@ -29268,7 +29341,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="61"/>
+      <c r="A83" s="60"/>
       <c r="B83" s="56" t="s">
         <v>466</v>
       </c>
@@ -29294,7 +29367,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="61"/>
+      <c r="A84" s="60"/>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
@@ -29312,7 +29385,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="61"/>
+      <c r="A85" s="60"/>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
       <c r="D85" s="52"/>
@@ -29324,7 +29397,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="61"/>
+      <c r="A86" s="60"/>
       <c r="B86" s="51"/>
       <c r="C86" s="51"/>
       <c r="D86" s="52"/>
@@ -29336,7 +29409,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="61"/>
+      <c r="A87" s="60"/>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
       <c r="D87" s="52"/>
@@ -29347,7 +29420,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="61"/>
+      <c r="A88" s="60"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -29358,7 +29431,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="61"/>
+      <c r="A89" s="60"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -29369,7 +29442,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="61"/>
+      <c r="A90" s="60"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -29380,7 +29453,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="64"/>
+      <c r="A91" s="61"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -29391,7 +29464,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="60" t="s">
+      <c r="A92" s="64" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51"/>
@@ -29416,7 +29489,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="61"/>
+      <c r="A93" s="60"/>
       <c r="B93" s="51"/>
       <c r="C93" s="51" t="s">
         <v>288</v>
@@ -29440,7 +29513,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="61"/>
+      <c r="A94" s="60"/>
       <c r="B94" s="56"/>
       <c r="C94" s="51" t="s">
         <v>288</v>
@@ -29464,7 +29537,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="61"/>
+      <c r="A95" s="60"/>
       <c r="B95" s="51"/>
       <c r="C95" s="51" t="s">
         <v>293</v>
@@ -29488,7 +29561,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="61"/>
+      <c r="A96" s="60"/>
       <c r="B96" s="51"/>
       <c r="C96" s="51" t="s">
         <v>295</v>
@@ -29512,7 +29585,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="61"/>
+      <c r="A97" s="60"/>
       <c r="B97" s="51"/>
       <c r="C97" s="51" t="s">
         <v>288</v>
@@ -29536,7 +29609,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="61"/>
+      <c r="A98" s="60"/>
       <c r="B98" s="51"/>
       <c r="C98" s="51" t="s">
         <v>285</v>
@@ -29560,7 +29633,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="61"/>
+      <c r="A99" s="60"/>
       <c r="B99" s="51"/>
       <c r="C99" s="51" t="s">
         <v>290</v>
@@ -29584,7 +29657,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="61"/>
+      <c r="A100" s="60"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51" t="s">
         <v>288</v>
@@ -29602,7 +29675,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="61"/>
+      <c r="A101" s="60"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>295</v>
@@ -29620,7 +29693,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="61"/>
+      <c r="A102" s="60"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>288</v>
@@ -29637,7 +29710,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="61"/>
+      <c r="A103" s="60"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -29654,7 +29727,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="61"/>
+      <c r="A104" s="60"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -29671,7 +29744,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="61"/>
+      <c r="A105" s="60"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -29929,7 +30002,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="60" t="s">
+      <c r="A122" s="64" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51"/>
@@ -29954,7 +30027,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="61"/>
+      <c r="A123" s="60"/>
       <c r="B123" s="51"/>
       <c r="C123" s="51" t="s">
         <v>295</v>
@@ -29978,7 +30051,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="61"/>
+      <c r="A124" s="60"/>
       <c r="B124" s="51"/>
       <c r="C124" s="51" t="s">
         <v>288</v>
@@ -30002,7 +30075,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="61"/>
+      <c r="A125" s="60"/>
       <c r="B125" s="51"/>
       <c r="C125" s="51" t="s">
         <v>295</v>
@@ -30026,7 +30099,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="61"/>
+      <c r="A126" s="60"/>
       <c r="B126" s="58"/>
       <c r="C126" s="51" t="s">
         <v>288</v>
@@ -30138,7 +30211,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="61"/>
+      <c r="A131" s="60"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51" t="s">
         <v>288</v>
@@ -30155,7 +30228,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="61"/>
+      <c r="A132" s="60"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51" t="s">
         <v>288</v>
@@ -30171,7 +30244,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="61"/>
+      <c r="A133" s="60"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -30179,7 +30252,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="61"/>
+      <c r="A134" s="60"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -30187,7 +30260,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="61"/>
+      <c r="A135" s="60"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -30206,7 +30279,9 @@
       <c r="A137" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="B137" s="55"/>
+      <c r="B137" s="55" t="s">
+        <v>467</v>
+      </c>
       <c r="C137" s="51" t="s">
         <v>288</v>
       </c>
@@ -30229,7 +30304,9 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="63"/>
-      <c r="B138" s="55"/>
+      <c r="B138" s="55" t="s">
+        <v>468</v>
+      </c>
       <c r="C138" s="51" t="s">
         <v>295</v>
       </c>
@@ -30248,14 +30325,16 @@
       </c>
       <c r="I138" s="52">
         <f>SUMIFS(F137:F151, C137:C151,H138)</f>
-        <v>0.47916666666666652</v>
+        <v>0.31249999999999994</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="63"/>
-      <c r="B139" s="55"/>
+      <c r="B139" s="55" t="s">
+        <v>469</v>
+      </c>
       <c r="C139" s="51" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D139" s="52">
         <v>0.47916666666666669</v>
@@ -30277,7 +30356,9 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="63"/>
-      <c r="B140" s="55"/>
+      <c r="B140" s="55" t="s">
+        <v>470</v>
+      </c>
       <c r="C140" s="51" t="s">
         <v>295</v>
       </c>
@@ -30296,12 +30377,14 @@
       </c>
       <c r="I140" s="52">
         <f>SUMIFS(F137:F151, C137:C151,H140)</f>
-        <v>0</v>
+        <v>0.12499999999999994</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="63"/>
-      <c r="B141" s="55"/>
+      <c r="B141" s="55" t="s">
+        <v>471</v>
+      </c>
       <c r="C141" s="51" t="s">
         <v>288</v>
       </c>
@@ -30309,11 +30392,11 @@
         <v>0.5625</v>
       </c>
       <c r="E141" s="52">
-        <v>0.72916666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="F141" s="52">
         <f t="shared" si="4"/>
-        <v>0.16666666666666663</v>
+        <v>0.1875</v>
       </c>
       <c r="H141" s="53" t="s">
         <v>293</v>
@@ -30325,9 +30408,11 @@
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="63"/>
-      <c r="B142" s="55"/>
+      <c r="B142" s="55" t="s">
+        <v>472</v>
+      </c>
       <c r="C142" s="51" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D142" s="52">
         <v>0.77083333333333337</v>
@@ -30349,7 +30434,9 @@
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="63"/>
-      <c r="B143" s="55"/>
+      <c r="B143" s="55" t="s">
+        <v>473</v>
+      </c>
       <c r="C143" s="51" t="s">
         <v>295</v>
       </c>
@@ -30368,12 +30455,14 @@
       </c>
       <c r="I143" s="52">
         <f>SUMIFS(F137:F151, C137:C151,H143)</f>
-        <v>8.333333333333337E-2</v>
+        <v>0.10416666666666674</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="63"/>
-      <c r="B144" s="51"/>
+      <c r="B144" s="58" t="s">
+        <v>474</v>
+      </c>
       <c r="C144" s="51" t="s">
         <v>288</v>
       </c>
@@ -30381,29 +30470,37 @@
         <v>0.875</v>
       </c>
       <c r="E144" s="52">
-        <v>0.97916666666666663</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="F144" s="52">
         <f t="shared" si="4"/>
-        <v>0.10416666666666663</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H144" s="48" t="s">
         <v>300</v>
       </c>
       <c r="I144" s="49">
         <f>SUM(I138:I143)</f>
-        <v>0.56249999999999989</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="63"/>
-      <c r="B145" s="56"/>
-      <c r="C145" s="51"/>
-      <c r="D145" s="52"/>
-      <c r="E145" s="52"/>
+      <c r="A145" s="66"/>
+      <c r="B145" s="57" t="s">
+        <v>475</v>
+      </c>
+      <c r="C145" s="55" t="s">
+        <v>295</v>
+      </c>
+      <c r="D145" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="E145" s="52">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="F145" s="52">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="I145" s="54"/>
     </row>
@@ -30551,8 +30648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC0228F-0EB8-4F43-9E8D-C30BD6499302}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="L82" sqref="L82"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="I153" sqref="I153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30591,7 +30688,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="60" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51"/>
@@ -30619,7 +30716,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="61"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51" t="s">
         <v>288</v>
@@ -30646,7 +30743,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="61"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51" t="s">
         <v>285</v>
@@ -30673,7 +30770,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="61"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51" t="s">
         <v>295</v>
@@ -30700,7 +30797,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="61"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51" t="s">
         <v>285</v>
@@ -30727,7 +30824,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="61"/>
+      <c r="A7" s="60"/>
       <c r="C7" s="51" t="s">
         <v>288</v>
       </c>
@@ -30753,7 +30850,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="61"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51" t="s">
         <v>288</v>
@@ -30777,7 +30874,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="61"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
         <v>288</v>
@@ -30801,7 +30898,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="61"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51" t="s">
         <v>295</v>
@@ -30819,7 +30916,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="61"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
         <v>288</v>
@@ -30837,7 +30934,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="61"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
         <v>296</v>
@@ -30854,7 +30951,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="61"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -30871,7 +30968,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="61"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -30888,7 +30985,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="61"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -30905,7 +31002,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="61"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -30922,7 +31019,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="60" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51"/>
@@ -30947,7 +31044,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="61"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51" t="s">
         <v>288</v>
@@ -30971,7 +31068,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="61"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51" t="s">
         <v>295</v>
@@ -30995,7 +31092,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="61"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51" t="s">
         <v>288</v>
@@ -31019,7 +31116,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="61"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51" t="s">
         <v>295</v>
@@ -31043,7 +31140,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="61"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51" t="s">
         <v>288</v>
@@ -31067,7 +31164,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="61"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
@@ -31082,7 +31179,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="61"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
@@ -31097,7 +31194,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="61"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -31106,7 +31203,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="61"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -31118,7 +31215,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="61"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -31129,7 +31226,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="61"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -31140,7 +31237,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="61"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -31151,7 +31248,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="61"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -31162,7 +31259,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="61"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -31173,7 +31270,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="60" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51"/>
@@ -31192,7 +31289,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="61"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -31210,7 +31307,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="61"/>
+      <c r="A34" s="60"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -31228,7 +31325,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="61"/>
+      <c r="A35" s="60"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="52"/>
@@ -31246,7 +31343,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="61"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -31264,7 +31361,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="61"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
       <c r="D37" s="52"/>
@@ -31282,7 +31379,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="61"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -31300,7 +31397,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="61"/>
+      <c r="A39" s="60"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -31318,7 +31415,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="61"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -31330,7 +31427,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="61"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -31342,7 +31439,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="61"/>
+      <c r="A42" s="60"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -31353,7 +31450,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="61"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -31364,7 +31461,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="61"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -31375,7 +31472,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="61"/>
+      <c r="A45" s="60"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -31653,7 +31750,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="60" t="s">
+      <c r="A62" s="64" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -31672,7 +31769,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="61"/>
+      <c r="A63" s="60"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -31689,7 +31786,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="61"/>
+      <c r="A64" s="60"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -31707,7 +31804,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="61"/>
+      <c r="A65" s="60"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -31725,7 +31822,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="61"/>
+      <c r="A66" s="60"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -31743,7 +31840,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="61"/>
+      <c r="A67" s="60"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -31761,7 +31858,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="61"/>
+      <c r="A68" s="60"/>
       <c r="B68" s="56"/>
       <c r="C68" s="51"/>
       <c r="D68" s="52"/>
@@ -31779,7 +31876,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="61"/>
+      <c r="A69" s="60"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -31797,7 +31894,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="61"/>
+      <c r="A70" s="60"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -31809,7 +31906,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="61"/>
+      <c r="A71" s="60"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -31821,7 +31918,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="61"/>
+      <c r="A72" s="60"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -31832,7 +31929,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="61"/>
+      <c r="A73" s="60"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -31843,7 +31940,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="61"/>
+      <c r="A74" s="60"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -31854,7 +31951,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="61"/>
+      <c r="A75" s="60"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -31865,7 +31962,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="61"/>
+      <c r="A76" s="60"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -31876,11 +31973,11 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="61" t="s">
+      <c r="A77" s="60" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="C77" s="51" t="s">
         <v>288</v>
@@ -31903,9 +32000,9 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="61"/>
+      <c r="A78" s="60"/>
       <c r="B78" s="51" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="C78" s="51" t="s">
         <v>288</v>
@@ -31929,9 +32026,9 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="61"/>
+      <c r="A79" s="60"/>
       <c r="B79" s="51" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="C79" s="51" t="s">
         <v>295</v>
@@ -31955,9 +32052,9 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="61"/>
+      <c r="A80" s="60"/>
       <c r="B80" s="51" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="C80" s="51" t="s">
         <v>288</v>
@@ -31981,9 +32078,9 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="61"/>
+      <c r="A81" s="60"/>
       <c r="B81" s="51" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="C81" s="51" t="s">
         <v>288</v>
@@ -32007,9 +32104,9 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="61"/>
+      <c r="A82" s="60"/>
       <c r="B82" s="51" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="C82" s="51" t="s">
         <v>288</v>
@@ -32033,9 +32130,9 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="61"/>
+      <c r="A83" s="60"/>
       <c r="B83" s="51" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="C83" s="51" t="s">
         <v>285</v>
@@ -32059,9 +32156,9 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="61"/>
+      <c r="A84" s="60"/>
       <c r="B84" s="51" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="C84" s="51" t="s">
         <v>290</v>
@@ -32085,9 +32182,9 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="61"/>
+      <c r="A85" s="60"/>
       <c r="B85" s="51" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="C85" s="51" t="s">
         <v>295</v>
@@ -32105,9 +32202,9 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="61"/>
+      <c r="A86" s="60"/>
       <c r="B86" s="51" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="C86" s="51" t="s">
         <v>285</v>
@@ -32125,9 +32222,9 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="61"/>
+      <c r="A87" s="60"/>
       <c r="B87" s="51" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="C87" s="51" t="s">
         <v>288</v>
@@ -32144,9 +32241,9 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="61"/>
+      <c r="A88" s="60"/>
       <c r="B88" s="51" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="C88" s="51" t="s">
         <v>288</v>
@@ -32163,7 +32260,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="61"/>
+      <c r="A89" s="60"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -32174,7 +32271,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="61"/>
+      <c r="A90" s="60"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -32185,7 +32282,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="64"/>
+      <c r="A91" s="61"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -32196,7 +32293,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="60" t="s">
+      <c r="A92" s="64" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51"/>
@@ -32221,7 +32318,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="61"/>
+      <c r="A93" s="60"/>
       <c r="B93" s="51"/>
       <c r="C93" s="51" t="s">
         <v>288</v>
@@ -32245,7 +32342,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="61"/>
+      <c r="A94" s="60"/>
       <c r="B94" s="56"/>
       <c r="C94" s="51" t="s">
         <v>288</v>
@@ -32269,7 +32366,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="61"/>
+      <c r="A95" s="60"/>
       <c r="B95" s="51"/>
       <c r="C95" s="51" t="s">
         <v>293</v>
@@ -32293,7 +32390,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="61"/>
+      <c r="A96" s="60"/>
       <c r="B96" s="51"/>
       <c r="C96" s="51" t="s">
         <v>295</v>
@@ -32317,7 +32414,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="61"/>
+      <c r="A97" s="60"/>
       <c r="B97" s="51"/>
       <c r="C97" s="51" t="s">
         <v>288</v>
@@ -32341,7 +32438,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="61"/>
+      <c r="A98" s="60"/>
       <c r="B98" s="51"/>
       <c r="C98" s="51" t="s">
         <v>285</v>
@@ -32365,7 +32462,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="61"/>
+      <c r="A99" s="60"/>
       <c r="B99" s="51"/>
       <c r="C99" s="51" t="s">
         <v>290</v>
@@ -32389,7 +32486,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="61"/>
+      <c r="A100" s="60"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51" t="s">
         <v>288</v>
@@ -32407,7 +32504,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="61"/>
+      <c r="A101" s="60"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>295</v>
@@ -32425,7 +32522,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="61"/>
+      <c r="A102" s="60"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>288</v>
@@ -32442,7 +32539,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="61"/>
+      <c r="A103" s="60"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -32459,7 +32556,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="61"/>
+      <c r="A104" s="60"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -32476,7 +32573,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="61"/>
+      <c r="A105" s="60"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -32734,7 +32831,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="60" t="s">
+      <c r="A122" s="64" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51"/>
@@ -32759,7 +32856,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="61"/>
+      <c r="A123" s="60"/>
       <c r="B123" s="51"/>
       <c r="C123" s="51" t="s">
         <v>295</v>
@@ -32783,7 +32880,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="61"/>
+      <c r="A124" s="60"/>
       <c r="B124" s="51"/>
       <c r="C124" s="51" t="s">
         <v>288</v>
@@ -32807,7 +32904,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="61"/>
+      <c r="A125" s="60"/>
       <c r="B125" s="51"/>
       <c r="C125" s="51" t="s">
         <v>295</v>
@@ -32831,7 +32928,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="61"/>
+      <c r="A126" s="60"/>
       <c r="B126" s="58"/>
       <c r="C126" s="51" t="s">
         <v>288</v>
@@ -32943,7 +33040,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="61"/>
+      <c r="A131" s="60"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51" t="s">
         <v>288</v>
@@ -32960,7 +33057,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="61"/>
+      <c r="A132" s="60"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51" t="s">
         <v>288</v>
@@ -32976,7 +33073,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="61"/>
+      <c r="A133" s="60"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -32984,7 +33081,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="61"/>
+      <c r="A134" s="60"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -32992,7 +33089,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="61"/>
+      <c r="A135" s="60"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -33011,15 +33108,17 @@
       <c r="A137" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="B137" s="55"/>
+      <c r="B137" s="51" t="s">
+        <v>488</v>
+      </c>
       <c r="C137" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D137" s="52">
-        <v>0.375</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="E137" s="52">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="F137" s="52">
         <f t="shared" ref="F137:F151" si="4">E137-D137</f>
@@ -33034,43 +33133,47 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="63"/>
-      <c r="B138" s="55"/>
+      <c r="B138" s="51" t="s">
+        <v>478</v>
+      </c>
       <c r="C138" s="51" t="s">
         <v>295</v>
       </c>
       <c r="D138" s="52">
+        <v>0.4375</v>
+      </c>
+      <c r="E138" s="52">
         <v>0.45833333333333331</v>
-      </c>
-      <c r="E138" s="52">
-        <v>0.47916666666666669</v>
       </c>
       <c r="F138" s="52">
         <f t="shared" si="4"/>
-        <v>2.083333333333337E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H138" s="53" t="s">
         <v>288</v>
       </c>
       <c r="I138" s="52">
         <f>SUMIFS(F137:F151, C137:C151,H138)</f>
-        <v>0.47916666666666652</v>
+        <v>0.29166666666666663</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="63"/>
-      <c r="B139" s="55"/>
+      <c r="B139" s="51" t="s">
+        <v>489</v>
+      </c>
       <c r="C139" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D139" s="52">
-        <v>0.47916666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E139" s="52">
-        <v>0.53125</v>
+        <v>0.5</v>
       </c>
       <c r="F139" s="52">
         <f t="shared" si="4"/>
-        <v>5.2083333333333315E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H139" s="53" t="s">
         <v>285</v>
@@ -33082,15 +33185,17 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="63"/>
-      <c r="B140" s="55"/>
+      <c r="B140" s="51" t="s">
+        <v>490</v>
+      </c>
       <c r="C140" s="51" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D140" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="E140" s="52">
         <v>0.53125</v>
-      </c>
-      <c r="E140" s="52">
-        <v>0.5625</v>
       </c>
       <c r="F140" s="52">
         <f t="shared" si="4"/>
@@ -33101,24 +33206,26 @@
       </c>
       <c r="I140" s="52">
         <f>SUMIFS(F137:F151, C137:C151,H140)</f>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="63"/>
-      <c r="B141" s="55"/>
+      <c r="B141" s="51" t="s">
+        <v>491</v>
+      </c>
       <c r="C141" s="51" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D141" s="52">
-        <v>0.5625</v>
+        <v>0.53125</v>
       </c>
       <c r="E141" s="52">
-        <v>0.72916666666666663</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="F141" s="52">
         <f t="shared" si="4"/>
-        <v>0.16666666666666663</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H141" s="53" t="s">
         <v>293</v>
@@ -33130,15 +33237,17 @@
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="63"/>
-      <c r="B142" s="55"/>
+      <c r="B142" s="51" t="s">
+        <v>492</v>
+      </c>
       <c r="C142" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D142" s="52">
-        <v>0.77083333333333337</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="E142" s="52">
-        <v>0.84375</v>
+        <v>0.625</v>
       </c>
       <c r="F142" s="52">
         <f t="shared" si="4"/>
@@ -33154,79 +33263,99 @@
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="63"/>
-      <c r="B143" s="55"/>
+      <c r="B143" s="51" t="s">
+        <v>484</v>
+      </c>
       <c r="C143" s="51" t="s">
         <v>295</v>
       </c>
       <c r="D143" s="52">
-        <v>0.84375</v>
+        <v>0.625</v>
       </c>
       <c r="E143" s="52">
-        <v>0.875</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F143" s="52">
         <f t="shared" si="4"/>
-        <v>3.125E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H143" s="53" t="s">
         <v>295</v>
       </c>
       <c r="I143" s="52">
         <f>SUMIFS(F137:F151, C137:C151,H143)</f>
-        <v>8.333333333333337E-2</v>
+        <v>6.2500000000000056E-2</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="63"/>
-      <c r="B144" s="51"/>
+      <c r="B144" s="51" t="s">
+        <v>493</v>
+      </c>
       <c r="C144" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D144" s="52">
-        <v>0.875</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E144" s="52">
-        <v>0.97916666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F144" s="52">
         <f t="shared" si="4"/>
-        <v>0.10416666666666663</v>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="H144" s="48" t="s">
         <v>300</v>
       </c>
       <c r="I144" s="49">
         <f>SUM(I138:I143)</f>
-        <v>0.56249999999999989</v>
+        <v>0.43750000000000006</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="63"/>
-      <c r="B145" s="56"/>
-      <c r="C145" s="51"/>
-      <c r="D145" s="52"/>
-      <c r="E145" s="52"/>
+      <c r="B145" s="51" t="s">
+        <v>494</v>
+      </c>
+      <c r="C145" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D145" s="52">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E145" s="52">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F145" s="52">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="I145" s="54"/>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="63"/>
-      <c r="B146" s="56"/>
-      <c r="C146" s="51"/>
-      <c r="D146" s="52"/>
-      <c r="E146" s="52"/>
+      <c r="B146" s="51" t="s">
+        <v>495</v>
+      </c>
+      <c r="C146" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="D146" s="52">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E146" s="52">
+        <v>0.875</v>
+      </c>
       <c r="F146" s="52">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="I146" s="54"/>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="63"/>
-      <c r="B147" s="55"/>
+      <c r="B147" s="51"/>
       <c r="C147" s="51"/>
       <c r="D147" s="52"/>
       <c r="E147" s="52"/>
@@ -33237,7 +33366,7 @@
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="63"/>
-      <c r="B148" s="55"/>
+      <c r="B148" s="51"/>
       <c r="C148" s="51"/>
       <c r="D148" s="52"/>
       <c r="E148" s="52"/>
@@ -33356,8 +33485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CFAAE3-2D0E-4849-B0C4-827EFC465E1B}">
   <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33396,7 +33525,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="60" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51"/>
@@ -33424,7 +33553,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="61"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51" t="s">
         <v>288</v>
@@ -33451,7 +33580,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="61"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51" t="s">
         <v>285</v>
@@ -33478,7 +33607,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="61"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51" t="s">
         <v>295</v>
@@ -33505,7 +33634,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="61"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51" t="s">
         <v>285</v>
@@ -33532,7 +33661,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="61"/>
+      <c r="A7" s="60"/>
       <c r="C7" s="51" t="s">
         <v>288</v>
       </c>
@@ -33558,7 +33687,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="61"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51" t="s">
         <v>288</v>
@@ -33582,7 +33711,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="61"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
         <v>288</v>
@@ -33606,7 +33735,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="61"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51" t="s">
         <v>295</v>
@@ -33624,7 +33753,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="61"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
         <v>288</v>
@@ -33642,7 +33771,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="61"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
         <v>296</v>
@@ -33659,7 +33788,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="61"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -33676,7 +33805,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="61"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -33693,7 +33822,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="61"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -33710,7 +33839,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="61"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -33727,7 +33856,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="60" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51"/>
@@ -33752,7 +33881,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="61"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51" t="s">
         <v>288</v>
@@ -33776,7 +33905,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="61"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51" t="s">
         <v>295</v>
@@ -33800,7 +33929,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="61"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51" t="s">
         <v>288</v>
@@ -33824,7 +33953,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="61"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51" t="s">
         <v>295</v>
@@ -33848,7 +33977,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="61"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51" t="s">
         <v>288</v>
@@ -33872,7 +34001,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="61"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
@@ -33887,7 +34016,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="61"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
@@ -33902,7 +34031,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="61"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -33911,7 +34040,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="61"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -33923,7 +34052,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="61"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -33934,7 +34063,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="61"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -33945,7 +34074,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="61"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -33956,7 +34085,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="61"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -33967,7 +34096,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="61"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -33978,7 +34107,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="60" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51"/>
@@ -33997,7 +34126,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="61"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -34015,7 +34144,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="61"/>
+      <c r="A34" s="60"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -34033,7 +34162,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="61"/>
+      <c r="A35" s="60"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="52"/>
@@ -34051,7 +34180,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="61"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -34069,7 +34198,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="61"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
       <c r="D37" s="52"/>
@@ -34087,7 +34216,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="61"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -34105,7 +34234,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="61"/>
+      <c r="A39" s="60"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -34123,7 +34252,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="61"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -34135,7 +34264,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="61"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -34147,7 +34276,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="61"/>
+      <c r="A42" s="60"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -34158,7 +34287,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="61"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -34169,7 +34298,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="61"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -34180,7 +34309,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="61"/>
+      <c r="A45" s="60"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -34458,7 +34587,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="60" t="s">
+      <c r="A62" s="64" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -34477,7 +34606,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="61"/>
+      <c r="A63" s="60"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -34494,7 +34623,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="61"/>
+      <c r="A64" s="60"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -34512,7 +34641,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="61"/>
+      <c r="A65" s="60"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -34530,7 +34659,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="61"/>
+      <c r="A66" s="60"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -34548,7 +34677,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="61"/>
+      <c r="A67" s="60"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -34566,7 +34695,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="61"/>
+      <c r="A68" s="60"/>
       <c r="B68" s="56"/>
       <c r="C68" s="51"/>
       <c r="D68" s="52"/>
@@ -34584,7 +34713,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="61"/>
+      <c r="A69" s="60"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -34602,7 +34731,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="61"/>
+      <c r="A70" s="60"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -34614,7 +34743,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="61"/>
+      <c r="A71" s="60"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -34626,7 +34755,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="61"/>
+      <c r="A72" s="60"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -34637,7 +34766,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="61"/>
+      <c r="A73" s="60"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -34648,7 +34777,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="61"/>
+      <c r="A74" s="60"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -34659,7 +34788,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="61"/>
+      <c r="A75" s="60"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -34670,7 +34799,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="61"/>
+      <c r="A76" s="60"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -34681,11 +34810,11 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="61" t="s">
+      <c r="A77" s="60" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="C77" s="51" t="s">
         <v>288</v>
@@ -34708,9 +34837,9 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="61"/>
+      <c r="A78" s="60"/>
       <c r="B78" s="51" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="C78" s="51" t="s">
         <v>288</v>
@@ -34734,7 +34863,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="61"/>
+      <c r="A79" s="60"/>
       <c r="B79" s="51" t="s">
         <v>309</v>
       </c>
@@ -34760,9 +34889,9 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="61"/>
+      <c r="A80" s="60"/>
       <c r="B80" s="51" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="C80" s="51" t="s">
         <v>288</v>
@@ -34786,9 +34915,9 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="61"/>
+      <c r="A81" s="60"/>
       <c r="B81" s="51" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="C81" s="51" t="s">
         <v>285</v>
@@ -34812,9 +34941,9 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="61"/>
+      <c r="A82" s="60"/>
       <c r="B82" s="51" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="C82" s="51" t="s">
         <v>295</v>
@@ -34838,9 +34967,9 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="61"/>
+      <c r="A83" s="60"/>
       <c r="B83" s="51" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="C83" s="51" t="s">
         <v>288</v>
@@ -34864,9 +34993,9 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="61"/>
+      <c r="A84" s="60"/>
       <c r="B84" s="51" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="C84" s="51" t="s">
         <v>295</v>
@@ -34890,9 +35019,9 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="61"/>
+      <c r="A85" s="60"/>
       <c r="B85" s="51" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="C85" s="51" t="s">
         <v>288</v>
@@ -34910,9 +35039,9 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="61"/>
+      <c r="A86" s="60"/>
       <c r="B86" s="51" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="C86" s="51" t="s">
         <v>285</v>
@@ -34930,9 +35059,9 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="61"/>
+      <c r="A87" s="60"/>
       <c r="B87" s="51" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="C87" s="51" t="s">
         <v>288</v>
@@ -34950,7 +35079,7 @@
       <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="61"/>
+      <c r="A88" s="60"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -34961,7 +35090,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="61"/>
+      <c r="A89" s="60"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -34972,7 +35101,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="61"/>
+      <c r="A90" s="60"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -34983,7 +35112,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="61"/>
+      <c r="A91" s="60"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -34994,7 +35123,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="64"/>
+      <c r="A92" s="61"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -35005,7 +35134,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="60" t="s">
+      <c r="A93" s="64" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51"/>
@@ -35030,7 +35159,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="61"/>
+      <c r="A94" s="60"/>
       <c r="B94" s="51"/>
       <c r="C94" s="51" t="s">
         <v>288</v>
@@ -35054,7 +35183,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="61"/>
+      <c r="A95" s="60"/>
       <c r="B95" s="56"/>
       <c r="C95" s="51" t="s">
         <v>288</v>
@@ -35078,7 +35207,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="61"/>
+      <c r="A96" s="60"/>
       <c r="B96" s="51"/>
       <c r="C96" s="51" t="s">
         <v>293</v>
@@ -35102,7 +35231,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="61"/>
+      <c r="A97" s="60"/>
       <c r="B97" s="51"/>
       <c r="C97" s="51" t="s">
         <v>295</v>
@@ -35126,7 +35255,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="61"/>
+      <c r="A98" s="60"/>
       <c r="B98" s="51"/>
       <c r="C98" s="51" t="s">
         <v>288</v>
@@ -35150,7 +35279,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="61"/>
+      <c r="A99" s="60"/>
       <c r="B99" s="51"/>
       <c r="C99" s="51" t="s">
         <v>285</v>
@@ -35174,7 +35303,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="61"/>
+      <c r="A100" s="60"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51" t="s">
         <v>290</v>
@@ -35198,7 +35327,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="61"/>
+      <c r="A101" s="60"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>288</v>
@@ -35216,7 +35345,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="61"/>
+      <c r="A102" s="60"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>295</v>
@@ -35234,7 +35363,7 @@
       <c r="I102" s="54"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="61"/>
+      <c r="A103" s="60"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>288</v>
@@ -35251,7 +35380,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="61"/>
+      <c r="A104" s="60"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>296</v>
@@ -35268,7 +35397,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="61"/>
+      <c r="A105" s="60"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>295</v>
@@ -35285,7 +35414,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="61"/>
+      <c r="A106" s="60"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51" t="s">
         <v>288</v>
@@ -35543,7 +35672,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="60" t="s">
+      <c r="A123" s="64" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51"/>
@@ -35568,7 +35697,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="61"/>
+      <c r="A124" s="60"/>
       <c r="B124" s="51"/>
       <c r="C124" s="51" t="s">
         <v>295</v>
@@ -35592,7 +35721,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="61"/>
+      <c r="A125" s="60"/>
       <c r="B125" s="51"/>
       <c r="C125" s="51" t="s">
         <v>288</v>
@@ -35616,7 +35745,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="61"/>
+      <c r="A126" s="60"/>
       <c r="B126" s="51"/>
       <c r="C126" s="51" t="s">
         <v>295</v>
@@ -35640,7 +35769,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="61"/>
+      <c r="A127" s="60"/>
       <c r="B127" s="58"/>
       <c r="C127" s="51" t="s">
         <v>288</v>
@@ -35752,7 +35881,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="61"/>
+      <c r="A132" s="60"/>
       <c r="B132" s="59"/>
       <c r="C132" s="51" t="s">
         <v>288</v>
@@ -35769,7 +35898,7 @@
       <c r="I132" s="54"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="61"/>
+      <c r="A133" s="60"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51" t="s">
         <v>288</v>
@@ -35785,7 +35914,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="61"/>
+      <c r="A134" s="60"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -35793,7 +35922,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="61"/>
+      <c r="A135" s="60"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -35801,7 +35930,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="61"/>
+      <c r="A136" s="60"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -35820,7 +35949,9 @@
       <c r="A138" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="B138" s="55"/>
+      <c r="B138" s="55" t="s">
+        <v>505</v>
+      </c>
       <c r="C138" s="51" t="s">
         <v>288</v>
       </c>
@@ -35828,11 +35959,11 @@
         <v>0.375</v>
       </c>
       <c r="E138" s="52">
-        <v>0.45833333333333331</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="F138" s="52">
         <f t="shared" ref="F138:F152" si="4">E138-D138</f>
-        <v>8.3333333333333315E-2</v>
+        <v>5.555555555555558E-2</v>
       </c>
       <c r="H138" s="49" t="s">
         <v>286</v>
@@ -35843,43 +35974,47 @@
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="63"/>
-      <c r="B139" s="55"/>
+      <c r="B139" s="55" t="s">
+        <v>484</v>
+      </c>
       <c r="C139" s="51" t="s">
         <v>295</v>
       </c>
       <c r="D139" s="52">
-        <v>0.45833333333333331</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="E139" s="52">
-        <v>0.47916666666666669</v>
+        <v>0.44097222222222227</v>
       </c>
       <c r="F139" s="52">
         <f t="shared" si="4"/>
-        <v>2.083333333333337E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H139" s="53" t="s">
         <v>288</v>
       </c>
       <c r="I139" s="52">
         <f>SUMIFS(F138:F152, C138:C152,H139)</f>
-        <v>0.47916666666666652</v>
+        <v>0.36458333333333337</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="63"/>
-      <c r="B140" s="55"/>
+      <c r="B140" s="55" t="s">
+        <v>506</v>
+      </c>
       <c r="C140" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D140" s="52">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E140" s="52">
         <v>0.47916666666666669</v>
-      </c>
-      <c r="E140" s="52">
-        <v>0.53125</v>
       </c>
       <c r="F140" s="52">
         <f t="shared" si="4"/>
-        <v>5.2083333333333315E-2</v>
+        <v>3.819444444444442E-2</v>
       </c>
       <c r="H140" s="53" t="s">
         <v>285</v>
@@ -35891,43 +36026,47 @@
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="63"/>
-      <c r="B141" s="55"/>
+      <c r="B141" s="55" t="s">
+        <v>507</v>
+      </c>
       <c r="C141" s="51" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D141" s="52">
-        <v>0.53125</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E141" s="52">
-        <v>0.5625</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="F141" s="52">
         <f t="shared" si="4"/>
-        <v>3.125E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H141" s="53" t="s">
         <v>290</v>
       </c>
       <c r="I141" s="52">
         <f>SUMIFS(F138:F152, C138:C152,H141)</f>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="63"/>
-      <c r="B142" s="55"/>
+      <c r="B142" s="55" t="s">
+        <v>491</v>
+      </c>
       <c r="C142" s="51" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D142" s="52">
-        <v>0.5625</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E142" s="52">
-        <v>0.72916666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F142" s="52">
         <f t="shared" si="4"/>
-        <v>0.16666666666666663</v>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="H142" s="53" t="s">
         <v>293</v>
@@ -35939,19 +36078,21 @@
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="63"/>
-      <c r="B143" s="55"/>
+      <c r="B143" s="55" t="s">
+        <v>508</v>
+      </c>
       <c r="C143" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D143" s="52">
-        <v>0.77083333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E143" s="52">
-        <v>0.84375</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F143" s="52">
         <f t="shared" si="4"/>
-        <v>7.291666666666663E-2</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="H143" s="53" t="s">
         <v>296</v>
@@ -35963,61 +36104,73 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="63"/>
-      <c r="B144" s="55"/>
+      <c r="B144" s="55" t="s">
+        <v>509</v>
+      </c>
       <c r="C144" s="51" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D144" s="52">
-        <v>0.84375</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E144" s="52">
-        <v>0.875</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F144" s="52">
         <f t="shared" si="4"/>
-        <v>3.125E-2</v>
+        <v>0.125</v>
       </c>
       <c r="H144" s="53" t="s">
         <v>295</v>
       </c>
       <c r="I144" s="52">
         <f>SUMIFS(F138:F152, C138:C152,H144)</f>
-        <v>8.333333333333337E-2</v>
+        <v>5.2083333333333204E-2</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="63"/>
-      <c r="B145" s="51"/>
+      <c r="B145" s="58" t="s">
+        <v>484</v>
+      </c>
       <c r="C145" s="51" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D145" s="52">
-        <v>0.875</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E145" s="52">
-        <v>0.97916666666666663</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="F145" s="52">
         <f t="shared" si="4"/>
-        <v>0.10416666666666663</v>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="H145" s="48" t="s">
         <v>300</v>
       </c>
       <c r="I145" s="49">
         <f>SUM(I139:I144)</f>
-        <v>0.56249999999999989</v>
+        <v>0.45833333333333326</v>
       </c>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="63"/>
-      <c r="B146" s="56"/>
-      <c r="C146" s="51"/>
-      <c r="D146" s="52"/>
-      <c r="E146" s="52"/>
+      <c r="A146" s="66"/>
+      <c r="B146" s="67" t="s">
+        <v>510</v>
+      </c>
+      <c r="C146" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="D146" s="52">
+        <v>0.875</v>
+      </c>
+      <c r="E146" s="52">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="F146" s="52">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="I146" s="54"/>
     </row>

--- a/Process/Timesheet/TeamAlpha-Timesheet.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vinoth\GIT\TeamProject\Project\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89051A94-C230-4361-B097-C3E41A864711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B67BE921-FBF0-469E-A72C-151C19632791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19414" windowHeight="10303" firstSheet="22" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19414" windowHeight="10303" firstSheet="23" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 3(06-04-2022)" sheetId="40" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3222" uniqueCount="693">
   <si>
     <t>Column1</t>
   </si>
@@ -2537,6 +2537,33 @@
   </si>
   <si>
     <t>tried to integrate webapi and angular</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Filled Timesheet for 3 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> started Employee Availability service</t>
+  </si>
+  <si>
+    <t>Explored on CORS for angular integration</t>
+  </si>
+  <si>
+    <t>started working Employee availability entity</t>
+  </si>
+  <si>
+    <t>worked on availability service</t>
+  </si>
+  <si>
+    <t>worked on availability DAL</t>
+  </si>
+  <si>
+    <t>Angular session with saraswathi</t>
+  </si>
+  <si>
+    <t>Integreated Location and Pool Service with Drive service and tested the flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> worked on Today interviews, Upcoming</t>
   </si>
   <si>
     <t>Integrated webapi and angular</t>
@@ -3057,10 +3084,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3069,7 +3096,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -15777,7 +15804,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -15807,7 +15834,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="65"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="51" t="s">
         <v>289</v>
       </c>
@@ -15836,7 +15863,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="65"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="51" t="s">
         <v>291</v>
       </c>
@@ -15865,7 +15892,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="65"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="51" t="s">
         <v>292</v>
       </c>
@@ -15894,7 +15921,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="65"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="51" t="s">
         <v>294</v>
       </c>
@@ -15923,7 +15950,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="65"/>
+      <c r="A7" s="66"/>
       <c r="B7" t="s">
         <v>297</v>
       </c>
@@ -15952,7 +15979,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="65"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="51" t="s">
         <v>298</v>
       </c>
@@ -15978,7 +16005,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="65"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="51" t="s">
         <v>299</v>
       </c>
@@ -16004,7 +16031,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="65"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="51" t="s">
         <v>301</v>
       </c>
@@ -16024,7 +16051,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="65"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="51" t="s">
         <v>302</v>
       </c>
@@ -16044,7 +16071,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="65"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="51" t="s">
         <v>303</v>
       </c>
@@ -16063,7 +16090,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="65"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="51" t="s">
         <v>304</v>
       </c>
@@ -16082,7 +16109,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="65"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="51" t="s">
         <v>305</v>
       </c>
@@ -16101,7 +16128,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="65"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="51" t="s">
         <v>306</v>
       </c>
@@ -16120,7 +16147,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="65"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="52"/>
@@ -16131,7 +16158,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="66" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51"/>
@@ -16154,7 +16181,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="65"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="52">
@@ -16176,7 +16203,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="65"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="52">
@@ -16198,7 +16225,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="65"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
       <c r="D20" s="52">
@@ -16220,7 +16247,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="65"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="52">
@@ -16242,7 +16269,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="65"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="52">
@@ -16264,7 +16291,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="65"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="51" t="s">
         <v>73</v>
       </c>
@@ -16288,7 +16315,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="65"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52">
@@ -16310,7 +16337,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="65"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52">
@@ -16326,7 +16353,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="65"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -16338,7 +16365,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="65"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -16349,7 +16376,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="65"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -16360,7 +16387,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="65"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -16371,7 +16398,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="65"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -16382,7 +16409,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="65"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -16393,7 +16420,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="66" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -16420,7 +16447,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="65"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="51" t="s">
         <v>307</v>
       </c>
@@ -16446,7 +16473,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="65"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="51" t="s">
         <v>308</v>
       </c>
@@ -16472,7 +16499,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="65"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="51" t="s">
         <v>309</v>
       </c>
@@ -16498,7 +16525,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="65"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="51" t="s">
         <v>310</v>
       </c>
@@ -16524,7 +16551,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="65"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -16550,7 +16577,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="65"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="51" t="s">
         <v>312</v>
       </c>
@@ -16576,7 +16603,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="65"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="51" t="s">
         <v>313</v>
       </c>
@@ -16602,7 +16629,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="65"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="51" t="s">
         <v>314</v>
       </c>
@@ -16622,7 +16649,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="65"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="51" t="s">
         <v>312</v>
       </c>
@@ -16642,7 +16669,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="65"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="51" t="s">
         <v>315</v>
       </c>
@@ -16661,7 +16688,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="65"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="51" t="s">
         <v>309</v>
       </c>
@@ -16680,7 +16707,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="65"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="51" t="s">
         <v>316</v>
       </c>
@@ -16699,7 +16726,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="65"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -16945,7 +16972,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="69" t="s">
+      <c r="A62" s="65" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -16972,7 +16999,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="65"/>
+      <c r="A63" s="66"/>
       <c r="B63" s="51" t="s">
         <v>284</v>
       </c>
@@ -16997,7 +17024,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="65"/>
+      <c r="A64" s="66"/>
       <c r="B64" s="51" t="s">
         <v>318</v>
       </c>
@@ -17023,7 +17050,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="65"/>
+      <c r="A65" s="66"/>
       <c r="B65" s="51" t="s">
         <v>313</v>
       </c>
@@ -17049,7 +17076,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="65"/>
+      <c r="A66" s="66"/>
       <c r="B66" s="51" t="s">
         <v>319</v>
       </c>
@@ -17075,7 +17102,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="65"/>
+      <c r="A67" s="66"/>
       <c r="B67" s="51" t="s">
         <v>302</v>
       </c>
@@ -17101,7 +17128,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="65"/>
+      <c r="A68" s="66"/>
       <c r="B68" s="51" t="s">
         <v>304</v>
       </c>
@@ -17127,7 +17154,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="65"/>
+      <c r="A69" s="66"/>
       <c r="B69" s="51" t="s">
         <v>315</v>
       </c>
@@ -17153,7 +17180,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="65"/>
+      <c r="A70" s="66"/>
       <c r="B70" s="51" t="s">
         <v>320</v>
       </c>
@@ -17173,7 +17200,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="65"/>
+      <c r="A71" s="66"/>
       <c r="B71" s="51" t="s">
         <v>306</v>
       </c>
@@ -17193,7 +17220,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="65"/>
+      <c r="A72" s="66"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -17204,7 +17231,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="65"/>
+      <c r="A73" s="66"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -17215,7 +17242,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="65"/>
+      <c r="A74" s="66"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -17226,7 +17253,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="65"/>
+      <c r="A75" s="66"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -17237,7 +17264,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="65"/>
+      <c r="A76" s="66"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -17248,7 +17275,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="65" t="s">
+      <c r="A77" s="66" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -17275,7 +17302,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="65"/>
+      <c r="A78" s="66"/>
       <c r="B78" s="51" t="s">
         <v>322</v>
       </c>
@@ -17301,7 +17328,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="65"/>
+      <c r="A79" s="66"/>
       <c r="B79" s="51" t="s">
         <v>323</v>
       </c>
@@ -17327,7 +17354,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="65"/>
+      <c r="A80" s="66"/>
       <c r="B80" s="51" t="s">
         <v>324</v>
       </c>
@@ -17353,7 +17380,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="65"/>
+      <c r="A81" s="66"/>
       <c r="B81" s="51" t="s">
         <v>325</v>
       </c>
@@ -17379,7 +17406,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="65"/>
+      <c r="A82" s="66"/>
       <c r="B82" s="51" t="s">
         <v>326</v>
       </c>
@@ -17405,7 +17432,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="65"/>
+      <c r="A83" s="66"/>
       <c r="B83" s="51" t="s">
         <v>327</v>
       </c>
@@ -17431,7 +17458,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="65"/>
+      <c r="A84" s="66"/>
       <c r="B84" s="51" t="s">
         <v>328</v>
       </c>
@@ -17457,7 +17484,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="65"/>
+      <c r="A85" s="66"/>
       <c r="B85" s="51" t="s">
         <v>294</v>
       </c>
@@ -17477,7 +17504,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="65"/>
+      <c r="A86" s="66"/>
       <c r="B86" s="51" t="s">
         <v>329</v>
       </c>
@@ -17497,7 +17524,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="65"/>
+      <c r="A87" s="66"/>
       <c r="B87" s="51" t="s">
         <v>304</v>
       </c>
@@ -17516,7 +17543,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="65"/>
+      <c r="A88" s="66"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -17527,7 +17554,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="65"/>
+      <c r="A89" s="66"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -17538,7 +17565,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="65"/>
+      <c r="A90" s="66"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -17549,7 +17576,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="66"/>
+      <c r="A91" s="69"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -17560,7 +17587,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="69" t="s">
+      <c r="A92" s="65" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -17587,7 +17614,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="65"/>
+      <c r="A93" s="66"/>
       <c r="B93" s="51" t="s">
         <v>330</v>
       </c>
@@ -17613,7 +17640,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="65"/>
+      <c r="A94" s="66"/>
       <c r="B94" s="56" t="s">
         <v>331</v>
       </c>
@@ -17639,7 +17666,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="65"/>
+      <c r="A95" s="66"/>
       <c r="B95" s="51" t="s">
         <v>309</v>
       </c>
@@ -17665,7 +17692,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="65"/>
+      <c r="A96" s="66"/>
       <c r="B96" s="51" t="s">
         <v>332</v>
       </c>
@@ -17691,7 +17718,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="65"/>
+      <c r="A97" s="66"/>
       <c r="B97" s="51" t="s">
         <v>311</v>
       </c>
@@ -17717,7 +17744,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="65"/>
+      <c r="A98" s="66"/>
       <c r="B98" s="51" t="s">
         <v>313</v>
       </c>
@@ -17743,7 +17770,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="65"/>
+      <c r="A99" s="66"/>
       <c r="B99" s="51" t="s">
         <v>333</v>
       </c>
@@ -17769,7 +17796,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="65"/>
+      <c r="A100" s="66"/>
       <c r="B100" s="51" t="s">
         <v>334</v>
       </c>
@@ -17789,7 +17816,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="65"/>
+      <c r="A101" s="66"/>
       <c r="B101" s="51" t="s">
         <v>309</v>
       </c>
@@ -17809,7 +17836,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="65"/>
+      <c r="A102" s="66"/>
       <c r="B102" s="51" t="s">
         <v>316</v>
       </c>
@@ -17828,7 +17855,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="65"/>
+      <c r="A103" s="66"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -17836,7 +17863,7 @@
       <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="65"/>
+      <c r="A104" s="66"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
@@ -17844,7 +17871,7 @@
       <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="65"/>
+      <c r="A105" s="66"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -18172,7 +18199,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="69" t="s">
+      <c r="A122" s="65" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -18199,7 +18226,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="65"/>
+      <c r="A123" s="66"/>
       <c r="B123" s="51" t="s">
         <v>322</v>
       </c>
@@ -18225,7 +18252,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="65"/>
+      <c r="A124" s="66"/>
       <c r="B124" s="51" t="s">
         <v>294</v>
       </c>
@@ -18251,7 +18278,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="65"/>
+      <c r="A125" s="66"/>
       <c r="B125" s="51" t="s">
         <v>344</v>
       </c>
@@ -18277,7 +18304,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="65"/>
+      <c r="A126" s="66"/>
       <c r="B126" s="51" t="s">
         <v>329</v>
       </c>
@@ -18303,7 +18330,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="65"/>
+      <c r="A127" s="66"/>
       <c r="B127" s="56" t="s">
         <v>345</v>
       </c>
@@ -18329,7 +18356,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="65"/>
+      <c r="A128" s="66"/>
       <c r="B128" s="51" t="s">
         <v>346</v>
       </c>
@@ -18355,7 +18382,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="65"/>
+      <c r="A129" s="66"/>
       <c r="B129" s="56" t="s">
         <v>304</v>
       </c>
@@ -18381,7 +18408,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="65"/>
+      <c r="A130" s="66"/>
       <c r="B130" s="56" t="s">
         <v>304</v>
       </c>
@@ -18401,7 +18428,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="65"/>
+      <c r="A131" s="66"/>
       <c r="B131" s="51" t="s">
         <v>347</v>
       </c>
@@ -18421,7 +18448,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="65"/>
+      <c r="A132" s="66"/>
       <c r="B132" s="51" t="s">
         <v>348</v>
       </c>
@@ -18440,7 +18467,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="65"/>
+      <c r="A133" s="66"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -18451,7 +18478,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="65"/>
+      <c r="A134" s="66"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -18462,7 +18489,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="65"/>
+      <c r="A135" s="66"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -18788,7 +18815,7 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="69" t="s">
+      <c r="A152" s="65" t="s">
         <v>355</v>
       </c>
       <c r="B152" s="51" t="s">
@@ -18815,7 +18842,7 @@
       </c>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="65"/>
+      <c r="A153" s="66"/>
       <c r="B153" s="51" t="s">
         <v>357</v>
       </c>
@@ -18841,7 +18868,7 @@
       </c>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="65"/>
+      <c r="A154" s="66"/>
       <c r="B154" s="51" t="s">
         <v>341</v>
       </c>
@@ -18867,7 +18894,7 @@
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="65"/>
+      <c r="A155" s="66"/>
       <c r="B155" s="51" t="s">
         <v>357</v>
       </c>
@@ -18893,7 +18920,7 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="65"/>
+      <c r="A156" s="66"/>
       <c r="B156" s="51" t="s">
         <v>301</v>
       </c>
@@ -18919,7 +18946,7 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="65"/>
+      <c r="A157" s="66"/>
       <c r="B157" s="51" t="s">
         <v>294</v>
       </c>
@@ -18945,7 +18972,7 @@
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="65"/>
+      <c r="A158" s="66"/>
       <c r="B158" s="51" t="s">
         <v>304</v>
       </c>
@@ -18971,7 +18998,7 @@
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="65"/>
+      <c r="A159" s="66"/>
       <c r="B159" s="51" t="s">
         <v>358</v>
       </c>
@@ -18997,7 +19024,7 @@
       </c>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="65"/>
+      <c r="A160" s="66"/>
       <c r="B160" s="51" t="s">
         <v>359</v>
       </c>
@@ -19017,7 +19044,7 @@
       <c r="I160" s="54"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="65"/>
+      <c r="A161" s="66"/>
       <c r="B161" s="51"/>
       <c r="C161" s="51"/>
       <c r="D161" s="52"/>
@@ -19029,7 +19056,7 @@
       <c r="I161" s="54"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="65"/>
+      <c r="A162" s="66"/>
       <c r="B162" s="51"/>
       <c r="C162" s="51"/>
       <c r="D162" s="52"/>
@@ -19040,7 +19067,7 @@
       </c>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="65"/>
+      <c r="A163" s="66"/>
       <c r="B163" s="51"/>
       <c r="C163" s="51"/>
       <c r="D163" s="52"/>
@@ -19051,7 +19078,7 @@
       </c>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="65"/>
+      <c r="A164" s="66"/>
       <c r="B164" s="51"/>
       <c r="C164" s="51"/>
       <c r="D164" s="52"/>
@@ -19062,7 +19089,7 @@
       </c>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="65"/>
+      <c r="A165" s="66"/>
       <c r="B165" s="51"/>
       <c r="C165" s="51"/>
       <c r="D165" s="52"/>
@@ -19073,7 +19100,7 @@
       </c>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="65"/>
+      <c r="A166" s="66"/>
       <c r="B166" s="51"/>
       <c r="C166" s="51"/>
       <c r="D166" s="52"/>
@@ -19085,17 +19112,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="103" priority="12" operator="greaterThan">
@@ -19201,7 +19228,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -19231,7 +19258,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="65"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="51" t="s">
         <v>360</v>
       </c>
@@ -19260,7 +19287,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="65"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="51" t="s">
         <v>361</v>
       </c>
@@ -19289,7 +19316,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="65"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="51" t="s">
         <v>309</v>
       </c>
@@ -19318,7 +19345,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="65"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="51" t="s">
         <v>311</v>
       </c>
@@ -19347,7 +19374,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="65"/>
+      <c r="A7" s="66"/>
       <c r="B7" t="s">
         <v>362</v>
       </c>
@@ -19376,7 +19403,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="65"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="51" t="s">
         <v>363</v>
       </c>
@@ -19402,7 +19429,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="65"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="51" t="s">
         <v>364</v>
       </c>
@@ -19428,7 +19455,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="65"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="51" t="s">
         <v>329</v>
       </c>
@@ -19448,7 +19475,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="65"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="51" t="s">
         <v>365</v>
       </c>
@@ -19468,7 +19495,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="65"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="51" t="s">
         <v>345</v>
       </c>
@@ -19487,7 +19514,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="65"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="51" t="s">
         <v>309</v>
       </c>
@@ -19506,7 +19533,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="65"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="51" t="s">
         <v>366</v>
       </c>
@@ -19525,7 +19552,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="65"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="51" t="s">
         <v>367</v>
       </c>
@@ -19544,7 +19571,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="65"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="51" t="s">
         <v>368</v>
       </c>
@@ -19563,7 +19590,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="66" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -19590,7 +19617,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="65"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="51" t="s">
         <v>370</v>
       </c>
@@ -19616,7 +19643,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="65"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="51" t="s">
         <v>342</v>
       </c>
@@ -19642,7 +19669,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="65"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="51" t="s">
         <v>371</v>
       </c>
@@ -19668,7 +19695,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="65"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="51" t="s">
         <v>372</v>
       </c>
@@ -19694,7 +19721,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="65"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -19720,7 +19747,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="65"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="51" t="s">
         <v>373</v>
       </c>
@@ -19746,7 +19773,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="65"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="51" t="s">
         <v>374</v>
       </c>
@@ -19772,7 +19799,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="65"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="51" t="s">
         <v>304</v>
       </c>
@@ -19792,7 +19819,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="65"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="51" t="s">
         <v>375</v>
       </c>
@@ -19812,7 +19839,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="65"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="51" t="s">
         <v>376</v>
       </c>
@@ -19831,7 +19858,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="65"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="51" t="s">
         <v>377</v>
       </c>
@@ -19850,7 +19877,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="65"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="51" t="s">
         <v>378</v>
       </c>
@@ -19869,7 +19896,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="65"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -19880,7 +19907,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="65"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -19891,7 +19918,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="66" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -19918,7 +19945,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="65"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="51" t="s">
         <v>380</v>
       </c>
@@ -19944,7 +19971,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="65"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="51" t="s">
         <v>370</v>
       </c>
@@ -19970,7 +19997,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="65"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="51" t="s">
         <v>294</v>
       </c>
@@ -19996,7 +20023,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="65"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="51" t="s">
         <v>381</v>
       </c>
@@ -20022,7 +20049,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="65"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -20048,7 +20075,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="65"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="51" t="s">
         <v>382</v>
       </c>
@@ -20074,7 +20101,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="65"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -20100,7 +20127,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="65"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="51" t="s">
         <v>383</v>
       </c>
@@ -20120,7 +20147,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="65"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="51" t="s">
         <v>374</v>
       </c>
@@ -20140,7 +20167,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="65"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="51" t="s">
         <v>304</v>
       </c>
@@ -20159,7 +20186,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="65"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="51" t="s">
         <v>384</v>
       </c>
@@ -20178,7 +20205,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="65"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="51" t="s">
         <v>385</v>
       </c>
@@ -20197,7 +20224,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="65"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="51" t="s">
         <v>386</v>
       </c>
@@ -20461,7 +20488,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="69" t="s">
+      <c r="A62" s="65" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -20488,7 +20515,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="65"/>
+      <c r="A63" s="66"/>
       <c r="B63" s="51" t="s">
         <v>390</v>
       </c>
@@ -20513,7 +20540,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="65"/>
+      <c r="A64" s="66"/>
       <c r="B64" s="51" t="s">
         <v>370</v>
       </c>
@@ -20539,7 +20566,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="65"/>
+      <c r="A65" s="66"/>
       <c r="B65" s="51" t="s">
         <v>309</v>
       </c>
@@ -20565,7 +20592,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="65"/>
+      <c r="A66" s="66"/>
       <c r="B66" s="51" t="s">
         <v>391</v>
       </c>
@@ -20591,7 +20618,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="65"/>
+      <c r="A67" s="66"/>
       <c r="B67" s="51" t="s">
         <v>392</v>
       </c>
@@ -20617,7 +20644,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="65"/>
+      <c r="A68" s="66"/>
       <c r="B68" s="56" t="s">
         <v>313</v>
       </c>
@@ -20643,7 +20670,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="65"/>
+      <c r="A69" s="66"/>
       <c r="B69" s="51" t="s">
         <v>393</v>
       </c>
@@ -20669,7 +20696,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="65"/>
+      <c r="A70" s="66"/>
       <c r="B70" s="51" t="s">
         <v>394</v>
       </c>
@@ -20689,7 +20716,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="65"/>
+      <c r="A71" s="66"/>
       <c r="B71" s="51" t="s">
         <v>342</v>
       </c>
@@ -20709,7 +20736,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="65"/>
+      <c r="A72" s="66"/>
       <c r="B72" s="51" t="s">
         <v>385</v>
       </c>
@@ -20728,7 +20755,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="65"/>
+      <c r="A73" s="66"/>
       <c r="B73" s="51" t="s">
         <v>395</v>
       </c>
@@ -20747,7 +20774,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="65"/>
+      <c r="A74" s="66"/>
       <c r="B74" s="51" t="s">
         <v>396</v>
       </c>
@@ -20766,7 +20793,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="65"/>
+      <c r="A75" s="66"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -20777,7 +20804,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="65"/>
+      <c r="A76" s="66"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -20788,7 +20815,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="65" t="s">
+      <c r="A77" s="66" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -20815,7 +20842,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="65"/>
+      <c r="A78" s="66"/>
       <c r="B78" s="51" t="s">
         <v>397</v>
       </c>
@@ -20841,7 +20868,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="65"/>
+      <c r="A79" s="66"/>
       <c r="B79" s="51" t="s">
         <v>398</v>
       </c>
@@ -20867,7 +20894,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="65"/>
+      <c r="A80" s="66"/>
       <c r="B80" s="51" t="s">
         <v>309</v>
       </c>
@@ -20893,7 +20920,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="65"/>
+      <c r="A81" s="66"/>
       <c r="B81" s="51" t="s">
         <v>399</v>
       </c>
@@ -20919,7 +20946,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="65"/>
+      <c r="A82" s="66"/>
       <c r="B82" s="51" t="s">
         <v>400</v>
       </c>
@@ -20945,7 +20972,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="65"/>
+      <c r="A83" s="66"/>
       <c r="B83" s="51" t="s">
         <v>329</v>
       </c>
@@ -20971,7 +20998,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="65"/>
+      <c r="A84" s="66"/>
       <c r="B84" s="51" t="s">
         <v>401</v>
       </c>
@@ -20997,7 +21024,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="65"/>
+      <c r="A85" s="66"/>
       <c r="B85" s="51" t="s">
         <v>394</v>
       </c>
@@ -21017,7 +21044,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="65"/>
+      <c r="A86" s="66"/>
       <c r="B86" s="51" t="s">
         <v>309</v>
       </c>
@@ -21037,7 +21064,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="65"/>
+      <c r="A87" s="66"/>
       <c r="B87" s="51" t="s">
         <v>385</v>
       </c>
@@ -21056,7 +21083,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="65"/>
+      <c r="A88" s="66"/>
       <c r="B88" s="51" t="s">
         <v>402</v>
       </c>
@@ -21075,7 +21102,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="65"/>
+      <c r="A89" s="66"/>
       <c r="B89" s="51" t="s">
         <v>403</v>
       </c>
@@ -21094,7 +21121,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="65"/>
+      <c r="A90" s="66"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -21105,7 +21132,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="66"/>
+      <c r="A91" s="69"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -21116,7 +21143,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="69" t="s">
+      <c r="A92" s="65" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -21143,7 +21170,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="65"/>
+      <c r="A93" s="66"/>
       <c r="B93" s="51" t="s">
         <v>405</v>
       </c>
@@ -21169,7 +21196,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="65"/>
+      <c r="A94" s="66"/>
       <c r="B94" s="56" t="s">
         <v>406</v>
       </c>
@@ -21195,7 +21222,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="65"/>
+      <c r="A95" s="66"/>
       <c r="B95" s="51" t="s">
         <v>407</v>
       </c>
@@ -21221,7 +21248,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="65"/>
+      <c r="A96" s="66"/>
       <c r="B96" s="51" t="s">
         <v>342</v>
       </c>
@@ -21247,7 +21274,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="65"/>
+      <c r="A97" s="66"/>
       <c r="B97" s="51" t="s">
         <v>408</v>
       </c>
@@ -21273,7 +21300,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="65"/>
+      <c r="A98" s="66"/>
       <c r="B98" s="51" t="s">
         <v>409</v>
       </c>
@@ -21299,7 +21326,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="65"/>
+      <c r="A99" s="66"/>
       <c r="B99" s="51" t="s">
         <v>410</v>
       </c>
@@ -21325,7 +21352,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="65"/>
+      <c r="A100" s="66"/>
       <c r="B100" s="51" t="s">
         <v>411</v>
       </c>
@@ -21345,7 +21372,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="65"/>
+      <c r="A101" s="66"/>
       <c r="B101" s="51" t="s">
         <v>412</v>
       </c>
@@ -21365,7 +21392,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="65"/>
+      <c r="A102" s="66"/>
       <c r="B102" s="51" t="s">
         <v>413</v>
       </c>
@@ -21384,7 +21411,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="65"/>
+      <c r="A103" s="66"/>
       <c r="B103" s="51" t="s">
         <v>414</v>
       </c>
@@ -21403,7 +21430,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="65"/>
+      <c r="A104" s="66"/>
       <c r="B104" s="51" t="s">
         <v>304</v>
       </c>
@@ -21422,7 +21449,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="65"/>
+      <c r="A105" s="66"/>
       <c r="B105" s="51" t="s">
         <v>415</v>
       </c>
@@ -21784,7 +21811,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="69" t="s">
+      <c r="A122" s="65" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -21811,7 +21838,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="65"/>
+      <c r="A123" s="66"/>
       <c r="B123" s="51" t="s">
         <v>426</v>
       </c>
@@ -21837,7 +21864,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="65"/>
+      <c r="A124" s="66"/>
       <c r="B124" s="51" t="s">
         <v>427</v>
       </c>
@@ -21863,7 +21890,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="65"/>
+      <c r="A125" s="66"/>
       <c r="B125" s="51" t="s">
         <v>428</v>
       </c>
@@ -21889,7 +21916,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="65"/>
+      <c r="A126" s="66"/>
       <c r="B126" s="51" t="s">
         <v>429</v>
       </c>
@@ -21915,7 +21942,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="65"/>
+      <c r="A127" s="66"/>
       <c r="B127" s="56" t="s">
         <v>430</v>
       </c>
@@ -21941,7 +21968,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="65"/>
+      <c r="A128" s="66"/>
       <c r="B128" s="51" t="s">
         <v>431</v>
       </c>
@@ -21967,7 +21994,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="65"/>
+      <c r="A129" s="66"/>
       <c r="B129" s="56" t="s">
         <v>432</v>
       </c>
@@ -21993,7 +22020,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="65"/>
+      <c r="A130" s="66"/>
       <c r="B130" s="56" t="s">
         <v>433</v>
       </c>
@@ -22013,7 +22040,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="65"/>
+      <c r="A131" s="66"/>
       <c r="B131" s="51" t="s">
         <v>294</v>
       </c>
@@ -22033,7 +22060,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="65"/>
+      <c r="A132" s="66"/>
       <c r="B132" s="51" t="s">
         <v>329</v>
       </c>
@@ -22052,7 +22079,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="65"/>
+      <c r="A133" s="66"/>
       <c r="B133" s="51" t="s">
         <v>304</v>
       </c>
@@ -22071,7 +22098,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="65"/>
+      <c r="A134" s="66"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -22082,7 +22109,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="65"/>
+      <c r="A135" s="66"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -22540,7 +22567,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -22570,7 +22597,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="65"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="51" t="s">
         <v>311</v>
       </c>
@@ -22599,7 +22626,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="65"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="51" t="s">
         <v>440</v>
       </c>
@@ -22628,7 +22655,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="65"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="56" t="s">
         <v>441</v>
       </c>
@@ -22657,7 +22684,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="65"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="51" t="s">
         <v>342</v>
       </c>
@@ -22686,7 +22713,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="65"/>
+      <c r="A7" s="66"/>
       <c r="B7" t="s">
         <v>442</v>
       </c>
@@ -22715,7 +22742,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="65"/>
+      <c r="A8" s="66"/>
       <c r="B8" t="s">
         <v>443</v>
       </c>
@@ -22741,7 +22768,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="65"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="51" t="s">
         <v>329</v>
       </c>
@@ -22767,7 +22794,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="65"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="51" t="s">
         <v>444</v>
       </c>
@@ -22787,7 +22814,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="65"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="51" t="s">
         <v>445</v>
       </c>
@@ -22807,7 +22834,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="65"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="51" t="s">
         <v>446</v>
       </c>
@@ -22826,7 +22853,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="65"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -22839,7 +22866,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="65"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -22852,7 +22879,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="65"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -22865,7 +22892,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="65"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -22878,7 +22905,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="66" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -22905,7 +22932,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="65"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="51" t="s">
         <v>447</v>
       </c>
@@ -22931,7 +22958,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="65"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="51" t="s">
         <v>342</v>
       </c>
@@ -22957,7 +22984,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="65"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="51" t="s">
         <v>371</v>
       </c>
@@ -22983,7 +23010,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="65"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="51" t="s">
         <v>372</v>
       </c>
@@ -23009,7 +23036,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="65"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -23035,7 +23062,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="65"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="51" t="s">
         <v>373</v>
       </c>
@@ -23061,7 +23088,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="65"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="51" t="s">
         <v>374</v>
       </c>
@@ -23087,7 +23114,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="65"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="51" t="s">
         <v>304</v>
       </c>
@@ -23107,7 +23134,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="65"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="51" t="s">
         <v>375</v>
       </c>
@@ -23127,7 +23154,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="65"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="51" t="s">
         <v>376</v>
       </c>
@@ -23146,7 +23173,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="65"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="51" t="s">
         <v>377</v>
       </c>
@@ -23165,7 +23192,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="65"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="51" t="s">
         <v>378</v>
       </c>
@@ -23184,7 +23211,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="65"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="51" t="s">
         <v>448</v>
       </c>
@@ -23203,7 +23230,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="65"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -23214,7 +23241,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="66" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -23241,7 +23268,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="65"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="51" t="s">
         <v>449</v>
       </c>
@@ -23267,7 +23294,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="65"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="51" t="s">
         <v>450</v>
       </c>
@@ -23293,7 +23320,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="65"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="51" t="s">
         <v>294</v>
       </c>
@@ -23319,7 +23346,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="65"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="51" t="s">
         <v>451</v>
       </c>
@@ -23345,7 +23372,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="65"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -23371,7 +23398,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="65"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="51" t="s">
         <v>452</v>
       </c>
@@ -23397,7 +23424,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="65"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -23423,7 +23450,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="65"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="51" t="s">
         <v>453</v>
       </c>
@@ -23443,7 +23470,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="65"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="51" t="s">
         <v>454</v>
       </c>
@@ -23463,7 +23490,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="65"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="51" t="s">
         <v>304</v>
       </c>
@@ -23482,7 +23509,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="65"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="51" t="s">
         <v>455</v>
       </c>
@@ -23501,7 +23528,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="65"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="51" t="s">
         <v>448</v>
       </c>
@@ -23520,7 +23547,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="65"/>
+      <c r="A45" s="66"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
       <c r="E45" s="52"/>
@@ -23767,7 +23794,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="69" t="s">
+      <c r="A62" s="65" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -23786,7 +23813,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="65"/>
+      <c r="A63" s="66"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -23803,7 +23830,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="65"/>
+      <c r="A64" s="66"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -23821,7 +23848,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="65"/>
+      <c r="A65" s="66"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -23839,7 +23866,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="65"/>
+      <c r="A66" s="66"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -23857,7 +23884,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="65"/>
+      <c r="A67" s="66"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -23875,7 +23902,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="65"/>
+      <c r="A68" s="66"/>
       <c r="B68" s="56" t="s">
         <v>456</v>
       </c>
@@ -23895,7 +23922,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="65"/>
+      <c r="A69" s="66"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -23913,7 +23940,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="65"/>
+      <c r="A70" s="66"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -23925,7 +23952,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="65"/>
+      <c r="A71" s="66"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -23937,7 +23964,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="65"/>
+      <c r="A72" s="66"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -23948,7 +23975,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="65"/>
+      <c r="A73" s="66"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -23959,7 +23986,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="65"/>
+      <c r="A74" s="66"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -23970,7 +23997,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="65"/>
+      <c r="A75" s="66"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -23981,7 +24008,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="65"/>
+      <c r="A76" s="66"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -23992,7 +24019,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="65" t="s">
+      <c r="A77" s="66" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -24019,7 +24046,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="65"/>
+      <c r="A78" s="66"/>
       <c r="B78" s="51" t="s">
         <v>457</v>
       </c>
@@ -24045,7 +24072,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="65"/>
+      <c r="A79" s="66"/>
       <c r="B79" s="51" t="s">
         <v>458</v>
       </c>
@@ -24071,7 +24098,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="65"/>
+      <c r="A80" s="66"/>
       <c r="B80" s="51" t="s">
         <v>309</v>
       </c>
@@ -24097,7 +24124,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="65"/>
+      <c r="A81" s="66"/>
       <c r="B81" s="51" t="s">
         <v>459</v>
       </c>
@@ -24123,7 +24150,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="65"/>
+      <c r="A82" s="66"/>
       <c r="B82" s="51" t="s">
         <v>400</v>
       </c>
@@ -24149,7 +24176,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="65"/>
+      <c r="A83" s="66"/>
       <c r="B83" s="51" t="s">
         <v>329</v>
       </c>
@@ -24175,7 +24202,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="65"/>
+      <c r="A84" s="66"/>
       <c r="B84" s="51" t="s">
         <v>401</v>
       </c>
@@ -24201,7 +24228,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="65"/>
+      <c r="A85" s="66"/>
       <c r="B85" s="51" t="s">
         <v>394</v>
       </c>
@@ -24221,7 +24248,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="65"/>
+      <c r="A86" s="66"/>
       <c r="B86" s="51" t="s">
         <v>309</v>
       </c>
@@ -24241,7 +24268,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="65"/>
+      <c r="A87" s="66"/>
       <c r="B87" s="51" t="s">
         <v>385</v>
       </c>
@@ -24260,7 +24287,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="65"/>
+      <c r="A88" s="66"/>
       <c r="B88" s="51" t="s">
         <v>402</v>
       </c>
@@ -24279,7 +24306,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="65"/>
+      <c r="A89" s="66"/>
       <c r="B89" s="51" t="s">
         <v>403</v>
       </c>
@@ -24298,7 +24325,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="65"/>
+      <c r="A90" s="66"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -24309,7 +24336,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="66"/>
+      <c r="A91" s="69"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -24320,7 +24347,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="69" t="s">
+      <c r="A92" s="65" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -24347,7 +24374,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="65"/>
+      <c r="A93" s="66"/>
       <c r="B93" s="51" t="s">
         <v>461</v>
       </c>
@@ -24373,7 +24400,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="65"/>
+      <c r="A94" s="66"/>
       <c r="B94" s="56" t="s">
         <v>309</v>
       </c>
@@ -24399,7 +24426,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="65"/>
+      <c r="A95" s="66"/>
       <c r="B95" s="51" t="s">
         <v>462</v>
       </c>
@@ -24425,7 +24452,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="65"/>
+      <c r="A96" s="66"/>
       <c r="B96" s="51" t="s">
         <v>463</v>
       </c>
@@ -24451,7 +24478,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="65"/>
+      <c r="A97" s="66"/>
       <c r="B97" s="51" t="s">
         <v>464</v>
       </c>
@@ -24477,7 +24504,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="65"/>
+      <c r="A98" s="66"/>
       <c r="B98" s="51" t="s">
         <v>465</v>
       </c>
@@ -24503,7 +24530,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="65"/>
+      <c r="A99" s="66"/>
       <c r="B99" s="51" t="s">
         <v>466</v>
       </c>
@@ -24529,7 +24556,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="65"/>
+      <c r="A100" s="66"/>
       <c r="B100" s="51" t="s">
         <v>421</v>
       </c>
@@ -24549,7 +24576,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="65"/>
+      <c r="A101" s="66"/>
       <c r="B101" s="51" t="s">
         <v>467</v>
       </c>
@@ -24569,7 +24596,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="65"/>
+      <c r="A102" s="66"/>
       <c r="B102" s="51" t="s">
         <v>468</v>
       </c>
@@ -24588,7 +24615,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="65"/>
+      <c r="A103" s="66"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -24605,7 +24632,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="65"/>
+      <c r="A104" s="66"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -24622,7 +24649,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="65"/>
+      <c r="A105" s="66"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -24882,7 +24909,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="69" t="s">
+      <c r="A122" s="65" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51"/>
@@ -24907,7 +24934,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="65"/>
+      <c r="A123" s="66"/>
       <c r="B123" s="51"/>
       <c r="C123" s="51" t="s">
         <v>295</v>
@@ -24931,7 +24958,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="65"/>
+      <c r="A124" s="66"/>
       <c r="B124" s="51"/>
       <c r="C124" s="51" t="s">
         <v>288</v>
@@ -24955,7 +24982,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="65"/>
+      <c r="A125" s="66"/>
       <c r="B125" s="51"/>
       <c r="C125" s="51" t="s">
         <v>295</v>
@@ -24979,7 +25006,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="65"/>
+      <c r="A126" s="66"/>
       <c r="B126" s="58"/>
       <c r="C126" s="51" t="s">
         <v>288</v>
@@ -25075,7 +25102,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="65"/>
+      <c r="A131" s="66"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -25084,7 +25111,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="65"/>
+      <c r="A132" s="66"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -25092,7 +25119,7 @@
       <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="65"/>
+      <c r="A133" s="66"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -25100,7 +25127,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="65"/>
+      <c r="A134" s="66"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -25108,7 +25135,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="65"/>
+      <c r="A135" s="66"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -25870,7 +25897,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -25900,7 +25927,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="65"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="51" t="s">
         <v>470</v>
       </c>
@@ -25929,7 +25956,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="65"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="51" t="s">
         <v>471</v>
       </c>
@@ -25958,7 +25985,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="65"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="51" t="s">
         <v>472</v>
       </c>
@@ -25987,7 +26014,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="65"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="51" t="s">
         <v>329</v>
       </c>
@@ -26016,7 +26043,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="65"/>
+      <c r="A7" s="66"/>
       <c r="B7" t="s">
         <v>473</v>
       </c>
@@ -26045,7 +26072,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="65"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="51" t="s">
         <v>474</v>
       </c>
@@ -26071,7 +26098,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="65"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
         <v>288</v>
@@ -26091,7 +26118,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="65"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51" t="s">
         <v>295</v>
@@ -26105,7 +26132,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="65"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
         <v>288</v>
@@ -26119,7 +26146,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="65"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
         <v>296</v>
@@ -26132,7 +26159,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="65"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -26145,7 +26172,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="65"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -26158,7 +26185,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="65"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -26171,7 +26198,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="65"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -26184,7 +26211,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="66" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -26211,7 +26238,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="65"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="51" t="s">
         <v>476</v>
       </c>
@@ -26237,7 +26264,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="65"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="51" t="s">
         <v>329</v>
       </c>
@@ -26263,7 +26290,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="65"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="51" t="s">
         <v>477</v>
       </c>
@@ -26289,7 +26316,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="65"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="51" t="s">
         <v>309</v>
       </c>
@@ -26315,7 +26342,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="65"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="51" t="s">
         <v>478</v>
       </c>
@@ -26341,7 +26368,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="65"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
@@ -26356,7 +26383,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="65"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
@@ -26371,7 +26398,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="65"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -26380,7 +26407,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="65"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -26392,7 +26419,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="65"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -26403,7 +26430,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="65"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -26414,7 +26441,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="65"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -26425,7 +26452,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="65"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -26436,7 +26463,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="65"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -26447,7 +26474,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="66" t="s">
         <v>263</v>
       </c>
       <c r="C32" s="51"/>
@@ -26465,7 +26492,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="65"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -26483,7 +26510,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="65"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -26501,7 +26528,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="65"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="52"/>
@@ -26519,7 +26546,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="65"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -26537,7 +26564,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="65"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="51" t="s">
         <v>479</v>
       </c>
@@ -26557,7 +26584,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="65"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -26575,7 +26602,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="65"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -26593,7 +26620,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="65"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -26605,7 +26632,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="65"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -26617,7 +26644,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="65"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -26628,7 +26655,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="65"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -26639,7 +26666,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="65"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -26650,7 +26677,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="65"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -26942,7 +26969,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="69" t="s">
+      <c r="A62" s="65" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -26961,7 +26988,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="65"/>
+      <c r="A63" s="66"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -26978,7 +27005,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="65"/>
+      <c r="A64" s="66"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -26996,7 +27023,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="65"/>
+      <c r="A65" s="66"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -27014,7 +27041,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="65"/>
+      <c r="A66" s="66"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -27032,7 +27059,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="65"/>
+      <c r="A67" s="66"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -27050,7 +27077,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="65"/>
+      <c r="A68" s="66"/>
       <c r="B68" s="56" t="s">
         <v>488</v>
       </c>
@@ -27070,7 +27097,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="65"/>
+      <c r="A69" s="66"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -27088,7 +27115,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="65"/>
+      <c r="A70" s="66"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -27100,7 +27127,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="65"/>
+      <c r="A71" s="66"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -27112,7 +27139,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="65"/>
+      <c r="A72" s="66"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -27123,7 +27150,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="65"/>
+      <c r="A73" s="66"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -27134,7 +27161,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="65"/>
+      <c r="A74" s="66"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -27145,7 +27172,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="65"/>
+      <c r="A75" s="66"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -27156,7 +27183,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="65"/>
+      <c r="A76" s="66"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -27167,7 +27194,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="65" t="s">
+      <c r="A77" s="66" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -27188,7 +27215,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="65"/>
+      <c r="A78" s="66"/>
       <c r="B78" s="51"/>
       <c r="C78" s="51"/>
       <c r="D78" s="52"/>
@@ -27206,7 +27233,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="65"/>
+      <c r="A79" s="66"/>
       <c r="B79" s="51"/>
       <c r="C79" s="51"/>
       <c r="D79" s="52"/>
@@ -27224,7 +27251,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="65"/>
+      <c r="A80" s="66"/>
       <c r="B80" s="51"/>
       <c r="C80" s="51"/>
       <c r="D80" s="52"/>
@@ -27242,7 +27269,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="65"/>
+      <c r="A81" s="66"/>
       <c r="B81" s="51"/>
       <c r="C81" s="51"/>
       <c r="D81" s="52"/>
@@ -27260,7 +27287,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="65"/>
+      <c r="A82" s="66"/>
       <c r="B82" s="51"/>
       <c r="C82" s="51"/>
       <c r="D82" s="52"/>
@@ -27278,7 +27305,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="65"/>
+      <c r="A83" s="66"/>
       <c r="B83" s="51"/>
       <c r="C83" s="51"/>
       <c r="D83" s="52"/>
@@ -27296,7 +27323,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="65"/>
+      <c r="A84" s="66"/>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
@@ -27314,7 +27341,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="65"/>
+      <c r="A85" s="66"/>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
       <c r="D85" s="52"/>
@@ -27326,7 +27353,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="65"/>
+      <c r="A86" s="66"/>
       <c r="B86" s="51"/>
       <c r="C86" s="51"/>
       <c r="D86" s="52"/>
@@ -27338,7 +27365,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="65"/>
+      <c r="A87" s="66"/>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
       <c r="D87" s="52"/>
@@ -27349,7 +27376,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="65"/>
+      <c r="A88" s="66"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -27360,7 +27387,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="65"/>
+      <c r="A89" s="66"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -27371,7 +27398,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="65"/>
+      <c r="A90" s="66"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -27382,7 +27409,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="66"/>
+      <c r="A91" s="69"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -27393,7 +27420,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="69" t="s">
+      <c r="A92" s="65" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -27420,7 +27447,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="65"/>
+      <c r="A93" s="66"/>
       <c r="B93" s="51" t="s">
         <v>491</v>
       </c>
@@ -27446,7 +27473,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="65"/>
+      <c r="A94" s="66"/>
       <c r="B94" s="56" t="s">
         <v>492</v>
       </c>
@@ -27472,7 +27499,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="65"/>
+      <c r="A95" s="66"/>
       <c r="B95" s="51"/>
       <c r="C95" s="51" t="s">
         <v>293</v>
@@ -27496,7 +27523,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="65"/>
+      <c r="A96" s="66"/>
       <c r="B96" s="51"/>
       <c r="C96" s="51" t="s">
         <v>295</v>
@@ -27520,7 +27547,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="65"/>
+      <c r="A97" s="66"/>
       <c r="B97" s="51"/>
       <c r="C97" s="51" t="s">
         <v>288</v>
@@ -27544,7 +27571,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="65"/>
+      <c r="A98" s="66"/>
       <c r="B98" s="51"/>
       <c r="C98" s="51" t="s">
         <v>285</v>
@@ -27568,7 +27595,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="65"/>
+      <c r="A99" s="66"/>
       <c r="B99" s="51"/>
       <c r="C99" s="51" t="s">
         <v>290</v>
@@ -27592,7 +27619,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="65"/>
+      <c r="A100" s="66"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51" t="s">
         <v>288</v>
@@ -27610,7 +27637,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="65"/>
+      <c r="A101" s="66"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>295</v>
@@ -27628,7 +27655,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="65"/>
+      <c r="A102" s="66"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>288</v>
@@ -27645,7 +27672,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="65"/>
+      <c r="A103" s="66"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -27662,7 +27689,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="65"/>
+      <c r="A104" s="66"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -27679,7 +27706,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="65"/>
+      <c r="A105" s="66"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -27939,7 +27966,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="69" t="s">
+      <c r="A122" s="65" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -27966,7 +27993,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="65"/>
+      <c r="A123" s="66"/>
       <c r="B123" s="51" t="s">
         <v>494</v>
       </c>
@@ -27992,7 +28019,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="65"/>
+      <c r="A124" s="66"/>
       <c r="B124" s="51" t="s">
         <v>495</v>
       </c>
@@ -28018,7 +28045,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="65"/>
+      <c r="A125" s="66"/>
       <c r="B125" s="51" t="s">
         <v>496</v>
       </c>
@@ -28044,7 +28071,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="65"/>
+      <c r="A126" s="66"/>
       <c r="B126" s="58" t="s">
         <v>497</v>
       </c>
@@ -28166,7 +28193,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="65"/>
+      <c r="A131" s="66"/>
       <c r="B131" s="59" t="s">
         <v>502</v>
       </c>
@@ -28185,7 +28212,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="65"/>
+      <c r="A132" s="66"/>
       <c r="B132" s="51" t="s">
         <v>503</v>
       </c>
@@ -28203,7 +28230,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="65"/>
+      <c r="A133" s="66"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -28211,7 +28238,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="65"/>
+      <c r="A134" s="66"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -28219,7 +28246,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="65"/>
+      <c r="A135" s="66"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -28639,7 +28666,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51"/>
@@ -28663,7 +28690,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="65"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51" t="s">
         <v>288</v>
@@ -28686,7 +28713,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="65"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51" t="s">
         <v>285</v>
@@ -28709,7 +28736,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="65"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51" t="s">
         <v>295</v>
@@ -28732,7 +28759,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="65"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51" t="s">
         <v>285</v>
@@ -28755,7 +28782,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="65"/>
+      <c r="A7" s="66"/>
       <c r="C7" s="51" t="s">
         <v>288</v>
       </c>
@@ -28777,7 +28804,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="65"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51" t="s">
         <v>288</v>
@@ -28797,7 +28824,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="65"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="51" t="s">
         <v>388</v>
       </c>
@@ -28819,7 +28846,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="65"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51" t="s">
         <v>295</v>
@@ -28833,7 +28860,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="65"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
         <v>288</v>
@@ -28847,7 +28874,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="65"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
         <v>296</v>
@@ -28860,7 +28887,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="65"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -28873,7 +28900,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="65"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -28886,7 +28913,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="65"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -28899,7 +28926,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="65"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -28912,7 +28939,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="66" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -28939,7 +28966,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="65"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="51" t="s">
         <v>510</v>
       </c>
@@ -28965,7 +28992,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="65"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="51" t="s">
         <v>329</v>
       </c>
@@ -28991,7 +29018,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="65"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="51" t="s">
         <v>477</v>
       </c>
@@ -29017,7 +29044,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="65"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="51" t="s">
         <v>511</v>
       </c>
@@ -29043,7 +29070,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="65"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="52"/>
@@ -29061,7 +29088,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="65"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
@@ -29076,7 +29103,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="65"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
@@ -29091,7 +29118,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="65"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -29100,7 +29127,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="65"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -29112,7 +29139,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="65"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -29123,7 +29150,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="65"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -29134,7 +29161,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="65"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -29145,7 +29172,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="65"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -29156,7 +29183,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="65"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -29167,7 +29194,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="66" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -29188,7 +29215,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="65"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -29206,7 +29233,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="65"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -29224,7 +29251,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="65"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="51" t="s">
         <v>513</v>
       </c>
@@ -29250,7 +29277,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="65"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -29268,7 +29295,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="65"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
       <c r="D37" s="52"/>
@@ -29286,7 +29313,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="65"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -29304,7 +29331,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="65"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -29322,7 +29349,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="65"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -29334,7 +29361,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="65"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -29346,7 +29373,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="65"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -29357,7 +29384,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="65"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -29368,7 +29395,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="65"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -29379,7 +29406,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="65"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -29639,7 +29666,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="69" t="s">
+      <c r="A62" s="65" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -29658,7 +29685,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="65"/>
+      <c r="A63" s="66"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -29675,7 +29702,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="65"/>
+      <c r="A64" s="66"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -29693,7 +29720,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="65"/>
+      <c r="A65" s="66"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -29711,7 +29738,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="65"/>
+      <c r="A66" s="66"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -29729,7 +29756,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="65"/>
+      <c r="A67" s="66"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -29747,7 +29774,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="65"/>
+      <c r="A68" s="66"/>
       <c r="B68" s="56" t="s">
         <v>520</v>
       </c>
@@ -29767,7 +29794,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="65"/>
+      <c r="A69" s="66"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -29785,7 +29812,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="65"/>
+      <c r="A70" s="66"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -29797,7 +29824,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="65"/>
+      <c r="A71" s="66"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -29809,7 +29836,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="65"/>
+      <c r="A72" s="66"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -29820,7 +29847,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="65"/>
+      <c r="A73" s="66"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -29831,7 +29858,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="65"/>
+      <c r="A74" s="66"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -29842,7 +29869,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="65"/>
+      <c r="A75" s="66"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -29853,7 +29880,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="65"/>
+      <c r="A76" s="66"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -29864,7 +29891,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="65" t="s">
+      <c r="A77" s="66" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -29891,7 +29918,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="65"/>
+      <c r="A78" s="66"/>
       <c r="B78" s="56" t="s">
         <v>522</v>
       </c>
@@ -29917,7 +29944,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="65"/>
+      <c r="A79" s="66"/>
       <c r="B79" s="51" t="s">
         <v>523</v>
       </c>
@@ -29943,7 +29970,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="65"/>
+      <c r="A80" s="66"/>
       <c r="B80" s="51" t="s">
         <v>524</v>
       </c>
@@ -29969,7 +29996,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="65"/>
+      <c r="A81" s="66"/>
       <c r="B81" s="51" t="s">
         <v>525</v>
       </c>
@@ -29995,7 +30022,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="65"/>
+      <c r="A82" s="66"/>
       <c r="B82" s="51" t="s">
         <v>329</v>
       </c>
@@ -30021,7 +30048,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="65"/>
+      <c r="A83" s="66"/>
       <c r="B83" s="56" t="s">
         <v>526</v>
       </c>
@@ -30047,7 +30074,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="65"/>
+      <c r="A84" s="66"/>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
@@ -30065,7 +30092,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="65"/>
+      <c r="A85" s="66"/>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
       <c r="D85" s="52"/>
@@ -30077,7 +30104,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="65"/>
+      <c r="A86" s="66"/>
       <c r="B86" s="51"/>
       <c r="C86" s="51"/>
       <c r="D86" s="52"/>
@@ -30089,7 +30116,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="65"/>
+      <c r="A87" s="66"/>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
       <c r="D87" s="52"/>
@@ -30100,7 +30127,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="65"/>
+      <c r="A88" s="66"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -30111,7 +30138,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="65"/>
+      <c r="A89" s="66"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -30122,7 +30149,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="65"/>
+      <c r="A90" s="66"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -30133,7 +30160,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="66"/>
+      <c r="A91" s="69"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -30144,7 +30171,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="69" t="s">
+      <c r="A92" s="65" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51"/>
@@ -30169,7 +30196,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="65"/>
+      <c r="A93" s="66"/>
       <c r="B93" s="51"/>
       <c r="C93" s="51" t="s">
         <v>288</v>
@@ -30193,7 +30220,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="65"/>
+      <c r="A94" s="66"/>
       <c r="B94" s="56"/>
       <c r="C94" s="51" t="s">
         <v>288</v>
@@ -30217,7 +30244,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="65"/>
+      <c r="A95" s="66"/>
       <c r="B95" s="51"/>
       <c r="C95" s="51" t="s">
         <v>293</v>
@@ -30241,7 +30268,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="65"/>
+      <c r="A96" s="66"/>
       <c r="B96" s="51"/>
       <c r="C96" s="51" t="s">
         <v>295</v>
@@ -30265,7 +30292,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="65"/>
+      <c r="A97" s="66"/>
       <c r="B97" s="51"/>
       <c r="C97" s="51" t="s">
         <v>288</v>
@@ -30289,7 +30316,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="65"/>
+      <c r="A98" s="66"/>
       <c r="B98" s="51"/>
       <c r="C98" s="51" t="s">
         <v>285</v>
@@ -30313,7 +30340,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="65"/>
+      <c r="A99" s="66"/>
       <c r="B99" s="51" t="s">
         <v>388</v>
       </c>
@@ -30339,7 +30366,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="65"/>
+      <c r="A100" s="66"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51" t="s">
         <v>288</v>
@@ -30357,7 +30384,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="65"/>
+      <c r="A101" s="66"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>295</v>
@@ -30375,7 +30402,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="65"/>
+      <c r="A102" s="66"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>288</v>
@@ -30392,7 +30419,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="65"/>
+      <c r="A103" s="66"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -30409,7 +30436,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="65"/>
+      <c r="A104" s="66"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -30426,7 +30453,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="65"/>
+      <c r="A105" s="66"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -30686,7 +30713,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="69" t="s">
+      <c r="A122" s="65" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -30713,7 +30740,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="65"/>
+      <c r="A123" s="66"/>
       <c r="B123" s="51" t="s">
         <v>529</v>
       </c>
@@ -30739,7 +30766,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="65"/>
+      <c r="A124" s="66"/>
       <c r="B124" s="51" t="s">
         <v>530</v>
       </c>
@@ -30765,7 +30792,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="65"/>
+      <c r="A125" s="66"/>
       <c r="B125" s="51" t="s">
         <v>313</v>
       </c>
@@ -30791,7 +30818,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="65"/>
+      <c r="A126" s="66"/>
       <c r="B126" s="58" t="s">
         <v>531</v>
       </c>
@@ -30913,7 +30940,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="65"/>
+      <c r="A131" s="66"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -30922,7 +30949,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="65"/>
+      <c r="A132" s="66"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -30930,7 +30957,7 @@
       <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="65"/>
+      <c r="A133" s="66"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -30938,7 +30965,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="65"/>
+      <c r="A134" s="66"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -30946,7 +30973,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="65"/>
+      <c r="A135" s="66"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -31374,7 +31401,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -31404,7 +31431,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="65"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="51" t="s">
         <v>545</v>
       </c>
@@ -31433,7 +31460,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="65"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="51" t="s">
         <v>546</v>
       </c>
@@ -31462,7 +31489,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="65"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="51" t="s">
         <v>547</v>
       </c>
@@ -31491,7 +31518,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="65"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="51" t="s">
         <v>342</v>
       </c>
@@ -31520,7 +31547,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="65"/>
+      <c r="A7" s="66"/>
       <c r="C7" s="51" t="s">
         <v>288</v>
       </c>
@@ -31542,7 +31569,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="65"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="51" t="s">
         <v>465</v>
       </c>
@@ -31568,7 +31595,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="65"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
         <v>288</v>
@@ -31588,7 +31615,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="65"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="51" t="s">
         <v>548</v>
       </c>
@@ -31608,7 +31635,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="65"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
         <v>288</v>
@@ -31622,7 +31649,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="65"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
         <v>296</v>
@@ -31635,7 +31662,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="65"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -31648,7 +31675,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="65"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -31661,7 +31688,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="65"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -31674,7 +31701,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="65"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -31687,7 +31714,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="66" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -31714,7 +31741,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="65"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="51" t="s">
         <v>549</v>
       </c>
@@ -31740,7 +31767,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="65"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="51" t="s">
         <v>329</v>
       </c>
@@ -31766,7 +31793,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="65"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="51" t="s">
         <v>550</v>
       </c>
@@ -31792,7 +31819,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="65"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="51" t="s">
         <v>550</v>
       </c>
@@ -31818,7 +31845,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="65"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="58" t="s">
         <v>551</v>
       </c>
@@ -31862,7 +31889,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="65"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
       <c r="D24" s="63"/>
@@ -31880,7 +31907,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="65"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -31892,7 +31919,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="65"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -31904,7 +31931,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="65"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -31915,7 +31942,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="65"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -31926,7 +31953,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="65"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -31937,7 +31964,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="65"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -31948,7 +31975,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="65"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -31959,7 +31986,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="66" t="s">
         <v>263</v>
       </c>
       <c r="C32" s="51"/>
@@ -31977,7 +32004,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="65"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -31995,7 +32022,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="65"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -32013,7 +32040,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="65"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="52"/>
@@ -32031,7 +32058,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="65"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -32049,7 +32076,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="65"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="51" t="s">
         <v>73</v>
       </c>
@@ -32069,7 +32096,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="65"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -32087,7 +32114,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="65"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -32105,7 +32132,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="65"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -32117,7 +32144,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="65"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -32129,7 +32156,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="65"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -32140,7 +32167,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="65"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -32151,7 +32178,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="65"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -32162,7 +32189,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="65"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -32481,7 +32508,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="69" t="s">
+      <c r="A62" s="65" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -32508,7 +32535,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="65"/>
+      <c r="A63" s="66"/>
       <c r="B63" s="51" t="s">
         <v>575</v>
       </c>
@@ -32534,7 +32561,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="65"/>
+      <c r="A64" s="66"/>
       <c r="B64" s="51" t="s">
         <v>576</v>
       </c>
@@ -32560,7 +32587,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="65"/>
+      <c r="A65" s="66"/>
       <c r="B65" s="51" t="s">
         <v>309</v>
       </c>
@@ -32586,7 +32613,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="65"/>
+      <c r="A66" s="66"/>
       <c r="B66" s="51" t="s">
         <v>551</v>
       </c>
@@ -32612,7 +32639,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="65"/>
+      <c r="A67" s="66"/>
       <c r="B67" s="51" t="s">
         <v>577</v>
       </c>
@@ -32638,7 +32665,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="65"/>
+      <c r="A68" s="66"/>
       <c r="B68" s="56"/>
       <c r="C68" s="51"/>
       <c r="D68" s="52"/>
@@ -32656,7 +32683,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="65"/>
+      <c r="A69" s="66"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -32674,7 +32701,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="65"/>
+      <c r="A70" s="66"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -32686,7 +32713,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="65"/>
+      <c r="A71" s="66"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -32698,7 +32725,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="65"/>
+      <c r="A72" s="66"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -32709,7 +32736,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="65"/>
+      <c r="A73" s="66"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -32720,7 +32747,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="65"/>
+      <c r="A74" s="66"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -32731,7 +32758,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="65"/>
+      <c r="A75" s="66"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -32742,7 +32769,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="65"/>
+      <c r="A76" s="66"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -32753,7 +32780,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="65" t="s">
+      <c r="A77" s="66" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -32780,7 +32807,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="65"/>
+      <c r="A78" s="66"/>
       <c r="B78" s="51" t="s">
         <v>579</v>
       </c>
@@ -32806,7 +32833,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="65"/>
+      <c r="A79" s="66"/>
       <c r="B79" s="51" t="s">
         <v>580</v>
       </c>
@@ -32832,7 +32859,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="65"/>
+      <c r="A80" s="66"/>
       <c r="B80" s="51" t="s">
         <v>581</v>
       </c>
@@ -32858,7 +32885,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="65"/>
+      <c r="A81" s="66"/>
       <c r="B81" s="51" t="s">
         <v>582</v>
       </c>
@@ -32884,7 +32911,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="65"/>
+      <c r="A82" s="66"/>
       <c r="B82" s="51" t="s">
         <v>583</v>
       </c>
@@ -32910,7 +32937,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="65"/>
+      <c r="A83" s="66"/>
       <c r="B83" s="51" t="s">
         <v>584</v>
       </c>
@@ -32936,7 +32963,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="65"/>
+      <c r="A84" s="66"/>
       <c r="B84" s="51" t="s">
         <v>585</v>
       </c>
@@ -32962,7 +32989,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="65"/>
+      <c r="A85" s="66"/>
       <c r="B85" s="51" t="s">
         <v>586</v>
       </c>
@@ -32982,7 +33009,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="65"/>
+      <c r="A86" s="66"/>
       <c r="B86" s="51" t="s">
         <v>551</v>
       </c>
@@ -33002,7 +33029,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="65"/>
+      <c r="A87" s="66"/>
       <c r="B87" s="51" t="s">
         <v>587</v>
       </c>
@@ -33021,7 +33048,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="65"/>
+      <c r="A88" s="66"/>
       <c r="B88" s="51" t="s">
         <v>588</v>
       </c>
@@ -33040,7 +33067,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="65"/>
+      <c r="A89" s="66"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -33051,7 +33078,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="65"/>
+      <c r="A90" s="66"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -33062,7 +33089,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="66"/>
+      <c r="A91" s="69"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -33073,7 +33100,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="69" t="s">
+      <c r="A92" s="65" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -33100,7 +33127,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="65"/>
+      <c r="A93" s="66"/>
       <c r="B93" s="51" t="s">
         <v>589</v>
       </c>
@@ -33126,7 +33153,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="65"/>
+      <c r="A94" s="66"/>
       <c r="B94" s="56" t="s">
         <v>590</v>
       </c>
@@ -33152,7 +33179,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="65"/>
+      <c r="A95" s="66"/>
       <c r="B95" s="51" t="s">
         <v>591</v>
       </c>
@@ -33178,7 +33205,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="65"/>
+      <c r="A96" s="66"/>
       <c r="B96" s="51" t="s">
         <v>465</v>
       </c>
@@ -33204,7 +33231,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="65"/>
+      <c r="A97" s="66"/>
       <c r="B97" s="51" t="s">
         <v>592</v>
       </c>
@@ -33230,7 +33257,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="65"/>
+      <c r="A98" s="66"/>
       <c r="B98" s="51" t="s">
         <v>593</v>
       </c>
@@ -33256,7 +33283,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="65"/>
+      <c r="A99" s="66"/>
       <c r="B99" s="51" t="s">
         <v>309</v>
       </c>
@@ -33282,7 +33309,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="65"/>
+      <c r="A100" s="66"/>
       <c r="B100" s="51" t="s">
         <v>594</v>
       </c>
@@ -33302,7 +33329,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="65"/>
+      <c r="A101" s="66"/>
       <c r="B101" s="51" t="s">
         <v>595</v>
       </c>
@@ -33322,7 +33349,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="65"/>
+      <c r="A102" s="66"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>288</v>
@@ -33339,7 +33366,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="65"/>
+      <c r="A103" s="66"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -33356,7 +33383,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="65"/>
+      <c r="A104" s="66"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -33373,7 +33400,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="65"/>
+      <c r="A105" s="66"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -33631,7 +33658,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="69" t="s">
+      <c r="A122" s="65" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51"/>
@@ -33650,7 +33677,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="65"/>
+      <c r="A123" s="66"/>
       <c r="B123" s="51"/>
       <c r="C123" s="51"/>
       <c r="D123" s="52"/>
@@ -33668,7 +33695,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="65"/>
+      <c r="A124" s="66"/>
       <c r="B124" s="51"/>
       <c r="C124" s="51"/>
       <c r="D124" s="52"/>
@@ -33686,7 +33713,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="65"/>
+      <c r="A125" s="66"/>
       <c r="B125" s="51"/>
       <c r="C125" s="51"/>
       <c r="D125" s="52"/>
@@ -33704,7 +33731,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="65"/>
+      <c r="A126" s="66"/>
       <c r="B126" s="58"/>
       <c r="C126" s="51"/>
       <c r="D126" s="52"/>
@@ -33784,7 +33811,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="65"/>
+      <c r="A131" s="66"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -33793,7 +33820,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="65"/>
+      <c r="A132" s="66"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -33801,7 +33828,7 @@
       <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="65"/>
+      <c r="A133" s="66"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -33809,7 +33836,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="65"/>
+      <c r="A134" s="66"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -33817,7 +33844,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="65"/>
+      <c r="A135" s="66"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -34251,7 +34278,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -34281,7 +34308,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="65"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="51" t="s">
         <v>604</v>
       </c>
@@ -34310,7 +34337,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="65"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="51" t="s">
         <v>605</v>
       </c>
@@ -34339,7 +34366,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="65"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="51" t="s">
         <v>309</v>
       </c>
@@ -34368,7 +34395,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="65"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="51" t="s">
         <v>606</v>
       </c>
@@ -34397,7 +34424,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="65"/>
+      <c r="A7" s="66"/>
       <c r="B7" t="s">
         <v>607</v>
       </c>
@@ -34426,7 +34453,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="65"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="51" t="s">
         <v>608</v>
       </c>
@@ -34452,7 +34479,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="65"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="51" t="s">
         <v>329</v>
       </c>
@@ -34478,7 +34505,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="65"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="51" t="s">
         <v>608</v>
       </c>
@@ -34498,7 +34525,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="65"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="51" t="s">
         <v>609</v>
       </c>
@@ -34518,7 +34545,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="65"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="51" t="s">
         <v>610</v>
       </c>
@@ -34537,7 +34564,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="65"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="51" t="s">
         <v>309</v>
       </c>
@@ -34556,7 +34583,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="65"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="51" t="s">
         <v>611</v>
       </c>
@@ -34575,7 +34602,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="65"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="51" t="s">
         <v>612</v>
       </c>
@@ -34594,7 +34621,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="65"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -34607,7 +34634,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="66" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -34634,7 +34661,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="65"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="51" t="s">
         <v>614</v>
       </c>
@@ -34660,7 +34687,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="65"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="51" t="s">
         <v>309</v>
       </c>
@@ -34686,7 +34713,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="65"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="51" t="s">
         <v>615</v>
       </c>
@@ -34712,7 +34739,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="65"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="51" t="s">
         <v>616</v>
       </c>
@@ -34738,7 +34765,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="65"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -34764,7 +34791,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="65"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="51" t="s">
         <v>617</v>
       </c>
@@ -34790,7 +34817,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="65"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="51" t="s">
         <v>618</v>
       </c>
@@ -34816,7 +34843,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="65"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="51" t="s">
         <v>309</v>
       </c>
@@ -34836,7 +34863,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="65"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="51" t="s">
         <v>617</v>
       </c>
@@ -34856,7 +34883,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="65"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="51" t="s">
         <v>619</v>
       </c>
@@ -34875,7 +34902,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="65"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -34886,7 +34913,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="65"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -34897,7 +34924,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="65"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -34908,7 +34935,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="65"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -34919,7 +34946,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="66" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -34946,7 +34973,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="65"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="51" t="s">
         <v>620</v>
       </c>
@@ -34972,7 +34999,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="65"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="51" t="s">
         <v>621</v>
       </c>
@@ -34998,7 +35025,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="65"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="51" t="s">
         <v>622</v>
       </c>
@@ -35024,7 +35051,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="65"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="51" t="s">
         <v>623</v>
       </c>
@@ -35050,7 +35077,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="65"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="51" t="s">
         <v>607</v>
       </c>
@@ -35076,7 +35103,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="65"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="51" t="s">
         <v>624</v>
       </c>
@@ -35102,7 +35129,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="65"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -35128,7 +35155,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="65"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="51" t="s">
         <v>625</v>
       </c>
@@ -35148,7 +35175,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="65"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="51" t="s">
         <v>626</v>
       </c>
@@ -35168,7 +35195,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="65"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="51" t="s">
         <v>309</v>
       </c>
@@ -35187,7 +35214,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="65"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="51" t="s">
         <v>627</v>
       </c>
@@ -35206,7 +35233,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="65"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -35217,7 +35244,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="65"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -35487,7 +35514,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="69" t="s">
+      <c r="A62" s="65" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -35514,7 +35541,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="65"/>
+      <c r="A63" s="66"/>
       <c r="B63" s="51" t="s">
         <v>635</v>
       </c>
@@ -35539,7 +35566,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="65"/>
+      <c r="A64" s="66"/>
       <c r="B64" s="51" t="s">
         <v>636</v>
       </c>
@@ -35565,7 +35592,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="65"/>
+      <c r="A65" s="66"/>
       <c r="B65" s="51" t="s">
         <v>637</v>
       </c>
@@ -35591,7 +35618,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="65"/>
+      <c r="A66" s="66"/>
       <c r="B66" s="51" t="s">
         <v>638</v>
       </c>
@@ -35617,7 +35644,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="65"/>
+      <c r="A67" s="66"/>
       <c r="B67" s="51" t="s">
         <v>599</v>
       </c>
@@ -35643,7 +35670,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="65"/>
+      <c r="A68" s="66"/>
       <c r="B68" s="56" t="s">
         <v>639</v>
       </c>
@@ -35669,7 +35696,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="65"/>
+      <c r="A69" s="66"/>
       <c r="B69" s="51" t="s">
         <v>342</v>
       </c>
@@ -35695,7 +35722,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="65"/>
+      <c r="A70" s="66"/>
       <c r="B70" s="51" t="s">
         <v>640</v>
       </c>
@@ -35715,7 +35742,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="65"/>
+      <c r="A71" s="66"/>
       <c r="B71" s="51" t="s">
         <v>641</v>
       </c>
@@ -35735,7 +35762,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="65"/>
+      <c r="A72" s="66"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -35746,7 +35773,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="65"/>
+      <c r="A73" s="66"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -35757,7 +35784,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="65"/>
+      <c r="A74" s="66"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -35768,7 +35795,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="65"/>
+      <c r="A75" s="66"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -35779,7 +35806,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="65"/>
+      <c r="A76" s="66"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -35790,7 +35817,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="65" t="s">
+      <c r="A77" s="66" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -35817,7 +35844,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="65"/>
+      <c r="A78" s="66"/>
       <c r="B78" s="51" t="s">
         <v>643</v>
       </c>
@@ -35843,7 +35870,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="65"/>
+      <c r="A79" s="66"/>
       <c r="B79" s="51" t="s">
         <v>309</v>
       </c>
@@ -35869,7 +35896,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="65"/>
+      <c r="A80" s="66"/>
       <c r="B80" s="51" t="s">
         <v>644</v>
       </c>
@@ -35895,7 +35922,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="65"/>
+      <c r="A81" s="66"/>
       <c r="B81" s="51" t="s">
         <v>645</v>
       </c>
@@ -35921,7 +35948,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="65"/>
+      <c r="A82" s="66"/>
       <c r="B82" s="51" t="s">
         <v>646</v>
       </c>
@@ -35947,7 +35974,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="65"/>
+      <c r="A83" s="66"/>
       <c r="B83" s="51" t="s">
         <v>647</v>
       </c>
@@ -35973,7 +36000,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="65"/>
+      <c r="A84" s="66"/>
       <c r="B84" s="51" t="s">
         <v>580</v>
       </c>
@@ -35999,7 +36026,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="65"/>
+      <c r="A85" s="66"/>
       <c r="B85" s="51" t="s">
         <v>648</v>
       </c>
@@ -36019,7 +36046,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="65"/>
+      <c r="A86" s="66"/>
       <c r="B86" s="51" t="s">
         <v>649</v>
       </c>
@@ -36039,7 +36066,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="65"/>
+      <c r="A87" s="66"/>
       <c r="B87" s="51" t="s">
         <v>650</v>
       </c>
@@ -36059,7 +36086,7 @@
       <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="65"/>
+      <c r="A88" s="66"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -36070,7 +36097,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="65"/>
+      <c r="A89" s="66"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -36081,7 +36108,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="65"/>
+      <c r="A90" s="66"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -36092,7 +36119,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="65"/>
+      <c r="A91" s="66"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -36103,7 +36130,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="66"/>
+      <c r="A92" s="69"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -36114,7 +36141,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="69" t="s">
+      <c r="A93" s="65" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -36141,7 +36168,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="65"/>
+      <c r="A94" s="66"/>
       <c r="B94" s="51" t="s">
         <v>651</v>
       </c>
@@ -36167,7 +36194,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="65"/>
+      <c r="A95" s="66"/>
       <c r="B95" s="56" t="s">
         <v>586</v>
       </c>
@@ -36193,7 +36220,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="65"/>
+      <c r="A96" s="66"/>
       <c r="B96" s="51" t="s">
         <v>652</v>
       </c>
@@ -36219,7 +36246,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="65"/>
+      <c r="A97" s="66"/>
       <c r="B97" s="51" t="s">
         <v>653</v>
       </c>
@@ -36245,7 +36272,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="65"/>
+      <c r="A98" s="66"/>
       <c r="B98" s="51" t="s">
         <v>654</v>
       </c>
@@ -36271,7 +36298,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="65"/>
+      <c r="A99" s="66"/>
       <c r="B99" s="51" t="s">
         <v>342</v>
       </c>
@@ -36297,7 +36324,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="65"/>
+      <c r="A100" s="66"/>
       <c r="B100" s="51" t="s">
         <v>655</v>
       </c>
@@ -36323,7 +36350,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="65"/>
+      <c r="A101" s="66"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>288</v>
@@ -36341,7 +36368,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="65"/>
+      <c r="A102" s="66"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>295</v>
@@ -36359,7 +36386,7 @@
       <c r="I102" s="54"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="65"/>
+      <c r="A103" s="66"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>288</v>
@@ -36376,7 +36403,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="65"/>
+      <c r="A104" s="66"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>296</v>
@@ -36393,7 +36420,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="65"/>
+      <c r="A105" s="66"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>295</v>
@@ -36410,7 +36437,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="65"/>
+      <c r="A106" s="66"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51" t="s">
         <v>288</v>
@@ -36772,7 +36799,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="69" t="s">
+      <c r="A123" s="65" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51" t="s">
@@ -36799,7 +36826,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="65"/>
+      <c r="A124" s="66"/>
       <c r="B124" s="51" t="s">
         <v>665</v>
       </c>
@@ -36825,7 +36852,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="65"/>
+      <c r="A125" s="66"/>
       <c r="B125" s="51" t="s">
         <v>342</v>
       </c>
@@ -36851,7 +36878,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="65"/>
+      <c r="A126" s="66"/>
       <c r="B126" s="51" t="s">
         <v>666</v>
       </c>
@@ -36877,7 +36904,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="65"/>
+      <c r="A127" s="66"/>
       <c r="B127" s="58" t="s">
         <v>645</v>
       </c>
@@ -36999,7 +37026,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="65"/>
+      <c r="A132" s="66"/>
       <c r="B132" s="59" t="s">
         <v>669</v>
       </c>
@@ -37018,7 +37045,7 @@
       <c r="I132" s="54"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="65"/>
+      <c r="A133" s="66"/>
       <c r="B133" s="51" t="s">
         <v>670</v>
       </c>
@@ -37036,7 +37063,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="65"/>
+      <c r="A134" s="66"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -37044,7 +37071,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="65"/>
+      <c r="A135" s="66"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -37052,7 +37079,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="65"/>
+      <c r="A136" s="66"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -37440,8 +37467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CFAAE3-2D0E-4849-B0C4-827EFC465E1B}">
   <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37480,7 +37507,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -37510,7 +37537,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="65"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="51" t="s">
         <v>604</v>
       </c>
@@ -37539,7 +37566,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="65"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="51" t="s">
         <v>605</v>
       </c>
@@ -37568,7 +37595,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="65"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="51" t="s">
         <v>309</v>
       </c>
@@ -37597,7 +37624,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="65"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="51" t="s">
         <v>606</v>
       </c>
@@ -37626,7 +37653,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="65"/>
+      <c r="A7" s="66"/>
       <c r="B7" t="s">
         <v>607</v>
       </c>
@@ -37655,7 +37682,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="65"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="51" t="s">
         <v>608</v>
       </c>
@@ -37681,7 +37708,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="65"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="51" t="s">
         <v>329</v>
       </c>
@@ -37707,7 +37734,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="65"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="51" t="s">
         <v>608</v>
       </c>
@@ -37727,7 +37754,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="65"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="51" t="s">
         <v>609</v>
       </c>
@@ -37747,7 +37774,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="65"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="51" t="s">
         <v>610</v>
       </c>
@@ -37766,7 +37793,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="65"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="51" t="s">
         <v>309</v>
       </c>
@@ -37785,7 +37812,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="65"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="51" t="s">
         <v>611</v>
       </c>
@@ -37804,7 +37831,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="65"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="51" t="s">
         <v>612</v>
       </c>
@@ -37823,7 +37850,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="65"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -37836,7 +37863,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="66" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -37863,7 +37890,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="65"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="51" t="s">
         <v>614</v>
       </c>
@@ -37889,7 +37916,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="65"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="51" t="s">
         <v>309</v>
       </c>
@@ -37915,7 +37942,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="65"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="51" t="s">
         <v>615</v>
       </c>
@@ -37941,7 +37968,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="65"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="51" t="s">
         <v>616</v>
       </c>
@@ -37967,7 +37994,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="65"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -37993,7 +38020,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="65"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="51" t="s">
         <v>617</v>
       </c>
@@ -38019,7 +38046,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="65"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="51" t="s">
         <v>618</v>
       </c>
@@ -38045,7 +38072,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="65"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="51" t="s">
         <v>309</v>
       </c>
@@ -38065,7 +38092,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="65"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="51" t="s">
         <v>617</v>
       </c>
@@ -38085,7 +38112,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="65"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="51" t="s">
         <v>619</v>
       </c>
@@ -38104,7 +38131,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="65"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -38115,7 +38142,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="65"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -38126,7 +38153,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="65"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -38137,7 +38164,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="65"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -38148,7 +38175,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="66" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -38175,7 +38202,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="65"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="51" t="s">
         <v>620</v>
       </c>
@@ -38201,7 +38228,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="65"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="51" t="s">
         <v>621</v>
       </c>
@@ -38227,7 +38254,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="65"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="51" t="s">
         <v>622</v>
       </c>
@@ -38253,7 +38280,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="65"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="51" t="s">
         <v>623</v>
       </c>
@@ -38279,7 +38306,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="65"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="51" t="s">
         <v>607</v>
       </c>
@@ -38305,7 +38332,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="65"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="51" t="s">
         <v>624</v>
       </c>
@@ -38331,7 +38358,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="65"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -38357,7 +38384,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="65"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="51" t="s">
         <v>625</v>
       </c>
@@ -38377,7 +38404,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="65"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="51" t="s">
         <v>626</v>
       </c>
@@ -38397,7 +38424,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="65"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="51" t="s">
         <v>309</v>
       </c>
@@ -38416,7 +38443,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="65"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="51" t="s">
         <v>627</v>
       </c>
@@ -38435,7 +38462,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="65"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -38446,7 +38473,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="65"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -38716,7 +38743,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="69" t="s">
+      <c r="A62" s="65" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -38743,7 +38770,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="65"/>
+      <c r="A63" s="66"/>
       <c r="B63" s="51" t="s">
         <v>635</v>
       </c>
@@ -38768,7 +38795,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="65"/>
+      <c r="A64" s="66"/>
       <c r="B64" s="51" t="s">
         <v>636</v>
       </c>
@@ -38794,7 +38821,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="65"/>
+      <c r="A65" s="66"/>
       <c r="B65" s="51" t="s">
         <v>637</v>
       </c>
@@ -38820,7 +38847,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="65"/>
+      <c r="A66" s="66"/>
       <c r="B66" s="51" t="s">
         <v>638</v>
       </c>
@@ -38846,7 +38873,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="65"/>
+      <c r="A67" s="66"/>
       <c r="B67" s="51" t="s">
         <v>599</v>
       </c>
@@ -38872,7 +38899,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="65"/>
+      <c r="A68" s="66"/>
       <c r="B68" s="56" t="s">
         <v>639</v>
       </c>
@@ -38898,7 +38925,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="65"/>
+      <c r="A69" s="66"/>
       <c r="B69" s="51" t="s">
         <v>342</v>
       </c>
@@ -38924,7 +38951,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="65"/>
+      <c r="A70" s="66"/>
       <c r="B70" s="51" t="s">
         <v>640</v>
       </c>
@@ -38944,7 +38971,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="65"/>
+      <c r="A71" s="66"/>
       <c r="B71" s="51" t="s">
         <v>641</v>
       </c>
@@ -38964,7 +38991,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="65"/>
+      <c r="A72" s="66"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -38975,7 +39002,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="65"/>
+      <c r="A73" s="66"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -38986,7 +39013,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="65"/>
+      <c r="A74" s="66"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -38997,7 +39024,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="65"/>
+      <c r="A75" s="66"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -39008,7 +39035,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="65"/>
+      <c r="A76" s="66"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -39019,24 +39046,24 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="65" t="s">
+      <c r="A77" s="66" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
-        <v>642</v>
+        <v>677</v>
       </c>
       <c r="C77" s="51" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D77" s="52">
         <v>0.35416666666666669</v>
       </c>
       <c r="E77" s="52">
-        <v>0.38541666666666669</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="F77" s="52">
         <f t="shared" si="3"/>
-        <v>3.125E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H77" s="49" t="s">
         <v>286</v>
@@ -39046,100 +39073,100 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="65"/>
+      <c r="A78" s="66"/>
       <c r="B78" s="51" t="s">
-        <v>643</v>
+        <v>678</v>
       </c>
       <c r="C78" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D78" s="52">
-        <v>0.38541666666666669</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="E78" s="52">
-        <v>0.4375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="F78" s="52">
         <f t="shared" si="3"/>
-        <v>5.2083333333333315E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H78" s="53" t="s">
         <v>288</v>
       </c>
       <c r="I78" s="52">
         <f>SUMIFS(F77:F92, C77:C92,H78)</f>
-        <v>0.31944444444444436</v>
+        <v>0.36805555555555547</v>
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="65"/>
+      <c r="A79" s="66"/>
       <c r="B79" s="51" t="s">
-        <v>309</v>
+        <v>679</v>
       </c>
       <c r="C79" s="51" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D79" s="52">
-        <v>0.4375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E79" s="52">
-        <v>0.4513888888888889</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="F79" s="52">
         <f t="shared" si="3"/>
-        <v>1.3888888888888895E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H79" s="53" t="s">
         <v>285</v>
       </c>
       <c r="I79" s="52">
         <f>SUMIFS(F77:F92, C77:C92,H79)</f>
-        <v>12.062500000000002</v>
+        <v>4.513888888888884E-2</v>
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="65"/>
+      <c r="A80" s="66"/>
       <c r="B80" s="51" t="s">
-        <v>644</v>
+        <v>580</v>
       </c>
       <c r="C80" s="51" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D80" s="52">
-        <v>0.4513888888888889</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E80" s="52">
-        <v>0.47916666666666669</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="F80" s="52">
         <f t="shared" si="3"/>
-        <v>2.777777777777779E-2</v>
+        <v>1.3888888888888895E-2</v>
       </c>
       <c r="H80" s="53" t="s">
         <v>290</v>
       </c>
       <c r="I80" s="52">
         <f>SUMIFS(F77:F92, C77:C92,H80)</f>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="65"/>
+      <c r="A81" s="66"/>
       <c r="B81" s="51" t="s">
-        <v>645</v>
+        <v>680</v>
       </c>
       <c r="C81" s="51" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D81" s="52">
+        <v>0.4375</v>
+      </c>
+      <c r="E81" s="52">
         <v>0.47916666666666669</v>
-      </c>
-      <c r="E81" s="52">
-        <v>12.520833333333334</v>
       </c>
       <c r="F81" s="52">
         <f t="shared" si="3"/>
-        <v>12.041666666666668</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H81" s="53" t="s">
         <v>293</v>
@@ -39150,167 +39177,183 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="65"/>
+      <c r="A82" s="66"/>
       <c r="B82" s="51" t="s">
-        <v>646</v>
+        <v>681</v>
       </c>
       <c r="C82" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D82" s="52">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E82" s="52">
+        <v>0.53125</v>
+      </c>
+      <c r="F82" s="52">
+        <f>E82-D82</f>
+        <v>5.2083333333333315E-2</v>
+      </c>
+      <c r="H82" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="I82" s="52">
+        <f>SUMIFS(F77:F92, C77:C92,H82)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="66"/>
+      <c r="B83" t="s">
+        <v>599</v>
+      </c>
+      <c r="C83" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="D82" s="52">
+      <c r="D83" s="52">
         <v>0.53125</v>
       </c>
-      <c r="E82" s="52">
+      <c r="E83" s="52">
         <v>0.5625</v>
       </c>
-      <c r="F82" s="52">
+      <c r="F83" s="52">
         <f t="shared" si="3"/>
         <v>3.125E-2</v>
       </c>
-      <c r="H82" s="53" t="s">
+      <c r="H83" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="I83" s="52">
+        <f>SUMIFS(F77:F92, C77:C92,H83)</f>
+        <v>4.5138888888888895E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="66"/>
+      <c r="B84" t="s">
+        <v>682</v>
+      </c>
+      <c r="C84" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D84" s="52">
+        <v>0.5625</v>
+      </c>
+      <c r="E84" s="52">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="F84" s="52">
+        <f t="shared" si="3"/>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="H84" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="I84" s="49">
+        <f>SUM(I78:I83)</f>
+        <v>0.54166666666666652</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="66"/>
+      <c r="B85" s="51" t="s">
+        <v>681</v>
+      </c>
+      <c r="C85" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D85" s="52">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E85" s="52">
+        <v>0.65625</v>
+      </c>
+      <c r="F85" s="52">
+        <f t="shared" si="3"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="I85" s="54"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="66"/>
+      <c r="B86" s="51" t="s">
+        <v>683</v>
+      </c>
+      <c r="C86" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D86" s="52">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E86" s="52">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="F86" s="52">
+        <f t="shared" si="3"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="I86" s="54"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="66"/>
+      <c r="B87" s="51" t="s">
+        <v>394</v>
+      </c>
+      <c r="C87" s="51" t="s">
         <v>296</v>
       </c>
-      <c r="I82" s="52">
-        <f>SUMIFS(F77:F92, C77:C92,H82)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="65"/>
-      <c r="B83" s="51" t="s">
-        <v>647</v>
-      </c>
-      <c r="C83" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="D83" s="52">
-        <v>0.5625</v>
-      </c>
-      <c r="E83" s="52">
-        <v>0.625</v>
-      </c>
-      <c r="F83" s="52">
+      <c r="D87" s="52">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E87" s="52">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F87" s="52">
         <f t="shared" si="3"/>
         <v>6.25E-2</v>
       </c>
-      <c r="H83" s="53" t="s">
-        <v>295</v>
-      </c>
-      <c r="I83" s="52">
-        <f>SUMIFS(F77:F92, C77:C92,H83)</f>
-        <v>5.9027777777777846E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="65"/>
-      <c r="B84" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="C84" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="D84" s="52">
-        <v>0.625</v>
-      </c>
-      <c r="E84" s="52">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="F84" s="52">
-        <f t="shared" si="3"/>
-        <v>1.3888888888888951E-2</v>
-      </c>
-      <c r="H84" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="I84" s="49">
-        <f>SUM(I78:I83)</f>
-        <v>12.440972222222225</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="65"/>
-      <c r="B85" s="51" t="s">
-        <v>648</v>
-      </c>
-      <c r="C85" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="D85" s="52">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="E85" s="52">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F85" s="52">
-        <f t="shared" si="3"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="I85" s="54"/>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="65"/>
-      <c r="B86" s="51" t="s">
-        <v>649</v>
-      </c>
-      <c r="C86" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="D86" s="52">
-        <v>0.71875</v>
-      </c>
-      <c r="E86" s="52">
-        <v>0.73958333333333337</v>
-      </c>
-      <c r="F86" s="52">
-        <f t="shared" si="3"/>
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="I86" s="54"/>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="65"/>
-      <c r="B87" s="51" t="s">
-        <v>650</v>
-      </c>
-      <c r="C87" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="D87" s="52">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E87" s="52">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="F87" s="52">
-        <f t="shared" si="3"/>
-        <v>8.3333333333333259E-2</v>
-      </c>
       <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="65"/>
-      <c r="B88" s="51"/>
-      <c r="C88" s="51"/>
-      <c r="D88" s="52"/>
-      <c r="E88" s="52"/>
+      <c r="A88" s="66"/>
+      <c r="B88" s="51" t="s">
+        <v>684</v>
+      </c>
+      <c r="C88" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D88" s="52">
+        <v>0.78125</v>
+      </c>
+      <c r="E88" s="52">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="F88" s="52">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.291666666666663E-2</v>
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="65"/>
-      <c r="B89" s="51"/>
-      <c r="C89" s="51"/>
-      <c r="D89" s="52"/>
-      <c r="E89" s="52"/>
+      <c r="A89" s="66"/>
+      <c r="B89" s="51" t="s">
+        <v>685</v>
+      </c>
+      <c r="C89" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D89" s="52">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E89" s="52">
+        <v>0.99305555555555547</v>
+      </c>
       <c r="F89" s="52">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.638888888888884E-2</v>
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="65"/>
+      <c r="A90" s="66"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -39321,7 +39364,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="65"/>
+      <c r="A91" s="66"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -39332,7 +39375,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="66"/>
+      <c r="A92" s="69"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -39343,7 +39386,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="69" t="s">
+      <c r="A93" s="65" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -39370,7 +39413,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="65"/>
+      <c r="A94" s="66"/>
       <c r="B94" s="51" t="s">
         <v>651</v>
       </c>
@@ -39396,7 +39439,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="65"/>
+      <c r="A95" s="66"/>
       <c r="B95" s="56" t="s">
         <v>586</v>
       </c>
@@ -39422,7 +39465,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="65"/>
+      <c r="A96" s="66"/>
       <c r="B96" s="51" t="s">
         <v>652</v>
       </c>
@@ -39448,7 +39491,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="65"/>
+      <c r="A97" s="66"/>
       <c r="B97" s="51" t="s">
         <v>653</v>
       </c>
@@ -39474,7 +39517,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="65"/>
+      <c r="A98" s="66"/>
       <c r="B98" s="51" t="s">
         <v>654</v>
       </c>
@@ -39500,7 +39543,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="65"/>
+      <c r="A99" s="66"/>
       <c r="B99" s="51" t="s">
         <v>342</v>
       </c>
@@ -39526,7 +39569,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="65"/>
+      <c r="A100" s="66"/>
       <c r="B100" s="51" t="s">
         <v>655</v>
       </c>
@@ -39552,7 +39595,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="65"/>
+      <c r="A101" s="66"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>288</v>
@@ -39570,7 +39613,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="65"/>
+      <c r="A102" s="66"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>295</v>
@@ -39588,7 +39631,7 @@
       <c r="I102" s="54"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="65"/>
+      <c r="A103" s="66"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>288</v>
@@ -39605,7 +39648,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="65"/>
+      <c r="A104" s="66"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>296</v>
@@ -39622,7 +39665,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="65"/>
+      <c r="A105" s="66"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>295</v>
@@ -39639,7 +39682,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="65"/>
+      <c r="A106" s="66"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51" t="s">
         <v>288</v>
@@ -40001,7 +40044,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="69" t="s">
+      <c r="A123" s="65" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51" t="s">
@@ -40028,7 +40071,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="65"/>
+      <c r="A124" s="66"/>
       <c r="B124" s="51" t="s">
         <v>665</v>
       </c>
@@ -40054,7 +40097,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="65"/>
+      <c r="A125" s="66"/>
       <c r="B125" s="51" t="s">
         <v>342</v>
       </c>
@@ -40080,7 +40123,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="65"/>
+      <c r="A126" s="66"/>
       <c r="B126" s="51" t="s">
         <v>666</v>
       </c>
@@ -40106,7 +40149,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="65"/>
+      <c r="A127" s="66"/>
       <c r="B127" s="58" t="s">
         <v>645</v>
       </c>
@@ -40228,7 +40271,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="65"/>
+      <c r="A132" s="66"/>
       <c r="B132" s="59" t="s">
         <v>669</v>
       </c>
@@ -40247,7 +40290,7 @@
       <c r="I132" s="54"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="65"/>
+      <c r="A133" s="66"/>
       <c r="B133" s="51" t="s">
         <v>670</v>
       </c>
@@ -40265,7 +40308,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="65"/>
+      <c r="A134" s="66"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -40273,7 +40316,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="65"/>
+      <c r="A135" s="66"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -40281,7 +40324,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="65"/>
+      <c r="A136" s="66"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -40301,7 +40344,7 @@
         <v>276</v>
       </c>
       <c r="B138" s="55" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="C138" s="51" t="s">
         <v>288</v>
@@ -40352,7 +40395,7 @@
     <row r="140" spans="1:9">
       <c r="A140" s="68"/>
       <c r="B140" s="55" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="C140" s="51" t="s">
         <v>288</v>
@@ -40404,7 +40447,7 @@
     <row r="142" spans="1:9">
       <c r="A142" s="68"/>
       <c r="B142" s="55" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="C142" s="51" t="s">
         <v>288</v>
@@ -40456,7 +40499,7 @@
     <row r="144" spans="1:9">
       <c r="A144" s="68"/>
       <c r="B144" s="55" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="C144" s="51" t="s">
         <v>290</v>
@@ -40482,7 +40525,7 @@
     <row r="145" spans="1:9">
       <c r="A145" s="68"/>
       <c r="B145" s="58" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="C145" s="51" t="s">
         <v>296</v>
@@ -40508,7 +40551,7 @@
     <row r="146" spans="1:9">
       <c r="A146" s="71"/>
       <c r="B146" s="60" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="C146" s="55" t="s">
         <v>288</v>
@@ -40528,7 +40571,7 @@
     <row r="147" spans="1:9">
       <c r="A147" s="68"/>
       <c r="B147" s="56" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="C147" s="51" t="s">
         <v>288</v>
